--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.04944535823579023</v>
       </c>
       <c r="B2">
-        <v>8.14209711838069</v>
+        <v>8.141770473238664</v>
       </c>
       <c r="C2">
-        <v>0.00024748480447502004</v>
+        <v>0.000247489809918307</v>
       </c>
       <c r="D2">
-        <v>-2.024954652938217e-7</v>
+        <v>-1.2743725425620417e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999525039505349</v>
+        <v>0.0019994979705352783</v>
       </c>
       <c r="F2">
-        <v>4.897071481139251e-5</v>
+        <v>4.8970052090177034e-5</v>
       </c>
       <c r="G2">
-        <v>8.142097266134517</v>
+        <v>8.141770622992954</v>
       </c>
       <c r="H2">
-        <v>0.00024748485167098435</v>
+        <v>0.0002474898569842089</v>
       </c>
       <c r="I2">
-        <v>-2.0246467287296407e-7</v>
+        <v>-1.2740690697249692e-7</v>
       </c>
       <c r="J2">
-        <v>0.00199952505194657</v>
+        <v>0.0019994979831483932</v>
       </c>
       <c r="K2">
-        <v>4.897071511372124e-5</v>
+        <v>4.897005239644219e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.048344326933930856</v>
       </c>
       <c r="B3">
-        <v>8.1261587623774</v>
+        <v>8.125162650862261</v>
       </c>
       <c r="C3">
-        <v>0.00024249183571211922</v>
+        <v>0.0002425067775685909</v>
       </c>
       <c r="D3">
-        <v>-6.046606056448412e-7</v>
+        <v>-3.8033706885579993e-7</v>
       </c>
       <c r="E3">
-        <v>0.00199857620775009</v>
+        <v>0.0019984949074707604</v>
       </c>
       <c r="F3">
-        <v>4.8943510050705605e-5</v>
+        <v>4.894154130007788e-5</v>
       </c>
       <c r="G3">
-        <v>8.126159213123174</v>
+        <v>8.125163108324946</v>
       </c>
       <c r="H3">
-        <v>0.0002424919766116834</v>
+        <v>0.00024250691809962947</v>
       </c>
       <c r="I3">
-        <v>-6.045686536250991e-7</v>
+        <v>-3.8024649819173155e-7</v>
       </c>
       <c r="J3">
-        <v>0.00199857624511486</v>
+        <v>0.0019984949453766584</v>
       </c>
       <c r="K3">
-        <v>4.894351094878718e-5</v>
+        <v>4.8941542210051e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.04725963274912545</v>
       </c>
       <c r="B4">
-        <v>8.110127346012202</v>
+        <v>8.108443882493823</v>
       </c>
       <c r="C4">
-        <v>0.0002375729526859171</v>
+        <v>0.00023759768351894284</v>
       </c>
       <c r="D4">
-        <v>-1.0011190976957892e-6</v>
+        <v>-6.293746061492248e-7</v>
       </c>
       <c r="E4">
-        <v>0.0019976332463363063</v>
+        <v>0.00199749781919974</v>
       </c>
       <c r="F4">
-        <v>4.891686635914926e-5</v>
+        <v>4.891362678369004e-5</v>
       </c>
       <c r="G4">
-        <v>8.110128107998717</v>
+        <v>8.108444656861456</v>
       </c>
       <c r="H4">
-        <v>0.00023757318586141004</v>
+        <v>0.0002375979160597208</v>
       </c>
       <c r="I4">
-        <v>-1.0009668563002646e-6</v>
+        <v>-6.29224739085397e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019976333085819525</v>
+        <v>0.0019974978823923337</v>
       </c>
       <c r="K4">
-        <v>4.8916867838306315e-5</v>
+        <v>4.8913628282686914e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.04619094348530213</v>
       </c>
       <c r="B5">
-        <v>8.094008650685833</v>
+        <v>8.091620618074774</v>
       </c>
       <c r="C5">
-        <v>0.00023272664895004186</v>
+        <v>0.0002327610243209417</v>
       </c>
       <c r="D5">
-        <v>-1.3920024381714769e-6</v>
+        <v>-8.746216951649718e-7</v>
       </c>
       <c r="E5">
-        <v>0.001996695702932449</v>
+        <v>0.0019965062000974498</v>
       </c>
       <c r="F5">
-        <v>4.8890799658571105e-5</v>
+        <v>4.888632762001039e-5</v>
       </c>
       <c r="G5">
-        <v>8.094009732046404</v>
+        <v>8.091621718384618</v>
       </c>
       <c r="H5">
-        <v>0.0002327269729704366</v>
+        <v>0.00023276134747298043</v>
       </c>
       <c r="I5">
-        <v>-1.3917907510370134e-6</v>
+        <v>-8.744134380482293e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996695790067047</v>
+        <v>0.0019965062886400774</v>
       </c>
       <c r="K5">
-        <v>4.8890801703281596e-5</v>
+        <v>4.8886329692246125e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.04513793184802115</v>
       </c>
       <c r="B6">
-        <v>8.077809404493573</v>
+        <v>8.074700468736028</v>
       </c>
       <c r="C6">
-        <v>0.00022795144028609746</v>
+        <v>0.00022799531870990652</v>
       </c>
       <c r="D6">
-        <v>-1.7774406975566006e-6</v>
+        <v>-1.1161488848834362e-6</v>
       </c>
       <c r="E6">
-        <v>0.001995763131332494</v>
+        <v>0.0019955195509624066</v>
       </c>
       <c r="F6">
-        <v>4.886532557618615e-5</v>
+        <v>4.885966261033644e-5</v>
       </c>
       <c r="G6">
-        <v>8.07781081293436</v>
+        <v>8.074701903668595</v>
       </c>
       <c r="H6">
-        <v>0.00022795185382792248</v>
+        <v>0.00022799573113566838</v>
       </c>
       <c r="I6">
-        <v>-1.7771703876527271e-6</v>
+        <v>-1.1158831273931724e-6</v>
       </c>
       <c r="J6">
-        <v>0.001995763243346579</v>
+        <v>0.0019955196648857917</v>
       </c>
       <c r="K6">
-        <v>4.886532816637282e-5</v>
+        <v>4.885966523532328e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.04410027534423844</v>
       </c>
       <c r="B7">
-        <v>8.061537314955288</v>
+        <v>8.057692253553157</v>
       </c>
       <c r="C7">
-        <v>0.00022324586424911068</v>
+        <v>0.00022329910715124831</v>
       </c>
       <c r="D7">
-        <v>-2.157562507773947e-6</v>
+        <v>-1.3540254931022567e-6</v>
       </c>
       <c r="E7">
-        <v>0.001994835093710525</v>
+        <v>0.0019945373819058652</v>
       </c>
       <c r="F7">
-        <v>4.884045931354497e-5</v>
+        <v>4.8833650110528106e-5</v>
       </c>
       <c r="G7">
-        <v>8.061539057780871</v>
+        <v>8.057694031359237</v>
       </c>
       <c r="H7">
-        <v>0.0002232463659900691</v>
+        <v>0.00022329960752754085</v>
       </c>
       <c r="I7">
-        <v>-2.157234381906905e-6</v>
+        <v>-1.3537031112203696e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019948352306540973</v>
+        <v>0.0019945375213081475</v>
       </c>
       <c r="K7">
-        <v>4.8840462431375466e-5</v>
+        <v>4.8833653269966935e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.043077656183539564</v>
       </c>
       <c r="B8">
-        <v>8.04520109016185</v>
+        <v>8.040606031122968</v>
       </c>
       <c r="C8">
-        <v>0.0002186084797196483</v>
+        <v>0.00021867095139347845</v>
       </c>
       <c r="D8">
-        <v>-2.532495038596969e-6</v>
+        <v>-1.5883196605936747e-6</v>
       </c>
       <c r="E8">
-        <v>0.001993911163077109</v>
+        <v>0.0019935592155271337</v>
       </c>
       <c r="F8">
-        <v>4.8816215501833875e-5</v>
+        <v>4.8808307843950544e-5</v>
       </c>
       <c r="G8">
-        <v>8.045203174146764</v>
+        <v>8.040608159533742</v>
       </c>
       <c r="H8">
-        <v>0.00021860906834420026</v>
+        <v>0.0002186715383916311</v>
       </c>
       <c r="I8">
-        <v>-2.5321098768276076e-6</v>
+        <v>-1.5879415103253438e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019939113250364696</v>
+        <v>0.001993559380536954</v>
       </c>
       <c r="K8">
-        <v>4.88162191265027e-5</v>
+        <v>4.880831151640516e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.04206976118081391</v>
       </c>
       <c r="B9">
-        <v>8.028810445971471</v>
+        <v>8.02345311252058</v>
       </c>
       <c r="C9">
-        <v>0.00021403786646246881</v>
+        <v>0.00021410943402773897</v>
       </c>
       <c r="D9">
-        <v>-2.9023639625282545e-6</v>
+        <v>-1.8190984106767023e-6</v>
       </c>
       <c r="E9">
-        <v>0.001992990925907749</v>
+        <v>0.0019925845903347034</v>
       </c>
       <c r="F9">
-        <v>4.879260804507474e-5</v>
+        <v>4.8783652697162984e-5</v>
       </c>
       <c r="G9">
-        <v>8.028812877460338</v>
+        <v>8.023455598659734</v>
       </c>
       <c r="H9">
-        <v>0.00021403854068886437</v>
+        <v>0.00021411010639807703</v>
       </c>
       <c r="I9">
-        <v>-2.9019225314622113e-6</v>
+        <v>-1.8186653364267768e-6</v>
       </c>
       <c r="J9">
-        <v>0.001992991112981736</v>
+        <v>0.001992584781124467</v>
       </c>
       <c r="K9">
-        <v>4.8792612154844064e-5</v>
+        <v>4.878365685985872e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.04107628166033936</v>
       </c>
       <c r="B10">
-        <v>8.012376096990284</v>
+        <v>8.006246052318298</v>
       </c>
       <c r="C10">
-        <v>0.00020953262469157775</v>
+        <v>0.00020961315805372298</v>
       </c>
       <c r="D10">
-        <v>-3.2672934082199735e-6</v>
+        <v>-2.046427714119963e-6</v>
       </c>
       <c r="E10">
-        <v>0.001992073984902013</v>
+        <v>0.001991613064355462</v>
       </c>
       <c r="F10">
-        <v>4.876964995354957e-5</v>
+        <v>4.875970050156722e-5</v>
       </c>
       <c r="G10">
-        <v>8.012378881481109</v>
+        <v>8.006248902420296</v>
       </c>
       <c r="H10">
-        <v>0.0002095333832299632</v>
+        <v>0.0002096139145558229</v>
       </c>
       <c r="I10">
-        <v>-3.266796450588839e-6</v>
+        <v>-2.0459405422959636e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019920741971964596</v>
+        <v>0.0019916132810968144</v>
       </c>
       <c r="K10">
-        <v>4.8769654525626115e-5</v>
+        <v>4.875970513051079e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.040096913361247905</v>
       </c>
       <c r="B11">
-        <v>7.995909729312877</v>
+        <v>7.988998614691278</v>
       </c>
       <c r="C11">
-        <v>0.00020509137464156326</v>
+        <v>0.00020518074645186387</v>
       </c>
       <c r="D11">
-        <v>-3.627405902918144e-6</v>
+        <v>-2.270372559034811e-6</v>
       </c>
       <c r="E11">
-        <v>0.001991159961820171</v>
+        <v>0.0019906442188563664</v>
       </c>
       <c r="F11">
-        <v>4.8747353170583625e-5</v>
+        <v>4.8736465805463377e-5</v>
       </c>
       <c r="G11">
-        <v>7.995912871403982</v>
+        <v>7.989001834034789</v>
       </c>
       <c r="H11">
-        <v>0.0002050922163288397</v>
+        <v>0.00020518158579242607</v>
       </c>
       <c r="I11">
-        <v>-3.6268541427516755e-6</v>
+        <v>-2.2698321013620415e-6</v>
       </c>
       <c r="J11">
-        <v>0.001991160199467322</v>
+        <v>0.0019906444617348966</v>
       </c>
       <c r="K11">
-        <v>4.874735818032218e-5</v>
+        <v>4.87364708744623e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03913135634434338</v>
       </c>
       <c r="B12">
-        <v>7.979423953394862</v>
+        <v>7.971725712225699</v>
       </c>
       <c r="C12">
-        <v>0.00020071275614509882</v>
+        <v>0.00020081084176167832</v>
       </c>
       <c r="D12">
-        <v>-3.9828223048780935e-6</v>
+        <v>-2.490997025136466e-6</v>
       </c>
       <c r="E12">
-        <v>0.001990248500333053</v>
+        <v>0.0019896776620857795</v>
       </c>
       <c r="F12">
-        <v>4.872572839662393e-5</v>
+        <v>4.871396164218577e-5</v>
       </c>
       <c r="G12">
-        <v>7.9794274568502095</v>
+        <v>7.971729305100215</v>
       </c>
       <c r="H12">
-        <v>0.00020071367974651498</v>
+        <v>0.00020081176278603327</v>
       </c>
       <c r="I12">
-        <v>-3.982216448787096e-6</v>
+        <v>-2.490404079279883e-6</v>
       </c>
       <c r="J12">
-        <v>0.001990248763493708</v>
+        <v>0.0019896779313080997</v>
       </c>
       <c r="K12">
-        <v>4.872573381795166e-5</v>
+        <v>4.871396712276029e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.03817931490024269</v>
       </c>
       <c r="B13">
-        <v>7.962932235984032</v>
+        <v>7.95444331588961</v>
       </c>
       <c r="C13">
-        <v>0.00019639542821652494</v>
+        <v>0.00019650210566617685</v>
       </c>
       <c r="D13">
-        <v>-4.333661727185172e-6</v>
+        <v>-2.7083643614335542e-6</v>
       </c>
       <c r="E13">
-        <v>0.001989339268810806</v>
+        <v>0.001988713032926097</v>
       </c>
       <c r="F13">
-        <v>4.870478491526775e-5</v>
+        <v>4.8692199301069315e-5</v>
       </c>
       <c r="G13">
-        <v>7.962936103268403</v>
+        <v>7.954447285051506</v>
       </c>
       <c r="H13">
-        <v>0.00019639643255984612</v>
+        <v>0.0001965031072091159</v>
       </c>
       <c r="I13">
-        <v>-4.333002457860915e-6</v>
+        <v>-2.7077197077514067e-6</v>
       </c>
       <c r="J13">
-        <v>0.00198933955758218</v>
+        <v>0.001988713328611629</v>
       </c>
       <c r="K13">
-        <v>4.870479071614801e-5</v>
+        <v>4.869220515692426e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.0372404974588126</v>
       </c>
       <c r="B14">
-        <v>7.946448810739339</v>
+        <v>7.937168335706274</v>
       </c>
       <c r="C14">
-        <v>0.00019213806864145727</v>
+        <v>0.00019225321858228815</v>
       </c>
       <c r="D14">
-        <v>-4.680041454903932e-6</v>
+        <v>-2.922537066088851e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019884319629677955</v>
+        <v>0.0019877500043362106</v>
       </c>
       <c r="F14">
-        <v>4.868453042643184e-5</v>
+        <v>4.867118810877163e-5</v>
       </c>
       <c r="G14">
-        <v>7.9464530431395435</v>
+        <v>7.9371726823153</v>
       </c>
       <c r="H14">
-        <v>0.00019213915257394442</v>
+        <v>0.0001922542994766205</v>
       </c>
       <c r="I14">
-        <v>-4.6793294416904765e-6</v>
+        <v>-2.9218414730973945e-6</v>
       </c>
       <c r="J14">
-        <v>0.001988432277399516</v>
+        <v>0.001987750326524171</v>
       </c>
       <c r="K14">
-        <v>4.8684536571884435e-5</v>
+        <v>4.867119429729905e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036314616499874046</v>
       </c>
       <c r="B15">
-        <v>7.929988567991055</v>
+        <v>7.919918472940545</v>
       </c>
       <c r="C15">
-        <v>0.00018793937357243747</v>
+        <v>0.00018806287925731462</v>
       </c>
       <c r="D15">
-        <v>-5.022076857918888e-6</v>
+        <v>-3.1335769668728302e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019875263082747853</v>
+        <v>0.0019867882864531413</v>
       </c>
       <c r="F15">
-        <v>4.8664970892123364e-5</v>
+        <v>4.865093522881922e-5</v>
       </c>
       <c r="G15">
-        <v>7.9299931649486775</v>
+        <v>7.919923195895756</v>
       </c>
       <c r="H15">
-        <v>0.00018794053598682206</v>
+        <v>0.00018806403841035828</v>
       </c>
       <c r="I15">
-        <v>-5.021312750218491e-6</v>
+        <v>-3.1328311876528935e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019875266482439814</v>
+        <v>0.0019867886349047826</v>
       </c>
       <c r="K15">
-        <v>4.866497733525994e-5</v>
+        <v>4.8650941689868495e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035401388465146795</v>
       </c>
       <c r="B16">
-        <v>7.913566925001211</v>
+        <v>7.902712045999708</v>
       </c>
       <c r="C16">
-        <v>0.0001837980571307649</v>
+        <v>0.0001839298043715553</v>
       </c>
       <c r="D16">
-        <v>-5.359881302170371e-6</v>
+        <v>-3.341545300332318e-6</v>
       </c>
       <c r="E16">
-        <v>0.001986622062046683</v>
+        <v>0.0019858276292188614</v>
       </c>
       <c r="F16">
-        <v>4.86461104002252e-5</v>
+        <v>4.863144548709189e-5</v>
       </c>
       <c r="G16">
-        <v>7.913571883820536</v>
+        <v>7.902717141275063</v>
       </c>
       <c r="H16">
-        <v>0.0001837992968866155</v>
+        <v>0.0001839310406517984</v>
       </c>
       <c r="I16">
-        <v>-5.359065731297121e-6</v>
+        <v>-3.340750073615578e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019866224271691676</v>
+        <v>0.001985828003311016</v>
       </c>
       <c r="K16">
-        <v>4.8646117074947835e-5</v>
+        <v>4.8631452132260636e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.03450053367140758</v>
       </c>
       <c r="B17">
-        <v>7.897199679016952</v>
+        <v>7.885567793668677</v>
       </c>
       <c r="C17">
-        <v>0.00017971285101484622</v>
+        <v>0.00017985272814743312</v>
       </c>
       <c r="D17">
-        <v>-5.69356606217332e-6</v>
+        <v>-3.546502787516003e-6</v>
       </c>
       <c r="E17">
-        <v>0.0019857190151158564</v>
+        <v>0.0019848678244030987</v>
       </c>
       <c r="F17">
-        <v>4.862795105133751e-5</v>
+        <v>4.861272123032119e-5</v>
       </c>
       <c r="G17">
-        <v>7.897204994133643</v>
+        <v>7.88557325352898</v>
       </c>
       <c r="H17">
-        <v>0.00017971416708572086</v>
+        <v>0.00017985404049606995</v>
       </c>
       <c r="I17">
-        <v>-5.692699642311301e-6</v>
+        <v>-3.5456588374919837e-6</v>
       </c>
       <c r="J17">
-        <v>0.001985719404599116</v>
+        <v>0.0019848682228873565</v>
       </c>
       <c r="K17">
-        <v>4.8627957864928414e-5</v>
+        <v>4.861272793222243e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.03361177622483489</v>
       </c>
       <c r="B18">
-        <v>7.880902846308112</v>
+        <v>7.868504660637396</v>
       </c>
       <c r="C18">
-        <v>0.00017568250411572985</v>
+        <v>0.00017583040196579174</v>
       </c>
       <c r="D18">
-        <v>-6.0232402376625665e-6</v>
+        <v>-3.7485097038315195e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019848169930086704</v>
+        <v>0.0019839087069078347</v>
       </c>
       <c r="F18">
-        <v>4.861049287306293e-5</v>
+        <v>4.8594762223626693e-5</v>
       </c>
       <c r="G18">
-        <v>7.88090850865578</v>
+        <v>7.868510472587899</v>
       </c>
       <c r="H18">
-        <v>0.00017568389545280356</v>
+        <v>0.00017583178939154005</v>
       </c>
       <c r="I18">
-        <v>-6.022323569702827e-6</v>
+        <v>-3.7476177424855817e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019848174054328065</v>
+        <v>0.001983909127667518</v>
       </c>
       <c r="K18">
-        <v>4.861049969430523e-5</v>
+        <v>4.85947688001692e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.03273484393651434</v>
       </c>
       <c r="B19">
-        <v>7.864692491177484</v>
+        <v>7.851541571420613</v>
       </c>
       <c r="C19">
-        <v>0.00017170578214102138</v>
+        <v>0.00017186159399055397</v>
       </c>
       <c r="D19">
-        <v>-6.349010676861003e-6</v>
+        <v>-3.9476259403248945e-6</v>
       </c>
       <c r="E19">
-        <v>0.001983915856557135</v>
+        <v>0.001982950155265067</v>
       </c>
       <c r="F19">
-        <v>4.8593733765247355e-5</v>
+        <v>4.857756559174813e-5</v>
       </c>
       <c r="G19">
-        <v>7.864698487378487</v>
+        <v>7.85154771731338</v>
       </c>
       <c r="H19">
-        <v>0.0001717072477517431</v>
+        <v>0.00017186305544243349</v>
       </c>
       <c r="I19">
-        <v>-6.348044344202163e-6</v>
+        <v>-3.9466866647833434e-6</v>
       </c>
       <c r="J19">
-        <v>0.00198391628969697</v>
+        <v>0.001982950595077046</v>
       </c>
       <c r="K19">
-        <v>4.85937404129705e-5</v>
+        <v>4.857757179206345e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.031869468239078644</v>
       </c>
       <c r="B20">
-        <v>7.848584549561366</v>
+        <v>7.834697199609412</v>
       </c>
       <c r="C20">
-        <v>0.00016778146724918735</v>
+        <v>0.00016794508880374384</v>
       </c>
       <c r="D20">
-        <v>-6.670981908140606e-6</v>
+        <v>-4.1439110533195165e-6</v>
       </c>
       <c r="E20">
-        <v>0.001983015501898492</v>
+        <v>0.001981992091275064</v>
       </c>
       <c r="F20">
-        <v>4.857766947866003e-5</v>
+        <v>4.8561125807045294e-5</v>
       </c>
       <c r="G20">
-        <v>7.848590860993713</v>
+        <v>7.834703654750985</v>
       </c>
       <c r="H20">
-        <v>0.00016778300606581315</v>
+        <v>0.00016794662325275684</v>
       </c>
       <c r="I20">
-        <v>-6.6699664808030025e-6</v>
+        <v>-4.142925147597721e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019830159525107112</v>
+        <v>0.0019819925455551893</v>
       </c>
       <c r="K20">
-        <v>4.857767570801284e-5</v>
+        <v>4.85611312966627e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.031015384104456853</v>
       </c>
       <c r="B21">
-        <v>7.8325946522432055</v>
+        <v>7.817989739840534</v>
       </c>
       <c r="C21">
-        <v>0.00016390835769748103</v>
+        <v>0.00016407968705409742</v>
       </c>
       <c r="D21">
-        <v>-6.989256080650457e-6</v>
+        <v>-4.3374242988378986e-6</v>
       </c>
       <c r="E21">
-        <v>0.001982115859841873</v>
+        <v>0.00198103447877507</v>
       </c>
       <c r="F21">
-        <v>4.856229362847347e-5</v>
+        <v>4.8545434725606455e-5</v>
       </c>
       <c r="G21">
-        <v>7.83260125457108</v>
+        <v>7.817996472366913</v>
       </c>
       <c r="H21">
-        <v>0.00016390996873418893</v>
+        <v>0.0001640812935265067</v>
       </c>
       <c r="I21">
-        <v>-6.988192120886623e-6</v>
+        <v>-4.336392437324066e-6</v>
       </c>
       <c r="J21">
-        <v>0.00198211632348919</v>
+        <v>0.001981034941462872</v>
       </c>
       <c r="K21">
-        <v>4.856229912015936e-5</v>
+        <v>4.854543907636765e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.030172329962707346</v>
       </c>
       <c r="B22">
-        <v>7.816737952842368</v>
+        <v>7.80143668986971</v>
       </c>
       <c r="C22">
-        <v>0.00016008526750850577</v>
+        <v>0.00016026420512426336</v>
       </c>
       <c r="D22">
-        <v>-7.30393291273236e-6</v>
+        <v>-4.528224647445212e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019812168946108074</v>
+        <v>0.0019800773215738364</v>
       </c>
       <c r="F22">
-        <v>4.854759774272835e-5</v>
+        <v>4.853048167099202e-5</v>
       </c>
       <c r="G22">
-        <v>7.816744815507395</v>
+        <v>7.801443660585639</v>
       </c>
       <c r="H22">
-        <v>0.00016008694979807725</v>
+        <v>0.0001602658826813495</v>
       </c>
       <c r="I22">
-        <v>-7.302820972376892e-6</v>
+        <v>-4.527147492298861e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019812173655480653</v>
+        <v>0.0019800777850538334</v>
       </c>
       <c r="K22">
-        <v>4.85476020965958e-5</v>
+        <v>4.8530484358247796e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.02934004762191005</v>
       </c>
       <c r="B23">
-        <v>7.801028965595257</v>
+        <v>7.785054649677338</v>
       </c>
       <c r="C23">
-        <v>0.0001563110261629655</v>
+        <v>0.00015649747482412234</v>
       </c>
       <c r="D23">
-        <v>-7.6151096445348e-6</v>
+        <v>-4.716370773940322e-6</v>
       </c>
       <c r="E23">
-        <v>0.001980318602000553</v>
+        <v>0.0019791206606308127</v>
       </c>
       <c r="F23">
-        <v>4.8533571344778906e-5</v>
+        <v>4.851625356331014e-5</v>
       </c>
       <c r="G23">
-        <v>7.801036051791598</v>
+        <v>7.785061812310817</v>
       </c>
       <c r="H23">
-        <v>0.00015631277880385686</v>
+        <v>0.00015649922248332958</v>
       </c>
       <c r="I23">
-        <v>-7.613950268073109e-6</v>
+        <v>-4.715248978641288e-6</v>
       </c>
       <c r="J23">
-        <v>0.001980319073162999</v>
+        <v>0.001979121115844386</v>
       </c>
       <c r="K23">
-        <v>4.8533574076765825e-5</v>
+        <v>4.8516253968561196e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.028518282189093108</v>
       </c>
       <c r="B24">
-        <v>7.785481417523708</v>
+        <v>7.768859143655407</v>
       </c>
       <c r="C24">
-        <v>0.00015258447832962473</v>
+        <v>0.00015277834312121762</v>
       </c>
       <c r="D24">
-        <v>-7.922880988075175e-6</v>
+        <v>-4.901921014523075e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019794210070172395</v>
+        <v>0.0019781645705959556</v>
       </c>
       <c r="F24">
-        <v>4.8520202067549755e-5</v>
+        <v>4.850273508955951e-5</v>
       </c>
       <c r="G24">
-        <v>7.785488684212331</v>
+        <v>7.768866445810211</v>
       </c>
       <c r="H24">
-        <v>0.00015258630038639788</v>
+        <v>0.0001527801599657458</v>
       </c>
       <c r="I24">
-        <v>-7.921674718887389e-6</v>
+        <v>-4.900755227694869e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019794214701008162</v>
+        <v>0.0019781650071787026</v>
       </c>
       <c r="K24">
-        <v>4.8520202613129734e-5</v>
+        <v>4.850273251210018e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.027706781992169936</v>
       </c>
       <c r="B25">
-        <v>7.770108118919894</v>
+        <v>7.752864470704144</v>
       </c>
       <c r="C25">
-        <v>0.00014890448364815359</v>
+        <v>0.00014910567192392838</v>
       </c>
       <c r="D25">
-        <v>-8.227339063978416e-6</v>
+        <v>-5.084933281491598e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019785241610892515</v>
+        <v>0.001977209155853974</v>
       </c>
       <c r="F25">
-        <v>4.850747579634625e-5</v>
+        <v>4.848990890959131e-5</v>
       </c>
       <c r="G25">
-        <v>7.770115517899513</v>
+        <v>7.752871854861063</v>
       </c>
       <c r="H25">
-        <v>0.00014890637415211055</v>
+        <v>0.00014910755705950298</v>
       </c>
       <c r="I25">
-        <v>-8.226086453056108e-6</v>
+        <v>-5.083724152896767e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019785246066465916</v>
+        <v>0.0019772095625012922</v>
       </c>
       <c r="K25">
-        <v>4.8507473523508946e-5</v>
+        <v>4.848990258763013e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.026905298502862676</v>
       </c>
       <c r="B26">
-        <v>7.754920855223282</v>
+        <v>7.7370835856191285</v>
       </c>
       <c r="C26">
-        <v>0.00014526991658655552</v>
+        <v>0.0001454783379390248</v>
       </c>
       <c r="D26">
-        <v>-8.528573309152141e-6</v>
+        <v>-5.265464922014957e-6</v>
       </c>
       <c r="E26">
-        <v>0.001977628138958712</v>
+        <v>0.00197625454623386</v>
       </c>
       <c r="F26">
-        <v>4.8495376836008926e-5</v>
+        <v>4.847775589075261e-5</v>
       </c>
       <c r="G26">
-        <v>7.754928333850714</v>
+        <v>7.737090991043894</v>
       </c>
       <c r="H26">
-        <v>0.0001452718746314502</v>
+        <v>0.0001454802903767755</v>
       </c>
       <c r="I26">
-        <v>-8.527274917863426e-6</v>
+        <v>-5.264213106917444e-6</v>
       </c>
       <c r="J26">
-        <v>0.001977628556697016</v>
+        <v>0.001976254911048045</v>
       </c>
       <c r="K26">
-        <v>4.8495371055473974e-5</v>
+        <v>4.847774502119902e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.026113586260588472</v>
       </c>
       <c r="B27">
-        <v>7.739930302395864</v>
+        <v>7.721528013604883</v>
       </c>
       <c r="C27">
-        <v>0.00014167966640244914</v>
+        <v>0.00014189523263279428</v>
       </c>
       <c r="D27">
-        <v>-8.826670333667008e-6</v>
+        <v>-5.443572502941442e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019767330353716696</v>
+        <v>0.0019753008925510406</v>
       </c>
       <c r="F27">
-        <v>4.848388809745167e-5</v>
+        <v>4.846625536338543e-5</v>
       </c>
       <c r="G27">
-        <v>7.739937804948347</v>
+        <v>7.721535378139138</v>
       </c>
       <c r="H27">
-        <v>0.00014168169099418947</v>
+        <v>0.00014189725142926745</v>
       </c>
       <c r="I27">
-        <v>-8.825326741060167e-6</v>
+        <v>-5.442278668873855e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019767334144683243</v>
+        <v>0.001975301203518337</v>
       </c>
       <c r="K27">
-        <v>4.848387808399949e-5</v>
+        <v>4.846623913122868e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.025331402797285227</v>
       </c>
       <c r="B28">
-        <v>7.725145966894859</v>
+        <v>7.706207798239916</v>
       </c>
       <c r="C28">
-        <v>0.00013813263724669415</v>
+        <v>0.00013835526233412504</v>
       </c>
       <c r="D28">
-        <v>-9.121713698062432e-6</v>
+        <v>-5.619311497863826e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019758389616900043</v>
+        <v>0.001974348362146693</v>
       </c>
       <c r="F28">
-        <v>4.847299129812985e-5</v>
+        <v>4.84553853889403e-5</v>
       </c>
       <c r="G28">
-        <v>7.725153436074657</v>
+        <v>7.706215060267281</v>
       </c>
       <c r="H28">
-        <v>0.00013813472740571735</v>
+        <v>0.00013835734656301535</v>
       </c>
       <c r="I28">
-        <v>-9.120325514281627e-6</v>
+        <v>-5.6179763371876655e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019758392911382702</v>
+        <v>0.001974348607589538</v>
       </c>
       <c r="K28">
-        <v>4.847297631028011e-5</v>
+        <v>4.845536299350259e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.02455850856315389</v>
       </c>
       <c r="B29">
-        <v>7.710576150372837</v>
+        <v>7.6911314818540415</v>
       </c>
       <c r="C29">
-        <v>0.0001346277484587017</v>
+        <v>0.00013485734852875</v>
       </c>
       <c r="D29">
-        <v>-9.413783574224023e-6</v>
+        <v>-5.792735845781975e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019749460425471273</v>
+        <v>0.0019733971345790025</v>
       </c>
       <c r="F29">
-        <v>4.846266717078313e-5</v>
+        <v>4.844512303254046e-5</v>
       </c>
       <c r="G29">
-        <v>7.710583528996798</v>
+        <v>7.6911385819655536</v>
       </c>
       <c r="H29">
-        <v>0.0001346299031498892</v>
+        <v>0.00013485949716317841</v>
       </c>
       <c r="I29">
-        <v>-9.412351458593637e-6</v>
+        <v>-5.7913600921100616e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019749463115433714</v>
+        <v>0.0019733973036669484</v>
       </c>
       <c r="K29">
-        <v>4.846264647723836e-5</v>
+        <v>4.844509371802218e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.023794666853294445</v>
       </c>
       <c r="B30">
-        <v>7.696227938367891</v>
+        <v>7.676306116146944</v>
       </c>
       <c r="C30">
-        <v>0.0001311639351150705</v>
+        <v>0.0001314004284061234</v>
       </c>
       <c r="D30">
-        <v>-9.70295624400542e-6</v>
+        <v>-5.963897342799022e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019740544126644693</v>
+        <v>0.0019724473976067587</v>
       </c>
       <c r="F30">
-        <v>4.8452895674895454e-5</v>
+        <v>4.84354446323712e-5</v>
       </c>
       <c r="G30">
-        <v>7.69623517049381</v>
+        <v>7.676312999037837</v>
       </c>
       <c r="H30">
-        <v>0.00013116615325191783</v>
+        <v>0.00013140264027433605</v>
       </c>
       <c r="I30">
-        <v>-9.701480927037119e-6</v>
+        <v>-5.96248179185097e-6</v>
       </c>
       <c r="J30">
-        <v>0.001974054610986813</v>
+        <v>0.0019724474806521544</v>
       </c>
       <c r="K30">
-        <v>4.84528685738054e-5</v>
+        <v>4.843540770968858e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.023039643735213187</v>
       </c>
       <c r="B31">
-        <v>7.682107211528142</v>
+        <v>7.661737300028068</v>
       </c>
       <c r="C31">
-        <v>0.00012774014890657275</v>
+        <v>0.00012798345573374856</v>
       </c>
       <c r="D31">
-        <v>-9.989303380142962e-6</v>
+        <v>-6.132844819623187e-6</v>
       </c>
       <c r="E31">
-        <v>0.001973164213938079</v>
+        <v>0.0019714993435891387</v>
       </c>
       <c r="F31">
-        <v>4.844365620569038e-5</v>
+        <v>4.8426326059184894e-5</v>
       </c>
       <c r="G31">
-        <v>7.682114244154281</v>
+        <v>7.661743915492884</v>
       </c>
       <c r="H31">
-        <v>0.00012774242925648116</v>
+        <v>0.00012798572962711497</v>
       </c>
       <c r="I31">
-        <v>-9.987785676695538e-6</v>
+        <v>-6.131390344144788e-6</v>
       </c>
       <c r="J31">
-        <v>0.001973164332236803</v>
+        <v>0.001971499332436111</v>
       </c>
       <c r="K31">
-        <v>4.844362204719377e-5</v>
+        <v>4.8426280927469343e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.022293207977179066</v>
       </c>
       <c r="B32">
-        <v>7.6682186773723355</v>
+        <v>7.647429241108816</v>
       </c>
       <c r="C32">
-        <v>0.0001243553594323712</v>
+        <v>0.0001246054021475932</v>
       </c>
       <c r="D32">
-        <v>-1.027289104413064e-5</v>
+        <v>-6.299623048639829e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019722755928955997</v>
+        <v>0.0019705531664085275</v>
       </c>
       <c r="F32">
-        <v>4.843492779608211e-5</v>
+        <v>4.841774296039631e-5</v>
       </c>
       <c r="G32">
-        <v>7.668225461218613</v>
+        <v>7.647435544955546</v>
       </c>
       <c r="H32">
-        <v>0.00012435770058597223</v>
+        <v>0.00012460773665565056</v>
       </c>
       <c r="I32">
-        <v>-1.0271331892591359e-5</v>
+        <v>-6.298130634497783e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019722756230125755</v>
+        <v>0.0019705530546463507</v>
       </c>
       <c r="K32">
-        <v>4.843488599685707e-5</v>
+        <v>4.841768911930584e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.02155513097740716</v>
       </c>
       <c r="B33">
-        <v>7.654565920229448</v>
+        <v>7.633384837013677</v>
       </c>
       <c r="C33">
-        <v>0.00012100855601383292</v>
+        <v>0.00012126525896067669</v>
       </c>
       <c r="D33">
-        <v>-1.0553778326150265e-5</v>
+        <v>-6.464271315543179e-6</v>
       </c>
       <c r="E33">
-        <v>0.001971388698614412</v>
+        <v>0.001969609059007377</v>
       </c>
       <c r="F33">
-        <v>4.8426689307769094e-5</v>
+        <v>4.840967098456668e-5</v>
       </c>
       <c r="G33">
-        <v>7.654572410621768</v>
+        <v>7.633390791470673</v>
       </c>
       <c r="H33">
-        <v>0.00012101095632953457</v>
+        <v>0.00012126765244861506</v>
       </c>
       <c r="I33">
-        <v>-1.0552178825440404e-5</v>
+        <v>-6.4627420969493285e-6</v>
       </c>
       <c r="J33">
-        <v>0.001971388633744027</v>
+        <v>0.001969608842076486</v>
       </c>
       <c r="K33">
-        <v>4.8426639367598484e-5</v>
+        <v>4.8409608046405784e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.020825186694047617</v>
       </c>
       <c r="B34">
-        <v>7.641151466814118</v>
+        <v>7.619605772661051</v>
       </c>
       <c r="C34">
-        <v>0.0001176987501423206</v>
+        <v>0.00011796203960389588</v>
       </c>
       <c r="D34">
-        <v>-1.0832015543612937e-5</v>
+        <v>-6.626821582710233e-6</v>
       </c>
       <c r="E34">
-        <v>0.001970503681182504</v>
+        <v>0.001968667211615868</v>
       </c>
       <c r="F34">
-        <v>4.8418919608510716e-5</v>
+        <v>4.840208598342325e-5</v>
       </c>
       <c r="G34">
-        <v>7.641157624044165</v>
+        <v>7.6196113465091475</v>
       </c>
       <c r="H34">
-        <v>0.00011770120774554672</v>
+        <v>0.00011796449015990452</v>
       </c>
       <c r="I34">
-        <v>-1.0830376994630642e-5</v>
+        <v>-6.625256881458746e-6</v>
       </c>
       <c r="J34">
-        <v>0.001970503516001887</v>
+        <v>0.0019686668868074933</v>
       </c>
       <c r="K34">
-        <v>4.841886111948203e-5</v>
+        <v>4.840201367700351e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>-0.020103151575958524</v>
       </c>
       <c r="B35">
-        <v>7.627976864858772</v>
+        <v>7.606092629844803</v>
       </c>
       <c r="C35">
-        <v>0.0001144249786845864</v>
+        <v>0.00011469478282237474</v>
       </c>
       <c r="D35">
-        <v>-1.110764190824774e-5</v>
+        <v>-6.78729616552906e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019696206907747643</v>
+        <v>0.001967727810734885</v>
       </c>
       <c r="F35">
-        <v>4.84115977334998e-5</v>
+        <v>4.839496418982939e-5</v>
       </c>
       <c r="G35">
-        <v>7.627982654199477</v>
+        <v>7.606097798010679</v>
       </c>
       <c r="H35">
-        <v>0.00011442749126574572</v>
+        <v>0.00011469728825484696</v>
       </c>
       <c r="I35">
-        <v>-1.1105965869025263e-5</v>
+        <v>-6.785697543637351e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019696204215131304</v>
+        <v>0.0019677273771480704</v>
       </c>
       <c r="K35">
-        <v>4.841153038246898e-5</v>
+        <v>4.839488235684553e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>-0.01938880449424165</v>
       </c>
       <c r="B36">
-        <v>7.615042772304793</v>
+        <v>7.592845005766325</v>
       </c>
       <c r="C36">
-        <v>0.00011118630797441884</v>
+        <v>0.00011146255675563497</v>
       </c>
       <c r="D36">
-        <v>-1.138068256795725e-5</v>
+        <v>-6.945704839709926e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019687398774088445</v>
+        <v>0.0019667910389281292</v>
       </c>
       <c r="F36">
-        <v>4.8404703029571745e-5</v>
+        <v>4.838828237123697e-5</v>
       </c>
       <c r="G36">
-        <v>7.615048163796303</v>
+        <v>7.592849748665558</v>
       </c>
       <c r="H36">
-        <v>0.00011118887280201128</v>
+        <v>0.00011146511430065461</v>
       </c>
       <c r="I36">
-        <v>-1.1378970911858522e-5</v>
+        <v>-6.9440741535494515e-6</v>
       </c>
       <c r="J36">
-        <v>0.001968739501820454</v>
+        <v>0.001966790497325228</v>
       </c>
       <c r="K36">
-        <v>4.8404626603207193e-5</v>
+        <v>4.838819096491553e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>-0.01868192667452002</v>
       </c>
       <c r="B37">
-        <v>7.602349054719155</v>
+        <v>7.579861637566196</v>
       </c>
       <c r="C37">
-        <v>0.00010798183891846372</v>
+        <v>0.00010826446402915639</v>
       </c>
       <c r="D37">
-        <v>-1.1651144929915395e-5</v>
+        <v>-7.102041298215055e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019678613914359665</v>
+        <v>0.001965857075467425</v>
       </c>
       <c r="F37">
-        <v>4.8398215281728845e-5</v>
+        <v>4.8382017959071755e-5</v>
       </c>
       <c r="G37">
-        <v>7.602354022869065</v>
+        <v>7.579865940216656</v>
       </c>
       <c r="H37">
-        <v>0.00010798445281264655</v>
+        <v>0.00010826707043779176</v>
       </c>
       <c r="I37">
-        <v>-1.1649399917436928e-5</v>
+        <v>-7.100380764039992e-6</v>
       </c>
       <c r="J37">
-        <v>0.001967860908704366</v>
+        <v>0.001965856428100003</v>
       </c>
       <c r="K37">
-        <v>4.8398129662825825e-5</v>
+        <v>4.838191703428985e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>-0.01798230162993649</v>
       </c>
       <c r="B38">
-        <v>7.589894888813139</v>
+        <v>7.567140530333838</v>
       </c>
       <c r="C38">
-        <v>0.0001048107132361977</v>
+        <v>0.00010509964797697717</v>
       </c>
       <c r="D38">
-        <v>-1.1919014176634771e-5</v>
+        <v>-7.256278881778766e-6</v>
       </c>
       <c r="E38">
-        <v>0.001966985384812525</v>
+        <v>0.001964926097865567</v>
       </c>
       <c r="F38">
-        <v>4.839211482207497e-5</v>
+        <v>4.8376149155204686e-5</v>
       </c>
       <c r="G38">
-        <v>7.5898994117429295</v>
+        <v>7.567144381126603</v>
       </c>
       <c r="H38">
-        <v>0.00010481337224907799</v>
+        <v>0.00010510229939224697</v>
       </c>
       <c r="I38">
-        <v>-1.1917238528076812e-5</v>
+        <v>-7.254591143639109e-6</v>
       </c>
       <c r="J38">
-        <v>0.001966984795406393</v>
+        <v>0.0019649253482276413</v>
       </c>
       <c r="K38">
-        <v>4.839201998400988e-5</v>
+        <v>4.83760388574128e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>-0.017289715094853</v>
       </c>
       <c r="B39">
-        <v>7.577678870165374</v>
+        <v>7.554679086489119</v>
       </c>
       <c r="C39">
-        <v>0.00010167212093756529</v>
+        <v>0.00010196730009855875</v>
       </c>
       <c r="D39">
-        <v>-1.2184247897921153e-5</v>
+        <v>-7.4083655178966016e-6</v>
       </c>
       <c r="E39">
-        <v>0.001966112013187285</v>
+        <v>0.0019639982843203505</v>
       </c>
       <c r="F39">
-        <v>4.8386382621737164e-5</v>
+        <v>4.837065501714955e-5</v>
       </c>
       <c r="G39">
-        <v>7.577682928720733</v>
+        <v>7.5546824761710925</v>
       </c>
       <c r="H39">
-        <v>0.00010167482041087838</v>
+        <v>0.00010196999180520207</v>
       </c>
       <c r="I39">
-        <v>-1.2182444871321216e-5</v>
+        <v>-7.406653719473149e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019661113186959156</v>
+        <v>0.0019639974368637018</v>
       </c>
       <c r="K39">
-        <v>4.838627862315678e-5</v>
+        <v>4.837053557233797e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>-0.016603954959230047</v>
       </c>
       <c r="B40">
-        <v>7.565699123465471</v>
+        <v>7.542474234801457</v>
       </c>
       <c r="C40">
-        <v>9.856530911580403e-5</v>
+        <v>9.886666882722881e-5</v>
       </c>
       <c r="D40">
-        <v>-1.2446769779494998e-5</v>
+        <v>-7.558217820251444e-6</v>
       </c>
       <c r="E40">
-        <v>0.001965241438825663</v>
+        <v>0.0019630738170808154</v>
       </c>
       <c r="F40">
-        <v>4.838100036669551e-5</v>
+        <v>4.8365515523921344e-5</v>
       </c>
       <c r="G40">
-        <v>7.565702700568442</v>
+        <v>7.542477155408109</v>
       </c>
       <c r="H40">
-        <v>9.856804344439313e-5</v>
+        <v>9.886939529427457e-5</v>
       </c>
       <c r="I40">
-        <v>-1.244494326133224e-5</v>
+        <v>-7.55648568608047e-6</v>
       </c>
       <c r="J40">
-        <v>0.00196524064171141</v>
+        <v>0.00196307287692456</v>
       </c>
       <c r="K40">
-        <v>4.838088734100791e-5</v>
+        <v>4.8365387224090075e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>-0.015924811203666303</v>
       </c>
       <c r="B41">
-        <v>7.553953413778603</v>
+        <v>7.530522557618061</v>
       </c>
       <c r="C41">
-        <v>9.548959209693457e-5</v>
+        <v>9.57970696515634e-5</v>
       </c>
       <c r="D41">
-        <v>-1.2706462314030164e-5</v>
+        <v>-7.705714324144201e-6</v>
       </c>
       <c r="E41">
-        <v>0.0019643738343764904</v>
+        <v>0.0019621528867313207</v>
       </c>
       <c r="F41">
-        <v>4.837595051866072e-5</v>
+        <v>4.8360711624615725e-5</v>
       </c>
       <c r="G41">
-        <v>7.553956493003517</v>
+        <v>7.530525001034211</v>
       </c>
       <c r="H41">
-        <v>9.549235470263918e-5</v>
+        <v>9.579982436466022e-5</v>
       </c>
       <c r="I41">
-        <v>-1.2704616896315326e-5</v>
+        <v>-7.703966231449694e-6</v>
       </c>
       <c r="J41">
-        <v>0.00196437293782049</v>
+        <v>0.001962151859424031</v>
       </c>
       <c r="K41">
-        <v>4.8375828666537086e-5</v>
+        <v>4.8360574817283024e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>-0.015252075835078552</v>
       </c>
       <c r="B42">
-        <v>7.54243925747342</v>
+        <v>7.518820415103736</v>
       </c>
       <c r="C42">
-        <v>9.244436294127423e-5</v>
+        <v>9.275789658508063e-5</v>
       </c>
       <c r="D42">
-        <v>-1.2963158532508015e-5</v>
+        <v>-7.850687863567508e-6</v>
       </c>
       <c r="E42">
-        <v>0.001963509387467278</v>
+        <v>0.0019612356973702865</v>
       </c>
       <c r="F42">
-        <v>4.837121636224746e-5</v>
+        <v>4.8356225271763946e-5</v>
       </c>
       <c r="G42">
-        <v>7.542441822428494</v>
+        <v>7.518822372339535</v>
       </c>
       <c r="H42">
-        <v>9.244714612345484e-5</v>
+        <v>9.276067183863446e-5</v>
       </c>
       <c r="I42">
-        <v>-1.2961299598462597e-5</v>
+        <v>-7.848928917119959e-6</v>
       </c>
       <c r="J42">
-        <v>0.001963508395033324</v>
+        <v>0.0019612345885034197</v>
       </c>
       <c r="K42">
-        <v>4.8371085939399424e-5</v>
+        <v>4.835608034563093e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>-0.01458554282300218</v>
       </c>
       <c r="B43">
-        <v>7.53115403155124</v>
+        <v>7.507364065448877</v>
       </c>
       <c r="C43">
-        <v>8.942910623679691e-5</v>
+        <v>8.974863492423361e-5</v>
       </c>
       <c r="D43">
-        <v>-1.3216632792729525e-5</v>
+        <v>-7.992917131636737e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019626483060911862</v>
+        <v>0.00196032247263794</v>
       </c>
       <c r="F43">
-        <v>4.836678203971038e-5</v>
+        <v>4.835203944141341e-5</v>
       </c>
       <c r="G43">
-        <v>7.531156064936244</v>
+        <v>7.5073655252547535</v>
       </c>
       <c r="H43">
-        <v>8.9431901070087e-5</v>
+        <v>8.97514218278154e-5</v>
       </c>
       <c r="I43">
-        <v>-1.3214766590829185e-5</v>
+        <v>-7.99115323026232e-6</v>
       </c>
       <c r="J43">
-        <v>0.001962647221581287</v>
+        <v>0.0019603212877579513</v>
       </c>
       <c r="K43">
-        <v>4.8366643349886776e-5</v>
+        <v>4.8351886817652954e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.013925008036492728</v>
       </c>
       <c r="B44">
-        <v>7.520095080165108</v>
+        <v>7.496149780085897</v>
       </c>
       <c r="C44">
-        <v>8.644341206053347e-5</v>
+        <v>8.676887517123655e-5</v>
       </c>
       <c r="D44">
-        <v>-1.3466590706713107e-5</v>
+        <v>-8.132117507274293e-6</v>
       </c>
       <c r="E44">
-        <v>0.001961790824722878</v>
+        <v>0.0019594134625212506</v>
       </c>
       <c r="F44">
-        <v>4.836263257446339e-5</v>
+        <v>4.834813814171352e-5</v>
       </c>
       <c r="G44">
-        <v>7.520096562938079</v>
+        <v>7.496150728460004</v>
       </c>
       <c r="H44">
-        <v>8.644620825941876e-5</v>
+        <v>8.677166345412374e-5</v>
       </c>
       <c r="I44">
-        <v>-1.346472441063004e-5</v>
+        <v>-8.130355395273234e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019617896519093523</v>
+        <v>0.001959412206767916</v>
       </c>
       <c r="K44">
-        <v>4.836248595794698e-5</v>
+        <v>4.834797826207821e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>-0.01327026918160919</v>
       </c>
       <c r="B45">
-        <v>7.509259817130022</v>
+        <v>7.4851739529791175</v>
       </c>
       <c r="C45">
-        <v>8.348699091450957e-5</v>
+        <v>8.381832792875333e-5</v>
       </c>
       <c r="D45">
-        <v>-1.3712658338188736e-5</v>
+        <v>-8.267931275969864e-6</v>
       </c>
       <c r="E45">
-        <v>0.00196093721107149</v>
+        <v>0.001958508950834825</v>
       </c>
       <c r="F45">
-        <v>4.8358753884511736e-5</v>
+        <v>4.83445064115799e-5</v>
       </c>
       <c r="G45">
-        <v>7.5092607278736745</v>
+        <v>7.48517437255024</v>
       </c>
       <c r="H45">
-        <v>8.348977691968658e-5</v>
+        <v>8.38211060494543e-5</v>
       </c>
       <c r="I45">
-        <v>-1.3710800098586767e-5</v>
+        <v>-8.2661785860085e-6</v>
       </c>
       <c r="J45">
-        <v>0.001960935953560337</v>
+        <v>0.0019585076288093227</v>
       </c>
       <c r="K45">
-        <v>4.835859971004906e-5</v>
+        <v>4.8344339730207375e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>-0.012621125739459928</v>
       </c>
       <c r="B46">
-        <v>7.498645823210744</v>
+        <v>7.474433203034309</v>
       </c>
       <c r="C46">
-        <v>8.055968936959533e-5</v>
+        <v>8.089683950055474e-5</v>
       </c>
       <c r="D46">
-        <v>-1.3954370853682514e-5</v>
+        <v>-8.399917419367939e-6</v>
       </c>
       <c r="E46">
-        <v>0.0019600877733480983</v>
+        <v>0.0019576092632446838</v>
       </c>
       <c r="F46">
-        <v>4.835513278681053e-5</v>
+        <v>4.83411303107899e-5</v>
       </c>
       <c r="G46">
-        <v>7.498646137655314</v>
+        <v>7.474433072269399</v>
       </c>
       <c r="H46">
-        <v>8.056245207431333e-5</v>
+        <v>8.089959439508808e-5</v>
       </c>
       <c r="I46">
-        <v>-1.3952529821438444e-5</v>
+        <v>-8.398182692133897e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019600864343276153</v>
+        <v>0.0019576078788353496</v>
       </c>
       <c r="K46">
-        <v>4.835497144356709e-5</v>
+        <v>4.834095728633129e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>-0.011977378904792182</v>
       </c>
       <c r="B47">
-        <v>7.488250936944722</v>
+        <v>7.463924468629331</v>
       </c>
       <c r="C47">
-        <v>7.766150607729261e-5</v>
+        <v>7.800440785910418e-5</v>
       </c>
       <c r="D47">
-        <v>-1.4191160863575405e-5</v>
+        <v>-8.527541195260205e-6</v>
       </c>
       <c r="E47">
-        <v>0.0019592428678931475</v>
+        <v>0.001956714775668621</v>
       </c>
       <c r="F47">
-        <v>4.835175699344159e-5</v>
+        <v>4.8337996902648486e-5</v>
       </c>
       <c r="G47">
-        <v>7.4882506278058285</v>
+        <v>7.46392376210238</v>
       </c>
       <c r="H47">
-        <v>7.766423103397297e-5</v>
+        <v>7.800712516889615e-5</v>
       </c>
       <c r="I47">
-        <v>-1.4189347195835635e-5</v>
+        <v>-8.525833876913223e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019592414500379674</v>
+        <v>0.0019567133318978375</v>
       </c>
       <c r="K47">
-        <v>4.835158888275678e-5</v>
+        <v>4.8337817991028396e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>-0.011338831525106424</v>
       </c>
       <c r="B48">
-        <v>7.478073337728473</v>
+        <v>7.453645093214456</v>
       </c>
       <c r="C48">
-        <v>7.479260773947087e-5</v>
+        <v>7.514119857120926e-5</v>
       </c>
       <c r="D48">
-        <v>-1.4422346740538466e-5</v>
+        <v>-8.650163773965249e-6</v>
       </c>
       <c r="E48">
-        <v>0.0019584029069779087</v>
+        <v>0.001955825922853739</v>
       </c>
       <c r="F48">
-        <v>4.834861510038337e-5</v>
+        <v>4.833509423017028e-5</v>
       </c>
       <c r="G48">
-        <v>7.478072374380971</v>
+        <v>7.453643781357841</v>
       </c>
       <c r="H48">
-        <v>7.47952790973962e-5</v>
+        <v>7.514386243419805e-5</v>
       </c>
       <c r="I48">
-        <v>-1.4420571575740959e-5</v>
+        <v>-8.6484941881915e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019584014123803107</v>
+        <v>0.0019558244218326696</v>
       </c>
       <c r="K48">
-        <v>4.8348440630579074e-5</v>
+        <v>4.8334909880367266e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>-0.010705288040276841</v>
       </c>
       <c r="B49">
-        <v>7.468111619880867</v>
+        <v>7.443592900887363</v>
       </c>
       <c r="C49">
-        <v>7.195334456317605e-5</v>
+        <v>7.230756021016344e-5</v>
       </c>
       <c r="D49">
-        <v>-1.4647121249219583e-5</v>
+        <v>-8.767032236607312e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019575683665644895</v>
+        <v>0.0019549432069003786</v>
       </c>
       <c r="F49">
-        <v>4.834569656954953e-5</v>
+        <v>4.8332411286559007e-5</v>
       </c>
       <c r="G49">
-        <v>7.468109968764341</v>
+        <v>7.443590950315754</v>
       </c>
       <c r="H49">
-        <v>7.195594524071117e-5</v>
+        <v>7.231015361930184e-5</v>
       </c>
       <c r="I49">
-        <v>-1.4645396640974984e-5</v>
+        <v>-8.765411522081248e-6</v>
       </c>
       <c r="J49">
-        <v>0.001957566796558699</v>
+        <v>0.0019549416497084715</v>
       </c>
       <c r="K49">
-        <v>4.834551615036687e-5</v>
+        <v>4.833222193615421e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>-0.010076554422659534</v>
       </c>
       <c r="B50">
-        <v>7.45836485640836</v>
+        <v>7.433766260828862</v>
       </c>
       <c r="C50">
-        <v>6.914426467564005e-5</v>
+        <v>6.950403873094592e-5</v>
       </c>
       <c r="D50">
-        <v>-1.4864540860309593e-5</v>
+        <v>-8.877270273045316e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019567397937829724</v>
+        <v>0.0019540672054737603</v>
       </c>
       <c r="F50">
-        <v>4.834299170469312e-5</v>
+        <v>4.832993798063564e-5</v>
       </c>
       <c r="G50">
-        <v>7.458362481319688</v>
+        <v>7.433763634914342</v>
       </c>
       <c r="H50">
-        <v>6.914677643495002e-5</v>
+        <v>6.950654346103566e-5</v>
       </c>
       <c r="I50">
-        <v>-1.4862879688953323e-5</v>
+        <v>-8.875710294158479e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019567381489724455</v>
+        <v>0.001954065592183635</v>
       </c>
       <c r="K50">
-        <v>4.834280574327144e-5</v>
+        <v>4.8329744053178415e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>-0.009452438117670027</v>
       </c>
       <c r="B51">
-        <v>7.448832651246342</v>
+        <v>7.424164139503467</v>
       </c>
       <c r="C51">
-        <v>6.636612693708058e-5</v>
+        <v>6.673139024761567e-5</v>
       </c>
       <c r="D51">
-        <v>-1.5073516151553804e-5</v>
+        <v>-8.979869939881977e-6</v>
       </c>
       <c r="E51">
-        <v>0.0019559178138635214</v>
+        <v>0.001953198579422095</v>
       </c>
       <c r="F51">
-        <v>4.834049162172201e-5</v>
+        <v>4.832766509777332e-5</v>
       </c>
       <c r="G51">
-        <v>7.448829513749258</v>
+        <v>7.424160798691896</v>
       </c>
       <c r="H51">
-        <v>6.636853052828032e-5</v>
+        <v>6.67337871001034e-5</v>
       </c>
       <c r="I51">
-        <v>-1.5071931993128835e-5</v>
+        <v>-8.978383161805132e-6</v>
       </c>
       <c r="J51">
-        <v>0.001955916094139863</v>
+        <v>0.0019531969091841515</v>
       </c>
       <c r="K51">
-        <v>4.834030051843041e-5</v>
+        <v>4.832746699988827e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>-0.008832747984811932</v>
       </c>
       <c r="B52">
-        <v>7.43951517884445</v>
+        <v>7.414786139593761</v>
       </c>
       <c r="C52">
-        <v>6.361991156891176e-5</v>
+        <v>6.399059163212007e-5</v>
       </c>
       <c r="D52">
-        <v>-1.5272803715603065e-5</v>
+        <v>-9.073684850155738e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019551031362473183</v>
+        <v>0.0019523380795043543</v>
       </c>
       <c r="F52">
-        <v>4.833818821394316e-5</v>
+        <v>4.832558425683691e-5</v>
       </c>
       <c r="G52">
-        <v>7.439511239316571</v>
+        <v>7.414782042565394</v>
       </c>
       <c r="H52">
-        <v>6.362218702392852e-5</v>
+        <v>6.399286074517364e-5</v>
       </c>
       <c r="I52">
-        <v>-1.527131067339503e-5</v>
+        <v>-9.072284180038837e-6</v>
       </c>
       <c r="J52">
-        <v>0.001955101340772362</v>
+        <v>0.0019523363505582426</v>
       </c>
       <c r="K52">
-        <v>4.833799236022078e-5</v>
+        <v>4.8325382377397394e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>-0.00821729423913866</v>
       </c>
       <c r="B53">
-        <v>7.430413210106603</v>
+        <v>7.405632524753641</v>
       </c>
       <c r="C53">
-        <v>6.090682801509479e-5</v>
+        <v>6.128284835384585e-5</v>
       </c>
       <c r="D53">
-        <v>-1.5460999997894157e-5</v>
+        <v>-9.15742516444606e-6</v>
       </c>
       <c r="E53">
-        <v>0.0019542965595943933</v>
+        <v>0.0019514865519239578</v>
       </c>
       <c r="F53">
-        <v>4.8336074112750306e-5</v>
+        <v>4.832368786359716e-5</v>
       </c>
       <c r="G53">
-        <v>7.430408428582527</v>
+        <v>7.405627629378916</v>
       </c>
       <c r="H53">
-        <v>6.090895500376809e-5</v>
+        <v>6.128496940989515e-5</v>
       </c>
       <c r="I53">
-        <v>-1.5459612499833993e-5</v>
+        <v>-9.156123764124082e-6</v>
       </c>
       <c r="J53">
-        <v>0.001954294686888785</v>
+        <v>0.0019514847617236168</v>
       </c>
       <c r="K53">
-        <v>4.8335873888444034e-5</v>
+        <v>4.8323482572413485e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>-0.007605888393130311</v>
       </c>
       <c r="B54">
-        <v>7.421528123888689</v>
+        <v>7.396704229435344</v>
       </c>
       <c r="C54">
-        <v>5.8228319476233275e-5</v>
+        <v>5.8609599001058465e-5</v>
       </c>
       <c r="D54">
-        <v>-1.5636537475637978e-5</v>
+        <v>-9.22965473721326e-6</v>
       </c>
       <c r="E54">
-        <v>0.001953498975409897</v>
+        <v>0.0019506449423675922</v>
       </c>
       <c r="F54">
-        <v>4.833414264428279e-5</v>
+        <v>4.8321969061084985e-5</v>
       </c>
       <c r="G54">
-        <v>7.421522460918561</v>
+        <v>7.396698493721658</v>
       </c>
       <c r="H54">
-        <v>5.82302774748426e-5</v>
+        <v>5.861155157391185e-5</v>
       </c>
       <c r="I54">
-        <v>-1.5635270037019725e-5</v>
+        <v>-9.228465800330646e-6</v>
       </c>
       <c r="J54">
-        <v>0.001953497023465851</v>
+        <v>0.0019506430877236436</v>
       </c>
       <c r="K54">
-        <v>4.83339384168755e-5</v>
+        <v>4.832176070935158e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>-0.006998343198967898</v>
       </c>
       <c r="B55">
-        <v>7.412861903495831</v>
+        <v>7.388002853265611</v>
       </c>
       <c r="C55">
-        <v>5.5586063600464846e-5</v>
+        <v>5.597251596969688e-5</v>
       </c>
       <c r="D55">
-        <v>-1.5797683560693046e-5</v>
+        <v>-9.288790741854011e-6</v>
       </c>
       <c r="E55">
-        <v>0.0019527113700239722</v>
+        <v>0.0019498142982621604</v>
       </c>
       <c r="F55">
-        <v>4.8332387782611866e-5</v>
+        <v>4.83204216773668e-5</v>
       </c>
       <c r="G55">
-        <v>7.412855321439544</v>
+        <v>7.387996237094986</v>
       </c>
       <c r="H55">
-        <v>5.558783243681406e-5</v>
+        <v>5.5974279920615675e-5</v>
       </c>
       <c r="I55">
-        <v>-1.5796550513107498e-5</v>
+        <v>-9.287727250663773e-6</v>
       </c>
       <c r="J55">
-        <v>0.001952709336426168</v>
+        <v>0.0019498123754182316</v>
       </c>
       <c r="K55">
-        <v>4.833217990527477e-5</v>
+        <v>4.8320210597098e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>-0.006394472591187243</v>
       </c>
       <c r="B56">
-        <v>7.4044171179004</v>
+        <v>7.379530639712003</v>
       </c>
       <c r="C56">
-        <v>5.298196888202318e-5</v>
+        <v>5.3373501871633504e-5</v>
       </c>
       <c r="D56">
-        <v>-1.594254256451647e-5</v>
+        <v>-9.333106053425565e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019519348246844531</v>
+        <v>0.0019489957689880458</v>
       </c>
       <c r="F56">
-        <v>4.833080410004412e-5</v>
+        <v>4.831904017124764e-5</v>
       </c>
       <c r="G56">
-        <v>7.4044095822904685</v>
+        <v>7.3795231057731305</v>
       </c>
       <c r="H56">
-        <v>5.298352907652605e-5</v>
+        <v>5.337505770470595e-5</v>
       </c>
       <c r="I56">
-        <v>-1.5941557772096778e-5</v>
+        <v>-9.332180512216153e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019519327067718756</v>
+        <v>0.0019489937739299347</v>
       </c>
       <c r="K56">
-        <v>4.833059291268461e-5</v>
+        <v>4.831882667708168e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>-0.005794091629694964</v>
       </c>
       <c r="B57">
-        <v>7.3961968877127635</v>
+        <v>7.371290439082526</v>
       </c>
       <c r="C57">
-        <v>5.041816640635122e-5</v>
+        <v>5.081468130227082e-5</v>
       </c>
       <c r="D57">
-        <v>-1.6069061003121193e-5</v>
+        <v>-9.36073461018772e-6</v>
       </c>
       <c r="E57">
-        <v>0.0019511705135562482</v>
+        <v>0.001948190603823538</v>
       </c>
       <c r="F57">
-        <v>4.8329386715166885e-5</v>
+        <v>4.831781957643944e-5</v>
       </c>
       <c r="G57">
-        <v>7.396188368406867</v>
+        <v>7.37128195445215</v>
       </c>
       <c r="H57">
-        <v>5.0419499544835544e-5</v>
+        <v>5.0816010708983636e-5</v>
       </c>
       <c r="I57">
-        <v>-1.606823754770156e-5</v>
+        <v>-9.359958764748216e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019511683086029497</v>
+        <v>0.0019481885324155487</v>
       </c>
       <c r="K57">
-        <v>4.832917254312842e-5</v>
+        <v>4.831760396553806e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>-0.0051970164431291155</v>
       </c>
       <c r="B58">
-        <v>7.388204836268355</v>
+        <v>7.363285656229079</v>
       </c>
       <c r="C58">
-        <v>4.789699668767499e-5</v>
+        <v>4.829838771408313e-5</v>
       </c>
       <c r="D58">
-        <v>-1.6175036445322692e-5</v>
+        <v>-9.369679905537452e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019504196994658378</v>
+        <v>0.001947400147442907</v>
       </c>
       <c r="F58">
-        <v>4.8328131239290305e-5</v>
+        <v>4.831675544476066e-5</v>
       </c>
       <c r="G58">
-        <v>7.388195308789985</v>
+        <v>7.363276193629579</v>
       </c>
       <c r="H58">
-        <v>4.789808597052208e-5</v>
+        <v>4.829947397331377e-5</v>
       </c>
       <c r="I58">
-        <v>-1.6174386307139528e-5</v>
+        <v>-9.369064456376156e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019504174048719043</v>
+        <v>0.0019473979956867648</v>
       </c>
       <c r="K58">
-        <v>4.832791439358756e-5</v>
+        <v>4.8316537997843076e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>-0.004603064172547168</v>
       </c>
       <c r="B59">
-        <v>7.380445026534605</v>
+        <v>7.3555201836658775</v>
       </c>
       <c r="C59">
-        <v>4.542099146795896e-5</v>
+        <v>4.582714526538377e-5</v>
       </c>
       <c r="D59">
-        <v>-1.6258130020484856e-5</v>
+        <v>-9.357826682642534e-6</v>
       </c>
       <c r="E59">
-        <v>0.00194968372728306</v>
+        <v>0.001946625832848426</v>
       </c>
       <c r="F59">
-        <v>4.832703372196035e-5</v>
+        <v>4.83158437889548e-5</v>
       </c>
       <c r="G59">
-        <v>7.380434473321102</v>
+        <v>7.355509722786471</v>
       </c>
       <c r="H59">
-        <v>4.542182218122696e-5</v>
+        <v>4.582797364824941e-5</v>
       </c>
       <c r="I59">
-        <v>-1.625766376060506e-5</v>
+        <v>-9.357380995605421e-6</v>
       </c>
       <c r="J59">
-        <v>0.001949681340770875</v>
+        <v>0.0019466235971072844</v>
       </c>
       <c r="K59">
-        <v>4.832681450057571e-5</v>
+        <v>4.8315624772331303e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>-0.004012052915424027</v>
       </c>
       <c r="B60">
-        <v>7.372921884877234</v>
+        <v>7.3479983211542095</v>
       </c>
       <c r="C60">
-        <v>4.29928504813381e-5</v>
+        <v>4.3403645648401826e-5</v>
       </c>
       <c r="D60">
-        <v>-1.6315882605016462e-5</v>
+        <v>-9.322955817655143e-6</v>
       </c>
       <c r="E60">
-        <v>0.0019489640148937666</v>
+        <v>0.0019458691716831198</v>
       </c>
       <c r="F60">
-        <v>4.832609059622362e-5</v>
+        <v>4.8315081025725396e-5</v>
       </c>
       <c r="G60">
-        <v>7.372910296269153</v>
+        <v>7.347986849859767</v>
       </c>
       <c r="H60">
-        <v>4.29934103036609e-5</v>
+        <v>4.340420389060624e-5</v>
       </c>
       <c r="I60">
-        <v>-1.6315609049111643e-5</v>
+        <v>-9.322687646847836e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019489615347028722</v>
+        <v>0.0019458668488635037</v>
       </c>
       <c r="K60">
-        <v>4.83258692836459e-5</v>
+        <v>4.8314860691631015e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>-0.003423801669942956</v>
       </c>
       <c r="B61">
-        <v>7.365640113044747</v>
+        <v>7.340724683132264</v>
       </c>
       <c r="C61">
-        <v>4.061541333107384e-5</v>
+        <v>4.1030720043311676e-5</v>
       </c>
       <c r="D61">
-        <v>-1.6345734603046216e-5</v>
+        <v>-9.262762286675453e-6</v>
       </c>
       <c r="E61">
-        <v>0.001948262041784394</v>
+        <v>0.001945131741944329</v>
       </c>
       <c r="F61">
-        <v>4.832529862431567e-5</v>
+        <v>4.831446391958117e-5</v>
       </c>
       <c r="G61">
-        <v>7.365627488737953</v>
+        <v>7.340712198675942</v>
       </c>
       <c r="H61">
-        <v>4.061569277335888e-5</v>
+        <v>4.103099871532266e-5</v>
       </c>
       <c r="I61">
-        <v>-1.6345660544492656e-5</v>
+        <v>-9.262677510167135e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019482594668361448</v>
+        <v>0.001945129329759575</v>
       </c>
       <c r="K61">
-        <v>4.832507549200589e-5</v>
+        <v>4.8314242507109275e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>-0.00283813027956235</v>
       </c>
       <c r="B62">
-        <v>7.358604590021618</v>
+        <v>7.333704095670762</v>
       </c>
       <c r="C62">
-        <v>3.829162677197678e-5</v>
+        <v>3.87113064903532e-5</v>
       </c>
       <c r="D62">
-        <v>-1.6345049129423688e-5</v>
+        <v>-9.174876019756422e-6</v>
       </c>
       <c r="E62">
-        <v>0.001947579335330798</v>
+        <v>0.0019444151731960652</v>
       </c>
       <c r="F62">
-        <v>4.832465484441873e-5</v>
+        <v>4.831398952806626e-5</v>
       </c>
       <c r="G62">
-        <v>7.358590939396657</v>
+        <v>7.333690605378809</v>
       </c>
       <c r="H62">
-        <v>3.829161965077963e-5</v>
+        <v>3.8711299331236565e-5</v>
       </c>
       <c r="I62">
-        <v>-1.6345179059726844e-5</v>
+        <v>-9.174978401998495e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019475766655118</v>
+        <v>0.001944412670402322</v>
       </c>
       <c r="K62">
-        <v>4.832443015256078e-5</v>
+        <v>4.8313767265496434e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>-0.002254859377841395</v>
       </c>
       <c r="B63">
-        <v>7.351820265654363</v>
+        <v>7.326941484901148</v>
       </c>
       <c r="C63">
-        <v>3.60245078350636e-5</v>
+        <v>3.644841311560979e-5</v>
       </c>
       <c r="D63">
-        <v>-1.631113829608577e-5</v>
+        <v>-9.056885355369568e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019469174549565365</v>
+        <v>0.0019437211294580032</v>
       </c>
       <c r="F63">
-        <v>4.832415651909447e-5</v>
+        <v>4.831365514891653e-5</v>
       </c>
       <c r="G63">
-        <v>7.3518056089619055</v>
+        <v>7.326927007249749</v>
       </c>
       <c r="H63">
-        <v>3.602421147048853e-5</v>
+        <v>3.644811753418875e-5</v>
       </c>
       <c r="I63">
-        <v>-1.6311474168054298e-5</v>
+        <v>-9.057176343135688e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019469146911886774</v>
+        <v>0.0019437185359742354</v>
       </c>
       <c r="K63">
-        <v>4.832393051627359e-5</v>
+        <v>4.8313432253795355e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>-0.0016738103335076845</v>
       </c>
       <c r="B64">
-        <v>7.3452920481628</v>
+        <v>7.320441759084259</v>
       </c>
       <c r="C64">
-        <v>3.381710336792782e-5</v>
+        <v>3.4245077782348916e-5</v>
       </c>
       <c r="D64">
-        <v>-1.6241292199643844e-5</v>
+        <v>-8.906362724041965e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019462779743976517</v>
+        <v>0.0019430512900279534</v>
       </c>
       <c r="F64">
-        <v>4.8323801085942086e-5</v>
+        <v>4.831345826963618e-5</v>
       </c>
       <c r="G64">
-        <v>7.345276416692517</v>
+        <v>7.320426323906297</v>
       </c>
       <c r="H64">
-        <v>3.381651893887332e-5</v>
+        <v>3.4244494926609786e-5</v>
       </c>
       <c r="I64">
-        <v>-1.6241833238198812e-5</v>
+        <v>-8.906841285397729e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019462751188312275</v>
+        <v>0.0019430486071462636</v>
       </c>
       <c r="K64">
-        <v>4.832357401054787e-5</v>
+        <v>4.831323495048602e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>-0.0010948051957500107</v>
       </c>
       <c r="B65">
-        <v>7.339024687805302</v>
+        <v>7.314209686656851</v>
       </c>
       <c r="C65">
-        <v>3.167244668906433e-5</v>
+        <v>3.2104324864245845e-5</v>
       </c>
       <c r="D65">
-        <v>-1.6132810112472108e-5</v>
+        <v>-8.720892113288158e-6</v>
       </c>
       <c r="E65">
-        <v>0.001945662462379122</v>
+        <v>0.0019424073285699136</v>
       </c>
       <c r="F65">
-        <v>4.832358611096693e-5</v>
+        <v>4.831339651993149e-5</v>
       </c>
       <c r="G65">
-        <v>7.339008124115323</v>
+        <v>7.314193335663686</v>
       </c>
       <c r="H65">
-        <v>3.167157936821551e-5</v>
+        <v>3.210345983884371e-5</v>
       </c>
       <c r="I65">
-        <v>-1.6133552669884327e-5</v>
+        <v>-8.721554612443698e-6</v>
       </c>
       <c r="J65">
-        <v>0.0019456595185250447</v>
+        <v>0.001942404559033086</v>
       </c>
       <c r="K65">
-        <v>4.832335819100498e-5</v>
+        <v>4.83131729764829e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>-0.0005176666397195308</v>
       </c>
       <c r="B66">
-        <v>7.333022659068044</v>
+        <v>7.3082497727066595</v>
       </c>
       <c r="C66">
-        <v>2.9593512162735182e-5</v>
+        <v>3.0029119944862788e-5</v>
       </c>
       <c r="D66">
-        <v>-1.598303329513147e-5</v>
+        <v>-8.49809780018023e-6</v>
       </c>
       <c r="E66">
-        <v>0.0019450724620701102</v>
+        <v>0.0019417908908682929</v>
       </c>
       <c r="F66">
-        <v>4.832350924507263e-5</v>
+        <v>4.831346762737319e-5</v>
       </c>
       <c r="G66">
-        <v>7.333005217308907</v>
+        <v>7.308232559295323</v>
       </c>
       <c r="H66">
-        <v>2.9592371240299048e-5</v>
+        <v>3.002798200996219e-5</v>
       </c>
       <c r="I66">
-        <v>-1.5983970770503703e-5</v>
+        <v>-8.498937937074935e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019450694348075981</v>
+        <v>0.0019417880390180204</v>
       </c>
       <c r="K66">
-        <v>4.832328069986365e-5</v>
+        <v>4.831324405219372e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>5.7782087777367985e-5</v>
       </c>
       <c r="B67">
-        <v>7.327290043792812</v>
+        <v>7.302566136381228</v>
       </c>
       <c r="C67">
-        <v>2.7583168588972437e-5</v>
+        <v>2.8022323335520698e-5</v>
       </c>
       <c r="D67">
-        <v>-1.578937877783696e-5</v>
+        <v>-8.235673785231507e-6</v>
       </c>
       <c r="E67">
-        <v>0.0019445094697382462</v>
+        <v>0.0019412035717078719</v>
       </c>
       <c r="F67">
-        <v>4.832356818401283e-5</v>
+        <v>4.831366937659006e-5</v>
       </c>
       <c r="G67">
-        <v>7.327271789124251</v>
+        <v>7.302548125570892</v>
       </c>
       <c r="H67">
-        <v>2.7581767440603456e-5</v>
+        <v>2.8020925940969006e-5</v>
       </c>
       <c r="I67">
-        <v>-1.5790501591138788e-5</v>
+        <v>-8.236682576023402e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019445063654609</v>
+        <v>0.0019412006435059039</v>
       </c>
       <c r="K67">
-        <v>4.832333922366936e-5</v>
+        <v>4.831344595496722e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0006317172224110899</v>
       </c>
       <c r="B68">
-        <v>7.321830417645866</v>
+        <v>7.2971623917315975</v>
       </c>
       <c r="C68">
-        <v>2.564413236774883e-5</v>
+        <v>2.6086643367960267e-5</v>
       </c>
       <c r="D68">
-        <v>-1.5549373405620304e-5</v>
+        <v>-7.93141332354574e-6</v>
       </c>
       <c r="E68">
-        <v>0.001943974913065308</v>
+        <v>0.0019406468913858825</v>
       </c>
       <c r="F68">
-        <v>4.832376063206309e-5</v>
+        <v>4.831399957222683e-5</v>
       </c>
       <c r="G68">
-        <v>7.321811426078272</v>
+        <v>7.297143659632299</v>
       </c>
       <c r="H68">
-        <v>2.564248852390204e-5</v>
+        <v>2.6085003965858154e-5</v>
       </c>
       <c r="I68">
-        <v>-1.5550669041132545e-5</v>
+        <v>-7.93257915026436e-6</v>
       </c>
       <c r="J68">
-        <v>0.0019439717396131909</v>
+        <v>0.0019406438944426954</v>
       </c>
       <c r="K68">
-        <v>4.832353145867938e-5</v>
+        <v>4.8313776483263914e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0012043145363023929</v>
       </c>
       <c r="B69">
-        <v>7.31664674226413</v>
+        <v>7.292041534430083</v>
       </c>
       <c r="C69">
-        <v>2.3778921434745326e-5</v>
+        <v>2.422459045648027e-5</v>
       </c>
       <c r="D69">
-        <v>-1.526068740806297e-5</v>
+        <v>-7.5832379277556005e-6</v>
       </c>
       <c r="E69">
-        <v>0.0019434701296158566</v>
+        <v>0.0019401222723951135</v>
       </c>
       <c r="F69">
-        <v>4.832408426960057e-5</v>
+        <v>4.831445600583261e-5</v>
       </c>
       <c r="G69">
-        <v>7.316627099666358</v>
+        <v>7.292022167469747</v>
       </c>
       <c r="H69">
-        <v>2.37770562956819e-5</v>
+        <v>2.422273035528707e-5</v>
       </c>
       <c r="I69">
-        <v>-1.526214051951561e-5</v>
+        <v>-7.584546635495087e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019434668963024264</v>
+        <v>0.0019401192159308283</v>
       </c>
       <c r="K69">
-        <v>4.8323855077162096e-5</v>
+        <v>4.8314233422517255e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.0017757493918539903</v>
       </c>
       <c r="B70">
-        <v>7.311741265297288</v>
+        <v>7.287205836685089</v>
       </c>
       <c r="C70">
-        <v>2.1989810976922524e-5</v>
+        <v>2.243843293499049e-5</v>
       </c>
       <c r="D70">
-        <v>-1.4921166741546934e-5</v>
+        <v>-7.1892252129196085e-6</v>
       </c>
       <c r="E70">
-        <v>0.0019429963459651053</v>
+        <v>0.0019396310168334006</v>
       </c>
       <c r="F70">
-        <v>4.8324536724712634e-5</v>
+        <v>4.831503642678446e-5</v>
       </c>
       <c r="G70">
-        <v>7.311721066584777</v>
+        <v>7.287185930655822</v>
       </c>
       <c r="H70">
-        <v>2.1987749683980816e-5</v>
+        <v>2.243637717579294e-5</v>
       </c>
       <c r="I70">
-        <v>-1.4922759333365414e-5</v>
+        <v>-7.190660279107706e-6</v>
       </c>
       <c r="J70">
-        <v>0.0019429930634951777</v>
+        <v>0.0019396279116201739</v>
       </c>
       <c r="K70">
-        <v>4.83243076995869e-5</v>
+        <v>4.831481451642174e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.0023461967954566294</v>
       </c>
       <c r="B71">
-        <v>7.307115430400131</v>
+        <v>7.282656752509155</v>
       </c>
       <c r="C71">
-        <v>2.027879191856014e-5</v>
+        <v>2.073015565692163e-5</v>
       </c>
       <c r="D71">
-        <v>-1.4528863460777004e-5</v>
+        <v>-6.747634966531299e-6</v>
       </c>
       <c r="E71">
-        <v>0.0019425546579916065</v>
+        <v>0.0019391742850941034</v>
       </c>
       <c r="F71">
-        <v>4.832511554889711e-5</v>
+        <v>4.83157385172968e-5</v>
       </c>
       <c r="G71">
-        <v>7.30709477847957</v>
+        <v>7.282636411488493</v>
       </c>
       <c r="H71">
-        <v>2.0276562895255513e-5</v>
+        <v>2.0727932614107455e-5</v>
       </c>
       <c r="I71">
-        <v>-1.4530575111480689e-5</v>
+        <v>-6.749177703947363e-6</v>
       </c>
       <c r="J71">
-        <v>0.001942551338299337</v>
+        <v>0.0019391711432808422</v>
       </c>
       <c r="K71">
-        <v>4.832488687041405e-5</v>
+        <v>4.831551744203455e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.002915831451086183</v>
       </c>
       <c r="B72">
-        <v>7.302769799023163</v>
+        <v>7.278394835284012</v>
       </c>
       <c r="C72">
-        <v>1.864753312279537e-5</v>
+        <v>1.910142230042654e-5</v>
       </c>
       <c r="D72">
-        <v>-1.408206340700129e-5</v>
+        <v>-6.2569328568098575e-6</v>
       </c>
       <c r="E72">
-        <v>0.0019421460128237944</v>
+        <v>0.0019387530763737705</v>
       </c>
       <c r="F72">
-        <v>4.832581819686733e-5</v>
+        <v>4.8316559871521183e-5</v>
       </c>
       <c r="G72">
-        <v>7.302748803405436</v>
+        <v>7.278374170199806</v>
       </c>
       <c r="H72">
-        <v>1.8645167766132013e-5</v>
+        <v>1.9099063315796668e-5</v>
       </c>
       <c r="I72">
-        <v>-1.4083871568925813e-5</v>
+        <v>-6.258562681350988e-6</v>
       </c>
       <c r="J72">
-        <v>0.0019421426689629259</v>
+        <v>0.0019387499113616585</v>
       </c>
       <c r="K72">
-        <v>4.8325590037037616e-5</v>
+        <v>4.831633978802124e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.003484827813808121</v>
       </c>
       <c r="B73">
-        <v>7.298703985606778</v>
+        <v>7.274419669314264</v>
       </c>
       <c r="C73">
-        <v>1.709734818107814e-5</v>
+        <v>1.7553542248893908e-5</v>
       </c>
       <c r="D73">
-        <v>-1.3579310552308736e-5</v>
+        <v>-5.7158112387003555e-6</v>
       </c>
       <c r="E73">
-        <v>0.0019417711928971714</v>
+        <v>0.0019383682114971958</v>
       </c>
       <c r="F73">
-        <v>4.8326642010435325e-5</v>
+        <v>4.8317497978704535e-5</v>
       </c>
       <c r="G73">
-        <v>7.298682760852725</v>
+        <v>7.274398796443323</v>
       </c>
       <c r="H73">
-        <v>1.7094880360111226e-5</v>
+        <v>1.7551081082100827e-5</v>
       </c>
       <c r="I73">
-        <v>-1.3581190897176008e-5</v>
+        <v>-5.717505981915889e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019417678388664811</v>
+        <v>0.0019383650377243083</v>
       </c>
       <c r="K73">
-        <v>4.832641453403115e-5</v>
+        <v>4.8317279038163674e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.004053360143205703</v>
       </c>
       <c r="B74">
-        <v>7.294916607510666</v>
+        <v>7.270729816774867</v>
       </c>
       <c r="C74">
-        <v>1.562916756533182e-5</v>
+        <v>1.608744281943417e-5</v>
       </c>
       <c r="D74">
-        <v>-1.3019427411267266e-5</v>
+        <v>-5.123206578220537e-6</v>
       </c>
       <c r="E74">
-        <v>0.0019414308025317787</v>
+        <v>0.0019380203185075055</v>
       </c>
       <c r="F74">
-        <v>4.832758420641536e-5</v>
+        <v>4.831855021034475e-5</v>
       </c>
       <c r="G74">
-        <v>7.294895271800342</v>
+        <v>7.270708856074103</v>
       </c>
       <c r="H74">
-        <v>1.5626633059901734e-5</v>
+        <v>1.6084915192178518e-5</v>
       </c>
       <c r="I74">
-        <v>-1.3021354205039908e-5</v>
+        <v>-5.124942817271296e-6</v>
       </c>
       <c r="J74">
-        <v>0.0019414274530374638</v>
+        <v>0.0019380171512381854</v>
       </c>
       <c r="K74">
-        <v>4.832735757079311e-5</v>
+        <v>4.8318332558141575e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.004621602556748358</v>
       </c>
       <c r="B75">
-        <v>7.29140525071141</v>
+        <v>7.267322781143407</v>
       </c>
       <c r="C75">
-        <v>1.4243516797689496e-5</v>
+        <v>1.4703647492408837e-5</v>
       </c>
       <c r="D75">
-        <v>-1.2401531020974865e-5</v>
+        <v>-4.478313090265753e-6</v>
       </c>
       <c r="E75">
-        <v>0.0019411252573788926</v>
+        <v>0.001937709821401239</v>
       </c>
       <c r="F75">
-        <v>4.832864186846638e-5</v>
+        <v>4.8319713811261004e-5</v>
       </c>
       <c r="G75">
-        <v>7.2913839240163325</v>
+        <v>7.267301854548744</v>
       </c>
       <c r="H75">
-        <v>1.424095278169858e-5</v>
+        <v>1.4701090429526208e-5</v>
       </c>
       <c r="I75">
-        <v>-1.2403477564545206e-5</v>
+        <v>-4.4800665456733274e-6</v>
       </c>
       <c r="J75">
-        <v>0.0019411219276438058</v>
+        <v>0.0019377066764699863</v>
       </c>
       <c r="K75">
-        <v>4.832841622413672e-5</v>
+        <v>4.831949758741651e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.005189729083116528</v>
       </c>
       <c r="B76">
-        <v>7.288166451983098</v>
+        <v>7.264194987872403</v>
       </c>
       <c r="C76">
-        <v>1.294050115388885e-5</v>
+        <v>1.3402260656667653e-5</v>
       </c>
       <c r="D76">
-        <v>-1.172504409567854e-5</v>
+        <v>-3.780592270645771e-6</v>
       </c>
       <c r="E76">
-        <v>0.001940854777013599</v>
+        <v>0.0019374369323078332</v>
       </c>
       <c r="F76">
-        <v>4.8329811942773816e-5</v>
+        <v>4.832098589448032e-5</v>
       </c>
       <c r="G76">
-        <v>7.288145254432659</v>
+        <v>7.264174217600474</v>
       </c>
       <c r="H76">
-        <v>1.2937945541756224e-5</v>
+        <v>1.3399711977093355e-5</v>
       </c>
       <c r="I76">
-        <v>-1.172698315381884e-5</v>
+        <v>-3.7823381889513326e-6</v>
       </c>
       <c r="J76">
-        <v>0.0019408514824832937</v>
+        <v>0.0019374338258068098</v>
       </c>
       <c r="K76">
-        <v>4.8329587432752904e-5</v>
+        <v>4.832077123289684e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.005757913715499295</v>
       </c>
       <c r="B77">
-        <v>7.28519569794427</v>
+        <v>7.261341782705879</v>
       </c>
       <c r="C77">
-        <v>1.1719797262726778e-5</v>
+        <v>1.2182959231899941e-5</v>
       </c>
       <c r="D77">
-        <v>-1.0989701079304327e-5</v>
+        <v>-3.029778097617084e-6</v>
       </c>
       <c r="E77">
-        <v>0.0019406193808683208</v>
+        <v>0.001937201647322173</v>
       </c>
       <c r="F77">
-        <v>4.833109123745743e-5</v>
+        <v>4.8322363439827904e-5</v>
       </c>
       <c r="G77">
-        <v>7.285174748117417</v>
+        <v>7.261321289258579</v>
       </c>
       <c r="H77">
-        <v>1.1717288041666314e-5</v>
+        <v>1.2180456833464292e-5</v>
       </c>
       <c r="I77">
-        <v>-1.0991605343498029e-5</v>
+        <v>-3.031491653632191e-6</v>
       </c>
       <c r="J77">
-        <v>0.0019406161369554728</v>
+        <v>0.0019371985953759024</v>
       </c>
       <c r="K77">
-        <v>4.833086799713932e-5</v>
+        <v>4.832215046792123e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.006326330464881163</v>
       </c>
       <c r="B78">
-        <v>7.282487441015117</v>
+        <v>7.258757447684962</v>
       </c>
       <c r="C78">
-        <v>1.058065179982844e-5</v>
+        <v>1.1044991365809253e-5</v>
       </c>
       <c r="D78">
-        <v>-1.0195548944942728e-5</v>
+        <v>-2.2258777788892302e-6</v>
       </c>
       <c r="E78">
-        <v>0.0019404188876143641</v>
+        <v>0.001937003746101117</v>
       </c>
       <c r="F78">
-        <v>4.833247642557801e-5</v>
+        <v>4.8323843296097935e-5</v>
       </c>
       <c r="G78">
-        <v>7.282466854127852</v>
+        <v>7.258737348322632</v>
       </c>
       <c r="H78">
-        <v>1.057822643907776e-5</v>
+        <v>1.104257259749168e-5</v>
       </c>
       <c r="I78">
-        <v>-1.0197391481075241e-5</v>
+        <v>-2.227534478202708e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019404157094582001</v>
+        <v>0.0019370007645158945</v>
       </c>
       <c r="K78">
-        <v>4.833225458276459e-5</v>
+        <v>4.8323632134778866e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.006895153413334281</v>
       </c>
       <c r="B79">
-        <v>7.280035131988126</v>
+        <v>7.256435234525812</v>
       </c>
       <c r="C79">
-        <v>9.521887304112337e-6</v>
+        <v>9.987182234415352e-6</v>
       </c>
       <c r="D79">
-        <v>-9.342942720659062e-6</v>
+        <v>-1.369168024257743e-6</v>
       </c>
       <c r="E79">
-        <v>0.0019402529180070607</v>
+        <v>0.0019368427952335156</v>
       </c>
       <c r="F79">
-        <v>4.833396405160219e-5</v>
+        <v>4.832542218666696e-5</v>
       </c>
       <c r="G79">
-        <v>7.280015018367521</v>
+        <v>7.256415641393785</v>
       </c>
       <c r="H79">
-        <v>9.519582162435532e-6</v>
+        <v>9.984883346270848e-6</v>
       </c>
       <c r="I79">
-        <v>-9.344697438705132e-6</v>
+        <v>-1.3707441279646546e-6</v>
       </c>
       <c r="J79">
-        <v>0.0019402498202020296</v>
+        <v>0.0019368398992916092</v>
       </c>
       <c r="K79">
-        <v>4.833374372614821e-5</v>
+        <v>4.832521294973338e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.007464556767332434</v>
       </c>
       <c r="B80">
-        <v>7.277831268578816</v>
+        <v>7.2543674146967225</v>
       </c>
       <c r="C80">
-        <v>8.541914974638818e-6</v>
+        <v>9.007946803561888e-6</v>
       </c>
       <c r="D80">
-        <v>-8.432535851903217e-6</v>
+        <v>-4.6018692878921333e-7</v>
       </c>
       <c r="E80">
-        <v>0.0019401209011183094</v>
+        <v>0.0019367181552918471</v>
       </c>
       <c r="F80">
-        <v>4.8335550541166865e-5</v>
+        <v>4.832709671839645e-5</v>
       </c>
       <c r="G80">
-        <v>7.277811732021828</v>
+        <v>7.254348433276914</v>
       </c>
       <c r="H80">
-        <v>8.539764659259698e-6</v>
+        <v>9.005802305196117e-6</v>
       </c>
       <c r="I80">
-        <v>-8.434177937159001e-6</v>
+        <v>-4.6165982511495737e-7</v>
       </c>
       <c r="J80">
-        <v>0.0019401178974703065</v>
+        <v>0.001936715359433577</v>
       </c>
       <c r="K80">
-        <v>4.833533184481189e-5</v>
+        <v>4.832688951226241e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.00803471491110315</v>
       </c>
       <c r="B81">
-        <v>7.2758674589978005</v>
+        <v>7.252545345176803</v>
       </c>
       <c r="C81">
-        <v>7.638754138943468e-6</v>
+        <v>8.10530924357935e-6</v>
       </c>
       <c r="D81">
-        <v>-7.465265638218324e-6</v>
+        <v>5.002783460164796e-7</v>
       </c>
       <c r="E81">
-        <v>0.001940022083791407</v>
+        <v>0.0019366289913756896</v>
       </c>
       <c r="F81">
-        <v>4.83372322139627e-5</v>
+        <v>4.832886339364871e-5</v>
       </c>
       <c r="G81">
-        <v>7.275848595444915</v>
+        <v>7.25252707292005</v>
       </c>
       <c r="H81">
-        <v>7.63679094555408e-6</v>
+        <v>8.10335137302594e-6</v>
       </c>
       <c r="I81">
-        <v>-7.466771928752398e-6</v>
+        <v>4.989297989974307e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019400191870812143</v>
+        <v>0.0019366263089512987</v>
       </c>
       <c r="K81">
-        <v>4.8337015250205336e-5</v>
+        <v>4.8328658317064356e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.008605802460034225</v>
       </c>
       <c r="B82">
-        <v>7.27413449927746</v>
+        <v>7.250959548553535</v>
       </c>
       <c r="C82">
-        <v>6.810057926293126e-6</v>
+        <v>7.276928531823455e-6</v>
       </c>
       <c r="D82">
-        <v>-6.442334101960452e-6</v>
+        <v>1.5112078082698488e-6</v>
       </c>
       <c r="E82">
-        <v>0.0019399555430700053</v>
+        <v>0.0019365742868663169</v>
       </c>
       <c r="F82">
-        <v>4.833900529952819e-5</v>
+        <v>4.833071862521355e-5</v>
       </c>
       <c r="G82">
-        <v>7.274116395531889</v>
+        <v>7.250942073467275</v>
       </c>
       <c r="H82">
-        <v>6.808311388327817e-6</v>
+        <v>7.275186716183837e-6</v>
       </c>
       <c r="I82">
-        <v>-6.443683477616717e-6</v>
+        <v>1.5100029359337711e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019399527648572307</v>
+        <v>0.0019365717299452332</v>
       </c>
       <c r="K82">
-        <v>4.8338790163329993e-5</v>
+        <v>4.833051576880979e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.009177994314151044</v>
       </c>
       <c r="B83">
-        <v>7.272622462802683</v>
+        <v>7.249599805818094</v>
       </c>
       <c r="C83">
-        <v>6.053144535099423e-6</v>
+        <v>6.520129634001396e-6</v>
       </c>
       <c r="D83">
-        <v>-5.365184755668844e-6</v>
+        <v>2.5713684145287023e-6</v>
       </c>
       <c r="E83">
-        <v>0.0019399202012786892</v>
+        <v>0.0019365528600306834</v>
       </c>
       <c r="F83">
-        <v>4.8340865955711754e-5</v>
+        <v>4.8332658753908624e-5</v>
       </c>
       <c r="G83">
-        <v>7.272605195464714</v>
+        <v>7.2495832054893965</v>
       </c>
       <c r="H83">
-        <v>6.0516409729455486e-6</v>
+        <v>6.518630126260954e-6</v>
       </c>
       <c r="I83">
-        <v>-5.366358419657811e-6</v>
+        <v>2.5703244601976102e-6</v>
       </c>
       <c r="J83">
-        <v>0.0019399175517228274</v>
+        <v>0.001936550439193211</v>
       </c>
       <c r="K83">
-        <v>4.834065273349963e-5</v>
+        <v>4.833245820009995e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.00975146571168109</v>
       </c>
       <c r="B84">
-        <v>7.271320800242558</v>
+        <v>7.248455259952944</v>
       </c>
       <c r="C84">
-        <v>5.36503335713469e-6</v>
+        <v>5.831939528956628e-6</v>
       </c>
       <c r="D84">
-        <v>-4.235475829293138e-6</v>
+        <v>3.6793369377247452e-6</v>
       </c>
       <c r="E84">
-        <v>0.0019399148433693004</v>
+        <v>0.0019365633830447666</v>
       </c>
       <c r="F84">
-        <v>4.834281028951893e-5</v>
+        <v>4.8334680068577585e-5</v>
       </c>
       <c r="G84">
-        <v>7.271304434898336</v>
+        <v>7.248439600639074</v>
       </c>
       <c r="H84">
-        <v>5.363795506625687e-6</v>
+        <v>5.8307050065604255e-6</v>
       </c>
       <c r="I84">
-        <v>-4.236457568327499e-6</v>
+        <v>3.678468838129592e-6</v>
       </c>
       <c r="J84">
-        <v>0.0019399123310779546</v>
+        <v>0.001936561107225949</v>
       </c>
       <c r="K84">
-        <v>4.834259905897265e-5</v>
+        <v>4.8334481891220566e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.010326392282722006</v>
       </c>
       <c r="B85">
-        <v>7.270218447865197</v>
+        <v>7.247514528183163</v>
       </c>
       <c r="C85">
-        <v>4.742485115822628e-6</v>
+        <v>5.2091272364998595e-6</v>
       </c>
       <c r="D85">
-        <v>-3.0550505959174072e-6</v>
+        <v>4.8335254037070865e-6</v>
       </c>
       <c r="E85">
-        <v>0.0019399381360968048</v>
+        <v>0.0019366044029525927</v>
       </c>
       <c r="F85">
-        <v>4.8344834380017684e-5</v>
+        <v>4.833677882816497e-5</v>
       </c>
       <c r="G85">
-        <v>7.270203038481995</v>
+        <v>7.24749986419287</v>
       </c>
       <c r="H85">
-        <v>4.741531883962555e-6</v>
+        <v>5.208176556762516e-6</v>
       </c>
       <c r="I85">
-        <v>-3.055826961888411e-6</v>
+        <v>4.832845615717878e-6</v>
       </c>
       <c r="J85">
-        <v>0.001939935768029939</v>
+        <v>0.0019366022793473215</v>
       </c>
       <c r="K85">
-        <v>4.834462521028555e-5</v>
+        <v>4.833658309264441e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.010902950103029704</v>
       </c>
       <c r="B86">
-        <v>7.26930394204742</v>
+        <v>7.246765820587929</v>
       </c>
       <c r="C86">
-        <v>4.182045094699934e-6</v>
+        <v>4.64824692692073e-6</v>
       </c>
       <c r="D86">
-        <v>-1.8259054927299135e-6</v>
+        <v>6.032208523575224e-6</v>
       </c>
       <c r="E86">
-        <v>0.0019399886485525358</v>
+        <v>0.0019366743640398805</v>
       </c>
       <c r="F86">
-        <v>4.834693430292726e-5</v>
+        <v>4.833895128550047e-5</v>
       </c>
       <c r="G86">
-        <v>7.26928953053634</v>
+        <v>7.246752193879165</v>
       </c>
       <c r="H86">
-        <v>4.18139137322543e-6</v>
+        <v>4.6475949222489e-6</v>
       </c>
       <c r="I86">
-        <v>-1.8264659796220235e-6</v>
+        <v>6.031726866595677e-6</v>
       </c>
       <c r="J86">
-        <v>0.001939986429955605</v>
+        <v>0.0019366723980079133</v>
       </c>
       <c r="K86">
-        <v>4.83467272543941e-5</v>
+        <v>4.833875804845441e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.011481315747942943</v>
       </c>
       <c r="B87">
-        <v>7.268565537670844</v>
+        <v>7.246197062647686</v>
       </c>
       <c r="C87">
-        <v>3.6800884773852024e-6</v>
+        <v>4.145683136205135e-6</v>
       </c>
       <c r="D87">
-        <v>-5.501567712694252e-7</v>
+        <v>7.273552512513676e-6</v>
       </c>
       <c r="E87">
-        <v>0.0019400648735619075</v>
+        <v>0.0019367716310808869</v>
       </c>
       <c r="F87">
-        <v>4.8349106156468836e-5</v>
+        <v>4.834119371237747e-5</v>
       </c>
       <c r="G87">
-        <v>7.268552153795433</v>
+        <v>7.246184502731964</v>
       </c>
       <c r="H87">
-        <v>3.679745012449092e-6</v>
+        <v>4.145340537631008e-6</v>
       </c>
       <c r="I87">
-        <v>-5.504938078172496e-7</v>
+        <v>7.273276158137841e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019400628079354004</v>
+        <v>0.0019367698261373066</v>
       </c>
       <c r="K87">
-        <v>4.8348901280983404e-5</v>
+        <v>4.8341003021830924e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.012061666346460883</v>
       </c>
       <c r="B88">
-        <v>7.267991328031002</v>
+        <v>7.245796019240653</v>
       </c>
       <c r="C88">
-        <v>3.232866793450495e-6</v>
+        <v>3.697697084116364e-6</v>
       </c>
       <c r="D88">
-        <v>7.699935733812825e-7</v>
+        <v>8.555644666286967e-6</v>
       </c>
       <c r="E88">
-        <v>0.0019401652494484072</v>
+        <v>0.0019368945129138553</v>
       </c>
       <c r="F88">
-        <v>4.8351346088012264e-5</v>
+        <v>4.834350242546734e-5</v>
       </c>
       <c r="G88">
-        <v>7.267978989495868</v>
+        <v>7.245784543266317</v>
       </c>
       <c r="H88">
-        <v>3.232840230016748e-6</v>
+        <v>3.697670511603311e-6</v>
       </c>
       <c r="I88">
-        <v>7.698845799480364e-7</v>
+        <v>8.555578093593003e-6</v>
       </c>
       <c r="J88">
-        <v>0.0019401633385492827</v>
+        <v>0.001936892870730207</v>
       </c>
       <c r="K88">
-        <v>4.8351143429141744e-5</v>
+        <v>4.834331432101279e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.012644179635490246</v>
       </c>
       <c r="B89">
-        <v>7.2675693638799155</v>
+        <v>7.2455504176031615</v>
       </c>
       <c r="C89">
-        <v>2.836554465996068e-6</v>
+        <v>3.3004730936994757e-6</v>
       </c>
       <c r="D89">
-        <v>2.132291850849015e-6</v>
+        <v>9.8765230644248e-6</v>
       </c>
       <c r="E89">
-        <v>0.001940288181675538</v>
+        <v>0.0019370412858139537</v>
       </c>
       <c r="F89">
-        <v>4.835365032101512e-5</v>
+        <v>4.83458738125726e-5</v>
       </c>
       <c r="G89">
-        <v>7.267558076662311</v>
+        <v>7.245540030681449</v>
       </c>
       <c r="H89">
-        <v>2.8368473946320567e-6</v>
+        <v>3.3007651334550264e-6</v>
       </c>
       <c r="I89">
-        <v>2.1324125709629327e-6</v>
+        <v>9.876668112437473e-6</v>
       </c>
       <c r="J89">
-        <v>0.0019402864255752847</v>
+        <v>0.0019370398062746523</v>
       </c>
       <c r="K89">
-        <v>4.835344991426799e-5</v>
+        <v>4.834568832553894e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.013229034014278628</v>
       </c>
       <c r="B90">
-        <v>7.2672877692775755</v>
+        <v>7.245448066833521</v>
       </c>
       <c r="C90">
-        <v>2.4872944860871436e-6</v>
+        <v>2.950164140045653e-6</v>
       </c>
       <c r="D90">
-        <v>3.534465984687692e-6</v>
+        <v>1.1234205784384e-5</v>
       </c>
       <c r="E90">
-        <v>0.0019404320639024929</v>
+        <v>0.0019372102161617044</v>
       </c>
       <c r="F90">
-        <v>4.835601518172293e-5</v>
+        <v>4.834830435869461e-5</v>
       </c>
       <c r="G90">
-        <v>7.267277528168938</v>
+        <v>7.245438762645519</v>
       </c>
       <c r="H90">
-        <v>2.487905618312774e-6</v>
+        <v>2.950773504157987e-6</v>
       </c>
       <c r="I90">
-        <v>3.5348153299437836e-6</v>
+        <v>1.1234561780137667e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019404304610661698</v>
+        <v>0.0019372088974567965</v>
       </c>
       <c r="K90">
-        <v>4.8355817054898525e-5</v>
+        <v>4.834812151247685e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.013816408599050652</v>
       </c>
       <c r="B91">
-        <v>7.26713485204406</v>
+        <v>7.245476971648651</v>
       </c>
       <c r="C91">
-        <v>2.181242295230037e-6</v>
+        <v>2.642935612018863e-6</v>
       </c>
       <c r="D91">
-        <v>4.974257412895014e-6</v>
+        <v>1.262671904302452e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019405952980263296</v>
+        <v>0.001937399581947874</v>
       </c>
       <c r="F91">
-        <v>4.835843712508489e-5</v>
+        <v>4.835079067137704e-5</v>
       </c>
       <c r="G91">
-        <v>7.267125641397774</v>
+        <v>7.245468733222005</v>
       </c>
       <c r="H91">
-        <v>2.182166698049659e-6</v>
+        <v>2.643857392726378e-6</v>
       </c>
       <c r="I91">
-        <v>4.974831687678611e-6</v>
+        <v>1.2627282928164764e-5</v>
       </c>
       <c r="J91">
-        <v>0.001940593845425275</v>
+        <v>0.0019373984206955636</v>
       </c>
       <c r="K91">
-        <v>4.835824129871823e-5</v>
+        <v>4.835061048184576e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.01440648327786373</v>
       </c>
       <c r="B92">
-        <v>7.267099206779554</v>
+        <v>7.24562543829388</v>
       </c>
       <c r="C92">
-        <v>1.9146070375698807e-6</v>
+        <v>2.375006450929322e-6</v>
       </c>
       <c r="D92">
-        <v>6.449450974594079e-6</v>
+        <v>1.405212372943127e-5</v>
       </c>
       <c r="E92">
-        <v>0.001940776312831583</v>
+        <v>0.0019376076927106944</v>
       </c>
       <c r="F92">
-        <v>4.836091275934044e-5</v>
+        <v>4.8353329504786726e-5</v>
       </c>
       <c r="G92">
-        <v>7.267091001424732</v>
+        <v>7.245618238922413</v>
       </c>
       <c r="H92">
-        <v>1.9158364424547074e-6</v>
+        <v>2.3762323969797956e-6</v>
       </c>
       <c r="I92">
-        <v>6.45024410444221e-6</v>
+        <v>1.4052890268229485e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019407750060813122</v>
+        <v>0.001937606684101574</v>
       </c>
       <c r="K92">
-        <v>4.836071924714972e-5</v>
+        <v>4.8353151980715484e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.01499943876570018</v>
       </c>
       <c r="B93">
-        <v>7.267169808650558</v>
+        <v>7.245882170754365</v>
       </c>
       <c r="C93">
-        <v>1.6836894454856785e-6</v>
+        <v>2.1426869318531485e-6</v>
       </c>
       <c r="D93">
-        <v>7.957902257419655e-6</v>
+        <v>1.5508539854767634e-5</v>
       </c>
       <c r="E93">
-        <v>0.0019409735809253598</v>
+        <v>0.0019378329075655375</v>
       </c>
       <c r="F93">
-        <v>4.836343886875211e-5</v>
+        <v>4.8355917782013243e-5</v>
       </c>
       <c r="G93">
-        <v>7.267162574928403</v>
+        <v>7.245875975089204</v>
       </c>
       <c r="H93">
-        <v>1.6852126007486282e-6</v>
+        <v>2.1442058197914436e-6</v>
       </c>
       <c r="I93">
-        <v>7.958906030240607e-6</v>
+        <v>1.5509501839651062e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019409724144454283</v>
+        <v>0.001937832045536039</v>
       </c>
       <c r="K93">
-        <v>4.836324767819051e-5</v>
+        <v>4.8355742925634464e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.01559545665981258</v>
       </c>
       <c r="B94">
-        <v>7.2673360964201175</v>
+        <v>7.246236355714236</v>
       </c>
       <c r="C94">
-        <v>1.4849157420431806e-6</v>
+        <v>1.9424124727518804e-6</v>
       </c>
       <c r="D94">
-        <v>9.49756197194728e-6</v>
+        <v>1.6994168518284353e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019411856336998808</v>
+        <v>0.0019380736510582776</v>
       </c>
       <c r="F94">
-        <v>4.836601243399756e-5</v>
+        <v>4.835855261510531e-5</v>
       </c>
       <c r="G94">
-        <v>7.267329793380194</v>
+        <v>7.246231121010829</v>
       </c>
       <c r="H94">
-        <v>1.486718808994974e-6</v>
+        <v>1.9442105065760004e-6</v>
       </c>
       <c r="I94">
-        <v>9.498766360881814e-6</v>
+        <v>1.699531704957343e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019411846008925713</v>
+        <v>0.0019380729284870103</v>
       </c>
       <c r="K94">
-        <v>4.8365823566862265e-5</v>
+        <v>4.8358380422711047e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.016194719495339398</v>
       </c>
       <c r="B95">
-        <v>7.267588043519682</v>
+        <v>7.246677735047285</v>
       </c>
       <c r="C95">
-        <v>1.3148670770271224e-6</v>
+        <v>1.7707729894417798e-6</v>
       </c>
       <c r="D95">
-        <v>1.1066497020039519e-5</v>
+        <v>1.8507311071243187e-5</v>
       </c>
       <c r="E95">
-        <v>0.0019414110741325043</v>
+        <v>0.001938328426648649</v>
       </c>
       <c r="F95">
-        <v>4.836863064979106e-5</v>
+        <v>4.836123132241869e-5</v>
       </c>
       <c r="G95">
-        <v>7.267582624135669</v>
+        <v>7.246673412384325</v>
       </c>
       <c r="H95">
-        <v>1.3169340621337022e-6</v>
+        <v>1.7728342172103063e-6</v>
       </c>
       <c r="I95">
-        <v>1.1067890474845371e-5</v>
+        <v>1.8508635829575107e-5</v>
       </c>
       <c r="J95">
-        <v>0.001941410167570178</v>
+        <v>0.0019383278355510057</v>
       </c>
       <c r="K95">
-        <v>4.836844410284948e-5</v>
+        <v>4.83610617849877e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.01679741080120775</v>
       </c>
       <c r="B96">
-        <v>7.267916216309366</v>
+        <v>7.247196664989573</v>
       </c>
       <c r="C96">
-        <v>1.1703041552919917e-6</v>
+        <v>1.6245374560889814e-6</v>
       </c>
       <c r="D96">
-        <v>1.2662908029650289e-5</v>
+        <v>2.004638524942741e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019416485873031473</v>
+        <v>0.0019385958277063162</v>
       </c>
       <c r="F96">
-        <v>4.837129093937909e-5</v>
+        <v>4.836395144292303e-5</v>
       </c>
       <c r="G96">
-        <v>7.2679116287752255</v>
+        <v>7.247193200576668</v>
       </c>
       <c r="H96">
-        <v>1.17261735204009e-6</v>
+        <v>1.6268442172362896e-6</v>
       </c>
       <c r="I96">
-        <v>1.2664477795956162e-5</v>
+        <v>2.004787478993961e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019416477989174696</v>
+        <v>0.0019385953594313527</v>
       </c>
       <c r="K96">
-        <v>4.8371106705032805e-5</v>
+        <v>4.83637845467702e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.017403715156340573</v>
       </c>
       <c r="B97">
-        <v>7.268311819039976</v>
+        <v>7.247784161526692</v>
       </c>
       <c r="C97">
-        <v>1.0481868619405336e-6</v>
+        <v>1.5006734762769876e-6</v>
       </c>
       <c r="D97">
-        <v>1.428514323572579e-5</v>
+        <v>2.160993813696791e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019418969485781958</v>
+        <v>0.0019388745459773538</v>
       </c>
       <c r="F97">
-        <v>4.837399096564323e-5</v>
+        <v>4.836671074720305e-5</v>
       </c>
       <c r="G97">
-        <v>7.268308008036624</v>
+        <v>7.247781498103722</v>
       </c>
       <c r="H97">
-        <v>1.0507272974980894e-6</v>
+        <v>1.503206850584674e-6</v>
       </c>
       <c r="I97">
-        <v>1.428687569032768e-5</v>
+        <v>2.1611580160088993e-5</v>
       </c>
       <c r="J97">
-        <v>0.001941896269853541</v>
+        <v>0.001938874191426517</v>
       </c>
       <c r="K97">
-        <v>4.837380903254814e-5</v>
+        <v>4.8366546474674056e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.018013818246185413</v>
       </c>
       <c r="B98">
-        <v>7.26876672540084</v>
+        <v>7.248431931913068</v>
       </c>
       <c r="C98">
-        <v>9.456888333135582e-7</v>
+        <v>1.3963618137702502e-6</v>
       </c>
       <c r="D98">
-        <v>1.593170869171127e-5</v>
+        <v>2.319665591619237e-5</v>
       </c>
       <c r="E98">
-        <v>0.0019421550294762024</v>
+        <v>0.001939163377550019</v>
       </c>
       <c r="F98">
-        <v>4.837672863864463e-5</v>
+        <v>4.836950724498794e-5</v>
       </c>
       <c r="G98">
-        <v>7.268763633340881</v>
+        <v>7.248430009939735</v>
       </c>
       <c r="H98">
-        <v>9.484367073337621e-7</v>
+        <v>1.3991020571117559e-6</v>
       </c>
       <c r="I98">
-        <v>1.593358962106492e-5</v>
+        <v>2.319843754807245e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019421544516321123</v>
+        <v>0.0019391631273584298</v>
       </c>
       <c r="K98">
-        <v>4.8376548992417253e-5</v>
+        <v>4.836934557513094e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.018627906919582014</v>
       </c>
       <c r="B99">
-        <v>7.269273496898844</v>
+        <v>7.249132392613428</v>
       </c>
       <c r="C99">
-        <v>8.602070610480591e-7</v>
+        <v>1.309005969990929e-6</v>
       </c>
       <c r="D99">
-        <v>1.76012748953574e-5</v>
+        <v>2.480537044691993e-5</v>
       </c>
       <c r="E99">
-        <v>0.00194242180129184</v>
+        <v>0.001939461226413849</v>
       </c>
       <c r="F99">
-        <v>4.83795021195506e-5</v>
+        <v>4.837233918914819e-5</v>
       </c>
       <c r="G99">
-        <v>7.269271065170964</v>
+        <v>7.249131151543467</v>
       </c>
       <c r="H99">
-        <v>8.631421675872301e-7</v>
+        <v>1.311932933976856e-6</v>
       </c>
       <c r="I99">
-        <v>1.7603289850830238e-5</v>
+        <v>2.480727856127047e-5</v>
       </c>
       <c r="J99">
-        <v>0.0019424213154610255</v>
+        <v>0.0019394610711424</v>
       </c>
       <c r="K99">
-        <v>4.837932474336866e-5</v>
+        <v>4.837218009833737e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.01924616924598621</v>
       </c>
       <c r="B100">
-        <v>7.26982538865298</v>
+        <v>7.249878674304087</v>
       </c>
       <c r="C100">
-        <v>7.893667439639579e-7</v>
+        <v>1.2362370223791709e-6</v>
       </c>
       <c r="D100">
-        <v>1.9292680002866594e-5</v>
+        <v>2.6435062801078794e-5</v>
       </c>
       <c r="E100">
-        <v>0.001942696336608934</v>
+        <v>0.0019397671057634492</v>
       </c>
       <c r="F100">
-        <v>4.838230982099323e-5</v>
+        <v>4.837520507620619e-5</v>
       </c>
       <c r="G100">
-        <v>7.269823558665048</v>
+        <v>7.2498780536849345</v>
       </c>
       <c r="H100">
-        <v>7.924688598211664e-7</v>
+        <v>1.2393305387740561e-6</v>
       </c>
       <c r="I100">
-        <v>1.9294814516361363e-5</v>
+        <v>2.6437084203157408e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019426959339909687</v>
+        <v>0.0019397670360671697</v>
       </c>
       <c r="K100">
-        <v>4.838213469622833e-5</v>
+        <v>4.837504853879771e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.0198687945730677</v>
       </c>
       <c r="B101">
-        <v>7.270416343492639</v>
+        <v>7.250664614881521</v>
       </c>
       <c r="C101">
-        <v>7.310217152530431e-7</v>
+        <v>1.1759140502105438e-6</v>
       </c>
       <c r="D101">
-        <v>2.1004929884236005e-5</v>
+        <v>2.8084863952032363e-5</v>
       </c>
       <c r="E101">
-        <v>0.0019429778088794988</v>
+        <v>0.0019400801372463524</v>
       </c>
       <c r="F101">
-        <v>4.83851504040151e-5</v>
+        <v>4.83781036435102e-5</v>
       </c>
       <c r="G101">
-        <v>7.27041505768155</v>
+        <v>7.250664555405052</v>
       </c>
       <c r="H101">
-        <v>7.342709506217501e-7</v>
+        <v>1.179154283273467e-6</v>
       </c>
       <c r="I101">
-        <v>2.100716976898749e-5</v>
+        <v>2.8086985658174005e-5</v>
       </c>
       <c r="J101">
-        <v>0.0019429774808855935</v>
+        <v>0.0019400801440183594</v>
       </c>
       <c r="K101">
-        <v>4.838497751077334e-5</v>
+        <v>4.837794963242632e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>0.020495973584699234</v>
       </c>
       <c r="B102">
-        <v>7.271040975506687</v>
+        <v>7.251484741687362</v>
       </c>
       <c r="C102">
-        <v>6.832508670534007e-7</v>
+        <v>1.1261205687943617e-6</v>
       </c>
       <c r="D102">
-        <v>2.2737195337773916e-5</v>
+        <v>2.9754052880304634e-5</v>
       </c>
       <c r="E102">
-        <v>0.0019432654902825095</v>
+        <v>0.0019403995483920843</v>
       </c>
       <c r="F102">
-        <v>4.83880227718543e-5</v>
+        <v>4.83810338633168e-5</v>
       </c>
       <c r="G102">
-        <v>7.271040178249851</v>
+        <v>7.2514851860374465</v>
       </c>
       <c r="H102">
-        <v>6.866279718695478e-7</v>
+        <v>1.1294883205565423e-6</v>
       </c>
       <c r="I102">
-        <v>2.2739526875666194e-5</v>
+        <v>2.9756262312445315e-5</v>
       </c>
       <c r="J102">
-        <v>0.0019432652286606818</v>
+        <v>0.0019403996228921521</v>
       </c>
       <c r="K102">
-        <v>4.838785208951641e-5</v>
+        <v>4.838088235056503e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3990,34 +3990,34 @@
         <v>0.021127898359355038</v>
       </c>
       <c r="B103">
-        <v>7.27169454439542</v>
+        <v>7.2523342443642385</v>
       </c>
       <c r="C103">
-        <v>6.443510685301903e-7</v>
+        <v>1.0851574668107417e-6</v>
       </c>
       <c r="D103">
-        <v>2.4488806831666934e-5</v>
+        <v>3.1442052406777744e-5</v>
       </c>
       <c r="E103">
-        <v>0.001943558748103013</v>
+        <v>0.0019407246684864604</v>
       </c>
       <c r="F103">
-        <v>4.839092606090492e-5</v>
+        <v>4.8383994934109215e-5</v>
       </c>
       <c r="G103">
-        <v>7.271694182662992</v>
+        <v>7.252335137925905</v>
       </c>
       <c r="H103">
-        <v>6.478376888144103e-7</v>
+        <v>1.0886344338077653e-6</v>
       </c>
       <c r="I103">
-        <v>2.4491216938574313e-5</v>
+        <v>3.144433753237481e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019435585450347295</v>
+        <v>0.0019407248024458457</v>
       </c>
       <c r="K103">
-        <v>4.839075756855164e-5</v>
+        <v>4.838384589124371e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.021764762428936386</v>
       </c>
       <c r="B104">
-        <v>7.272372922123292</v>
+        <v>7.253208939900571</v>
       </c>
       <c r="C104">
-        <v>6.128271255300526e-7</v>
+        <v>1.0515329933475969e-6</v>
       </c>
       <c r="D104">
-        <v>2.6259247174307193e-5</v>
+        <v>3.3148423099785366e-5</v>
       </c>
       <c r="E104">
-        <v>0.0019438570398888763</v>
+        <v>0.0019410549231710281</v>
       </c>
       <c r="F104">
-        <v>4.8393859629256716e-5</v>
+        <v>4.838698626954527e-5</v>
       </c>
       <c r="G104">
-        <v>7.272372946134197</v>
+        <v>7.253210231405307</v>
       </c>
       <c r="H104">
-        <v>6.164060092631203e-7</v>
+        <v>1.055101971269846e-6</v>
       </c>
       <c r="I104">
-        <v>2.6261723604197786e-5</v>
+        <v>3.3150772629839704e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019438568880705824</v>
+        <v>0.0019410551088766639</v>
       </c>
       <c r="K104">
-        <v>4.839369330608504e-5</v>
+        <v>4.838683966808847e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4060,34 +4060,34 @@
         <v>0.02240676083804223</v>
       </c>
       <c r="B105">
-        <v>7.273072553454189</v>
+        <v>7.254105231501995</v>
       </c>
       <c r="C105">
-        <v>5.873793592081531e-7</v>
+        <v>1.0239503704505589e-6</v>
       </c>
       <c r="D105">
-        <v>2.804814253269181e-5</v>
+        <v>3.4872855623367046e-5</v>
       </c>
       <c r="E105">
-        <v>0.0019441599076491947</v>
+        <v>0.0019413898280528437</v>
       </c>
       <c r="F105">
-        <v>4.8396823043266206e-5</v>
+        <v>4.839000748547604e-5</v>
       </c>
       <c r="G105">
-        <v>7.273072917036614</v>
+        <v>7.254106873424465</v>
       </c>
       <c r="H105">
-        <v>5.910345123191972e-7</v>
+        <v>1.0275954094764227e-6</v>
       </c>
       <c r="I105">
-        <v>2.8050673913486865e-5</v>
+        <v>3.487525903873645e-5</v>
       </c>
       <c r="J105">
-        <v>0.0019441598003484474</v>
+        <v>0.0019413900584060535</v>
       </c>
       <c r="K105">
-        <v>4.839665886890228e-5</v>
+        <v>4.8389863297272726e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.023054090203703095</v>
       </c>
       <c r="B106">
-        <v>7.273790411973222</v>
+        <v>7.2550200629435455</v>
       </c>
       <c r="C106">
-        <v>5.668893882155388e-7</v>
+        <v>1.0012936141668964e-6</v>
       </c>
       <c r="D106">
-        <v>2.9855252220127167e-5</v>
+        <v>3.6615161900483255e-5</v>
       </c>
       <c r="E106">
-        <v>0.0019444669713557091</v>
+        <v>0.001941728981605043</v>
       </c>
       <c r="F106">
-        <v>4.839981606263854e-5</v>
+        <v>4.839305838550318e-5</v>
       </c>
       <c r="G106">
-        <v>7.273791072870348</v>
+        <v>7.255022011789438</v>
       </c>
       <c r="H106">
-        <v>5.706061773837387e-7</v>
+        <v>1.0050001212585528e-6</v>
       </c>
       <c r="I106">
-        <v>2.9857828131620132e-5</v>
+        <v>3.661760953418902e-5</v>
       </c>
       <c r="J106">
-        <v>0.001944466902446015</v>
+        <v>0.0019417292501530414</v>
       </c>
       <c r="K106">
-        <v>4.83996540173915e-5</v>
+        <v>4.839291658296804e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.023706948775596634</v>
       </c>
       <c r="B107">
-        <v>7.274523953162879</v>
+        <v>7.2559508700135495</v>
       </c>
       <c r="C107">
-        <v>5.504046854925943e-7</v>
+        <v>9.826121335606795e-7</v>
       </c>
       <c r="D107">
-        <v>3.1680457661867586e-5</v>
+        <v>3.837526545802065e-5</v>
       </c>
       <c r="E107">
-        <v>0.0019447779219973857</v>
+        <v>0.001942072057625105</v>
       </c>
       <c r="F107">
-        <v>4.840283862450686e-5</v>
+        <v>4.839613894554982e-5</v>
       </c>
       <c r="G107">
-        <v>7.274524873217556</v>
+        <v>7.255953086492705</v>
       </c>
       <c r="H107">
-        <v>5.541698948221088e-7</v>
+        <v>9.863669289542642e-7</v>
       </c>
       <c r="I107">
-        <v>3.168306874429811e-5</v>
+        <v>3.837774860673283e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019447778859736761</v>
+        <v>0.0019420723585725568</v>
       </c>
       <c r="K107">
-        <v>4.840267868958852e-5</v>
+        <v>4.8395999501909955e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4165,34 +4165,34 @@
         <v>0.024365536496763117</v>
       </c>
       <c r="B108">
-        <v>7.275271066012823</v>
+        <v>7.256895530563949</v>
       </c>
       <c r="C108">
-        <v>5.371224486892458e-7</v>
+        <v>9.671046452385703e-7</v>
       </c>
       <c r="D108">
-        <v>3.352375092192569e-5</v>
+        <v>4.015319130132047e-5</v>
       </c>
       <c r="E108">
-        <v>0.0019450925144198488</v>
+        <v>0.00194241879749655</v>
       </c>
       <c r="F108">
-        <v>4.840589082698252e-5</v>
+        <v>4.839924929790724e-5</v>
       </c>
       <c r="G108">
-        <v>7.27527221116049</v>
+        <v>7.256897979574441</v>
       </c>
       <c r="H108">
-        <v>5.409242933518897e-7</v>
+        <v>9.708959765304016e-7</v>
       </c>
       <c r="I108">
-        <v>3.3526388803480063e-5</v>
+        <v>4.015570215540042e-5</v>
       </c>
       <c r="J108">
-        <v>0.0019450925063998325</v>
+        <v>0.0019424191257131106</v>
       </c>
       <c r="K108">
-        <v>4.8405732984655293e-5</v>
+        <v>4.8399112187357726e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4200,34 +4200,34 @@
         <v>0.025030055064839574</v>
       </c>
       <c r="B109">
-        <v>7.276030024509639</v>
+        <v>7.257852314540929</v>
       </c>
       <c r="C109">
-        <v>5.263732756623944e-7</v>
+        <v>9.541028934868005e-7</v>
       </c>
       <c r="D109">
-        <v>3.53852231382872e-5</v>
+        <v>4.194905563658433e-5</v>
       </c>
       <c r="E109">
-        <v>0.0019454105601570142</v>
+        <v>0.0019427690024727091</v>
       </c>
       <c r="F109">
-        <v>4.840897291261902e-5</v>
+        <v>4.840238971518953e-5</v>
       </c>
       <c r="G109">
-        <v>7.276031364708438</v>
+        <v>7.2578549650615765</v>
       </c>
       <c r="H109">
-        <v>5.302013775480062e-7</v>
+        <v>9.579204111478017e-7</v>
       </c>
       <c r="I109">
-        <v>3.538788042017376e-5</v>
+        <v>4.1951587280923564e-5</v>
       </c>
       <c r="J109">
-        <v>0.001945410575860432</v>
+        <v>0.0019427693534647245</v>
       </c>
       <c r="K109">
-        <v>4.840881714622057e-5</v>
+        <v>4.840225491291051e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,34 +4235,34 @@
         <v>0.02570070799383125</v>
       </c>
       <c r="B110">
-        <v>7.276799440185298</v>
+        <v>7.2588198351942586</v>
       </c>
       <c r="C110">
-        <v>5.176050768136709e-7</v>
+        <v>9.430556065956168e-7</v>
       </c>
       <c r="D110">
-        <v>3.726505316962924e-5</v>
+        <v>4.376305572202389e-5</v>
       </c>
       <c r="E110">
-        <v>0.0019457319204336072</v>
+        <v>0.0019431225261697916</v>
       </c>
       <c r="F110">
-        <v>4.8412085252187156e-5</v>
+        <v>4.8405560594584115e-5</v>
       </c>
       <c r="G110">
-        <v>7.276800949268619</v>
+        <v>7.258822660192557</v>
       </c>
       <c r="H110">
-        <v>5.214504088058842e-7</v>
+        <v>9.468903080081012e-7</v>
       </c>
       <c r="I110">
-        <v>3.7267723449049725e-5</v>
+        <v>4.376560215222627e-5</v>
       </c>
       <c r="J110">
-        <v>0.001945731956159602</v>
+        <v>0.001943122896049946</v>
       </c>
       <c r="K110">
-        <v>4.841193154620248e-5</v>
+        <v>4.840542807684647e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4270,34 +4270,34 @@
         <v>0.026377700676439353</v>
       </c>
       <c r="B111">
-        <v>7.277578216711502</v>
+        <v>7.259797002464968</v>
       </c>
       <c r="C111">
-        <v>5.103675879620284e-7</v>
+        <v>9.335130520671367e-7</v>
       </c>
       <c r="D111">
-        <v>3.91634967070536e-5</v>
+        <v>4.559546008544008e-5</v>
       </c>
       <c r="E111">
-        <v>0.0019460564994859045</v>
+        <v>0.0019434792674224736</v>
       </c>
       <c r="F111">
-        <v>4.8415228329102136e-5</v>
+        <v>4.840876244273103e-5</v>
       </c>
       <c r="G111">
-        <v>7.277579872139154</v>
+        <v>7.259799978586105</v>
       </c>
       <c r="H111">
-        <v>5.142223929913169e-7</v>
+        <v>9.373572016389715e-7</v>
       </c>
       <c r="I111">
-        <v>3.916617445469365e-5</v>
+        <v>4.559801609770957e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019460565520723761</v>
+        <v>0.0019434796528792423</v>
       </c>
       <c r="K111">
-        <v>4.8415076669169335e-5</v>
+        <v>4.840863218690455e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4305,34 +4305,34 @@
         <v>0.027061240446964195</v>
       </c>
       <c r="B112">
-        <v>7.27836550732254</v>
+        <v>7.260782979339684</v>
       </c>
       <c r="C112">
-        <v>5.042977747915098e-7</v>
+        <v>9.251124809465381e-7</v>
       </c>
       <c r="D112">
-        <v>4.108087605197613e-5</v>
+        <v>4.744659929948194e-5</v>
       </c>
       <c r="E112">
-        <v>0.0019463842383156042</v>
+        <v>0.0019438391636203852</v>
       </c>
       <c r="F112">
-        <v>4.841840272477979e-5</v>
+        <v>4.841199586150127e-5</v>
       </c>
       <c r="G112">
-        <v>7.278367289884397</v>
+        <v>7.260786086623552</v>
       </c>
       <c r="H112">
-        <v>5.081554664549483e-7</v>
+        <v>9.289595105135357e-7</v>
       </c>
       <c r="I112">
-        <v>4.108355657061694e-5</v>
+        <v>4.744916045975003e-5</v>
       </c>
       <c r="J112">
-        <v>0.0019463843050839247</v>
+        <v>0.0019438395618467407</v>
       </c>
       <c r="K112">
-        <v>4.841825309762528e-5</v>
+        <v>4.841186784598646e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,34 +4340,34 @@
         <v>0.027751536644802927</v>
       </c>
       <c r="B113">
-        <v>7.279160675642211</v>
+        <v>7.261777141747303</v>
       </c>
       <c r="C113">
-        <v>4.991063463394825e-7</v>
+        <v>9.175646781449658e-7</v>
       </c>
       <c r="D113">
-        <v>4.3017570708731756e-5</v>
+        <v>4.9316857458559105e-5</v>
       </c>
       <c r="E113">
-        <v>0.0019467151089596552</v>
+        <v>0.0019442021846096597</v>
       </c>
       <c r="F113">
-        <v>4.842160910513146e-5</v>
+        <v>4.841526153487911e-5</v>
       </c>
       <c r="G113">
-        <v>7.279162569156886</v>
+        <v>7.261780363316724</v>
       </c>
       <c r="H113">
-        <v>5.02961397395306e-7</v>
+        <v>9.214090755857895e-7</v>
       </c>
       <c r="I113">
-        <v>4.302025004988365e-5</v>
+        <v>4.931942002704979e-5</v>
       </c>
       <c r="J113">
-        <v>0.0019467151876852488</v>
+        <v>0.0019442025932732384</v>
       </c>
       <c r="K113">
-        <v>4.8421461498544176e-5</v>
+        <v>4.84151357390937e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,34 +4375,34 @@
         <v>0.02844880067856139</v>
       </c>
       <c r="B114">
-        <v>7.279963260290574</v>
+        <v>7.2627790423691</v>
       </c>
       <c r="C114">
-        <v>4.94565523834549e-7</v>
+        <v>9.106417646609518e-7</v>
       </c>
       <c r="D114">
-        <v>4.4974008889959136e-5</v>
+        <v>5.120666445543086e-5</v>
       </c>
       <c r="E114">
-        <v>0.00194704910932854</v>
+        <v>0.0019445683272115144</v>
       </c>
       <c r="F114">
-        <v>4.842484820834061e-5</v>
+        <v>4.841856021708799e-5</v>
       </c>
       <c r="G114">
-        <v>7.279965251256226</v>
+        <v>7.262782364111493</v>
       </c>
       <c r="H114">
-        <v>4.984133478480959e-7</v>
+        <v>9.144789560524122e-7</v>
       </c>
       <c r="I114">
-        <v>4.497668379616397e-5</v>
+        <v>5.120922531764554e-5</v>
       </c>
       <c r="J114">
-        <v>0.001947049198166177</v>
+        <v>0.0019445687443847782</v>
       </c>
       <c r="K114">
-        <v>4.8424702611031045e-5</v>
+        <v>4.8418436621343325e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,34 +4410,34 @@
         <v>0.029153246090799625</v>
       </c>
       <c r="B115">
-        <v>7.280772943461717</v>
+        <v>7.263788378545262</v>
       </c>
       <c r="C115">
-        <v>4.90498145289062e-7</v>
+        <v>9.04166331884422e-7</v>
       </c>
       <c r="D115">
-        <v>4.695065998637504e-5</v>
+        <v>5.311648911276327e-5</v>
       </c>
       <c r="E115">
-        <v>0.0019473862586379292</v>
+        <v>0.0019449376103808215</v>
       </c>
       <c r="F115">
-        <v>4.842812083400042e-5</v>
+        <v>4.84218927220378e-5</v>
       </c>
       <c r="G115">
-        <v>7.280775020676284</v>
+        <v>7.26379178865114</v>
       </c>
       <c r="H115">
-        <v>4.943349766977195e-7</v>
+        <v>9.079925620795904e-7</v>
       </c>
       <c r="I115">
-        <v>4.695332772563682e-5</v>
+        <v>5.3119045660657544e-5</v>
       </c>
       <c r="J115">
-        <v>0.0019473863560920206</v>
+        <v>0.001944938034489131</v>
       </c>
       <c r="K115">
-        <v>4.8427977235542456e-5</v>
+        <v>4.842177130747063e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4445,34 +4445,34 @@
         <v>0.02986508862343095</v>
       </c>
       <c r="B116">
-        <v>7.2815895235010135</v>
+        <v>7.264804964295461</v>
       </c>
       <c r="C116">
-        <v>4.867681278465582e-7</v>
+        <v>8.980019299232468e-7</v>
       </c>
       <c r="D116">
-        <v>4.8948028011636027e-5</v>
+        <v>5.504683318691336e-5</v>
       </c>
       <c r="E116">
-        <v>0.0019477265934346513</v>
+        <v>0.0019453100710025088</v>
       </c>
       <c r="F116">
-        <v>4.843142783363481e-5</v>
+        <v>4.842525991411562e-5</v>
       </c>
       <c r="G116">
-        <v>7.281591677782848</v>
+        <v>7.264808453003609</v>
       </c>
       <c r="H116">
-        <v>4.905909053594779e-7</v>
+        <v>9.018141460265955e-7</v>
       </c>
       <c r="I116">
-        <v>4.89506863663971e-5</v>
+        <v>5.5049383285856715e-5</v>
       </c>
       <c r="J116">
-        <v>0.001947726698294829</v>
+        <v>0.0019453105007773773</v>
       </c>
       <c r="K116">
-        <v>4.8431286224360264e-5</v>
+        <v>4.842514066257256e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,34 +4480,34 @@
         <v>0.030584546283794638</v>
       </c>
       <c r="B117">
-        <v>7.282412891373558</v>
+        <v>7.265828706332802</v>
       </c>
       <c r="C117">
-        <v>4.83272260533775e-7</v>
+        <v>8.920448826767643e-7</v>
       </c>
       <c r="D117">
-        <v>5.096664599865741e-5</v>
+        <v>5.6998226228925586e-5</v>
       </c>
       <c r="E117">
-        <v>0.0019480701641981003</v>
+        <v>0.0019456857603030182</v>
       </c>
       <c r="F117">
-        <v>4.8434770102576195e-5</v>
+        <v>4.842866270029435e-5</v>
       </c>
       <c r="G117">
-        <v>7.2824151152152385</v>
+        <v>7.265832265579207</v>
       </c>
       <c r="H117">
-        <v>4.870785161430984e-7</v>
+        <v>8.958406234726498e-7</v>
       </c>
       <c r="I117">
-        <v>5.096929317173287e-5</v>
+        <v>5.70007681363774e-5</v>
       </c>
       <c r="J117">
-        <v>0.0019480702754961776</v>
+        <v>0.001945686194730742</v>
       </c>
       <c r="K117">
-        <v>4.843463047344999e-5</v>
+        <v>4.842854559422829e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,34 +4515,34 @@
         <v>0.03131183941142232</v>
       </c>
       <c r="B118">
-        <v>7.283243010807334</v>
+        <v>7.266859583841432</v>
       </c>
       <c r="C118">
-        <v>4.799332606428978e-7</v>
+        <v>8.862173630654724e-7</v>
       </c>
       <c r="D118">
-        <v>5.3007071296546835e-5</v>
+        <v>5.89712212618128e-5</v>
       </c>
       <c r="E118">
-        <v>0.0019484170324826884</v>
+        <v>0.0019460647408381015</v>
       </c>
       <c r="F118">
-        <v>4.843814857313371e-5</v>
+        <v>4.843210202349503e-5</v>
       </c>
       <c r="G118">
-        <v>7.283245298100347</v>
+        <v>7.266863207009329</v>
       </c>
       <c r="H118">
-        <v>4.837210177995535e-7</v>
+        <v>8.899946575337552e-7</v>
       </c>
       <c r="I118">
-        <v>5.300970584617021e-5</v>
+        <v>5.8973753564768216e-5</v>
       </c>
       <c r="J118">
-        <v>0.0019484171494555873</v>
+        <v>0.0019460651791126837</v>
       </c>
       <c r="K118">
-        <v>4.843801091568672e-5</v>
+        <v>4.843198704590142e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,34 +4550,34 @@
         <v>0.03204719074551874</v>
       </c>
       <c r="B119">
-        <v>7.28407990181531</v>
+        <v>7.267897631708921</v>
       </c>
       <c r="C119">
-        <v>4.7669399767535875e-7</v>
+        <v>8.80461632612253e-7</v>
       </c>
       <c r="D119">
-        <v>5.506988169731089e-5</v>
+        <v>6.096639121381156e-5</v>
       </c>
       <c r="E119">
-        <v>0.0019487672685558717</v>
+        <v>0.0019464470840069104</v>
       </c>
       <c r="F119">
-        <v>4.844156420895573e-5</v>
+        <v>4.84355788571095e-5</v>
       </c>
       <c r="G119">
-        <v>7.284082247596708</v>
+        <v>7.267901313316589</v>
       </c>
       <c r="H119">
-        <v>4.804616795693322e-7</v>
+        <v>8.842189082338003e-7</v>
       </c>
       <c r="I119">
-        <v>5.507250246237941e-5</v>
+        <v>6.0968912764768665e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019487673906028703</v>
+        <v>0.0019464475254961718</v>
       </c>
       <c r="K119">
-        <v>4.844142851514932e-5</v>
+        <v>4.843546599137458e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,34 +4585,34 @@
         <v>0.03279082549317736</v>
       </c>
       <c r="B120">
-        <v>7.284923627249084</v>
+        <v>7.26894292685332</v>
       </c>
       <c r="C120">
-        <v>4.735127692446821e-7</v>
+        <v>8.747353300897676e-7</v>
       </c>
       <c r="D120">
-        <v>5.7155672308377045e-5</v>
+        <v>6.298432603424105e-5</v>
       </c>
       <c r="E120">
-        <v>0.001949120949479194</v>
+        <v>0.0019468328680353301</v>
       </c>
       <c r="F120">
-        <v>4.844501800047047e-5</v>
+        <v>4.8439094200570306e-5</v>
       </c>
       <c r="G120">
-        <v>7.284926027426711</v>
+        <v>7.2689466622955905</v>
       </c>
       <c r="H120">
-        <v>4.77259118267211e-7</v>
+        <v>8.784713327262807e-7</v>
       </c>
       <c r="I120">
-        <v>5.715827831337089e-5</v>
+        <v>6.298683586485328e-5</v>
       </c>
       <c r="J120">
-        <v>0.001949121076128481</v>
+        <v>0.0019468333122362072</v>
       </c>
       <c r="K120">
-        <v>4.844488426266901e-5</v>
+        <v>4.8438983430451805e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4620,34 +4620,34 @@
         <v>0.03354297139835178</v>
       </c>
       <c r="B121">
-        <v>7.28577428201019</v>
+        <v>7.269995577259362</v>
       </c>
       <c r="C121">
-        <v>4.7035950268772477e-7</v>
+        <v>8.690076833305182e-7</v>
       </c>
       <c r="D121">
-        <v>5.926505308009663e-5</v>
+        <v>6.50256304113155e-5</v>
       </c>
       <c r="E121">
-        <v>0.0019494781575764577</v>
+        <v>0.0019472221763683537</v>
       </c>
       <c r="F121">
-        <v>4.844851096127717e-5</v>
+        <v>4.8442649075844336e-5</v>
       </c>
       <c r="G121">
-        <v>7.285776733197972</v>
+        <v>7.269999362676562</v>
       </c>
       <c r="H121">
-        <v>4.7408351142788716e-7</v>
+        <v>8.727214082742349e-7</v>
       </c>
       <c r="I121">
-        <v>5.926764354402698e-5</v>
+        <v>6.502812772912661e-5</v>
       </c>
       <c r="J121">
-        <v>0.0019494782884518981</v>
+        <v>0.001947222622875994</v>
       </c>
       <c r="K121">
-        <v>4.844837917209631e-5</v>
+        <v>4.844254038533523e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4655,34 +4655,34 @@
         <v>0.034303858811604096</v>
       </c>
       <c r="B122">
-        <v>7.286631984540207</v>
+        <v>7.271055713334506</v>
       </c>
       <c r="C122">
-        <v>4.67212753169348e-7</v>
+        <v>8.632565153393921e-7</v>
       </c>
       <c r="D122">
-        <v>6.139864689586604e-5</v>
+        <v>6.709092200899951e-5</v>
       </c>
       <c r="E122">
-        <v>0.0019498389792328267</v>
+        <v>0.001947615096411346</v>
       </c>
       <c r="F122">
-        <v>4.845204412535684e-5</v>
+        <v>4.844624452472234e-5</v>
       </c>
       <c r="G122">
-        <v>7.286634483921483</v>
+        <v>7.271059545423101</v>
       </c>
       <c r="H122">
-        <v>4.709136062847326e-7</v>
+        <v>8.669471494933749e-7</v>
       </c>
       <c r="I122">
-        <v>6.14012212072533e-5</v>
+        <v>6.709340618694302e-5</v>
       </c>
       <c r="J122">
-        <v>0.0019498391140432261</v>
+        <v>0.0019476155449085612</v>
       </c>
       <c r="K122">
-        <v>4.8451914277679214e-5</v>
+        <v>4.8446137898041784e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0350737207606516</v>
       </c>
       <c r="B123">
-        <v>7.2874968702231255</v>
+        <v>7.272123481209255</v>
       </c>
       <c r="C123">
-        <v>4.6405737234721065e-7</v>
+        <v>8.574659191211261e-7</v>
       </c>
       <c r="D123">
-        <v>6.355708813530102e-5</v>
+        <v>6.918083014183557e-5</v>
       </c>
       <c r="E123">
-        <v>0.0019502035039708748</v>
+        <v>0.001948011718562671</v>
       </c>
       <c r="F123">
-        <v>4.845561854497448e-5</v>
+        <v>4.844988160678045e-5</v>
       </c>
       <c r="G123">
-        <v>7.287499415371619</v>
+        <v>7.272127357054227</v>
       </c>
       <c r="H123">
-        <v>4.677343989608974e-7</v>
+        <v>8.611327934284525e-7</v>
       </c>
       <c r="I123">
-        <v>6.355964574282207e-5</v>
+        <v>6.918330061046746e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019502036424830368</v>
+        <v>0.0019480121687929233</v>
       </c>
       <c r="K123">
-        <v>4.845549063180341e-5</v>
+        <v>4.844977702823372e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,34 +4725,34 @@
         <v>0.03585279302173329</v>
       </c>
       <c r="B124">
-        <v>7.288369086358879</v>
+        <v>7.273199037632983</v>
       </c>
       <c r="C124">
-        <v>4.6088272967022613e-7</v>
+        <v>8.516244836206167e-7</v>
       </c>
       <c r="D124">
-        <v>6.574102162693134e-5</v>
+        <v>7.129599481162896e-5</v>
       </c>
       <c r="E124">
-        <v>0.001950571823753594</v>
+        <v>0.001948412135484638</v>
       </c>
       <c r="F124">
-        <v>4.845923528915275e-5</v>
+        <v>4.845356139789633e-5</v>
       </c>
       <c r="G124">
-        <v>7.28837167514177</v>
+        <v>7.273202954643568</v>
       </c>
       <c r="H124">
-        <v>4.6453536481433024e-7</v>
+        <v>8.552670347357043e-7</v>
       </c>
       <c r="I124">
-        <v>6.574356205899041e-5</v>
+        <v>7.129845107536785e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019505719657764257</v>
+        <v>0.0019484125872272836</v>
       </c>
       <c r="K124">
-        <v>4.8459109303616876e-5</v>
+        <v>4.845345885189975e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.036641314191818215</v>
       </c>
       <c r="B125">
-        <v>7.28924878840089</v>
+        <v>7.274282546151911</v>
       </c>
       <c r="C125">
-        <v>4.576813796334553e-7</v>
+        <v>8.45723964391273e-7</v>
       </c>
       <c r="D125">
-        <v>6.79511019151151e-5</v>
+        <v>7.343706603699133e-5</v>
       </c>
       <c r="E125">
-        <v>0.0019509440324695906</v>
+        <v>0.0019488164415653792</v>
       </c>
       <c r="F125">
-        <v>4.846289544260788e-5</v>
+        <v>4.845728498921443e-5</v>
       </c>
       <c r="G125">
-        <v>7.289251418923385</v>
+        <v>7.274286501942664</v>
       </c>
       <c r="H125">
-        <v>4.6130913403404943e-7</v>
+        <v>8.493417042932381e-7</v>
       </c>
       <c r="I125">
-        <v>6.795362476519287e-5</v>
+        <v>7.343950766466947e-5</v>
       </c>
       <c r="J125">
-        <v>0.0019509441778412116</v>
+        <v>0.001948816894637972</v>
       </c>
       <c r="K125">
-        <v>4.846277137788125e-5</v>
+        <v>4.845718446018142e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.03743952576167768</v>
       </c>
       <c r="B126">
-        <v>7.290136137189542</v>
+        <v>7.275374174296133</v>
       </c>
       <c r="C126">
-        <v>4.5444808144005233e-7</v>
+        <v>8.397583056994181e-7</v>
       </c>
       <c r="D126">
-        <v>7.018799277533697e-5</v>
+        <v>7.560470341512608e-5</v>
       </c>
       <c r="E126">
-        <v>0.0019513202255615168</v>
+        <v>0.0019492247325306037</v>
       </c>
       <c r="F126">
-        <v>4.8466600105052144e-5</v>
+        <v>4.846105348646699e-5</v>
       </c>
       <c r="G126">
-        <v>7.290138807661057</v>
+        <v>7.275378166609656</v>
       </c>
       <c r="H126">
-        <v>4.580505180401506e-7</v>
+        <v>8.433507985912393e-7</v>
       </c>
       <c r="I126">
-        <v>7.01904976549108e-5</v>
+        <v>7.560712999235401e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019513203741398492</v>
+        <v>0.0019492251867636967</v>
       </c>
       <c r="K126">
-        <v>4.846647795434809e-5</v>
+        <v>4.846095495882518e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.03824767218984363</v>
       </c>
       <c r="B127">
-        <v>7.2910312969539435</v>
+        <v>7.276474091544204</v>
       </c>
       <c r="C127">
-        <v>4.511790913576077e-7</v>
+        <v>8.337229345708215e-7</v>
       </c>
       <c r="D127">
-        <v>7.245236692194917e-5</v>
+        <v>7.7799575864129e-5</v>
       </c>
       <c r="E127">
-        <v>0.00195170049976483</v>
+        <v>0.0019496371051705708</v>
       </c>
       <c r="F127">
-        <v>4.8470350390781224e-5</v>
+        <v>4.846486800957146e-5</v>
       </c>
       <c r="G127">
-        <v>7.291034005716292</v>
+        <v>7.276478118256002</v>
       </c>
       <c r="H127">
-        <v>4.547558076148687e-7</v>
+        <v>8.372897790405654e-7</v>
       </c>
       <c r="I127">
-        <v>7.245485349474867e-5</v>
+        <v>7.780198702191415e-5</v>
       </c>
       <c r="J127">
-        <v>0.0019517006514210504</v>
+        <v>0.0019496375604140296</v>
       </c>
       <c r="K127">
-        <v>4.847023014729394e-5</v>
+        <v>4.846477146769799e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4865,34 +4865,34 @@
         <v>0.03906600097747604</v>
       </c>
       <c r="B128">
-        <v>7.291934433893926</v>
+        <v>7.27758246787426</v>
       </c>
       <c r="C128">
-        <v>4.4787166167660424e-7</v>
+        <v>8.276142608686574e-7</v>
       </c>
       <c r="D128">
-        <v>7.474490586209335e-5</v>
+        <v>8.00223615028599e-5</v>
       </c>
       <c r="E128">
-        <v>0.0019520849529297535</v>
+        <v>0.0019500536571538368</v>
       </c>
       <c r="F128">
-        <v>4.847414742847842e-5</v>
+        <v>4.8468729692438374e-5</v>
       </c>
       <c r="G128">
-        <v>7.291937179348967</v>
+        <v>7.277586526917473</v>
       </c>
       <c r="H128">
-        <v>4.514222763762736e-7</v>
+        <v>8.311550767698262e-7</v>
       </c>
       <c r="I128">
-        <v>7.474737380640976e-5</v>
+        <v>8.002475689087942e-5</v>
       </c>
       <c r="J128">
-        <v>0.0019520851075425921</v>
+        <v>0.0019500541132592363</v>
       </c>
       <c r="K128">
-        <v>4.847402908536831e-5</v>
+        <v>4.8468635120650256e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,34 +4900,34 @@
         <v>0.03989476274416206</v>
       </c>
       <c r="B129">
-        <v>7.292845715190888</v>
+        <v>7.278699472748175</v>
       </c>
       <c r="C129">
-        <v>4.445236928880165e-7</v>
+        <v>8.214293301662536e-7</v>
       </c>
       <c r="D129">
-        <v>7.706629985852985e-5</v>
+        <v>8.227374763366416e-5</v>
       </c>
       <c r="E129">
-        <v>0.0019524736839046852</v>
+        <v>0.00195047448690498</v>
       </c>
       <c r="F129">
-        <v>4.8477992361180924e-5</v>
+        <v>4.847263968293622e-5</v>
       </c>
       <c r="G129">
-        <v>7.292848495732299</v>
+        <v>7.278703562042207</v>
       </c>
       <c r="H129">
-        <v>4.4804783671408957e-7</v>
+        <v>8.24943749239183e-7</v>
       </c>
       <c r="I129">
-        <v>7.706874882384706e-5</v>
+        <v>8.227612687490209e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019524738413613252</v>
+        <v>0.0019504749437338855</v>
       </c>
       <c r="K129">
-        <v>4.847787591155267e-5</v>
+        <v>4.847254706545331e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.040734211304670184</v>
       </c>
       <c r="B130">
-        <v>7.293765308328601</v>
+        <v>7.27982527440835</v>
       </c>
       <c r="C130">
-        <v>4.411334970581103e-7</v>
+        <v>8.151655875085342e-7</v>
       </c>
       <c r="D130">
-        <v>7.941724797210954e-5</v>
+        <v>8.455443080059117e-5</v>
       </c>
       <c r="E130">
-        <v>0.0019528667924640405</v>
+        <v>0.0019508996935285283</v>
       </c>
       <c r="F130">
-        <v>4.848188634636488e-5</v>
+        <v>4.847659914297142e-5</v>
       </c>
       <c r="G130">
-        <v>7.29376812240091</v>
+        <v>7.279829391944244</v>
       </c>
       <c r="H130">
-        <v>4.446308057782753e-7</v>
+        <v>8.18653246488005e-7</v>
       </c>
       <c r="I130">
-        <v>7.94196776405004e-5</v>
+        <v>8.455679354291017e-5</v>
       </c>
       <c r="J130">
-        <v>0.0019528669526511415</v>
+        <v>0.0019509001509431067</v>
       </c>
       <c r="K130">
-        <v>4.848177178322124e-5</v>
+        <v>4.8476508463889606e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,34 +4970,34 @@
         <v>0.04158460374668306</v>
       </c>
       <c r="B131">
-        <v>7.294693380633085</v>
+        <v>7.280960039395102</v>
       </c>
       <c r="C131">
-        <v>4.3769964014509873e-7</v>
+        <v>8.088207198948566e-7</v>
       </c>
       <c r="D131">
-        <v>8.179845816148072e-5</v>
+        <v>8.686511690210253e-5</v>
       </c>
       <c r="E131">
-        <v>0.00195326437926752</v>
+        <v>0.0019513293767655256</v>
       </c>
       <c r="F131">
-        <v>4.848583055611597e-5</v>
+        <v>4.8480609248651e-5</v>
       </c>
       <c r="G131">
-        <v>7.294696226670869</v>
+        <v>7.280964183153032</v>
       </c>
       <c r="H131">
-        <v>4.4116974986443134e-7</v>
+        <v>8.122812558310304e-7</v>
       </c>
       <c r="I131">
-        <v>8.180086823162353e-5</v>
+        <v>8.686746281366072e-5</v>
       </c>
       <c r="J131">
-        <v>0.001953264542075754</v>
+        <v>0.0019513298346269204</v>
       </c>
       <c r="K131">
-        <v>4.848571787236785e-5</v>
+        <v>4.8480520491943026e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.04244620050953257</v>
       </c>
       <c r="B132">
-        <v>7.295630098963594</v>
+        <v>7.28210393221613</v>
       </c>
       <c r="C132">
-        <v>4.342208391144616e-7</v>
+        <v>8.023925534066023e-7</v>
       </c>
       <c r="D132">
-        <v>8.4210647423311e-5</v>
+        <v>8.920652134254639e-5</v>
       </c>
       <c r="E132">
-        <v>0.001953666545841152</v>
+        <v>0.001951763636972693</v>
       </c>
       <c r="F132">
-        <v>4.848982617736057e-5</v>
+        <v>4.848467119050388e-5</v>
       </c>
       <c r="G132">
-        <v>7.29563297538558</v>
+        <v>7.28210810014305</v>
       </c>
       <c r="H132">
-        <v>4.3766338304180595e-7</v>
+        <v>8.058256005089117e-7</v>
       </c>
       <c r="I132">
-        <v>8.421303756554344e-5</v>
+        <v>8.920885007026193e-5</v>
       </c>
       <c r="J132">
-        <v>0.001953666711161848</v>
+        <v>0.0019517640951406457</v>
       </c>
       <c r="K132">
-        <v>4.848971536579496e-5</v>
+        <v>4.84845843399795e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5040,34 +5040,34 @@
         <v>0.04331926546396146</v>
       </c>
       <c r="B133">
-        <v>7.29657562950532</v>
+        <v>7.283257115118104</v>
       </c>
       <c r="C133">
-        <v>4.306958962321586e-7</v>
+        <v>7.958789874070942e-7</v>
       </c>
       <c r="D133">
-        <v>8.665454196085678e-5</v>
+        <v>9.157936921092468e-5</v>
       </c>
       <c r="E133">
-        <v>0.0019540733945730892</v>
+        <v>0.0019522025751168813</v>
       </c>
       <c r="F133">
-        <v>4.849387441213946e-5</v>
+        <v>4.8488786173742996e-5</v>
       </c>
       <c r="G133">
-        <v>7.296578534713643</v>
+        <v>7.283261305163177</v>
       </c>
       <c r="H133">
-        <v>4.341105024527626e-7</v>
+        <v>7.99284174845522e-7</v>
       </c>
       <c r="I133">
-        <v>8.6656911857124e-5</v>
+        <v>9.158168040635131e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019540735622878527</v>
+        <v>0.0019522030334425847</v>
       </c>
       <c r="K133">
-        <v>4.849376546538122e-5</v>
+        <v>4.848870121302671e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.044204065992935755</v>
       </c>
       <c r="B134">
-        <v>7.297530137628749</v>
+        <v>7.2844197479250985</v>
       </c>
       <c r="C134">
-        <v>4.2712365799624305e-7</v>
+        <v>7.892779533084023e-7</v>
       </c>
       <c r="D134">
-        <v>8.913087737226049e-5</v>
+        <v>9.398439547880137e-5</v>
       </c>
       <c r="E134">
-        <v>0.00195448502871918</v>
+        <v>0.0019526462927796865</v>
       </c>
       <c r="F134">
-        <v>4.849797647791113e-5</v>
+        <v>4.849295541855598e-5</v>
       </c>
       <c r="G134">
-        <v>7.297533070017323</v>
+        <v>7.2844239580335834</v>
       </c>
       <c r="H134">
-        <v>4.3050994815289927e-7</v>
+        <v>7.92654903792171e-7</v>
       </c>
       <c r="I134">
-        <v>8.913322672111018e-5</v>
+        <v>9.398668880859216e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019544851987124325</v>
+        <v>0.0019526467511177179</v>
       </c>
       <c r="K134">
-        <v>4.849786938846969e-5</v>
+        <v>4.8492872331137774e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,34 +5110,34 @@
         <v>0.04510087307353289</v>
       </c>
       <c r="B135">
-        <v>7.298493787791335</v>
+        <v>7.285591987919405</v>
       </c>
       <c r="C135">
-        <v>4.235029900075284e-7</v>
+        <v>7.825873892298123e-7</v>
       </c>
       <c r="D135">
-        <v>9.164039885262547e-5</v>
+        <v>9.642234521171008e-5</v>
       </c>
       <c r="E135">
-        <v>0.001954901552414918</v>
+        <v>0.001953094892168678</v>
       </c>
       <c r="F135">
-        <v>4.8502133607875595e-5</v>
+        <v>4.8497180160415395e-5</v>
       </c>
       <c r="G135">
-        <v>7.298496745708885</v>
+        <v>7.285596215972795</v>
       </c>
       <c r="H135">
-        <v>4.2686057820362463e-7</v>
+        <v>7.859357178550326e-7</v>
       </c>
       <c r="I135">
-        <v>9.164272731200522e-5</v>
+        <v>9.642462031039108e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019549017245656694</v>
+        <v>0.0019530953503652056</v>
       </c>
       <c r="K135">
-        <v>4.8502028368071046e-5</v>
+        <v>4.849709892956005e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5145,34 +5145,34 @@
         <v>0.04600996135993059</v>
       </c>
       <c r="B136">
-        <v>7.2994667434651905</v>
+        <v>7.28677398974833</v>
       </c>
       <c r="C136">
-        <v>4.1983276190189435e-7</v>
+        <v>7.758052246866655e-7</v>
       </c>
       <c r="D136">
-        <v>9.418386140587972e-5</v>
+        <v>9.889397379026754e-5</v>
       </c>
       <c r="E136">
-        <v>0.0019553230706914502</v>
+        <v>0.001953548476132877</v>
       </c>
       <c r="F136">
-        <v>4.8506347051312946e-5</v>
+        <v>4.850146165040289e-5</v>
       </c>
       <c r="G136">
-        <v>7.299469725237075</v>
+        <v>7.286778233623927</v>
       </c>
       <c r="H136">
-        <v>4.2316125426304527e-7</v>
+        <v>7.791245387256153e-7</v>
       </c>
       <c r="I136">
-        <v>9.418616863963399e-5</v>
+        <v>9.889623029211411e-5</v>
       </c>
       <c r="J136">
-        <v>0.001955323244878531</v>
+        <v>0.001953548934035933</v>
       </c>
       <c r="K136">
-        <v>4.8506243653251424e-5</v>
+        <v>4.850138225914352e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.04693160926752187</v>
       </c>
       <c r="B137">
-        <v>7.3004491670800045</v>
+        <v>7.2879659053462</v>
       </c>
       <c r="C137">
-        <v>4.1611183847342914e-7</v>
+        <v>7.689293714488536e-7</v>
       </c>
       <c r="D137">
-        <v>9.676203006383062e-5</v>
+        <v>0.00010140004713851569</v>
       </c>
       <c r="E137">
-        <v>0.0019557496894941555</v>
+        <v>0.0019540071481809426</v>
       </c>
       <c r="F137">
-        <v>4.8510618073932477e-5</v>
+        <v>4.850580115554353e-5</v>
       </c>
       <c r="G137">
-        <v>7.300452171014906</v>
+        <v>7.287970162898173</v>
       </c>
       <c r="H137">
-        <v>4.194108325016952e-7</v>
+        <v>7.722192694424858e-7</v>
       </c>
       <c r="I137">
-        <v>9.67643157481436e-5</v>
+        <v>0.00010140228469347913</v>
       </c>
       <c r="J137">
-        <v>0.001955749865590524</v>
+        <v>0.001954007605630087</v>
       </c>
       <c r="K137">
-        <v>4.851051650955415e-5</v>
+        <v>4.850572358672591e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5215,34 +5215,34 @@
         <v>0.047866099058181885</v>
       </c>
       <c r="B138">
-        <v>7.301441219974338</v>
+        <v>7.289167883864728</v>
       </c>
       <c r="C138">
-        <v>4.1233907450849556e-7</v>
+        <v>7.619577180963518e-7</v>
       </c>
       <c r="D138">
-        <v>9.937568011077595e-5</v>
+        <v>0.00010394134195792751</v>
       </c>
       <c r="E138">
-        <v>0.001956181515702842</v>
+        <v>0.0019544710125011023</v>
       </c>
       <c r="F138">
-        <v>4.8514947958230125e-5</v>
+        <v>4.8510199959147555e-5</v>
       </c>
       <c r="G138">
-        <v>7.301444244335255</v>
+        <v>7.289172152925073</v>
       </c>
       <c r="H138">
-        <v>4.15608158909355e-7</v>
+        <v>7.65217789989254e-7</v>
       </c>
       <c r="I138">
-        <v>9.93779439017198e-5</v>
+        <v>0.00010394356019226964</v>
       </c>
       <c r="J138">
-        <v>0.0019561816935785583</v>
+        <v>0.001954471469330337</v>
       </c>
       <c r="K138">
-        <v>4.8514848219263474e-5</v>
+        <v>4.851012419539796e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5250,34 +5250,34 @@
         <v>0.048813716926712804</v>
       </c>
       <c r="B139">
-        <v>7.302443062351044</v>
+        <v>7.290380071607529</v>
       </c>
       <c r="C139">
-        <v>4.085133117854021e-7</v>
+        <v>7.548881267302548e-7</v>
       </c>
       <c r="D139">
-        <v>0.00010202559731268412</v>
+        <v>0.00010651864596612887</v>
       </c>
       <c r="E139">
-        <v>0.001956618657152966</v>
+        <v>0.0019549401739822132</v>
       </c>
       <c r="F139">
-        <v>4.851933800385242e-5</v>
+        <v>4.8514659361158585e-5</v>
       </c>
       <c r="G139">
-        <v>7.302446105380062</v>
+        <v>7.290384349978482</v>
       </c>
       <c r="H139">
-        <v>4.1175206626869155e-7</v>
+        <v>7.581179533360847e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010202783887876007</v>
+        <v>0.00010652084451898465</v>
       </c>
       <c r="J139">
-        <v>0.0019566188366735293</v>
+        <v>0.00195494063002369</v>
       </c>
       <c r="K139">
-        <v>4.8519240081799155e-5</v>
+        <v>4.851458538485646e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,34 +5285,34 @@
         <v>0.04977475308849331</v>
       </c>
       <c r="B140">
-        <v>7.303454853234197</v>
+        <v>7.291602611966229</v>
       </c>
       <c r="C140">
-        <v>4.0463337730162744e-7</v>
+        <v>7.477184309038413e-7</v>
       </c>
       <c r="D140">
-        <v>0.00010471257815037486</v>
+        <v>0.00010913275813978625</v>
       </c>
       <c r="E140">
-        <v>0.0019570612226575508</v>
+        <v>0.001955414738235636</v>
       </c>
       <c r="F140">
-        <v>4.8523789527966384e-5</v>
+        <v>4.851918067850691e-5</v>
       </c>
       <c r="G140">
-        <v>7.303457913140915</v>
+        <v>7.2916068974423025</v>
       </c>
       <c r="H140">
-        <v>4.078413723296012e-7</v>
+        <v>7.509175837917052e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010471479715512194</v>
+        <v>0.00010913493663811471</v>
       </c>
       <c r="J140">
-        <v>0.001957061403684014</v>
+        <v>0.001955415193318806</v>
       </c>
       <c r="K140">
-        <v>4.852369341407847e-5</v>
+        <v>4.851910847178734e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,34 +5320,34 @@
         <v>0.050749501868359255</v>
       </c>
       <c r="B141">
-        <v>7.304476750426082</v>
+        <v>7.292835645356734</v>
       </c>
       <c r="C141">
-        <v>4.0069808217686404e-7</v>
+        <v>7.404464342233365e-7</v>
       </c>
       <c r="D141">
-        <v>0.00010743743005639893</v>
+        <v>0.0001117844889613667</v>
       </c>
       <c r="E141">
-        <v>0.0019575093220295854</v>
+        <v>0.001955894811617707</v>
       </c>
       <c r="F141">
-        <v>4.852830386563471e-5</v>
+        <v>4.8523765245467914e-5</v>
       </c>
       <c r="G141">
-        <v>7.304479825391662</v>
+        <v>7.2928399356886535</v>
       </c>
       <c r="H141">
-        <v>4.038748787955173e-7</v>
+        <v>7.436144757365668e-7</v>
       </c>
       <c r="I141">
-        <v>0.00010743962615784474</v>
+        <v>0.00011178664703400585</v>
       </c>
       <c r="J141">
-        <v>0.0019575095044231665</v>
+        <v>0.0019558952655691</v>
       </c>
       <c r="K141">
-        <v>4.8528209550941046e-5</v>
+        <v>4.852369479022536e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.05173826179074292</v>
       </c>
       <c r="B142">
-        <v>7.305508910463317</v>
+        <v>7.294079309154846</v>
       </c>
       <c r="C142">
-        <v>3.9670622091630876e-7</v>
+        <v>7.330699093038026e-7</v>
       </c>
       <c r="D142">
-        <v>0.0001102009716554812</v>
+        <v>0.00011447466066963237</v>
       </c>
       <c r="E142">
-        <v>0.0019579630661048157</v>
+        <v>0.001956380501252718</v>
       </c>
       <c r="F142">
-        <v>4.85328823701959e-5</v>
+        <v>4.8528414414024934e-5</v>
       </c>
       <c r="G142">
-        <v>7.305511998627897</v>
+        <v>7.294083602061271</v>
       </c>
       <c r="H142">
-        <v>3.998513706633331e-7</v>
+        <v>7.362063921521043e-7</v>
       </c>
       <c r="I142">
-        <v>0.00011020314449436136</v>
+        <v>0.00011447679793183758</v>
       </c>
       <c r="J142">
-        <v>0.001957963249720084</v>
+        <v>0.0019563809538857076</v>
       </c>
       <c r="K142">
-        <v>4.853278984543734e-5</v>
+        <v>4.85283456918678e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,34 +5390,34 @@
         <v>0.05274133567109854</v>
       </c>
       <c r="B143">
-        <v>7.3065514885717135</v>
+        <v>7.295333737630847</v>
       </c>
       <c r="C143">
-        <v>3.92656570858707e-7</v>
+        <v>7.255865969046137e-7</v>
       </c>
       <c r="D143">
-        <v>0.00011300403300848342</v>
+        <v>0.0001172041075138263</v>
       </c>
       <c r="E143">
-        <v>0.0019584225667648677</v>
+        <v>0.0019568719150563686</v>
       </c>
       <c r="F143">
-        <v>4.853752641364968e-5</v>
+        <v>4.853312955423686e-5</v>
       </c>
       <c r="G143">
-        <v>7.306554588051726</v>
+        <v>7.295338030818732</v>
       </c>
       <c r="H143">
-        <v>3.957696155207052e-7</v>
+        <v>7.286910641677709e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011300618224344193</v>
+        <v>0.00011720622358746369</v>
       </c>
       <c r="J143">
-        <v>0.001958422751449771</v>
+        <v>0.0019568723661882465</v>
       </c>
       <c r="K143">
-        <v>4.853743566929532e-5</v>
+        <v>4.853306254650795e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.05375903070864185</v>
       </c>
       <c r="B144">
-        <v>7.307604638619597</v>
+        <v>7.296599061882826</v>
       </c>
       <c r="C144">
-        <v>3.8854789171510105e-7</v>
+        <v>7.17994205151078e-7</v>
       </c>
       <c r="D144">
-        <v>0.00011584745585990778</v>
+        <v>0.00011997367601156008</v>
       </c>
       <c r="E144">
-        <v>0.0019588879369606947</v>
+        <v>0.0019573691617596747</v>
       </c>
       <c r="F144">
-        <v>4.854223738704714e-5</v>
+        <v>4.8537912054610336e-5</v>
       </c>
       <c r="G144">
-        <v>7.307607747479296</v>
+        <v>7.2966033530022125</v>
       </c>
       <c r="H144">
-        <v>3.9162836331241557e-7</v>
+        <v>7.21066190143532e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011584958110531511</v>
+        <v>0.00011997577048398334</v>
       </c>
       <c r="J144">
-        <v>0.001958888122560574</v>
+        <v>0.0019573696111972734</v>
       </c>
       <c r="K144">
-        <v>4.854214841329969e-5</v>
+        <v>4.8537846742391677e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5460,34 +5460,34 @@
         <v>0.05479165858043223</v>
       </c>
       <c r="B145">
-        <v>7.308668513069463</v>
+        <v>7.297875409768748</v>
       </c>
       <c r="C145">
-        <v>3.8437892514915405e-7</v>
+        <v>7.102904087926184e-7</v>
       </c>
       <c r="D145">
-        <v>0.00011873209388898616</v>
+        <v>0.00012278422521044371</v>
       </c>
       <c r="E145">
-        <v>0.0019593592907363407</v>
+        <v>0.001957872350933346</v>
       </c>
       <c r="F145">
-        <v>4.8547016700886125e-5</v>
+        <v>4.8542763322476554e-5</v>
       </c>
       <c r="G145">
-        <v>7.30867162935467</v>
+        <v>7.2978796964498045</v>
       </c>
       <c r="H145">
-        <v>3.8742634569949405e-7</v>
+        <v>7.13329434797158e-7</v>
       </c>
       <c r="I145">
-        <v>0.00011873419480025102</v>
+        <v>0.00012278629771196237</v>
       </c>
       <c r="J145">
-        <v>0.0019593594770925984</v>
+        <v>0.001957872798477104</v>
       </c>
       <c r="K145">
-        <v>4.8546929487642906e-5</v>
+        <v>4.854269968656072e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.05583953553682625</v>
       </c>
       <c r="B146">
-        <v>7.309743262927954</v>
+        <v>7.299162905837244</v>
       </c>
       <c r="C146">
-        <v>3.801483943737984e-7</v>
+        <v>7.024728484729912e-7</v>
       </c>
       <c r="D146">
-        <v>0.00012165881296442507</v>
+        <v>0.00012563662695351795</v>
       </c>
       <c r="E146">
-        <v>0.001959836743253035</v>
+        <v>0.0019583815930126454</v>
       </c>
       <c r="F146">
-        <v>4.855186578551179e-5</v>
+        <v>4.854768478437294e-5</v>
       </c>
       <c r="G146">
-        <v>7.309746384627654</v>
+        <v>7.299167185706079</v>
       </c>
       <c r="H146">
-        <v>3.8316227574093963e-7</v>
+        <v>7.054784287700243e-7</v>
       </c>
       <c r="I146">
-        <v>0.00012166088916017578</v>
+        <v>0.00012563867706232956</v>
       </c>
       <c r="J146">
-        <v>0.0019598369302040453</v>
+        <v>0.001958382038465056</v>
       </c>
       <c r="K146">
-        <v>4.8551780322361634e-5</v>
+        <v>4.8547622805279355e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,34 +5530,34 @@
         <v>0.05690298249833185</v>
       </c>
       <c r="B147">
-        <v>7.310829037694124</v>
+        <v>7.300461671257188</v>
       </c>
       <c r="C147">
-        <v>3.7585500375269075e-7</v>
+        <v>6.945391299999963e-7</v>
       </c>
       <c r="D147">
-        <v>0.00012462849140287976</v>
+        <v>0.00012853176614855674</v>
       </c>
       <c r="E147">
-        <v>0.0019603204108136277</v>
+        <v>0.001958896999322761</v>
       </c>
       <c r="F147">
-        <v>4.855678609152225e-5</v>
+        <v>4.855267788642955e-5</v>
       </c>
       <c r="G147">
-        <v>7.310832162786623</v>
+        <v>7.300465941871774</v>
       </c>
       <c r="H147">
-        <v>3.7883484758507236e-7</v>
+        <v>6.975107675068343e-7</v>
       </c>
       <c r="I147">
-        <v>0.00012463054251015415</v>
+        <v>0.00012853379346750392</v>
       </c>
       <c r="J147">
-        <v>0.0019603205981904392</v>
+        <v>0.001958897442478733</v>
       </c>
       <c r="K147">
-        <v>4.855670236775513e-5</v>
+        <v>4.8552617544388705e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.05798232515389271</v>
       </c>
       <c r="B148">
-        <v>7.311925985306</v>
+        <v>7.301771823746139</v>
       </c>
       <c r="C148">
-        <v>3.714974384001829e-7</v>
+        <v>6.864868236091582e-7</v>
       </c>
       <c r="D148">
-        <v>0.000127642020231243</v>
+        <v>0.00013147054104131232</v>
       </c>
       <c r="E148">
-        <v>0.0019608104108873826</v>
+        <v>0.001959418682104718</v>
       </c>
       <c r="F148">
-        <v>4.856177909017975e-5</v>
+        <v>4.855774409476063e-5</v>
       </c>
       <c r="G148">
-        <v>7.3119291117125025</v>
+        <v>7.301776082674076</v>
       </c>
       <c r="H148">
-        <v>3.744427359390324e-7</v>
+        <v>6.894240109743782e-7</v>
       </c>
       <c r="I148">
-        <v>0.00012764404587627096</v>
+        <v>0.00013147254515904642</v>
       </c>
       <c r="J148">
-        <v>0.0019608105985176216</v>
+        <v>0.0019594191227518204</v>
       </c>
       <c r="K148">
-        <v>4.856169709474139e-5</v>
+        <v>4.855768536971226e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5600,34 +5600,34 @@
         <v>0.05907789406063307</v>
       </c>
       <c r="B149">
-        <v>7.313034252085464</v>
+        <v>7.303093477497747</v>
       </c>
       <c r="C149">
-        <v>3.670743637775275e-7</v>
+        <v>6.783134632184375e-7</v>
       </c>
       <c r="D149">
-        <v>0.00013070030345283313</v>
+        <v>0.00013445386349278079</v>
       </c>
       <c r="E149">
-        <v>0.001961306862135162</v>
+        <v>0.0019599467545418463</v>
       </c>
       <c r="F149">
-        <v>4.85668462738272e-5</v>
+        <v>4.856288489586111e-5</v>
       </c>
       <c r="G149">
-        <v>7.31303737770203</v>
+        <v>7.3030977222746225</v>
       </c>
       <c r="H149">
-        <v>3.6998459561543146e-7</v>
+        <v>6.81215682408123e-7</v>
       </c>
       <c r="I149">
-        <v>0.0001307023032668006</v>
+        <v>0.00013445584400110567</v>
       </c>
       <c r="J149">
-        <v>0.001961307049843653</v>
+        <v>0.001959947192471723</v>
       </c>
       <c r="K149">
-        <v>4.856676599535331e-5</v>
+        <v>4.856282776746863e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.06019002474509338</v>
       </c>
       <c r="B150">
-        <v>7.3141539826814865</v>
+        <v>7.304426743108167</v>
       </c>
       <c r="C150">
-        <v>3.625844252832354e-7</v>
+        <v>6.700165456719431e-7</v>
       </c>
       <c r="D150">
-        <v>0.0001338042583175678</v>
+        <v>0.0001374826592605666</v>
       </c>
       <c r="E150">
-        <v>0.0019618098844349963</v>
+        <v>0.001960481330786853</v>
       </c>
       <c r="F150">
-        <v>4.857198915631032e-5</v>
+        <v>4.856810179700848e-5</v>
       </c>
       <c r="G150">
-        <v>7.314157105369639</v>
+        <v>7.304430971260624</v>
       </c>
       <c r="H150">
-        <v>3.654590613058155e-7</v>
+        <v>6.728832680334847e-7</v>
       </c>
       <c r="I150">
-        <v>0.00013380623193352516</v>
+        <v>0.0001374846157514658</v>
       </c>
       <c r="J150">
-        <v>0.001961810072041487</v>
+        <v>0.001960481765781101</v>
       </c>
       <c r="K150">
-        <v>4.8571910583080095e-5</v>
+        <v>4.856804624463728e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5670,34 +5670,34 @@
         <v>0.061319057805988</v>
       </c>
       <c r="B151">
-        <v>7.315285320011727</v>
+        <v>7.305771727501673</v>
       </c>
       <c r="C151">
-        <v>3.58026247838539e-7</v>
+        <v>6.615935299738804e-7</v>
       </c>
       <c r="D151">
-        <v>0.00013695481559621817</v>
+        <v>0.00014055786828442703</v>
       </c>
       <c r="E151">
-        <v>0.001962319598908087</v>
+        <v>0.0019610225259895087</v>
       </c>
       <c r="F151">
-        <v>4.857720927340551e-5</v>
+        <v>4.857339632666989e-5</v>
       </c>
       <c r="G151">
-        <v>7.315288437602858</v>
+        <v>7.30577593649476</v>
       </c>
       <c r="H151">
-        <v>3.608647469776115e-7</v>
+        <v>6.644242159525694e-7</v>
       </c>
       <c r="I151">
-        <v>0.00013695676263217498</v>
+        <v>0.00014055980034749827</v>
       </c>
       <c r="J151">
-        <v>0.001962319786227425</v>
+        <v>0.0019610229578224344</v>
       </c>
       <c r="K151">
-        <v>4.8577132393358496e-5</v>
+        <v>4.857334232938652e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,34 +5705,34 @@
         <v>0.06246533901851619</v>
       </c>
       <c r="B152">
-        <v>7.316428405202545</v>
+        <v>7.307128533855453</v>
       </c>
       <c r="C152">
-        <v>3.533984354660543e-7</v>
+        <v>6.53041836509909e-7</v>
       </c>
       <c r="D152">
-        <v>0.00014015291985882997</v>
+        <v>0.00014368044497607737</v>
       </c>
       <c r="E152">
-        <v>0.0019628361279452502</v>
+        <v>0.0019615704563249936</v>
       </c>
       <c r="F152">
-        <v>4.858250818325345e-5</v>
+        <v>4.8578770034914875e-5</v>
       </c>
       <c r="G152">
-        <v>7.31643151548624</v>
+        <v>7.30713272114785</v>
       </c>
       <c r="H152">
-        <v>3.5620024564798525e-7</v>
+        <v>6.558359355875671e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014015483992447662</v>
+        <v>0.00014368235218072828</v>
       </c>
       <c r="J152">
-        <v>0.001962836314784362</v>
+        <v>0.0019615708847689644</v>
       </c>
       <c r="K152">
-        <v>4.8582432983958146e-5</v>
+        <v>4.857871757148915e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,34 +5740,34 @@
         <v>0.06362921944025837</v>
       </c>
       <c r="B153">
-        <v>7.317583377527447</v>
+        <v>7.3084972615238035</v>
       </c>
       <c r="C153">
-        <v>3.4869957086199835e-7</v>
+        <v>6.443588462570133e-7</v>
       </c>
       <c r="D153">
-        <v>0.0001433995297574088</v>
+        <v>0.00014685135851334088</v>
       </c>
       <c r="E153">
-        <v>0.0019633595952338167</v>
+        <v>0.001962125239022921</v>
       </c>
       <c r="F153">
-        <v>4.858788746679876e-5</v>
+        <v>4.85842244938336e-5</v>
       </c>
       <c r="G153">
-        <v>7.317586478250366</v>
+        <v>7.308501424553158</v>
       </c>
       <c r="H153">
-        <v>3.514641287809344e-7</v>
+        <v>6.471157965676376e-7</v>
       </c>
       <c r="I153">
-        <v>0.00014340142245963951</v>
+        <v>0.00014685324042181227</v>
       </c>
       <c r="J153">
-        <v>0.001963359781401396</v>
+        <v>0.001962125663852923</v>
       </c>
       <c r="K153">
-        <v>4.8587813935481935e-5</v>
+        <v>4.858417354277075e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5775,34 +5775,34 @@
         <v>0.06481105551869046</v>
       </c>
       <c r="B154">
-        <v>7.31875037434402</v>
+        <v>7.309878005961776</v>
       </c>
       <c r="C154">
-        <v>3.439282149624254e-7</v>
+        <v>6.355418999816009e-7</v>
       </c>
       <c r="D154">
-        <v>0.00014669561831296313</v>
+        <v>0.0001500715931387301</v>
       </c>
       <c r="E154">
-        <v>0.0019638901257850306</v>
+        <v>0.0019626869923970794</v>
       </c>
       <c r="F154">
-        <v>4.859334872823557e-5</v>
+        <v>4.85897612979609e-5</v>
       </c>
       <c r="G154">
-        <v>7.3187534632095</v>
+        <v>7.309882142123091</v>
       </c>
       <c r="H154">
-        <v>3.4665494583511666e-7</v>
+        <v>6.382611284506284e-7</v>
       </c>
       <c r="I154">
-        <v>0.0001466974832463877</v>
+        <v>0.00015007344930687637</v>
       </c>
       <c r="J154">
-        <v>0.0019638903110772944</v>
+        <v>0.0019626874133708487</v>
       </c>
       <c r="K154">
-        <v>4.859327685173312e-5</v>
+        <v>4.858971183745086e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.06601120920034848</v>
       </c>
       <c r="B155">
-        <v>7.319929531029363</v>
+        <v>7.311270858648384</v>
       </c>
       <c r="C155">
-        <v>3.3908290650219847e-7</v>
+        <v>6.265882974248986e-7</v>
       </c>
       <c r="D155">
-        <v>0.00015004217320700074</v>
+        <v>0.000153342148462541</v>
       </c>
       <c r="E155">
-        <v>0.0019644278459619515</v>
+        <v>0.0019632558358759163</v>
       </c>
       <c r="F155">
-        <v>4.859889359545944e-5</v>
+        <v>4.859538206470632e-5</v>
       </c>
       <c r="G155">
-        <v>7.319932605712427</v>
+        <v>7.311274965324491</v>
       </c>
       <c r="H155">
-        <v>3.4177122403776376e-7</v>
+        <v>6.292692193317078e-7</v>
       </c>
       <c r="I155">
-        <v>0.0001500440099755665</v>
+        <v>0.00015334397845095262</v>
       </c>
       <c r="J155">
-        <v>0.0019644280301728133</v>
+        <v>0.0019632562527523677</v>
       </c>
       <c r="K155">
-        <v>4.859882336026282e-5</v>
+        <v>4.859533407269083e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.06723004804167766</v>
       </c>
       <c r="B156">
-        <v>7.321120980914107</v>
+        <v>7.312675907009522</v>
       </c>
       <c r="C156">
-        <v>3.341621615677363e-7</v>
+        <v>6.174952964761553e-7</v>
       </c>
       <c r="D156">
-        <v>0.00015344019707757826</v>
+        <v>0.00015666403977055294</v>
       </c>
       <c r="E156">
-        <v>0.0019649728835078946</v>
+        <v>0.001963831890033795</v>
       </c>
       <c r="F156">
-        <v>4.8604523720525386e-5</v>
+        <v>4.860108843479007e-5</v>
       </c>
       <c r="G156">
-        <v>7.321124039048979</v>
+        <v>7.312679981558635</v>
       </c>
       <c r="H156">
-        <v>3.368114677064335e-7</v>
+        <v>6.201373152868141e-7</v>
       </c>
       <c r="I156">
-        <v>0.00015344200528417007</v>
+        <v>0.00015666584313421753</v>
       </c>
       <c r="J156">
-        <v>0.001964973066431895</v>
+        <v>0.001963832302576524</v>
       </c>
       <c r="K156">
-        <v>4.8604455112712556e-5</v>
+        <v>4.860104188889938e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,34 +5880,34 @@
         <v>0.06846794532159939</v>
       </c>
       <c r="B157">
-        <v>7.322324855215013</v>
+        <v>7.314093234340694</v>
       </c>
       <c r="C157">
-        <v>3.2916447314253975e-7</v>
+        <v>6.082601123327915e-7</v>
       </c>
       <c r="D157">
-        <v>0.0001568907078200015</v>
+        <v>0.00016003829833641893</v>
       </c>
       <c r="E157">
-        <v>0.0019655253675754233</v>
+        <v>0.00196441527662306</v>
       </c>
       <c r="F157">
-        <v>4.861024078011261e-5</v>
+        <v>4.860688207268523e-5</v>
       </c>
       <c r="G157">
-        <v>7.322327894404982</v>
+        <v>7.314097274103403</v>
       </c>
       <c r="H157">
-        <v>3.3177415779684387e-7</v>
+        <v>6.108626196769715e-7</v>
       </c>
       <c r="I157">
-        <v>0.00015689248708554096</v>
+        <v>0.00016004007464917572</v>
       </c>
       <c r="J157">
-        <v>0.0019655255489964565</v>
+        <v>0.001964415684581802</v>
       </c>
       <c r="K157">
-        <v>4.861017378539893e-5</v>
+        <v>4.8606836950289505e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5915,34 +5915,34 @@
         <v>0.06972528015583085</v>
       </c>
       <c r="B158">
-        <v>7.32354128296623</v>
+        <v>7.315522919729655</v>
       </c>
       <c r="C158">
-        <v>3.240883106453862e-7</v>
+        <v>5.988799166474477e-7</v>
       </c>
       <c r="D158">
-        <v>0.00016039473889227946</v>
+        <v>0.00016346597173883925</v>
       </c>
       <c r="E158">
-        <v>0.0019660854287559286</v>
+        <v>0.0019650061186069364</v>
       </c>
       <c r="F158">
-        <v>4.8616046475995554e-5</v>
+        <v>4.861276466706647e-5</v>
       </c>
       <c r="G158">
-        <v>7.3235443007645955</v>
+        <v>7.315526922018504</v>
       </c>
       <c r="H158">
-        <v>3.266577516767887e-7</v>
+        <v>6.014422920351957e-7</v>
       </c>
       <c r="I158">
-        <v>0.0001603964887955465</v>
+        <v>0.00016346772053128585</v>
       </c>
       <c r="J158">
-        <v>0.0019660856084543444</v>
+        <v>0.0019650065217267794</v>
       </c>
       <c r="K158">
-        <v>4.8615981079699015e-5</v>
+        <v>4.861272094526711e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,34 +5950,34 @@
         <v>0.07100243761299213</v>
       </c>
       <c r="B159">
-        <v>7.324770390949264</v>
+        <v>7.3169650379791475</v>
       </c>
       <c r="C159">
-        <v>3.1893211946190154e-7</v>
+        <v>5.893518366619801e-7</v>
       </c>
       <c r="D159">
-        <v>0.00016395333962543405</v>
+        <v>0.0001669481241836094</v>
       </c>
       <c r="E159">
-        <v>0.0019666531991098177</v>
+        <v>0.001965604540193298</v>
       </c>
       <c r="F159">
-        <v>4.862194253552182e-5</v>
+        <v>4.8618737931265024e-5</v>
       </c>
       <c r="G159">
-        <v>7.3247733848979495</v>
+        <v>7.3169690000968535</v>
       </c>
       <c r="H159">
-        <v>3.214606823725294e-7</v>
+        <v>5.918734473708088e-7</v>
       </c>
       <c r="I159">
-        <v>0.00016395505976660814</v>
+        <v>0.00016694984500590843</v>
       </c>
       <c r="J159">
-        <v>0.001966653376864471</v>
+        <v>0.0019656049382233256</v>
       </c>
       <c r="K159">
-        <v>4.8621878722602184e-5</v>
+        <v>4.86186955869254e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5985,34 +5985,34 @@
         <v>0.07229980883253656</v>
       </c>
       <c r="B160">
-        <v>7.326012303621691</v>
+        <v>7.318419659529793</v>
       </c>
       <c r="C160">
-        <v>3.136943204681467e-7</v>
+        <v>5.796729543272632e-7</v>
       </c>
       <c r="D160">
-        <v>0.0001675675755387689</v>
+        <v>0.00017048583683063572</v>
       </c>
       <c r="E160">
-        <v>0.0019672288121973273</v>
+        <v>0.0019662106668693266</v>
       </c>
       <c r="F160">
-        <v>4.862793071209692e-5</v>
+        <v>4.8624803603730543e-5</v>
       </c>
       <c r="G160">
-        <v>7.326015271211586</v>
+        <v>7.318423578749718</v>
       </c>
       <c r="H160">
-        <v>3.1618135819198946e-7</v>
+        <v>5.821531550563451e-7</v>
       </c>
       <c r="I160">
-        <v>0.00016756926552595456</v>
+        <v>0.00017048752923549547</v>
       </c>
       <c r="J160">
-        <v>0.001967228987780677</v>
+        <v>0.0019662110595555695</v>
       </c>
       <c r="K160">
-        <v>4.862786846710973e-5</v>
+        <v>4.862476261344761e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6020,34 +6020,34 @@
         <v>0.07361779114454015</v>
       </c>
       <c r="B161">
-        <v>7.32726714304468</v>
+        <v>7.319886850383324</v>
       </c>
       <c r="C161">
-        <v>3.0837330954729333e-7</v>
+        <v>5.69840305410037e-7</v>
       </c>
       <c r="D161">
-        <v>0.00017123852866020666</v>
+        <v>0.0001740802081260144</v>
       </c>
       <c r="E161">
-        <v>0.0019678124031100035</v>
+        <v>0.0019668246254371117</v>
       </c>
       <c r="F161">
-        <v>4.863401278567592e-5</v>
+        <v>4.863096344849973e-5</v>
       </c>
       <c r="G161">
-        <v>7.32727008171282</v>
+        <v>7.319890723966684</v>
       </c>
       <c r="H161">
-        <v>3.108181623479487e-7</v>
+        <v>5.722784382710011e-7</v>
       </c>
       <c r="I161">
-        <v>0.0001712401880597594</v>
+        <v>0.0001740818716199594</v>
       </c>
       <c r="J161">
-        <v>0.001967812576290957</v>
+        <v>0.0019668250125184556</v>
       </c>
       <c r="K161">
-        <v>4.863395209276251e-5</v>
+        <v>4.863092378861528e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6055,34 +6055,34 @@
         <v>0.0749567881913871</v>
       </c>
       <c r="B162">
-        <v>7.328535028809387</v>
+        <v>7.3213666720262545</v>
       </c>
       <c r="C162">
-        <v>3.0296745709818214e-7</v>
+        <v>5.598508785847119e-7</v>
       </c>
       <c r="D162">
-        <v>0.00017496729785179796</v>
+        <v>0.00017773235413926975</v>
       </c>
       <c r="E162">
-        <v>0.0019684041085028608</v>
+        <v>0.001967446544050198</v>
       </c>
       <c r="F162">
-        <v>4.864019056326237e-5</v>
+        <v>4.8637219255672e-5</v>
       </c>
       <c r="G162">
-        <v>7.328537935983956</v>
+        <v>7.321370497200476</v>
       </c>
       <c r="H162">
-        <v>3.0536945227979564e-7</v>
+        <v>5.622462727484053e-7</v>
       </c>
       <c r="I162">
-        <v>0.00017496892625475465</v>
+        <v>0.00017773398825960223</v>
       </c>
       <c r="J162">
-        <v>0.001968404279037319</v>
+        <v>0.00196744692525715</v>
       </c>
       <c r="K162">
-        <v>4.8640131406184675e-5</v>
+        <v>4.8637180902293195e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,34 +6090,34 @@
         <v>0.07631721005138836</v>
       </c>
       <c r="B163">
-        <v>7.32981607796229</v>
+        <v>7.322859181354151</v>
       </c>
       <c r="C163">
-        <v>2.974751075362165e-7</v>
+        <v>5.497016145112236e-7</v>
       </c>
       <c r="D163">
-        <v>0.0001787549991405159</v>
+        <v>0.00018144340890585044</v>
       </c>
       <c r="E163">
-        <v>0.001969004066627253</v>
+        <v>0.001968076552251127</v>
       </c>
       <c r="F163">
-        <v>4.8646465879414394e-5</v>
+        <v>4.8643572841892284e-5</v>
       </c>
       <c r="G163">
-        <v>7.329818951017507</v>
+        <v>7.322862955357554</v>
       </c>
       <c r="H163">
-        <v>2.998335593520819e-7</v>
+        <v>5.520535859417951e-7</v>
       </c>
       <c r="I163">
-        <v>0.00017875659613226206</v>
+        <v>0.00018144501317035472</v>
       </c>
       <c r="J163">
-        <v>0.0019690042342783444</v>
+        <v>0.00196807692732191</v>
       </c>
       <c r="K163">
-        <v>4.8646408241558954e-5</v>
+        <v>4.864353577093865e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,34 +6125,34 @@
         <v>0.0776994733643714</v>
       </c>
       <c r="B164">
-        <v>7.331110404929491</v>
+        <v>7.324364430596615</v>
       </c>
       <c r="C164">
-        <v>2.9189457878642656e-7</v>
+        <v>5.393894048981556e-7</v>
       </c>
       <c r="D164">
-        <v>0.0001826027660544443</v>
+        <v>0.0001852145247749852</v>
       </c>
       <c r="E164">
-        <v>0.0019696124173644875</v>
+        <v>0.0019687147810100005</v>
       </c>
       <c r="F164">
-        <v>4.8652840596758264e-5</v>
+        <v>4.865002605084133e-5</v>
       </c>
       <c r="G164">
-        <v>7.331113241208718</v>
+        <v>7.324368150635812</v>
       </c>
       <c r="H164">
-        <v>2.9420878810091337e-7</v>
+        <v>5.416972564674676e-7</v>
       </c>
       <c r="I164">
-        <v>0.0001826043312103734</v>
+        <v>0.00018521609869321979</v>
       </c>
       <c r="J164">
-        <v>0.001969612581880464</v>
+        <v>0.0019687151496708185</v>
       </c>
       <c r="K164">
-        <v>4.865278446108428e-5</v>
+        <v>4.864999023796999e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,34 +6160,34 @@
         <v>0.07910400145927939</v>
       </c>
       <c r="B165">
-        <v>7.332418121440109</v>
+        <v>7.3258824672431455</v>
       </c>
       <c r="C165">
-        <v>2.862241617682712e-7</v>
+        <v>5.289110915506857e-7</v>
       </c>
       <c r="D165">
-        <v>0.00018651174996447457</v>
+        <v>0.0001890468727629965</v>
       </c>
       <c r="E165">
-        <v>0.0019702293022601973</v>
+        <v>0.0019693613627640885</v>
       </c>
       <c r="F165">
-        <v>4.865931660650956e-5</v>
+        <v>4.865658075373339e-5</v>
       </c>
       <c r="G165">
-        <v>7.332420918245392</v>
+        <v>7.3258861305213685</v>
       </c>
       <c r="H165">
-        <v>2.884934158571445e-7</v>
+        <v>5.311741124351389e-7</v>
       </c>
       <c r="I165">
-        <v>0.0001865132828753327</v>
+        <v>0.0001890484158563659</v>
       </c>
       <c r="J165">
-        <v>0.001970229463392661</v>
+        <v>0.001969361724740653</v>
       </c>
       <c r="K165">
-        <v>4.8659261955597204e-5</v>
+        <v>4.865654617442344e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.08053122448381893</v>
       </c>
       <c r="B166">
-        <v>7.333739336448787</v>
+        <v>7.32741333396999</v>
       </c>
       <c r="C166">
-        <v>2.804621198722004e-7</v>
+        <v>5.182634654034676e-7</v>
       </c>
       <c r="D166">
-        <v>0.0001904831204316249</v>
+        <v>0.00019294164291217943</v>
       </c>
       <c r="E166">
-        <v>0.001970854864559513</v>
+        <v>0.001970016431458524</v>
       </c>
       <c r="F166">
-        <v>4.866589582900207e-5</v>
+        <v>4.866323884982181e-5</v>
       </c>
       <c r="G166">
-        <v>7.3337420910689755</v>
+        <v>7.327416937663271</v>
       </c>
       <c r="H166">
-        <v>2.8268569229421127e-7</v>
+        <v>5.204809311696665e-7</v>
       </c>
       <c r="I166">
-        <v>0.00019048462067664933</v>
+        <v>0.00019294315469107738</v>
       </c>
       <c r="J166">
-        <v>0.001970855022051296</v>
+        <v>0.0019700167864779823</v>
       </c>
       <c r="K166">
-        <v>4.866584264505257e-5</v>
+        <v>4.8663205479359566e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6230,34 +6230,34 @@
         <v>0.08198157953619621</v>
       </c>
       <c r="B167">
-        <v>7.335074156057401</v>
+        <v>7.328957068568163</v>
       </c>
       <c r="C167">
-        <v>2.7460668842784444e-7</v>
+        <v>5.074432655377527e-7</v>
       </c>
       <c r="D167">
-        <v>0.00019451806556009899</v>
+        <v>0.0001969000446553493</v>
       </c>
       <c r="E167">
-        <v>0.00197148924924305</v>
+        <v>0.0019706801225881</v>
       </c>
       <c r="F167">
-        <v>4.8672580214224564e-5</v>
+        <v>4.867000226691237e-5</v>
       </c>
       <c r="G167">
-        <v>7.335076865727001</v>
+        <v>7.32896060985023</v>
       </c>
       <c r="H167">
-        <v>2.7678383874988263e-7</v>
+        <v>5.096144376805445e-7</v>
       </c>
       <c r="I167">
-        <v>0.0001945195327063871</v>
+        <v>0.00019690152461000318</v>
       </c>
       <c r="J167">
-        <v>0.001971489402833395</v>
+        <v>0.001970680470371332</v>
       </c>
       <c r="K167">
-        <v>4.8672528479059455e-5</v>
+        <v>4.866997008043124e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,34 +6265,34 @@
         <v>0.08345551079898178</v>
       </c>
       <c r="B168">
-        <v>7.33642268343606</v>
+        <v>7.330513703872752</v>
       </c>
       <c r="C168">
-        <v>2.686560741636428e-7</v>
+        <v>4.964471781828493e-7</v>
       </c>
       <c r="D168">
-        <v>0.00019861779235620243</v>
+        <v>0.00020092330718616657</v>
       </c>
       <c r="E168">
-        <v>0.0019721326030637566</v>
+        <v>0.0019713525732402135</v>
       </c>
       <c r="F168">
-        <v>4.867937174236564e-5</v>
+        <v>4.8676872961885e-5</v>
       </c>
       <c r="G168">
-        <v>7.336425345366236</v>
+        <v>7.330517179915357</v>
       </c>
       <c r="H168">
-        <v>2.70786047698733e-7</v>
+        <v>4.985713041053533e-7</v>
       </c>
       <c r="I168">
-        <v>0.000198619225998425</v>
+        <v>0.00020092475483142412</v>
       </c>
       <c r="J168">
-        <v>0.0019721327524864617</v>
+        <v>0.0019713529135039626</v>
       </c>
       <c r="K168">
-        <v>4.867932143741035e-5</v>
+        <v>4.8676841934336064e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,34 +6300,34 @@
         <v>0.08495346967514486</v>
       </c>
       <c r="B169">
-        <v>7.337785018743457</v>
+        <v>7.3320832676936565</v>
       </c>
       <c r="C169">
-        <v>2.626084546573024e-7</v>
+        <v>4.852718357008952e-7</v>
       </c>
       <c r="D169">
-        <v>0.0002027835270932368</v>
+        <v>0.00020501267983534654</v>
       </c>
       <c r="E169">
-        <v>0.001972785074584626</v>
+        <v>0.0019720339221389657</v>
       </c>
       <c r="F169">
-        <v>4.868627242436686e-5</v>
+        <v>4.868385292122358e-5</v>
       </c>
       <c r="G169">
-        <v>7.337787630111766</v>
+        <v>7.33208667564811</v>
       </c>
       <c r="H169">
-        <v>2.646904822999751e-7</v>
+        <v>4.873481483183905e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002027849267908618</v>
+        <v>0.0002050140946485883</v>
       </c>
       <c r="J169">
-        <v>0.001972785219570926</v>
+        <v>0.0019720342546024954</v>
       </c>
       <c r="K169">
-        <v>4.8686223530659376e-5</v>
+        <v>4.868382302739661e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6335,34 +6335,34 @@
         <v>0.08647591492629908</v>
       </c>
       <c r="B170">
-        <v>7.3391612590466515</v>
+        <v>7.333665782747935</v>
       </c>
       <c r="C170">
-        <v>2.564619777782708e-7</v>
+        <v>4.7391381555610043e-7</v>
       </c>
       <c r="D170">
-        <v>0.00020701651568249407</v>
+        <v>0.00020916943245286696</v>
       </c>
       <c r="E170">
-        <v>0.0019734468142173305</v>
+        <v>0.001972724309690471</v>
       </c>
       <c r="F170">
-        <v>4.869328430248419e-5</v>
+        <v>4.869094416155447e-5</v>
       </c>
       <c r="G170">
-        <v>7.339163817000207</v>
+        <v>7.333669119754215</v>
       </c>
       <c r="H170">
-        <v>2.584952757192108e-7</v>
+        <v>4.7594153323498315e-7</v>
       </c>
       <c r="I170">
-        <v>0.00020701788101231124</v>
+        <v>0.0002091708139239451</v>
       </c>
       <c r="J170">
-        <v>0.00197344695449321</v>
+        <v>0.00197272463407306</v>
       </c>
       <c r="K170">
-        <v>4.869323680072777e-5</v>
+        <v>4.869091537614402e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6370,34 +6370,34 @@
         <v>0.08802331281320179</v>
       </c>
       <c r="B171">
-        <v>7.340551498240395</v>
+        <v>7.335261266593858</v>
       </c>
       <c r="C171">
-        <v>2.5021476111978833e-7</v>
+        <v>4.623696392658438e-7</v>
       </c>
       <c r="D171">
-        <v>0.00021131802405047504</v>
+        <v>0.0002133948557962874</v>
       </c>
       <c r="E171">
-        <v>0.0019741179742617837</v>
+        <v>0.00197342387802938</v>
       </c>
       <c r="F171">
-        <v>4.870040945085812e-5</v>
+        <v>4.869814873019367e-5</v>
       </c>
       <c r="G171">
-        <v>7.340553999886298</v>
+        <v>7.335264529792332</v>
       </c>
       <c r="H171">
-        <v>2.52198530676264e-7</v>
+        <v>4.643479654201188e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002113193545773735</v>
+        <v>0.0002133962033974352</v>
       </c>
       <c r="J171">
-        <v>0.0019741181095494446</v>
+        <v>0.0019734241940457887</v>
       </c>
       <c r="K171">
-        <v>4.870036332134375e-5</v>
+        <v>4.869812102774216e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,34 +6405,34 @@
         <v>0.08959613723855007</v>
       </c>
       <c r="B172">
-        <v>7.341955826966052</v>
+        <v>7.336869731566867</v>
       </c>
       <c r="C172">
-        <v>2.438648914230322e-7</v>
+        <v>4.506357713360205e-7</v>
       </c>
       <c r="D172">
-        <v>0.00021568933852245744</v>
+        <v>0.00021769026192529304</v>
       </c>
       <c r="E172">
-        <v>0.0019747987089466764</v>
+        <v>0.0019741327710666567</v>
       </c>
       <c r="F172">
-        <v>4.8707649976092384e-5</v>
+        <v>4.870546870570303e-5</v>
       </c>
       <c r="G172">
-        <v>7.341958269397253</v>
+        <v>7.33687291810951</v>
       </c>
       <c r="H172">
-        <v>2.4579831869157056e-7</v>
+        <v>4.525638942536217e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021569063382388494</v>
+        <v>0.00021769157513397284</v>
       </c>
       <c r="J172">
-        <v>0.0019747988389668594</v>
+        <v>0.0019741330784362326</v>
       </c>
       <c r="K172">
-        <v>4.8707605198774734e-5</v>
+        <v>4.870544206067327e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6440,34 +6440,34 @@
         <v>0.0911948698921171</v>
       </c>
       <c r="B173">
-        <v>7.3433743325302165</v>
+        <v>7.338491184717551</v>
       </c>
       <c r="C173">
-        <v>2.3741042399078352e-7</v>
+        <v>4.3870861817787825e-7</v>
       </c>
       <c r="D173">
-        <v>0.0002201317662125417</v>
+        <v>0.000222056984602584</v>
       </c>
       <c r="E173">
-        <v>0.001975489174471003</v>
+        <v>0.0019748511345386364</v>
       </c>
       <c r="F173">
-        <v>4.871500801784181e-5</v>
+        <v>4.87129061984556e-5</v>
       </c>
       <c r="G173">
-        <v>7.343376712799034</v>
+        <v>7.338494291746389</v>
       </c>
       <c r="H173">
-        <v>2.392926796340105e-7</v>
+        <v>4.4058571081705487e-7</v>
       </c>
       <c r="I173">
-        <v>0.000220133025864817</v>
+        <v>0.0002220582628933518</v>
       </c>
       <c r="J173">
-        <v>0.0019754892989349553</v>
+        <v>0.001974851432968652</v>
       </c>
       <c r="K173">
-        <v>4.8714964572337904e-5</v>
+        <v>4.871288058524664e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,34 +6475,34 @@
         <v>0.09282000039827346</v>
       </c>
       <c r="B174">
-        <v>7.34480709882315</v>
+        <v>7.340125627751803</v>
       </c>
       <c r="C174">
-        <v>2.3084938209191376e-7</v>
+        <v>4.265845270075033e-7</v>
       </c>
       <c r="D174">
-        <v>0.0002246466354203039</v>
+        <v>0.0002264963797012267</v>
       </c>
       <c r="E174">
-        <v>0.00197618952904662</v>
+        <v>0.001975579116057383</v>
       </c>
       <c r="F174">
-        <v>4.872248574940915e-5</v>
+        <v>4.872046335121046e-5</v>
       </c>
       <c r="G174">
-        <v>7.344809413959856</v>
+        <v>7.340128652393412</v>
       </c>
       <c r="H174">
-        <v>2.3267962111801937e-7</v>
+        <v>4.2840974664148705e-7</v>
       </c>
       <c r="I174">
-        <v>0.00022464785898404185</v>
+        <v>0.0002264976225312677</v>
       </c>
       <c r="J174">
-        <v>0.001976189647664421</v>
+        <v>0.001975579405261126</v>
       </c>
       <c r="K174">
-        <v>4.872244361497142e-5</v>
+        <v>4.872043874412525e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,34 +6510,34 @@
         <v>0.09447202646593843</v>
       </c>
       <c r="B175">
-        <v>7.346254206237063</v>
+        <v>7.3417730569733015</v>
       </c>
       <c r="C175">
-        <v>2.2417975635605816e-7</v>
+        <v>4.142597847272035e-7</v>
       </c>
       <c r="D175">
-        <v>0.00022923529603418842</v>
+        <v>0.00023100982561859236</v>
       </c>
       <c r="E175">
-        <v>0.001976899932941862</v>
+        <v>0.0019763168651623806</v>
       </c>
       <c r="F175">
-        <v>4.873008537835124e-5</v>
+        <v>4.872814233969714e-5</v>
       </c>
       <c r="G175">
-        <v>7.34625645322795</v>
+        <v>7.341775996346468</v>
       </c>
       <c r="H175">
-        <v>2.259571178253378e-7</v>
+        <v>4.160322727335304e-7</v>
       </c>
       <c r="I175">
-        <v>0.00022923648305551961</v>
+        <v>0.0002310110324237586</v>
       </c>
       <c r="J175">
-        <v>0.0019769000454228232</v>
+        <v>0.001976317144855194</v>
       </c>
       <c r="K175">
-        <v>4.8730044533901776e-5</v>
+        <v>4.8728118713001125e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,34 +6545,34 @@
         <v>0.09615145404100717</v>
       </c>
       <c r="B176">
-        <v>7.347715731584425</v>
+        <v>7.343433463228458</v>
       </c>
       <c r="C176">
-        <v>2.173995041581892e-7</v>
+        <v>4.017306167883258e-7</v>
       </c>
       <c r="D176">
-        <v>0.00023389911994177237</v>
+        <v>0.00023559872369700478</v>
       </c>
       <c r="E176">
-        <v>0.0019776205485262407</v>
+        <v>0.0019770645333735725</v>
       </c>
       <c r="F176">
-        <v>4.873780914709467e-5</v>
+        <v>4.8735945373209945e-5</v>
       </c>
       <c r="G176">
-        <v>7.347717907418434</v>
+        <v>7.343436314496781</v>
       </c>
       <c r="H176">
-        <v>2.1912311097748327e-7</v>
+        <v>4.0344949846224315e-7</v>
       </c>
       <c r="I176">
-        <v>0.00023390027001010484</v>
+        <v>0.0002355998939464964</v>
       </c>
       <c r="J176">
-        <v>0.0019776206545749834</v>
+        <v>0.0019770648032688214</v>
       </c>
       <c r="K176">
-        <v>4.873776957125464e-5</v>
+        <v>4.8735922701173524e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,34 +6580,34 @@
         <v>0.0978587974613007</v>
       </c>
       <c r="B177">
-        <v>7.349191748016328</v>
+        <v>7.345106831853993</v>
       </c>
       <c r="C177">
-        <v>2.1050654899311132e-7</v>
+        <v>3.8899318603528724e-7</v>
       </c>
       <c r="D177">
-        <v>0.00023863950144703813</v>
+        <v>0.0002402644986512244</v>
       </c>
       <c r="E177">
-        <v>0.0019783515403162663</v>
+        <v>0.0019778222742457886</v>
       </c>
       <c r="F177">
-        <v>4.8745659333561233e-5</v>
+        <v>4.874387469521247e-5</v>
       </c>
       <c r="G177">
-        <v>7.349193849632442</v>
+        <v>7.345109592156436</v>
       </c>
       <c r="H177">
-        <v>2.1217550750677867e-7</v>
+        <v>3.906575701677588e-7</v>
       </c>
       <c r="I177">
-        <v>0.00023864061412363073</v>
+        <v>0.00024026563178084487</v>
       </c>
       <c r="J177">
-        <v>0.0019783516396325845</v>
+        <v>0.001977822534056957</v>
       </c>
       <c r="K177">
-        <v>4.874562100459759e-5</v>
+        <v>4.874385295205141e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.09959457961408581</v>
       </c>
       <c r="B178">
-        <v>7.350682324941061</v>
+        <v>7.346793142627244</v>
       </c>
       <c r="C178">
-        <v>2.034987798394792e-7</v>
+        <v>3.760435915304211e-7</v>
       </c>
       <c r="D178">
-        <v>0.00024345785769479264</v>
+        <v>0.00024500859900289845</v>
       </c>
       <c r="E178">
-        <v>0.001979093075022416</v>
+        <v>0.001978590243424566</v>
       </c>
       <c r="F178">
-        <v>4.875363825180313e-5</v>
+        <v>4.875193258395242e-5</v>
       </c>
       <c r="G178">
-        <v>7.35068434925079</v>
+        <v>7.346795809097064</v>
       </c>
       <c r="H178">
-        <v>2.0511217975490467e-7</v>
+        <v>3.776525701873231e-7</v>
       </c>
       <c r="I178">
-        <v>0.00024345893251746597</v>
+        <v>0.00024500969442448083</v>
       </c>
       <c r="J178">
-        <v>0.001979093167300841</v>
+        <v>0.00197859049285984</v>
       </c>
       <c r="K178">
-        <v>4.875360114769775e-5</v>
+        <v>4.8751911743907824e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6650,34 +6650,34 @@
         <v>0.10135933209621334</v>
       </c>
       <c r="B179">
-        <v>7.352187527942959</v>
+        <v>7.348492369719407</v>
       </c>
       <c r="C179">
-        <v>1.9637405051309508e-7</v>
+        <v>3.628778673590644e-7</v>
       </c>
       <c r="D179">
-        <v>0.00024835562910237075</v>
+        <v>0.0002498324975221076</v>
       </c>
       <c r="E179">
-        <v>0.0019798453215972844</v>
+        <v>0.0019793685987034002</v>
       </c>
       <c r="F179">
-        <v>4.87617482526484e-5</v>
+        <v>4.876012135308714e-5</v>
       </c>
       <c r="G179">
-        <v>7.352189471856115</v>
+        <v>7.348494939513799</v>
       </c>
       <c r="H179">
-        <v>1.9793096449320722e-7</v>
+        <v>3.644305157421956e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024835666564802984</v>
+        <v>0.00024983355467802045</v>
       </c>
       <c r="J179">
-        <v>0.0019798454065349503</v>
+        <v>0.0019793688374818786</v>
       </c>
       <c r="K179">
-        <v>4.8761712351128886e-5</v>
+        <v>4.8760101390463036e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,34 +6685,34 @@
         <v>0.10315359537692399</v>
       </c>
       <c r="B180">
-        <v>7.3537074187016565</v>
+        <v>7.3502044816517955</v>
       </c>
       <c r="C180">
-        <v>1.891301790099841e-7</v>
+        <v>3.4949198141537244e-7</v>
       </c>
       <c r="D180">
-        <v>0.00025333427979876773</v>
+        <v>0.00025473769167614474</v>
       </c>
       <c r="E180">
-        <v>0.00198060845128494</v>
+        <v>0.001980157500082436</v>
       </c>
       <c r="F180">
-        <v>4.876999172435665e-5</v>
+        <v>4.876844335232001e-5</v>
       </c>
       <c r="G180">
-        <v>7.3537092791023575</v>
+        <v>7.350206951944324</v>
       </c>
       <c r="H180">
-        <v>1.9062966239516774e-7</v>
+        <v>3.509873574071412e-7</v>
       </c>
       <c r="I180">
-        <v>0.00025333527764381304</v>
+        <v>0.0002547387099988438</v>
       </c>
       <c r="J180">
-        <v>0.0019806085285751815</v>
+        <v>0.001980157727922188</v>
       </c>
       <c r="K180">
-        <v>4.876995700284974e-5</v>
+        <v>4.876842424145063e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.10497791896337114</v>
       </c>
       <c r="B181">
-        <v>7.355242054911864</v>
+        <v>7.351929441255275</v>
       </c>
       <c r="C181">
-        <v>1.8176494683787382e-7</v>
+        <v>3.3588183416712727e-7</v>
       </c>
       <c r="D181">
-        <v>0.000258395298071339</v>
+        <v>0.0002597257040856594</v>
       </c>
       <c r="E181">
-        <v>0.001981382637671523</v>
+        <v>0.0019809571098286316</v>
       </c>
       <c r="F181">
-        <v>4.877837109328529e-5</v>
+        <v>4.8776900968047966e-5</v>
       </c>
       <c r="G181">
-        <v>7.355243828654435</v>
+        <v>7.351931809207446</v>
       </c>
       <c r="H181">
-        <v>1.8320603735815233e-7</v>
+        <v>3.3731897813646686e-7</v>
       </c>
       <c r="I181">
-        <v>0.0002583962567638387</v>
+        <v>0.00025972668297828374</v>
       </c>
       <c r="J181">
-        <v>0.0019813827070046842</v>
+        <v>0.001980957326447413</v>
       </c>
       <c r="K181">
-        <v>4.877833752893907e-5</v>
+        <v>4.877688268331871e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.10683286156891172</v>
       </c>
       <c r="B182">
-        <v>7.356791490203736</v>
+        <v>7.353667205633032</v>
       </c>
       <c r="C182">
-        <v>1.7427609833687594e-7</v>
+        <v>3.22043257400389e-7</v>
       </c>
       <c r="D182">
-        <v>0.00026354019682022113</v>
+        <v>0.00026479808298830997</v>
       </c>
       <c r="E182">
-        <v>0.001982168056737119</v>
+        <v>0.0019817675925374034</v>
       </c>
       <c r="F182">
-        <v>4.878688882456653e-5</v>
+        <v>4.878549662402056e-5</v>
       </c>
       <c r="G182">
-        <v>7.356793174127251</v>
+        <v>7.35366946843191</v>
       </c>
       <c r="H182">
-        <v>1.7565781582516064e-7</v>
+        <v>3.2342119173351274e-7</v>
       </c>
       <c r="I182">
-        <v>0.0002635411159032478</v>
+        <v>0.0002647990218377597</v>
       </c>
       <c r="J182">
-        <v>0.0019821681177978195</v>
+        <v>0.0019817677976528662</v>
       </c>
       <c r="K182">
-        <v>4.8786856394291755e-5</v>
+        <v>4.878547913991831e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6790,34 +6790,34 @@
         <v>0.10871899128421662</v>
       </c>
       <c r="B183">
-        <v>7.358355774063993</v>
+        <v>7.3554177261267535</v>
       </c>
       <c r="C183">
-        <v>1.6666133998856122e-7</v>
+        <v>3.0797201294284224e-7</v>
       </c>
       <c r="D183">
-        <v>0.000268770514020613</v>
+        <v>0.00026995640271006377</v>
       </c>
       <c r="E183">
-        <v>0.001982964886908931</v>
+        <v>0.0019825891151957833</v>
       </c>
       <c r="F183">
-        <v>4.879554742279544e-5</v>
+        <v>4.8794232782010594e-5</v>
       </c>
       <c r="G183">
-        <v>7.358357364989579</v>
+        <v>7.355419880959334</v>
       </c>
       <c r="H183">
-        <v>1.6798268618193506e-7</v>
+        <v>3.092897420158238e-7</v>
       </c>
       <c r="I183">
-        <v>0.00026877139305598176</v>
+        <v>0.0002699573009202412</v>
       </c>
       <c r="J183">
-        <v>0.0019829649393804786</v>
+        <v>0.00198258930852681</v>
       </c>
       <c r="K183">
-        <v>4.879551610328101e-5</v>
+        <v>4.87942160731417e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,34 +6825,34 @@
         <v>0.11063688575125284</v>
       </c>
       <c r="B184">
-        <v>7.359934951757881</v>
+        <v>7.357180948286391</v>
       </c>
       <c r="C184">
-        <v>1.5891833971369914e-7</v>
+        <v>2.93663791365899e-7</v>
       </c>
       <c r="D184">
-        <v>0.0002740878131930743</v>
+        <v>0.00027520226414428945</v>
       </c>
       <c r="E184">
-        <v>0.0019837733091157806</v>
+        <v>0.0019834218472470928</v>
       </c>
       <c r="F184">
-        <v>4.880434943272913e-5</v>
+        <v>4.8803111942496905e-5</v>
       </c>
       <c r="G184">
-        <v>7.35993644649657</v>
+        <v>7.357182992390577</v>
       </c>
       <c r="H184">
-        <v>1.6017829777726688e-7</v>
+        <v>2.949203011455042e-7</v>
       </c>
       <c r="I184">
-        <v>0.00027408865175260086</v>
+        <v>0.0002752031211096288</v>
       </c>
       <c r="J184">
-        <v>0.0019837733526824413</v>
+        <v>0.001983422028521696</v>
       </c>
       <c r="K184">
-        <v>4.880431920044908e-5</v>
+        <v>4.880309598361542e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6860,34 +6860,34 @@
         <v>0.11258713234019087</v>
       </c>
       <c r="B185">
-        <v>7.361529064252087</v>
+        <v>7.358956811843628</v>
       </c>
       <c r="C185">
-        <v>1.5104472615790925e-7</v>
+        <v>2.7911421066485515e-7</v>
       </c>
       <c r="D185">
-        <v>0.0002794936838819897</v>
+        <v>0.00028053729523878874</v>
       </c>
       <c r="E185">
-        <v>0.001984593506843978</v>
+        <v>0.0019842659606571634</v>
       </c>
       <c r="F185">
-        <v>4.881329743999742e-5</v>
+        <v>4.8812136645359266e-5</v>
       </c>
       <c r="G185">
-        <v>7.361530459597392</v>
+        <v>7.358958742436496</v>
       </c>
       <c r="H185">
-        <v>1.5224226047082608e-7</v>
+        <v>2.803084682378435e-7</v>
       </c>
       <c r="I185">
-        <v>0.00027949448151934445</v>
+        <v>0.000280538110342814</v>
       </c>
       <c r="J185">
-        <v>0.001984593541188948</v>
+        <v>0.0019842661296017696</v>
       </c>
       <c r="K185">
-        <v>4.881326827121571e-5</v>
+        <v>4.881212141134328e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,34 +6895,34 @@
         <v>0.11457032832929134</v>
       </c>
       <c r="B186">
-        <v>7.363138148138741</v>
+        <v>7.360745250689136</v>
       </c>
       <c r="C186">
-        <v>1.4303808796551222e-7</v>
+        <v>2.643188149169085e-7</v>
       </c>
       <c r="D186">
-        <v>0.0002849897421423533</v>
+        <v>0.0002859631514909174</v>
       </c>
       <c r="E186">
-        <v>0.001985425666194581</v>
+        <v>0.001985121629982108</v>
       </c>
       <c r="F186">
-        <v>4.882239407182521e-5</v>
+        <v>4.8821309470586004e-5</v>
       </c>
       <c r="G186">
-        <v>7.363139440875671</v>
+        <v>7.36074706503227</v>
       </c>
       <c r="H186">
-        <v>1.4417214372882774e-7</v>
+        <v>2.654497683873509e-7</v>
       </c>
       <c r="I186">
-        <v>0.00028499049843188625</v>
+        <v>0.00028596392412429133</v>
       </c>
       <c r="J186">
-        <v>0.0019854256910001654</v>
+        <v>0.0019851217863253307</v>
       </c>
       <c r="K186">
-        <v>4.8822365942614584e-5</v>
+        <v>4.8821294936488385e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,34 +6930,34 @@
         <v>0.11658708108782626</v>
       </c>
       <c r="B187">
-        <v>7.364762235560611</v>
+        <v>7.362546192853766</v>
       </c>
       <c r="C187">
-        <v>1.348959730410319e-7</v>
+        <v>2.4927307291651906e-7</v>
       </c>
       <c r="D187">
-        <v>0.00029057763103503177</v>
+        <v>0.00029148151645094934</v>
       </c>
       <c r="E187">
-        <v>0.001986269975942075</v>
+        <v>0.0019859890324376707</v>
       </c>
       <c r="F187">
-        <v>4.883164199776685e-5</v>
+        <v>4.88306330389944e-5</v>
       </c>
       <c r="G187">
-        <v>7.364763422454034</v>
+        <v>7.362547888228424</v>
       </c>
       <c r="H187">
-        <v>1.3596547609650063e-7</v>
+        <v>2.503396509981084e-7</v>
       </c>
       <c r="I187">
-        <v>0.0002905783455402373</v>
+        <v>0.0002914822459778281</v>
       </c>
       <c r="J187">
-        <v>0.001986269990885904</v>
+        <v>0.0019859891759149385</v>
       </c>
       <c r="K187">
-        <v>4.8831614884060735e-5</v>
+        <v>4.883061918008804e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,34 +6965,34 @@
         <v>0.11863800826209053</v>
       </c>
       <c r="B188">
-        <v>7.366401354137603</v>
+        <v>7.3643595604937815</v>
       </c>
       <c r="C188">
-        <v>1.2661588779812771e-7</v>
+        <v>2.339723767876081e-7</v>
       </c>
       <c r="D188">
-        <v>0.00029625902113066346</v>
+        <v>0.00029709410223383714</v>
       </c>
       <c r="E188">
-        <v>0.0019871266275945094</v>
+        <v>0.0019868683479701576</v>
       </c>
       <c r="F188">
-        <v>4.8841043930452573e-5</v>
+        <v>4.884011001296435e-5</v>
       </c>
       <c r="G188">
-        <v>7.3664024319528965</v>
+        <v>7.364361134190201</v>
       </c>
       <c r="H188">
-        <v>1.276197442183926e-7</v>
+        <v>2.349734883923954e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002962596934121133</v>
+        <v>0.0002970947880176411</v>
       </c>
       <c r="J188">
-        <v>0.001987126632360365</v>
+        <v>0.0019868684783237675</v>
       </c>
       <c r="K188">
-        <v>4.884101780802086e-5</v>
+        <v>4.884009680471009e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7000,34 +7000,34 @@
         <v>0.12072373796456101</v>
       </c>
       <c r="B189">
-        <v>7.36805552689472</v>
+        <v>7.366185269880219</v>
       </c>
       <c r="C189">
-        <v>1.1819529639586799e-7</v>
+        <v>2.1841204057227745e-7</v>
       </c>
       <c r="D189">
-        <v>0.0003020356110223539</v>
+        <v>0.00030280265003953025</v>
       </c>
       <c r="E189">
-        <v>0.0019879958154551086</v>
+        <v>0.001987759759328969</v>
       </c>
       <c r="F189">
-        <v>4.88506026263475e-5</v>
+        <v>4.884974309718537e-5</v>
       </c>
       <c r="G189">
-        <v>7.368056492373417</v>
+        <v>7.366186719215308</v>
       </c>
       <c r="H189">
-        <v>1.1913239208475687e-7</v>
+        <v>2.1934657455844882e-7</v>
       </c>
       <c r="I189">
-        <v>0.00030203624064015076</v>
+        <v>0.0003028032914282246</v>
       </c>
       <c r="J189">
-        <v>0.001987995809719003</v>
+        <v>0.0019877598762988464</v>
       </c>
       <c r="K189">
-        <v>4.885057747083928e-5</v>
+        <v>4.884973051529161e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,34 +7035,34 @@
         <v>0.12284490896626077</v>
       </c>
       <c r="B190">
-        <v>7.3697247721915415</v>
+        <v>7.368023231392501</v>
       </c>
       <c r="C190">
-        <v>1.096316199624499e-7</v>
+        <v>2.02587298796075e-7</v>
       </c>
       <c r="D190">
-        <v>0.00030790912784733166</v>
+        <v>0.0003086089306820086</v>
       </c>
       <c r="E190">
-        <v>0.0019888777366854</v>
+        <v>0.0019886634521407414</v>
       </c>
       <c r="F190">
-        <v>4.8860320886523316e-5</v>
+        <v>4.8859535039417625e-5</v>
       </c>
       <c r="G190">
-        <v>7.369725622080195</v>
+        <v>7.368024553701136</v>
       </c>
       <c r="H190">
-        <v>1.1050082035329914e-7</v>
+        <v>2.0345412375908743e-7</v>
       </c>
       <c r="I190">
-        <v>0.00030790971435073875</v>
+        <v>0.0003086095270107327</v>
       </c>
       <c r="J190">
-        <v>0.0019888777201249306</v>
+        <v>0.001988663555472263</v>
       </c>
       <c r="K190">
-        <v>4.886029667347981e-5</v>
+        <v>4.8859523059836344e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7070,34 +7070,34 @@
         <v>0.12500217089238783</v>
       </c>
       <c r="B191">
-        <v>7.371409103653402</v>
+        <v>7.3698733495163555</v>
       </c>
       <c r="C191">
-        <v>1.0092223580494831e-7</v>
+        <v>1.8649330500806208e-7</v>
       </c>
       <c r="D191">
-        <v>0.0003138813278177312</v>
+        <v>0.0003145147451272013</v>
       </c>
       <c r="E191">
-        <v>0.001989772591369879</v>
+        <v>0.001989579614985115</v>
       </c>
       <c r="F191">
-        <v>4.887020155744295e-5</v>
+        <v>4.886948863126685e-5</v>
       </c>
       <c r="G191">
-        <v>7.371409834687403</v>
+        <v>7.369874542169936</v>
       </c>
       <c r="H191">
-        <v>1.0172238559556342e-7</v>
+        <v>1.8729126858379027e-7</v>
       </c>
       <c r="I191">
-        <v>0.0003138818707795154</v>
+        <v>0.00031451529574033296</v>
       </c>
       <c r="J191">
-        <v>0.0019897725636685965</v>
+        <v>0.0019895797044347653</v>
       </c>
       <c r="K191">
-        <v>4.8870178262292946e-5</v>
+        <v>4.8869477230205965e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,34 +7105,34 @@
         <v>0.12719618442126782</v>
       </c>
       <c r="B192">
-        <v>7.373108530104362</v>
+        <v>7.371735522846178</v>
       </c>
       <c r="C192">
-        <v>9.206447660638925e-8</v>
+        <v>1.7012513029685346e-7</v>
       </c>
       <c r="D192">
-        <v>0.00031995399676066727</v>
+        <v>0.0003205219250399524</v>
       </c>
       <c r="E192">
-        <v>0.001990680582582234</v>
+        <v>0.0019905084394721264</v>
       </c>
       <c r="F192">
-        <v>4.888024753175845e-5</v>
+        <v>4.887960670897393e-5</v>
       </c>
       <c r="G192">
-        <v>7.373109139008503</v>
+        <v>7.371736583242541</v>
       </c>
       <c r="H192">
-        <v>9.279439931723599e-8</v>
+        <v>1.708530592529998e-7</v>
       </c>
       <c r="I192">
-        <v>0.0003199544957161623</v>
+        <v>0.0003205224292350376</v>
       </c>
       <c r="J192">
-        <v>0.0019906805434166557</v>
+        <v>0.0019905085147922854</v>
       </c>
       <c r="K192">
-        <v>4.888022512987445e-5</v>
+        <v>4.887959586294631e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7140,34 +7140,34 @@
         <v>0.129427621486692</v>
       </c>
       <c r="B193">
-        <v>7.374823055502077</v>
+        <v>7.373609644091872</v>
       </c>
       <c r="C193">
-        <v>8.305562960894638e-8</v>
+        <v>1.5347776178117209e-7</v>
       </c>
       <c r="D193">
-        <v>0.00032612895066777504</v>
+        <v>0.0003266323333402095</v>
       </c>
       <c r="E193">
-        <v>0.0019916019164531785</v>
+        <v>0.0019914501203212526</v>
       </c>
       <c r="F193">
-        <v>4.889046174912257e-5</v>
+        <v>4.8889892154219084e-5</v>
       </c>
       <c r="G193">
-        <v>7.374823539005358</v>
+        <v>7.373610569651795</v>
       </c>
       <c r="H193">
-        <v>8.371412727989142e-8</v>
+        <v>1.541344612527913e-7</v>
       </c>
       <c r="I193">
-        <v>0.0003261294051810342</v>
+        <v>0.00032663279043586784</v>
       </c>
       <c r="J193">
-        <v>0.001991601865502824</v>
+        <v>0.001991450181274803</v>
       </c>
       <c r="K193">
-        <v>4.889044021583711e-5</v>
+        <v>4.888988184004744e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.13169716548370228</v>
       </c>
       <c r="B194">
-        <v>7.376552678874724</v>
+        <v>7.375495600090267</v>
       </c>
       <c r="C194">
-        <v>7.389293578257665e-8</v>
+        <v>1.3654610107405398e-7</v>
       </c>
       <c r="D194">
-        <v>0.00033240803625438536</v>
+        <v>0.00033284786476860573</v>
       </c>
       <c r="E194">
-        <v>0.001992536802239894</v>
+        <v>0.0019924048554420936</v>
       </c>
       <c r="F194">
-        <v>4.890084719701394e-5</v>
+        <v>4.8900347894941306e-5</v>
       </c>
       <c r="G194">
-        <v>7.376553033697316</v>
+        <v>7.375496388269747</v>
       </c>
       <c r="H194">
-        <v>7.447878852129584e-8</v>
+        <v>1.3713035436090258e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033240844588100277</v>
+        <v>0.00033284827406224475</v>
       </c>
       <c r="J194">
-        <v>0.001992536739186685</v>
+        <v>0.0019924049017980136</v>
       </c>
       <c r="K194">
-        <v>4.890082650762433e-5</v>
+        <v>4.8900338089776006e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.13400551147788609</v>
       </c>
       <c r="B195">
-        <v>7.37829739426007</v>
+        <v>7.377393271821158</v>
       </c>
       <c r="C195">
-        <v>6.457358898086992e-8</v>
+        <v>1.1932496272226112e-7</v>
       </c>
       <c r="D195">
-        <v>0.0003387931315285102</v>
+        <v>0.0003391704464616132</v>
       </c>
       <c r="E195">
-        <v>0.0019934854523971316</v>
+        <v>0.0019933728460167256</v>
       </c>
       <c r="F195">
-        <v>4.891140691157663e-5</v>
+        <v>4.8910976906173276e-5</v>
       </c>
       <c r="G195">
-        <v>7.378297617142061</v>
+        <v>7.377393920113389</v>
       </c>
       <c r="H195">
-        <v>6.50855546771522e-8</v>
+        <v>1.1983553111621875e-7</v>
       </c>
       <c r="I195">
-        <v>0.000338793495838164</v>
+        <v>0.0003391708072603199</v>
       </c>
       <c r="J195">
-        <v>0.0019934853769253812</v>
+        <v>0.0019933728775495705</v>
       </c>
       <c r="K195">
-        <v>4.8911387041366526e-5</v>
+        <v>4.89109675874922e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,34 +7245,34 @@
         <v>0.13635336641824583</v>
       </c>
       <c r="B196">
-        <v>7.3800571906468075</v>
+        <v>7.37930253442806</v>
       </c>
       <c r="C196">
-        <v>5.509473508089499e-8</v>
+        <v>1.0180907261743927e-7</v>
       </c>
       <c r="D196">
-        <v>0.00034528614636981827</v>
+        <v>0.0003456020385364492</v>
       </c>
       <c r="E196">
-        <v>0.001994448082649981</v>
+        <v>0.0019943542965837006</v>
       </c>
       <c r="F196">
-        <v>4.8922143978473895e-5</v>
+        <v>4.8921782210891926e-5</v>
       </c>
       <c r="G196">
-        <v>7.3800572783207254</v>
+        <v>7.379303040351419</v>
       </c>
       <c r="H196">
-        <v>5.5531548926042386e-8</v>
+        <v>1.0224469459257538e-7</v>
       </c>
       <c r="I196">
-        <v>0.00034528646493123374</v>
+        <v>0.000345602350135199</v>
       </c>
       <c r="J196">
-        <v>0.0019944479944418183</v>
+        <v>0.001994354313070966</v>
       </c>
       <c r="K196">
-        <v>4.892212490275723e-5</v>
+        <v>4.892177335654995e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7280,34 +7280,34 @@
         <v>0.13874144935370739</v>
       </c>
       <c r="B197">
-        <v>7.381832051918302</v>
+        <v>7.381223257243682</v>
       </c>
       <c r="C197">
-        <v>4.5453471109647956e-8</v>
+        <v>8.399306638143443e-8</v>
       </c>
       <c r="D197">
-        <v>0.0003518890231187771</v>
+        <v>0.00035214463468591795</v>
       </c>
       <c r="E197">
-        <v>0.001995424912068345</v>
+        <v>0.00199534941512373</v>
       </c>
       <c r="F197">
-        <v>4.893306153375683e-5</v>
+        <v>4.8932766880885406e-5</v>
       </c>
       <c r="G197">
-        <v>7.381832001119714</v>
+        <v>7.38122361836326</v>
       </c>
       <c r="H197">
-        <v>4.581384531117166e-8</v>
+        <v>8.43524575639229e-8</v>
       </c>
       <c r="I197">
-        <v>0.00035188929549324037</v>
+        <v>0.00035214489635451593</v>
       </c>
       <c r="J197">
-        <v>0.0019954248108111448</v>
+        <v>0.001995349416357206</v>
       </c>
       <c r="K197">
-        <v>4.893304322788276e-5</v>
+        <v>4.893275846911963e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7315,34 +7315,34 @@
         <v>0.14117049165333456</v>
       </c>
       <c r="B198">
-        <v>7.383621956798808</v>
+        <v>7.383155303820197</v>
       </c>
       <c r="C198">
-        <v>3.564684435471426e-8</v>
+        <v>6.587148772312252e-8</v>
       </c>
       <c r="D198">
-        <v>0.0003586037371761467</v>
+        <v>0.0003588002627833752</v>
       </c>
       <c r="E198">
-        <v>0.0019964161631431435</v>
+        <v>0.0019963584131470324</v>
       </c>
       <c r="F198">
-        <v>4.894416276474799e-5</v>
+        <v>4.894393403763637e-5</v>
       </c>
       <c r="G198">
-        <v>7.383621764279058</v>
+        <v>7.383155517729373</v>
       </c>
       <c r="H198">
-        <v>3.592946776067065e-8</v>
+        <v>6.61533404172644e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003586039629415912</v>
+        <v>0.0003588004738098986</v>
       </c>
       <c r="J198">
-        <v>0.0019964160485259857</v>
+        <v>0.0019963583989161047</v>
       </c>
       <c r="K198">
-        <v>4.894414520411158e-5</v>
+        <v>4.894392604705762e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7350,34 +7350,34 @@
         <v>0.1436412372303167</v>
       </c>
       <c r="B199">
-        <v>7.385426878802351</v>
+        <v>7.385098531964339</v>
       </c>
       <c r="C199">
-        <v>2.5671851459882753e-8</v>
+        <v>4.7438786767279776e-8</v>
       </c>
       <c r="D199">
-        <v>0.0003654322976130085</v>
+        <v>0.00036557098549800716</v>
       </c>
       <c r="E199">
-        <v>0.0019974220618642624</v>
+        <v>0.0019973815057823642</v>
       </c>
       <c r="F199">
-        <v>4.8955450910940396e-5</v>
+        <v>4.895528685322233e-5</v>
       </c>
       <c r="G199">
-        <v>7.385426541305557</v>
+        <v>7.385098596288602</v>
       </c>
       <c r="H199">
-        <v>2.5875389032536206e-8</v>
+        <v>4.764176948300162e-8</v>
       </c>
       <c r="I199">
-        <v>0.00036543247632507444</v>
+        <v>0.0003655711451294352</v>
       </c>
       <c r="J199">
-        <v>0.0019974219335791676</v>
+        <v>0.001997381475890528</v>
       </c>
       <c r="K199">
-        <v>4.895543407101083e-5</v>
+        <v>4.8955279262846044e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7385,34 +7385,34 @@
         <v>0.14615444276979767</v>
       </c>
       <c r="B200">
-        <v>7.3872467861843045</v>
+        <v>7.387052793777341</v>
       </c>
       <c r="C200">
-        <v>1.55254375057302e-8</v>
+        <v>2.868931835528729e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037237674779151594</v>
+        <v>0.00037245890092061534</v>
       </c>
       <c r="E200">
-        <v>0.0019984428378002845</v>
+        <v>0.001998418911867724</v>
       </c>
       <c r="F200">
-        <v>4.896692926491216e-5</v>
+        <v>4.896682855123316e-5</v>
       </c>
       <c r="G200">
-        <v>7.387246300452772</v>
+        <v>7.387052706175645</v>
       </c>
       <c r="H200">
-        <v>1.564853003637483e-8</v>
+        <v>2.8812075365279912e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037237687899070965</v>
+        <v>0.0003724590083784399</v>
       </c>
       <c r="J200">
-        <v>0.001998442695540226</v>
+        <v>0.001998418866120603</v>
       </c>
       <c r="K200">
-        <v>4.896691312125216e-5</v>
+        <v>4.89668213404905e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,34 +7420,34 @@
         <v>0.1487108779606167</v>
       </c>
       <c r="B201">
-        <v>7.389081641895824</v>
+        <v>7.389017935699727</v>
       </c>
       <c r="C201">
-        <v>5.204495073554576e-9</v>
+        <v>9.61734031577374e-9</v>
       </c>
       <c r="D201">
-        <v>0.0003794391659965587</v>
+        <v>0.0003794661432001084</v>
       </c>
       <c r="E201">
-        <v>0.0019994787241800183</v>
+        <v>0.0019994708540427477</v>
       </c>
       <c r="F201">
-        <v>4.8978601173257284e-5</v>
+        <v>4.8978562407706294e-5</v>
       </c>
       <c r="G201">
-        <v>7.389081004694632</v>
+        <v>7.3890176938676655</v>
       </c>
       <c r="H201">
-        <v>5.245758627621544e-9</v>
+        <v>9.658491411468772e-9</v>
       </c>
       <c r="I201">
-        <v>0.00037943924925731116</v>
+        <v>0.0003794661977332433</v>
       </c>
       <c r="J201">
-        <v>0.0019994785676459167</v>
+        <v>0.0019994707922583246</v>
       </c>
       <c r="K201">
-        <v>4.897858570155819e-5</v>
+        <v>4.8978555556460926e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.8970052090177034e-5</v>
       </c>
       <c r="G2">
-        <v>8.141770622992954</v>
+        <v>8.141770622992999</v>
       </c>
       <c r="H2">
-        <v>0.0002474898569842089</v>
+        <v>0.000247489856984209</v>
       </c>
       <c r="I2">
-        <v>-1.2740690697249692e-7</v>
+        <v>-1.2740690697509935e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019994979831483932</v>
+        <v>0.0019994979831484388</v>
       </c>
       <c r="K2">
-        <v>4.897005239644219e-5</v>
+        <v>4.897005239644338e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.894154130007788e-5</v>
       </c>
       <c r="G3">
-        <v>8.125163108324946</v>
+        <v>8.12516310832508</v>
       </c>
       <c r="H3">
-        <v>0.00024250691809962947</v>
+        <v>0.00024250691809962993</v>
       </c>
       <c r="I3">
-        <v>-3.8024649819173155e-7</v>
+        <v>-3.8024649819949863e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019984949453766584</v>
+        <v>0.0019984949453767968</v>
       </c>
       <c r="K3">
-        <v>4.8941542210051e-5</v>
+        <v>4.894154221005442e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.891362678369004e-5</v>
       </c>
       <c r="G4">
-        <v>8.108444656861456</v>
+        <v>8.108444656861682</v>
       </c>
       <c r="H4">
-        <v>0.0002375979160597208</v>
+        <v>0.0002375979160597216</v>
       </c>
       <c r="I4">
-        <v>-6.29224739085397e-7</v>
+        <v>-6.292247390982494e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019974978823923337</v>
+        <v>0.001997497882392561</v>
       </c>
       <c r="K4">
-        <v>4.8913628282686914e-5</v>
+        <v>4.891362828269243e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.888632762001039e-5</v>
       </c>
       <c r="G5">
-        <v>8.091621718384618</v>
+        <v>8.091621718384937</v>
       </c>
       <c r="H5">
-        <v>0.00023276134747298043</v>
+        <v>0.00023276134747298168</v>
       </c>
       <c r="I5">
-        <v>-8.744134380482293e-7</v>
+        <v>-8.744134380660881e-7</v>
       </c>
       <c r="J5">
-        <v>0.0019965062886400774</v>
+        <v>0.001996506288640394</v>
       </c>
       <c r="K5">
-        <v>4.8886329692246125e-5</v>
+        <v>4.888632969225358e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.885966261033644e-5</v>
       </c>
       <c r="G6">
-        <v>8.074701903668595</v>
+        <v>8.074701903669007</v>
       </c>
       <c r="H6">
-        <v>0.00022799573113566838</v>
+        <v>0.00022799573113567</v>
       </c>
       <c r="I6">
-        <v>-1.1158831273931724e-6</v>
+        <v>-1.1158831274159597e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019955196648857917</v>
+        <v>0.0019955196648861946</v>
       </c>
       <c r="K6">
-        <v>4.885966523532328e-5</v>
+        <v>4.8859665235332526e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.8833650110528106e-5</v>
       </c>
       <c r="G7">
-        <v>8.057694031359237</v>
+        <v>8.057694031359745</v>
       </c>
       <c r="H7">
-        <v>0.00022329960752754085</v>
+        <v>0.00022329960752754286</v>
       </c>
       <c r="I7">
-        <v>-1.3537031112203696e-6</v>
+        <v>-1.3537031112480083e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019945375213081475</v>
+        <v>0.0019945375213086354</v>
       </c>
       <c r="K7">
-        <v>4.8833653269966935e-5</v>
+        <v>4.883365326997781e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.8808307843950544e-5</v>
       </c>
       <c r="G8">
-        <v>8.040608159533742</v>
+        <v>8.040608159534344</v>
       </c>
       <c r="H8">
-        <v>0.0002186715383916311</v>
+        <v>0.00021867153839163337</v>
       </c>
       <c r="I8">
-        <v>-1.5879415103253438e-6</v>
+        <v>-1.5879415103577572e-6</v>
       </c>
       <c r="J8">
-        <v>0.001993559380536954</v>
+        <v>0.001993559380537527</v>
       </c>
       <c r="K8">
-        <v>4.880831151640516e-5</v>
+        <v>4.8808311516417524e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.8783652697162984e-5</v>
       </c>
       <c r="G9">
-        <v>8.023455598659734</v>
+        <v>8.02345559866043</v>
       </c>
       <c r="H9">
-        <v>0.00021411010639807703</v>
+        <v>0.00021411010639807952</v>
       </c>
       <c r="I9">
-        <v>-1.8186653364267768e-6</v>
+        <v>-1.8186653364638895e-6</v>
       </c>
       <c r="J9">
-        <v>0.001992584781124467</v>
+        <v>0.001992584781125123</v>
       </c>
       <c r="K9">
-        <v>4.878365685985872e-5</v>
+        <v>4.878365685987244e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.875970050156722e-5</v>
       </c>
       <c r="G10">
-        <v>8.006248902420296</v>
+        <v>8.006248902421087</v>
       </c>
       <c r="H10">
-        <v>0.0002096139145558229</v>
+        <v>0.00020961391455582567</v>
       </c>
       <c r="I10">
-        <v>-2.0459405422959636e-6</v>
+        <v>-2.0459405423377007e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019916132810968144</v>
+        <v>0.0019916132810975516</v>
       </c>
       <c r="K10">
-        <v>4.875970513051079e-5</v>
+        <v>4.8759705130525765e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.8736465805463377e-5</v>
       </c>
       <c r="G11">
-        <v>7.989001834034789</v>
+        <v>7.989001834035672</v>
       </c>
       <c r="H11">
-        <v>0.00020518158579242607</v>
+        <v>0.00020518158579242916</v>
       </c>
       <c r="I11">
-        <v>-2.2698321013620415e-6</v>
+        <v>-2.2698321014083276e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019906444617348966</v>
+        <v>0.0019906444617357136</v>
       </c>
       <c r="K11">
-        <v>4.87364708744623e-5</v>
+        <v>4.87364708744784e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.871396164218577e-5</v>
       </c>
       <c r="G12">
-        <v>7.971729305100215</v>
+        <v>7.9717293051011895</v>
       </c>
       <c r="H12">
-        <v>0.00020081176278603327</v>
+        <v>0.00020081176278603663</v>
       </c>
       <c r="I12">
-        <v>-2.490404079279883e-6</v>
+        <v>-2.4904040793306444e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019896779313080997</v>
+        <v>0.0019896779313089952</v>
       </c>
       <c r="K12">
-        <v>4.871396712276029e-5</v>
+        <v>4.871396712277741e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.8692199301069315e-5</v>
       </c>
       <c r="G13">
-        <v>7.954447285051506</v>
+        <v>7.954447285052572</v>
       </c>
       <c r="H13">
-        <v>0.0001965031072091159</v>
+        <v>0.00019650310720911965</v>
       </c>
       <c r="I13">
-        <v>-2.7077197077514067e-6</v>
+        <v>-2.70771970780657e-6</v>
       </c>
       <c r="J13">
-        <v>0.001988713328611629</v>
+        <v>0.0019887133286126016</v>
       </c>
       <c r="K13">
-        <v>4.869220515692426e-5</v>
+        <v>4.8692205156942305e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.867118810877163e-5</v>
       </c>
       <c r="G14">
-        <v>7.9371726823153</v>
+        <v>7.937172682316455</v>
       </c>
       <c r="H14">
-        <v>0.0001922542994766205</v>
+        <v>0.00019225429947662454</v>
       </c>
       <c r="I14">
-        <v>-2.9218414730973945e-6</v>
+        <v>-2.921841473156889e-6</v>
       </c>
       <c r="J14">
-        <v>0.001987750326524171</v>
+        <v>0.001987750326525219</v>
       </c>
       <c r="K14">
-        <v>4.867119429729905e-5</v>
+        <v>4.867119429731793e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.865093522881922e-5</v>
       </c>
       <c r="G15">
-        <v>7.919923195895756</v>
+        <v>7.919923195896999</v>
       </c>
       <c r="H15">
-        <v>0.00018806403841035828</v>
+        <v>0.0001880640384103626</v>
       </c>
       <c r="I15">
-        <v>-3.1328311876528935e-6</v>
+        <v>-3.1328311877166467e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019867886349047826</v>
+        <v>0.0019867886349059054</v>
       </c>
       <c r="K15">
-        <v>4.8650941689868495e-5</v>
+        <v>4.865094168988811e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.863144548709189e-5</v>
       </c>
       <c r="G16">
-        <v>7.902717141275063</v>
+        <v>7.9027171412763915</v>
       </c>
       <c r="H16">
-        <v>0.0001839310406517984</v>
+        <v>0.00018393104065180294</v>
       </c>
       <c r="I16">
-        <v>-3.340750073615578e-6</v>
+        <v>-3.34075007368352e-6</v>
       </c>
       <c r="J16">
-        <v>0.001985828003311016</v>
+        <v>0.0019858280033122127</v>
       </c>
       <c r="K16">
-        <v>4.8631452132260636e-5</v>
+        <v>4.86314521322809e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.861272123032119e-5</v>
       </c>
       <c r="G17">
-        <v>7.88557325352898</v>
+        <v>7.885573253530391</v>
       </c>
       <c r="H17">
-        <v>0.00017985404049606995</v>
+        <v>0.00017985404049607464</v>
       </c>
       <c r="I17">
-        <v>-3.5456588374919837e-6</v>
+        <v>-3.5456588375640425e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848682228873565</v>
+        <v>0.0019848682228886245</v>
       </c>
       <c r="K17">
-        <v>4.861272793222243e-5</v>
+        <v>4.861272793224327e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8594762223626693e-5</v>
       </c>
       <c r="G18">
-        <v>7.868510472587899</v>
+        <v>7.868510472589391</v>
       </c>
       <c r="H18">
-        <v>0.00017583178939154005</v>
+        <v>0.00017583178939154496</v>
       </c>
       <c r="I18">
-        <v>-3.7476177424855817e-6</v>
+        <v>-3.7476177425616876e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983909127667518</v>
+        <v>0.0019839091276688562</v>
       </c>
       <c r="K18">
-        <v>4.85947688001692e-5</v>
+        <v>4.859476880019053e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.857756559174813e-5</v>
       </c>
       <c r="G19">
-        <v>7.85154771731338</v>
+        <v>7.851547717314951</v>
       </c>
       <c r="H19">
-        <v>0.00017186305544243349</v>
+        <v>0.00017186305544243858</v>
       </c>
       <c r="I19">
-        <v>-3.9466866647833434e-6</v>
+        <v>-3.946686664863427e-6</v>
       </c>
       <c r="J19">
-        <v>0.001982950595077046</v>
+        <v>0.0019829505950784538</v>
       </c>
       <c r="K19">
-        <v>4.857757179206345e-5</v>
+        <v>4.8577571792085196e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.8561125807045294e-5</v>
       </c>
       <c r="G20">
-        <v>7.834703654750985</v>
+        <v>7.83470365475263</v>
       </c>
       <c r="H20">
-        <v>0.00016794662325275684</v>
+        <v>0.00016794662325276207</v>
       </c>
       <c r="I20">
-        <v>-4.142925147597721e-6</v>
+        <v>-4.142925147681715e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019819925455551893</v>
+        <v>0.0019819925455566646</v>
       </c>
       <c r="K20">
-        <v>4.85611312966627e-5</v>
+        <v>4.856113129668477e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.8545434725606455e-5</v>
       </c>
       <c r="G21">
-        <v>7.817996472366913</v>
+        <v>7.8179964723686295</v>
       </c>
       <c r="H21">
-        <v>0.0001640812935265067</v>
+        <v>0.00016408129352651213</v>
       </c>
       <c r="I21">
-        <v>-4.336392437324066e-6</v>
+        <v>-4.3363924374118995e-6</v>
       </c>
       <c r="J21">
-        <v>0.001981034941462872</v>
+        <v>0.001981034941464414</v>
       </c>
       <c r="K21">
-        <v>4.854543907636765e-5</v>
+        <v>4.8545439076390016e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.853048167099202e-5</v>
       </c>
       <c r="G22">
-        <v>7.801443660585639</v>
+        <v>7.801443660587425</v>
       </c>
       <c r="H22">
-        <v>0.0001602658826813495</v>
+        <v>0.00016026588268135505</v>
       </c>
       <c r="I22">
-        <v>-4.527147492298861e-6</v>
+        <v>-4.527147492390469e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019800777850538334</v>
+        <v>0.001980077785055442</v>
       </c>
       <c r="K22">
-        <v>4.8530484358247796e-5</v>
+        <v>4.8530484358270436e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.851625356331014e-5</v>
       </c>
       <c r="G23">
-        <v>7.785061812310817</v>
+        <v>7.785061812312668</v>
       </c>
       <c r="H23">
-        <v>0.00015649922248332958</v>
+        <v>0.00015649922248333532</v>
       </c>
       <c r="I23">
-        <v>-4.715248978641288e-6</v>
+        <v>-4.715248978736603e-6</v>
       </c>
       <c r="J23">
-        <v>0.001979121115844386</v>
+        <v>0.0019791211158460592</v>
       </c>
       <c r="K23">
-        <v>4.8516253968561196e-5</v>
+        <v>4.851625396858405e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.850273508955951e-5</v>
       </c>
       <c r="G24">
-        <v>7.768866445810211</v>
+        <v>7.768866445812124</v>
       </c>
       <c r="H24">
-        <v>0.0001527801599657458</v>
+        <v>0.0001527801599657516</v>
       </c>
       <c r="I24">
-        <v>-4.900755227694869e-6</v>
+        <v>-4.900755227793824e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019781650071787026</v>
+        <v>0.00197816500718044</v>
       </c>
       <c r="K24">
-        <v>4.850273251210018e-5</v>
+        <v>4.8502732512123215e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.848990890959131e-5</v>
       </c>
       <c r="G25">
-        <v>7.752871854861063</v>
+        <v>7.752871854863034</v>
       </c>
       <c r="H25">
-        <v>0.00014910755705950298</v>
+        <v>0.00014910755705950892</v>
       </c>
       <c r="I25">
-        <v>-5.083724152896767e-6</v>
+        <v>-5.083724152999297e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019772095625012922</v>
+        <v>0.001977209562503093</v>
       </c>
       <c r="K25">
-        <v>4.848990258763013e-5</v>
+        <v>4.84899025876533e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.847775589075261e-5</v>
       </c>
       <c r="G26">
-        <v>7.737090991043894</v>
+        <v>7.737090991045921</v>
       </c>
       <c r="H26">
-        <v>0.0001454802903767755</v>
+        <v>0.00014548029037678148</v>
       </c>
       <c r="I26">
-        <v>-5.264213106917444e-6</v>
+        <v>-5.264213107023484e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976254911048045</v>
+        <v>0.001976254911049907</v>
       </c>
       <c r="K26">
-        <v>4.847774502119902e-5</v>
+        <v>4.847774502122231e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.846625536338543e-5</v>
       </c>
       <c r="G27">
-        <v>7.721535378139138</v>
+        <v>7.721535378141217</v>
       </c>
       <c r="H27">
-        <v>0.00014189725142926745</v>
+        <v>0.00014189725142927344</v>
       </c>
       <c r="I27">
-        <v>-5.442278668873855e-6</v>
+        <v>-5.442278668983341e-6</v>
       </c>
       <c r="J27">
-        <v>0.001975301203518337</v>
+        <v>0.0019753012035202593</v>
       </c>
       <c r="K27">
-        <v>4.846623913122868e-5</v>
+        <v>4.8466239131252045e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.84553853889403e-5</v>
       </c>
       <c r="G28">
-        <v>7.706215060267281</v>
+        <v>7.706215060269408</v>
       </c>
       <c r="H28">
-        <v>0.00013835734656301535</v>
+        <v>0.00013835734656302137</v>
       </c>
       <c r="I28">
-        <v>-5.6179763371876655e-6</v>
+        <v>-5.617976337300536e-6</v>
       </c>
       <c r="J28">
-        <v>0.001974348607589538</v>
+        <v>0.001974348607591521</v>
       </c>
       <c r="K28">
-        <v>4.845536299350259e-5</v>
+        <v>4.8455362993526035e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.844512303254046e-5</v>
       </c>
       <c r="G29">
-        <v>7.6911385819655536</v>
+        <v>7.691138581967726</v>
       </c>
       <c r="H29">
-        <v>0.00013485949716317841</v>
+        <v>0.00013485949716318443</v>
       </c>
       <c r="I29">
-        <v>-5.7913600921100616e-6</v>
+        <v>-5.791360092226254e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019733973036669484</v>
+        <v>0.001973397303668991</v>
       </c>
       <c r="K29">
-        <v>4.844509371802218e-5</v>
+        <v>4.844509371804567e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.84354446323712e-5</v>
       </c>
       <c r="G30">
-        <v>7.676312999037837</v>
+        <v>7.676312999040052</v>
       </c>
       <c r="H30">
-        <v>0.00013140264027433605</v>
+        <v>0.0001314026402743421</v>
       </c>
       <c r="I30">
-        <v>-5.96248179185097e-6</v>
+        <v>-5.9624817919704226e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019724474806521544</v>
+        <v>0.001972447480654255</v>
       </c>
       <c r="K30">
-        <v>4.843540770968858e-5</v>
+        <v>4.8435407709712074e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8426326059184894e-5</v>
       </c>
       <c r="G31">
-        <v>7.661743915492884</v>
+        <v>7.661743915495138</v>
       </c>
       <c r="H31">
-        <v>0.00012798572962711497</v>
+        <v>0.0001279857296271211</v>
       </c>
       <c r="I31">
-        <v>-6.131390344144788e-6</v>
+        <v>-6.131390344267442e-6</v>
       </c>
       <c r="J31">
-        <v>0.001971499332436111</v>
+        <v>0.00197149933243827</v>
       </c>
       <c r="K31">
-        <v>4.8426280927469343e-5</v>
+        <v>4.842628092749284e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.841774296039631e-5</v>
       </c>
       <c r="G32">
-        <v>7.647435544955546</v>
+        <v>7.647435544957836</v>
       </c>
       <c r="H32">
-        <v>0.00012460773665565056</v>
+        <v>0.0001246077366556567</v>
       </c>
       <c r="I32">
-        <v>-6.298130634497783e-6</v>
+        <v>-6.298130634623578e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019705530546463507</v>
+        <v>0.001970553054648567</v>
       </c>
       <c r="K32">
-        <v>4.841768911930584e-5</v>
+        <v>4.841768911932932e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.840967098456668e-5</v>
       </c>
       <c r="G33">
-        <v>7.633390791470673</v>
+        <v>7.633390791472997</v>
       </c>
       <c r="H33">
-        <v>0.00012126765244861506</v>
+        <v>0.00012126765244862119</v>
       </c>
       <c r="I33">
-        <v>-6.4627420969493285e-6</v>
+        <v>-6.462742097078207e-6</v>
       </c>
       <c r="J33">
-        <v>0.001969608842076486</v>
+        <v>0.001969608842078758</v>
       </c>
       <c r="K33">
-        <v>4.8409608046405784e-5</v>
+        <v>4.8409608046429244e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.840208598342325e-5</v>
       </c>
       <c r="G34">
-        <v>7.6196113465091475</v>
+        <v>7.619611346511501</v>
       </c>
       <c r="H34">
-        <v>0.00011796449015990452</v>
+        <v>0.00011796449015991066</v>
       </c>
       <c r="I34">
-        <v>-6.625256881458746e-6</v>
+        <v>-6.625256881590649e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019686668868074933</v>
+        <v>0.00196866688680982</v>
       </c>
       <c r="K34">
-        <v>4.840201367700351e-5</v>
+        <v>4.840201367702694e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.839496418982939e-5</v>
       </c>
       <c r="G35">
-        <v>7.606097798010679</v>
+        <v>7.606097798013062</v>
       </c>
       <c r="H35">
-        <v>0.00011469728825484696</v>
+        <v>0.00011469728825485311</v>
       </c>
       <c r="I35">
-        <v>-6.785697543637351e-6</v>
+        <v>-6.785697543772226e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019677273771480704</v>
+        <v>0.0019677273771504518</v>
       </c>
       <c r="K35">
-        <v>4.839488235684553e-5</v>
+        <v>4.8394882356868917e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.838828237123697e-5</v>
       </c>
       <c r="G36">
-        <v>7.592849748665558</v>
+        <v>7.592849748667967</v>
       </c>
       <c r="H36">
-        <v>0.00011146511430065461</v>
+        <v>0.00011146511430066072</v>
       </c>
       <c r="I36">
-        <v>-6.9440741535494515e-6</v>
+        <v>-6.944074153687241e-6</v>
       </c>
       <c r="J36">
-        <v>0.001966790497325228</v>
+        <v>0.001966790497327662</v>
       </c>
       <c r="K36">
-        <v>4.838819096491553e-5</v>
+        <v>4.838819096493887e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.8382017959071755e-5</v>
       </c>
       <c r="G37">
-        <v>7.579865940216656</v>
+        <v>7.579865940219088</v>
       </c>
       <c r="H37">
-        <v>0.00010826707043779176</v>
+        <v>0.00010826707043779782</v>
       </c>
       <c r="I37">
-        <v>-7.100380764039992e-6</v>
+        <v>-7.100380764180643e-6</v>
       </c>
       <c r="J37">
-        <v>0.001965856428100003</v>
+        <v>0.0019658564281024894</v>
       </c>
       <c r="K37">
-        <v>4.838191703428985e-5</v>
+        <v>4.838191703431312e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.8376149155204686e-5</v>
       </c>
       <c r="G38">
-        <v>7.567144381126603</v>
+        <v>7.567144381129057</v>
       </c>
       <c r="H38">
-        <v>0.00010510229939224697</v>
+        <v>0.00010510229939225297</v>
       </c>
       <c r="I38">
-        <v>-7.254591143639109e-6</v>
+        <v>-7.2545911437825675e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019649253482276413</v>
+        <v>0.0019649253482301797</v>
       </c>
       <c r="K38">
-        <v>4.83760388574128e-5</v>
+        <v>4.837603885743601e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.837065501714955e-5</v>
       </c>
       <c r="G39">
-        <v>7.5546824761710925</v>
+        <v>7.554682476173567</v>
       </c>
       <c r="H39">
-        <v>0.00010196999180520207</v>
+        <v>0.00010196999180520802</v>
       </c>
       <c r="I39">
-        <v>-7.406653719473149e-6</v>
+        <v>-7.406653719619367e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019639974368637018</v>
+        <v>0.0019639974368662904</v>
       </c>
       <c r="K39">
-        <v>4.837053557233797e-5</v>
+        <v>4.837053557236111e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8365515523921344e-5</v>
       </c>
       <c r="G40">
-        <v>7.542477155408109</v>
+        <v>7.542477155410602</v>
       </c>
       <c r="H40">
-        <v>9.886939529427457e-5</v>
+        <v>9.886939529428051e-5</v>
       </c>
       <c r="I40">
-        <v>-7.55648568608047e-6</v>
+        <v>-7.556485686229392e-6</v>
       </c>
       <c r="J40">
-        <v>0.00196307287692456</v>
+        <v>0.0019630728769271986</v>
       </c>
       <c r="K40">
-        <v>4.8365387224090075e-5</v>
+        <v>4.836538722411314e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.8360711624615725e-5</v>
       </c>
       <c r="G41">
-        <v>7.530525001034211</v>
+        <v>7.53052500103672</v>
       </c>
       <c r="H41">
-        <v>9.579982436466022e-5</v>
+        <v>9.579982436466614e-5</v>
       </c>
       <c r="I41">
-        <v>-7.703966231449694e-6</v>
+        <v>-7.703966231601273e-6</v>
       </c>
       <c r="J41">
-        <v>0.001962151859424031</v>
+        <v>0.001962151859426718</v>
       </c>
       <c r="K41">
-        <v>4.8360574817283024e-5</v>
+        <v>4.8360574817306e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.8356225271763946e-5</v>
       </c>
       <c r="G42">
-        <v>7.518822372339535</v>
+        <v>7.51882237234206</v>
       </c>
       <c r="H42">
-        <v>9.276067183863446e-5</v>
+        <v>9.276067183864036e-5</v>
       </c>
       <c r="I42">
-        <v>-7.848928917119959e-6</v>
+        <v>-7.848928917274146e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019612345885034197</v>
+        <v>0.001961234588506154</v>
       </c>
       <c r="K42">
-        <v>4.835608034563093e-5</v>
+        <v>4.835608034565384e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.835203944141341e-5</v>
       </c>
       <c r="G43">
-        <v>7.5073655252547535</v>
+        <v>7.507365525257293</v>
       </c>
       <c r="H43">
-        <v>8.97514218278154e-5</v>
+        <v>8.975142182782126e-5</v>
       </c>
       <c r="I43">
-        <v>-7.99115323026232e-6</v>
+        <v>-7.99115323041907e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019603212877579513</v>
+        <v>0.0019603212877607333</v>
       </c>
       <c r="K43">
-        <v>4.8351886817652954e-5</v>
+        <v>4.83518868176758e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.834813814171352e-5</v>
       </c>
       <c r="G44">
-        <v>7.496150728460004</v>
+        <v>7.496150728462557</v>
       </c>
       <c r="H44">
-        <v>8.677166345412374e-5</v>
+        <v>8.677166345412958e-5</v>
       </c>
       <c r="I44">
-        <v>-8.130355395273234e-6</v>
+        <v>-8.1303553954325e-6</v>
       </c>
       <c r="J44">
-        <v>0.001959412206767916</v>
+        <v>0.0019594122067707457</v>
       </c>
       <c r="K44">
-        <v>4.834797826207821e-5</v>
+        <v>4.8347978262100974e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.83445064115799e-5</v>
       </c>
       <c r="G45">
-        <v>7.48517437255024</v>
+        <v>7.485174372552805</v>
       </c>
       <c r="H45">
-        <v>8.38211060494543e-5</v>
+        <v>8.382110604946013e-5</v>
       </c>
       <c r="I45">
-        <v>-8.2661785860085e-6</v>
+        <v>-8.266178586170234e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019585076288093227</v>
+        <v>0.0019585076288121976</v>
       </c>
       <c r="K45">
-        <v>4.8344339730207375e-5</v>
+        <v>4.8344339730230056e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.83411303107899e-5</v>
       </c>
       <c r="G46">
-        <v>7.474433072269399</v>
+        <v>7.474433072271975</v>
       </c>
       <c r="H46">
-        <v>8.089959439508808e-5</v>
+        <v>8.089959439509388e-5</v>
       </c>
       <c r="I46">
-        <v>-8.398182692133897e-6</v>
+        <v>-8.398182692298059e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019576078788353496</v>
+        <v>0.0019576078788382705</v>
       </c>
       <c r="K46">
-        <v>4.834095728633129e-5</v>
+        <v>4.834095728635388e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.8337996902648486e-5</v>
       </c>
       <c r="G47">
-        <v>7.46392376210238</v>
+        <v>7.463923762104967</v>
       </c>
       <c r="H47">
-        <v>7.800712516889615e-5</v>
+        <v>7.800712516890191e-5</v>
       </c>
       <c r="I47">
-        <v>-8.525833876913223e-6</v>
+        <v>-8.525833877079768e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019567133318978375</v>
+        <v>0.0019567133319008043</v>
       </c>
       <c r="K47">
-        <v>4.8337817991028396e-5</v>
+        <v>4.833781799105093e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.833509423017028e-5</v>
       </c>
       <c r="G48">
-        <v>7.453643781357841</v>
+        <v>7.453643781360438</v>
       </c>
       <c r="H48">
-        <v>7.514386243419805e-5</v>
+        <v>7.514386243420379e-5</v>
       </c>
       <c r="I48">
-        <v>-8.6484941881915e-6</v>
+        <v>-8.648494188360394e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019558244218326696</v>
+        <v>0.0019558244218356806</v>
       </c>
       <c r="K48">
-        <v>4.8334909880367266e-5</v>
+        <v>4.8334909880389716e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.8332411286559007e-5</v>
       </c>
       <c r="G49">
-        <v>7.443590950315754</v>
+        <v>7.44359095031836</v>
       </c>
       <c r="H49">
-        <v>7.231015361930184e-5</v>
+        <v>7.231015361930755e-5</v>
       </c>
       <c r="I49">
-        <v>-8.765411522081248e-6</v>
+        <v>-8.765411522252449e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019549416497084715</v>
+        <v>0.001954941649711526</v>
       </c>
       <c r="K49">
-        <v>4.833222193615421e-5</v>
+        <v>4.8332221936176574e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.832993798063564e-5</v>
       </c>
       <c r="G50">
-        <v>7.433763634914342</v>
+        <v>7.433763634916958</v>
       </c>
       <c r="H50">
-        <v>6.950654346103566e-5</v>
+        <v>6.950654346104134e-5</v>
       </c>
       <c r="I50">
-        <v>-8.875710294158479e-6</v>
+        <v>-8.875710294331951e-6</v>
       </c>
       <c r="J50">
-        <v>0.001954065592183635</v>
+        <v>0.0019540655921867337</v>
       </c>
       <c r="K50">
-        <v>4.8329744053178415e-5</v>
+        <v>4.832974405320068e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.832766509777332e-5</v>
       </c>
       <c r="G51">
-        <v>7.424160798691896</v>
+        <v>7.42416079869452</v>
       </c>
       <c r="H51">
-        <v>6.67337871001034e-5</v>
+        <v>6.673378710010906e-5</v>
       </c>
       <c r="I51">
-        <v>-8.978383161805132e-6</v>
+        <v>-8.978383161980837e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019531969091841515</v>
+        <v>0.0019531969091872922</v>
       </c>
       <c r="K51">
-        <v>4.832746699988827e-5</v>
+        <v>4.8327466999910456e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.832558425683691e-5</v>
       </c>
       <c r="G52">
-        <v>7.414782042565394</v>
+        <v>7.414782042568025</v>
       </c>
       <c r="H52">
-        <v>6.399286074517364e-5</v>
+        <v>6.39928607451793e-5</v>
       </c>
       <c r="I52">
-        <v>-9.072284180038837e-6</v>
+        <v>-9.07228418021674e-6</v>
       </c>
       <c r="J52">
-        <v>0.0019523363505582426</v>
+        <v>0.001952336350561426</v>
       </c>
       <c r="K52">
-        <v>4.8325382377397394e-5</v>
+        <v>4.8325382377419505e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.832368786359716e-5</v>
       </c>
       <c r="G53">
-        <v>7.405627629378916</v>
+        <v>7.405627629381557</v>
       </c>
       <c r="H53">
-        <v>6.128496940989515e-5</v>
+        <v>6.128496940990077e-5</v>
       </c>
       <c r="I53">
-        <v>-9.156123764124082e-6</v>
+        <v>-9.156123764304144e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019514847617236168</v>
+        <v>0.0019514847617268416</v>
       </c>
       <c r="K53">
-        <v>4.8323482572413485e-5</v>
+        <v>4.832348257243552e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.8321969061084985e-5</v>
       </c>
       <c r="G54">
-        <v>7.396698493721658</v>
+        <v>7.3966984937243065</v>
       </c>
       <c r="H54">
-        <v>5.861155157391185e-5</v>
+        <v>5.861155157391747e-5</v>
       </c>
       <c r="I54">
-        <v>-9.228465800330646e-6</v>
+        <v>-9.228465800512841e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019506430877236436</v>
+        <v>0.0019506430877269103</v>
       </c>
       <c r="K54">
-        <v>4.832176070935158e-5</v>
+        <v>4.832176070937356e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.83204216773668e-5</v>
       </c>
       <c r="G55">
-        <v>7.387996237094986</v>
+        <v>7.387996237097641</v>
       </c>
       <c r="H55">
-        <v>5.5974279920615675e-5</v>
+        <v>5.597427992062129e-5</v>
       </c>
       <c r="I55">
-        <v>-9.287727250663773e-6</v>
+        <v>-9.287727250848068e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019498123754182316</v>
+        <v>0.0019498123754215385</v>
       </c>
       <c r="K55">
-        <v>4.8320210597098e-5</v>
+        <v>4.8320210597119914e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.831904017124764e-5</v>
       </c>
       <c r="G56">
-        <v>7.3795231057731305</v>
+        <v>7.379523105775793</v>
       </c>
       <c r="H56">
-        <v>5.337505770470595e-5</v>
+        <v>5.3375057704711563e-5</v>
       </c>
       <c r="I56">
-        <v>-9.332180512216153e-6</v>
+        <v>-9.33218051240252e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019489937739299347</v>
+        <v>0.0019489937739332818</v>
       </c>
       <c r="K56">
-        <v>4.831882667708168e-5</v>
+        <v>4.831882667710354e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.831781957643944e-5</v>
       </c>
       <c r="G57">
-        <v>7.37128195445215</v>
+        <v>7.37128195445482</v>
       </c>
       <c r="H57">
-        <v>5.0816010708983636e-5</v>
+        <v>5.081601070898923e-5</v>
       </c>
       <c r="I57">
-        <v>-9.359958764748216e-6</v>
+        <v>-9.359958764936629e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019481885324155487</v>
+        <v>0.0019481885324189358</v>
       </c>
       <c r="K57">
-        <v>4.831760396553806e-5</v>
+        <v>4.831760396555988e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.831675544476066e-5</v>
       </c>
       <c r="G58">
-        <v>7.363276193629579</v>
+        <v>7.363276193632257</v>
       </c>
       <c r="H58">
-        <v>4.829947397331377e-5</v>
+        <v>4.829947397331936e-5</v>
       </c>
       <c r="I58">
-        <v>-9.369064456376156e-6</v>
+        <v>-9.369064456566596e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019473979956867648</v>
+        <v>0.001947397995690191</v>
       </c>
       <c r="K58">
-        <v>4.8316537997843076e-5</v>
+        <v>4.8316537997864855e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.83158437889548e-5</v>
       </c>
       <c r="G59">
-        <v>7.355509722786471</v>
+        <v>7.355509722789156</v>
       </c>
       <c r="H59">
-        <v>4.582797364824941e-5</v>
+        <v>4.582797364825499e-5</v>
       </c>
       <c r="I59">
-        <v>-9.357380995605421e-6</v>
+        <v>-9.357380995797857e-6</v>
       </c>
       <c r="J59">
-        <v>0.0019466235971072844</v>
+        <v>0.0019466235971107504</v>
       </c>
       <c r="K59">
-        <v>4.8315624772331303e-5</v>
+        <v>4.831562477235307e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8315081025725396e-5</v>
       </c>
       <c r="G60">
-        <v>7.347986849859767</v>
+        <v>7.347986849862461</v>
       </c>
       <c r="H60">
-        <v>4.340420389060624e-5</v>
+        <v>4.3404203890611825e-5</v>
       </c>
       <c r="I60">
-        <v>-9.322687646847836e-6</v>
+        <v>-9.322687647042255e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019458668488635037</v>
+        <v>0.0019458668488670089</v>
       </c>
       <c r="K60">
-        <v>4.8314860691631015e-5</v>
+        <v>4.8314860691652754e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.831446391958117e-5</v>
       </c>
       <c r="G61">
-        <v>7.340712198675942</v>
+        <v>7.340712198678642</v>
       </c>
       <c r="H61">
-        <v>4.103099871532266e-5</v>
+        <v>4.103099871532823e-5</v>
       </c>
       <c r="I61">
-        <v>-9.262677510167135e-6</v>
+        <v>-9.262677510363515e-6</v>
       </c>
       <c r="J61">
-        <v>0.001945129329759575</v>
+        <v>0.0019451293297631188</v>
       </c>
       <c r="K61">
-        <v>4.8314242507109275e-5</v>
+        <v>4.8314242507131006e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.831398952806626e-5</v>
       </c>
       <c r="G62">
-        <v>7.333690605378809</v>
+        <v>7.333690605381517</v>
       </c>
       <c r="H62">
-        <v>3.8711299331236565e-5</v>
+        <v>3.8711299331242114e-5</v>
       </c>
       <c r="I62">
-        <v>-9.174978401998495e-6</v>
+        <v>-9.174978402196818e-6</v>
       </c>
       <c r="J62">
-        <v>0.001944412670402322</v>
+        <v>0.0019444126704059048</v>
       </c>
       <c r="K62">
-        <v>4.8313767265496434e-5</v>
+        <v>4.8313767265518166e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.831365514891653e-5</v>
       </c>
       <c r="G63">
-        <v>7.326927007249749</v>
+        <v>7.326927007252466</v>
       </c>
       <c r="H63">
-        <v>3.644811753418875e-5</v>
+        <v>3.644811753419428e-5</v>
       </c>
       <c r="I63">
-        <v>-9.057176343135688e-6</v>
+        <v>-9.057176343335935e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019437185359742354</v>
+        <v>0.0019437185359778562</v>
       </c>
       <c r="K63">
-        <v>4.8313432253795355e-5</v>
+        <v>4.831343225381707e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.831345826963618e-5</v>
       </c>
       <c r="G64">
-        <v>7.320426323906297</v>
+        <v>7.320426323909021</v>
       </c>
       <c r="H64">
-        <v>3.4244494926609786e-5</v>
+        <v>3.424449492661531e-5</v>
       </c>
       <c r="I64">
-        <v>-8.906841285397729e-6</v>
+        <v>-8.906841285599885e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019430486071462636</v>
+        <v>0.0019430486071499217</v>
       </c>
       <c r="K64">
-        <v>4.831323495048602e-5</v>
+        <v>4.8313234950507715e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.831339651993149e-5</v>
       </c>
       <c r="G65">
-        <v>7.314193335663686</v>
+        <v>7.314193335666418</v>
       </c>
       <c r="H65">
-        <v>3.210345983884371e-5</v>
+        <v>3.210345983884921e-5</v>
       </c>
       <c r="I65">
-        <v>-8.721554612443698e-6</v>
+        <v>-8.721554612647754e-6</v>
       </c>
       <c r="J65">
-        <v>0.001942404559033086</v>
+        <v>0.0019424045590367815</v>
       </c>
       <c r="K65">
-        <v>4.83131729764829e-5</v>
+        <v>4.8313172976504597e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.831346762737319e-5</v>
       </c>
       <c r="G66">
-        <v>7.308232559295323</v>
+        <v>7.308232559298063</v>
       </c>
       <c r="H66">
-        <v>3.002798200996219e-5</v>
+        <v>3.0027982009967682e-5</v>
       </c>
       <c r="I66">
-        <v>-8.498937937074935e-6</v>
+        <v>-8.498937937280883e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019417880390180204</v>
+        <v>0.0019417880390217531</v>
       </c>
       <c r="K66">
-        <v>4.831324405219372e-5</v>
+        <v>4.831324405221543e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.831366937659006e-5</v>
       </c>
       <c r="G67">
-        <v>7.302548125570892</v>
+        <v>7.30254812557364</v>
       </c>
       <c r="H67">
-        <v>2.8020925940969006e-5</v>
+        <v>2.8020925940974495e-5</v>
       </c>
       <c r="I67">
-        <v>-8.236682576023402e-6</v>
+        <v>-8.236682576231233e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019412006435059039</v>
+        <v>0.0019412006435096725</v>
       </c>
       <c r="K67">
-        <v>4.831344595496722e-5</v>
+        <v>4.831344595498895e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.831399957222683e-5</v>
       </c>
       <c r="G68">
-        <v>7.297143659632299</v>
+        <v>7.297143659635055</v>
       </c>
       <c r="H68">
-        <v>2.6085003965858154e-5</v>
+        <v>2.6085003965863647e-5</v>
       </c>
       <c r="I68">
-        <v>-7.93257915026436e-6</v>
+        <v>-7.932579150474068e-6</v>
       </c>
       <c r="J68">
-        <v>0.0019406438944426954</v>
+        <v>0.0019406438944465</v>
       </c>
       <c r="K68">
-        <v>4.8313776483263914e-5</v>
+        <v>4.831377648328565e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.831445600583261e-5</v>
       </c>
       <c r="G69">
-        <v>7.292022167469747</v>
+        <v>7.292022167472511</v>
       </c>
       <c r="H69">
-        <v>2.422273035528707e-5</v>
+        <v>2.4222730355292567e-5</v>
       </c>
       <c r="I69">
-        <v>-7.584546635495087e-6</v>
+        <v>-7.5845466357066676e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019401192159308283</v>
+        <v>0.0019401192159346691</v>
       </c>
       <c r="K69">
-        <v>4.8314233422517255e-5</v>
+        <v>4.831423342253902e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.831503642678446e-5</v>
       </c>
       <c r="G70">
-        <v>7.287185930655822</v>
+        <v>7.287185930658595</v>
       </c>
       <c r="H70">
-        <v>2.243637717579294e-5</v>
+        <v>2.2436377175798447e-5</v>
       </c>
       <c r="I70">
-        <v>-7.190660279107706e-6</v>
+        <v>-7.1906602793211534e-6</v>
       </c>
       <c r="J70">
-        <v>0.0019396279116201739</v>
+        <v>0.00193962791162405</v>
       </c>
       <c r="K70">
-        <v>4.831481451642174e-5</v>
+        <v>4.8314814516443535e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.83157385172968e-5</v>
       </c>
       <c r="G71">
-        <v>7.282636411488493</v>
+        <v>7.282636411491274</v>
       </c>
       <c r="H71">
-        <v>2.0727932614107455e-5</v>
+        <v>2.0727932614112957e-5</v>
       </c>
       <c r="I71">
-        <v>-6.749177703947363e-6</v>
+        <v>-6.749177704162676e-6</v>
       </c>
       <c r="J71">
-        <v>0.0019391711432808422</v>
+        <v>0.0019391711432847532</v>
       </c>
       <c r="K71">
-        <v>4.831551744203455e-5</v>
+        <v>4.831551744205636e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.8316559871521183e-5</v>
       </c>
       <c r="G72">
-        <v>7.278374170199806</v>
+        <v>7.278374170202595</v>
       </c>
       <c r="H72">
-        <v>1.9099063315796668e-5</v>
+        <v>1.909906331580216e-5</v>
       </c>
       <c r="I72">
-        <v>-6.258562681350988e-6</v>
+        <v>-6.258562681568168e-6</v>
       </c>
       <c r="J72">
-        <v>0.0019387499113616585</v>
+        <v>0.001938749911365604</v>
       </c>
       <c r="K72">
-        <v>4.831633978802124e-5</v>
+        <v>4.8316339788043096e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.8317497978704535e-5</v>
       </c>
       <c r="G73">
-        <v>7.274398796443323</v>
+        <v>7.274398796446119</v>
       </c>
       <c r="H73">
-        <v>1.7551081082100827e-5</v>
+        <v>1.7551081082106316e-5</v>
       </c>
       <c r="I73">
-        <v>-5.717505981915889e-6</v>
+        <v>-5.717505982134934e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019383650377243083</v>
+        <v>0.0019383650377282876</v>
       </c>
       <c r="K73">
-        <v>4.8317279038163674e-5</v>
+        <v>4.831727903818557e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.831855021034475e-5</v>
       </c>
       <c r="G74">
-        <v>7.270708856074103</v>
+        <v>7.270708856076907</v>
       </c>
       <c r="H74">
-        <v>1.6084915192178518e-5</v>
+        <v>1.6084915192184e-5</v>
       </c>
       <c r="I74">
-        <v>-5.124942817271296e-6</v>
+        <v>-5.124942817492208e-6</v>
       </c>
       <c r="J74">
-        <v>0.0019380171512381854</v>
+        <v>0.0019380171512421987</v>
       </c>
       <c r="K74">
-        <v>4.8318332558141575e-5</v>
+        <v>4.831833255816353e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.8319713811261004e-5</v>
       </c>
       <c r="G75">
-        <v>7.267301854548744</v>
+        <v>7.267301854551555</v>
       </c>
       <c r="H75">
-        <v>1.4701090429526208e-5</v>
+        <v>1.4701090429531685e-5</v>
       </c>
       <c r="I75">
-        <v>-4.4800665456733274e-6</v>
+        <v>-4.480066545896107e-6</v>
       </c>
       <c r="J75">
-        <v>0.0019377066764699863</v>
+        <v>0.0019377066764740321</v>
       </c>
       <c r="K75">
-        <v>4.831949758741651e-5</v>
+        <v>4.831949758743855e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.832098589448032e-5</v>
       </c>
       <c r="G76">
-        <v>7.264174217600474</v>
+        <v>7.264174217603292</v>
       </c>
       <c r="H76">
-        <v>1.3399711977093355e-5</v>
+        <v>1.3399711977098824e-5</v>
       </c>
       <c r="I76">
-        <v>-3.7823381889513326e-6</v>
+        <v>-3.7823381891759797e-6</v>
       </c>
       <c r="J76">
-        <v>0.0019374338258068098</v>
+        <v>0.0019374338258108885</v>
       </c>
       <c r="K76">
-        <v>4.832077123289684e-5</v>
+        <v>4.832077123291895e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.8322363439827904e-5</v>
       </c>
       <c r="G77">
-        <v>7.261321289258579</v>
+        <v>7.261321289261404</v>
       </c>
       <c r="H77">
-        <v>1.2180456833464292e-5</v>
+        <v>1.2180456833469755e-5</v>
       </c>
       <c r="I77">
-        <v>-3.031491653632191e-6</v>
+        <v>-3.0314916538587066e-6</v>
       </c>
       <c r="J77">
-        <v>0.0019371985953759024</v>
+        <v>0.001937198595380013</v>
       </c>
       <c r="K77">
-        <v>4.832215046792123e-5</v>
+        <v>4.832215046794341e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8323843296097935e-5</v>
       </c>
       <c r="G78">
-        <v>7.258737348322632</v>
+        <v>7.258737348325464</v>
       </c>
       <c r="H78">
-        <v>1.104257259749168e-5</v>
+        <v>1.1042572597497138e-5</v>
       </c>
       <c r="I78">
-        <v>-2.227534478202708e-6</v>
+        <v>-2.227534478431093e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019370007645158945</v>
+        <v>0.0019370007645200364</v>
       </c>
       <c r="K78">
-        <v>4.8323632134778866e-5</v>
+        <v>4.832363213480114e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.832542218666696e-5</v>
       </c>
       <c r="G79">
-        <v>7.256415641393785</v>
+        <v>7.2564156413966225</v>
       </c>
       <c r="H79">
-        <v>9.984883346270848e-6</v>
+        <v>9.9848833462763e-6</v>
       </c>
       <c r="I79">
-        <v>-1.3707441279646546e-6</v>
+        <v>-1.3707441281949078e-6</v>
       </c>
       <c r="J79">
-        <v>0.0019368398992916092</v>
+        <v>0.0019368398992957816</v>
       </c>
       <c r="K79">
-        <v>4.832521294973338e-5</v>
+        <v>4.8325212949755745e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.832709671839645e-5</v>
       </c>
       <c r="G80">
-        <v>7.254348433276914</v>
+        <v>7.254348433279757</v>
       </c>
       <c r="H80">
-        <v>9.005802305196117e-6</v>
+        <v>9.005802305201563e-6</v>
       </c>
       <c r="I80">
-        <v>-4.6165982511495737e-7</v>
+        <v>-4.616598253470772e-7</v>
       </c>
       <c r="J80">
-        <v>0.001936715359433577</v>
+        <v>0.0019367153594377804</v>
       </c>
       <c r="K80">
-        <v>4.832688951226241e-5</v>
+        <v>4.832688951228489e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.832886339364871e-5</v>
       </c>
       <c r="G81">
-        <v>7.25252707292005</v>
+        <v>7.252527072922899</v>
       </c>
       <c r="H81">
-        <v>8.10335137302594e-6</v>
+        <v>8.103351373031379e-6</v>
       </c>
       <c r="I81">
-        <v>4.989297989974307e-7</v>
+        <v>4.989297987634474e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019366263089512987</v>
+        <v>0.0019366263089555327</v>
       </c>
       <c r="K81">
-        <v>4.8328658317064356e-5</v>
+        <v>4.832865831708696e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.833071862521355e-5</v>
       </c>
       <c r="G82">
-        <v>7.250942073467275</v>
+        <v>7.250942073470129</v>
       </c>
       <c r="H82">
-        <v>7.275186716183837e-6</v>
+        <v>7.275186716189268e-6</v>
       </c>
       <c r="I82">
-        <v>1.5100029359337711e-6</v>
+        <v>1.5100029356979286e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019365717299452332</v>
+        <v>0.0019365717299494973</v>
       </c>
       <c r="K82">
-        <v>4.833051576880979e-5</v>
+        <v>4.83305157688325e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.8332658753908624e-5</v>
       </c>
       <c r="G83">
-        <v>7.2495832054893965</v>
+        <v>7.249583205492255</v>
       </c>
       <c r="H83">
-        <v>6.518630126260954e-6</v>
+        <v>6.518630126266373e-6</v>
       </c>
       <c r="I83">
-        <v>2.5703244601976102e-6</v>
+        <v>2.570324459959913e-6</v>
       </c>
       <c r="J83">
-        <v>0.001936550439193211</v>
+        <v>0.001936550439197505</v>
       </c>
       <c r="K83">
-        <v>4.833245820009995e-5</v>
+        <v>4.833245820012279e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.8334680068577585e-5</v>
       </c>
       <c r="G84">
-        <v>7.248439600639074</v>
+        <v>7.2484396006419365</v>
       </c>
       <c r="H84">
-        <v>5.8307050065604255e-6</v>
+        <v>5.830705006565834e-6</v>
       </c>
       <c r="I84">
-        <v>3.678468838129592e-6</v>
+        <v>3.678468837890045e-6</v>
       </c>
       <c r="J84">
-        <v>0.001936561107225949</v>
+        <v>0.0019365611072302725</v>
       </c>
       <c r="K84">
-        <v>4.8334481891220566e-5</v>
+        <v>4.833448189124353e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.833677882816497e-5</v>
       </c>
       <c r="G85">
-        <v>7.24749986419287</v>
+        <v>7.247499864195736</v>
       </c>
       <c r="H85">
-        <v>5.208176556762516e-6</v>
+        <v>5.208176556767914e-6</v>
       </c>
       <c r="I85">
-        <v>4.832845615717878e-6</v>
+        <v>4.832845615476491e-6</v>
       </c>
       <c r="J85">
-        <v>0.0019366022793473215</v>
+        <v>0.001936602279351674</v>
       </c>
       <c r="K85">
-        <v>4.833658309264441e-5</v>
+        <v>4.833658309266749e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.833895128550047e-5</v>
       </c>
       <c r="G86">
-        <v>7.246752193879165</v>
+        <v>7.246752193882035</v>
       </c>
       <c r="H86">
-        <v>4.6475949222489e-6</v>
+        <v>4.647594922254288e-6</v>
       </c>
       <c r="I86">
-        <v>6.031726866595677e-6</v>
+        <v>6.03172686635246e-6</v>
       </c>
       <c r="J86">
-        <v>0.0019366723980079133</v>
+        <v>0.001936672398012294</v>
       </c>
       <c r="K86">
-        <v>4.833875804845441e-5</v>
+        <v>4.833875804847763e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.834119371237747e-5</v>
       </c>
       <c r="G87">
-        <v>7.246184502731964</v>
+        <v>7.246184502734836</v>
       </c>
       <c r="H87">
-        <v>4.145340537631008e-6</v>
+        <v>4.145340537636386e-6</v>
       </c>
       <c r="I87">
-        <v>7.273276158137841e-6</v>
+        <v>7.273276157892805e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019367698261373066</v>
+        <v>0.0019367698261417154</v>
       </c>
       <c r="K87">
-        <v>4.8341003021830924e-5</v>
+        <v>4.834100302185426e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.834350242546734e-5</v>
       </c>
       <c r="G88">
-        <v>7.245784543266317</v>
+        <v>7.245784543269192</v>
       </c>
       <c r="H88">
-        <v>3.697670511603311e-6</v>
+        <v>3.6976705116086783e-6</v>
       </c>
       <c r="I88">
-        <v>8.555578093593003e-6</v>
+        <v>8.555578093346161e-6</v>
       </c>
       <c r="J88">
-        <v>0.001936892870730207</v>
+        <v>0.0019368928707346423</v>
       </c>
       <c r="K88">
-        <v>4.834331432101279e-5</v>
+        <v>4.834331432103627e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.83458738125726e-5</v>
       </c>
       <c r="G89">
-        <v>7.245540030681449</v>
+        <v>7.245540030684325</v>
       </c>
       <c r="H89">
-        <v>3.3007651334550264e-6</v>
+        <v>3.300765133460383e-6</v>
       </c>
       <c r="I89">
-        <v>9.876668112437473e-6</v>
+        <v>9.876668112188837e-6</v>
       </c>
       <c r="J89">
-        <v>0.0019370398062746523</v>
+        <v>0.001937039806279114</v>
       </c>
       <c r="K89">
-        <v>4.834568832553894e-5</v>
+        <v>4.834568832556256e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.834830435869461e-5</v>
       </c>
       <c r="G90">
-        <v>7.245438762645519</v>
+        <v>7.245438762648396</v>
       </c>
       <c r="H90">
-        <v>2.950773504157987e-6</v>
+        <v>2.950773504163334e-6</v>
       </c>
       <c r="I90">
-        <v>1.1234561780137667e-5</v>
+        <v>1.1234561779887252e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019372088974567965</v>
+        <v>0.001937208897461284</v>
       </c>
       <c r="K90">
-        <v>4.834812151247685e-5</v>
+        <v>4.8348121512500615e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.835079067137704e-5</v>
       </c>
       <c r="G91">
-        <v>7.245468733222005</v>
+        <v>7.245468733224883</v>
       </c>
       <c r="H91">
-        <v>2.643857392726378e-6</v>
+        <v>2.6438573927317147e-6</v>
       </c>
       <c r="I91">
-        <v>1.2627282928164764e-5</v>
+        <v>1.2627282927912587e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019373984206955636</v>
+        <v>0.0019373984207000762</v>
       </c>
       <c r="K91">
-        <v>4.835061048184576e-5</v>
+        <v>4.835061048186968e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.8353329504786726e-5</v>
       </c>
       <c r="G92">
-        <v>7.245618238922413</v>
+        <v>7.2456182389252906</v>
       </c>
       <c r="H92">
-        <v>2.3762323969797956e-6</v>
+        <v>2.376232396985123e-6</v>
       </c>
       <c r="I92">
-        <v>1.4052890268229485e-5</v>
+        <v>1.4052890267975554e-5</v>
       </c>
       <c r="J92">
-        <v>0.001937606684101574</v>
+        <v>0.001937606684106111</v>
       </c>
       <c r="K92">
-        <v>4.8353151980715484e-5</v>
+        <v>4.835315198073957e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.8355917782013243e-5</v>
       </c>
       <c r="G93">
-        <v>7.245875975089204</v>
+        <v>7.245875975092082</v>
       </c>
       <c r="H93">
-        <v>2.1442058197914436e-6</v>
+        <v>2.1442058197967617e-6</v>
       </c>
       <c r="I93">
-        <v>1.5509501839651062e-5</v>
+        <v>1.5509501839395397e-5</v>
       </c>
       <c r="J93">
-        <v>0.001937832045536039</v>
+        <v>0.0019378320455406</v>
       </c>
       <c r="K93">
-        <v>4.8355742925634464e-5</v>
+        <v>4.835574292565871e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.835855261510531e-5</v>
       </c>
       <c r="G94">
-        <v>7.246231121010829</v>
+        <v>7.246231121013706</v>
       </c>
       <c r="H94">
-        <v>1.9442105065760004e-6</v>
+        <v>1.9442105065813087e-6</v>
       </c>
       <c r="I94">
-        <v>1.699531704957343e-5</v>
+        <v>1.699531704931604e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019380729284870103</v>
+        <v>0.0019380729284915947</v>
       </c>
       <c r="K94">
-        <v>4.8358380422711047e-5</v>
+        <v>4.835838042273545e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.836123132241869e-5</v>
       </c>
       <c r="G95">
-        <v>7.246673412384325</v>
+        <v>7.246673412387201</v>
       </c>
       <c r="H95">
-        <v>1.7728342172103063e-6</v>
+        <v>1.7728342172156052e-6</v>
       </c>
       <c r="I95">
-        <v>1.8508635829575107e-5</v>
+        <v>1.850863582931601e-5</v>
       </c>
       <c r="J95">
-        <v>0.0019383278355510057</v>
+        <v>0.001938327835555614</v>
       </c>
       <c r="K95">
-        <v>4.83610617849877e-5</v>
+        <v>4.836106178501228e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.836395144292303e-5</v>
       </c>
       <c r="G96">
-        <v>7.247193200576668</v>
+        <v>7.2471932005795425</v>
       </c>
       <c r="H96">
-        <v>1.6268442172362896e-6</v>
+        <v>1.6268442172415787e-6</v>
       </c>
       <c r="I96">
-        <v>2.004787478993961e-5</v>
+        <v>2.0047874789678822e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019385953594313527</v>
+        <v>0.0019385953594359836</v>
       </c>
       <c r="K96">
-        <v>4.83637845467702e-5</v>
+        <v>4.836378454679492e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.836671074720305e-5</v>
       </c>
       <c r="G97">
-        <v>7.247781498103722</v>
+        <v>7.247781498106593</v>
       </c>
       <c r="H97">
-        <v>1.503206850584674e-6</v>
+        <v>1.5032068505899529e-6</v>
       </c>
       <c r="I97">
-        <v>2.1611580160088993e-5</v>
+        <v>2.161158015982654e-5</v>
       </c>
       <c r="J97">
-        <v>0.001938874191426517</v>
+        <v>0.0019388741914311701</v>
       </c>
       <c r="K97">
-        <v>4.8366546474674056e-5</v>
+        <v>4.836654647469894e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.836950724498794e-5</v>
       </c>
       <c r="G98">
-        <v>7.248430009939735</v>
+        <v>7.248430009942605</v>
       </c>
       <c r="H98">
-        <v>1.3991020571117559e-6</v>
+        <v>1.3991020571170248e-6</v>
       </c>
       <c r="I98">
-        <v>2.319843754807245e-5</v>
+        <v>2.319843754780835e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019391631273584298</v>
+        <v>0.0019391631273631045</v>
       </c>
       <c r="K98">
-        <v>4.836934557513094e-5</v>
+        <v>4.836934557515597e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.837233918914819e-5</v>
       </c>
       <c r="G99">
-        <v>7.249131151543467</v>
+        <v>7.249131151546334</v>
       </c>
       <c r="H99">
-        <v>1.311932933976856e-6</v>
+        <v>1.311932933982115e-6</v>
       </c>
       <c r="I99">
-        <v>2.480727856127047e-5</v>
+        <v>2.480727856100474e-5</v>
       </c>
       <c r="J99">
-        <v>0.0019394610711424</v>
+        <v>0.001939461071147096</v>
       </c>
       <c r="K99">
-        <v>4.837218009833737e-5</v>
+        <v>4.837218009836255e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.837520507620619e-5</v>
       </c>
       <c r="G100">
-        <v>7.2498780536849345</v>
+        <v>7.249878053687798</v>
       </c>
       <c r="H100">
-        <v>1.2393305387740561e-6</v>
+        <v>1.239330538779305e-6</v>
       </c>
       <c r="I100">
-        <v>2.6437084203157408e-5</v>
+        <v>2.643708420289006e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019397670360671697</v>
+        <v>0.0019397670360718868</v>
       </c>
       <c r="K100">
-        <v>4.837504853879771e-5</v>
+        <v>4.837504853882304e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.83781036435102e-5</v>
       </c>
       <c r="G101">
-        <v>7.250664555405052</v>
+        <v>7.250664555407912</v>
       </c>
       <c r="H101">
-        <v>1.179154283273467e-6</v>
+        <v>1.1791542832787055e-6</v>
       </c>
       <c r="I101">
-        <v>2.8086985658174005e-5</v>
+        <v>2.8086985657905065e-5</v>
       </c>
       <c r="J101">
-        <v>0.0019400801440183594</v>
+        <v>0.001940080144023097</v>
       </c>
       <c r="K101">
-        <v>4.837794963242632e-5</v>
+        <v>4.83779496324518e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3970,19 +3970,19 @@
         <v>4.83810338633168e-5</v>
       </c>
       <c r="G102">
-        <v>7.2514851860374465</v>
+        <v>7.251485186040303</v>
       </c>
       <c r="H102">
-        <v>1.1294883205565423e-6</v>
+        <v>1.1294883205617704e-6</v>
       </c>
       <c r="I102">
-        <v>2.9756262312445315e-5</v>
+        <v>2.9756262312174807e-5</v>
       </c>
       <c r="J102">
-        <v>0.0019403996228921521</v>
+        <v>0.0019403996228969098</v>
       </c>
       <c r="K102">
-        <v>4.838088235056503e-5</v>
+        <v>4.8380882350590664e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.8383994934109215e-5</v>
       </c>
       <c r="G103">
-        <v>7.252335137925905</v>
+        <v>7.252335137928757</v>
       </c>
       <c r="H103">
-        <v>1.0886344338077653e-6</v>
+        <v>1.0886344338129828e-6</v>
       </c>
       <c r="I103">
-        <v>3.144433753237481e-5</v>
+        <v>3.1444337532102744e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019407248024458457</v>
+        <v>0.0019407248024506227</v>
       </c>
       <c r="K103">
-        <v>4.838384589124371e-5</v>
+        <v>4.838384589126949e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4040,19 +4040,19 @@
         <v>4.838698626954527e-5</v>
       </c>
       <c r="G104">
-        <v>7.253210231405307</v>
+        <v>7.253210231408154</v>
       </c>
       <c r="H104">
-        <v>1.055101971269846e-6</v>
+        <v>1.0551019712750523e-6</v>
       </c>
       <c r="I104">
-        <v>3.3150772629839704e-5</v>
+        <v>3.3150772629566106e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019410551088766639</v>
+        <v>0.0019410551088814602</v>
       </c>
       <c r="K104">
-        <v>4.838683966808847e-5</v>
+        <v>4.838683966811442e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4075,19 +4075,19 @@
         <v>4.839000748547604e-5</v>
       </c>
       <c r="G105">
-        <v>7.254106873424465</v>
+        <v>7.2541068734273075</v>
       </c>
       <c r="H105">
-        <v>1.0275954094764227e-6</v>
+        <v>1.0275954094816175e-6</v>
       </c>
       <c r="I105">
-        <v>3.487525903873645e-5</v>
+        <v>3.487525903846134e-5</v>
       </c>
       <c r="J105">
-        <v>0.0019413900584060535</v>
+        <v>0.001941390058410868</v>
       </c>
       <c r="K105">
-        <v>4.8389863297272726e-5</v>
+        <v>4.8389863297298835e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4110,19 +4110,19 @@
         <v>4.839305838550318e-5</v>
       </c>
       <c r="G106">
-        <v>7.255022011789438</v>
+        <v>7.255022011792276</v>
       </c>
       <c r="H106">
-        <v>1.0050001212585528e-6</v>
+        <v>1.0050001212637362e-6</v>
       </c>
       <c r="I106">
-        <v>3.661760953418902e-5</v>
+        <v>3.6617609533912424e-5</v>
       </c>
       <c r="J106">
-        <v>0.0019417292501530414</v>
+        <v>0.0019417292501578743</v>
       </c>
       <c r="K106">
-        <v>4.839291658296804e-5</v>
+        <v>4.839291658299429e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4145,19 +4145,19 @@
         <v>4.839613894554982e-5</v>
       </c>
       <c r="G107">
-        <v>7.255953086492705</v>
+        <v>7.255953086495537</v>
       </c>
       <c r="H107">
-        <v>9.863669289542642e-7</v>
+        <v>9.863669289594356e-7</v>
       </c>
       <c r="I107">
-        <v>3.837774860673283e-5</v>
+        <v>3.837774860645478e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019420723585725568</v>
+        <v>0.0019420723585774078</v>
       </c>
       <c r="K107">
-        <v>4.8395999501909955e-5</v>
+        <v>4.8395999501936355e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4180,19 +4180,19 @@
         <v>4.839924929790724e-5</v>
       </c>
       <c r="G108">
-        <v>7.256897979574441</v>
+        <v>7.256897979577268</v>
       </c>
       <c r="H108">
-        <v>9.708959765304016e-7</v>
+        <v>9.708959765355606e-7</v>
       </c>
       <c r="I108">
-        <v>4.015570215540042e-5</v>
+        <v>4.015570215512093e-5</v>
       </c>
       <c r="J108">
-        <v>0.0019424191257131106</v>
+        <v>0.001942419125717979</v>
       </c>
       <c r="K108">
-        <v>4.8399112187357726e-5</v>
+        <v>4.839911218738427e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.840238971518953e-5</v>
       </c>
       <c r="G109">
-        <v>7.2578549650615765</v>
+        <v>7.257854965064397</v>
       </c>
       <c r="H109">
-        <v>9.579204111478017e-7</v>
+        <v>9.57920411152948e-7</v>
       </c>
       <c r="I109">
-        <v>4.1951587280923564e-5</v>
+        <v>4.195158728064265e-5</v>
       </c>
       <c r="J109">
-        <v>0.0019427693534647245</v>
+        <v>0.0019427693534696101</v>
       </c>
       <c r="K109">
-        <v>4.840225491291051e-5</v>
+        <v>4.840225491293723e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4250,19 +4250,19 @@
         <v>4.8405560594584115e-5</v>
       </c>
       <c r="G110">
-        <v>7.258822660192557</v>
+        <v>7.2588226601953725</v>
       </c>
       <c r="H110">
-        <v>9.468903080081012e-7</v>
+        <v>9.46890308013234e-7</v>
       </c>
       <c r="I110">
-        <v>4.376560215222627e-5</v>
+        <v>4.376560215194396e-5</v>
       </c>
       <c r="J110">
-        <v>0.001943122896049946</v>
+        <v>0.001943122896054849</v>
       </c>
       <c r="K110">
-        <v>4.840542807684647e-5</v>
+        <v>4.8405428076873355e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.840876244273103e-5</v>
       </c>
       <c r="G111">
-        <v>7.259799978586105</v>
+        <v>7.259799978588913</v>
       </c>
       <c r="H111">
-        <v>9.373572016389715e-7</v>
+        <v>9.373572016440908e-7</v>
       </c>
       <c r="I111">
-        <v>4.559801609770957e-5</v>
+        <v>4.559801609742588e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019434796528792423</v>
+        <v>0.0019434796528841624</v>
       </c>
       <c r="K111">
-        <v>4.840863218690455e-5</v>
+        <v>4.840863218693161e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.841199586150127e-5</v>
       </c>
       <c r="G112">
-        <v>7.260786086623552</v>
+        <v>7.2607860866263545</v>
       </c>
       <c r="H112">
-        <v>9.289595105135357e-7</v>
+        <v>9.289595105186416e-7</v>
       </c>
       <c r="I112">
-        <v>4.744916045975003e-5</v>
+        <v>4.7449160459465e-5</v>
       </c>
       <c r="J112">
-        <v>0.0019438395618467407</v>
+        <v>0.001943839561851678</v>
       </c>
       <c r="K112">
-        <v>4.841186784598646e-5</v>
+        <v>4.841186784601368e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4355,19 +4355,19 @@
         <v>4.841526153487911e-5</v>
       </c>
       <c r="G113">
-        <v>7.261780363316724</v>
+        <v>7.26178036331952</v>
       </c>
       <c r="H113">
-        <v>9.214090755857895e-7</v>
+        <v>9.214090755908817e-7</v>
       </c>
       <c r="I113">
-        <v>4.931942002704979e-5</v>
+        <v>4.931942002676344e-5</v>
       </c>
       <c r="J113">
-        <v>0.0019442025932732384</v>
+        <v>0.0019442025932781928</v>
       </c>
       <c r="K113">
-        <v>4.84151357390937e-5</v>
+        <v>4.8415135739121084e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4390,19 +4390,19 @@
         <v>4.841856021708799e-5</v>
       </c>
       <c r="G114">
-        <v>7.262782364111493</v>
+        <v>7.262782364114282</v>
       </c>
       <c r="H114">
-        <v>9.144789560524122e-7</v>
+        <v>9.144789560574908e-7</v>
       </c>
       <c r="I114">
-        <v>5.120922531764554e-5</v>
+        <v>5.12092253173579e-5</v>
       </c>
       <c r="J114">
-        <v>0.0019445687443847782</v>
+        <v>0.0019445687443897497</v>
       </c>
       <c r="K114">
-        <v>4.8418436621343325e-5</v>
+        <v>4.8418436621370863e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4425,19 +4425,19 @@
         <v>4.84218927220378e-5</v>
       </c>
       <c r="G115">
-        <v>7.26379178865114</v>
+        <v>7.263791788653922</v>
       </c>
       <c r="H115">
-        <v>9.079925620795904e-7</v>
+        <v>9.079925620846551e-7</v>
       </c>
       <c r="I115">
-        <v>5.3119045660657544e-5</v>
+        <v>5.311904566036863e-5</v>
       </c>
       <c r="J115">
-        <v>0.001944938034489131</v>
+        <v>0.0019449380344941192</v>
       </c>
       <c r="K115">
-        <v>4.842177130747063e-5</v>
+        <v>4.84217713074983e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.842525991411562e-5</v>
       </c>
       <c r="G116">
-        <v>7.264808453003609</v>
+        <v>7.264808453006385</v>
       </c>
       <c r="H116">
-        <v>9.018141460265955e-7</v>
+        <v>9.018141460316458e-7</v>
       </c>
       <c r="I116">
-        <v>5.5049383285856715e-5</v>
+        <v>5.504938328556657e-5</v>
       </c>
       <c r="J116">
-        <v>0.0019453105007773773</v>
+        <v>0.0019453105007823822</v>
       </c>
       <c r="K116">
-        <v>4.842514066257256e-5</v>
+        <v>4.8425140662600374e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4495,19 +4495,19 @@
         <v>4.842866270029435e-5</v>
       </c>
       <c r="G117">
-        <v>7.265832265579207</v>
+        <v>7.265832265581975</v>
       </c>
       <c r="H117">
-        <v>8.958406234726498e-7</v>
+        <v>8.958406234776854e-7</v>
       </c>
       <c r="I117">
-        <v>5.70007681363774e-5</v>
+        <v>5.700076813608604e-5</v>
       </c>
       <c r="J117">
-        <v>0.001945686194730742</v>
+        <v>0.0019456861947357623</v>
       </c>
       <c r="K117">
-        <v>4.842854559422829e-5</v>
+        <v>4.842854559425626e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4530,19 +4530,19 @@
         <v>4.843210202349503e-5</v>
       </c>
       <c r="G118">
-        <v>7.266863207009329</v>
+        <v>7.266863207012089</v>
       </c>
       <c r="H118">
-        <v>8.899946575337552e-7</v>
+        <v>8.899946575387756e-7</v>
       </c>
       <c r="I118">
-        <v>5.8973753564768216e-5</v>
+        <v>5.897375356447567e-5</v>
       </c>
       <c r="J118">
-        <v>0.0019460651791126837</v>
+        <v>0.0019460651791177194</v>
       </c>
       <c r="K118">
-        <v>4.843198704590142e-5</v>
+        <v>4.8431987045929546e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4565,19 +4565,19 @@
         <v>4.84355788571095e-5</v>
       </c>
       <c r="G119">
-        <v>7.267901313316589</v>
+        <v>7.26790131331934</v>
       </c>
       <c r="H119">
-        <v>8.842189082338003e-7</v>
+        <v>8.842189082388051e-7</v>
       </c>
       <c r="I119">
-        <v>6.0968912764768665e-5</v>
+        <v>6.096891276447498e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019464475254961718</v>
+        <v>0.0019464475255012226</v>
       </c>
       <c r="K119">
-        <v>4.843546599137458e-5</v>
+        <v>4.8435465991402854e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4600,19 +4600,19 @@
         <v>4.8439094200570306e-5</v>
       </c>
       <c r="G120">
-        <v>7.2689466622955905</v>
+        <v>7.268946662298333</v>
       </c>
       <c r="H120">
-        <v>8.784713327262807e-7</v>
+        <v>8.784713327312695e-7</v>
       </c>
       <c r="I120">
-        <v>6.298683586485328e-5</v>
+        <v>6.298683586455847e-5</v>
       </c>
       <c r="J120">
-        <v>0.0019468333122362072</v>
+        <v>0.0019468333122412726</v>
       </c>
       <c r="K120">
-        <v>4.8438983430451805e-5</v>
+        <v>4.843898343048021e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4635,19 +4635,19 @@
         <v>4.8442649075844336e-5</v>
       </c>
       <c r="G121">
-        <v>7.269999362676562</v>
+        <v>7.269999362679296</v>
       </c>
       <c r="H121">
-        <v>8.727214082742349e-7</v>
+        <v>8.727214082792075e-7</v>
       </c>
       <c r="I121">
-        <v>6.502812772912661e-5</v>
+        <v>6.50281277288307e-5</v>
       </c>
       <c r="J121">
-        <v>0.001947222622875994</v>
+        <v>0.0019472226228810726</v>
       </c>
       <c r="K121">
-        <v>4.844254038533523e-5</v>
+        <v>4.844254038536377e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4670,19 +4670,19 @@
         <v>4.844624452472234e-5</v>
       </c>
       <c r="G122">
-        <v>7.271059545423101</v>
+        <v>7.2710595454258256</v>
       </c>
       <c r="H122">
-        <v>8.669471494933749e-7</v>
+        <v>8.669471494983309e-7</v>
       </c>
       <c r="I122">
-        <v>6.709340618694302e-5</v>
+        <v>6.709340618664606e-5</v>
       </c>
       <c r="J122">
-        <v>0.0019476155449085612</v>
+        <v>0.0019476155449136532</v>
       </c>
       <c r="K122">
-        <v>4.8446137898041784e-5</v>
+        <v>4.844613789807046e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4705,19 +4705,19 @@
         <v>4.844988160678045e-5</v>
       </c>
       <c r="G123">
-        <v>7.272127357054227</v>
+        <v>7.272127357056943</v>
       </c>
       <c r="H123">
-        <v>8.611327934284525e-7</v>
+        <v>8.611327934333913e-7</v>
       </c>
       <c r="I123">
-        <v>6.918330061046746e-5</v>
+        <v>6.91833006101695e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019480121687929233</v>
+        <v>0.0019480121687980281</v>
       </c>
       <c r="K123">
-        <v>4.844977702823372e-5</v>
+        <v>4.8449777028262523e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4740,19 +4740,19 @@
         <v>4.845356139789633e-5</v>
       </c>
       <c r="G124">
-        <v>7.273202954643568</v>
+        <v>7.2732029546462735</v>
       </c>
       <c r="H124">
-        <v>8.552670347357043e-7</v>
+        <v>8.552670347406254e-7</v>
       </c>
       <c r="I124">
-        <v>7.129845107536785e-5</v>
+        <v>7.129845107506889e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019484125872272836</v>
+        <v>0.0019484125872324008</v>
       </c>
       <c r="K124">
-        <v>4.845345885189975e-5</v>
+        <v>4.845345885192871e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4775,19 +4775,19 @@
         <v>4.845728498921443e-5</v>
       </c>
       <c r="G125">
-        <v>7.274286501942664</v>
+        <v>7.27428650194536</v>
       </c>
       <c r="H125">
-        <v>8.493417042932381e-7</v>
+        <v>8.493417042981412e-7</v>
       </c>
       <c r="I125">
-        <v>7.343950766466947e-5</v>
+        <v>7.343950766436958e-5</v>
       </c>
       <c r="J125">
-        <v>0.001948816894637972</v>
+        <v>0.0019488168946431006</v>
       </c>
       <c r="K125">
-        <v>4.845718446018142e-5</v>
+        <v>4.8457184460210494e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4810,19 +4810,19 @@
         <v>4.846105348646699e-5</v>
       </c>
       <c r="G126">
-        <v>7.275378166609656</v>
+        <v>7.275378166612341</v>
       </c>
       <c r="H126">
-        <v>8.433507985912393e-7</v>
+        <v>8.433507985961241e-7</v>
       </c>
       <c r="I126">
-        <v>7.560712999235401e-5</v>
+        <v>7.56071299920532e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019492251867636967</v>
+        <v>0.0019492251867688354</v>
       </c>
       <c r="K126">
-        <v>4.846095495882518e-5</v>
+        <v>4.8460954958854384e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.846486800957146e-5</v>
       </c>
       <c r="G127">
-        <v>7.276478118256002</v>
+        <v>7.276478118258676</v>
       </c>
       <c r="H127">
-        <v>8.372897790405654e-7</v>
+        <v>8.372897790454312e-7</v>
       </c>
       <c r="I127">
-        <v>7.780198702191415e-5</v>
+        <v>7.780198702161244e-5</v>
       </c>
       <c r="J127">
-        <v>0.0019496375604140296</v>
+        <v>0.001949637560419178</v>
       </c>
       <c r="K127">
-        <v>4.846477146769799e-5</v>
+        <v>4.84647714677273e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4880,19 +4880,19 @@
         <v>4.8468729692438374e-5</v>
       </c>
       <c r="G128">
-        <v>7.277586526917473</v>
+        <v>7.2775865269201345</v>
       </c>
       <c r="H128">
-        <v>8.311550767698262e-7</v>
+        <v>8.311550767746725e-7</v>
       </c>
       <c r="I128">
-        <v>8.002475689087942e-5</v>
+        <v>8.002475689057686e-5</v>
       </c>
       <c r="J128">
-        <v>0.0019500541132592363</v>
+        <v>0.0019500541132643939</v>
       </c>
       <c r="K128">
-        <v>4.8468635120650256e-5</v>
+        <v>4.8468635120679685e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4915,19 +4915,19 @@
         <v>4.847263968293622e-5</v>
       </c>
       <c r="G129">
-        <v>7.278703562042207</v>
+        <v>7.278703562044857</v>
       </c>
       <c r="H129">
-        <v>8.24943749239183e-7</v>
+        <v>8.249437492440092e-7</v>
       </c>
       <c r="I129">
-        <v>8.227612687490209e-5</v>
+        <v>8.227612687459873e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019504749437338855</v>
+        <v>0.0019504749437390524</v>
       </c>
       <c r="K129">
-        <v>4.847254706545331e-5</v>
+        <v>4.847254706548283e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,19 +4950,19 @@
         <v>4.847659914297142e-5</v>
       </c>
       <c r="G130">
-        <v>7.279829391944244</v>
+        <v>7.2798293919468815</v>
       </c>
       <c r="H130">
-        <v>8.18653246488005e-7</v>
+        <v>8.186532464928103e-7</v>
       </c>
       <c r="I130">
-        <v>8.455679354291017e-5</v>
+        <v>8.455679354260606e-5</v>
       </c>
       <c r="J130">
-        <v>0.0019509001509431067</v>
+        <v>0.0019509001509482819</v>
       </c>
       <c r="K130">
-        <v>4.8476508463889606e-5</v>
+        <v>4.847650846391924e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4985,19 +4985,19 @@
         <v>4.8480609248651e-5</v>
       </c>
       <c r="G131">
-        <v>7.280964183153032</v>
+        <v>7.280964183155658</v>
       </c>
       <c r="H131">
-        <v>8.122812558310304e-7</v>
+        <v>8.122812558358143e-7</v>
       </c>
       <c r="I131">
-        <v>8.686746281366072e-5</v>
+        <v>8.68674628133559e-5</v>
       </c>
       <c r="J131">
-        <v>0.0019513298346269204</v>
+        <v>0.0019513298346321034</v>
       </c>
       <c r="K131">
-        <v>4.8480520491943026e-5</v>
+        <v>4.848052049197274e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5020,19 +5020,19 @@
         <v>4.848467119050388e-5</v>
       </c>
       <c r="G132">
-        <v>7.28210810014305</v>
+        <v>7.282108100145663</v>
       </c>
       <c r="H132">
-        <v>8.058256005089117e-7</v>
+        <v>8.058256005136737e-7</v>
       </c>
       <c r="I132">
-        <v>8.920885007026193e-5</v>
+        <v>8.920885006995647e-5</v>
       </c>
       <c r="J132">
-        <v>0.0019517640951406457</v>
+        <v>0.0019517640951458352</v>
       </c>
       <c r="K132">
-        <v>4.84845843399795e-5</v>
+        <v>4.848458434000927e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5055,19 +5055,19 @@
         <v>4.8488786173742996e-5</v>
       </c>
       <c r="G133">
-        <v>7.283261305163177</v>
+        <v>7.283261305165776</v>
       </c>
       <c r="H133">
-        <v>7.99284174845522e-7</v>
+        <v>7.992841748502618e-7</v>
       </c>
       <c r="I133">
-        <v>9.158168040635131e-5</v>
+        <v>9.158168040604524e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019522030334425847</v>
+        <v>0.0019522030334477801</v>
       </c>
       <c r="K133">
-        <v>4.848870121302671e-5</v>
+        <v>4.848870121305653e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5090,19 +5090,19 @@
         <v>4.849295541855598e-5</v>
       </c>
       <c r="G134">
-        <v>7.2844239580335834</v>
+        <v>7.28442395803617</v>
       </c>
       <c r="H134">
-        <v>7.92654903792171e-7</v>
+        <v>7.926549037968878e-7</v>
       </c>
       <c r="I134">
-        <v>9.398668880859216e-5</v>
+        <v>9.398668880828555e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019526467511177179</v>
+        <v>0.0019526467511229186</v>
       </c>
       <c r="K134">
-        <v>4.8492872331137774e-5</v>
+        <v>4.849287233116764e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5125,19 +5125,19 @@
         <v>4.8497180160415395e-5</v>
       </c>
       <c r="G135">
-        <v>7.285596215972795</v>
+        <v>7.285596215975367</v>
       </c>
       <c r="H135">
-        <v>7.859357178550326e-7</v>
+        <v>7.859357178597258e-7</v>
       </c>
       <c r="I135">
-        <v>9.642462031039108e-5</v>
+        <v>9.642462031008402e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019530953503652056</v>
+        <v>0.0019530953503704104</v>
       </c>
       <c r="K135">
-        <v>4.849709892956005e-5</v>
+        <v>4.849709892958996e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5160,19 +5160,19 @@
         <v>4.850146165040289e-5</v>
       </c>
       <c r="G136">
-        <v>7.286778233623927</v>
+        <v>7.286778233626484</v>
       </c>
       <c r="H136">
-        <v>7.791245387256153e-7</v>
+        <v>7.791245387302843e-7</v>
       </c>
       <c r="I136">
-        <v>9.889623029211411e-5</v>
+        <v>9.889623029180666e-5</v>
       </c>
       <c r="J136">
-        <v>0.001953548934035933</v>
+        <v>0.0019535489340411407</v>
       </c>
       <c r="K136">
-        <v>4.850138225914352e-5</v>
+        <v>4.850138225917344e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5195,19 +5195,19 @@
         <v>4.850580115554353e-5</v>
       </c>
       <c r="G137">
-        <v>7.287970162898173</v>
+        <v>7.287970162900715</v>
       </c>
       <c r="H137">
-        <v>7.722192694424858e-7</v>
+        <v>7.7221926944713e-7</v>
       </c>
       <c r="I137">
-        <v>0.00010140228469347913</v>
+        <v>0.00010140228469317137</v>
       </c>
       <c r="J137">
-        <v>0.001954007605630087</v>
+        <v>0.001954007605635297</v>
       </c>
       <c r="K137">
-        <v>4.850572358672591e-5</v>
+        <v>4.850572358675585e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5230,19 +5230,19 @@
         <v>4.8510199959147555e-5</v>
       </c>
       <c r="G138">
-        <v>7.289172152925073</v>
+        <v>7.289172152927599</v>
       </c>
       <c r="H138">
-        <v>7.65217789989254e-7</v>
+        <v>7.652177899938723e-7</v>
       </c>
       <c r="I138">
-        <v>0.00010394356019226964</v>
+        <v>0.00010394356019196166</v>
       </c>
       <c r="J138">
-        <v>0.001954471469330337</v>
+        <v>0.001954471469335548</v>
       </c>
       <c r="K138">
-        <v>4.851012419539796e-5</v>
+        <v>4.851012419542791e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5265,19 +5265,19 @@
         <v>4.8514659361158585e-5</v>
       </c>
       <c r="G139">
-        <v>7.290384349978482</v>
+        <v>7.290384349980992</v>
       </c>
       <c r="H139">
-        <v>7.581179533360847e-7</v>
+        <v>7.581179533406762e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010652084451898465</v>
+        <v>0.00010652084451867648</v>
       </c>
       <c r="J139">
-        <v>0.00195494063002369</v>
+        <v>0.0019549406300289006</v>
       </c>
       <c r="K139">
-        <v>4.851458538485646e-5</v>
+        <v>4.851458538488642e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5300,19 +5300,19 @@
         <v>4.851918067850691e-5</v>
       </c>
       <c r="G140">
-        <v>7.2916068974423025</v>
+        <v>7.2916068974447965</v>
       </c>
       <c r="H140">
-        <v>7.509175837917052e-7</v>
+        <v>7.509175837962694e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010913493663811471</v>
+        <v>0.00010913493663780645</v>
       </c>
       <c r="J140">
-        <v>0.001955415193318806</v>
+        <v>0.001955415193324016</v>
       </c>
       <c r="K140">
-        <v>4.851910847178734e-5</v>
+        <v>4.851910847181732e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,19 +5335,19 @@
         <v>4.8523765245467914e-5</v>
       </c>
       <c r="G141">
-        <v>7.2928399356886535</v>
+        <v>7.29283993569113</v>
       </c>
       <c r="H141">
-        <v>7.436144757365668e-7</v>
+        <v>7.436144757411031e-7</v>
       </c>
       <c r="I141">
-        <v>0.00011178664703400585</v>
+        <v>0.00011178664703369758</v>
       </c>
       <c r="J141">
-        <v>0.0019558952655691</v>
+        <v>0.001955895265574307</v>
       </c>
       <c r="K141">
-        <v>4.852369479022536e-5</v>
+        <v>4.852369479025534e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5370,19 +5370,19 @@
         <v>4.8528414414024934e-5</v>
       </c>
       <c r="G142">
-        <v>7.294083602061271</v>
+        <v>7.294083602063729</v>
       </c>
       <c r="H142">
-        <v>7.362063921521043e-7</v>
+        <v>7.362063921566118e-7</v>
       </c>
       <c r="I142">
-        <v>0.00011447679793183758</v>
+        <v>0.00011447679793152937</v>
       </c>
       <c r="J142">
-        <v>0.0019563809538857076</v>
+        <v>0.001956380953890911</v>
       </c>
       <c r="K142">
-        <v>4.85283456918678e-5</v>
+        <v>4.852834569189778e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5405,19 +5405,19 @@
         <v>4.853312955423686e-5</v>
       </c>
       <c r="G143">
-        <v>7.295338030818732</v>
+        <v>7.295338030821172</v>
       </c>
       <c r="H143">
-        <v>7.286910641677709e-7</v>
+        <v>7.286910641722486e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011720622358746369</v>
+        <v>0.00011720622358715566</v>
       </c>
       <c r="J143">
-        <v>0.0019568723661882465</v>
+        <v>0.001956872366193445</v>
       </c>
       <c r="K143">
-        <v>4.853306254650795e-5</v>
+        <v>4.853306254653791e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5440,19 +5440,19 @@
         <v>4.8537912054610336e-5</v>
       </c>
       <c r="G144">
-        <v>7.2966033530022125</v>
+        <v>7.296603353004634</v>
       </c>
       <c r="H144">
-        <v>7.21066190143532e-7</v>
+        <v>7.210661901479792e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011997577048398334</v>
+        <v>0.00011997577048367553</v>
       </c>
       <c r="J144">
-        <v>0.0019573696111972734</v>
+        <v>0.0019573696112024654</v>
       </c>
       <c r="K144">
-        <v>4.8537846742391677e-5</v>
+        <v>4.853784674242162e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5475,19 +5475,19 @@
         <v>4.8542763322476554e-5</v>
       </c>
       <c r="G145">
-        <v>7.2978796964498045</v>
+        <v>7.297879696452206</v>
       </c>
       <c r="H145">
-        <v>7.13329434797158e-7</v>
+        <v>7.133294348015736e-7</v>
       </c>
       <c r="I145">
-        <v>0.00012278629771196237</v>
+        <v>0.00012278629771165492</v>
       </c>
       <c r="J145">
-        <v>0.001957872798477104</v>
+        <v>0.001957872798482289</v>
       </c>
       <c r="K145">
-        <v>4.854269968656072e-5</v>
+        <v>4.8542699686590625e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5510,19 +5510,19 @@
         <v>4.854768478437294e-5</v>
       </c>
       <c r="G146">
-        <v>7.299167185706079</v>
+        <v>7.299167185708461</v>
       </c>
       <c r="H146">
-        <v>7.054784287700243e-7</v>
+        <v>7.054784287744072e-7</v>
       </c>
       <c r="I146">
-        <v>0.00012563867706232956</v>
+        <v>0.00012563867706202257</v>
       </c>
       <c r="J146">
-        <v>0.001958382038465056</v>
+        <v>0.001958382038470232</v>
       </c>
       <c r="K146">
-        <v>4.8547622805279355e-5</v>
+        <v>4.854762280530921e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5545,19 +5545,19 @@
         <v>4.855267788642955e-5</v>
       </c>
       <c r="G147">
-        <v>7.300465941871774</v>
+        <v>7.300465941874136</v>
       </c>
       <c r="H147">
-        <v>6.975107675068343e-7</v>
+        <v>6.975107675111837e-7</v>
       </c>
       <c r="I147">
-        <v>0.00012853379346750392</v>
+        <v>0.0001285337934671975</v>
       </c>
       <c r="J147">
-        <v>0.001958897442478733</v>
+        <v>0.0019588974424838987</v>
       </c>
       <c r="K147">
-        <v>4.8552617544388705e-5</v>
+        <v>4.855261754441851e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5580,19 +5580,19 @@
         <v>4.855774409476063e-5</v>
       </c>
       <c r="G148">
-        <v>7.301776082674076</v>
+        <v>7.301776082676417</v>
       </c>
       <c r="H148">
-        <v>6.894240109743782e-7</v>
+        <v>6.894240109786931e-7</v>
       </c>
       <c r="I148">
-        <v>0.00013147254515904642</v>
+        <v>0.00013147254515874065</v>
       </c>
       <c r="J148">
-        <v>0.0019594191227518204</v>
+        <v>0.0019594191227569734</v>
       </c>
       <c r="K148">
-        <v>4.855768536971226e-5</v>
+        <v>4.855768536974199e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>4.856288489586111e-5</v>
       </c>
       <c r="G149">
-        <v>7.3030977222746225</v>
+        <v>7.303097722276942</v>
       </c>
       <c r="H149">
-        <v>6.81215682408123e-7</v>
+        <v>6.812156824124023e-7</v>
       </c>
       <c r="I149">
-        <v>0.00013445584400110567</v>
+        <v>0.00013445584400080063</v>
       </c>
       <c r="J149">
-        <v>0.001959947192471723</v>
+        <v>0.001959947192476863</v>
       </c>
       <c r="K149">
-        <v>4.856282776746863e-5</v>
+        <v>4.856282776749829e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5650,19 +5650,19 @@
         <v>4.856810179700848e-5</v>
       </c>
       <c r="G150">
-        <v>7.304430971260624</v>
+        <v>7.304430971262922</v>
       </c>
       <c r="H150">
-        <v>6.728832680334847e-7</v>
+        <v>6.728832680377273e-7</v>
       </c>
       <c r="I150">
-        <v>0.0001374846157514658</v>
+        <v>0.00013748461575116162</v>
       </c>
       <c r="J150">
-        <v>0.001960481765781101</v>
+        <v>0.0019604817657862257</v>
       </c>
       <c r="K150">
-        <v>4.856804624463728e-5</v>
+        <v>4.8568046244666855e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.857339632666989e-5</v>
       </c>
       <c r="G151">
-        <v>7.30577593649476</v>
+        <v>7.305775936497034</v>
       </c>
       <c r="H151">
-        <v>6.644242159525694e-7</v>
+        <v>6.644242159567743e-7</v>
       </c>
       <c r="I151">
-        <v>0.00014055980034749827</v>
+        <v>0.00014055980034719505</v>
       </c>
       <c r="J151">
-        <v>0.0019610229578224344</v>
+        <v>0.001961022957827542</v>
       </c>
       <c r="K151">
-        <v>4.857334232938652e-5</v>
+        <v>4.857334232941599e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5720,19 +5720,19 @@
         <v>4.8578770034914875e-5</v>
       </c>
       <c r="G152">
-        <v>7.30713272114785</v>
+        <v>7.307132721150101</v>
       </c>
       <c r="H152">
-        <v>6.558359355875671e-7</v>
+        <v>6.55835935591733e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014368235218072828</v>
+        <v>0.00014368235218042614</v>
       </c>
       <c r="J152">
-        <v>0.0019615708847689644</v>
+        <v>0.0019615708847740524</v>
       </c>
       <c r="K152">
-        <v>4.857871757148915e-5</v>
+        <v>4.857871757151851e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5755,19 +5755,19 @@
         <v>4.85842244938336e-5</v>
       </c>
       <c r="G153">
-        <v>7.308501424553158</v>
+        <v>7.308501424555383</v>
       </c>
       <c r="H153">
-        <v>6.471157965676376e-7</v>
+        <v>6.471157965717634e-7</v>
       </c>
       <c r="I153">
-        <v>0.00014685324042181227</v>
+        <v>0.0001468532404215113</v>
       </c>
       <c r="J153">
-        <v>0.001962125663852923</v>
+        <v>0.00196212566385799</v>
       </c>
       <c r="K153">
-        <v>4.858417354277075e-5</v>
+        <v>4.8584173542800005e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5790,19 +5790,19 @@
         <v>4.85897612979609e-5</v>
       </c>
       <c r="G154">
-        <v>7.309882142123091</v>
+        <v>7.309882142125292</v>
       </c>
       <c r="H154">
-        <v>6.382611284506284e-7</v>
+        <v>6.38261128454713e-7</v>
       </c>
       <c r="I154">
-        <v>0.00015007344930687637</v>
+        <v>0.0001500734493065767</v>
       </c>
       <c r="J154">
-        <v>0.0019626874133708487</v>
+        <v>0.0019626874133758915</v>
       </c>
       <c r="K154">
-        <v>4.858971183745086e-5</v>
+        <v>4.8589711837479984e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5825,19 +5825,19 @@
         <v>4.859538206470632e-5</v>
       </c>
       <c r="G155">
-        <v>7.311274965324491</v>
+        <v>7.311274965326666</v>
       </c>
       <c r="H155">
-        <v>6.292692193317078e-7</v>
+        <v>6.2926921933575e-7</v>
       </c>
       <c r="I155">
-        <v>0.00015334397845095262</v>
+        <v>0.0001533439784506544</v>
       </c>
       <c r="J155">
-        <v>0.0019632562527523677</v>
+        <v>0.0019632562527573854</v>
       </c>
       <c r="K155">
-        <v>4.859533407269083e-5</v>
+        <v>4.859533407271982e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5860,19 +5860,19 @@
         <v>4.860108843479007e-5</v>
       </c>
       <c r="G156">
-        <v>7.312679981558635</v>
+        <v>7.312679981560785</v>
       </c>
       <c r="H156">
-        <v>6.201373152868141e-7</v>
+        <v>6.201373152908125e-7</v>
       </c>
       <c r="I156">
-        <v>0.00015666584313421753</v>
+        <v>0.0001566658431339209</v>
       </c>
       <c r="J156">
-        <v>0.001963832302576524</v>
+        <v>0.001963832302581515</v>
       </c>
       <c r="K156">
-        <v>4.860104188889938e-5</v>
+        <v>4.860104188892822e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5895,19 +5895,19 @@
         <v>4.860688207268523e-5</v>
       </c>
       <c r="G157">
-        <v>7.314097274103403</v>
+        <v>7.314097274105525</v>
       </c>
       <c r="H157">
-        <v>6.108626196769715e-7</v>
+        <v>6.10862619680925e-7</v>
       </c>
       <c r="I157">
-        <v>0.00016004007464917572</v>
+        <v>0.00016004007464888085</v>
       </c>
       <c r="J157">
-        <v>0.001964415684581802</v>
+        <v>0.0019644156845867624</v>
       </c>
       <c r="K157">
-        <v>4.8606836950289505e-5</v>
+        <v>4.8606836950318195e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.861276466706647e-5</v>
       </c>
       <c r="G158">
-        <v>7.315526922018504</v>
+        <v>7.315526922020598</v>
       </c>
       <c r="H158">
-        <v>6.014422920351957e-7</v>
+        <v>6.014422920391028e-7</v>
       </c>
       <c r="I158">
-        <v>0.00016346772053128585</v>
+        <v>0.00016346772053099287</v>
       </c>
       <c r="J158">
-        <v>0.0019650065217267794</v>
+        <v>0.001965006521731708</v>
       </c>
       <c r="K158">
-        <v>4.861272094526711e-5</v>
+        <v>4.86127209452956e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5965,19 +5965,19 @@
         <v>4.8618737931265024e-5</v>
       </c>
       <c r="G159">
-        <v>7.3169690000968535</v>
+        <v>7.3169690000989185</v>
       </c>
       <c r="H159">
-        <v>5.918734473708088e-7</v>
+        <v>5.918734473746682e-7</v>
       </c>
       <c r="I159">
-        <v>0.00016694984500590843</v>
+        <v>0.00016694984500561748</v>
       </c>
       <c r="J159">
-        <v>0.0019656049382233256</v>
+        <v>0.001965604938228219</v>
       </c>
       <c r="K159">
-        <v>4.86186955869254e-5</v>
+        <v>4.8618695586953685e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6000,19 +6000,19 @@
         <v>4.8624803603730543e-5</v>
       </c>
       <c r="G160">
-        <v>7.318423578749718</v>
+        <v>7.318423578751753</v>
       </c>
       <c r="H160">
-        <v>5.821531550563451e-7</v>
+        <v>5.821531550601555e-7</v>
       </c>
       <c r="I160">
-        <v>0.00017048752923549547</v>
+        <v>0.00017048752923520672</v>
       </c>
       <c r="J160">
-        <v>0.0019662110595555695</v>
+        <v>0.001966211059560426</v>
       </c>
       <c r="K160">
-        <v>4.862476261344761e-5</v>
+        <v>4.8624762613475686e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6035,19 +6035,19 @@
         <v>4.863096344849973e-5</v>
       </c>
       <c r="G161">
-        <v>7.319890723966684</v>
+        <v>7.3198907239686894</v>
       </c>
       <c r="H161">
-        <v>5.722784382710011e-7</v>
+        <v>5.722784382747609e-7</v>
       </c>
       <c r="I161">
-        <v>0.0001740818716199594</v>
+        <v>0.000174081871619673</v>
       </c>
       <c r="J161">
-        <v>0.0019668250125184556</v>
+        <v>0.001966825012523272</v>
       </c>
       <c r="K161">
-        <v>4.863092378861528e-5</v>
+        <v>4.863092378864313e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.8637219255672e-5</v>
       </c>
       <c r="G162">
-        <v>7.321370497200476</v>
+        <v>7.321370497202451</v>
       </c>
       <c r="H162">
-        <v>5.622462727484053e-7</v>
+        <v>5.622462727521129e-7</v>
       </c>
       <c r="I162">
-        <v>0.00017773398825960223</v>
+        <v>0.00017773398825931833</v>
       </c>
       <c r="J162">
-        <v>0.00196744692525715</v>
+        <v>0.0019674469252619242</v>
       </c>
       <c r="K162">
-        <v>4.8637180902293195e-5</v>
+        <v>4.8637180902320815e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.8643572841892284e-5</v>
       </c>
       <c r="G163">
-        <v>7.322862955357554</v>
+        <v>7.322862955359496</v>
       </c>
       <c r="H163">
-        <v>5.520535859417951e-7</v>
+        <v>5.520535859454491e-7</v>
       </c>
       <c r="I163">
-        <v>0.00018144501317035472</v>
+        <v>0.0001814450131700735</v>
       </c>
       <c r="J163">
-        <v>0.00196807692732191</v>
+        <v>0.001968076927326639</v>
       </c>
       <c r="K163">
-        <v>4.864353577093865e-5</v>
+        <v>4.8643535770966026e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6140,19 +6140,19 @@
         <v>4.865002605084133e-5</v>
       </c>
       <c r="G164">
-        <v>7.324368150635812</v>
+        <v>7.324368150637722</v>
       </c>
       <c r="H164">
-        <v>5.416972564674676e-7</v>
+        <v>5.416972564710664e-7</v>
       </c>
       <c r="I164">
-        <v>0.00018521609869321979</v>
+        <v>0.00018521609869294142</v>
       </c>
       <c r="J164">
-        <v>0.0019687151496708185</v>
+        <v>0.0019687151496755</v>
       </c>
       <c r="K164">
-        <v>4.864999023796999e-5</v>
+        <v>4.864999023799712e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6175,19 +6175,19 @@
         <v>4.865658075373339e-5</v>
       </c>
       <c r="G165">
-        <v>7.3258861305213685</v>
+        <v>7.325886130523245</v>
       </c>
       <c r="H165">
-        <v>5.311741124351389e-7</v>
+        <v>5.311741124386811e-7</v>
       </c>
       <c r="I165">
-        <v>0.0001890484158563659</v>
+        <v>0.00018904841585609049</v>
       </c>
       <c r="J165">
-        <v>0.001969361724740653</v>
+        <v>0.0019693617247452835</v>
       </c>
       <c r="K165">
-        <v>4.865654617442344e-5</v>
+        <v>4.865654617445029e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.866323884982181e-5</v>
       </c>
       <c r="G166">
-        <v>7.327416937663271</v>
+        <v>7.327416937665113</v>
       </c>
       <c r="H166">
-        <v>5.204809311696665e-7</v>
+        <v>5.204809311731503e-7</v>
       </c>
       <c r="I166">
-        <v>0.00019294315469107738</v>
+        <v>0.0001929431546908051</v>
       </c>
       <c r="J166">
-        <v>0.0019700167864779823</v>
+        <v>0.001970016786482559</v>
       </c>
       <c r="K166">
-        <v>4.8663205479359566e-5</v>
+        <v>4.866320547938613e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.867000226691237e-5</v>
       </c>
       <c r="G167">
-        <v>7.32896060985023</v>
+        <v>7.328960609852038</v>
       </c>
       <c r="H167">
-        <v>5.096144376805445e-7</v>
+        <v>5.096144376839683e-7</v>
       </c>
       <c r="I167">
-        <v>0.00019690152461000318</v>
+        <v>0.0001969015246097343</v>
       </c>
       <c r="J167">
-        <v>0.001970680470371332</v>
+        <v>0.001970680470375852</v>
       </c>
       <c r="K167">
-        <v>4.866997008043124e-5</v>
+        <v>4.8669970080457496e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6280,19 +6280,19 @@
         <v>4.8676872961885e-5</v>
       </c>
       <c r="G168">
-        <v>7.330517179915357</v>
+        <v>7.330517179917129</v>
       </c>
       <c r="H168">
-        <v>4.985713041053533e-7</v>
+        <v>4.985713041087155e-7</v>
       </c>
       <c r="I168">
-        <v>0.00020092475483142412</v>
+        <v>0.0002009247548311588</v>
       </c>
       <c r="J168">
-        <v>0.0019713529135039626</v>
+        <v>0.001971352913508423</v>
       </c>
       <c r="K168">
-        <v>4.8676841934336064e-5</v>
+        <v>4.867684193436201e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6315,19 +6315,19 @@
         <v>4.868385292122358e-5</v>
       </c>
       <c r="G169">
-        <v>7.33208667564811</v>
+        <v>7.332086675649846</v>
       </c>
       <c r="H169">
-        <v>4.873481483183905e-7</v>
+        <v>4.873481483216891e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002050140946485883</v>
+        <v>0.0002050140946483268</v>
       </c>
       <c r="J169">
-        <v>0.0019720342546024954</v>
+        <v>0.0019720342546068925</v>
       </c>
       <c r="K169">
-        <v>4.868382302739661e-5</v>
+        <v>4.868382302742222e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6350,19 +6350,19 @@
         <v>4.869094416155447e-5</v>
       </c>
       <c r="G170">
-        <v>7.333669119754215</v>
+        <v>7.333669119755912</v>
       </c>
       <c r="H170">
-        <v>4.7594153323498315e-7</v>
+        <v>4.7594153323821617e-7</v>
       </c>
       <c r="I170">
-        <v>0.0002091708139239451</v>
+        <v>0.00020917081392368757</v>
       </c>
       <c r="J170">
-        <v>0.00197272463407306</v>
+        <v>0.00197272463407739</v>
       </c>
       <c r="K170">
-        <v>4.869091537614402e-5</v>
+        <v>4.869091537616926e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.869814873019367e-5</v>
       </c>
       <c r="G171">
-        <v>7.335264529792332</v>
+        <v>7.335264529793991</v>
       </c>
       <c r="H171">
-        <v>4.643479654201188e-7</v>
+        <v>4.643479654232844e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002133962033974352</v>
+        <v>0.00021339620339718197</v>
       </c>
       <c r="J171">
-        <v>0.0019734241940457887</v>
+        <v>0.0019734241940500483</v>
       </c>
       <c r="K171">
-        <v>4.869812102774216e-5</v>
+        <v>4.8698121027767025e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.870546870570303e-5</v>
       </c>
       <c r="G172">
-        <v>7.33687291810951</v>
+        <v>7.336872918111129</v>
       </c>
       <c r="H172">
-        <v>4.525638942536217e-7</v>
+        <v>4.5256389425671807e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021769157513397284</v>
+        <v>0.00021769157513372404</v>
       </c>
       <c r="J172">
-        <v>0.0019741330784362326</v>
+        <v>0.0019741330784404185</v>
       </c>
       <c r="K172">
-        <v>4.870544206067327e-5</v>
+        <v>4.8705442060697735e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6455,19 +6455,19 @@
         <v>4.87129061984556e-5</v>
       </c>
       <c r="G173">
-        <v>7.338494291746389</v>
+        <v>7.338494291747967</v>
       </c>
       <c r="H173">
-        <v>4.4058571081705487e-7</v>
+        <v>4.4058571082008005e-7</v>
       </c>
       <c r="I173">
-        <v>0.0002220582628933518</v>
+        <v>0.00022205826289310775</v>
       </c>
       <c r="J173">
-        <v>0.001974851432968652</v>
+        <v>0.0019748514329727606</v>
       </c>
       <c r="K173">
-        <v>4.871288058524664e-5</v>
+        <v>4.8712880585270674e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6490,19 +6490,19 @@
         <v>4.872046335121046e-5</v>
       </c>
       <c r="G174">
-        <v>7.340128652393412</v>
+        <v>7.340128652394948</v>
       </c>
       <c r="H174">
-        <v>4.2840974664148705e-7</v>
+        <v>4.284097466444389e-7</v>
       </c>
       <c r="I174">
-        <v>0.0002264976225312677</v>
+        <v>0.00022649762253102855</v>
       </c>
       <c r="J174">
-        <v>0.001975579405261126</v>
+        <v>0.0019755794052651538</v>
       </c>
       <c r="K174">
-        <v>4.872043874412525e-5</v>
+        <v>4.872043874414883e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6525,19 +6525,19 @@
         <v>4.872814233969714e-5</v>
       </c>
       <c r="G175">
-        <v>7.341775996346468</v>
+        <v>7.341775996347959</v>
       </c>
       <c r="H175">
-        <v>4.160322727335304e-7</v>
+        <v>4.1603227273640693e-7</v>
       </c>
       <c r="I175">
-        <v>0.0002310110324237586</v>
+        <v>0.00023101103242352474</v>
       </c>
       <c r="J175">
-        <v>0.001976317144855194</v>
+        <v>0.001976317144859137</v>
       </c>
       <c r="K175">
-        <v>4.8728118713001125e-5</v>
+        <v>4.8728118713024245e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6560,19 +6560,19 @@
         <v>4.8735945373209945e-5</v>
       </c>
       <c r="G176">
-        <v>7.343436314496781</v>
+        <v>7.343436314498228</v>
       </c>
       <c r="H176">
-        <v>4.0344949846224315e-7</v>
+        <v>4.034494984650423e-7</v>
       </c>
       <c r="I176">
-        <v>0.0002355998939464964</v>
+        <v>0.000235599893946268</v>
       </c>
       <c r="J176">
-        <v>0.0019770648032688214</v>
+        <v>0.001977064803272676</v>
       </c>
       <c r="K176">
-        <v>4.8735922701173524e-5</v>
+        <v>4.873592270119613e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6595,19 +6595,19 @@
         <v>4.874387469521247e-5</v>
       </c>
       <c r="G177">
-        <v>7.345109592156436</v>
+        <v>7.3451095921578355</v>
       </c>
       <c r="H177">
-        <v>3.906575701677588e-7</v>
+        <v>3.906575701704784e-7</v>
       </c>
       <c r="I177">
-        <v>0.00024026563178084487</v>
+        <v>0.0002402656317806222</v>
       </c>
       <c r="J177">
-        <v>0.001977822534056957</v>
+        <v>0.001977822534060718</v>
       </c>
       <c r="K177">
-        <v>4.874385295205141e-5</v>
+        <v>4.874385295207347e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6630,19 +6630,19 @@
         <v>4.875193258395242e-5</v>
       </c>
       <c r="G178">
-        <v>7.346795809097064</v>
+        <v>7.346795809098417</v>
       </c>
       <c r="H178">
-        <v>3.776525701873231e-7</v>
+        <v>3.776525701899609e-7</v>
       </c>
       <c r="I178">
-        <v>0.00024500969442448083</v>
+        <v>0.0002450096944242642</v>
       </c>
       <c r="J178">
-        <v>0.00197859049285984</v>
+        <v>0.0019785904928635036</v>
       </c>
       <c r="K178">
-        <v>4.8751911743907824e-5</v>
+        <v>4.875191174392932e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6665,19 +6665,19 @@
         <v>4.876012135308714e-5</v>
       </c>
       <c r="G179">
-        <v>7.348494939513799</v>
+        <v>7.348494939515104</v>
       </c>
       <c r="H179">
-        <v>3.644305157421956e-7</v>
+        <v>3.644305157447494e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024983355467802045</v>
+        <v>0.00024983355467781</v>
       </c>
       <c r="J179">
-        <v>0.0019793688374818786</v>
+        <v>0.001979368837485441</v>
       </c>
       <c r="K179">
-        <v>4.8760101390463036e-5</v>
+        <v>4.876010139048395e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6700,19 +6700,19 @@
         <v>4.876844335232001e-5</v>
       </c>
       <c r="G180">
-        <v>7.350206951944324</v>
+        <v>7.35020695194558</v>
       </c>
       <c r="H180">
-        <v>3.509873574071412e-7</v>
+        <v>3.509873574096087e-7</v>
       </c>
       <c r="I180">
-        <v>0.0002547387099988438</v>
+        <v>0.0002547387099986399</v>
       </c>
       <c r="J180">
-        <v>0.001980157727922188</v>
+        <v>0.001980157727925644</v>
       </c>
       <c r="K180">
-        <v>4.876842424145063e-5</v>
+        <v>4.876842424147094e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6735,19 +6735,19 @@
         <v>4.8776900968047966e-5</v>
       </c>
       <c r="G181">
-        <v>7.351931809207446</v>
+        <v>7.3519318092086525</v>
       </c>
       <c r="H181">
-        <v>3.3731897813646686e-7</v>
+        <v>3.3731897813884586e-7</v>
       </c>
       <c r="I181">
-        <v>0.00025972668297828374</v>
+        <v>0.00025972668297808663</v>
       </c>
       <c r="J181">
-        <v>0.001980957326447413</v>
+        <v>0.0019809573264507586</v>
       </c>
       <c r="K181">
-        <v>4.877688268331871e-5</v>
+        <v>4.877688268333839e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6770,19 +6770,19 @@
         <v>4.878549662402056e-5</v>
       </c>
       <c r="G182">
-        <v>7.35366946843191</v>
+        <v>7.353669468433067</v>
       </c>
       <c r="H182">
-        <v>3.2342119173351274e-7</v>
+        <v>3.234211917358008e-7</v>
       </c>
       <c r="I182">
-        <v>0.0002647990218377597</v>
+        <v>0.00026479902183756954</v>
       </c>
       <c r="J182">
-        <v>0.0019817677976528662</v>
+        <v>0.0019817677976560963</v>
       </c>
       <c r="K182">
-        <v>4.878547913991831e-5</v>
+        <v>4.878547913993733e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6805,19 +6805,19 @@
         <v>4.8794232782010594e-5</v>
       </c>
       <c r="G183">
-        <v>7.355419880959334</v>
+        <v>7.355419880960439</v>
       </c>
       <c r="H183">
-        <v>3.092897420158238e-7</v>
+        <v>3.0928974201801846e-7</v>
       </c>
       <c r="I183">
-        <v>0.0002699573009202412</v>
+        <v>0.0002699573009200584</v>
       </c>
       <c r="J183">
-        <v>0.00198258930852681</v>
+        <v>0.001982589308529919</v>
       </c>
       <c r="K183">
-        <v>4.87942160731417e-5</v>
+        <v>4.879421607316003e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6840,19 +6840,19 @@
         <v>4.8803111942496905e-5</v>
       </c>
       <c r="G184">
-        <v>7.357182992390577</v>
+        <v>7.357182992391629</v>
       </c>
       <c r="H184">
-        <v>2.949203011455042e-7</v>
+        <v>2.9492030114760304e-7</v>
       </c>
       <c r="I184">
-        <v>0.0002752031211096288</v>
+        <v>0.0002752031211094536</v>
       </c>
       <c r="J184">
-        <v>0.001983422028521696</v>
+        <v>0.001983422028524679</v>
       </c>
       <c r="K184">
-        <v>4.880309598361542e-5</v>
+        <v>4.880309598363303e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6875,19 +6875,19 @@
         <v>4.8812136645359266e-5</v>
       </c>
       <c r="G185">
-        <v>7.358958742436496</v>
+        <v>7.358958742437496</v>
       </c>
       <c r="H185">
-        <v>2.803084682378435e-7</v>
+        <v>2.8030846823984394e-7</v>
       </c>
       <c r="I185">
-        <v>0.000280538110342814</v>
+        <v>0.0002805381103426467</v>
       </c>
       <c r="J185">
-        <v>0.0019842661296017696</v>
+        <v>0.001984266129604621</v>
       </c>
       <c r="K185">
-        <v>4.881212141134328e-5</v>
+        <v>4.8812121411360145e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6910,19 +6910,19 @@
         <v>4.8821309470586004e-5</v>
       </c>
       <c r="G186">
-        <v>7.36074706503227</v>
+        <v>7.360747065033216</v>
       </c>
       <c r="H186">
-        <v>2.654497683873509e-7</v>
+        <v>2.6544976838925043e-7</v>
       </c>
       <c r="I186">
-        <v>0.00028596392412429133</v>
+        <v>0.00028596392412413217</v>
       </c>
       <c r="J186">
-        <v>0.0019851217863253307</v>
+        <v>0.001985121786328047</v>
       </c>
       <c r="K186">
-        <v>4.8821294936488385e-5</v>
+        <v>4.882129493650448e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.88306330389944e-5</v>
       </c>
       <c r="G187">
-        <v>7.362547888228424</v>
+        <v>7.362547888229315</v>
       </c>
       <c r="H187">
-        <v>2.503396509981084e-7</v>
+        <v>2.503396509999045e-7</v>
       </c>
       <c r="I187">
-        <v>0.0002914822459778281</v>
+        <v>0.0002914822459776774</v>
       </c>
       <c r="J187">
-        <v>0.0019859891759149385</v>
+        <v>0.0019859891759175146</v>
       </c>
       <c r="K187">
-        <v>4.883061918008804e-5</v>
+        <v>4.883061918010331e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.884011001296435e-5</v>
       </c>
       <c r="G188">
-        <v>7.364361134190201</v>
+        <v>7.364361134191037</v>
       </c>
       <c r="H188">
-        <v>2.349734883923954e-7</v>
+        <v>2.3497348839408546e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002970947880176411</v>
+        <v>0.0002970947880174991</v>
       </c>
       <c r="J188">
-        <v>0.0019868684783237675</v>
+        <v>0.0019868684783261987</v>
       </c>
       <c r="K188">
-        <v>4.884009680471009e-5</v>
+        <v>4.88400968047245e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7015,19 +7015,19 @@
         <v>4.884974309718537e-5</v>
       </c>
       <c r="G189">
-        <v>7.366186719215308</v>
+        <v>7.366186719216086</v>
       </c>
       <c r="H189">
-        <v>2.1934657455844882e-7</v>
+        <v>2.193465745600303e-7</v>
       </c>
       <c r="I189">
-        <v>0.0003028032914282246</v>
+        <v>0.0003028032914280915</v>
       </c>
       <c r="J189">
-        <v>0.0019877598762988464</v>
+        <v>0.0019877598763011267</v>
       </c>
       <c r="K189">
-        <v>4.884973051529161e-5</v>
+        <v>4.884973051530515e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7050,19 +7050,19 @@
         <v>4.8859535039417625e-5</v>
       </c>
       <c r="G190">
-        <v>7.368024553701136</v>
+        <v>7.368024553701856</v>
       </c>
       <c r="H190">
-        <v>2.0345412375908743e-7</v>
+        <v>2.0345412376055765e-7</v>
       </c>
       <c r="I190">
-        <v>0.0003086095270107327</v>
+        <v>0.00030860952701060887</v>
       </c>
       <c r="J190">
-        <v>0.001988663555472263</v>
+        <v>0.0019886635554743877</v>
       </c>
       <c r="K190">
-        <v>4.8859523059836344e-5</v>
+        <v>4.885952305984897e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7085,19 +7085,19 @@
         <v>4.886948863126685e-5</v>
       </c>
       <c r="G191">
-        <v>7.369874542169936</v>
+        <v>7.369874542170598</v>
       </c>
       <c r="H191">
-        <v>1.8729126858379027e-7</v>
+        <v>1.872912685851466e-7</v>
       </c>
       <c r="I191">
-        <v>0.00031451529574033296</v>
+        <v>0.0003145152957402186</v>
       </c>
       <c r="J191">
-        <v>0.0019895797044347653</v>
+        <v>0.0019895797044367294</v>
       </c>
       <c r="K191">
-        <v>4.8869477230205965e-5</v>
+        <v>4.886947723021763e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.887960670897393e-5</v>
       </c>
       <c r="G192">
-        <v>7.371736583242541</v>
+        <v>7.371736583243143</v>
       </c>
       <c r="H192">
-        <v>1.708530592529998e-7</v>
+        <v>1.7085305925423962e-7</v>
       </c>
       <c r="I192">
-        <v>0.0003205224292350376</v>
+        <v>0.00032052242923493303</v>
       </c>
       <c r="J192">
-        <v>0.0019905085147922854</v>
+        <v>0.0019905085147940843</v>
       </c>
       <c r="K192">
-        <v>4.887959586294631e-5</v>
+        <v>4.8879595862956996e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.8889892154219084e-5</v>
       </c>
       <c r="G193">
-        <v>7.373610569651795</v>
+        <v>7.373610569652336</v>
       </c>
       <c r="H193">
-        <v>1.541344612527913e-7</v>
+        <v>1.541344612539119e-7</v>
       </c>
       <c r="I193">
-        <v>0.00032663279043586784</v>
+        <v>0.00032663279043577314</v>
       </c>
       <c r="J193">
-        <v>0.001991450181274803</v>
+        <v>0.0019914501812764323</v>
       </c>
       <c r="K193">
-        <v>4.888988184004744e-5</v>
+        <v>4.8889881840057105e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7190,19 +7190,19 @@
         <v>4.8900347894941306e-5</v>
       </c>
       <c r="G194">
-        <v>7.375496388269747</v>
+        <v>7.375496388270227</v>
       </c>
       <c r="H194">
-        <v>1.3713035436090258e-7</v>
+        <v>1.3713035436190123e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033284827406224475</v>
+        <v>0.00033284827406216034</v>
       </c>
       <c r="J194">
-        <v>0.0019924049017980136</v>
+        <v>0.0019924049017994686</v>
       </c>
       <c r="K194">
-        <v>4.8900338089776006e-5</v>
+        <v>4.8900338089784646e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7225,19 +7225,19 @@
         <v>4.8910976906173276e-5</v>
       </c>
       <c r="G195">
-        <v>7.377393920113389</v>
+        <v>7.377393920113807</v>
       </c>
       <c r="H195">
-        <v>1.1983553111621875e-7</v>
+        <v>1.1983553111709278e-7</v>
       </c>
       <c r="I195">
-        <v>0.0003391708072603199</v>
+        <v>0.0003391708072602459</v>
       </c>
       <c r="J195">
-        <v>0.0019933728775495705</v>
+        <v>0.0019933728775508464</v>
       </c>
       <c r="K195">
-        <v>4.89109675874922e-5</v>
+        <v>4.891096758749979e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7260,19 +7260,19 @@
         <v>4.8921782210891926e-5</v>
       </c>
       <c r="G196">
-        <v>7.379303040351419</v>
+        <v>7.3793030403517745</v>
       </c>
       <c r="H196">
-        <v>1.0224469459257538e-7</v>
+        <v>1.0224469459332214e-7</v>
       </c>
       <c r="I196">
-        <v>0.000345602350135199</v>
+        <v>0.00034560235013513587</v>
       </c>
       <c r="J196">
-        <v>0.001994354313070966</v>
+        <v>0.001994354313072058</v>
       </c>
       <c r="K196">
-        <v>4.892177335654995e-5</v>
+        <v>4.892177335655645e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7295,19 +7295,19 @@
         <v>4.8932766880885406e-5</v>
       </c>
       <c r="G197">
-        <v>7.38122361836326</v>
+        <v>7.381223618363552</v>
       </c>
       <c r="H197">
-        <v>8.43524575639229e-8</v>
+        <v>8.435245756453968e-8</v>
       </c>
       <c r="I197">
-        <v>0.00035214489635451593</v>
+        <v>0.00035214489635446383</v>
       </c>
       <c r="J197">
-        <v>0.001995349416357206</v>
+        <v>0.0019953494163581094</v>
       </c>
       <c r="K197">
-        <v>4.893275846911963e-5</v>
+        <v>4.8932758469125015e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7330,19 +7330,19 @@
         <v>4.894393403763637e-5</v>
       </c>
       <c r="G198">
-        <v>7.383155517729373</v>
+        <v>7.3831555177296</v>
       </c>
       <c r="H198">
-        <v>6.61533404172644e-8</v>
+        <v>6.615334041774858e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003588004738098986</v>
+        <v>0.0003588004738098578</v>
       </c>
       <c r="J198">
-        <v>0.0019963583989161047</v>
+        <v>0.0019963583989168155</v>
       </c>
       <c r="K198">
-        <v>4.894392604705762e-5</v>
+        <v>4.894392604706187e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7365,19 +7365,19 @@
         <v>4.895528685322233e-5</v>
       </c>
       <c r="G199">
-        <v>7.385098596288602</v>
+        <v>7.385098596288765</v>
       </c>
       <c r="H199">
-        <v>4.764176948300162e-8</v>
+        <v>4.764176948335057e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003655711451294352</v>
+        <v>0.0003655711451294058</v>
       </c>
       <c r="J199">
-        <v>0.001997381475890528</v>
+        <v>0.00199738147589104</v>
       </c>
       <c r="K199">
-        <v>4.8955279262846044e-5</v>
+        <v>4.895527926284911e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,19 +7400,19 @@
         <v>4.896682855123316e-5</v>
       </c>
       <c r="G200">
-        <v>7.387052706175645</v>
+        <v>7.3870527061757425</v>
       </c>
       <c r="H200">
-        <v>2.8812075365279912e-8</v>
+        <v>2.8812075365491048e-8</v>
       </c>
       <c r="I200">
-        <v>0.0003724590083784399</v>
+        <v>0.00037245900837842215</v>
       </c>
       <c r="J200">
-        <v>0.001998418866120603</v>
+        <v>0.001998418866120913</v>
       </c>
       <c r="K200">
-        <v>4.89668213404905e-5</v>
+        <v>4.8966821340492355e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7435,19 +7435,19 @@
         <v>4.8978562407706294e-5</v>
       </c>
       <c r="G201">
-        <v>7.3890176938676655</v>
+        <v>7.389017693867698</v>
       </c>
       <c r="H201">
-        <v>9.658491411468772e-9</v>
+        <v>9.658491411539569e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003794661977332433</v>
+        <v>0.0003794661977332374</v>
       </c>
       <c r="J201">
-        <v>0.0019994707922583246</v>
+        <v>0.0019994707922584283</v>
       </c>
       <c r="K201">
-        <v>4.8978555556460926e-5</v>
+        <v>4.897855555646155e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -461,28 +461,28 @@
         <v>0.000247489809918307</v>
       </c>
       <c r="D2">
-        <v>-1.2743725425620417e-7</v>
+        <v>-1.2743725425618027e-7</v>
       </c>
       <c r="E2">
         <v>0.0019994979705352783</v>
       </c>
       <c r="F2">
-        <v>4.8970052090177034e-5</v>
+        <v>4.897005209017704e-5</v>
       </c>
       <c r="G2">
-        <v>8.141770622992999</v>
+        <v>8.141770622992958</v>
       </c>
       <c r="H2">
         <v>0.000247489856984209</v>
       </c>
       <c r="I2">
-        <v>-1.2740690697509935e-7</v>
+        <v>-1.2740690697504461e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019994979831484388</v>
+        <v>0.0019994979831484496</v>
       </c>
       <c r="K2">
-        <v>4.897005239644338e-5</v>
+        <v>4.8970052396443325e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,28 +496,28 @@
         <v>0.0002425067775685909</v>
       </c>
       <c r="D3">
-        <v>-3.8033706885579993e-7</v>
+        <v>-3.803370688557901e-7</v>
       </c>
       <c r="E3">
         <v>0.0019984949074707604</v>
       </c>
       <c r="F3">
-        <v>4.894154130007788e-5</v>
+        <v>4.8941541300077886e-5</v>
       </c>
       <c r="G3">
-        <v>8.12516310832508</v>
+        <v>8.125163108324955</v>
       </c>
       <c r="H3">
-        <v>0.00024250691809962993</v>
+        <v>0.00024250691809962982</v>
       </c>
       <c r="I3">
-        <v>-3.8024649819949863e-7</v>
+        <v>-3.802464981993349e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019984949453767968</v>
+        <v>0.0019984949453768276</v>
       </c>
       <c r="K3">
-        <v>4.894154221005442e-5</v>
+        <v>4.894154221005428e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.00023759768351894284</v>
       </c>
       <c r="D4">
-        <v>-6.293746061492248e-7</v>
+        <v>-6.293746061492406e-7</v>
       </c>
       <c r="E4">
         <v>0.00199749781919974</v>
       </c>
       <c r="F4">
-        <v>4.891362678369004e-5</v>
+        <v>4.891362678369005e-5</v>
       </c>
       <c r="G4">
-        <v>8.108444656861682</v>
+        <v>8.108444656861474</v>
       </c>
       <c r="H4">
-        <v>0.0002375979160597216</v>
+        <v>0.0002375979160597214</v>
       </c>
       <c r="I4">
-        <v>-6.292247390982494e-7</v>
+        <v>-6.292247390979774e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997497882392561</v>
+        <v>0.001997497882392613</v>
       </c>
       <c r="K4">
-        <v>4.891362828269243e-5</v>
+        <v>4.891362828269219e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,28 +566,28 @@
         <v>0.0002327610243209417</v>
       </c>
       <c r="D5">
-        <v>-8.746216951649718e-7</v>
+        <v>-8.74621695164972e-7</v>
       </c>
       <c r="E5">
-        <v>0.0019965062000974498</v>
+        <v>0.0019965062000974493</v>
       </c>
       <c r="F5">
         <v>4.888632762001039e-5</v>
       </c>
       <c r="G5">
-        <v>8.091621718384937</v>
+        <v>8.091621718384648</v>
       </c>
       <c r="H5">
-        <v>0.00023276134747298168</v>
+        <v>0.0002327613474729813</v>
       </c>
       <c r="I5">
-        <v>-8.744134380660881e-7</v>
+        <v>-8.744134380657089e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996506288640394</v>
+        <v>0.0019965062886404656</v>
       </c>
       <c r="K5">
-        <v>4.888632969225358e-5</v>
+        <v>4.888632969225328e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.04513793184802115</v>
       </c>
       <c r="B6">
-        <v>8.074700468736028</v>
+        <v>8.074700468736026</v>
       </c>
       <c r="C6">
         <v>0.00022799531870990652</v>
       </c>
       <c r="D6">
-        <v>-1.1161488848834362e-6</v>
+        <v>-1.1161488848834338e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019955195509624066</v>
+        <v>0.0019955195509624058</v>
       </c>
       <c r="F6">
-        <v>4.885966261033644e-5</v>
+        <v>4.885966261033637e-5</v>
       </c>
       <c r="G6">
-        <v>8.074701903669007</v>
+        <v>8.074701903668638</v>
       </c>
       <c r="H6">
-        <v>0.00022799573113567</v>
+        <v>0.00022799573113566944</v>
       </c>
       <c r="I6">
-        <v>-1.1158831274159597e-6</v>
+        <v>-1.1158831274154742e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019955196648861946</v>
+        <v>0.0019955196648862865</v>
       </c>
       <c r="K6">
-        <v>4.8859665235332526e-5</v>
+        <v>4.885966523533217e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.04410027534423844</v>
       </c>
       <c r="B7">
-        <v>8.057692253553157</v>
+        <v>8.057692253553105</v>
       </c>
       <c r="C7">
         <v>0.00022329910715124831</v>
       </c>
       <c r="D7">
-        <v>-1.3540254931022567e-6</v>
+        <v>-1.3540254931022622e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019945373819058652</v>
+        <v>0.001994537381905848</v>
       </c>
       <c r="F7">
-        <v>4.8833650110528106e-5</v>
+        <v>4.883365011052703e-5</v>
       </c>
       <c r="G7">
-        <v>8.057694031359745</v>
+        <v>8.057694031359295</v>
       </c>
       <c r="H7">
-        <v>0.00022329960752754286</v>
+        <v>0.00022329960752754215</v>
       </c>
       <c r="I7">
-        <v>-1.3537031112480083e-6</v>
+        <v>-1.3537031112474169e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019945375213086354</v>
+        <v>0.001994537521308748</v>
       </c>
       <c r="K7">
-        <v>4.883365326997781e-5</v>
+        <v>4.883365326997741e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.043077656183539564</v>
       </c>
       <c r="B8">
-        <v>8.040606031122968</v>
+        <v>8.040606031122415</v>
       </c>
       <c r="C8">
         <v>0.00021867095139347845</v>
       </c>
       <c r="D8">
-        <v>-1.5883196605936747e-6</v>
+        <v>-1.588319660593657e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019935592155271337</v>
+        <v>0.001993559215526954</v>
       </c>
       <c r="F8">
-        <v>4.8808307843950544e-5</v>
+        <v>4.88083078439394e-5</v>
       </c>
       <c r="G8">
-        <v>8.040608159534344</v>
+        <v>8.040608159533818</v>
       </c>
       <c r="H8">
-        <v>0.00021867153839163337</v>
+        <v>0.0002186715383916325</v>
       </c>
       <c r="I8">
-        <v>-1.5879415103577572e-6</v>
+        <v>-1.5879415103570605e-6</v>
       </c>
       <c r="J8">
-        <v>0.001993559380537527</v>
+        <v>0.0019935593805376585</v>
       </c>
       <c r="K8">
-        <v>4.8808311516417524e-5</v>
+        <v>4.88083115164171e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.04206976118081391</v>
       </c>
       <c r="B9">
-        <v>8.02345311252058</v>
+        <v>8.023453112516666</v>
       </c>
       <c r="C9">
         <v>0.00021410943402773897</v>
       </c>
       <c r="D9">
-        <v>-1.8190984106767023e-6</v>
+        <v>-1.819098410676622e-6</v>
       </c>
       <c r="E9">
-        <v>0.0019925845903347034</v>
+        <v>0.00199258459033346</v>
       </c>
       <c r="F9">
-        <v>4.8783652697162984e-5</v>
+        <v>4.878365269708576e-5</v>
       </c>
       <c r="G9">
-        <v>8.02345559866043</v>
+        <v>8.02345559865983</v>
       </c>
       <c r="H9">
-        <v>0.00021411010639807952</v>
+        <v>0.00021411010639807855</v>
       </c>
       <c r="I9">
-        <v>-1.8186653364638895e-6</v>
+        <v>-1.8186653364630883e-6</v>
       </c>
       <c r="J9">
-        <v>0.001992584781125123</v>
+        <v>0.0019925847811252738</v>
       </c>
       <c r="K9">
-        <v>4.878365685987244e-5</v>
+        <v>4.878365685987199e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.04107628166033936</v>
       </c>
       <c r="B10">
-        <v>8.006246052318298</v>
+        <v>8.006246052297696</v>
       </c>
       <c r="C10">
         <v>0.00020961315805372298</v>
       </c>
       <c r="D10">
-        <v>-2.046427714119963e-6</v>
+        <v>-2.046427714119628e-6</v>
       </c>
       <c r="E10">
-        <v>0.001991613064355462</v>
+        <v>0.0019916130643490336</v>
       </c>
       <c r="F10">
-        <v>4.875970050156722e-5</v>
+        <v>4.875970050116761e-5</v>
       </c>
       <c r="G10">
-        <v>8.006248902421087</v>
+        <v>8.006248902420412</v>
       </c>
       <c r="H10">
-        <v>0.00020961391455582567</v>
+        <v>0.00020961391455582456</v>
       </c>
       <c r="I10">
-        <v>-2.0459405423377007e-6</v>
+        <v>-2.0459405423367956e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019916132810975516</v>
+        <v>0.0019916132810977216</v>
       </c>
       <c r="K10">
-        <v>4.8759705130525765e-5</v>
+        <v>4.875970513052529e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.040096913361247905</v>
       </c>
       <c r="B11">
-        <v>7.988998614691278</v>
+        <v>7.98899861460487</v>
       </c>
       <c r="C11">
         <v>0.00020518074645186387</v>
       </c>
       <c r="D11">
-        <v>-2.270372559034811e-6</v>
+        <v>-2.270372559033265e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019906442188563664</v>
+        <v>0.0019906442188298897</v>
       </c>
       <c r="F11">
-        <v>4.8736465805463377e-5</v>
+        <v>4.8736465803815864e-5</v>
       </c>
       <c r="G11">
-        <v>7.989001834035672</v>
+        <v>7.9890018340349265</v>
       </c>
       <c r="H11">
-        <v>0.00020518158579242916</v>
+        <v>0.00020518158579242788</v>
       </c>
       <c r="I11">
-        <v>-2.2698321014083276e-6</v>
+        <v>-2.2698321014073205e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019906444617357136</v>
+        <v>0.001990644461735902</v>
       </c>
       <c r="K11">
-        <v>4.87364708744784e-5</v>
+        <v>4.873647087447792e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03913135634434338</v>
       </c>
       <c r="B12">
-        <v>7.971725712225699</v>
+        <v>7.97172571192399</v>
       </c>
       <c r="C12">
         <v>0.00020081084176167832</v>
       </c>
       <c r="D12">
-        <v>-2.490997025136466e-6</v>
+        <v>-2.4909970251306972e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019896776620857795</v>
+        <v>0.001989677661994914</v>
       </c>
       <c r="F12">
-        <v>4.871396164218577e-5</v>
+        <v>4.871396163652646e-5</v>
       </c>
       <c r="G12">
-        <v>7.9717293051011895</v>
+        <v>7.971729305100378</v>
       </c>
       <c r="H12">
-        <v>0.00020081176278603663</v>
+        <v>0.00020081176278603522</v>
       </c>
       <c r="I12">
-        <v>-2.4904040793306444e-6</v>
+        <v>-2.490404079329535e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019896779313089952</v>
+        <v>0.0019896779313092017</v>
       </c>
       <c r="K12">
-        <v>4.871396712277741e-5</v>
+        <v>4.871396712277692e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.03817931490024269</v>
       </c>
       <c r="B13">
-        <v>7.95444331588961</v>
+        <v>7.954443314983494</v>
       </c>
       <c r="C13">
         <v>0.00019650210566617685</v>
       </c>
       <c r="D13">
-        <v>-2.7083643614335542e-6</v>
+        <v>-2.708364361415501e-6</v>
       </c>
       <c r="E13">
-        <v>0.001988713032926097</v>
+        <v>0.001988713032657623</v>
       </c>
       <c r="F13">
-        <v>4.8692199301069315e-5</v>
+        <v>4.869219928433404e-5</v>
       </c>
       <c r="G13">
-        <v>7.954447285052572</v>
+        <v>7.954447285051696</v>
       </c>
       <c r="H13">
-        <v>0.00019650310720911965</v>
+        <v>0.00019650310720911797</v>
       </c>
       <c r="I13">
-        <v>-2.70771970780657e-6</v>
+        <v>-2.7077197078053593e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019887133286126016</v>
+        <v>0.0019887133286128258</v>
       </c>
       <c r="K13">
-        <v>4.8692205156942305e-5</v>
+        <v>4.869220515694183e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.0372404974588126</v>
       </c>
       <c r="B14">
-        <v>7.937168335706274</v>
+        <v>7.937168333307385</v>
       </c>
       <c r="C14">
         <v>0.00019225321858228815</v>
       </c>
       <c r="D14">
-        <v>-2.922537066088851e-6</v>
+        <v>-2.922537066039895e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019877500043362106</v>
+        <v>0.0019877500036362917</v>
       </c>
       <c r="F14">
-        <v>4.867118810877163e-5</v>
+        <v>4.8671188065108885e-5</v>
       </c>
       <c r="G14">
-        <v>7.937172682316455</v>
+        <v>7.937172682315518</v>
       </c>
       <c r="H14">
-        <v>0.00019225429947662454</v>
+        <v>0.00019225429947662256</v>
       </c>
       <c r="I14">
-        <v>-2.921841473156889e-6</v>
+        <v>-2.921841473155577e-6</v>
       </c>
       <c r="J14">
-        <v>0.001987750326525219</v>
+        <v>0.0019877503265254624</v>
       </c>
       <c r="K14">
-        <v>4.867119429731793e-5</v>
+        <v>4.8671194297317454e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036314616499874046</v>
       </c>
       <c r="B15">
-        <v>7.919918472940545</v>
+        <v>7.919918467235114</v>
       </c>
       <c r="C15">
         <v>0.00018806287925731462</v>
       </c>
       <c r="D15">
-        <v>-3.1335769668728302e-6</v>
+        <v>-3.133576966756269e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019867882864531413</v>
+        <v>0.0019867882848123215</v>
       </c>
       <c r="F15">
-        <v>4.865093522881922e-5</v>
+        <v>4.865093512638683e-5</v>
       </c>
       <c r="G15">
-        <v>7.919923195896999</v>
+        <v>7.919923195896004</v>
       </c>
       <c r="H15">
-        <v>0.0001880640384103626</v>
+        <v>0.00018806403841036034</v>
       </c>
       <c r="I15">
-        <v>-3.1328311877166467e-6</v>
+        <v>-3.1328311877152347e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019867886349059054</v>
+        <v>0.001986788634906167</v>
       </c>
       <c r="K15">
-        <v>4.865094168988811e-5</v>
+        <v>4.865094168988766e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035401388465146795</v>
       </c>
       <c r="B16">
-        <v>7.902712045999708</v>
+        <v>7.902712033625606</v>
       </c>
       <c r="C16">
         <v>0.0001839298043715553</v>
       </c>
       <c r="D16">
-        <v>-3.341545300332318e-6</v>
+        <v>-3.3415453000860383e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019858276292188614</v>
+        <v>0.0019858276257078045</v>
       </c>
       <c r="F16">
-        <v>4.863144548709189e-5</v>
+        <v>4.8631445267751593e-5</v>
       </c>
       <c r="G16">
-        <v>7.9027171412763915</v>
+        <v>7.902717141275342</v>
       </c>
       <c r="H16">
-        <v>0.00018393104065180294</v>
+        <v>0.00018393104065180045</v>
       </c>
       <c r="I16">
-        <v>-3.34075007368352e-6</v>
+        <v>-3.340750073682007e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019858280033122127</v>
+        <v>0.0019858280033124925</v>
       </c>
       <c r="K16">
-        <v>4.86314521322809e-5</v>
+        <v>4.8631452132280457e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.03450053367140758</v>
       </c>
       <c r="B17">
-        <v>7.885567793668677</v>
+        <v>7.885567768899281</v>
       </c>
       <c r="C17">
         <v>0.00017985272814743312</v>
       </c>
       <c r="D17">
-        <v>-3.546502787516003e-6</v>
+        <v>-3.5465027870516964e-6</v>
       </c>
       <c r="E17">
-        <v>0.0019848678244030987</v>
+        <v>0.001984867817462319</v>
       </c>
       <c r="F17">
-        <v>4.861272123032119e-5</v>
+        <v>4.8612720796416296e-5</v>
       </c>
       <c r="G17">
-        <v>7.885573253530391</v>
+        <v>7.88557325352929</v>
       </c>
       <c r="H17">
-        <v>0.00017985404049607464</v>
+        <v>0.000179854040496072</v>
       </c>
       <c r="I17">
-        <v>-3.5456588375640425e-6</v>
+        <v>-3.5456588375624297e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848682228886245</v>
+        <v>0.001984868222888923</v>
       </c>
       <c r="K17">
-        <v>4.861272793224327e-5</v>
+        <v>4.861272793224284e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.03361177622483489</v>
       </c>
       <c r="B18">
-        <v>7.868504660637396</v>
+        <v>7.868504614422585</v>
       </c>
       <c r="C18">
         <v>0.00017583040196579174</v>
       </c>
       <c r="D18">
-        <v>-3.7485097038315195e-6</v>
+        <v>-3.748509703052592e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019839087069078347</v>
+        <v>0.0019839086941065794</v>
       </c>
       <c r="F18">
-        <v>4.8594762223626693e-5</v>
+        <v>4.8594761422763e-5</v>
       </c>
       <c r="G18">
-        <v>7.868510472589391</v>
+        <v>7.868510472588243</v>
       </c>
       <c r="H18">
-        <v>0.00017583178939154496</v>
+        <v>0.0001758317893915422</v>
       </c>
       <c r="I18">
-        <v>-3.7476177425616876e-6</v>
+        <v>-3.7476177425599757e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019839091276688562</v>
+        <v>0.001983909127669172</v>
       </c>
       <c r="K18">
-        <v>4.859476880019053e-5</v>
+        <v>4.8594768800190145e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.03273484393651434</v>
       </c>
       <c r="B19">
-        <v>7.851541571420613</v>
+        <v>7.851541490384469</v>
       </c>
       <c r="C19">
         <v>0.00017186159399055397</v>
       </c>
       <c r="D19">
-        <v>-3.9476259403248945e-6</v>
+        <v>-3.947625939180633e-6</v>
       </c>
       <c r="E19">
-        <v>0.001982950155265067</v>
+        <v>0.001982950133056107</v>
       </c>
       <c r="F19">
-        <v>4.857756559174813e-5</v>
+        <v>4.8577564201217246e-5</v>
       </c>
       <c r="G19">
-        <v>7.851547717314951</v>
+        <v>7.851547717313758</v>
       </c>
       <c r="H19">
-        <v>0.00017186305544243858</v>
+        <v>0.00017186305544243565</v>
       </c>
       <c r="I19">
-        <v>-3.946686664863427e-6</v>
+        <v>-3.946686664861615e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019829505950784538</v>
+        <v>0.0019829505950787864</v>
       </c>
       <c r="K19">
-        <v>4.8577571792085196e-5</v>
+        <v>4.857757179208485e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.031869468239078644</v>
       </c>
       <c r="B20">
-        <v>7.834697199609412</v>
+        <v>7.834697065141372</v>
       </c>
       <c r="C20">
         <v>0.00016794508880374384</v>
       </c>
       <c r="D20">
-        <v>-4.1439110533195165e-6</v>
+        <v>-4.143911051917833e-6</v>
       </c>
       <c r="E20">
-        <v>0.001981992091275064</v>
+        <v>0.001981992054780275</v>
       </c>
       <c r="F20">
-        <v>4.8561125807045294e-5</v>
+        <v>4.856112352002877e-5</v>
       </c>
       <c r="G20">
-        <v>7.83470365475263</v>
+        <v>7.834703654751397</v>
       </c>
       <c r="H20">
-        <v>0.00016794662325276207</v>
+        <v>0.00016794662325275898</v>
       </c>
       <c r="I20">
-        <v>-4.142925147681715e-6</v>
+        <v>-4.142925147679804e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019819925455566646</v>
+        <v>0.0019819925455570146</v>
       </c>
       <c r="K20">
-        <v>4.856113129668477e-5</v>
+        <v>4.856113129668448e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.031015384104456853</v>
       </c>
       <c r="B21">
-        <v>7.817989739840534</v>
+        <v>7.81798952743118</v>
       </c>
       <c r="C21">
         <v>0.00016407968705409742</v>
       </c>
       <c r="D21">
-        <v>-4.3374242988378986e-6</v>
+        <v>-4.337424297640294e-6</v>
       </c>
       <c r="E21">
-        <v>0.00198103447877507</v>
+        <v>0.0019810344216387053</v>
       </c>
       <c r="F21">
-        <v>4.8545434725606455e-5</v>
+        <v>4.854543114142454e-5</v>
       </c>
       <c r="G21">
-        <v>7.8179964723686295</v>
+        <v>7.817996472367359</v>
       </c>
       <c r="H21">
-        <v>0.00016408129352651213</v>
+        <v>0.00016408129352650882</v>
       </c>
       <c r="I21">
-        <v>-4.3363924374118995e-6</v>
+        <v>-4.3363924374098895e-6</v>
       </c>
       <c r="J21">
-        <v>0.001981034941464414</v>
+        <v>0.0019810349414647803</v>
       </c>
       <c r="K21">
-        <v>4.8545439076390016e-5</v>
+        <v>4.854543907638977e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.030172329962707346</v>
       </c>
       <c r="B22">
-        <v>7.80143668986971</v>
+        <v>7.801436368826968</v>
       </c>
       <c r="C22">
         <v>0.00016026420512426336</v>
       </c>
       <c r="D22">
-        <v>-4.528224647445212e-6</v>
+        <v>-4.528224647564205e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019800773215738364</v>
+        <v>0.0019800772359153352</v>
       </c>
       <c r="F22">
-        <v>4.853048167099202e-5</v>
+        <v>4.853047629135248e-5</v>
       </c>
       <c r="G22">
-        <v>7.801443660587425</v>
+        <v>7.801443660586122</v>
       </c>
       <c r="H22">
-        <v>0.00016026588268135505</v>
+        <v>0.0001602658826813516</v>
       </c>
       <c r="I22">
-        <v>-4.527147492390469e-6</v>
+        <v>-4.527147492388361e-6</v>
       </c>
       <c r="J22">
-        <v>0.001980077785055442</v>
+        <v>0.0019800777850558244</v>
       </c>
       <c r="K22">
-        <v>4.8530484358270436e-5</v>
+        <v>4.853048435827024e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.02934004762191005</v>
       </c>
       <c r="B23">
-        <v>7.785054649677338</v>
+        <v>7.785054183316379</v>
       </c>
       <c r="C23">
         <v>0.00015649747482412234</v>
       </c>
       <c r="D23">
-        <v>-4.716370773940322e-6</v>
+        <v>-4.716370777551137e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019791206606308127</v>
+        <v>0.0019791205371177166</v>
       </c>
       <c r="F23">
-        <v>4.851625356331014e-5</v>
+        <v>4.8516245795825135e-5</v>
       </c>
       <c r="G23">
-        <v>7.785061812312668</v>
+        <v>7.785061812311334</v>
       </c>
       <c r="H23">
-        <v>0.00015649922248333532</v>
+        <v>0.00015649922248333172</v>
       </c>
       <c r="I23">
-        <v>-4.715248978736603e-6</v>
+        <v>-4.715248978734397e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019791211158460592</v>
+        <v>0.0019791211158464573</v>
       </c>
       <c r="K23">
-        <v>4.851625396858405e-5</v>
+        <v>4.851625396858391e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.028518282189093108</v>
       </c>
       <c r="B24">
-        <v>7.768859143655407</v>
+        <v>7.768858489993961</v>
       </c>
       <c r="C24">
         <v>0.00015277834312121762</v>
       </c>
       <c r="D24">
-        <v>-4.901921014523075e-6</v>
+        <v>-4.9019210253883815e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019781645705959556</v>
+        <v>0.0019781643986422873</v>
       </c>
       <c r="F24">
-        <v>4.850273508955951e-5</v>
+        <v>4.850272425887609e-5</v>
       </c>
       <c r="G24">
-        <v>7.768866445812124</v>
+        <v>7.7688664458107635</v>
       </c>
       <c r="H24">
-        <v>0.0001527801599657516</v>
+        <v>0.00015278015996574793</v>
       </c>
       <c r="I24">
-        <v>-4.900755227793824e-6</v>
+        <v>-4.90075522779152e-6</v>
       </c>
       <c r="J24">
-        <v>0.00197816500718044</v>
+        <v>0.001978165007180854</v>
       </c>
       <c r="K24">
-        <v>4.8502732512123215e-5</v>
+        <v>4.850273251212314e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,31 +1260,31 @@
         <v>-0.027706781992169936</v>
       </c>
       <c r="B25">
-        <v>7.752864470704144</v>
+        <v>7.752863583627863</v>
       </c>
       <c r="C25">
         <v>0.00014910567192392838</v>
       </c>
       <c r="D25">
-        <v>-5.084933281491598e-6</v>
+        <v>-5.084933305582714e-6</v>
       </c>
       <c r="E25">
-        <v>0.001977209155853974</v>
+        <v>0.001977208923933355</v>
       </c>
       <c r="F25">
-        <v>4.848990890959131e-5</v>
+        <v>4.848989427551109e-5</v>
       </c>
       <c r="G25">
-        <v>7.752871854863034</v>
+        <v>7.752871854861651</v>
       </c>
       <c r="H25">
-        <v>0.00014910755705950892</v>
+        <v>0.00014910755705950518</v>
       </c>
       <c r="I25">
-        <v>-5.083724152999297e-6</v>
+        <v>-5.083724152996896e-6</v>
       </c>
       <c r="J25">
-        <v>0.001977209562503093</v>
+        <v>0.001977209562503523</v>
       </c>
       <c r="K25">
         <v>4.84899025876533e-5</v>
@@ -1295,34 +1295,34 @@
         <v>-0.026905298502862676</v>
       </c>
       <c r="B26">
-        <v>7.7370835856191285</v>
+        <v>7.73708241642159</v>
       </c>
       <c r="C26">
         <v>0.0001454783379390248</v>
       </c>
       <c r="D26">
-        <v>-5.265464922014957e-6</v>
+        <v>-5.265464968197392e-6</v>
       </c>
       <c r="E26">
-        <v>0.00197625454623386</v>
+        <v>0.0019762542422827145</v>
       </c>
       <c r="F26">
-        <v>4.847775589075261e-5</v>
+        <v>4.847773667187975e-5</v>
       </c>
       <c r="G26">
-        <v>7.737090991045921</v>
+        <v>7.737090991044517</v>
       </c>
       <c r="H26">
-        <v>0.00014548029037678148</v>
+        <v>0.00014548029037677771</v>
       </c>
       <c r="I26">
-        <v>-5.264213107023484e-6</v>
+        <v>-5.264213107020985e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976254911049907</v>
+        <v>0.001976254911050353</v>
       </c>
       <c r="K26">
-        <v>4.847774502122231e-5</v>
+        <v>4.847774502122239e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.026113586260588472</v>
       </c>
       <c r="B27">
-        <v>7.721528013604883</v>
+        <v>7.721526512764567</v>
       </c>
       <c r="C27">
         <v>0.00014189523263279428</v>
       </c>
       <c r="D27">
-        <v>-5.443572502941442e-6</v>
+        <v>-5.443572583680744e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019753008925510406</v>
+        <v>0.00197530050442758</v>
       </c>
       <c r="F27">
-        <v>4.846625536338543e-5</v>
+        <v>4.846623076426889e-5</v>
       </c>
       <c r="G27">
-        <v>7.721535378141217</v>
+        <v>7.721535378139796</v>
       </c>
       <c r="H27">
-        <v>0.00014189725142927344</v>
+        <v>0.0001418972514292697</v>
       </c>
       <c r="I27">
-        <v>-5.442278668983341e-6</v>
+        <v>-5.442278668980744e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019753012035202593</v>
+        <v>0.0019753012035207207</v>
       </c>
       <c r="K27">
-        <v>4.8466239131252045e-5</v>
+        <v>4.846623913125221e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.025331402797285227</v>
       </c>
       <c r="B28">
-        <v>7.706207798239916</v>
+        <v>7.70620591727711</v>
       </c>
       <c r="C28">
         <v>0.00013835526233412504</v>
       </c>
       <c r="D28">
-        <v>-5.619311497863826e-6</v>
+        <v>-5.6193116298999965e-6</v>
       </c>
       <c r="E28">
-        <v>0.001974348362146693</v>
+        <v>0.0019743478781071556</v>
       </c>
       <c r="F28">
-        <v>4.84553853889403e-5</v>
+        <v>4.845535462842723e-5</v>
       </c>
       <c r="G28">
-        <v>7.706215060269408</v>
+        <v>7.706215060267972</v>
       </c>
       <c r="H28">
-        <v>0.00013835734656302137</v>
+        <v>0.0001383573465630176</v>
       </c>
       <c r="I28">
-        <v>-5.617976337300536e-6</v>
+        <v>-5.617976337297844e-6</v>
       </c>
       <c r="J28">
-        <v>0.001974348607591521</v>
+        <v>0.001974348607591997</v>
       </c>
       <c r="K28">
-        <v>4.8455362993526035e-5</v>
+        <v>4.845536299352625e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.02455850856315389</v>
       </c>
       <c r="B29">
-        <v>7.6911314818540415</v>
+        <v>7.691129175114227</v>
       </c>
       <c r="C29">
         <v>0.00013485734852875</v>
       </c>
       <c r="D29">
-        <v>-5.792735845781975e-6</v>
+        <v>-5.792736050720138e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019733971345790025</v>
+        <v>0.0019733965437336784</v>
       </c>
       <c r="F29">
-        <v>4.844512303254046e-5</v>
+        <v>4.8445085371125325e-5</v>
       </c>
       <c r="G29">
-        <v>7.691138581967726</v>
+        <v>7.691138581966278</v>
       </c>
       <c r="H29">
-        <v>0.00013485949716318443</v>
+        <v>0.00013485949716318066</v>
       </c>
       <c r="I29">
-        <v>-5.791360092226254e-6</v>
+        <v>-5.791360092223468e-6</v>
       </c>
       <c r="J29">
-        <v>0.001973397303668991</v>
+        <v>0.001973397303669482</v>
       </c>
       <c r="K29">
-        <v>4.844509371804567e-5</v>
+        <v>4.8445093718045946e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.023794666853294445</v>
       </c>
       <c r="B30">
-        <v>7.676306116146944</v>
+        <v>7.676303342379682</v>
       </c>
       <c r="C30">
         <v>0.0001314004284061234</v>
       </c>
       <c r="D30">
-        <v>-5.963897342799022e-6</v>
+        <v>-5.9638976475687685e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019724473976067587</v>
+        <v>0.0019724466903237644</v>
       </c>
       <c r="F30">
-        <v>4.84354446323712e-5</v>
+        <v>4.8435399396646337e-5</v>
       </c>
       <c r="G30">
-        <v>7.676312999040052</v>
+        <v>7.676312999038594</v>
       </c>
       <c r="H30">
-        <v>0.0001314026402743421</v>
+        <v>0.00013140264027433827</v>
       </c>
       <c r="I30">
-        <v>-5.9624817919704226e-6</v>
+        <v>-5.962481791967542e-6</v>
       </c>
       <c r="J30">
-        <v>0.001972447480654255</v>
+        <v>0.001972447480654761</v>
       </c>
       <c r="K30">
-        <v>4.8435407709712074e-5</v>
+        <v>4.843540770971243e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.023039643735213187</v>
       </c>
       <c r="B31">
-        <v>7.661737300028068</v>
+        <v>7.661734023665463</v>
       </c>
       <c r="C31">
         <v>0.00012798345573374856</v>
       </c>
       <c r="D31">
-        <v>-6.132844819623187e-6</v>
+        <v>-6.132845256770048e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019714993435891387</v>
+        <v>0.0019714985118221076</v>
       </c>
       <c r="F31">
-        <v>4.8426326059184894e-5</v>
+        <v>4.8426272661985147e-5</v>
       </c>
       <c r="G31">
-        <v>7.661743915495138</v>
+        <v>7.661743915493673</v>
       </c>
       <c r="H31">
-        <v>0.0001279857296271211</v>
+        <v>0.00012798572962711722</v>
       </c>
       <c r="I31">
-        <v>-6.131390344267442e-6</v>
+        <v>-6.131390344264467e-6</v>
       </c>
       <c r="J31">
-        <v>0.00197149933243827</v>
+        <v>0.001971499332438789</v>
       </c>
       <c r="K31">
-        <v>4.842628092749284e-5</v>
+        <v>4.8426280927493264e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.022293207977179066</v>
       </c>
       <c r="B32">
-        <v>7.647429241108816</v>
+        <v>7.647425433187476</v>
       </c>
       <c r="C32">
         <v>0.0001246054021475932</v>
       </c>
       <c r="D32">
-        <v>-6.299623048639829e-6</v>
+        <v>-6.299623656425649e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019705531664085275</v>
+        <v>0.0019705522039339253</v>
       </c>
       <c r="F32">
-        <v>4.841774296039631e-5</v>
+        <v>4.841768091578506e-5</v>
       </c>
       <c r="G32">
-        <v>7.647435544957836</v>
+        <v>7.647435544956367</v>
       </c>
       <c r="H32">
-        <v>0.0001246077366556567</v>
+        <v>0.00012460773665565276</v>
       </c>
       <c r="I32">
-        <v>-6.298130634623578e-6</v>
+        <v>-6.29813063462051e-6</v>
       </c>
       <c r="J32">
-        <v>0.001970553054648567</v>
+        <v>0.0019705530546491002</v>
       </c>
       <c r="K32">
-        <v>4.841768911932932e-5</v>
+        <v>4.841768911932983e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.02155513097740716</v>
       </c>
       <c r="B33">
-        <v>7.633384837013677</v>
+        <v>7.633380475723042</v>
       </c>
       <c r="C33">
         <v>0.00012126525896067669</v>
       </c>
       <c r="D33">
-        <v>-6.464271315543179e-6</v>
+        <v>-6.46427213784751e-6</v>
       </c>
       <c r="E33">
-        <v>0.001969609059007377</v>
+        <v>0.0019696079615664185</v>
       </c>
       <c r="F33">
-        <v>4.840967098456668e-5</v>
+        <v>4.8409599917351903e-5</v>
       </c>
       <c r="G33">
-        <v>7.633390791472997</v>
+        <v>7.633390791471524</v>
       </c>
       <c r="H33">
-        <v>0.00012126765244862119</v>
+        <v>0.00012126765244861719</v>
       </c>
       <c r="I33">
-        <v>-6.462742097078207e-6</v>
+        <v>-6.462742097075046e-6</v>
       </c>
       <c r="J33">
-        <v>0.001969608842078758</v>
+        <v>0.0019696088420793055</v>
       </c>
       <c r="K33">
-        <v>4.8409608046429244e-5</v>
+        <v>4.8409608046429826e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.020825186694047617</v>
       </c>
       <c r="B34">
-        <v>7.619605772661051</v>
+        <v>7.619600843533999</v>
       </c>
       <c r="C34">
         <v>0.00011796203960389588</v>
       </c>
       <c r="D34">
-        <v>-6.626821582710233e-6</v>
+        <v>-6.626822668739333e-6</v>
       </c>
       <c r="E34">
-        <v>0.001968667211615868</v>
+        <v>0.0019686659769640714</v>
       </c>
       <c r="F34">
-        <v>4.840208598342325e-5</v>
+        <v>4.840200563335787e-5</v>
       </c>
       <c r="G34">
-        <v>7.619611346511501</v>
+        <v>7.619611346510029</v>
       </c>
       <c r="H34">
-        <v>0.00011796449015991066</v>
+        <v>0.00011796449015990664</v>
       </c>
       <c r="I34">
-        <v>-6.625256881590649e-6</v>
+        <v>-6.625256881587393e-6</v>
       </c>
       <c r="J34">
-        <v>0.00196866688680982</v>
+        <v>0.0019686668868103808</v>
       </c>
       <c r="K34">
-        <v>4.840201367702694e-5</v>
+        <v>4.840201367702759e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>-0.020103151575958524</v>
       </c>
       <c r="B35">
-        <v>7.606092629844803</v>
+        <v>7.606087125631195</v>
       </c>
       <c r="C35">
         <v>0.00011469478282237474</v>
       </c>
       <c r="D35">
-        <v>-6.78729616552906e-6</v>
+        <v>-6.787297569351482e-6</v>
       </c>
       <c r="E35">
-        <v>0.001967727810734885</v>
+        <v>0.0019677264386085123</v>
       </c>
       <c r="F35">
-        <v>4.839496418982939e-5</v>
+        <v>4.839487441100714e-5</v>
       </c>
       <c r="G35">
-        <v>7.606097798013062</v>
+        <v>7.6060977980115885</v>
       </c>
       <c r="H35">
-        <v>0.00011469728825485311</v>
+        <v>0.00011469728825484908</v>
       </c>
       <c r="I35">
-        <v>-6.785697543772226e-6</v>
+        <v>-6.7856975437688766e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019677273771504518</v>
+        <v>0.001967727377151027</v>
       </c>
       <c r="K35">
-        <v>4.8394882356868917e-5</v>
+        <v>4.8394882356869635e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>-0.01938880449424165</v>
       </c>
       <c r="B36">
-        <v>7.592845005766325</v>
+        <v>7.592838926045551</v>
       </c>
       <c r="C36">
         <v>0.00011146255675563497</v>
       </c>
       <c r="D36">
-        <v>-6.945704839709926e-6</v>
+        <v>-6.945706619646385e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019667910389281292</v>
+        <v>0.0019667895309408556</v>
       </c>
       <c r="F36">
-        <v>4.838828237123697e-5</v>
+        <v>4.838818312743063e-5</v>
       </c>
       <c r="G36">
-        <v>7.592849748667967</v>
+        <v>7.592849748666496</v>
       </c>
       <c r="H36">
-        <v>0.00011146511430066072</v>
+        <v>0.00011146511430065673</v>
       </c>
       <c r="I36">
-        <v>-6.944074153687241e-6</v>
+        <v>-6.944074153683798e-6</v>
       </c>
       <c r="J36">
-        <v>0.001966790497327662</v>
+        <v>0.001966790497328251</v>
       </c>
       <c r="K36">
-        <v>4.838819096493887e-5</v>
+        <v>4.838819096493964e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>-0.01868192667452002</v>
       </c>
       <c r="B37">
-        <v>7.579861637566196</v>
+        <v>7.579854988162098</v>
       </c>
       <c r="C37">
         <v>0.00010826446402915639</v>
       </c>
       <c r="D37">
-        <v>-7.102041298215055e-6</v>
+        <v>-7.10204351611601e-6</v>
       </c>
       <c r="E37">
-        <v>0.001965857075467425</v>
+        <v>0.001965855434952699</v>
       </c>
       <c r="F37">
-        <v>4.8382017959071755e-5</v>
+        <v>4.838190931588222e-5</v>
       </c>
       <c r="G37">
-        <v>7.579865940219088</v>
+        <v>7.579865940217621</v>
       </c>
       <c r="H37">
-        <v>0.00010826707043779782</v>
+        <v>0.00010826707043779386</v>
       </c>
       <c r="I37">
-        <v>-7.100380764180643e-6</v>
+        <v>-7.100380764177108e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019658564281024894</v>
+        <v>0.0019658564281030922</v>
       </c>
       <c r="K37">
-        <v>4.838191703431312e-5</v>
+        <v>4.838191703431397e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>-0.01798230162993649</v>
       </c>
       <c r="B38">
-        <v>7.567140530333838</v>
+        <v>7.567133322595238</v>
       </c>
       <c r="C38">
         <v>0.00010509964797697717</v>
       </c>
       <c r="D38">
-        <v>-7.256278881778766e-6</v>
+        <v>-7.256281602224334e-6</v>
       </c>
       <c r="E38">
-        <v>0.001964926097865567</v>
+        <v>0.001964924329680538</v>
       </c>
       <c r="F38">
-        <v>4.8376149155204686e-5</v>
+        <v>4.8376031269914134e-5</v>
       </c>
       <c r="G38">
-        <v>7.567144381129057</v>
+        <v>7.567144381127594</v>
       </c>
       <c r="H38">
-        <v>0.00010510229939225297</v>
+        <v>0.00010510229939224905</v>
       </c>
       <c r="I38">
-        <v>-7.2545911437825675e-6</v>
+        <v>-7.254591143778941e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019649253482301797</v>
+        <v>0.0019649253482307964</v>
       </c>
       <c r="K38">
-        <v>4.837603885743601e-5</v>
+        <v>4.83760388574369e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>-0.017289715094853</v>
       </c>
       <c r="B39">
-        <v>7.554679086489119</v>
+        <v>7.554671336494325</v>
       </c>
       <c r="C39">
         <v>0.00010196730009855875</v>
       </c>
       <c r="D39">
-        <v>-7.4083655178966016e-6</v>
+        <v>-7.408368807352394e-6</v>
       </c>
       <c r="E39">
-        <v>0.0019639982843203505</v>
+        <v>0.0019639963946263637</v>
       </c>
       <c r="F39">
-        <v>4.837065501714955e-5</v>
+        <v>4.8370528127124335e-5</v>
       </c>
       <c r="G39">
-        <v>7.554682476173567</v>
+        <v>7.554682476172109</v>
       </c>
       <c r="H39">
-        <v>0.00010196999180520802</v>
+        <v>0.0001019699918052041</v>
       </c>
       <c r="I39">
-        <v>-7.406653719619367e-6</v>
+        <v>-7.4066537196156465e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019639974368662904</v>
+        <v>0.0019639974368669206</v>
       </c>
       <c r="K39">
-        <v>4.837053557236111e-5</v>
+        <v>4.837053557236205e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>-0.016603954959230047</v>
       </c>
       <c r="B40">
-        <v>7.542474234801457</v>
+        <v>7.542465962536844</v>
       </c>
       <c r="C40">
         <v>9.886666882722881e-5</v>
       </c>
       <c r="D40">
-        <v>-7.558217820251444e-6</v>
+        <v>-7.558221746209381e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019630738170808154</v>
+        <v>0.0019630718131137224</v>
       </c>
       <c r="F40">
-        <v>4.8365515523921344e-5</v>
+        <v>4.8365379934312996e-5</v>
       </c>
       <c r="G40">
-        <v>7.542477155410602</v>
+        <v>7.54247715540915</v>
       </c>
       <c r="H40">
-        <v>9.886939529428051e-5</v>
+        <v>9.886939529427654e-5</v>
       </c>
       <c r="I40">
-        <v>-7.556485686229392e-6</v>
+        <v>-7.556485686225578e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019630728769271986</v>
+        <v>0.0019630728769278417</v>
       </c>
       <c r="K40">
-        <v>4.836538722411314e-5</v>
+        <v>4.836538722411414e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>-0.015924811203666303</v>
       </c>
       <c r="B41">
-        <v>7.530522557618061</v>
+        <v>7.530513786171066</v>
       </c>
       <c r="C41">
         <v>9.57970696515634e-5</v>
       </c>
       <c r="D41">
-        <v>-7.705714324144201e-6</v>
+        <v>-7.705718954272084e-6</v>
       </c>
       <c r="E41">
-        <v>0.0019621528867313207</v>
+        <v>0.0019621507765725933</v>
       </c>
       <c r="F41">
-        <v>4.8360711624615725e-5</v>
+        <v>4.8360567695984274e-5</v>
       </c>
       <c r="G41">
-        <v>7.53052500103672</v>
+        <v>7.530525001035276</v>
       </c>
       <c r="H41">
-        <v>9.579982436466614e-5</v>
+        <v>9.579982436466214e-5</v>
       </c>
       <c r="I41">
-        <v>-7.703966231601273e-6</v>
+        <v>-7.703966231597368e-6</v>
       </c>
       <c r="J41">
-        <v>0.001962151859426718</v>
+        <v>0.0019621518594273753</v>
       </c>
       <c r="K41">
-        <v>4.8360574817306e-5</v>
+        <v>4.8360574817307046e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>-0.015252075835078552</v>
       </c>
       <c r="B42">
-        <v>7.518820415103736</v>
+        <v>7.5188111699005225</v>
       </c>
       <c r="C42">
         <v>9.275789658508063e-5</v>
       </c>
       <c r="D42">
-        <v>-7.850687863567508e-6</v>
+        <v>-7.850693264883803e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019612356973702865</v>
+        <v>0.001961233489727519</v>
       </c>
       <c r="F42">
-        <v>4.8356225271763946e-5</v>
+        <v>4.835607340811407e-5</v>
       </c>
       <c r="G42">
-        <v>7.51882237234206</v>
+        <v>7.518822372340623</v>
       </c>
       <c r="H42">
-        <v>9.276067183864036e-5</v>
+        <v>9.276067183863633e-5</v>
       </c>
       <c r="I42">
-        <v>-7.848928917274146e-6</v>
+        <v>-7.84892891727015e-6</v>
       </c>
       <c r="J42">
-        <v>0.001961234588506154</v>
+        <v>0.001961234588506825</v>
       </c>
       <c r="K42">
-        <v>4.835608034565384e-5</v>
+        <v>4.83560803456549e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>-0.01458554282300218</v>
       </c>
       <c r="B43">
-        <v>7.507364065448877</v>
+        <v>7.507354373557569</v>
       </c>
       <c r="C43">
         <v>8.974863492423361e-5</v>
       </c>
       <c r="D43">
-        <v>-7.992917131636737e-6</v>
+        <v>-7.992923369720497e-6</v>
       </c>
       <c r="E43">
-        <v>0.00196032247263794</v>
+        <v>0.0019603201766409555</v>
       </c>
       <c r="F43">
-        <v>4.835203944141341e-5</v>
+        <v>4.835188007900351e-5</v>
       </c>
       <c r="G43">
-        <v>7.507365525257293</v>
+        <v>7.507365525255864</v>
       </c>
       <c r="H43">
-        <v>8.975142182782126e-5</v>
+        <v>8.975142182781721e-5</v>
       </c>
       <c r="I43">
-        <v>-7.99115323041907e-6</v>
+        <v>-7.991153230414983e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019603212877607333</v>
+        <v>0.0019603212877614172</v>
       </c>
       <c r="K43">
-        <v>4.83518868176758e-5</v>
+        <v>4.835188681767689e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.013925008036492728</v>
       </c>
       <c r="B44">
-        <v>7.496149780085897</v>
+        <v>7.496139669598054</v>
       </c>
       <c r="C44">
         <v>8.676887517123655e-5</v>
       </c>
       <c r="D44">
-        <v>-8.132117507274293e-6</v>
+        <v>-8.132124645513264e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019594134625212506</v>
+        <v>0.0019594110875378813</v>
       </c>
       <c r="F44">
-        <v>4.834813814171352e-5</v>
+        <v>4.8347971738879585e-5</v>
       </c>
       <c r="G44">
-        <v>7.496150728462557</v>
+        <v>7.496150728461136</v>
       </c>
       <c r="H44">
-        <v>8.677166345412958e-5</v>
+        <v>8.67716634541255e-5</v>
       </c>
       <c r="I44">
-        <v>-8.1303553954325e-6</v>
+        <v>-8.130355395428322e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019594122067707457</v>
+        <v>0.0019594122067714426</v>
       </c>
       <c r="K44">
-        <v>4.8347978262100974e-5</v>
+        <v>4.83479782621021e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>-0.01327026918160919</v>
       </c>
       <c r="B45">
-        <v>7.4851739529791175</v>
+        <v>7.485163452475293</v>
       </c>
       <c r="C45">
         <v>8.381832792875333e-5</v>
       </c>
       <c r="D45">
-        <v>-8.267931275969864e-6</v>
+        <v>-8.267939374843768e-6</v>
       </c>
       <c r="E45">
-        <v>0.001958508950834825</v>
+        <v>0.001958506506308632</v>
       </c>
       <c r="F45">
-        <v>4.83445064115799e-5</v>
+        <v>4.834433343971496e-5</v>
       </c>
       <c r="G45">
-        <v>7.485174372552805</v>
+        <v>7.485174372551393</v>
       </c>
       <c r="H45">
-        <v>8.382110604946013e-5</v>
+        <v>8.382110604945601e-5</v>
       </c>
       <c r="I45">
-        <v>-8.266178586170234e-6</v>
+        <v>-8.266178586165967e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019585076288121976</v>
+        <v>0.0019585076288129075</v>
       </c>
       <c r="K45">
-        <v>4.8344339730230056e-5</v>
+        <v>4.8344339730231214e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>-0.012621125739459928</v>
       </c>
       <c r="B46">
-        <v>7.474433203034309</v>
+        <v>7.474422341134389</v>
       </c>
       <c r="C46">
         <v>8.089683950055474e-5</v>
       </c>
       <c r="D46">
-        <v>-8.399917419367939e-6</v>
+        <v>-8.3999265357592e-6</v>
       </c>
       <c r="E46">
-        <v>0.0019576092632446838</v>
+        <v>0.001957606758555375</v>
       </c>
       <c r="F46">
-        <v>4.83411303107899e-5</v>
+        <v>4.834095124653728e-5</v>
       </c>
       <c r="G46">
-        <v>7.474433072271975</v>
+        <v>7.474433072270572</v>
       </c>
       <c r="H46">
-        <v>8.089959439509388e-5</v>
+        <v>8.089959439508973e-5</v>
       </c>
       <c r="I46">
-        <v>-8.398182692298059e-6</v>
+        <v>-8.398182692293705e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019576078788382705</v>
+        <v>0.001957607878838992</v>
       </c>
       <c r="K46">
-        <v>4.834095728635388e-5</v>
+        <v>4.8340957286355066e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>-0.011977378904792182</v>
       </c>
       <c r="B47">
-        <v>7.463924468629331</v>
+        <v>7.463913273624402</v>
       </c>
       <c r="C47">
         <v>7.800440785910418e-5</v>
       </c>
       <c r="D47">
-        <v>-8.527541195260205e-6</v>
+        <v>-8.527551381780413e-6</v>
       </c>
       <c r="E47">
-        <v>0.001956714775668621</v>
+        <v>0.001956712220014809</v>
       </c>
       <c r="F47">
-        <v>4.8337996902648486e-5</v>
+        <v>4.8337812221303894e-5</v>
       </c>
       <c r="G47">
-        <v>7.463923762104967</v>
+        <v>7.463923762103573</v>
       </c>
       <c r="H47">
-        <v>7.800712516890191e-5</v>
+        <v>7.800712516889775e-5</v>
       </c>
       <c r="I47">
-        <v>-8.525833877079768e-6</v>
+        <v>-8.525833877075326e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019567133319008043</v>
+        <v>0.001956713331901537</v>
       </c>
       <c r="K47">
-        <v>4.833781799105093e-5</v>
+        <v>4.833781799105213e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>-0.011338831525106424</v>
       </c>
       <c r="B48">
-        <v>7.453645093214456</v>
+        <v>7.453633592774365</v>
       </c>
       <c r="C48">
         <v>7.514119857120926e-5</v>
       </c>
       <c r="D48">
-        <v>-8.650163773965249e-6</v>
+        <v>-8.650175078283338e-6</v>
       </c>
       <c r="E48">
-        <v>0.001955825922853739</v>
+        <v>0.0019558233251568643</v>
       </c>
       <c r="F48">
-        <v>4.833509423017028e-5</v>
+        <v>4.833490440024124e-5</v>
       </c>
       <c r="G48">
-        <v>7.453643781360438</v>
+        <v>7.4536437813590535</v>
       </c>
       <c r="H48">
-        <v>7.514386243420379e-5</v>
+        <v>7.514386243419961e-5</v>
       </c>
       <c r="I48">
-        <v>-8.648494188360394e-6</v>
+        <v>-8.648494188355864e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019558244218356806</v>
+        <v>0.0019558244218364257</v>
       </c>
       <c r="K48">
-        <v>4.8334909880389716e-5</v>
+        <v>4.8334909880390956e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>-0.010705288040276841</v>
       </c>
       <c r="B49">
-        <v>7.443592900887363</v>
+        <v>7.443581121836596</v>
       </c>
       <c r="C49">
         <v>7.230756021016344e-5</v>
       </c>
       <c r="D49">
-        <v>-8.767032236607312e-6</v>
+        <v>-8.76704470076434e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019549432069003786</v>
+        <v>0.0019549405757280794</v>
       </c>
       <c r="F49">
-        <v>4.8332411286559007e-5</v>
+        <v>4.8332216765398787e-5</v>
       </c>
       <c r="G49">
-        <v>7.44359095031836</v>
+        <v>7.443590950316984</v>
       </c>
       <c r="H49">
-        <v>7.231015361930755e-5</v>
+        <v>7.231015361930336e-5</v>
       </c>
       <c r="I49">
-        <v>-8.765411522252449e-6</v>
+        <v>-8.765411522247831e-6</v>
       </c>
       <c r="J49">
-        <v>0.001954941649711526</v>
+        <v>0.0019549416497122826</v>
       </c>
       <c r="K49">
-        <v>4.8332221936176574e-5</v>
+        <v>4.833222193617786e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>-0.010076554422659534</v>
       </c>
       <c r="B50">
-        <v>7.433766260828862</v>
+        <v>7.433754228982488</v>
       </c>
       <c r="C50">
         <v>6.950403873094592e-5</v>
       </c>
       <c r="D50">
-        <v>-8.877270273045316e-6</v>
+        <v>-8.877283932740407e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019540672054737603</v>
+        <v>0.001954064548980676</v>
       </c>
       <c r="F50">
-        <v>4.832993798063564e-5</v>
+        <v>4.8329739211050076e-5</v>
       </c>
       <c r="G50">
-        <v>7.433763634916958</v>
+        <v>7.433763634915591</v>
       </c>
       <c r="H50">
-        <v>6.950654346104134e-5</v>
+        <v>6.950654346103714e-5</v>
       </c>
       <c r="I50">
-        <v>-8.875710294331951e-6</v>
+        <v>-8.875710294327248e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019540655921867337</v>
+        <v>0.001954065592187501</v>
       </c>
       <c r="K50">
-        <v>4.832974405320068e-5</v>
+        <v>4.832974405320201e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>-0.009452438117670027</v>
       </c>
       <c r="B51">
-        <v>7.424164139503467</v>
+        <v>7.424151879554813</v>
       </c>
       <c r="C51">
         <v>6.673139024761567e-5</v>
       </c>
       <c r="D51">
-        <v>-8.979869939881977e-6</v>
+        <v>-8.979884823715453e-6</v>
       </c>
       <c r="E51">
-        <v>0.001953198579422095</v>
+        <v>0.0019531959053059496</v>
       </c>
       <c r="F51">
-        <v>4.832766509777332e-5</v>
+        <v>4.832746250548924e-5</v>
       </c>
       <c r="G51">
-        <v>7.42416079869452</v>
+        <v>7.424160798693162</v>
       </c>
       <c r="H51">
-        <v>6.673378710010906e-5</v>
+        <v>6.673378710010485e-5</v>
       </c>
       <c r="I51">
-        <v>-8.978383161980837e-6</v>
+        <v>-8.978383161976048e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019531969091872922</v>
+        <v>0.001953196909188071</v>
       </c>
       <c r="K51">
-        <v>4.8327466999910456e-5</v>
+        <v>4.832746699991184e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>-0.008832747984811932</v>
       </c>
       <c r="B52">
-        <v>7.414786139593761</v>
+        <v>7.414773675045637</v>
       </c>
       <c r="C52">
         <v>6.399059163212007e-5</v>
       </c>
       <c r="D52">
-        <v>-9.073684850155738e-6</v>
+        <v>-9.073700978817395e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019523380795043543</v>
+        <v>0.0019523353949751868</v>
       </c>
       <c r="F52">
-        <v>4.832558425683691e-5</v>
+        <v>4.832537824871959e-5</v>
       </c>
       <c r="G52">
-        <v>7.414782042568025</v>
+        <v>7.414782042566676</v>
       </c>
       <c r="H52">
-        <v>6.39928607451793e-5</v>
+        <v>6.399286074517505e-5</v>
       </c>
       <c r="I52">
-        <v>-9.07228418021674e-6</v>
+        <v>-9.07228418021187e-6</v>
       </c>
       <c r="J52">
-        <v>0.001952336350561426</v>
+        <v>0.0019523363505622156</v>
       </c>
       <c r="K52">
-        <v>4.8325382377419505e-5</v>
+        <v>4.832538237742094e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>-0.00821729423913866</v>
       </c>
       <c r="B53">
-        <v>7.405632524753641</v>
+        <v>7.405619877885567</v>
       </c>
       <c r="C53">
         <v>6.128284835384585e-5</v>
       </c>
       <c r="D53">
-        <v>-9.15742516444606e-6</v>
+        <v>-9.157442549839816e-6</v>
       </c>
       <c r="E53">
-        <v>0.0019514865519239578</v>
+        <v>0.001951483863684467</v>
       </c>
       <c r="F53">
-        <v>4.832368786359716e-5</v>
+        <v>4.832347882650677e-5</v>
       </c>
       <c r="G53">
-        <v>7.405627629381557</v>
+        <v>7.4056276293802155</v>
       </c>
       <c r="H53">
-        <v>6.128496940990077e-5</v>
+        <v>6.12849694098965e-5</v>
       </c>
       <c r="I53">
-        <v>-9.156123764304144e-6</v>
+        <v>-9.156123764299194e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019514847617268416</v>
+        <v>0.001951484761727642</v>
       </c>
       <c r="K53">
-        <v>4.832348257243552e-5</v>
+        <v>4.832348257243699e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>-0.007605888393130311</v>
       </c>
       <c r="B54">
-        <v>7.396704229435344</v>
+        <v>7.396691421299815</v>
       </c>
       <c r="C54">
         <v>5.8609599001058465e-5</v>
       </c>
       <c r="D54">
-        <v>-9.22965473721326e-6</v>
+        <v>-9.229673381512867e-6</v>
       </c>
       <c r="E54">
-        <v>0.0019506449423675922</v>
+        <v>0.0019506422566027315</v>
       </c>
       <c r="F54">
-        <v>4.8321969061084985e-5</v>
+        <v>4.832175736126949e-5</v>
       </c>
       <c r="G54">
-        <v>7.3966984937243065</v>
+        <v>7.396698493722973</v>
       </c>
       <c r="H54">
-        <v>5.861155157391747e-5</v>
+        <v>5.861155157391317e-5</v>
       </c>
       <c r="I54">
-        <v>-9.228465800512841e-6</v>
+        <v>-9.22846580050781e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019506430877269103</v>
+        <v>0.0019506430877277213</v>
       </c>
       <c r="K54">
-        <v>4.832176070937356e-5</v>
+        <v>4.832176070937506e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>-0.006998343198967898</v>
       </c>
       <c r="B55">
-        <v>7.388002853265611</v>
+        <v>7.387989903707286</v>
       </c>
       <c r="C55">
         <v>5.597251596969688e-5</v>
       </c>
       <c r="D55">
-        <v>-9.288790741854011e-6</v>
+        <v>-9.288810636489704e-6</v>
       </c>
       <c r="E55">
-        <v>0.0019498142982621604</v>
+        <v>0.0019498116206363167</v>
       </c>
       <c r="F55">
-        <v>4.83204216773668e-5</v>
+        <v>4.832020766029721e-5</v>
       </c>
       <c r="G55">
-        <v>7.387996237097641</v>
+        <v>7.387996237096316</v>
       </c>
       <c r="H55">
-        <v>5.597427992062129e-5</v>
+        <v>5.597427992061696e-5</v>
       </c>
       <c r="I55">
-        <v>-9.287727250848068e-6</v>
+        <v>-9.28772725084296e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019498123754215385</v>
+        <v>0.0019498123754223607</v>
       </c>
       <c r="K55">
-        <v>4.8320210597119914e-5</v>
+        <v>4.832021059712145e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>-0.006394472591187243</v>
       </c>
       <c r="B56">
-        <v>7.379530639712003</v>
+        <v>7.37951756740443</v>
       </c>
       <c r="C56">
         <v>5.3373501871633504e-5</v>
       </c>
       <c r="D56">
-        <v>-9.333106053425565e-6</v>
+        <v>-9.333127178006067e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019489957689880458</v>
+        <v>0.001948993104648372</v>
       </c>
       <c r="F56">
-        <v>4.831904017124764e-5</v>
+        <v>4.831882416181127e-5</v>
       </c>
       <c r="G56">
-        <v>7.379523105775793</v>
+        <v>7.379523105774475</v>
       </c>
       <c r="H56">
-        <v>5.3375057704711563e-5</v>
+        <v>5.337505770470722e-5</v>
       </c>
       <c r="I56">
-        <v>-9.33218051240252e-6</v>
+        <v>-9.332180512397332e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019489937739332818</v>
+        <v>0.0019489937739341138</v>
       </c>
       <c r="K56">
-        <v>4.831882667710354e-5</v>
+        <v>4.831882667710511e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>-0.005794091629694964</v>
       </c>
       <c r="B57">
-        <v>7.371290439082526</v>
+        <v>7.371277261577831</v>
       </c>
       <c r="C57">
         <v>5.081468130227082e-5</v>
       </c>
       <c r="D57">
-        <v>-9.36073461018772e-6</v>
+        <v>-9.360756931368397e-6</v>
       </c>
       <c r="E57">
-        <v>0.001948190603823538</v>
+        <v>0.0019481879574081977</v>
       </c>
       <c r="F57">
-        <v>4.831781957643944e-5</v>
+        <v>4.831760187941727e-5</v>
       </c>
       <c r="G57">
-        <v>7.37128195445482</v>
+        <v>7.37128195445351</v>
       </c>
       <c r="H57">
-        <v>5.081601070898923e-5</v>
+        <v>5.081601070898487e-5</v>
       </c>
       <c r="I57">
-        <v>-9.359958764936629e-6</v>
+        <v>-9.359958764931367e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019481885324189358</v>
+        <v>0.0019481885324197773</v>
       </c>
       <c r="K57">
-        <v>4.831760396555988e-5</v>
+        <v>4.831760396556149e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>-0.0051970164431291155</v>
       </c>
       <c r="B58">
-        <v>7.363285656229079</v>
+        <v>7.363272390016694</v>
       </c>
       <c r="C58">
         <v>4.829838771408313e-5</v>
       </c>
       <c r="D58">
-        <v>-9.369679905537452e-6</v>
+        <v>-9.369703375851052e-6</v>
       </c>
       <c r="E58">
-        <v>0.001947400147442907</v>
+        <v>0.0019473975230932224</v>
       </c>
       <c r="F58">
-        <v>4.831675544476066e-5</v>
+        <v>4.831653634552398e-5</v>
       </c>
       <c r="G58">
-        <v>7.363276193632257</v>
+        <v>7.363276193630953</v>
       </c>
       <c r="H58">
-        <v>4.829947397331936e-5</v>
+        <v>4.829947397331498e-5</v>
       </c>
       <c r="I58">
-        <v>-9.369064456566596e-6</v>
+        <v>-9.369064456561256e-6</v>
       </c>
       <c r="J58">
-        <v>0.001947397995690191</v>
+        <v>0.001947397995691043</v>
       </c>
       <c r="K58">
-        <v>4.8316537997864855e-5</v>
+        <v>4.83165379978665e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>-0.004603064172547168</v>
       </c>
       <c r="B59">
-        <v>7.3555201836658775</v>
+        <v>7.355506844237065</v>
       </c>
       <c r="C59">
         <v>4.582714526538377e-5</v>
       </c>
       <c r="D59">
-        <v>-9.357826682642534e-6</v>
+        <v>-9.357851239316247e-6</v>
       </c>
       <c r="E59">
-        <v>0.001946625832848426</v>
+        <v>0.001946623234224093</v>
       </c>
       <c r="F59">
-        <v>4.83158437889548e-5</v>
+        <v>4.831562355432568e-5</v>
       </c>
       <c r="G59">
-        <v>7.355509722789156</v>
+        <v>7.355509722787859</v>
       </c>
       <c r="H59">
-        <v>4.582797364825499e-5</v>
+        <v>4.58279736482506e-5</v>
       </c>
       <c r="I59">
-        <v>-9.357380995797857e-6</v>
+        <v>-9.357380995792446e-6</v>
       </c>
       <c r="J59">
-        <v>0.0019466235971107504</v>
+        <v>0.0019466235971116119</v>
       </c>
       <c r="K59">
-        <v>4.831562477235307e-5</v>
+        <v>4.831562477235475e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>-0.004012052915424027</v>
       </c>
       <c r="B60">
-        <v>7.3479983211542095</v>
+        <v>7.347984923069654</v>
       </c>
       <c r="C60">
         <v>4.3403645648401826e-5</v>
       </c>
       <c r="D60">
-        <v>-9.322955817655143e-6</v>
+        <v>-9.322981381443746e-6</v>
       </c>
       <c r="E60">
-        <v>0.0019458691716831198</v>
+        <v>0.0019458666019798207</v>
       </c>
       <c r="F60">
-        <v>4.8315081025725396e-5</v>
+        <v>4.8314859904953414e-5</v>
       </c>
       <c r="G60">
-        <v>7.347986849862461</v>
+        <v>7.34798684986117</v>
       </c>
       <c r="H60">
-        <v>4.3404203890611825e-5</v>
+        <v>4.340420389060743e-5</v>
       </c>
       <c r="I60">
-        <v>-9.322687647042255e-6</v>
+        <v>-9.32268764703677e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019458668488670089</v>
+        <v>0.0019458668488678806</v>
       </c>
       <c r="K60">
-        <v>4.8314860691652754e-5</v>
+        <v>4.831486069165448e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>-0.003423801669942956</v>
       </c>
       <c r="B61">
-        <v>7.340724683132264</v>
+        <v>7.340711240090537</v>
       </c>
       <c r="C61">
         <v>4.1030720043311676e-5</v>
       </c>
       <c r="D61">
-        <v>-9.262762286675453e-6</v>
+        <v>-9.262788760747736e-6</v>
       </c>
       <c r="E61">
-        <v>0.001945131741944329</v>
+        <v>0.0019451292039132195</v>
       </c>
       <c r="F61">
-        <v>4.831446391958117e-5</v>
+        <v>4.831424214539595e-5</v>
       </c>
       <c r="G61">
-        <v>7.340712198678642</v>
+        <v>7.340712198677357</v>
       </c>
       <c r="H61">
-        <v>4.103099871532823e-5</v>
+        <v>4.103099871532384e-5</v>
       </c>
       <c r="I61">
-        <v>-9.262677510363515e-6</v>
+        <v>-9.262677510357961e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019451293297631188</v>
+        <v>0.001945129329764</v>
       </c>
       <c r="K61">
-        <v>4.8314242507131006e-5</v>
+        <v>4.831424250713277e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>-0.00283813027956235</v>
       </c>
       <c r="B62">
-        <v>7.333704095670762</v>
+        <v>7.333690620575868</v>
       </c>
       <c r="C62">
         <v>3.87113064903532e-5</v>
       </c>
       <c r="D62">
-        <v>-9.174876019756422e-6</v>
+        <v>-9.174903288678255e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019444151731960652</v>
+        <v>0.0019444126691647277</v>
       </c>
       <c r="F62">
-        <v>4.831398952806626e-5</v>
+        <v>4.831376731777156e-5</v>
       </c>
       <c r="G62">
-        <v>7.333690605381517</v>
+        <v>7.333690605380237</v>
       </c>
       <c r="H62">
-        <v>3.8711299331242114e-5</v>
+        <v>3.871129933123774e-5</v>
       </c>
       <c r="I62">
-        <v>-9.174978402196818e-6</v>
+        <v>-9.174978402191195e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019444126704059048</v>
+        <v>0.0019444126704067956</v>
       </c>
       <c r="K62">
-        <v>4.8313767265518166e-5</v>
+        <v>4.831376726551997e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>-0.002254859377841395</v>
       </c>
       <c r="B63">
-        <v>7.326941484901148</v>
+        <v>7.326927989927708</v>
       </c>
       <c r="C63">
         <v>3.644841311560979e-5</v>
       </c>
       <c r="D63">
-        <v>-9.056885355369568e-6</v>
+        <v>-9.056913284232577e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019437211294580032</v>
+        <v>0.0019437186613525468</v>
       </c>
       <c r="F63">
-        <v>4.831365514891653e-5</v>
+        <v>4.831343270549698e-5</v>
       </c>
       <c r="G63">
-        <v>7.326927007252466</v>
+        <v>7.326927007251191</v>
       </c>
       <c r="H63">
-        <v>3.644811753419428e-5</v>
+        <v>3.6448117534189914e-5</v>
       </c>
       <c r="I63">
-        <v>-9.057176343335935e-6</v>
+        <v>-9.05717634333025e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019437185359778562</v>
+        <v>0.001943718535978757</v>
       </c>
       <c r="K63">
-        <v>4.831343225381707e-5</v>
+        <v>4.831343225381892e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>-0.0016738103335076845</v>
       </c>
       <c r="B64">
-        <v>7.320441759084259</v>
+        <v>7.320428255739255</v>
       </c>
       <c r="C64">
         <v>3.4245077782348916e-5</v>
       </c>
       <c r="D64">
-        <v>-8.906362724041965e-6</v>
+        <v>-8.906391157792118e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019430512900279534</v>
+        <v>0.0019430488593960248</v>
       </c>
       <c r="F64">
-        <v>4.831345826963618e-5</v>
+        <v>4.831323578285247e-5</v>
       </c>
       <c r="G64">
-        <v>7.320426323909021</v>
+        <v>7.320426323907751</v>
       </c>
       <c r="H64">
-        <v>3.424449492661531e-5</v>
+        <v>3.4244494926610945e-5</v>
       </c>
       <c r="I64">
-        <v>-8.906841285599885e-6</v>
+        <v>-8.906841285594139e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019430486071499217</v>
+        <v>0.0019430486071508326</v>
       </c>
       <c r="K64">
-        <v>4.8313234950507715e-5</v>
+        <v>4.831323495050962e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>-0.0010948051957500107</v>
       </c>
       <c r="B65">
-        <v>7.314209686656851</v>
+        <v>7.3141961858370514</v>
       </c>
       <c r="C65">
         <v>3.2104324864245845e-5</v>
       </c>
       <c r="D65">
-        <v>-8.720892113288158e-6</v>
+        <v>-8.72092087631025e-6</v>
       </c>
       <c r="E65">
-        <v>0.0019424073285699136</v>
+        <v>0.0019424049366044275</v>
       </c>
       <c r="F65">
-        <v>4.831339651993149e-5</v>
+        <v>4.831317416738367e-5</v>
       </c>
       <c r="G65">
-        <v>7.314193335666418</v>
+        <v>7.314193335665152</v>
       </c>
       <c r="H65">
-        <v>3.210345983884921e-5</v>
+        <v>3.210345983884486e-5</v>
       </c>
       <c r="I65">
-        <v>-8.721554612647754e-6</v>
+        <v>-8.721554612641948e-6</v>
       </c>
       <c r="J65">
-        <v>0.0019424045590367815</v>
+        <v>0.0019424045590377022</v>
       </c>
       <c r="K65">
-        <v>4.8313172976504597e-5</v>
+        <v>4.831317297650655e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>-0.0005176666397195308</v>
       </c>
       <c r="B66">
-        <v>7.3082497727066595</v>
+        <v>7.308236284751117</v>
       </c>
       <c r="C66">
         <v>3.0029119944862788e-5</v>
       </c>
       <c r="D66">
-        <v>-8.49809780018023e-6</v>
+        <v>-8.498126696196171e-6</v>
       </c>
       <c r="E66">
-        <v>0.0019417908908682929</v>
+        <v>0.0019417885384317435</v>
       </c>
       <c r="F66">
-        <v>4.831346762737319e-5</v>
+        <v>4.8313245575515445e-5</v>
       </c>
       <c r="G66">
-        <v>7.308232559298063</v>
+        <v>7.308232559296801</v>
       </c>
       <c r="H66">
-        <v>3.0027982009967682e-5</v>
+        <v>3.0027982009963346e-5</v>
       </c>
       <c r="I66">
-        <v>-8.498937937280883e-6</v>
+        <v>-8.498937937275026e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019417880390217531</v>
+        <v>0.0019417880390226827</v>
       </c>
       <c r="K66">
-        <v>4.831324405221543e-5</v>
+        <v>4.831324405221744e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>5.7782087777367985e-5</v>
       </c>
       <c r="B67">
-        <v>7.302566136381228</v>
+        <v>7.3025526711184625</v>
       </c>
       <c r="C67">
         <v>2.8022323335520698e-5</v>
       </c>
       <c r="D67">
-        <v>-8.235673785231507e-6</v>
+        <v>-8.235702597566559e-6</v>
       </c>
       <c r="E67">
-        <v>0.0019412035717078719</v>
+        <v>0.0019412012593570897</v>
       </c>
       <c r="F67">
-        <v>4.831366937659006e-5</v>
+        <v>4.831344778168348e-5</v>
       </c>
       <c r="G67">
-        <v>7.30254812557364</v>
+        <v>7.302548125572382</v>
       </c>
       <c r="H67">
-        <v>2.8020925940974495e-5</v>
+        <v>2.8020925940970165e-5</v>
       </c>
       <c r="I67">
-        <v>-8.236682576231233e-6</v>
+        <v>-8.236682576225327e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019412006435096725</v>
+        <v>0.0019412006435106115</v>
       </c>
       <c r="K67">
-        <v>4.831344595498895e-5</v>
+        <v>4.831344595499101e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0006317172224110899</v>
       </c>
       <c r="B68">
-        <v>7.2971623917315975</v>
+        <v>7.297148958521201</v>
       </c>
       <c r="C68">
         <v>2.6086643367960267e-5</v>
       </c>
       <c r="D68">
-        <v>-7.93141332354574e-6</v>
+        <v>-7.93144181581219e-6</v>
       </c>
       <c r="E68">
-        <v>0.0019406468913858825</v>
+        <v>0.001940644619397139</v>
       </c>
       <c r="F68">
-        <v>4.831399957222683e-5</v>
+        <v>4.831377858121975e-5</v>
       </c>
       <c r="G68">
-        <v>7.297143659635055</v>
+        <v>7.2971436596338</v>
       </c>
       <c r="H68">
-        <v>2.6085003965863647e-5</v>
+        <v>2.6085003965859323e-5</v>
       </c>
       <c r="I68">
-        <v>-7.932579150474068e-6</v>
+        <v>-7.932579150468115e-6</v>
       </c>
       <c r="J68">
-        <v>0.0019406438944465</v>
+        <v>0.001940643894447448</v>
       </c>
       <c r="K68">
-        <v>4.831377648328565e-5</v>
+        <v>4.831377648328777e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0012043145363023929</v>
       </c>
       <c r="B69">
-        <v>7.292041534430083</v>
+        <v>7.292028142198691</v>
       </c>
       <c r="C69">
         <v>2.422459045648027e-5</v>
       </c>
       <c r="D69">
-        <v>-7.5832379277556005e-6</v>
+        <v>-7.583265844992843e-6</v>
       </c>
       <c r="E69">
-        <v>0.0019401222723951135</v>
+        <v>0.0019401200407894567</v>
       </c>
       <c r="F69">
-        <v>4.831445600583261e-5</v>
+        <v>4.83142357571606e-5</v>
       </c>
       <c r="G69">
-        <v>7.292022167472511</v>
+        <v>7.292022167471258</v>
       </c>
       <c r="H69">
-        <v>2.4222730355292567e-5</v>
+        <v>2.422273035528825e-5</v>
       </c>
       <c r="I69">
-        <v>-7.5845466357066676e-6</v>
+        <v>-7.584546635700676e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019401192159346691</v>
+        <v>0.0019401192159356265</v>
       </c>
       <c r="K69">
-        <v>4.831423342253902e-5</v>
+        <v>4.831423342254122e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.0017757493918539903</v>
       </c>
       <c r="B70">
-        <v>7.287205836685089</v>
+        <v>7.287192493956779</v>
       </c>
       <c r="C70">
         <v>2.243843293499049e-5</v>
       </c>
       <c r="D70">
-        <v>-7.1892252129196085e-6</v>
+        <v>-7.189252283217244e-6</v>
       </c>
       <c r="E70">
-        <v>0.0019396310168334006</v>
+        <v>0.0019396288254021053</v>
       </c>
       <c r="F70">
-        <v>4.831503642678446e-5</v>
+        <v>4.831481705108507e-5</v>
       </c>
       <c r="G70">
-        <v>7.287185930658595</v>
+        <v>7.287185930657345</v>
       </c>
       <c r="H70">
-        <v>2.2436377175798447e-5</v>
+        <v>2.2436377175794134e-5</v>
       </c>
       <c r="I70">
-        <v>-7.1906602793211534e-6</v>
+        <v>-7.190660279315128e-6</v>
       </c>
       <c r="J70">
-        <v>0.00193962791162405</v>
+        <v>0.001939627911625016</v>
       </c>
       <c r="K70">
-        <v>4.8314814516443535e-5</v>
+        <v>4.831481451644581e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.0023461967954566294</v>
       </c>
       <c r="B71">
-        <v>7.282656752509155</v>
+        <v>7.282643467430415</v>
       </c>
       <c r="C71">
         <v>2.073015565692163e-5</v>
       </c>
       <c r="D71">
-        <v>-6.747634966531299e-6</v>
+        <v>-6.747660903143702e-6</v>
       </c>
       <c r="E71">
-        <v>0.0019391742850941034</v>
+        <v>0.0019391721334241232</v>
       </c>
       <c r="F71">
-        <v>4.83157385172968e-5</v>
+        <v>4.831552013803617e-5</v>
       </c>
       <c r="G71">
-        <v>7.282636411491274</v>
+        <v>7.282636411490026</v>
       </c>
       <c r="H71">
-        <v>2.0727932614112957e-5</v>
+        <v>2.0727932614108654e-5</v>
       </c>
       <c r="I71">
-        <v>-6.749177704162676e-6</v>
+        <v>-6.749177704156619e-6</v>
       </c>
       <c r="J71">
-        <v>0.0019391711432847532</v>
+        <v>0.0019391711432857285</v>
       </c>
       <c r="K71">
-        <v>4.831551744205636e-5</v>
+        <v>4.831551744205873e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.002915831451086183</v>
       </c>
       <c r="B72">
-        <v>7.278394835284012</v>
+        <v>7.2783816156436165</v>
       </c>
       <c r="C72">
         <v>1.910142230042654e-5</v>
       </c>
       <c r="D72">
-        <v>-6.2569328568098575e-6</v>
+        <v>-6.256957360751924e-6</v>
       </c>
       <c r="E72">
-        <v>0.0019387530763737705</v>
+        <v>0.001938750963873041</v>
       </c>
       <c r="F72">
-        <v>4.8316559871521183e-5</v>
+        <v>4.831634260553248e-5</v>
       </c>
       <c r="G72">
-        <v>7.278374170202595</v>
+        <v>7.278374170201349</v>
       </c>
       <c r="H72">
-        <v>1.909906331580216e-5</v>
+        <v>1.9099063315797868e-5</v>
       </c>
       <c r="I72">
-        <v>-6.258562681568168e-6</v>
+        <v>-6.258562681562083e-6</v>
       </c>
       <c r="J72">
-        <v>0.001938749911365604</v>
+        <v>0.0019387499113665883</v>
       </c>
       <c r="K72">
-        <v>4.8316339788043096e-5</v>
+        <v>4.831633978804556e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.003484827813808121</v>
       </c>
       <c r="B73">
-        <v>7.274419669314264</v>
+        <v>7.27440652255839</v>
       </c>
       <c r="C73">
         <v>1.7553542248893908e-5</v>
       </c>
       <c r="D73">
-        <v>-5.7158112387003555e-6</v>
+        <v>-5.715834001791775e-6</v>
       </c>
       <c r="E73">
-        <v>0.0019383682114971958</v>
+        <v>0.0019383661374196375</v>
       </c>
       <c r="F73">
-        <v>4.8317497978704535e-5</v>
+        <v>4.8317281936639994e-5</v>
       </c>
       <c r="G73">
-        <v>7.274398796446119</v>
+        <v>7.274398796444877</v>
       </c>
       <c r="H73">
-        <v>1.7551081082106316e-5</v>
+        <v>1.755108108210203e-5</v>
       </c>
       <c r="I73">
-        <v>-5.717505982134934e-6</v>
+        <v>-5.717505982128827e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019383650377282876</v>
+        <v>0.0019383650377292813</v>
       </c>
       <c r="K73">
-        <v>4.831727903818557e-5</v>
+        <v>4.831727903818813e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.004053360143205703</v>
       </c>
       <c r="B74">
-        <v>7.270729816774867</v>
+        <v>7.270716750017894</v>
       </c>
       <c r="C74">
         <v>1.608744281943417e-5</v>
       </c>
       <c r="D74">
-        <v>-5.123206578220537e-6</v>
+        <v>-5.12322728652265e-6</v>
       </c>
       <c r="E74">
-        <v>0.0019380203185075055</v>
+        <v>0.001938018281977552</v>
       </c>
       <c r="F74">
-        <v>4.831855021034475e-5</v>
+        <v>4.8318335497045246e-5</v>
       </c>
       <c r="G74">
-        <v>7.270708856076907</v>
+        <v>7.270708856075667</v>
       </c>
       <c r="H74">
-        <v>1.6084915192184e-5</v>
+        <v>1.6084915192179728e-5</v>
       </c>
       <c r="I74">
-        <v>-5.124942817492208e-6</v>
+        <v>-5.12494281748608e-6</v>
       </c>
       <c r="J74">
-        <v>0.0019380171512421987</v>
+        <v>0.001938017151243202</v>
       </c>
       <c r="K74">
-        <v>4.831833255816353e-5</v>
+        <v>4.831833255816617e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.004621602556748358</v>
       </c>
       <c r="B75">
-        <v>7.267322781143407</v>
+        <v>7.2673098011749335</v>
       </c>
       <c r="C75">
         <v>1.4703647492408837e-5</v>
       </c>
       <c r="D75">
-        <v>-4.478313090265753e-6</v>
+        <v>-4.478331427834901e-6</v>
       </c>
       <c r="E75">
-        <v>0.001937709821401239</v>
+        <v>0.0019377078214377066</v>
       </c>
       <c r="F75">
-        <v>4.8319713811261004e-5</v>
+        <v>4.831950052604909e-5</v>
       </c>
       <c r="G75">
-        <v>7.267301854551555</v>
+        <v>7.2673018545503165</v>
       </c>
       <c r="H75">
-        <v>1.4701090429531685e-5</v>
+        <v>1.4701090429527422e-5</v>
       </c>
       <c r="I75">
-        <v>-4.480066545896107e-6</v>
+        <v>-4.480066545889966e-6</v>
       </c>
       <c r="J75">
-        <v>0.0019377066764740321</v>
+        <v>0.001937706676475046</v>
       </c>
       <c r="K75">
-        <v>4.831949758743855e-5</v>
+        <v>4.831949758744128e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.005189729083116528</v>
       </c>
       <c r="B76">
-        <v>7.264194987872403</v>
+        <v>7.2641821011609755</v>
       </c>
       <c r="C76">
         <v>1.3402260656667653e-5</v>
       </c>
       <c r="D76">
-        <v>-3.780592270645771e-6</v>
+        <v>-3.780607923506098e-6</v>
       </c>
       <c r="E76">
-        <v>0.0019374369323078332</v>
+        <v>0.001937434967846924</v>
       </c>
       <c r="F76">
-        <v>4.832098589448032e-5</v>
+        <v>4.832077413138365e-5</v>
       </c>
       <c r="G76">
-        <v>7.264174217603292</v>
+        <v>7.264174217602056</v>
       </c>
       <c r="H76">
-        <v>1.3399711977098824e-5</v>
+        <v>1.3399711977094577e-5</v>
       </c>
       <c r="I76">
-        <v>-3.7823381891759797e-6</v>
+        <v>-3.782338189169828e-6</v>
       </c>
       <c r="J76">
-        <v>0.0019374338258108885</v>
+        <v>0.001937433825811912</v>
       </c>
       <c r="K76">
-        <v>4.832077123291895e-5</v>
+        <v>4.832077123292178e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.005757913715499295</v>
       </c>
       <c r="B77">
-        <v>7.261341782705879</v>
+        <v>7.261328995400043</v>
       </c>
       <c r="C77">
         <v>1.2182959231899941e-5</v>
       </c>
       <c r="D77">
-        <v>-3.029778097617084e-6</v>
+        <v>-3.0297907578414553e-6</v>
       </c>
       <c r="E77">
-        <v>0.001937201647322173</v>
+        <v>0.001937199717239423</v>
       </c>
       <c r="F77">
-        <v>4.8322363439827904e-5</v>
+        <v>4.8322153287741884e-5</v>
       </c>
       <c r="G77">
-        <v>7.261321289261404</v>
+        <v>7.26132128926017</v>
       </c>
       <c r="H77">
-        <v>1.2180456833469755e-5</v>
+        <v>1.2180456833465522e-5</v>
       </c>
       <c r="I77">
-        <v>-3.0314916538587066e-6</v>
+        <v>-3.0314916538525495e-6</v>
       </c>
       <c r="J77">
-        <v>0.001937198595380013</v>
+        <v>0.001937198595381047</v>
       </c>
       <c r="K77">
-        <v>4.832215046794341e-5</v>
+        <v>4.832215046794633e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.006326330464881163</v>
       </c>
       <c r="B78">
-        <v>7.258757447684962</v>
+        <v>7.258744765612207</v>
       </c>
       <c r="C78">
         <v>1.1044991365809253e-5</v>
       </c>
       <c r="D78">
-        <v>-2.2258777788892302e-6</v>
+        <v>-2.225887148666849e-6</v>
       </c>
       <c r="E78">
-        <v>0.001937003746101117</v>
+        <v>0.001937001849232074</v>
       </c>
       <c r="F78">
-        <v>4.8323843296097935e-5</v>
+        <v>4.83236348388967e-5</v>
       </c>
       <c r="G78">
-        <v>7.258737348325464</v>
+        <v>7.258737348324233</v>
       </c>
       <c r="H78">
-        <v>1.1042572597497138e-5</v>
+        <v>1.104257259749292e-5</v>
       </c>
       <c r="I78">
-        <v>-2.227534478431093e-6</v>
+        <v>-2.227534478424936e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019370007645200364</v>
+        <v>0.0019370007645210807</v>
       </c>
       <c r="K78">
-        <v>4.832363213480114e-5</v>
+        <v>4.8323632134804155e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.006895153413334281</v>
       </c>
       <c r="B79">
-        <v>7.256435234525812</v>
+        <v>7.256422663189997</v>
       </c>
       <c r="C79">
         <v>9.987182234415352e-6</v>
       </c>
       <c r="D79">
-        <v>-1.369168024257743e-6</v>
+        <v>-1.3691738198232823e-6</v>
       </c>
       <c r="E79">
-        <v>0.0019368427952335156</v>
+        <v>0.0019368409303929719</v>
       </c>
       <c r="F79">
-        <v>4.832542218666696e-5</v>
+        <v>4.832521550327285e-5</v>
       </c>
       <c r="G79">
-        <v>7.2564156413966225</v>
+        <v>7.256415641395393</v>
       </c>
       <c r="H79">
-        <v>9.9848833462763e-6</v>
+        <v>9.984883346272097e-6</v>
       </c>
       <c r="I79">
-        <v>-1.3707441281949078e-6</v>
+        <v>-1.3707441281887537e-6</v>
       </c>
       <c r="J79">
-        <v>0.0019368398992957816</v>
+        <v>0.001936839899296836</v>
       </c>
       <c r="K79">
-        <v>4.8325212949755745e-5</v>
+        <v>4.832521294975884e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.007464556767332434</v>
       </c>
       <c r="B80">
-        <v>7.2543674146967225</v>
+        <v>7.254354959274558</v>
       </c>
       <c r="C80">
         <v>9.007946803561888e-6</v>
       </c>
       <c r="D80">
-        <v>-4.6018692878921333e-7</v>
+        <v>-4.6018888409155835e-7</v>
       </c>
       <c r="E80">
-        <v>0.0019367181552918471</v>
+        <v>0.0019367163212914357</v>
       </c>
       <c r="F80">
-        <v>4.832709671839645e-5</v>
+        <v>4.832689188281798e-5</v>
       </c>
       <c r="G80">
-        <v>7.254348433279757</v>
+        <v>7.254348433278531</v>
       </c>
       <c r="H80">
-        <v>9.005802305201563e-6</v>
+        <v>9.005802305197374e-6</v>
       </c>
       <c r="I80">
-        <v>-4.616598253470772e-7</v>
+        <v>-4.616598253409301e-7</v>
       </c>
       <c r="J80">
-        <v>0.0019367153594377804</v>
+        <v>0.0019367153594388445</v>
       </c>
       <c r="K80">
-        <v>4.832688951228489e-5</v>
+        <v>4.832688951228807e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.00803471491110315</v>
       </c>
       <c r="B81">
-        <v>7.252545345176803</v>
+        <v>7.252533010513952</v>
       </c>
       <c r="C81">
         <v>8.10530924357935e-6</v>
       </c>
       <c r="D81">
-        <v>5.002783460164796e-7</v>
+        <v>5.002804760179809e-7</v>
       </c>
       <c r="E81">
-        <v>0.0019366289913756896</v>
+        <v>0.0019366271870397134</v>
       </c>
       <c r="F81">
-        <v>4.832886339364871e-5</v>
+        <v>4.832866047499722e-5</v>
       </c>
       <c r="G81">
-        <v>7.252527072922899</v>
+        <v>7.252527072921675</v>
       </c>
       <c r="H81">
-        <v>8.103351373031379e-6</v>
+        <v>8.103351373027208e-6</v>
       </c>
       <c r="I81">
-        <v>4.989297987634474e-7</v>
+        <v>4.989297987695832e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019366263089555327</v>
+        <v>0.0019366263089566063</v>
       </c>
       <c r="K81">
-        <v>4.832865831708696e-5</v>
+        <v>4.832865831709023e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.008605802460034225</v>
       </c>
       <c r="B82">
-        <v>7.250959548553535</v>
+        <v>7.250947339160844</v>
       </c>
       <c r="C82">
         <v>7.276928531823455e-6</v>
       </c>
       <c r="D82">
-        <v>1.5112078082698488e-6</v>
+        <v>1.5112142447773628e-6</v>
       </c>
       <c r="E82">
-        <v>0.0019365742868663169</v>
+        <v>0.001936572511045689</v>
       </c>
       <c r="F82">
-        <v>4.833071862521355e-5</v>
+        <v>4.83305176877081e-5</v>
       </c>
       <c r="G82">
-        <v>7.250942073470129</v>
+        <v>7.250942073468908</v>
       </c>
       <c r="H82">
-        <v>7.275186716189268e-6</v>
+        <v>7.275186716185115e-6</v>
       </c>
       <c r="I82">
-        <v>1.5100029356979286e-6</v>
+        <v>1.5100029357040494e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019365717299494973</v>
+        <v>0.0019365717299505804</v>
       </c>
       <c r="K82">
-        <v>4.83305157688325e-5</v>
+        <v>4.833051576883584e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.009177994314151044</v>
       </c>
       <c r="B83">
-        <v>7.249599805818094</v>
+        <v>7.24958772586843</v>
       </c>
       <c r="C83">
         <v>6.520129634001396e-6</v>
       </c>
       <c r="D83">
-        <v>2.5713684145287023e-6</v>
+        <v>2.5713793526217977e-6</v>
       </c>
       <c r="E83">
-        <v>0.0019365528600306834</v>
+        <v>0.0019365511116149021</v>
       </c>
       <c r="F83">
-        <v>4.8332658753908624e-5</v>
+        <v>4.833245985687818e-5</v>
       </c>
       <c r="G83">
-        <v>7.249583205492255</v>
+        <v>7.249583205491036</v>
       </c>
       <c r="H83">
-        <v>6.518630126266373e-6</v>
+        <v>6.518630126262238e-6</v>
       </c>
       <c r="I83">
-        <v>2.570324459959913e-6</v>
+        <v>2.5703244599660153e-6</v>
       </c>
       <c r="J83">
-        <v>0.001936550439197505</v>
+        <v>0.0019365504391985976</v>
       </c>
       <c r="K83">
-        <v>4.833245820012279e-5</v>
+        <v>4.8332458200126194e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.00975146571168109</v>
       </c>
       <c r="B84">
-        <v>7.248455259952944</v>
+        <v>7.248443313279075</v>
       </c>
       <c r="C84">
         <v>5.831939528956628e-6</v>
       </c>
       <c r="D84">
-        <v>3.6793369377247452e-6</v>
+        <v>3.6793525446705508e-6</v>
       </c>
       <c r="E84">
-        <v>0.0019365633830447666</v>
+        <v>0.001936561660971891</v>
       </c>
       <c r="F84">
-        <v>4.8334680068577585e-5</v>
+        <v>4.833448326646839e-5</v>
       </c>
       <c r="G84">
-        <v>7.2484396006419365</v>
+        <v>7.248439600640721</v>
       </c>
       <c r="H84">
-        <v>5.830705006565834e-6</v>
+        <v>5.830705006561716e-6</v>
       </c>
       <c r="I84">
-        <v>3.678468837890045e-6</v>
+        <v>3.678468837896126e-6</v>
       </c>
       <c r="J84">
-        <v>0.0019365611072302725</v>
+        <v>0.0019365611072313744</v>
       </c>
       <c r="K84">
-        <v>4.833448189124353e-5</v>
+        <v>4.8334481891247014e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.010326392282722006</v>
       </c>
       <c r="B85">
-        <v>7.247514528183163</v>
+        <v>7.247502718277023</v>
       </c>
       <c r="C85">
         <v>5.2091272364998595e-6</v>
       </c>
       <c r="D85">
-        <v>4.8335254037070865e-6</v>
+        <v>4.833545817890128e-6</v>
       </c>
       <c r="E85">
-        <v>0.0019366044029525927</v>
+        <v>0.0019366027062172242</v>
       </c>
       <c r="F85">
-        <v>4.833677882816497e-5</v>
+        <v>4.83365841705602e-5</v>
       </c>
       <c r="G85">
-        <v>7.247499864195736</v>
+        <v>7.247499864194523</v>
       </c>
       <c r="H85">
-        <v>5.208176556767914e-6</v>
+        <v>5.2081765567638124e-6</v>
       </c>
       <c r="I85">
-        <v>4.832845615476491e-6</v>
+        <v>4.8328456154825484e-6</v>
       </c>
       <c r="J85">
-        <v>0.001936602279351674</v>
+        <v>0.0019366022793527852</v>
       </c>
       <c r="K85">
-        <v>4.833658309266749e-5</v>
+        <v>4.833658309267107e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.010902950103029704</v>
       </c>
       <c r="B86">
-        <v>7.246765820587929</v>
+        <v>7.246754150601586</v>
       </c>
       <c r="C86">
         <v>4.64824692692073e-6</v>
       </c>
       <c r="D86">
-        <v>6.032208523575224e-6</v>
+        <v>6.032233854045166e-6</v>
       </c>
       <c r="E86">
-        <v>0.0019366743640398805</v>
+        <v>0.0019366726916992074</v>
       </c>
       <c r="F86">
-        <v>4.833895128550047e-5</v>
+        <v>4.83387588171577e-5</v>
       </c>
       <c r="G86">
-        <v>7.246752193882035</v>
+        <v>7.246752193880826</v>
       </c>
       <c r="H86">
-        <v>4.647594922254288e-6</v>
+        <v>4.6475949222502036e-6</v>
       </c>
       <c r="I86">
-        <v>6.03172686635246e-6</v>
+        <v>6.03172686635849e-6</v>
       </c>
       <c r="J86">
-        <v>0.001936672398012294</v>
+        <v>0.001936672398013415</v>
       </c>
       <c r="K86">
-        <v>4.833875804847763e-5</v>
+        <v>4.8338758048481276e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.011481315747942943</v>
       </c>
       <c r="B87">
-        <v>7.246197062647686</v>
+        <v>7.246185535396215</v>
       </c>
       <c r="C87">
         <v>4.145683136205135e-6</v>
       </c>
       <c r="D87">
-        <v>7.273552512513676e-6</v>
+        <v>7.273582839125968e-6</v>
       </c>
       <c r="E87">
-        <v>0.0019367716310808869</v>
+        <v>0.0019367699822588798</v>
       </c>
       <c r="F87">
-        <v>4.834119371237747e-5</v>
+        <v>4.8341003473288575e-5</v>
       </c>
       <c r="G87">
-        <v>7.246184502734836</v>
+        <v>7.246184502733631</v>
       </c>
       <c r="H87">
-        <v>4.145340537636386e-6</v>
+        <v>4.145340537632319e-6</v>
       </c>
       <c r="I87">
-        <v>7.273276157892805e-6</v>
+        <v>7.273276157898805e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019367698261417154</v>
+        <v>0.0019367698261428456</v>
       </c>
       <c r="K87">
-        <v>4.834100302185426e-5</v>
+        <v>4.8341003021858e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.012061666346460883</v>
       </c>
       <c r="B88">
-        <v>7.245796019240653</v>
+        <v>7.24578463720709</v>
       </c>
       <c r="C88">
         <v>3.697697084116364e-6</v>
       </c>
       <c r="D88">
-        <v>8.555644666286967e-6</v>
+        <v>8.555680040389101e-6</v>
       </c>
       <c r="E88">
-        <v>0.0019368945129138553</v>
+        <v>0.0019368928868037315</v>
       </c>
       <c r="F88">
-        <v>4.834350242546734e-5</v>
+        <v>4.8343314450943705e-5</v>
       </c>
       <c r="G88">
-        <v>7.245784543269192</v>
+        <v>7.245784543267991</v>
       </c>
       <c r="H88">
-        <v>3.6976705116086783e-6</v>
+        <v>3.6976705116046295e-6</v>
       </c>
       <c r="I88">
-        <v>8.555578093346161e-6</v>
+        <v>8.55557809335213e-6</v>
       </c>
       <c r="J88">
-        <v>0.0019368928707346423</v>
+        <v>0.001936892870735782</v>
       </c>
       <c r="K88">
-        <v>4.834331432103627e-5</v>
+        <v>4.834331432104008e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.012644179635490246</v>
       </c>
       <c r="B89">
-        <v>7.2455504176031615</v>
+        <v>7.245539182945581</v>
       </c>
       <c r="C89">
         <v>3.3004730936994757e-6</v>
       </c>
       <c r="D89">
-        <v>9.8765230644248e-6</v>
+        <v>9.876563510024294e-6</v>
       </c>
       <c r="E89">
-        <v>0.0019370412858139537</v>
+        <v>0.0019370396816790827</v>
       </c>
       <c r="F89">
-        <v>4.83458738125726e-5</v>
+        <v>4.8345688133357376e-5</v>
       </c>
       <c r="G89">
-        <v>7.245540030684325</v>
+        <v>7.245540030683128</v>
       </c>
       <c r="H89">
-        <v>3.300765133460383e-6</v>
+        <v>3.3007651334563524e-6</v>
       </c>
       <c r="I89">
-        <v>9.876668112188837e-6</v>
+        <v>9.876668112194771e-6</v>
       </c>
       <c r="J89">
-        <v>0.001937039806279114</v>
+        <v>0.001937039806280263</v>
       </c>
       <c r="K89">
-        <v>4.834568832556256e-5</v>
+        <v>4.8345688325566486e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.013229034014278628</v>
       </c>
       <c r="B90">
-        <v>7.245448066833521</v>
+        <v>7.245436981394256</v>
       </c>
       <c r="C90">
         <v>2.950164140045653e-6</v>
       </c>
       <c r="D90">
-        <v>1.1234205784384e-5</v>
+        <v>1.1234251299721558e-5</v>
       </c>
       <c r="E90">
-        <v>0.0019372102161617044</v>
+        <v>0.0019372086333351184</v>
       </c>
       <c r="F90">
-        <v>4.834830435869461e-5</v>
+        <v>4.83481210011028e-5</v>
       </c>
       <c r="G90">
-        <v>7.245438762648396</v>
+        <v>7.245438762647205</v>
       </c>
       <c r="H90">
-        <v>2.950773504163334e-6</v>
+        <v>2.950773504159321e-6</v>
       </c>
       <c r="I90">
-        <v>1.1234561779887252e-5</v>
+        <v>1.1234561779893151e-5</v>
       </c>
       <c r="J90">
-        <v>0.001937208897461284</v>
+        <v>0.0019372088974624424</v>
       </c>
       <c r="K90">
-        <v>4.8348121512500615e-5</v>
+        <v>4.834812151250463e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.013816408599050652</v>
       </c>
       <c r="B91">
-        <v>7.245476971648651</v>
+        <v>7.245466036965577</v>
       </c>
       <c r="C91">
         <v>2.642935612018863e-6</v>
       </c>
       <c r="D91">
-        <v>1.262671904302452e-5</v>
+        <v>1.2626769602467926e-5</v>
       </c>
       <c r="E91">
-        <v>0.001937399581947874</v>
+        <v>0.001937398019830586</v>
       </c>
       <c r="F91">
-        <v>4.835079067137704e-5</v>
+        <v>4.83506096574623e-5</v>
       </c>
       <c r="G91">
-        <v>7.245468733224883</v>
+        <v>7.245468733223697</v>
       </c>
       <c r="H91">
-        <v>2.6438573927317147e-6</v>
+        <v>2.64385739272772e-6</v>
       </c>
       <c r="I91">
-        <v>1.2627282927912587e-5</v>
+        <v>1.262728292791845e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019373984207000762</v>
+        <v>0.001937398420701244</v>
       </c>
       <c r="K91">
-        <v>4.835061048186968e-5</v>
+        <v>4.8350610481873796e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.01440648327786373</v>
       </c>
       <c r="B92">
-        <v>7.24562543829388</v>
+        <v>7.245614655613628</v>
       </c>
       <c r="C92">
         <v>2.375006450929322e-6</v>
       </c>
       <c r="D92">
-        <v>1.405212372943127e-5</v>
+        <v>1.4052179285603272e-5</v>
       </c>
       <c r="E92">
-        <v>0.0019376076927106944</v>
+        <v>0.0019376061507690222</v>
       </c>
       <c r="F92">
-        <v>4.8353329504786726e-5</v>
+        <v>4.835315085253368e-5</v>
       </c>
       <c r="G92">
-        <v>7.2456182389252906</v>
+        <v>7.24561823892411</v>
       </c>
       <c r="H92">
-        <v>2.376232396985123e-6</v>
+        <v>2.376232396981146e-6</v>
       </c>
       <c r="I92">
-        <v>1.4052890267975554e-5</v>
+        <v>1.4052890267981389e-5</v>
       </c>
       <c r="J92">
-        <v>0.001937606684106111</v>
+        <v>0.001937606684107288</v>
       </c>
       <c r="K92">
-        <v>4.835315198073957e-5</v>
+        <v>4.835315198074376e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.01499943876570018</v>
       </c>
       <c r="B93">
-        <v>7.245882170754365</v>
+        <v>7.245871541047262</v>
       </c>
       <c r="C93">
         <v>2.1426869318531485e-6</v>
       </c>
       <c r="D93">
-        <v>1.5508539854767634e-5</v>
+        <v>1.5508600340822716e-5</v>
       </c>
       <c r="E93">
-        <v>0.0019378329075655375</v>
+        <v>0.001937831385327638</v>
       </c>
       <c r="F93">
-        <v>4.8355917782013243e-5</v>
+        <v>4.835574150555236e-5</v>
       </c>
       <c r="G93">
-        <v>7.245875975092082</v>
+        <v>7.2458759750909065</v>
       </c>
       <c r="H93">
-        <v>2.1442058197967617e-6</v>
+        <v>2.1442058197928023e-6</v>
       </c>
       <c r="I93">
-        <v>1.5509501839395397e-5</v>
+        <v>1.55095018394012e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019378320455406</v>
+        <v>0.0019378320455417863</v>
       </c>
       <c r="K93">
-        <v>4.835574292565871e-5</v>
+        <v>4.8355742925662985e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.01559545665981258</v>
       </c>
       <c r="B94">
-        <v>7.246236355714236</v>
+        <v>7.246225879690731</v>
       </c>
       <c r="C94">
         <v>1.9424124727518804e-6</v>
       </c>
       <c r="D94">
-        <v>1.6994168518284353e-5</v>
+        <v>1.6994233850253716e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019380736510582776</v>
+        <v>0.0019380721481100844</v>
       </c>
       <c r="F94">
-        <v>4.835855261510531e-5</v>
+        <v>4.83583787249473e-5</v>
       </c>
       <c r="G94">
-        <v>7.246231121013706</v>
+        <v>7.246231121012536</v>
       </c>
       <c r="H94">
-        <v>1.9442105065813087e-6</v>
+        <v>1.944210506577368e-6</v>
       </c>
       <c r="I94">
-        <v>1.699531704931604e-5</v>
+        <v>1.6995317049321817e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019380729284915947</v>
+        <v>0.00193807292849279</v>
       </c>
       <c r="K94">
-        <v>4.835838042273545e-5</v>
+        <v>4.835838042273981e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.016194719495339398</v>
       </c>
       <c r="B95">
-        <v>7.246677735047285</v>
+        <v>7.2466674131755795</v>
       </c>
       <c r="C95">
         <v>1.7707729894417798e-6</v>
       </c>
       <c r="D95">
-        <v>1.8507311071243187e-5</v>
+        <v>1.8507381150377056e-5</v>
       </c>
       <c r="E95">
-        <v>0.001938328426648649</v>
+        <v>0.0019383269426294053</v>
       </c>
       <c r="F95">
-        <v>4.836123132241869e-5</v>
+        <v>4.8361059825704476e-5</v>
       </c>
       <c r="G95">
-        <v>7.246673412387201</v>
+        <v>7.246673412386037</v>
       </c>
       <c r="H95">
-        <v>1.7728342172156052e-6</v>
+        <v>1.7728342172116826e-6</v>
       </c>
       <c r="I95">
-        <v>1.850863582931601e-5</v>
+        <v>1.850863582932176e-5</v>
       </c>
       <c r="J95">
-        <v>0.001938327835555614</v>
+        <v>0.0019383278355568183</v>
       </c>
       <c r="K95">
-        <v>4.836106178501228e-5</v>
+        <v>4.836106178501673e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.01679741080120775</v>
       </c>
       <c r="B96">
-        <v>7.247196664989573</v>
+        <v>7.2471864975141465</v>
       </c>
       <c r="C96">
         <v>1.6245374560889814e-6</v>
       </c>
       <c r="D96">
-        <v>2.004638524942741e-5</v>
+        <v>2.0046459964472093e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019385958277063162</v>
+        <v>0.0019385943623038636</v>
       </c>
       <c r="F96">
-        <v>4.836395144292303e-5</v>
+        <v>4.836378234368517e-5</v>
       </c>
       <c r="G96">
-        <v>7.2471932005795425</v>
+        <v>7.247193200578385</v>
       </c>
       <c r="H96">
-        <v>1.6268442172415787e-6</v>
+        <v>1.6268442172376747e-6</v>
       </c>
       <c r="I96">
-        <v>2.0047874789678822e-5</v>
+        <v>2.0047874789684555e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019385953594359836</v>
+        <v>0.0019385953594371974</v>
       </c>
       <c r="K96">
-        <v>4.836378454679492e-5</v>
+        <v>4.8363784546799465e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.017403715156340573</v>
       </c>
       <c r="B97">
-        <v>7.247784161526692</v>
+        <v>7.2477741484874025</v>
       </c>
       <c r="C97">
         <v>1.5006734762769876e-6</v>
       </c>
       <c r="D97">
-        <v>2.160993813696791e-5</v>
+        <v>2.1610017366327826e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019388745459773538</v>
+        <v>0.0019388730989233292</v>
       </c>
       <c r="F97">
-        <v>4.836671074720305e-5</v>
+        <v>4.836654404663419e-5</v>
       </c>
       <c r="G97">
-        <v>7.247781498106593</v>
+        <v>7.247781498105442</v>
       </c>
       <c r="H97">
-        <v>1.5032068505899529e-6</v>
+        <v>1.5032068505860677e-6</v>
       </c>
       <c r="I97">
-        <v>2.161158015982654e-5</v>
+        <v>2.161158015983225e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019388741914311701</v>
+        <v>0.0019388741914323935</v>
       </c>
       <c r="K97">
-        <v>4.836654647469894e-5</v>
+        <v>4.8366546474703573e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.018013818246185413</v>
       </c>
       <c r="B98">
-        <v>7.248431931913068</v>
+        <v>7.248422073164499</v>
       </c>
       <c r="C98">
         <v>1.3963618137702502e-6</v>
       </c>
       <c r="D98">
-        <v>2.319665591619237e-5</v>
+        <v>2.319673952993839e-5</v>
       </c>
       <c r="E98">
-        <v>0.001939163377550019</v>
+        <v>0.0019391619486150886</v>
       </c>
       <c r="F98">
-        <v>4.836950724498794e-5</v>
+        <v>4.836934294171191e-5</v>
       </c>
       <c r="G98">
-        <v>7.248430009942605</v>
+        <v>7.248430009941461</v>
       </c>
       <c r="H98">
-        <v>1.3991020571170248e-6</v>
+        <v>1.3991020571131588e-6</v>
       </c>
       <c r="I98">
-        <v>2.319843754780835e-5</v>
+        <v>2.319843754781403e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019391631273631045</v>
+        <v>0.0019391631273643377</v>
       </c>
       <c r="K98">
-        <v>4.836934557515597e-5</v>
+        <v>4.8369345575160715e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.018627906919582014</v>
       </c>
       <c r="B99">
-        <v>7.249132392613428</v>
+        <v>7.249122687844171</v>
       </c>
       <c r="C99">
         <v>1.309005969990929e-6</v>
       </c>
       <c r="D99">
-        <v>2.480537044691993e-5</v>
+        <v>2.4805458308616695e-5</v>
       </c>
       <c r="E99">
-        <v>0.001939461226413849</v>
+        <v>0.0019394598154030863</v>
       </c>
       <c r="F99">
-        <v>4.837233918914819e-5</v>
+        <v>4.8372177279489506e-5</v>
       </c>
       <c r="G99">
-        <v>7.249131151546334</v>
+        <v>7.249131151545196</v>
       </c>
       <c r="H99">
-        <v>1.311932933982115e-6</v>
+        <v>1.311932933978268e-6</v>
       </c>
       <c r="I99">
-        <v>2.480727856100474e-5</v>
+        <v>2.48072785610104e-5</v>
       </c>
       <c r="J99">
-        <v>0.001939461071147096</v>
+        <v>0.0019394610711483387</v>
       </c>
       <c r="K99">
-        <v>4.837218009836255e-5</v>
+        <v>4.83721800983674e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.01924616924598621</v>
       </c>
       <c r="B100">
-        <v>7.249878674304087</v>
+        <v>7.249869123055647</v>
       </c>
       <c r="C100">
         <v>1.2362370223791709e-6</v>
       </c>
       <c r="D100">
-        <v>2.6435062801078794e-5</v>
+        <v>2.643515476941475e-5</v>
       </c>
       <c r="E100">
-        <v>0.0019397671057634492</v>
+        <v>0.0019397657125119346</v>
       </c>
       <c r="F100">
-        <v>4.837520507620619e-5</v>
+        <v>4.837504555445388e-5</v>
       </c>
       <c r="G100">
-        <v>7.249878053687798</v>
+        <v>7.249878053686667</v>
       </c>
       <c r="H100">
-        <v>1.239330538779305e-6</v>
+        <v>1.239330538775477e-6</v>
       </c>
       <c r="I100">
-        <v>2.643708420289006e-5</v>
+        <v>2.6437084202895695e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019397670360718868</v>
+        <v>0.0019397670360731395</v>
       </c>
       <c r="K100">
-        <v>4.837504853882304e-5</v>
+        <v>4.8375048538828e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.0198687945730677</v>
       </c>
       <c r="B101">
-        <v>7.250664614881521</v>
+        <v>7.2506552165666065</v>
       </c>
       <c r="C101">
         <v>1.1759140502105438e-6</v>
       </c>
       <c r="D101">
-        <v>2.8084863952032363e-5</v>
+        <v>2.8084959882245443e-5</v>
       </c>
       <c r="E101">
-        <v>0.0019400801372463524</v>
+        <v>0.0019400787616150588</v>
       </c>
       <c r="F101">
-        <v>4.83781036435102e-5</v>
+        <v>4.8377946502172335e-5</v>
       </c>
       <c r="G101">
-        <v>7.250664555407912</v>
+        <v>7.250664555406789</v>
       </c>
       <c r="H101">
-        <v>1.1791542832787055e-6</v>
+        <v>1.1791542832748964e-6</v>
       </c>
       <c r="I101">
-        <v>2.8086985657905065e-5</v>
+        <v>2.808698565791068e-5</v>
       </c>
       <c r="J101">
-        <v>0.001940080144023097</v>
+        <v>0.0019400801440243593</v>
       </c>
       <c r="K101">
-        <v>4.83779496324518e-5</v>
+        <v>4.837794963245686e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>0.020495973584699234</v>
       </c>
       <c r="B102">
-        <v>7.251484741687362</v>
+        <v>7.251475495607286</v>
       </c>
       <c r="C102">
         <v>1.1261205687943617e-6</v>
       </c>
       <c r="D102">
-        <v>2.9754052880304634e-5</v>
+        <v>2.9754152625404533e-5</v>
       </c>
       <c r="E102">
-        <v>0.0019403995483920843</v>
+        <v>0.001940398190264096</v>
       </c>
       <c r="F102">
-        <v>4.83810338633168e-5</v>
+        <v>4.83808790933626e-5</v>
       </c>
       <c r="G102">
-        <v>7.251485186040303</v>
+        <v>7.251485186039187</v>
       </c>
       <c r="H102">
-        <v>1.1294883205617704e-6</v>
+        <v>1.1294883205579801e-6</v>
       </c>
       <c r="I102">
-        <v>2.9756262312174807e-5</v>
+        <v>2.9756262312180394e-5</v>
       </c>
       <c r="J102">
-        <v>0.0019403996228969098</v>
+        <v>0.001940399622898182</v>
       </c>
       <c r="K102">
-        <v>4.8380882350590664e-5</v>
+        <v>4.838088235059583e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3990,34 +3990,34 @@
         <v>0.021127898359355038</v>
       </c>
       <c r="B103">
-        <v>7.2523342443642385</v>
+        <v>7.252325149725262</v>
       </c>
       <c r="C103">
         <v>1.0851574668107417e-6</v>
       </c>
       <c r="D103">
-        <v>3.1442052406777744e-5</v>
+        <v>3.144215581857263e-5</v>
       </c>
       <c r="E103">
-        <v>0.0019407246684864604</v>
+        <v>0.0019407233277635408</v>
       </c>
       <c r="F103">
-        <v>4.8383994934109215e-5</v>
+        <v>4.838384252519602e-5</v>
       </c>
       <c r="G103">
-        <v>7.252335137928757</v>
+        <v>7.252335137927648</v>
       </c>
       <c r="H103">
-        <v>1.0886344338129828e-6</v>
+        <v>1.0886344338092114e-6</v>
       </c>
       <c r="I103">
-        <v>3.1444337532102744e-5</v>
+        <v>3.144433753210831e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019407248024506227</v>
+        <v>0.0019407248024519046</v>
       </c>
       <c r="K103">
-        <v>4.838384589126949e-5</v>
+        <v>4.8383845891274764e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.021764762428936386</v>
       </c>
       <c r="B104">
-        <v>7.253208939900571</v>
+        <v>7.253199995829022</v>
       </c>
       <c r="C104">
         <v>1.0515329933475969e-6</v>
       </c>
       <c r="D104">
-        <v>3.3148423099785366e-5</v>
+        <v>3.314853002972559e-5</v>
       </c>
       <c r="E104">
-        <v>0.0019410549231710281</v>
+        <v>0.001941053599770552</v>
       </c>
       <c r="F104">
-        <v>4.838698626954527e-5</v>
+        <v>4.838683621022844e-5</v>
       </c>
       <c r="G104">
-        <v>7.253210231408154</v>
+        <v>7.253210231407054</v>
       </c>
       <c r="H104">
-        <v>1.0551019712750523e-6</v>
+        <v>1.0551019712713003e-6</v>
       </c>
       <c r="I104">
-        <v>3.3150772629566106e-5</v>
+        <v>3.315077262957165e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019410551088814602</v>
+        <v>0.0019410551088827517</v>
       </c>
       <c r="K104">
-        <v>4.838683966811442e-5</v>
+        <v>4.838683966811977e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4060,34 +4060,34 @@
         <v>0.02240676083804223</v>
       </c>
       <c r="B105">
-        <v>7.254105231501995</v>
+        <v>7.254096437058058</v>
       </c>
       <c r="C105">
         <v>1.0239503704505589e-6</v>
       </c>
       <c r="D105">
-        <v>3.4872855623367046e-5</v>
+        <v>3.487296592322209e-5</v>
       </c>
       <c r="E105">
-        <v>0.0019413898280528437</v>
+        <v>0.0019413885219050882</v>
       </c>
       <c r="F105">
-        <v>4.839000748547604e-5</v>
+        <v>4.838985976340012e-5</v>
       </c>
       <c r="G105">
-        <v>7.2541068734273075</v>
+        <v>7.254106873426215</v>
       </c>
       <c r="H105">
-        <v>1.0275954094816175e-6</v>
+        <v>1.0275954094778853e-6</v>
       </c>
       <c r="I105">
-        <v>3.487525903846134e-5</v>
+        <v>3.487525903846686e-5</v>
       </c>
       <c r="J105">
-        <v>0.001941390058410868</v>
+        <v>0.00194139005841217</v>
       </c>
       <c r="K105">
-        <v>4.8389863297298835e-5</v>
+        <v>4.8389863297304256e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.023054090203703095</v>
       </c>
       <c r="B106">
-        <v>7.2550200629435455</v>
+        <v>7.255011417133657</v>
       </c>
       <c r="C106">
         <v>1.0012936141668964e-6</v>
       </c>
       <c r="D106">
-        <v>3.6615161900483255e-5</v>
+        <v>3.661527542287026e-5</v>
       </c>
       <c r="E106">
-        <v>0.001941728981605043</v>
+        <v>0.0019417276926508235</v>
       </c>
       <c r="F106">
-        <v>4.839305838550318e-5</v>
+        <v>4.8392912987573604e-5</v>
       </c>
       <c r="G106">
-        <v>7.255022011792276</v>
+        <v>7.2550220117911906</v>
       </c>
       <c r="H106">
-        <v>1.0050001212637362e-6</v>
+        <v>1.0050001212600237e-6</v>
       </c>
       <c r="I106">
-        <v>3.6617609533912424e-5</v>
+        <v>3.661760953391791e-5</v>
       </c>
       <c r="J106">
-        <v>0.0019417292501578743</v>
+        <v>0.0019417292501591864</v>
       </c>
       <c r="K106">
-        <v>4.839291658299429e-5</v>
+        <v>4.839291658299979e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.023706948775596634</v>
       </c>
       <c r="B107">
-        <v>7.2559508700135495</v>
+        <v>7.255942371801354</v>
       </c>
       <c r="C107">
         <v>9.826121335606795e-7</v>
       </c>
       <c r="D107">
-        <v>3.837526545802065e-5</v>
+        <v>3.83753820568039e-5</v>
       </c>
       <c r="E107">
-        <v>0.001942072057625105</v>
+        <v>0.0019420707858137393</v>
       </c>
       <c r="F107">
-        <v>4.839613894554982e-5</v>
+        <v>4.839599585808471e-5</v>
       </c>
       <c r="G107">
-        <v>7.255953086495537</v>
+        <v>7.25595308649446</v>
       </c>
       <c r="H107">
-        <v>9.863669289594356e-7</v>
+        <v>9.863669289557434e-7</v>
       </c>
       <c r="I107">
-        <v>3.837774860645478e-5</v>
+        <v>3.8377748606460244e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019420723585774078</v>
+        <v>0.0019420723585787298</v>
       </c>
       <c r="K107">
-        <v>4.8395999501936355e-5</v>
+        <v>4.8395999501941946e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4165,34 +4165,34 @@
         <v>0.024365536496763117</v>
       </c>
       <c r="B108">
-        <v>7.256895530563949</v>
+        <v>7.25688717887986</v>
       </c>
       <c r="C108">
         <v>9.671046452385703e-7</v>
       </c>
       <c r="D108">
-        <v>4.015319130132047e-5</v>
+        <v>4.015331083190149e-5</v>
       </c>
       <c r="E108">
-        <v>0.00194241879749655</v>
+        <v>0.0019424175427841157</v>
       </c>
       <c r="F108">
-        <v>4.839924929790724e-5</v>
+        <v>4.839910850676947e-5</v>
       </c>
       <c r="G108">
-        <v>7.256897979577268</v>
+        <v>7.256897979576198</v>
       </c>
       <c r="H108">
-        <v>9.708959765355606e-7</v>
+        <v>9.70895976531889e-7</v>
       </c>
       <c r="I108">
-        <v>4.015570215512093e-5</v>
+        <v>4.015570215512638e-5</v>
       </c>
       <c r="J108">
-        <v>0.001942419125717979</v>
+        <v>0.0019424191257193107</v>
       </c>
       <c r="K108">
-        <v>4.839911218738427e-5</v>
+        <v>4.8399112187389934e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4200,34 +4200,34 @@
         <v>0.025030055064839574</v>
       </c>
       <c r="B109">
-        <v>7.257852314540929</v>
+        <v>7.257844108290293</v>
       </c>
       <c r="C109">
         <v>9.541028934868005e-7</v>
       </c>
       <c r="D109">
-        <v>4.194905563658433e-5</v>
+        <v>4.194917795610123e-5</v>
       </c>
       <c r="E109">
-        <v>0.0019427690024727091</v>
+        <v>0.0019427677648205784</v>
       </c>
       <c r="F109">
-        <v>4.840238971518953e-5</v>
+        <v>4.840225120589959e-5</v>
       </c>
       <c r="G109">
-        <v>7.257854965064397</v>
+        <v>7.257854965063336</v>
       </c>
       <c r="H109">
-        <v>9.57920411152948e-7</v>
+        <v>9.579204111492972e-7</v>
       </c>
       <c r="I109">
-        <v>4.195158728064265e-5</v>
+        <v>4.195158728064808e-5</v>
       </c>
       <c r="J109">
-        <v>0.0019427693534696101</v>
+        <v>0.0019427693534709509</v>
       </c>
       <c r="K109">
-        <v>4.840225491293723e-5</v>
+        <v>4.840225491294294e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,34 +4235,34 @@
         <v>0.02570070799383125</v>
       </c>
       <c r="B110">
-        <v>7.2588198351942586</v>
+        <v>7.258811773264234</v>
       </c>
       <c r="C110">
         <v>9.430556065956168e-7</v>
       </c>
       <c r="D110">
-        <v>4.376305572202389e-5</v>
+        <v>4.376318068947767e-5</v>
       </c>
       <c r="E110">
-        <v>0.0019431225261697916</v>
+        <v>0.001943121305543394</v>
       </c>
       <c r="F110">
-        <v>4.8405560594584115e-5</v>
+        <v>4.840542435241482e-5</v>
       </c>
       <c r="G110">
-        <v>7.2588226601953725</v>
+        <v>7.258822660194319</v>
       </c>
       <c r="H110">
-        <v>9.46890308013234e-7</v>
+        <v>9.468903080096041e-7</v>
       </c>
       <c r="I110">
-        <v>4.376560215194396e-5</v>
+        <v>4.376560215194937e-5</v>
       </c>
       <c r="J110">
-        <v>0.001943122896054849</v>
+        <v>0.0019431228960561978</v>
       </c>
       <c r="K110">
-        <v>4.8405428076873355e-5</v>
+        <v>4.840542807687912e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4270,34 +4270,34 @@
         <v>0.026377700676439353</v>
       </c>
       <c r="B111">
-        <v>7.259797002464968</v>
+        <v>7.259789083730177</v>
       </c>
       <c r="C111">
         <v>9.335130520671367e-7</v>
       </c>
       <c r="D111">
-        <v>4.559546008544008e-5</v>
+        <v>4.559558756176328e-5</v>
       </c>
       <c r="E111">
-        <v>0.0019434792674224736</v>
+        <v>0.0019434780637902758</v>
       </c>
       <c r="F111">
-        <v>4.840876244273103e-5</v>
+        <v>4.840862845278524e-5</v>
       </c>
       <c r="G111">
-        <v>7.259799978588913</v>
+        <v>7.259799978587869</v>
       </c>
       <c r="H111">
-        <v>9.373572016440908e-7</v>
+        <v>9.373572016404819e-7</v>
       </c>
       <c r="I111">
-        <v>4.559801609742588e-5</v>
+        <v>4.5598016097431296e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019434796528841624</v>
+        <v>0.0019434796528855183</v>
       </c>
       <c r="K111">
-        <v>4.840863218693161e-5</v>
+        <v>4.8408632186937424e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4305,34 +4305,34 @@
         <v>0.027061240446964195</v>
       </c>
       <c r="B112">
-        <v>7.260782979339684</v>
+        <v>7.260775202666756</v>
       </c>
       <c r="C112">
         <v>9.251124809465381e-7</v>
       </c>
       <c r="D112">
-        <v>4.744659929948194e-5</v>
+        <v>4.744672914756418e-5</v>
       </c>
       <c r="E112">
-        <v>0.0019438391636203852</v>
+        <v>0.0019438379769530466</v>
       </c>
       <c r="F112">
-        <v>4.841199586150127e-5</v>
+        <v>4.8411864108774024e-5</v>
       </c>
       <c r="G112">
-        <v>7.2607860866263545</v>
+        <v>7.260786086625317</v>
       </c>
       <c r="H112">
-        <v>9.289595105186416e-7</v>
+        <v>9.289595105150539e-7</v>
       </c>
       <c r="I112">
-        <v>4.7449160459465e-5</v>
+        <v>4.7449160459470403e-5</v>
       </c>
       <c r="J112">
-        <v>0.001943839561851678</v>
+        <v>0.0019438395618530412</v>
       </c>
       <c r="K112">
-        <v>4.841186784601368e-5</v>
+        <v>4.841186784601954e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,34 +4340,34 @@
         <v>0.027751536644802927</v>
       </c>
       <c r="B113">
-        <v>7.261777141747303</v>
+        <v>7.261769505998418</v>
       </c>
       <c r="C113">
         <v>9.175646781449658e-7</v>
       </c>
       <c r="D113">
-        <v>4.9316857458559105e-5</v>
+        <v>4.931698954324072e-5</v>
       </c>
       <c r="E113">
-        <v>0.0019442021846096597</v>
+        <v>0.0019442010148793308</v>
       </c>
       <c r="F113">
-        <v>4.841526153487911e-5</v>
+        <v>4.841513200430585e-5</v>
       </c>
       <c r="G113">
-        <v>7.26178036331952</v>
+        <v>7.261780363318491</v>
       </c>
       <c r="H113">
-        <v>9.214090755908817e-7</v>
+        <v>9.214090755873157e-7</v>
       </c>
       <c r="I113">
-        <v>4.931942002676344e-5</v>
+        <v>4.931942002676883e-5</v>
       </c>
       <c r="J113">
-        <v>0.0019442025932781928</v>
+        <v>0.0019442025932795625</v>
       </c>
       <c r="K113">
-        <v>4.8415135739121084e-5</v>
+        <v>4.841513573912699e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,34 +4375,34 @@
         <v>0.02844880067856139</v>
       </c>
       <c r="B114">
-        <v>7.2627790423691</v>
+        <v>7.262771546404659</v>
       </c>
       <c r="C114">
         <v>9.106417646609518e-7</v>
       </c>
       <c r="D114">
-        <v>5.120666445543086e-5</v>
+        <v>5.120679864347497e-5</v>
       </c>
       <c r="E114">
-        <v>0.0019445683272115144</v>
+        <v>0.0019445671743912667</v>
       </c>
       <c r="F114">
-        <v>4.841856021708799e-5</v>
+        <v>4.841843289358045e-5</v>
       </c>
       <c r="G114">
-        <v>7.262782364114282</v>
+        <v>7.262782364113261</v>
       </c>
       <c r="H114">
-        <v>9.144789560574908e-7</v>
+        <v>9.144789560539466e-7</v>
       </c>
       <c r="I114">
-        <v>5.12092253173579e-5</v>
+        <v>5.1209225317363275e-5</v>
       </c>
       <c r="J114">
-        <v>0.0019445687443897497</v>
+        <v>0.0019445687443911258</v>
       </c>
       <c r="K114">
-        <v>4.8418436621370863e-5</v>
+        <v>4.841843662137682e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,34 +4410,34 @@
         <v>0.029153246090799625</v>
       </c>
       <c r="B115">
-        <v>7.263788378545262</v>
+        <v>7.263781021225786</v>
       </c>
       <c r="C115">
         <v>9.04166331884422e-7</v>
       </c>
       <c r="D115">
-        <v>5.311648911276327e-5</v>
+        <v>5.3116625272814324e-5</v>
       </c>
       <c r="E115">
-        <v>0.0019449376103808215</v>
+        <v>0.0019449364744441742</v>
       </c>
       <c r="F115">
-        <v>4.84218927220378e-5</v>
+        <v>4.8421767590509156e-5</v>
       </c>
       <c r="G115">
-        <v>7.263791788653922</v>
+        <v>7.263791788652909</v>
       </c>
       <c r="H115">
-        <v>9.079925620846551e-7</v>
+        <v>9.079925620811328e-7</v>
       </c>
       <c r="I115">
-        <v>5.311904566036863e-5</v>
+        <v>5.311904566037401e-5</v>
       </c>
       <c r="J115">
-        <v>0.0019449380344941192</v>
+        <v>0.001944938034495501</v>
       </c>
       <c r="K115">
-        <v>4.84217713074983e-5</v>
+        <v>4.842177130750432e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4445,34 +4445,34 @@
         <v>0.02986508862343095</v>
       </c>
       <c r="B116">
-        <v>7.264804964295461</v>
+        <v>7.264797744482863</v>
       </c>
       <c r="C116">
         <v>8.980019299232468e-7</v>
       </c>
       <c r="D116">
-        <v>5.504683318691336e-5</v>
+        <v>5.5046971189448044e-5</v>
       </c>
       <c r="E116">
-        <v>0.0019453100710025088</v>
+        <v>0.001945308951923038</v>
       </c>
       <c r="F116">
-        <v>4.842525991411562e-5</v>
+        <v>4.842513695949656e-5</v>
       </c>
       <c r="G116">
-        <v>7.264808453006385</v>
+        <v>7.264808453005379</v>
       </c>
       <c r="H116">
-        <v>9.018141460316458e-7</v>
+        <v>9.018141460281456e-7</v>
       </c>
       <c r="I116">
-        <v>5.504938328556657e-5</v>
+        <v>5.5049383285571936e-5</v>
       </c>
       <c r="J116">
-        <v>0.0019453105007823822</v>
+        <v>0.0019453105007837695</v>
       </c>
       <c r="K116">
-        <v>4.8425140662600374e-5</v>
+        <v>4.842514066260644e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,34 +4480,34 @@
         <v>0.030584546283794638</v>
       </c>
       <c r="B117">
-        <v>7.265828706332802</v>
+        <v>7.265821622891085</v>
       </c>
       <c r="C117">
         <v>8.920448826767643e-7</v>
       </c>
       <c r="D117">
-        <v>5.6998226228925586e-5</v>
+        <v>5.699836594620143e-5</v>
       </c>
       <c r="E117">
-        <v>0.0019456857603030182</v>
+        <v>0.0019456846580540284</v>
       </c>
       <c r="F117">
-        <v>4.842866270029435e-5</v>
+        <v>4.842854190754162e-5</v>
       </c>
       <c r="G117">
-        <v>7.265832265581975</v>
+        <v>7.265832265580977</v>
       </c>
       <c r="H117">
-        <v>8.958406234776854e-7</v>
+        <v>8.958406234742076e-7</v>
       </c>
       <c r="I117">
-        <v>5.700076813608604e-5</v>
+        <v>5.700076813609139e-5</v>
       </c>
       <c r="J117">
-        <v>0.0019456861947357623</v>
+        <v>0.0019456861947371553</v>
       </c>
       <c r="K117">
-        <v>4.842854559425626e-5</v>
+        <v>4.8428545594262367e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,34 +4515,34 @@
         <v>0.03131183941142232</v>
       </c>
       <c r="B118">
-        <v>7.266859583841432</v>
+        <v>7.266852635636993</v>
       </c>
       <c r="C118">
         <v>8.862173630654724e-7</v>
       </c>
       <c r="D118">
-        <v>5.89712212618128e-5</v>
+        <v>5.897136256781738e-5</v>
       </c>
       <c r="E118">
-        <v>0.0019460647408381015</v>
+        <v>0.0019460636553923479</v>
       </c>
       <c r="F118">
-        <v>4.843210202349503e-5</v>
+        <v>4.843198337759362e-5</v>
       </c>
       <c r="G118">
-        <v>7.266863207012089</v>
+        <v>7.2668632070111</v>
       </c>
       <c r="H118">
-        <v>8.899946575387756e-7</v>
+        <v>8.899946575353203e-7</v>
       </c>
       <c r="I118">
-        <v>5.897375356447567e-5</v>
+        <v>5.897375356448102e-5</v>
       </c>
       <c r="J118">
-        <v>0.0019460651791177194</v>
+        <v>0.001946065179119117</v>
       </c>
       <c r="K118">
-        <v>4.8431987045929546e-5</v>
+        <v>4.843198704593568e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,34 +4550,34 @@
         <v>0.03204719074551874</v>
       </c>
       <c r="B119">
-        <v>7.267897631708921</v>
+        <v>7.267890817610465</v>
       </c>
       <c r="C119">
         <v>8.80461632612253e-7</v>
       </c>
       <c r="D119">
-        <v>6.096639121381156e-5</v>
+        <v>6.096653398421549e-5</v>
       </c>
       <c r="E119">
-        <v>0.0019464470840069104</v>
+        <v>0.0019464460153363573</v>
       </c>
       <c r="F119">
-        <v>4.84355788571095e-5</v>
+        <v>4.8435462343069855e-5</v>
       </c>
       <c r="G119">
-        <v>7.26790131331934</v>
+        <v>7.267901313318359</v>
       </c>
       <c r="H119">
-        <v>8.842189082388051e-7</v>
+        <v>8.842189082353725e-7</v>
       </c>
       <c r="I119">
-        <v>6.096891276447498e-5</v>
+        <v>6.0968912764480314e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019464475255012226</v>
+        <v>0.0019464475255026243</v>
       </c>
       <c r="K119">
-        <v>4.8435465991402854e-5</v>
+        <v>4.843546599140903e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,34 +4585,34 @@
         <v>0.03279082549317736</v>
       </c>
       <c r="B120">
-        <v>7.26894292685332</v>
+        <v>7.268936245731511</v>
       </c>
       <c r="C120">
         <v>8.747353300897676e-7</v>
       </c>
       <c r="D120">
-        <v>6.298432603424105e-5</v>
+        <v>6.298447014635549e-5</v>
       </c>
       <c r="E120">
-        <v>0.0019468328680353301</v>
+        <v>0.0019468318161109397</v>
       </c>
       <c r="F120">
-        <v>4.8439094200570306e-5</v>
+        <v>4.8438979803421685e-5</v>
       </c>
       <c r="G120">
-        <v>7.268946662298333</v>
+        <v>7.26894666229736</v>
       </c>
       <c r="H120">
-        <v>8.784713327312695e-7</v>
+        <v>8.784713327278603e-7</v>
       </c>
       <c r="I120">
-        <v>6.298683586455847e-5</v>
+        <v>6.298683586456381e-5</v>
       </c>
       <c r="J120">
-        <v>0.0019468333122412726</v>
+        <v>0.0019468333122426784</v>
       </c>
       <c r="K120">
-        <v>4.843898343048021e-5</v>
+        <v>4.8438983430486425e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4620,34 +4620,34 @@
         <v>0.03354297139835178</v>
       </c>
       <c r="B121">
-        <v>7.269995577259362</v>
+        <v>7.269989027986277</v>
       </c>
       <c r="C121">
         <v>8.690076833305182e-7</v>
       </c>
       <c r="D121">
-        <v>6.50256304113155e-5</v>
+        <v>6.502577574405579e-5</v>
       </c>
       <c r="E121">
-        <v>0.0019472221763683537</v>
+        <v>0.0019472211411598946</v>
       </c>
       <c r="F121">
-        <v>4.8442649075844336e-5</v>
+        <v>4.844253678062506e-5</v>
       </c>
       <c r="G121">
-        <v>7.269999362679296</v>
+        <v>7.26999936267833</v>
       </c>
       <c r="H121">
-        <v>8.727214082792075e-7</v>
+        <v>8.727214082758217e-7</v>
       </c>
       <c r="I121">
-        <v>6.50281277288307e-5</v>
+        <v>6.502812772883603e-5</v>
       </c>
       <c r="J121">
-        <v>0.0019472226228810726</v>
+        <v>0.0019472226228824828</v>
       </c>
       <c r="K121">
-        <v>4.844254038536377e-5</v>
+        <v>4.8442540385370025e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4655,34 +4655,34 @@
         <v>0.034303858811604096</v>
       </c>
       <c r="B122">
-        <v>7.271055713334506</v>
+        <v>7.2710492947829195</v>
       </c>
       <c r="C122">
         <v>8.632565153393921e-7</v>
       </c>
       <c r="D122">
-        <v>6.709092200899951e-5</v>
+        <v>6.709106844285522e-5</v>
       </c>
       <c r="E122">
-        <v>0.001947615096411346</v>
+        <v>0.0019476140778872174</v>
       </c>
       <c r="F122">
-        <v>4.844624452472234e-5</v>
+        <v>4.8446134316467945e-5</v>
       </c>
       <c r="G122">
-        <v>7.2710595454258256</v>
+        <v>7.271059545424869</v>
       </c>
       <c r="H122">
-        <v>8.669471494983309e-7</v>
+        <v>8.669471494949689e-7</v>
       </c>
       <c r="I122">
-        <v>6.709340618664606e-5</v>
+        <v>6.709340618665139e-5</v>
       </c>
       <c r="J122">
-        <v>0.0019476155449136532</v>
+        <v>0.001947615544915067</v>
       </c>
       <c r="K122">
-        <v>4.844613789807046e-5</v>
+        <v>4.844613789807674e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0350737207606516</v>
       </c>
       <c r="B123">
-        <v>7.272123481209255</v>
+        <v>7.272117192251826</v>
       </c>
       <c r="C123">
         <v>8.574659191211261e-7</v>
       </c>
       <c r="D123">
-        <v>6.918083014183557e-5</v>
+        <v>6.918097755884672e-5</v>
       </c>
       <c r="E123">
-        <v>0.001948011718562671</v>
+        <v>0.0019480107166897382</v>
       </c>
       <c r="F123">
-        <v>4.844988160678045e-5</v>
+        <v>4.844977347051022e-5</v>
       </c>
       <c r="G123">
-        <v>7.272127357056943</v>
+        <v>7.272127357055994</v>
       </c>
       <c r="H123">
-        <v>8.611327934333913e-7</v>
+        <v>8.611327934300534e-7</v>
       </c>
       <c r="I123">
-        <v>6.91833006101695e-5</v>
+        <v>6.918330061017482e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019480121687980281</v>
+        <v>0.0019480121687994458</v>
       </c>
       <c r="K123">
-        <v>4.8449777028262523e-5</v>
+        <v>4.844977702826885e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,34 +4725,34 @@
         <v>0.03585279302173329</v>
       </c>
       <c r="B124">
-        <v>7.273199037632983</v>
+        <v>7.2731928771413665</v>
       </c>
       <c r="C124">
         <v>8.516244836206167e-7</v>
       </c>
       <c r="D124">
-        <v>7.129599481162896e-5</v>
+        <v>7.129614309536889e-5</v>
       </c>
       <c r="E124">
-        <v>0.001948412135484638</v>
+        <v>0.001948411150228075</v>
       </c>
       <c r="F124">
-        <v>4.845356139789633e-5</v>
+        <v>4.8453455318598734e-5</v>
       </c>
       <c r="G124">
-        <v>7.2732029546462735</v>
+        <v>7.273202954645333</v>
       </c>
       <c r="H124">
-        <v>8.552670347406254e-7</v>
+        <v>8.552670347373118e-7</v>
       </c>
       <c r="I124">
-        <v>7.129845107506889e-5</v>
+        <v>7.12984510750742e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019484125872324008</v>
+        <v>0.0019484125872338222</v>
       </c>
       <c r="K124">
-        <v>4.845345885192871e-5</v>
+        <v>4.845345885193506e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.036641314191818215</v>
       </c>
       <c r="B125">
-        <v>7.274282546151911</v>
+        <v>7.274276512995842</v>
       </c>
       <c r="C125">
         <v>8.45723964391273e-7</v>
       </c>
       <c r="D125">
-        <v>7.343706603699133e-5</v>
+        <v>7.34372150725556e-5</v>
       </c>
       <c r="E125">
-        <v>0.0019488164415653792</v>
+        <v>0.0019488154728885168</v>
       </c>
       <c r="F125">
-        <v>4.845728498921443e-5</v>
+        <v>4.845718095183204e-5</v>
       </c>
       <c r="G125">
-        <v>7.27428650194536</v>
+        <v>7.274286501944427</v>
       </c>
       <c r="H125">
-        <v>8.493417042981412e-7</v>
+        <v>8.493417042948522e-7</v>
       </c>
       <c r="I125">
-        <v>7.343950766436958e-5</v>
+        <v>7.343950766437485e-5</v>
       </c>
       <c r="J125">
-        <v>0.0019488168946431006</v>
+        <v>0.0019488168946445253</v>
       </c>
       <c r="K125">
-        <v>4.8457184460210494e-5</v>
+        <v>4.845718446021688e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.03743952576167768</v>
       </c>
       <c r="B126">
-        <v>7.275374174296133</v>
+        <v>7.2753682673424755</v>
       </c>
       <c r="C126">
         <v>8.397583056994181e-7</v>
       </c>
       <c r="D126">
-        <v>7.560470341512608e-5</v>
+        <v>7.560485308912707e-5</v>
       </c>
       <c r="E126">
-        <v>0.0019492247325306037</v>
+        <v>0.0019492237803947837</v>
       </c>
       <c r="F126">
-        <v>4.846105348646699e-5</v>
+        <v>4.8460951475881014e-5</v>
       </c>
       <c r="G126">
-        <v>7.275378166612341</v>
+        <v>7.275378166611416</v>
       </c>
       <c r="H126">
-        <v>8.433507985961241e-7</v>
+        <v>8.433507985928598e-7</v>
       </c>
       <c r="I126">
-        <v>7.56071299920532e-5</v>
+        <v>7.560712999205848e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019492251867688354</v>
+        <v>0.0019492251867702641</v>
       </c>
       <c r="K126">
-        <v>4.8460954958854384e-5</v>
+        <v>4.8460954958860775e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.03824767218984363</v>
       </c>
       <c r="B127">
-        <v>7.276474091544204</v>
+        <v>7.276468309656007</v>
       </c>
       <c r="C127">
         <v>8.337229345708215e-7</v>
       </c>
       <c r="D127">
-        <v>7.7799575864129e-5</v>
+        <v>7.779972606469623e-5</v>
       </c>
       <c r="E127">
-        <v>0.0019496371051705708</v>
+        <v>0.0019496361695350004</v>
       </c>
       <c r="F127">
-        <v>4.846486800957146e-5</v>
+        <v>4.846476801058625e-5</v>
       </c>
       <c r="G127">
-        <v>7.276478118258676</v>
+        <v>7.276478118257761</v>
       </c>
       <c r="H127">
-        <v>8.372897790454312e-7</v>
+        <v>8.37289779042192e-7</v>
       </c>
       <c r="I127">
-        <v>7.780198702161244e-5</v>
+        <v>7.780198702161771e-5</v>
       </c>
       <c r="J127">
-        <v>0.001949637560419178</v>
+        <v>0.0019496375604206103</v>
       </c>
       <c r="K127">
-        <v>4.84647714677273e-5</v>
+        <v>4.846477146773372e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4865,34 +4865,34 @@
         <v>0.03906600097747604</v>
       </c>
       <c r="B128">
-        <v>7.27758246787426</v>
+        <v>7.277576809909834</v>
       </c>
       <c r="C128">
         <v>8.276142608686574e-7</v>
       </c>
       <c r="D128">
-        <v>8.00223615028599e-5</v>
+        <v>8.002251211964515e-5</v>
       </c>
       <c r="E128">
-        <v>0.0019500536571538368</v>
+        <v>0.0019500527379754501</v>
       </c>
       <c r="F128">
-        <v>4.8468729692438374e-5</v>
+        <v>4.846863168976607e-5</v>
       </c>
       <c r="G128">
-        <v>7.2775865269201345</v>
+        <v>7.277586526919228</v>
       </c>
       <c r="H128">
-        <v>8.311550767746725e-7</v>
+        <v>8.311550767714586e-7</v>
       </c>
       <c r="I128">
-        <v>8.002475689057686e-5</v>
+        <v>8.002475689058213e-5</v>
       </c>
       <c r="J128">
-        <v>0.0019500541132643939</v>
+        <v>0.0019500541132658293</v>
       </c>
       <c r="K128">
-        <v>4.8468635120679685e-5</v>
+        <v>4.8468635120686116e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,34 +4900,34 @@
         <v>0.03989476274416206</v>
       </c>
       <c r="B129">
-        <v>7.278699472748175</v>
+        <v>7.278693937560186</v>
       </c>
       <c r="C129">
         <v>8.214293301662536e-7</v>
       </c>
       <c r="D129">
-        <v>8.227374763366416e-5</v>
+        <v>8.227389855785168e-5</v>
       </c>
       <c r="E129">
-        <v>0.00195047448690498</v>
+        <v>0.0019504735841382973</v>
       </c>
       <c r="F129">
-        <v>4.847263968293622e-5</v>
+        <v>4.8472543661181665e-5</v>
       </c>
       <c r="G129">
-        <v>7.278703562044857</v>
+        <v>7.278703562043959</v>
       </c>
       <c r="H129">
-        <v>8.249437492440092e-7</v>
+        <v>8.24943749240821e-7</v>
       </c>
       <c r="I129">
-        <v>8.227612687459873e-5</v>
+        <v>8.227612687460396e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019504749437390524</v>
+        <v>0.0019504749437404905</v>
       </c>
       <c r="K129">
-        <v>4.847254706548283e-5</v>
+        <v>4.847254706548928e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.040734211304670184</v>
       </c>
       <c r="B130">
-        <v>7.27982527440835</v>
+        <v>7.27981986084293</v>
       </c>
       <c r="C130">
         <v>8.151655875085342e-7</v>
       </c>
       <c r="D130">
-        <v>8.455443080059117e-5</v>
+        <v>8.45545819249123e-5</v>
       </c>
       <c r="E130">
-        <v>0.0019508996935285283</v>
+        <v>0.0019508988071255179</v>
       </c>
       <c r="F130">
-        <v>4.847659914297142e-5</v>
+        <v>4.847650508661744e-5</v>
       </c>
       <c r="G130">
-        <v>7.2798293919468815</v>
+        <v>7.279829391945992</v>
       </c>
       <c r="H130">
-        <v>8.186532464928103e-7</v>
+        <v>8.186532464896485e-7</v>
       </c>
       <c r="I130">
-        <v>8.455679354260606e-5</v>
+        <v>8.45567935426113e-5</v>
       </c>
       <c r="J130">
-        <v>0.0019509001509482819</v>
+        <v>0.001950900150949723</v>
       </c>
       <c r="K130">
-        <v>4.847650846391924e-5</v>
+        <v>4.8476508463925716e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,34 +4970,34 @@
         <v>0.04158460374668306</v>
       </c>
       <c r="B131">
-        <v>7.280960039395102</v>
+        <v>7.280954746291023</v>
       </c>
       <c r="C131">
         <v>8.088207198948566e-7</v>
       </c>
       <c r="D131">
-        <v>8.686511690210253e-5</v>
+        <v>8.686526812085453e-5</v>
       </c>
       <c r="E131">
-        <v>0.0019513293767655256</v>
+        <v>0.0019513285066754718</v>
       </c>
       <c r="F131">
-        <v>4.8480609248651e-5</v>
+        <v>4.8480517142044204e-5</v>
       </c>
       <c r="G131">
-        <v>7.280964183155658</v>
+        <v>7.280964183154778</v>
       </c>
       <c r="H131">
-        <v>8.122812558358143e-7</v>
+        <v>8.122812558326789e-7</v>
       </c>
       <c r="I131">
-        <v>8.68674628133559e-5</v>
+        <v>8.686746281336114e-5</v>
       </c>
       <c r="J131">
-        <v>0.0019513298346321034</v>
+        <v>0.001951329834633547</v>
       </c>
       <c r="K131">
-        <v>4.848052049197274e-5</v>
+        <v>4.8480520491979246e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.04244620050953257</v>
       </c>
       <c r="B132">
-        <v>7.28210393221613</v>
+        <v>7.282098758403995</v>
       </c>
       <c r="C132">
         <v>8.023925534066023e-7</v>
       </c>
       <c r="D132">
-        <v>8.920652134254639e-5</v>
+        <v>8.920667255161513e-5</v>
       </c>
       <c r="E132">
-        <v>0.001951763636972693</v>
+        <v>0.0019517627831420626</v>
       </c>
       <c r="F132">
-        <v>4.848467119050388e-5</v>
+        <v>4.848458101784086e-5</v>
       </c>
       <c r="G132">
-        <v>7.282108100145663</v>
+        <v>7.282108100144792</v>
       </c>
       <c r="H132">
-        <v>8.058256005136737e-7</v>
+        <v>8.058256005105647e-7</v>
       </c>
       <c r="I132">
-        <v>8.920885006995647e-5</v>
+        <v>8.920885006996172e-5</v>
       </c>
       <c r="J132">
-        <v>0.0019517640951458352</v>
+        <v>0.0019517640951472813</v>
       </c>
       <c r="K132">
-        <v>4.848458434000927e-5</v>
+        <v>4.848458434001579e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5040,34 +5040,34 @@
         <v>0.04331926546396146</v>
       </c>
       <c r="B133">
-        <v>7.283257115118104</v>
+        <v>7.283252059419581</v>
       </c>
       <c r="C133">
         <v>7.958789874070942e-7</v>
       </c>
       <c r="D133">
-        <v>9.157936921092468e-5</v>
+        <v>9.157952030781121e-5</v>
       </c>
       <c r="E133">
-        <v>0.0019522025751168813</v>
+        <v>0.001952201737489196</v>
       </c>
       <c r="F133">
-        <v>4.8488786173742996e-5</v>
+        <v>4.848869791905721e-5</v>
       </c>
       <c r="G133">
-        <v>7.283261305165776</v>
+        <v>7.283261305164913</v>
       </c>
       <c r="H133">
-        <v>7.992841748502618e-7</v>
+        <v>7.992841748471796e-7</v>
       </c>
       <c r="I133">
-        <v>9.158168040604524e-5</v>
+        <v>9.158168040605047e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019522030334477801</v>
+        <v>0.0019522030334492284</v>
       </c>
       <c r="K133">
-        <v>4.848870121305653e-5</v>
+        <v>4.8488701213063086e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.044204065992935755</v>
       </c>
       <c r="B134">
-        <v>7.2844197479250985</v>
+        <v>7.284414809152211</v>
       </c>
       <c r="C134">
         <v>7.892779533084023e-7</v>
       </c>
       <c r="D134">
-        <v>9.398439547880137e-5</v>
+        <v>9.398454636265195e-5</v>
       </c>
       <c r="E134">
-        <v>0.0019526462927796865</v>
+        <v>0.0019526454712953947</v>
       </c>
       <c r="F134">
-        <v>4.849295541855598e-5</v>
+        <v>4.8492869065705104e-5</v>
       </c>
       <c r="G134">
-        <v>7.28442395803617</v>
+        <v>7.284423958035316</v>
       </c>
       <c r="H134">
-        <v>7.926549037968878e-7</v>
+        <v>7.926549037938327e-7</v>
       </c>
       <c r="I134">
-        <v>9.398668880828555e-5</v>
+        <v>9.398668880829079e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019526467511229186</v>
+        <v>0.0019526467511243686</v>
       </c>
       <c r="K134">
-        <v>4.849287233116764e-5</v>
+        <v>4.849287233117421e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,34 +5110,34 @@
         <v>0.04510087307353289</v>
       </c>
       <c r="B135">
-        <v>7.285591987919405</v>
+        <v>7.285587164873852</v>
       </c>
       <c r="C135">
         <v>7.825873892298123e-7</v>
       </c>
       <c r="D135">
-        <v>9.642234521171008e-5</v>
+        <v>9.642249578334936e-5</v>
       </c>
       <c r="E135">
-        <v>0.001953094892168678</v>
+        <v>0.0019530940867650312</v>
       </c>
       <c r="F135">
-        <v>4.8497180160415395e-5</v>
+        <v>4.849709569306937e-5</v>
       </c>
       <c r="G135">
-        <v>7.285596215975367</v>
+        <v>7.285596215974523</v>
       </c>
       <c r="H135">
-        <v>7.859357178597258e-7</v>
+        <v>7.85935717856698e-7</v>
       </c>
       <c r="I135">
-        <v>9.642462031008402e-5</v>
+        <v>9.642462031008922e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019530953503704104</v>
+        <v>0.0019530953503718623</v>
       </c>
       <c r="K135">
-        <v>4.849709892958996e-5</v>
+        <v>4.849709892959653e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5145,34 +5145,34 @@
         <v>0.04600996135993059</v>
       </c>
       <c r="B136">
-        <v>7.28677398974833</v>
+        <v>7.286769281220871</v>
       </c>
       <c r="C136">
         <v>7.758052246866655e-7</v>
       </c>
       <c r="D136">
-        <v>9.889397379026754e-5</v>
+        <v>9.88941239522349e-5</v>
       </c>
       <c r="E136">
-        <v>0.001953548476132877</v>
+        <v>0.0019535476867438097</v>
       </c>
       <c r="F136">
-        <v>4.850146165040289e-5</v>
+        <v>4.850137905203261e-5</v>
       </c>
       <c r="G136">
-        <v>7.286778233626484</v>
+        <v>7.286778233625649</v>
       </c>
       <c r="H136">
-        <v>7.791245387302843e-7</v>
+        <v>7.791245387272841e-7</v>
       </c>
       <c r="I136">
-        <v>9.889623029180666e-5</v>
+        <v>9.889623029181186e-5</v>
       </c>
       <c r="J136">
-        <v>0.0019535489340411407</v>
+        <v>0.0019535489340425935</v>
       </c>
       <c r="K136">
-        <v>4.850138225917344e-5</v>
+        <v>4.850138225918005e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.04693160926752187</v>
       </c>
       <c r="B137">
-        <v>7.2879659053462</v>
+        <v>7.287961310116066</v>
       </c>
       <c r="C137">
         <v>7.689293714488536e-7</v>
       </c>
       <c r="D137">
-        <v>0.00010140004713851569</v>
+        <v>0.00010140019679510429</v>
       </c>
       <c r="E137">
-        <v>0.0019540071481809426</v>
+        <v>0.0019540063747369592</v>
       </c>
       <c r="F137">
-        <v>4.850580115554353e-5</v>
+        <v>4.8505720409410075e-5</v>
       </c>
       <c r="G137">
-        <v>7.287970162900715</v>
+        <v>7.287970162899889</v>
       </c>
       <c r="H137">
-        <v>7.7221926944713e-7</v>
+        <v>7.722192694441575e-7</v>
       </c>
       <c r="I137">
-        <v>0.00010140228469317137</v>
+        <v>0.00010140228469317652</v>
       </c>
       <c r="J137">
-        <v>0.001954007605635297</v>
+        <v>0.001954007605636751</v>
       </c>
       <c r="K137">
-        <v>4.850572358675585e-5</v>
+        <v>4.8505723586762486e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5215,34 +5215,34 @@
         <v>0.047866099058181885</v>
       </c>
       <c r="B138">
-        <v>7.289167883864728</v>
+        <v>7.2891634006991035</v>
       </c>
       <c r="C138">
         <v>7.619577180963518e-7</v>
       </c>
       <c r="D138">
-        <v>0.00010394134195792751</v>
+        <v>0.00010394149101522623</v>
       </c>
       <c r="E138">
-        <v>0.0019544710125011023</v>
+        <v>0.001954470254929159</v>
       </c>
       <c r="F138">
-        <v>4.8510199959147555e-5</v>
+        <v>4.851012104829227e-5</v>
       </c>
       <c r="G138">
-        <v>7.289172152927599</v>
+        <v>7.289172152926782</v>
       </c>
       <c r="H138">
-        <v>7.652177899938723e-7</v>
+        <v>7.652177899909282e-7</v>
       </c>
       <c r="I138">
-        <v>0.00010394356019196166</v>
+        <v>0.00010394356019196678</v>
       </c>
       <c r="J138">
-        <v>0.001954471469335548</v>
+        <v>0.001954471469337003</v>
       </c>
       <c r="K138">
-        <v>4.851012419542791e-5</v>
+        <v>4.851012419543458e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5250,34 +5250,34 @@
         <v>0.048813716926712804</v>
       </c>
       <c r="B139">
-        <v>7.290380071607529</v>
+        <v>7.2903756992610615</v>
       </c>
       <c r="C139">
         <v>7.548881267302548e-7</v>
       </c>
       <c r="D139">
-        <v>0.00010651864596612887</v>
+        <v>0.0001065187943320662</v>
       </c>
       <c r="E139">
-        <v>0.0019549401739822132</v>
+        <v>0.0019549394322056165</v>
       </c>
       <c r="F139">
-        <v>4.8514659361158585e-5</v>
+        <v>4.8514582268393674e-5</v>
       </c>
       <c r="G139">
-        <v>7.290384349980992</v>
+        <v>7.290384349980185</v>
       </c>
       <c r="H139">
-        <v>7.581179533406762e-7</v>
+        <v>7.58117953337761e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010652084451867648</v>
+        <v>0.00010652084451868163</v>
       </c>
       <c r="J139">
-        <v>0.0019549406300289006</v>
+        <v>0.0019549406300303565</v>
       </c>
       <c r="K139">
-        <v>4.851458538488642e-5</v>
+        <v>4.851458538489312e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,34 +5285,34 @@
         <v>0.04977475308849331</v>
       </c>
       <c r="B140">
-        <v>7.291602611966229</v>
+        <v>7.291598349180604</v>
       </c>
       <c r="C140">
         <v>7.477184309038413e-7</v>
       </c>
       <c r="D140">
-        <v>0.00010913275813978625</v>
+        <v>0.00010913290572417667</v>
       </c>
       <c r="E140">
-        <v>0.001955414738235636</v>
+        <v>0.001955414012173935</v>
       </c>
       <c r="F140">
-        <v>4.851918067850691e-5</v>
+        <v>4.8519105386406864e-5</v>
       </c>
       <c r="G140">
-        <v>7.2916068974447965</v>
+        <v>7.291606897443999</v>
       </c>
       <c r="H140">
-        <v>7.509175837962694e-7</v>
+        <v>7.509175837933833e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010913493663780645</v>
+        <v>0.00010913493663781157</v>
       </c>
       <c r="J140">
-        <v>0.001955415193324016</v>
+        <v>0.0019554151933254727</v>
       </c>
       <c r="K140">
-        <v>4.851910847181732e-5</v>
+        <v>4.851910847182405e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,34 +5320,34 @@
         <v>0.050749501868359255</v>
       </c>
       <c r="B141">
-        <v>7.292835645356734</v>
+        <v>7.292831490860295</v>
       </c>
       <c r="C141">
         <v>7.404464342233365e-7</v>
       </c>
       <c r="D141">
-        <v>0.0001117844889613667</v>
+        <v>0.00011178463567595893</v>
       </c>
       <c r="E141">
-        <v>0.001955894811617707</v>
+        <v>0.001955894101186596</v>
       </c>
       <c r="F141">
-        <v>4.8523765245467914e-5</v>
+        <v>4.852369173636156e-5</v>
       </c>
       <c r="G141">
-        <v>7.29283993569113</v>
+        <v>7.292839935690342</v>
       </c>
       <c r="H141">
-        <v>7.436144757411031e-7</v>
+        <v>7.436144757382461e-7</v>
       </c>
       <c r="I141">
-        <v>0.00011178664703369758</v>
+        <v>0.00011178664703370273</v>
       </c>
       <c r="J141">
-        <v>0.001955895265574307</v>
+        <v>0.0019558952655757645</v>
       </c>
       <c r="K141">
-        <v>4.852369479025534e-5</v>
+        <v>4.852369479026211e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.05173826179074292</v>
       </c>
       <c r="B142">
-        <v>7.294079309154846</v>
+        <v>7.2940752616622735</v>
       </c>
       <c r="C142">
         <v>7.330699093038026e-7</v>
       </c>
       <c r="D142">
-        <v>0.00011447466066963237</v>
+        <v>0.00011447480642815922</v>
       </c>
       <c r="E142">
-        <v>0.001956380501252718</v>
+        <v>0.001956379806363946</v>
       </c>
       <c r="F142">
-        <v>4.8528414414024934e-5</v>
+        <v>4.852834266998833e-5</v>
       </c>
       <c r="G142">
-        <v>7.294083602063729</v>
+        <v>7.294083602062951</v>
       </c>
       <c r="H142">
-        <v>7.362063921566118e-7</v>
+        <v>7.362063921537846e-7</v>
       </c>
       <c r="I142">
-        <v>0.00011447679793152937</v>
+        <v>0.0001144767979315345</v>
       </c>
       <c r="J142">
-        <v>0.001956380953890911</v>
+        <v>0.001956380953892369</v>
       </c>
       <c r="K142">
-        <v>4.852834569189778e-5</v>
+        <v>4.8528345691904586e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,34 +5390,34 @@
         <v>0.05274133567109854</v>
       </c>
       <c r="B143">
-        <v>7.295333737630847</v>
+        <v>7.29532979584287</v>
       </c>
       <c r="C143">
         <v>7.255865969046137e-7</v>
       </c>
       <c r="D143">
-        <v>0.0001172041075138263</v>
+        <v>0.00011720425223205603</v>
       </c>
       <c r="E143">
-        <v>0.0019568719150563686</v>
+        <v>0.0019568712356176506</v>
       </c>
       <c r="F143">
-        <v>4.853312955423686e-5</v>
+        <v>4.8533059557086826e-5</v>
       </c>
       <c r="G143">
-        <v>7.295338030821172</v>
+        <v>7.295338030820404</v>
       </c>
       <c r="H143">
-        <v>7.286910641722486e-7</v>
+        <v>7.286910641694518e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011720622358715566</v>
+        <v>0.00011720622358716079</v>
       </c>
       <c r="J143">
-        <v>0.001956872366193445</v>
+        <v>0.0019568723661949027</v>
       </c>
       <c r="K143">
-        <v>4.853306254653791e-5</v>
+        <v>4.853306254654475e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.05375903070864185</v>
       </c>
       <c r="B144">
-        <v>7.296599061882826</v>
+        <v>7.296595224486008</v>
       </c>
       <c r="C144">
         <v>7.17994205151078e-7</v>
       </c>
       <c r="D144">
-        <v>0.00011997367601156008</v>
+        <v>0.00011997381960734889</v>
       </c>
       <c r="E144">
-        <v>0.0019573691617596747</v>
+        <v>0.001957368497674611</v>
       </c>
       <c r="F144">
-        <v>4.8537912054610336e-5</v>
+        <v>4.853784378589879e-5</v>
       </c>
       <c r="G144">
-        <v>7.296603353004634</v>
+        <v>7.296603353003876</v>
       </c>
       <c r="H144">
-        <v>7.210661901479792e-7</v>
+        <v>7.21066190145213e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011997577048367553</v>
+        <v>0.00011997577048368068</v>
       </c>
       <c r="J144">
-        <v>0.0019573696112024654</v>
+        <v>0.001957369611203922</v>
       </c>
       <c r="K144">
-        <v>4.853784674242162e-5</v>
+        <v>4.853784674242848e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5460,34 +5460,34 @@
         <v>0.05479165858043223</v>
       </c>
       <c r="B145">
-        <v>7.297875409768748</v>
+        <v>7.297871675435323</v>
       </c>
       <c r="C145">
         <v>7.102904087926184e-7</v>
       </c>
       <c r="D145">
-        <v>0.00012278422521044371</v>
+        <v>0.00012278436760378917</v>
       </c>
       <c r="E145">
-        <v>0.001957872350933346</v>
+        <v>0.001957871702101346</v>
       </c>
       <c r="F145">
-        <v>4.8542763322476554e-5</v>
+        <v>4.854269676348567e-5</v>
       </c>
       <c r="G145">
-        <v>7.297879696452206</v>
+        <v>7.297879696451458</v>
       </c>
       <c r="H145">
-        <v>7.133294348015736e-7</v>
+        <v>7.133294347988385e-7</v>
       </c>
       <c r="I145">
-        <v>0.00012278629771165492</v>
+        <v>0.00012278629771166004</v>
       </c>
       <c r="J145">
-        <v>0.001957872798482289</v>
+        <v>0.0019578727984837442</v>
       </c>
       <c r="K145">
-        <v>4.8542699686590625e-5</v>
+        <v>4.8542699686597523e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.05583953553682625</v>
       </c>
       <c r="B146">
-        <v>7.299162905837244</v>
+        <v>7.299159273224985</v>
       </c>
       <c r="C146">
         <v>7.024728484729912e-7</v>
       </c>
       <c r="D146">
-        <v>0.00012563662695351795</v>
+        <v>0.00012563676806661347</v>
       </c>
       <c r="E146">
-        <v>0.0019583815930126454</v>
+        <v>0.0019583809593288625</v>
       </c>
       <c r="F146">
-        <v>4.854768478437294e-5</v>
+        <v>4.854761991611099e-5</v>
       </c>
       <c r="G146">
-        <v>7.299167185708461</v>
+        <v>7.299167185707723</v>
       </c>
       <c r="H146">
-        <v>7.054784287744072e-7</v>
+        <v>7.054784287717036e-7</v>
       </c>
       <c r="I146">
-        <v>0.00012563867706202257</v>
+        <v>0.0001256386770620277</v>
       </c>
       <c r="J146">
-        <v>0.001958382038470232</v>
+        <v>0.001958382038471686</v>
       </c>
       <c r="K146">
-        <v>4.854762280530921e-5</v>
+        <v>4.854762280531613e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,34 +5530,34 @@
         <v>0.05690298249833185</v>
       </c>
       <c r="B147">
-        <v>7.300461671257188</v>
+        <v>7.300458139009359</v>
       </c>
       <c r="C147">
         <v>6.945391299999963e-7</v>
       </c>
       <c r="D147">
-        <v>0.00012853176614855674</v>
+        <v>0.00012853190590584576</v>
       </c>
       <c r="E147">
-        <v>0.001958896999322761</v>
+        <v>0.00195889638067803</v>
       </c>
       <c r="F147">
-        <v>4.855267788642955e-5</v>
+        <v>4.8552614689627674e-5</v>
       </c>
       <c r="G147">
-        <v>7.300465941874136</v>
+        <v>7.300465941873409</v>
       </c>
       <c r="H147">
-        <v>6.975107675111837e-7</v>
+        <v>6.97510767508512e-7</v>
       </c>
       <c r="I147">
-        <v>0.0001285337934671975</v>
+        <v>0.00012853379346720257</v>
       </c>
       <c r="J147">
-        <v>0.0019588974424838987</v>
+        <v>0.001958897442485351</v>
       </c>
       <c r="K147">
-        <v>4.855261754441851e-5</v>
+        <v>4.855261754442545e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.05798232515389271</v>
       </c>
       <c r="B148">
-        <v>7.301771823746139</v>
+        <v>7.301768390491485</v>
       </c>
       <c r="C148">
         <v>6.864868236091582e-7</v>
       </c>
       <c r="D148">
-        <v>0.00013147054104131232</v>
+        <v>0.00013147067936954314</v>
       </c>
       <c r="E148">
-        <v>0.001959418682104718</v>
+        <v>0.0019594180783854996</v>
       </c>
       <c r="F148">
-        <v>4.855774409476063e-5</v>
+        <v>4.855768254987029e-5</v>
       </c>
       <c r="G148">
-        <v>7.301776082676417</v>
+        <v>7.301776082675699</v>
       </c>
       <c r="H148">
-        <v>6.894240109786931e-7</v>
+        <v>6.894240109760537e-7</v>
       </c>
       <c r="I148">
-        <v>0.00013147254515874065</v>
+        <v>0.0001314725451587457</v>
       </c>
       <c r="J148">
-        <v>0.0019594191227569734</v>
+        <v>0.0019594191227584245</v>
       </c>
       <c r="K148">
-        <v>4.855768536974199e-5</v>
+        <v>4.8557685369748946e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5600,34 +5600,34 @@
         <v>0.05907789406063307</v>
       </c>
       <c r="B149">
-        <v>7.303093477497747</v>
+        <v>7.303090141850532</v>
       </c>
       <c r="C149">
         <v>6.783134632184375e-7</v>
       </c>
       <c r="D149">
-        <v>0.00013445386349278079</v>
+        <v>0.00013445400032106132</v>
       </c>
       <c r="E149">
-        <v>0.0019599467545418463</v>
+        <v>0.0019599461656301855</v>
       </c>
       <c r="F149">
-        <v>4.856288489586111e-5</v>
+        <v>4.8562824983052474e-5</v>
       </c>
       <c r="G149">
-        <v>7.303097722276942</v>
+        <v>7.303097722276235</v>
       </c>
       <c r="H149">
-        <v>6.812156824124023e-7</v>
+        <v>6.812156824097959e-7</v>
       </c>
       <c r="I149">
-        <v>0.00013445584400080063</v>
+        <v>0.00013445584400080573</v>
       </c>
       <c r="J149">
-        <v>0.001959947192476863</v>
+        <v>0.001959947192478312</v>
       </c>
       <c r="K149">
-        <v>4.856282776749829e-5</v>
+        <v>4.8562827767505264e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.06019002474509338</v>
       </c>
       <c r="B150">
-        <v>7.304426743108167</v>
+        <v>7.3044235036682945</v>
       </c>
       <c r="C150">
         <v>6.700165456719431e-7</v>
       </c>
       <c r="D150">
-        <v>0.0001374826592605666</v>
+        <v>0.00013748279452041834</v>
       </c>
       <c r="E150">
-        <v>0.001960481330786853</v>
+        <v>0.0019604807565603375</v>
       </c>
       <c r="F150">
-        <v>4.856810179700848e-5</v>
+        <v>4.856804349616955e-5</v>
       </c>
       <c r="G150">
-        <v>7.304430971262922</v>
+        <v>7.304430971262225</v>
       </c>
       <c r="H150">
-        <v>6.728832680377273e-7</v>
+        <v>6.728832680351542e-7</v>
       </c>
       <c r="I150">
-        <v>0.00013748461575116162</v>
+        <v>0.00013748461575116666</v>
       </c>
       <c r="J150">
-        <v>0.0019604817657862257</v>
+        <v>0.0019604817657876716</v>
       </c>
       <c r="K150">
-        <v>4.8568046244666855e-5</v>
+        <v>4.856804624467384e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5670,34 +5670,34 @@
         <v>0.061319057805988</v>
       </c>
       <c r="B151">
-        <v>7.305771727501673</v>
+        <v>7.30576858285482</v>
       </c>
       <c r="C151">
         <v>6.615935299738804e-7</v>
       </c>
       <c r="D151">
-        <v>0.00014055786828442703</v>
+        <v>0.0001405580019098387</v>
       </c>
       <c r="E151">
-        <v>0.0019610225259895087</v>
+        <v>0.0019610219663212403</v>
       </c>
       <c r="F151">
-        <v>4.857339632666989e-5</v>
+        <v>4.8573339617406535e-5</v>
       </c>
       <c r="G151">
-        <v>7.305775936497034</v>
+        <v>7.305775936496349</v>
       </c>
       <c r="H151">
-        <v>6.644242159567743e-7</v>
+        <v>6.64424215954235e-7</v>
       </c>
       <c r="I151">
-        <v>0.00014055980034719505</v>
+        <v>0.0001405598003472001</v>
       </c>
       <c r="J151">
-        <v>0.001961022957827542</v>
+        <v>0.0019610229578289847</v>
       </c>
       <c r="K151">
-        <v>4.857334232941599e-5</v>
+        <v>4.857334232942299e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,34 +5705,34 @@
         <v>0.06246533901851619</v>
       </c>
       <c r="B152">
-        <v>7.307128533855453</v>
+        <v>7.307125482573298</v>
       </c>
       <c r="C152">
         <v>6.53041836509909e-7</v>
       </c>
       <c r="D152">
-        <v>0.00014368044497607737</v>
+        <v>0.00014368057690355724</v>
       </c>
       <c r="E152">
-        <v>0.0019615704563249936</v>
+        <v>0.001961569911083565</v>
       </c>
       <c r="F152">
-        <v>4.8578770034914875e-5</v>
+        <v>4.857871489655166e-5</v>
       </c>
       <c r="G152">
-        <v>7.307132721150101</v>
+        <v>7.307132721149427</v>
       </c>
       <c r="H152">
-        <v>6.55835935591733e-7</v>
+        <v>6.55835935589228e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014368235218042614</v>
+        <v>0.00014368235218043118</v>
       </c>
       <c r="J152">
-        <v>0.0019615708847740524</v>
+        <v>0.0019615708847754917</v>
       </c>
       <c r="K152">
-        <v>4.857871757151851e-5</v>
+        <v>4.857871757152549e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,34 +5740,34 @@
         <v>0.06362921944025837</v>
       </c>
       <c r="B153">
-        <v>7.3084972615238035</v>
+        <v>7.308494302164284</v>
       </c>
       <c r="C153">
         <v>6.443588462570133e-7</v>
       </c>
       <c r="D153">
-        <v>0.00014685135851334088</v>
+        <v>0.00014685148868196822</v>
       </c>
       <c r="E153">
-        <v>0.001962125239022921</v>
+        <v>0.001962124708072408</v>
       </c>
       <c r="F153">
-        <v>4.85842244938336e-5</v>
+        <v>4.8584170905415485e-5</v>
       </c>
       <c r="G153">
-        <v>7.308501424555383</v>
+        <v>7.30850142455472</v>
       </c>
       <c r="H153">
-        <v>6.471157965717634e-7</v>
+        <v>6.47115796569293e-7</v>
       </c>
       <c r="I153">
-        <v>0.0001468532404215113</v>
+        <v>0.00014685324042151634</v>
       </c>
       <c r="J153">
-        <v>0.00196212566385799</v>
+        <v>0.0019621256638594252</v>
       </c>
       <c r="K153">
-        <v>4.8584173542800005e-5</v>
+        <v>4.858417354280698e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5775,34 +5775,34 @@
         <v>0.06481105551869046</v>
       </c>
       <c r="B154">
-        <v>7.309878005961776</v>
+        <v>7.309875137069417</v>
       </c>
       <c r="C154">
         <v>6.355418999816009e-7</v>
       </c>
       <c r="D154">
-        <v>0.0001500715931387301</v>
+        <v>0.0001500717214902047</v>
       </c>
       <c r="E154">
-        <v>0.0019626869923970794</v>
+        <v>0.0019626864755970313</v>
       </c>
       <c r="F154">
-        <v>4.85897612979609e-5</v>
+        <v>4.858970923825584e-5</v>
       </c>
       <c r="G154">
-        <v>7.309882142125292</v>
+        <v>7.309882142124639</v>
       </c>
       <c r="H154">
-        <v>6.38261128454713e-7</v>
+        <v>6.382611284522779e-7</v>
       </c>
       <c r="I154">
-        <v>0.0001500734493065767</v>
+        <v>0.00015007344930658174</v>
       </c>
       <c r="J154">
-        <v>0.0019626874133758915</v>
+        <v>0.0019626874133773222</v>
       </c>
       <c r="K154">
-        <v>4.8589711837479984e-5</v>
+        <v>4.8589711837486964e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.06601120920034848</v>
       </c>
       <c r="B155">
-        <v>7.311270858648384</v>
+        <v>7.311268078754666</v>
       </c>
       <c r="C155">
         <v>6.265882974248986e-7</v>
       </c>
       <c r="D155">
-        <v>0.000153342148462541</v>
+        <v>0.00015334227494123132</v>
       </c>
       <c r="E155">
-        <v>0.0019632558358759163</v>
+        <v>0.0019632553330813664</v>
       </c>
       <c r="F155">
-        <v>4.859538206470632e-5</v>
+        <v>4.85953315122086e-5</v>
       </c>
       <c r="G155">
-        <v>7.311274965326666</v>
+        <v>7.3112749653260245</v>
       </c>
       <c r="H155">
-        <v>6.2926921933575e-7</v>
+        <v>6.292692193333504e-7</v>
       </c>
       <c r="I155">
-        <v>0.0001533439784506544</v>
+        <v>0.00015334397845065954</v>
       </c>
       <c r="J155">
-        <v>0.0019632562527573854</v>
+        <v>0.0019632562527588104</v>
       </c>
       <c r="K155">
-        <v>4.859533407271982e-5</v>
+        <v>4.859533407272678e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.06723004804167766</v>
       </c>
       <c r="B156">
-        <v>7.312675907009522</v>
+        <v>7.312673214633311</v>
       </c>
       <c r="C156">
         <v>6.174952964761553e-7</v>
       </c>
       <c r="D156">
-        <v>0.00015666403977055294</v>
+        <v>0.00015666416432354182</v>
       </c>
       <c r="E156">
-        <v>0.001963831890033795</v>
+        <v>0.001963831401095272</v>
       </c>
       <c r="F156">
-        <v>4.860108843479007e-5</v>
+        <v>4.860103936772463e-5</v>
       </c>
       <c r="G156">
-        <v>7.312679981560785</v>
+        <v>7.312679981560154</v>
       </c>
       <c r="H156">
-        <v>6.201373152908125e-7</v>
+        <v>6.201373152884493e-7</v>
       </c>
       <c r="I156">
-        <v>0.0001566658431339209</v>
+        <v>0.00015666584313392604</v>
       </c>
       <c r="J156">
-        <v>0.001963832302581515</v>
+        <v>0.001963832302582933</v>
       </c>
       <c r="K156">
-        <v>4.860104188892822e-5</v>
+        <v>4.8601041888935176e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,34 +5880,34 @@
         <v>0.06846794532159939</v>
       </c>
       <c r="B157">
-        <v>7.314093234340694</v>
+        <v>7.314090627988724</v>
       </c>
       <c r="C157">
         <v>6.082601123327915e-7</v>
       </c>
       <c r="D157">
-        <v>0.00016003829833641893</v>
+        <v>0.00016003842091354684</v>
       </c>
       <c r="E157">
-        <v>0.00196441527662306</v>
+        <v>0.0019644148013866166</v>
       </c>
       <c r="F157">
-        <v>4.860688207268523e-5</v>
+        <v>4.8606834469012805e-5</v>
       </c>
       <c r="G157">
-        <v>7.314097274105525</v>
+        <v>7.314097274104906</v>
       </c>
       <c r="H157">
-        <v>6.10862619680925e-7</v>
+        <v>6.108626196785984e-7</v>
       </c>
       <c r="I157">
-        <v>0.00016004007464888085</v>
+        <v>0.00016004007464888602</v>
       </c>
       <c r="J157">
-        <v>0.0019644156845867624</v>
+        <v>0.001964415684588174</v>
       </c>
       <c r="K157">
-        <v>4.8606836950318195e-5</v>
+        <v>4.860683695032512e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5915,34 +5915,34 @@
         <v>0.06972528015583085</v>
       </c>
       <c r="B158">
-        <v>7.315522919729655</v>
+        <v>7.315520397897058</v>
       </c>
       <c r="C158">
         <v>5.988799166474477e-7</v>
       </c>
       <c r="D158">
-        <v>0.00016346597173883925</v>
+        <v>0.00016346609229274525</v>
       </c>
       <c r="E158">
-        <v>0.0019650061186069364</v>
+        <v>0.0019650056569141803</v>
       </c>
       <c r="F158">
-        <v>4.861276466706647e-5</v>
+        <v>4.86127185044895e-5</v>
       </c>
       <c r="G158">
-        <v>7.315526922020598</v>
+        <v>7.31552692201999</v>
       </c>
       <c r="H158">
-        <v>6.014422920391028e-7</v>
+        <v>6.014422920368136e-7</v>
       </c>
       <c r="I158">
-        <v>0.00016346772053099287</v>
+        <v>0.00016346772053099805</v>
       </c>
       <c r="J158">
-        <v>0.001965006521731708</v>
+        <v>0.0019650065217331116</v>
       </c>
       <c r="K158">
-        <v>4.86127209452956e-5</v>
+        <v>4.861272094530251e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,34 +5950,34 @@
         <v>0.07100243761299213</v>
       </c>
       <c r="B159">
-        <v>7.3169650379791475</v>
+        <v>7.316962599150039</v>
       </c>
       <c r="C159">
         <v>5.893518366619801e-7</v>
       </c>
       <c r="D159">
-        <v>0.0001669481241836094</v>
+        <v>0.00016694824266976892</v>
       </c>
       <c r="E159">
-        <v>0.001965604540193298</v>
+        <v>0.0019656040918814384</v>
       </c>
       <c r="F159">
-        <v>4.8618737931265024e-5</v>
+        <v>4.861869318723455e-5</v>
       </c>
       <c r="G159">
-        <v>7.3169690000989185</v>
+        <v>7.316969000098322</v>
       </c>
       <c r="H159">
-        <v>5.918734473746682e-7</v>
+        <v>5.918734473724169e-7</v>
       </c>
       <c r="I159">
-        <v>0.00016694984500561748</v>
+        <v>0.0001669498450056227</v>
       </c>
       <c r="J159">
-        <v>0.001965604938228219</v>
+        <v>0.001965604938229615</v>
       </c>
       <c r="K159">
-        <v>4.8618695586953685e-5</v>
+        <v>4.8618695586960584e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5985,34 +5985,34 @@
         <v>0.07229980883253656</v>
       </c>
       <c r="B160">
-        <v>7.318419659529793</v>
+        <v>7.318417302177907</v>
       </c>
       <c r="C160">
         <v>5.796729543272632e-7</v>
       </c>
       <c r="D160">
-        <v>0.00017048583683063572</v>
+        <v>0.00017048595320739524</v>
       </c>
       <c r="E160">
-        <v>0.0019662106668693266</v>
+        <v>0.0019662102317712284</v>
       </c>
       <c r="F160">
-        <v>4.8624803603730543e-5</v>
+        <v>4.862476025545388e-5</v>
       </c>
       <c r="G160">
-        <v>7.318423578751753</v>
+        <v>7.31842357875117</v>
       </c>
       <c r="H160">
-        <v>5.821531550601555e-7</v>
+        <v>5.821531550579425e-7</v>
       </c>
       <c r="I160">
-        <v>0.00017048752923520672</v>
+        <v>0.00017048752923521198</v>
       </c>
       <c r="J160">
-        <v>0.001966211059560426</v>
+        <v>0.0019662110595618128</v>
       </c>
       <c r="K160">
-        <v>4.8624762613475686e-5</v>
+        <v>4.862476261348258e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6020,34 +6020,34 @@
         <v>0.07361779114454015</v>
       </c>
       <c r="B161">
-        <v>7.319886850383324</v>
+        <v>7.319884572972694</v>
       </c>
       <c r="C161">
         <v>5.69840305410037e-7</v>
       </c>
       <c r="D161">
-        <v>0.0001740802081260144</v>
+        <v>0.00017408032235462247</v>
       </c>
       <c r="E161">
-        <v>0.0019668246254371117</v>
+        <v>0.001966824203381362</v>
       </c>
       <c r="F161">
-        <v>4.863096344849973e-5</v>
+        <v>4.8630921472948937e-5</v>
       </c>
       <c r="G161">
-        <v>7.3198907239686894</v>
+        <v>7.3198907239681175</v>
       </c>
       <c r="H161">
-        <v>5.722784382747609e-7</v>
+        <v>5.722784382725868e-7</v>
       </c>
       <c r="I161">
-        <v>0.000174081871619673</v>
+        <v>0.00017408187161967832</v>
       </c>
       <c r="J161">
-        <v>0.001966825012523272</v>
+        <v>0.0019668250125246486</v>
       </c>
       <c r="K161">
-        <v>4.863092378864313e-5</v>
+        <v>4.8630923788650014e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6055,34 +6055,34 @@
         <v>0.0749567881913871</v>
       </c>
       <c r="B162">
-        <v>7.3213666720262545</v>
+        <v>7.3213644730119505</v>
       </c>
       <c r="C162">
         <v>5.598508785847119e-7</v>
       </c>
       <c r="D162">
-        <v>0.00017773235413926975</v>
+        <v>0.00017773246618390474</v>
       </c>
       <c r="E162">
-        <v>0.001967446544050198</v>
+        <v>0.0019674461348611776</v>
       </c>
       <c r="F162">
-        <v>4.8637219255672e-5</v>
+        <v>4.863717862959324e-5</v>
       </c>
       <c r="G162">
-        <v>7.321370497202451</v>
+        <v>7.321370497201891</v>
       </c>
       <c r="H162">
-        <v>5.622462727521129e-7</v>
+        <v>5.622462727499783e-7</v>
       </c>
       <c r="I162">
-        <v>0.00017773398825931833</v>
+        <v>0.0001777339882593237</v>
       </c>
       <c r="J162">
-        <v>0.0019674469252619242</v>
+        <v>0.001967446925263289</v>
       </c>
       <c r="K162">
-        <v>4.8637180902320815e-5</v>
+        <v>4.863718090232766e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,34 +6090,34 @@
         <v>0.07631721005138836</v>
       </c>
       <c r="B163">
-        <v>7.322859181354151</v>
+        <v>7.322857059183051</v>
       </c>
       <c r="C163">
         <v>5.497016145112236e-7</v>
       </c>
       <c r="D163">
-        <v>0.00018144340890585044</v>
+        <v>0.00018144351873364408</v>
       </c>
       <c r="E163">
-        <v>0.001968076552251127</v>
+        <v>0.0019680761557491003</v>
       </c>
       <c r="F163">
-        <v>4.8643572841892284e-5</v>
+        <v>4.864353354181598e-5</v>
       </c>
       <c r="G163">
-        <v>7.322862955359496</v>
+        <v>7.322862955358949</v>
       </c>
       <c r="H163">
-        <v>5.520535859454491e-7</v>
+        <v>5.520535859433545e-7</v>
       </c>
       <c r="I163">
-        <v>0.0001814450131700735</v>
+        <v>0.00018144501317007893</v>
       </c>
       <c r="J163">
-        <v>0.001968076927326639</v>
+        <v>0.001968076927327992</v>
       </c>
       <c r="K163">
-        <v>4.8643535770966026e-5</v>
+        <v>4.8643535770972816e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,34 +6125,34 @@
         <v>0.0776994733643714</v>
       </c>
       <c r="B164">
-        <v>7.324364430596615</v>
+        <v>7.32436238370823</v>
       </c>
       <c r="C164">
         <v>5.393894048981556e-7</v>
       </c>
       <c r="D164">
-        <v>0.0001852145247749852</v>
+        <v>0.00018521463235604178</v>
       </c>
       <c r="E164">
-        <v>0.0019687147810100005</v>
+        <v>0.0019687143970112063</v>
       </c>
       <c r="F164">
-        <v>4.865002605084133e-5</v>
+        <v>4.864998805309306e-5</v>
       </c>
       <c r="G164">
-        <v>7.324368150637722</v>
+        <v>7.324368150637186</v>
       </c>
       <c r="H164">
-        <v>5.416972564710664e-7</v>
+        <v>5.416972564690125e-7</v>
       </c>
       <c r="I164">
-        <v>0.00018521609869294142</v>
+        <v>0.00018521609869294686</v>
       </c>
       <c r="J164">
-        <v>0.0019687151496755</v>
+        <v>0.0019687151496768393</v>
       </c>
       <c r="K164">
-        <v>4.864999023799712e-5</v>
+        <v>4.864999023800385e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,34 +6160,34 @@
         <v>0.07910400145927939</v>
       </c>
       <c r="B165">
-        <v>7.3258824672431455</v>
+        <v>7.325880494070481</v>
       </c>
       <c r="C165">
         <v>5.289110915506857e-7</v>
       </c>
       <c r="D165">
-        <v>0.0001890468727629965</v>
+        <v>0.00018904697807040823</v>
       </c>
       <c r="E165">
-        <v>0.0019693613627640885</v>
+        <v>0.001969360991080851</v>
       </c>
       <c r="F165">
-        <v>4.865658075373339e-5</v>
+        <v>4.865654403444562e-5</v>
       </c>
       <c r="G165">
-        <v>7.325886130523245</v>
+        <v>7.325886130522722</v>
       </c>
       <c r="H165">
-        <v>5.311741124386811e-7</v>
+        <v>5.311741124366684e-7</v>
       </c>
       <c r="I165">
-        <v>0.00018904841585609049</v>
+        <v>0.00018904841585609604</v>
       </c>
       <c r="J165">
-        <v>0.0019693617247452835</v>
+        <v>0.0019693617247466084</v>
       </c>
       <c r="K165">
-        <v>4.865654617445029e-5</v>
+        <v>4.865654617445695e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.08053122448381893</v>
       </c>
       <c r="B166">
-        <v>7.32741333396999</v>
+        <v>7.3274114329404565</v>
       </c>
       <c r="C166">
         <v>5.182634654034676e-7</v>
       </c>
       <c r="D166">
-        <v>0.00019294164291217943</v>
+        <v>0.00019294174592203667</v>
       </c>
       <c r="E166">
-        <v>0.001970016431458524</v>
+        <v>0.001970016071899365</v>
       </c>
       <c r="F166">
-        <v>4.866323884982181e-5</v>
+        <v>4.8663203384946354e-5</v>
       </c>
       <c r="G166">
-        <v>7.327416937665113</v>
+        <v>7.327416937664602</v>
       </c>
       <c r="H166">
-        <v>5.204809311731503e-7</v>
+        <v>5.204809311711793e-7</v>
       </c>
       <c r="I166">
-        <v>0.0001929431546908051</v>
+        <v>0.00019294315469081072</v>
       </c>
       <c r="J166">
-        <v>0.001970016786482559</v>
+        <v>0.0019700167864838687</v>
       </c>
       <c r="K166">
-        <v>4.866320547938613e-5</v>
+        <v>4.866320547939272e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6230,34 +6230,34 @@
         <v>0.08198157953619621</v>
       </c>
       <c r="B167">
-        <v>7.328957068568163</v>
+        <v>7.328955238104516</v>
       </c>
       <c r="C167">
         <v>5.074432655377527e-7</v>
       </c>
       <c r="D167">
-        <v>0.0001969000446553493</v>
+        <v>0.00019690014534674637</v>
       </c>
       <c r="E167">
-        <v>0.0019706801225881</v>
+        <v>0.0019706797749578686</v>
       </c>
       <c r="F167">
-        <v>4.867000226691237e-5</v>
+        <v>4.8669968032233655e-5</v>
       </c>
       <c r="G167">
-        <v>7.328960609852038</v>
+        <v>7.328960609851539</v>
       </c>
       <c r="H167">
-        <v>5.096144376839683e-7</v>
+        <v>5.096144376820395e-7</v>
       </c>
       <c r="I167">
-        <v>0.0001969015246097343</v>
+        <v>0.00019690152460973998</v>
       </c>
       <c r="J167">
-        <v>0.001970680470375852</v>
+        <v>0.0019706804703771455</v>
       </c>
       <c r="K167">
-        <v>4.8669970080457496e-5</v>
+        <v>4.8669970080464015e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,34 +6265,34 @@
         <v>0.08345551079898178</v>
       </c>
       <c r="B168">
-        <v>7.330513703872752</v>
+        <v>7.330511942394077</v>
       </c>
       <c r="C168">
         <v>4.964471781828493e-7</v>
       </c>
       <c r="D168">
-        <v>0.00020092330718616657</v>
+        <v>0.00020092340554120287</v>
       </c>
       <c r="E168">
-        <v>0.0019713525732402135</v>
+        <v>0.0019713522373402174</v>
       </c>
       <c r="F168">
-        <v>4.8676872961885e-5</v>
+        <v>4.867683993303387e-5</v>
       </c>
       <c r="G168">
-        <v>7.330517179917129</v>
+        <v>7.330517179916642</v>
       </c>
       <c r="H168">
-        <v>4.985713041087155e-7</v>
+        <v>4.985713041068293e-7</v>
       </c>
       <c r="I168">
-        <v>0.0002009247548311588</v>
+        <v>0.0002009247548311645</v>
       </c>
       <c r="J168">
-        <v>0.001971352913508423</v>
+        <v>0.0019713529135096993</v>
       </c>
       <c r="K168">
-        <v>4.867684193436201e-5</v>
+        <v>4.8676841934368434e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,34 +6300,34 @@
         <v>0.08495346967514486</v>
       </c>
       <c r="B169">
-        <v>7.3320832676936565</v>
+        <v>7.332081573616385</v>
       </c>
       <c r="C169">
         <v>4.852718357008952e-7</v>
       </c>
       <c r="D169">
-        <v>0.00020501267983534654</v>
+        <v>0.00020501277583912154</v>
       </c>
       <c r="E169">
-        <v>0.0019720339221389657</v>
+        <v>0.0019720335977671225</v>
       </c>
       <c r="F169">
-        <v>4.868385292122358e-5</v>
+        <v>4.868382107369198e-5</v>
       </c>
       <c r="G169">
-        <v>7.332086675649846</v>
+        <v>7.332086675649371</v>
       </c>
       <c r="H169">
-        <v>4.873481483216891e-7</v>
+        <v>4.873481483198465e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002050140946483268</v>
+        <v>0.00020501409464833257</v>
       </c>
       <c r="J169">
-        <v>0.0019720342546068925</v>
+        <v>0.001972034254608151</v>
       </c>
       <c r="K169">
-        <v>4.868382302742222e-5</v>
+        <v>4.868382302742856e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6335,34 +6335,34 @@
         <v>0.08647591492629908</v>
       </c>
       <c r="B170">
-        <v>7.333665782747935</v>
+        <v>7.333664154486883</v>
       </c>
       <c r="C170">
         <v>4.7391381555610043e-7</v>
       </c>
       <c r="D170">
-        <v>0.00020916943245286696</v>
+        <v>0.00020916952609347132</v>
       </c>
       <c r="E170">
-        <v>0.001972724309690471</v>
+        <v>0.00197272399664146</v>
       </c>
       <c r="F170">
-        <v>4.869094416155447e-5</v>
+        <v>4.869091347071065e-5</v>
       </c>
       <c r="G170">
-        <v>7.333669119755912</v>
+        <v>7.33366911975545</v>
       </c>
       <c r="H170">
-        <v>4.7594153323821617e-7</v>
+        <v>4.7594153323641766e-7</v>
       </c>
       <c r="I170">
-        <v>0.00020917081392368757</v>
+        <v>0.00020917081392369326</v>
       </c>
       <c r="J170">
-        <v>0.00197272463407739</v>
+        <v>0.00197272463407863</v>
       </c>
       <c r="K170">
-        <v>4.869091537616926e-5</v>
+        <v>4.8690915376175524e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6370,34 +6370,34 @@
         <v>0.08802331281320179</v>
       </c>
       <c r="B171">
-        <v>7.335261266593858</v>
+        <v>7.335259702563316</v>
       </c>
       <c r="C171">
         <v>4.623696392658438e-7</v>
       </c>
       <c r="D171">
-        <v>0.0002133948557962874</v>
+        <v>0.00021339494706478792</v>
       </c>
       <c r="E171">
-        <v>0.00197342387802938</v>
+        <v>0.001973423576094809</v>
       </c>
       <c r="F171">
-        <v>4.869814873019367e-5</v>
+        <v>4.869811917129806e-5</v>
       </c>
       <c r="G171">
-        <v>7.335264529793991</v>
+        <v>7.335264529793543</v>
       </c>
       <c r="H171">
-        <v>4.643479654232844e-7</v>
+        <v>4.643479654215308e-7</v>
       </c>
       <c r="I171">
-        <v>0.00021339620339718197</v>
+        <v>0.0002133962033971876</v>
       </c>
       <c r="J171">
-        <v>0.0019734241940500483</v>
+        <v>0.001973424194051268</v>
       </c>
       <c r="K171">
-        <v>4.8698121027767025e-5</v>
+        <v>4.86981210277732e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,34 +6405,34 @@
         <v>0.08959613723855007</v>
       </c>
       <c r="B172">
-        <v>7.336869731566867</v>
+        <v>7.3368682301816905</v>
       </c>
       <c r="C172">
         <v>4.506357713360205e-7</v>
       </c>
       <c r="D172">
-        <v>0.00021769026192529304</v>
+        <v>0.00021769035081571265</v>
       </c>
       <c r="E172">
-        <v>0.0019741327710666567</v>
+        <v>0.001974132480035236</v>
       </c>
       <c r="F172">
-        <v>4.870546870570303e-5</v>
+        <v>4.870544025392468e-5</v>
       </c>
       <c r="G172">
-        <v>7.336872918111129</v>
+        <v>7.336872918110693</v>
       </c>
       <c r="H172">
-        <v>4.5256389425671807e-7</v>
+        <v>4.5256389425501003e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021769157513372404</v>
+        <v>0.00021769157513372957</v>
       </c>
       <c r="J172">
-        <v>0.0019741330784404185</v>
+        <v>0.0019741330784416172</v>
       </c>
       <c r="K172">
-        <v>4.8705442060697735e-5</v>
+        <v>4.8705442060703807e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6440,34 +6440,34 @@
         <v>0.0911948698921171</v>
       </c>
       <c r="B173">
-        <v>7.338491184717551</v>
+        <v>7.338489744394296</v>
       </c>
       <c r="C173">
         <v>4.3870861817787825e-7</v>
       </c>
       <c r="D173">
-        <v>0.000222056984602584</v>
+        <v>0.00022205707111187564</v>
       </c>
       <c r="E173">
-        <v>0.0019748511345386364</v>
+        <v>0.0019748508541963597</v>
       </c>
       <c r="F173">
-        <v>4.87129061984556e-5</v>
+        <v>4.87128788288892e-5</v>
       </c>
       <c r="G173">
-        <v>7.338494291747967</v>
+        <v>7.338494291747544</v>
       </c>
       <c r="H173">
-        <v>4.4058571082008005e-7</v>
+        <v>4.405857108184182e-7</v>
       </c>
       <c r="I173">
-        <v>0.00022205826289310775</v>
+        <v>0.00022205826289311312</v>
       </c>
       <c r="J173">
-        <v>0.0019748514329727606</v>
+        <v>0.001974851432973937</v>
       </c>
       <c r="K173">
-        <v>4.8712880585270674e-5</v>
+        <v>4.871288058527664e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,34 +6475,34 @@
         <v>0.09282000039827346</v>
       </c>
       <c r="B174">
-        <v>7.340125627751803</v>
+        <v>7.340124246909868</v>
       </c>
       <c r="C174">
         <v>4.265845270075033e-7</v>
       </c>
       <c r="D174">
-        <v>0.0002264963797012267</v>
+        <v>0.00022649646382924245</v>
       </c>
       <c r="E174">
-        <v>0.001975579116057383</v>
+        <v>0.001975578846187721</v>
       </c>
       <c r="F174">
-        <v>4.872046335121046e-5</v>
+        <v>4.8720437038893825e-5</v>
       </c>
       <c r="G174">
-        <v>7.340128652394948</v>
+        <v>7.340128652394539</v>
       </c>
       <c r="H174">
-        <v>4.284097466444389e-7</v>
+        <v>4.28409746642824e-7</v>
       </c>
       <c r="I174">
-        <v>0.00022649762253102855</v>
+        <v>0.00022649762253103379</v>
       </c>
       <c r="J174">
-        <v>0.0019755794052651538</v>
+        <v>0.0019755794052663065</v>
       </c>
       <c r="K174">
-        <v>4.872043874414883e-5</v>
+        <v>4.87204387441547e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,34 +6510,34 @@
         <v>0.09447202646593843</v>
       </c>
       <c r="B175">
-        <v>7.3417730569733015</v>
+        <v>7.341771734036092</v>
       </c>
       <c r="C175">
         <v>4.142597847272035e-7</v>
       </c>
       <c r="D175">
-        <v>0.00023100982561859236</v>
+        <v>0.00023100990736804638</v>
       </c>
       <c r="E175">
-        <v>0.0019763168651623806</v>
+        <v>0.0019763166055464755</v>
       </c>
       <c r="F175">
-        <v>4.872814233969714e-5</v>
+        <v>4.872811705962915e-5</v>
       </c>
       <c r="G175">
-        <v>7.341775996347959</v>
+        <v>7.3417759963475655</v>
       </c>
       <c r="H175">
-        <v>4.1603227273640693e-7</v>
+        <v>4.160322727348396e-7</v>
       </c>
       <c r="I175">
-        <v>0.00023101103242352474</v>
+        <v>0.00023101103242352975</v>
       </c>
       <c r="J175">
-        <v>0.001976317144859137</v>
+        <v>0.0019763171448602644</v>
       </c>
       <c r="K175">
-        <v>4.8728118713024245e-5</v>
+        <v>4.8728118713030005e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,34 +6545,34 @@
         <v>0.09615145404100717</v>
       </c>
       <c r="B176">
-        <v>7.343433463228458</v>
+        <v>7.343432196624566</v>
       </c>
       <c r="C176">
         <v>4.017306167883258e-7</v>
       </c>
       <c r="D176">
-        <v>0.00023559872369700478</v>
+        <v>0.00023559880307343095</v>
       </c>
       <c r="E176">
-        <v>0.0019770645333735725</v>
+        <v>0.001977064283790449</v>
       </c>
       <c r="F176">
-        <v>4.8735945373209945e-5</v>
+        <v>4.873592110036902e-5</v>
       </c>
       <c r="G176">
-        <v>7.343436314498228</v>
+        <v>7.343436314497849</v>
       </c>
       <c r="H176">
-        <v>4.034494984650423e-7</v>
+        <v>4.0344949846352333e-7</v>
       </c>
       <c r="I176">
-        <v>0.000235599893946268</v>
+        <v>0.00023559989394627282</v>
       </c>
       <c r="J176">
-        <v>0.001977064803272676</v>
+        <v>0.0019770648032737775</v>
       </c>
       <c r="K176">
-        <v>4.873592270119613e-5</v>
+        <v>4.8735922701201794e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,34 +6580,34 @@
         <v>0.0978587974613007</v>
       </c>
       <c r="B177">
-        <v>7.345106831853993</v>
+        <v>7.345105620018384</v>
       </c>
       <c r="C177">
         <v>3.8899318603528724e-7</v>
       </c>
       <c r="D177">
-        <v>0.0002402644986512244</v>
+        <v>0.0002402645756629285</v>
       </c>
       <c r="E177">
-        <v>0.0019778222742457886</v>
+        <v>0.001977822034472566</v>
       </c>
       <c r="F177">
-        <v>4.874387469521247e-5</v>
+        <v>4.874385140457526e-5</v>
       </c>
       <c r="G177">
-        <v>7.3451095921578355</v>
+        <v>7.345109592157471</v>
       </c>
       <c r="H177">
-        <v>3.906575701704784e-7</v>
+        <v>3.906575701690084e-7</v>
       </c>
       <c r="I177">
-        <v>0.0002402656317806222</v>
+        <v>0.00024026563178062676</v>
       </c>
       <c r="J177">
-        <v>0.001977822534060718</v>
+        <v>0.001977822534061792</v>
       </c>
       <c r="K177">
-        <v>4.874385295207347e-5</v>
+        <v>4.8743852952079034e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.09959457961408581</v>
       </c>
       <c r="B178">
-        <v>7.346793142627244</v>
+        <v>7.346791984002461</v>
       </c>
       <c r="C178">
         <v>3.760435915304211e-7</v>
       </c>
       <c r="D178">
-        <v>0.00024500859900289845</v>
+        <v>0.0002450086736609044</v>
       </c>
       <c r="E178">
-        <v>0.001978590243424566</v>
+        <v>0.0019785900132366766</v>
       </c>
       <c r="F178">
-        <v>4.875193258395242e-5</v>
+        <v>4.875191025051298e-5</v>
       </c>
       <c r="G178">
-        <v>7.346795809098417</v>
+        <v>7.346795809098068</v>
       </c>
       <c r="H178">
-        <v>3.776525701899609e-7</v>
+        <v>3.776525701885408e-7</v>
       </c>
       <c r="I178">
-        <v>0.0002450096944242642</v>
+        <v>0.0002450096944242686</v>
       </c>
       <c r="J178">
-        <v>0.0019785904928635036</v>
+        <v>0.0019785904928645488</v>
       </c>
       <c r="K178">
-        <v>4.875191174392932e-5</v>
+        <v>4.875191174393476e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6650,34 +6650,34 @@
         <v>0.10135933209621334</v>
       </c>
       <c r="B179">
-        <v>7.348492369719407</v>
+        <v>7.3484912627567605</v>
       </c>
       <c r="C179">
         <v>3.628778673590644e-7</v>
       </c>
       <c r="D179">
-        <v>0.0002498324975221076</v>
+        <v>0.0002498325698400992</v>
       </c>
       <c r="E179">
-        <v>0.0019793685987034002</v>
+        <v>0.0019793683778748165</v>
       </c>
       <c r="F179">
-        <v>4.876012135308714e-5</v>
+        <v>4.876009995187624e-5</v>
       </c>
       <c r="G179">
-        <v>7.348494939515104</v>
+        <v>7.34849493951477</v>
       </c>
       <c r="H179">
-        <v>3.644305157447494e-7</v>
+        <v>3.644305157433799e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024983355467781</v>
+        <v>0.00024983355467781424</v>
       </c>
       <c r="J179">
-        <v>0.001979368837485441</v>
+        <v>0.001979368837486457</v>
       </c>
       <c r="K179">
-        <v>4.876010139048395e-5</v>
+        <v>4.8760101390489226e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,34 +6685,34 @@
         <v>0.10315359537692399</v>
       </c>
       <c r="B180">
-        <v>7.3502044816517955</v>
+        <v>7.350203424812571</v>
       </c>
       <c r="C180">
         <v>3.4949198141537244e-7</v>
       </c>
       <c r="D180">
-        <v>0.00025473769167614474</v>
+        <v>0.0002547377616704008</v>
       </c>
       <c r="E180">
-        <v>0.001980157500082436</v>
+        <v>0.001980157288385901</v>
       </c>
       <c r="F180">
-        <v>4.876844335232001e-5</v>
+        <v>4.8768422858424794e-5</v>
       </c>
       <c r="G180">
-        <v>7.35020695194558</v>
+        <v>7.35020695194526</v>
       </c>
       <c r="H180">
-        <v>3.509873574096087e-7</v>
+        <v>3.509873574082906e-7</v>
       </c>
       <c r="I180">
-        <v>0.0002547387099986399</v>
+        <v>0.0002547387099986438</v>
       </c>
       <c r="J180">
-        <v>0.001980157727925644</v>
+        <v>0.001980157727926629</v>
       </c>
       <c r="K180">
-        <v>4.876842424147094e-5</v>
+        <v>4.876842424147604e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.10497791896337114</v>
       </c>
       <c r="B181">
-        <v>7.351929441255275</v>
+        <v>7.351928433011937</v>
       </c>
       <c r="C181">
         <v>3.3588183416712727e-7</v>
       </c>
       <c r="D181">
-        <v>0.0002597257040856594</v>
+        <v>0.0002597257717749847</v>
       </c>
       <c r="E181">
-        <v>0.0019809571098286316</v>
+        <v>0.001980956907035894</v>
       </c>
       <c r="F181">
-        <v>4.8776900968047966e-5</v>
+        <v>4.877688135663172e-5</v>
       </c>
       <c r="G181">
-        <v>7.3519318092086525</v>
+        <v>7.351931809208347</v>
       </c>
       <c r="H181">
-        <v>3.3731897813884586e-7</v>
+        <v>3.3731897813757975e-7</v>
       </c>
       <c r="I181">
-        <v>0.00025972668297808663</v>
+        <v>0.0002597266829780903</v>
       </c>
       <c r="J181">
-        <v>0.0019809573264507586</v>
+        <v>0.001980957326451711</v>
       </c>
       <c r="K181">
-        <v>4.877688268333839e-5</v>
+        <v>4.877688268334332e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.10683286156891172</v>
       </c>
       <c r="B182">
-        <v>7.353667205633032</v>
+        <v>7.3536662444704</v>
       </c>
       <c r="C182">
         <v>3.22043257400389e-7</v>
       </c>
       <c r="D182">
-        <v>0.00026479808298830997</v>
+        <v>0.00026479814839396076</v>
       </c>
       <c r="E182">
-        <v>0.0019817675925374034</v>
+        <v>0.0019817673984194625</v>
       </c>
       <c r="F182">
-        <v>4.878549662402056e-5</v>
+        <v>4.878547787034264e-5</v>
       </c>
       <c r="G182">
-        <v>7.353669468433067</v>
+        <v>7.353669468432774</v>
       </c>
       <c r="H182">
-        <v>3.234211917358008e-7</v>
+        <v>3.2342119173458747e-7</v>
       </c>
       <c r="I182">
-        <v>0.00026479902183756954</v>
+        <v>0.00026479902183757295</v>
       </c>
       <c r="J182">
-        <v>0.0019817677976560963</v>
+        <v>0.0019817677976570157</v>
       </c>
       <c r="K182">
-        <v>4.878547913993733e-5</v>
+        <v>4.8785479139942086e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6790,34 +6790,34 @@
         <v>0.10871899128421662</v>
       </c>
       <c r="B183">
-        <v>7.3554177261267535</v>
+        <v>7.355416810543197</v>
       </c>
       <c r="C183">
         <v>3.0797201294284224e-7</v>
       </c>
       <c r="D183">
-        <v>0.00026995640271006377</v>
+        <v>0.0002699564658556684</v>
       </c>
       <c r="E183">
-        <v>0.0019825891151957833</v>
+        <v>0.0019825889295231255</v>
       </c>
       <c r="F183">
-        <v>4.8794232782010594e-5</v>
+        <v>4.8794214861446405e-5</v>
       </c>
       <c r="G183">
-        <v>7.355419880960439</v>
+        <v>7.355419880960161</v>
       </c>
       <c r="H183">
-        <v>3.0928974201801846e-7</v>
+        <v>3.0928974201685876e-7</v>
       </c>
       <c r="I183">
-        <v>0.0002699573009200584</v>
+        <v>0.0002699573009200616</v>
       </c>
       <c r="J183">
-        <v>0.001982589308529919</v>
+        <v>0.001982589308530805</v>
       </c>
       <c r="K183">
-        <v>4.879421607316003e-5</v>
+        <v>4.8794216073164604e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,34 +6825,34 @@
         <v>0.11063688575125284</v>
       </c>
       <c r="B184">
-        <v>7.357180948286391</v>
+        <v>7.357180076794995</v>
       </c>
       <c r="C184">
         <v>2.93663791365899e-7</v>
       </c>
       <c r="D184">
-        <v>0.00027520226414428945</v>
+        <v>0.000275202325055764</v>
       </c>
       <c r="E184">
-        <v>0.0019834218472470928</v>
+        <v>0.001983421669789945</v>
       </c>
       <c r="F184">
-        <v>4.8803111942496905e-5</v>
+        <v>4.880309483055787e-5</v>
       </c>
       <c r="G184">
-        <v>7.357182992391629</v>
+        <v>7.357182992391365</v>
       </c>
       <c r="H184">
-        <v>2.9492030114760304e-7</v>
+        <v>2.949203011464977e-7</v>
       </c>
       <c r="I184">
-        <v>0.0002752031211094536</v>
+        <v>0.0002752031211094565</v>
       </c>
       <c r="J184">
-        <v>0.001983422028524679</v>
+        <v>0.0019834220285255303</v>
       </c>
       <c r="K184">
-        <v>4.880309598363303e-5</v>
+        <v>4.880309598363741e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6860,34 +6860,34 @@
         <v>0.11258713234019087</v>
       </c>
       <c r="B185">
-        <v>7.358956811843628</v>
+        <v>7.358955982973341</v>
       </c>
       <c r="C185">
         <v>2.7911421066485515e-7</v>
       </c>
       <c r="D185">
-        <v>0.00028053729523878874</v>
+        <v>0.000280537353944249</v>
       </c>
       <c r="E185">
-        <v>0.0019842659606571634</v>
+        <v>0.0019842657911857344</v>
       </c>
       <c r="F185">
-        <v>4.8812136645359266e-5</v>
+        <v>4.881212031771281e-5</v>
       </c>
       <c r="G185">
-        <v>7.358958742437496</v>
+        <v>7.358958742437245</v>
       </c>
       <c r="H185">
-        <v>2.8030846823984394e-7</v>
+        <v>2.80308468238794e-7</v>
       </c>
       <c r="I185">
-        <v>0.0002805381103426467</v>
+        <v>0.00028053811034264934</v>
       </c>
       <c r="J185">
-        <v>0.001984266129604621</v>
+        <v>0.001984266129605435</v>
       </c>
       <c r="K185">
-        <v>4.8812121411360145e-5</v>
+        <v>4.8812121411364347e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,34 +6895,34 @@
         <v>0.11457032832929134</v>
       </c>
       <c r="B186">
-        <v>7.360745250689136</v>
+        <v>7.360744462985895</v>
       </c>
       <c r="C186">
         <v>2.643188149169085e-7</v>
       </c>
       <c r="D186">
-        <v>0.0002859631514909174</v>
+        <v>0.0002859632080205858</v>
       </c>
       <c r="E186">
-        <v>0.001985121629982108</v>
+        <v>0.0019851214682668444</v>
       </c>
       <c r="F186">
-        <v>4.8821309470586004e-5</v>
+        <v>4.882129390307538e-5</v>
       </c>
       <c r="G186">
-        <v>7.360747065033216</v>
+        <v>7.36074706503298</v>
       </c>
       <c r="H186">
-        <v>2.6544976838925043e-7</v>
+        <v>2.654497683882567e-7</v>
       </c>
       <c r="I186">
-        <v>0.00028596392412413217</v>
+        <v>0.00028596392412413466</v>
       </c>
       <c r="J186">
-        <v>0.001985121786328047</v>
+        <v>0.0019851217863288226</v>
       </c>
       <c r="K186">
-        <v>4.882129493650448e-5</v>
+        <v>4.882129493650848e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,34 +6930,34 @@
         <v>0.11658708108782626</v>
       </c>
       <c r="B187">
-        <v>7.362546192853766</v>
+        <v>7.362545444881612</v>
       </c>
       <c r="C187">
         <v>2.4927307291651906e-7</v>
       </c>
       <c r="D187">
-        <v>0.00029148151645094934</v>
+        <v>0.0002914815708370582</v>
       </c>
       <c r="E187">
-        <v>0.0019859890324376707</v>
+        <v>0.001985988878249504</v>
       </c>
       <c r="F187">
-        <v>4.88306330389944e-5</v>
+        <v>4.883061820765842e-5</v>
       </c>
       <c r="G187">
-        <v>7.362547888229315</v>
+        <v>7.362547888229093</v>
       </c>
       <c r="H187">
-        <v>2.503396509999045e-7</v>
+        <v>2.5033965099896785e-7</v>
       </c>
       <c r="I187">
-        <v>0.0002914822459776774</v>
+        <v>0.00029148224597767966</v>
       </c>
       <c r="J187">
-        <v>0.0019859891759175146</v>
+        <v>0.0019859891759182505</v>
       </c>
       <c r="K187">
-        <v>4.883061918010331e-5</v>
+        <v>4.883061918010712e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,34 +6965,34 @@
         <v>0.11863800826209053</v>
       </c>
       <c r="B188">
-        <v>7.3643595604937815</v>
+        <v>7.364358850835929</v>
       </c>
       <c r="C188">
         <v>2.339723767876081e-7</v>
       </c>
       <c r="D188">
-        <v>0.00029709410223383714</v>
+        <v>0.0002970941545105283</v>
       </c>
       <c r="E188">
-        <v>0.0019868683479701576</v>
+        <v>0.001986868201080754</v>
       </c>
       <c r="F188">
-        <v>4.884011001296435e-5</v>
+        <v>4.884009589405678e-5</v>
       </c>
       <c r="G188">
-        <v>7.364361134191037</v>
+        <v>7.364361134190829</v>
       </c>
       <c r="H188">
-        <v>2.3497348839408546e-7</v>
+        <v>2.3497348839320672e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002970947880174991</v>
+        <v>0.0002970947880175013</v>
       </c>
       <c r="J188">
-        <v>0.0019868684783261987</v>
+        <v>0.001986868478326893</v>
       </c>
       <c r="K188">
-        <v>4.88400968047245e-5</v>
+        <v>4.88400968047281e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7000,34 +7000,34 @@
         <v>0.12072373796456101</v>
       </c>
       <c r="B189">
-        <v>7.366185269880219</v>
+        <v>7.366184597140108</v>
       </c>
       <c r="C189">
         <v>2.1841204057227745e-7</v>
       </c>
       <c r="D189">
-        <v>0.00030280265003953025</v>
+        <v>0.00030280270024275117</v>
       </c>
       <c r="E189">
-        <v>0.001987759759328969</v>
+        <v>0.001987759619510982</v>
       </c>
       <c r="F189">
-        <v>4.884974309718537e-5</v>
+        <v>4.884972966719423e-5</v>
       </c>
       <c r="G189">
-        <v>7.366186719216086</v>
+        <v>7.366186719215892</v>
       </c>
       <c r="H189">
-        <v>2.193465745600303e-7</v>
+        <v>2.1934657455921039e-7</v>
       </c>
       <c r="I189">
-        <v>0.0003028032914280915</v>
+        <v>0.00030280329142809344</v>
       </c>
       <c r="J189">
-        <v>0.0019877598763011267</v>
+        <v>0.0019877598763017785</v>
       </c>
       <c r="K189">
-        <v>4.884973051530515e-5</v>
+        <v>4.884973051530853e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,34 +7035,34 @@
         <v>0.12284490896626077</v>
       </c>
       <c r="B190">
-        <v>7.368023231392501</v>
+        <v>7.368022594194803</v>
       </c>
       <c r="C190">
         <v>2.02587298796075e-7</v>
       </c>
       <c r="D190">
-        <v>0.0003086089306820086</v>
+        <v>0.0003086089788494056</v>
       </c>
       <c r="E190">
-        <v>0.0019886634521407414</v>
+        <v>0.001988663319168055</v>
       </c>
       <c r="F190">
-        <v>4.8859535039417625e-5</v>
+        <v>4.8859522275084e-5</v>
       </c>
       <c r="G190">
-        <v>7.368024553701856</v>
+        <v>7.3680245537016775</v>
       </c>
       <c r="H190">
-        <v>2.0345412376055765e-7</v>
+        <v>2.0345412375979749e-7</v>
       </c>
       <c r="I190">
-        <v>0.00030860952701060887</v>
+        <v>0.00030860952701061077</v>
       </c>
       <c r="J190">
-        <v>0.0019886635554743877</v>
+        <v>0.001988663555474996</v>
       </c>
       <c r="K190">
-        <v>4.885952305984897e-5</v>
+        <v>4.8859523059852105e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7070,34 +7070,34 @@
         <v>0.12500217089238783</v>
       </c>
       <c r="B191">
-        <v>7.3698733495163555</v>
+        <v>7.369872746507951</v>
       </c>
       <c r="C191">
         <v>1.8649330500806208e-7</v>
       </c>
       <c r="D191">
-        <v>0.0003145147451272013</v>
+        <v>0.0003145147912980097</v>
       </c>
       <c r="E191">
-        <v>0.001989579614985115</v>
+        <v>0.001989579488633092</v>
       </c>
       <c r="F191">
-        <v>4.886948863126685e-5</v>
+        <v>4.8869476509603405e-5</v>
       </c>
       <c r="G191">
-        <v>7.369874542170598</v>
+        <v>7.369874542170433</v>
       </c>
       <c r="H191">
-        <v>1.872912685851466e-7</v>
+        <v>1.872912685844471e-7</v>
       </c>
       <c r="I191">
-        <v>0.0003145152957402186</v>
+        <v>0.00031451529574022026</v>
       </c>
       <c r="J191">
-        <v>0.0019895797044367294</v>
+        <v>0.001989579704437293</v>
       </c>
       <c r="K191">
-        <v>4.886947723021763e-5</v>
+        <v>4.8869477230220554e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,34 +7105,34 @@
         <v>0.12719618442126782</v>
       </c>
       <c r="B192">
-        <v>7.371735522846178</v>
+        <v>7.371734952697091</v>
       </c>
       <c r="C192">
         <v>1.7012513029685346e-7</v>
       </c>
       <c r="D192">
-        <v>0.0003205219250399524</v>
+        <v>0.00032052196925488473</v>
       </c>
       <c r="E192">
-        <v>0.0019905084394721264</v>
+        <v>0.0019905083195178486</v>
       </c>
       <c r="F192">
-        <v>4.887960670897393e-5</v>
+        <v>4.887959520728294e-5</v>
       </c>
       <c r="G192">
-        <v>7.371736583243143</v>
+        <v>7.371736583242994</v>
       </c>
       <c r="H192">
-        <v>1.7085305925423962e-7</v>
+        <v>1.7085305925360177e-7</v>
       </c>
       <c r="I192">
-        <v>0.00032052242923493303</v>
+        <v>0.0003205224292349345</v>
       </c>
       <c r="J192">
-        <v>0.0019905085147940843</v>
+        <v>0.0019905085147946013</v>
       </c>
       <c r="K192">
-        <v>4.8879595862956996e-5</v>
+        <v>4.887959586295968e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7140,34 +7140,34 @@
         <v>0.129427621486692</v>
       </c>
       <c r="B193">
-        <v>7.373609644091872</v>
+        <v>7.373609105496161</v>
       </c>
       <c r="C193">
         <v>1.5347776178117209e-7</v>
       </c>
       <c r="D193">
-        <v>0.0003266323333402095</v>
+        <v>0.0003266323756413414</v>
       </c>
       <c r="E193">
-        <v>0.0019914501203212526</v>
+        <v>0.001991450006543759</v>
       </c>
       <c r="F193">
-        <v>4.8889892154219084e-5</v>
+        <v>4.888988125011e-5</v>
       </c>
       <c r="G193">
-        <v>7.373610569652336</v>
+        <v>7.373610569652203</v>
       </c>
       <c r="H193">
-        <v>1.541344612539119e-7</v>
+        <v>1.5413446125333668e-7</v>
       </c>
       <c r="I193">
-        <v>0.00032663279043577314</v>
+        <v>0.00032663279043577455</v>
       </c>
       <c r="J193">
-        <v>0.0019914501812764323</v>
+        <v>0.0019914501812769007</v>
       </c>
       <c r="K193">
-        <v>4.8889881840057105e-5</v>
+        <v>4.888988184005955e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.13169716548370228</v>
       </c>
       <c r="B194">
-        <v>7.375495600090267</v>
+        <v>7.3754950917668625</v>
       </c>
       <c r="C194">
         <v>1.3654610107405398e-7</v>
       </c>
       <c r="D194">
-        <v>0.00033284786476860573</v>
+        <v>0.00033284790519926043</v>
       </c>
       <c r="E194">
-        <v>0.0019924048554420936</v>
+        <v>0.001992404747622616</v>
       </c>
       <c r="F194">
-        <v>4.8900347894941306e-5</v>
+        <v>4.890033756634779e-5</v>
       </c>
       <c r="G194">
-        <v>7.375496388270227</v>
+        <v>7.375496388270109</v>
       </c>
       <c r="H194">
-        <v>1.3713035436190123e-7</v>
+        <v>1.3713035436138965e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033284827406216034</v>
+        <v>0.00033284827406216154</v>
       </c>
       <c r="J194">
-        <v>0.0019924049017994686</v>
+        <v>0.001992404901799887</v>
       </c>
       <c r="K194">
-        <v>4.8900338089784646e-5</v>
+        <v>4.890033808978682e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.13400551147788609</v>
       </c>
       <c r="B195">
-        <v>7.377393271821158</v>
+        <v>7.377392792514669</v>
       </c>
       <c r="C195">
         <v>1.1932496272226112e-7</v>
       </c>
       <c r="D195">
-        <v>0.0003391704464616132</v>
+        <v>0.0003391704850662443</v>
       </c>
       <c r="E195">
-        <v>0.0019933728460167256</v>
+        <v>0.001993372743938909</v>
       </c>
       <c r="F195">
-        <v>4.8910976906173276e-5</v>
+        <v>4.8910967131369555e-5</v>
       </c>
       <c r="G195">
-        <v>7.377393920113807</v>
+        <v>7.377393920113704</v>
       </c>
       <c r="H195">
-        <v>1.1983553111709278e-7</v>
+        <v>1.1983553111664581e-7</v>
       </c>
       <c r="I195">
-        <v>0.0003391708072602459</v>
+        <v>0.00033917080726024706</v>
       </c>
       <c r="J195">
-        <v>0.0019933728775508464</v>
+        <v>0.001993372877551213</v>
       </c>
       <c r="K195">
-        <v>4.891096758749979e-5</v>
+        <v>4.8910967587501696e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,34 +7245,34 @@
         <v>0.13635336641824583</v>
       </c>
       <c r="B196">
-        <v>7.37930253442806</v>
+        <v>7.379302082909509</v>
       </c>
       <c r="C196">
         <v>1.0180907261743927e-7</v>
       </c>
       <c r="D196">
-        <v>0.0003456020385364492</v>
+        <v>0.00034560207536052357</v>
       </c>
       <c r="E196">
-        <v>0.0019943542965837006</v>
+        <v>0.001994354200033833</v>
       </c>
       <c r="F196">
-        <v>4.8921782210891926e-5</v>
+        <v>4.8921772968508605e-5</v>
       </c>
       <c r="G196">
-        <v>7.3793030403517745</v>
+        <v>7.379303040351687</v>
       </c>
       <c r="H196">
-        <v>1.0224469459332214e-7</v>
+        <v>1.0224469459294083e-7</v>
       </c>
       <c r="I196">
-        <v>0.00034560235013513587</v>
+        <v>0.00034560235013513684</v>
       </c>
       <c r="J196">
-        <v>0.001994354313072058</v>
+        <v>0.0019943543130723717</v>
       </c>
       <c r="K196">
-        <v>4.892177335655645e-5</v>
+        <v>4.8921773356558075e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7280,34 +7280,34 @@
         <v>0.13874144935370739</v>
       </c>
       <c r="B197">
-        <v>7.381223257243682</v>
+        <v>7.381222832311202</v>
       </c>
       <c r="C197">
         <v>8.399306638143443e-8</v>
       </c>
       <c r="D197">
-        <v>0.00035214463468591795</v>
+        <v>0.0003521446697757969</v>
       </c>
       <c r="E197">
-        <v>0.00199534941512373</v>
+        <v>0.0019953493238909522</v>
       </c>
       <c r="F197">
-        <v>4.8932766880885406e-5</v>
+        <v>4.893275814992451e-5</v>
       </c>
       <c r="G197">
-        <v>7.381223618363552</v>
+        <v>7.38122361836348</v>
       </c>
       <c r="H197">
-        <v>8.435245756453968e-8</v>
+        <v>8.435245756422515e-8</v>
       </c>
       <c r="I197">
-        <v>0.00035214489635446383</v>
+        <v>0.0003521448963544646</v>
       </c>
       <c r="J197">
-        <v>0.0019953494163581094</v>
+        <v>0.0019953494163583697</v>
       </c>
       <c r="K197">
-        <v>4.8932758469125015e-5</v>
+        <v>4.893275846912635e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7315,34 +7315,34 @@
         <v>0.14117049165333456</v>
       </c>
       <c r="B198">
-        <v>7.383155303820197</v>
+        <v>7.383154904299668</v>
       </c>
       <c r="C198">
         <v>6.587148772312252e-8</v>
       </c>
       <c r="D198">
-        <v>0.0003588002627833752</v>
+        <v>0.00035880029618619633</v>
       </c>
       <c r="E198">
-        <v>0.0019963584131470324</v>
+        <v>0.001996358327023546</v>
       </c>
       <c r="F198">
-        <v>4.894393403763637e-5</v>
+        <v>4.894392579748572e-5</v>
       </c>
       <c r="G198">
-        <v>7.3831555177296</v>
+        <v>7.383155517729544</v>
       </c>
       <c r="H198">
-        <v>6.615334041774858e-8</v>
+        <v>6.615334041750194e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003588004738098578</v>
+        <v>0.0003588004738098583</v>
       </c>
       <c r="J198">
-        <v>0.0019963583989168155</v>
+        <v>0.00199635839891702</v>
       </c>
       <c r="K198">
-        <v>4.894392604706187e-5</v>
+        <v>4.894392604706292e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7350,34 +7350,34 @@
         <v>0.1436412372303167</v>
       </c>
       <c r="B199">
-        <v>7.385098531964339</v>
+        <v>7.385098156709967</v>
       </c>
       <c r="C199">
         <v>4.7438786767279776e-8</v>
       </c>
       <c r="D199">
-        <v>0.00036557098549800716</v>
+        <v>0.00036557101726156644</v>
       </c>
       <c r="E199">
-        <v>0.0019973815057823642</v>
+        <v>0.00199738142456363</v>
       </c>
       <c r="F199">
-        <v>4.895528685322233e-5</v>
+        <v>4.895527908366906e-5</v>
       </c>
       <c r="G199">
-        <v>7.385098596288765</v>
+        <v>7.385098596288725</v>
       </c>
       <c r="H199">
-        <v>4.764176948335057e-8</v>
+        <v>4.764176948317298e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003655711451294058</v>
+        <v>0.0003655711451294063</v>
       </c>
       <c r="J199">
-        <v>0.00199738147589104</v>
+        <v>0.001997381475891188</v>
       </c>
       <c r="K199">
-        <v>4.895527926284911e-5</v>
+        <v>4.895527926284985e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7385,34 +7385,34 @@
         <v>0.14615444276979767</v>
       </c>
       <c r="B200">
-        <v>7.387052793777341</v>
+        <v>7.387052441672174</v>
       </c>
       <c r="C200">
         <v>2.868931835528729e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037245890092061534</v>
+        <v>0.00037245893109325023</v>
       </c>
       <c r="E200">
-        <v>0.001998418911867724</v>
+        <v>0.0019984188353526526</v>
       </c>
       <c r="F200">
-        <v>4.896682855123316e-5</v>
+        <v>4.8966821232476484e-5</v>
       </c>
       <c r="G200">
-        <v>7.3870527061757425</v>
+        <v>7.3870527061757185</v>
       </c>
       <c r="H200">
-        <v>2.8812075365491048e-8</v>
+        <v>2.8812075365383657e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037245900837842215</v>
+        <v>0.00037245900837842226</v>
       </c>
       <c r="J200">
-        <v>0.001998418866120913</v>
+        <v>0.0019984188661210027</v>
       </c>
       <c r="K200">
-        <v>4.8966821340492355e-5</v>
+        <v>4.896682134049281e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,34 +7420,34 @@
         <v>0.1487108779606167</v>
       </c>
       <c r="B201">
-        <v>7.389017935699727</v>
+        <v>7.389017605656126</v>
       </c>
       <c r="C201">
         <v>9.61734031577374e-9</v>
       </c>
       <c r="D201">
-        <v>0.0003794661432001084</v>
+        <v>0.00037946617183058125</v>
       </c>
       <c r="E201">
-        <v>0.0019994708540427477</v>
+        <v>0.001999470782033879</v>
       </c>
       <c r="F201">
-        <v>4.8978562407706294e-5</v>
+        <v>4.8978555520369374e-5</v>
       </c>
       <c r="G201">
-        <v>7.389017693867698</v>
+        <v>7.38901769386769</v>
       </c>
       <c r="H201">
-        <v>9.658491411539569e-9</v>
+        <v>9.65849141150357e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003794661977332374</v>
+        <v>0.00037946619773323746</v>
       </c>
       <c r="J201">
-        <v>0.0019994707922584283</v>
+        <v>0.0019994707922584586</v>
       </c>
       <c r="K201">
-        <v>4.897855555646155e-5</v>
+        <v>4.89785555564617e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -461,28 +461,28 @@
         <v>0.000247489809918307</v>
       </c>
       <c r="D2">
-        <v>-1.2743725425618027e-7</v>
+        <v>-1.2743725425618498e-7</v>
       </c>
       <c r="E2">
         <v>0.0019994979705352783</v>
       </c>
       <c r="F2">
-        <v>4.897005209017704e-5</v>
+        <v>4.8970052090177034e-5</v>
       </c>
       <c r="G2">
-        <v>8.141770622992958</v>
+        <v>8.141770622992999</v>
       </c>
       <c r="H2">
         <v>0.000247489856984209</v>
       </c>
       <c r="I2">
-        <v>-1.2740690697504461e-7</v>
+        <v>-1.2740690697509935e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019994979831484496</v>
+        <v>0.0019994979831484388</v>
       </c>
       <c r="K2">
-        <v>4.8970052396443325e-5</v>
+        <v>4.897005239644338e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,13 +490,13 @@
         <v>-0.048344326933930856</v>
       </c>
       <c r="B3">
-        <v>8.125162650862261</v>
+        <v>8.125162650862263</v>
       </c>
       <c r="C3">
         <v>0.0002425067775685909</v>
       </c>
       <c r="D3">
-        <v>-3.803370688557901e-7</v>
+        <v>-3.8033706885580364e-7</v>
       </c>
       <c r="E3">
         <v>0.0019984949074707604</v>
@@ -505,19 +505,19 @@
         <v>4.8941541300077886e-5</v>
       </c>
       <c r="G3">
-        <v>8.125163108324955</v>
+        <v>8.12516310832508</v>
       </c>
       <c r="H3">
-        <v>0.00024250691809962982</v>
+        <v>0.00024250691809962993</v>
       </c>
       <c r="I3">
-        <v>-3.802464981993349e-7</v>
+        <v>-3.8024649819949863e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019984949453768276</v>
+        <v>0.0019984949453767968</v>
       </c>
       <c r="K3">
-        <v>4.894154221005428e-5</v>
+        <v>4.894154221005442e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.00023759768351894284</v>
       </c>
       <c r="D4">
-        <v>-6.293746061492406e-7</v>
+        <v>-6.293746061492272e-7</v>
       </c>
       <c r="E4">
         <v>0.00199749781919974</v>
       </c>
       <c r="F4">
-        <v>4.891362678369005e-5</v>
+        <v>4.891362678369004e-5</v>
       </c>
       <c r="G4">
-        <v>8.108444656861474</v>
+        <v>8.108444656861682</v>
       </c>
       <c r="H4">
-        <v>0.0002375979160597214</v>
+        <v>0.0002375979160597216</v>
       </c>
       <c r="I4">
-        <v>-6.292247390979774e-7</v>
+        <v>-6.292247390982494e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997497882392613</v>
+        <v>0.001997497882392561</v>
       </c>
       <c r="K4">
-        <v>4.891362828269219e-5</v>
+        <v>4.891362828269243e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,28 +566,28 @@
         <v>0.0002327610243209417</v>
       </c>
       <c r="D5">
-        <v>-8.74621695164972e-7</v>
+        <v>-8.746216951649648e-7</v>
       </c>
       <c r="E5">
-        <v>0.0019965062000974493</v>
+        <v>0.0019965062000974498</v>
       </c>
       <c r="F5">
-        <v>4.888632762001039e-5</v>
+        <v>4.8886327620010384e-5</v>
       </c>
       <c r="G5">
-        <v>8.091621718384648</v>
+        <v>8.091621718384937</v>
       </c>
       <c r="H5">
-        <v>0.0002327613474729813</v>
+        <v>0.00023276134747298168</v>
       </c>
       <c r="I5">
-        <v>-8.744134380657089e-7</v>
+        <v>-8.744134380660881e-7</v>
       </c>
       <c r="J5">
-        <v>0.0019965062886404656</v>
+        <v>0.001996506288640394</v>
       </c>
       <c r="K5">
-        <v>4.888632969225328e-5</v>
+        <v>4.888632969225358e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,13 +595,13 @@
         <v>-0.04513793184802115</v>
       </c>
       <c r="B6">
-        <v>8.074700468736026</v>
+        <v>8.074700468736028</v>
       </c>
       <c r="C6">
         <v>0.00022799531870990652</v>
       </c>
       <c r="D6">
-        <v>-1.1161488848834338e-6</v>
+        <v>-1.1161488848834446e-6</v>
       </c>
       <c r="E6">
         <v>0.0019955195509624058</v>
@@ -610,19 +610,19 @@
         <v>4.885966261033637e-5</v>
       </c>
       <c r="G6">
-        <v>8.074701903668638</v>
+        <v>8.074701903669007</v>
       </c>
       <c r="H6">
-        <v>0.00022799573113566944</v>
+        <v>0.00022799573113567</v>
       </c>
       <c r="I6">
-        <v>-1.1158831274154742e-6</v>
+        <v>-1.1158831274159597e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019955196648862865</v>
+        <v>0.0019955196648861946</v>
       </c>
       <c r="K6">
-        <v>4.885966523533217e-5</v>
+        <v>4.8859665235332526e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.04410027534423844</v>
       </c>
       <c r="B7">
-        <v>8.057692253553105</v>
+        <v>8.057692253553103</v>
       </c>
       <c r="C7">
         <v>0.00022329910715124831</v>
       </c>
       <c r="D7">
-        <v>-1.3540254931022622e-6</v>
+        <v>-1.3540254931022658e-6</v>
       </c>
       <c r="E7">
-        <v>0.001994537381905848</v>
+        <v>0.0019945373819058474</v>
       </c>
       <c r="F7">
-        <v>4.883365011052703e-5</v>
+        <v>4.883365011052702e-5</v>
       </c>
       <c r="G7">
-        <v>8.057694031359295</v>
+        <v>8.057694031359745</v>
       </c>
       <c r="H7">
-        <v>0.00022329960752754215</v>
+        <v>0.00022329960752754286</v>
       </c>
       <c r="I7">
-        <v>-1.3537031112474169e-6</v>
+        <v>-1.3537031112480083e-6</v>
       </c>
       <c r="J7">
-        <v>0.001994537521308748</v>
+        <v>0.0019945375213086354</v>
       </c>
       <c r="K7">
-        <v>4.883365326997741e-5</v>
+        <v>4.883365326997781e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,13 +665,13 @@
         <v>-0.043077656183539564</v>
       </c>
       <c r="B8">
-        <v>8.040606031122415</v>
+        <v>8.040606031122412</v>
       </c>
       <c r="C8">
         <v>0.00021867095139347845</v>
       </c>
       <c r="D8">
-        <v>-1.588319660593657e-6</v>
+        <v>-1.5883196605936607e-6</v>
       </c>
       <c r="E8">
         <v>0.001993559215526954</v>
@@ -680,19 +680,19 @@
         <v>4.88083078439394e-5</v>
       </c>
       <c r="G8">
-        <v>8.040608159533818</v>
+        <v>8.040608159534344</v>
       </c>
       <c r="H8">
-        <v>0.0002186715383916325</v>
+        <v>0.00021867153839163337</v>
       </c>
       <c r="I8">
-        <v>-1.5879415103570605e-6</v>
+        <v>-1.5879415103577572e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019935593805376585</v>
+        <v>0.001993559380537527</v>
       </c>
       <c r="K8">
-        <v>4.88083115164171e-5</v>
+        <v>4.8808311516417524e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.04206976118081391</v>
       </c>
       <c r="B9">
-        <v>8.023453112516666</v>
+        <v>8.023453112516668</v>
       </c>
       <c r="C9">
         <v>0.00021410943402773897</v>
       </c>
       <c r="D9">
-        <v>-1.819098410676622e-6</v>
+        <v>-1.8190984106766258e-6</v>
       </c>
       <c r="E9">
-        <v>0.00199258459033346</v>
+        <v>0.0019925845903334596</v>
       </c>
       <c r="F9">
         <v>4.878365269708576e-5</v>
       </c>
       <c r="G9">
-        <v>8.02345559865983</v>
+        <v>8.02345559866043</v>
       </c>
       <c r="H9">
-        <v>0.00021411010639807855</v>
+        <v>0.00021411010639807952</v>
       </c>
       <c r="I9">
-        <v>-1.8186653364630883e-6</v>
+        <v>-1.8186653364638895e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019925847811252738</v>
+        <v>0.001992584781125123</v>
       </c>
       <c r="K9">
-        <v>4.878365685987199e-5</v>
+        <v>4.878365685987244e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.04107628166033936</v>
       </c>
       <c r="B10">
-        <v>8.006246052297696</v>
+        <v>8.006246052297694</v>
       </c>
       <c r="C10">
         <v>0.00020961315805372298</v>
       </c>
       <c r="D10">
-        <v>-2.046427714119628e-6</v>
+        <v>-2.0464277141196175e-6</v>
       </c>
       <c r="E10">
         <v>0.0019916130643490336</v>
       </c>
       <c r="F10">
-        <v>4.875970050116761e-5</v>
+        <v>4.87597005011676e-5</v>
       </c>
       <c r="G10">
-        <v>8.006248902420412</v>
+        <v>8.006248902421087</v>
       </c>
       <c r="H10">
-        <v>0.00020961391455582456</v>
+        <v>0.00020961391455582567</v>
       </c>
       <c r="I10">
-        <v>-2.0459405423367956e-6</v>
+        <v>-2.0459405423377007e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019916132810977216</v>
+        <v>0.0019916132810975516</v>
       </c>
       <c r="K10">
-        <v>4.875970513052529e-5</v>
+        <v>4.8759705130525765e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,7 +770,7 @@
         <v>-0.040096913361247905</v>
       </c>
       <c r="B11">
-        <v>7.98899861460487</v>
+        <v>7.988998614604868</v>
       </c>
       <c r="C11">
         <v>0.00020518074645186387</v>
@@ -782,22 +782,22 @@
         <v>0.0019906442188298897</v>
       </c>
       <c r="F11">
-        <v>4.8736465803815864e-5</v>
+        <v>4.873646580381585e-5</v>
       </c>
       <c r="G11">
-        <v>7.9890018340349265</v>
+        <v>7.989001834035672</v>
       </c>
       <c r="H11">
-        <v>0.00020518158579242788</v>
+        <v>0.00020518158579242916</v>
       </c>
       <c r="I11">
-        <v>-2.2698321014073205e-6</v>
+        <v>-2.2698321014083276e-6</v>
       </c>
       <c r="J11">
-        <v>0.001990644461735902</v>
+        <v>0.0019906444617357136</v>
       </c>
       <c r="K11">
-        <v>4.873647087447792e-5</v>
+        <v>4.87364708744784e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03913135634434338</v>
       </c>
       <c r="B12">
-        <v>7.97172571192399</v>
+        <v>7.971725711923988</v>
       </c>
       <c r="C12">
         <v>0.00020081084176167832</v>
       </c>
       <c r="D12">
-        <v>-2.4909970251306972e-6</v>
+        <v>-2.4909970251307112e-6</v>
       </c>
       <c r="E12">
-        <v>0.001989677661994914</v>
+        <v>0.0019896776619949146</v>
       </c>
       <c r="F12">
-        <v>4.871396163652646e-5</v>
+        <v>4.8713961636526464e-5</v>
       </c>
       <c r="G12">
-        <v>7.971729305100378</v>
+        <v>7.9717293051011895</v>
       </c>
       <c r="H12">
-        <v>0.00020081176278603522</v>
+        <v>0.00020081176278603663</v>
       </c>
       <c r="I12">
-        <v>-2.490404079329535e-6</v>
+        <v>-2.4904040793306444e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019896779313092017</v>
+        <v>0.0019896779313089952</v>
       </c>
       <c r="K12">
-        <v>4.871396712277692e-5</v>
+        <v>4.871396712277741e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,13 +840,13 @@
         <v>-0.03817931490024269</v>
       </c>
       <c r="B13">
-        <v>7.954443314983494</v>
+        <v>7.954443314983493</v>
       </c>
       <c r="C13">
         <v>0.00019650210566617685</v>
       </c>
       <c r="D13">
-        <v>-2.708364361415501e-6</v>
+        <v>-2.7083643614154866e-6</v>
       </c>
       <c r="E13">
         <v>0.001988713032657623</v>
@@ -855,19 +855,19 @@
         <v>4.869219928433404e-5</v>
       </c>
       <c r="G13">
-        <v>7.954447285051696</v>
+        <v>7.954447285052572</v>
       </c>
       <c r="H13">
-        <v>0.00019650310720911797</v>
+        <v>0.00019650310720911965</v>
       </c>
       <c r="I13">
-        <v>-2.7077197078053593e-6</v>
+        <v>-2.70771970780657e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019887133286128258</v>
+        <v>0.0019887133286126016</v>
       </c>
       <c r="K13">
-        <v>4.869220515694183e-5</v>
+        <v>4.8692205156942305e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,13 +875,13 @@
         <v>-0.0372404974588126</v>
       </c>
       <c r="B14">
-        <v>7.937168333307385</v>
+        <v>7.937168333307384</v>
       </c>
       <c r="C14">
         <v>0.00019225321858228815</v>
       </c>
       <c r="D14">
-        <v>-2.922537066039895e-6</v>
+        <v>-2.9225370660398944e-6</v>
       </c>
       <c r="E14">
         <v>0.0019877500036362917</v>
@@ -890,19 +890,19 @@
         <v>4.8671188065108885e-5</v>
       </c>
       <c r="G14">
-        <v>7.937172682315518</v>
+        <v>7.937172682316455</v>
       </c>
       <c r="H14">
-        <v>0.00019225429947662256</v>
+        <v>0.00019225429947662454</v>
       </c>
       <c r="I14">
-        <v>-2.921841473155577e-6</v>
+        <v>-2.921841473156889e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019877503265254624</v>
+        <v>0.001987750326525219</v>
       </c>
       <c r="K14">
-        <v>4.8671194297317454e-5</v>
+        <v>4.867119429731793e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036314616499874046</v>
       </c>
       <c r="B15">
-        <v>7.919918467235114</v>
+        <v>7.919918467235111</v>
       </c>
       <c r="C15">
         <v>0.00018806287925731462</v>
       </c>
       <c r="D15">
-        <v>-3.133576966756269e-6</v>
+        <v>-3.1335769667562687e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019867882848123215</v>
+        <v>0.001986788284812322</v>
       </c>
       <c r="F15">
-        <v>4.865093512638683e-5</v>
+        <v>4.8650935126386824e-5</v>
       </c>
       <c r="G15">
-        <v>7.919923195896004</v>
+        <v>7.919923195896999</v>
       </c>
       <c r="H15">
-        <v>0.00018806403841036034</v>
+        <v>0.0001880640384103626</v>
       </c>
       <c r="I15">
-        <v>-3.1328311877152347e-6</v>
+        <v>-3.1328311877166467e-6</v>
       </c>
       <c r="J15">
-        <v>0.001986788634906167</v>
+        <v>0.0019867886349059054</v>
       </c>
       <c r="K15">
-        <v>4.865094168988766e-5</v>
+        <v>4.865094168988811e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,7 +945,7 @@
         <v>-0.035401388465146795</v>
       </c>
       <c r="B16">
-        <v>7.902712033625606</v>
+        <v>7.9027120336256065</v>
       </c>
       <c r="C16">
         <v>0.0001839298043715553</v>
@@ -957,22 +957,22 @@
         <v>0.0019858276257078045</v>
       </c>
       <c r="F16">
-        <v>4.8631445267751593e-5</v>
+        <v>4.863144526775159e-5</v>
       </c>
       <c r="G16">
-        <v>7.902717141275342</v>
+        <v>7.9027171412763915</v>
       </c>
       <c r="H16">
-        <v>0.00018393104065180045</v>
+        <v>0.00018393104065180294</v>
       </c>
       <c r="I16">
-        <v>-3.340750073682007e-6</v>
+        <v>-3.34075007368352e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019858280033124925</v>
+        <v>0.0019858280033122127</v>
       </c>
       <c r="K16">
-        <v>4.8631452132280457e-5</v>
+        <v>4.86314521322809e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,7 +980,7 @@
         <v>-0.03450053367140758</v>
       </c>
       <c r="B17">
-        <v>7.885567768899281</v>
+        <v>7.885567768899282</v>
       </c>
       <c r="C17">
         <v>0.00017985272814743312</v>
@@ -992,22 +992,22 @@
         <v>0.001984867817462319</v>
       </c>
       <c r="F17">
-        <v>4.8612720796416296e-5</v>
+        <v>4.861272079641629e-5</v>
       </c>
       <c r="G17">
-        <v>7.88557325352929</v>
+        <v>7.885573253530391</v>
       </c>
       <c r="H17">
-        <v>0.000179854040496072</v>
+        <v>0.00017985404049607464</v>
       </c>
       <c r="I17">
-        <v>-3.5456588375624297e-6</v>
+        <v>-3.5456588375640425e-6</v>
       </c>
       <c r="J17">
-        <v>0.001984868222888923</v>
+        <v>0.0019848682228886245</v>
       </c>
       <c r="K17">
-        <v>4.861272793224284e-5</v>
+        <v>4.861272793224327e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.03361177622483489</v>
       </c>
       <c r="B18">
-        <v>7.868504614422585</v>
+        <v>7.868504614422587</v>
       </c>
       <c r="C18">
         <v>0.00017583040196579174</v>
       </c>
       <c r="D18">
-        <v>-3.748509703052592e-6</v>
+        <v>-3.7485097030525854e-6</v>
       </c>
       <c r="E18">
         <v>0.0019839086941065794</v>
       </c>
       <c r="F18">
-        <v>4.8594761422763e-5</v>
+        <v>4.8594761422763005e-5</v>
       </c>
       <c r="G18">
-        <v>7.868510472588243</v>
+        <v>7.868510472589391</v>
       </c>
       <c r="H18">
-        <v>0.0001758317893915422</v>
+        <v>0.00017583178939154496</v>
       </c>
       <c r="I18">
-        <v>-3.7476177425599757e-6</v>
+        <v>-3.7476177425616876e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983909127669172</v>
+        <v>0.0019839091276688562</v>
       </c>
       <c r="K18">
-        <v>4.8594768800190145e-5</v>
+        <v>4.859476880019053e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.03273484393651434</v>
       </c>
       <c r="B19">
-        <v>7.851541490384469</v>
+        <v>7.851541490384468</v>
       </c>
       <c r="C19">
         <v>0.00017186159399055397</v>
       </c>
       <c r="D19">
-        <v>-3.947625939180633e-6</v>
+        <v>-3.947625939180618e-6</v>
       </c>
       <c r="E19">
-        <v>0.001982950133056107</v>
+        <v>0.0019829501330561067</v>
       </c>
       <c r="F19">
-        <v>4.8577564201217246e-5</v>
+        <v>4.857756420121725e-5</v>
       </c>
       <c r="G19">
-        <v>7.851547717313758</v>
+        <v>7.851547717314951</v>
       </c>
       <c r="H19">
-        <v>0.00017186305544243565</v>
+        <v>0.00017186305544243858</v>
       </c>
       <c r="I19">
-        <v>-3.946686664861615e-6</v>
+        <v>-3.946686664863427e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019829505950787864</v>
+        <v>0.0019829505950784538</v>
       </c>
       <c r="K19">
-        <v>4.857757179208485e-5</v>
+        <v>4.8577571792085196e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1091,28 +1091,28 @@
         <v>0.00016794508880374384</v>
       </c>
       <c r="D20">
-        <v>-4.143911051917833e-6</v>
+        <v>-4.143911051917825e-6</v>
       </c>
       <c r="E20">
-        <v>0.001981992054780275</v>
+        <v>0.0019819920547802755</v>
       </c>
       <c r="F20">
-        <v>4.856112352002877e-5</v>
+        <v>4.856112352002878e-5</v>
       </c>
       <c r="G20">
-        <v>7.834703654751397</v>
+        <v>7.83470365475263</v>
       </c>
       <c r="H20">
-        <v>0.00016794662325275898</v>
+        <v>0.00016794662325276207</v>
       </c>
       <c r="I20">
-        <v>-4.142925147679804e-6</v>
+        <v>-4.142925147681715e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019819925455570146</v>
+        <v>0.0019819925455566646</v>
       </c>
       <c r="K20">
-        <v>4.856113129668448e-5</v>
+        <v>4.856113129668477e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1126,28 +1126,28 @@
         <v>0.00016407968705409742</v>
       </c>
       <c r="D21">
-        <v>-4.337424297640294e-6</v>
+        <v>-4.337424297640301e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019810344216387053</v>
+        <v>0.001981034421638705</v>
       </c>
       <c r="F21">
         <v>4.854543114142454e-5</v>
       </c>
       <c r="G21">
-        <v>7.817996472367359</v>
+        <v>7.8179964723686295</v>
       </c>
       <c r="H21">
-        <v>0.00016408129352650882</v>
+        <v>0.00016408129352651213</v>
       </c>
       <c r="I21">
-        <v>-4.3363924374098895e-6</v>
+        <v>-4.3363924374118995e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019810349414647803</v>
+        <v>0.001981034941464414</v>
       </c>
       <c r="K21">
-        <v>4.854543907638977e-5</v>
+        <v>4.8545439076390016e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,7 +1155,7 @@
         <v>-0.030172329962707346</v>
       </c>
       <c r="B22">
-        <v>7.801436368826968</v>
+        <v>7.801436368826971</v>
       </c>
       <c r="C22">
         <v>0.00016026420512426336</v>
@@ -1164,25 +1164,25 @@
         <v>-4.528224647564205e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019800772359153352</v>
+        <v>0.001980077235915335</v>
       </c>
       <c r="F22">
         <v>4.853047629135248e-5</v>
       </c>
       <c r="G22">
-        <v>7.801443660586122</v>
+        <v>7.801443660587425</v>
       </c>
       <c r="H22">
-        <v>0.0001602658826813516</v>
+        <v>0.00016026588268135505</v>
       </c>
       <c r="I22">
-        <v>-4.527147492388361e-6</v>
+        <v>-4.527147492390469e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019800777850558244</v>
+        <v>0.001980077785055442</v>
       </c>
       <c r="K22">
-        <v>4.853048435827024e-5</v>
+        <v>4.8530484358270436e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1196,7 +1196,7 @@
         <v>0.00015649747482412234</v>
       </c>
       <c r="D23">
-        <v>-4.716370777551137e-6</v>
+        <v>-4.71637077755113e-6</v>
       </c>
       <c r="E23">
         <v>0.0019791205371177166</v>
@@ -1205,19 +1205,19 @@
         <v>4.8516245795825135e-5</v>
       </c>
       <c r="G23">
-        <v>7.785061812311334</v>
+        <v>7.785061812312668</v>
       </c>
       <c r="H23">
-        <v>0.00015649922248333172</v>
+        <v>0.00015649922248333532</v>
       </c>
       <c r="I23">
-        <v>-4.715248978734397e-6</v>
+        <v>-4.715248978736603e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019791211158464573</v>
+        <v>0.0019791211158460592</v>
       </c>
       <c r="K23">
-        <v>4.851625396858391e-5</v>
+        <v>4.851625396858405e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.850272425887609e-5</v>
       </c>
       <c r="G24">
-        <v>7.7688664458107635</v>
+        <v>7.768866445812124</v>
       </c>
       <c r="H24">
-        <v>0.00015278015996574793</v>
+        <v>0.0001527801599657516</v>
       </c>
       <c r="I24">
-        <v>-4.90075522779152e-6</v>
+        <v>-4.900755227793824e-6</v>
       </c>
       <c r="J24">
-        <v>0.001978165007180854</v>
+        <v>0.00197816500718044</v>
       </c>
       <c r="K24">
-        <v>4.850273251212314e-5</v>
+        <v>4.8502732512123215e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,13 +1260,13 @@
         <v>-0.027706781992169936</v>
       </c>
       <c r="B25">
-        <v>7.752863583627863</v>
+        <v>7.752863583627862</v>
       </c>
       <c r="C25">
         <v>0.00014910567192392838</v>
       </c>
       <c r="D25">
-        <v>-5.084933305582714e-6</v>
+        <v>-5.084933305582713e-6</v>
       </c>
       <c r="E25">
         <v>0.001977208923933355</v>
@@ -1275,16 +1275,16 @@
         <v>4.848989427551109e-5</v>
       </c>
       <c r="G25">
-        <v>7.752871854861651</v>
+        <v>7.752871854863034</v>
       </c>
       <c r="H25">
-        <v>0.00014910755705950518</v>
+        <v>0.00014910755705950892</v>
       </c>
       <c r="I25">
-        <v>-5.083724152996896e-6</v>
+        <v>-5.083724152999297e-6</v>
       </c>
       <c r="J25">
-        <v>0.001977209562503523</v>
+        <v>0.001977209562503093</v>
       </c>
       <c r="K25">
         <v>4.84899025876533e-5</v>
@@ -1301,28 +1301,28 @@
         <v>0.0001454783379390248</v>
       </c>
       <c r="D26">
-        <v>-5.265464968197392e-6</v>
+        <v>-5.265464968197399e-6</v>
       </c>
       <c r="E26">
         <v>0.0019762542422827145</v>
       </c>
       <c r="F26">
-        <v>4.847773667187975e-5</v>
+        <v>4.8477736671879765e-5</v>
       </c>
       <c r="G26">
-        <v>7.737090991044517</v>
+        <v>7.737090991045921</v>
       </c>
       <c r="H26">
-        <v>0.00014548029037677771</v>
+        <v>0.00014548029037678148</v>
       </c>
       <c r="I26">
-        <v>-5.264213107020985e-6</v>
+        <v>-5.264213107023484e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976254911050353</v>
+        <v>0.001976254911049907</v>
       </c>
       <c r="K26">
-        <v>4.847774502122239e-5</v>
+        <v>4.847774502122231e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1336,28 +1336,28 @@
         <v>0.00014189523263279428</v>
       </c>
       <c r="D27">
-        <v>-5.443572583680744e-6</v>
+        <v>-5.4435725836807435e-6</v>
       </c>
       <c r="E27">
         <v>0.00197530050442758</v>
       </c>
       <c r="F27">
-        <v>4.846623076426889e-5</v>
+        <v>4.8466230764268886e-5</v>
       </c>
       <c r="G27">
-        <v>7.721535378139796</v>
+        <v>7.721535378141217</v>
       </c>
       <c r="H27">
-        <v>0.0001418972514292697</v>
+        <v>0.00014189725142927344</v>
       </c>
       <c r="I27">
-        <v>-5.442278668980744e-6</v>
+        <v>-5.442278668983341e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019753012035207207</v>
+        <v>0.0019753012035202593</v>
       </c>
       <c r="K27">
-        <v>4.846623913125221e-5</v>
+        <v>4.8466239131252045e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.025331402797285227</v>
       </c>
       <c r="B28">
-        <v>7.70620591727711</v>
+        <v>7.706205917277112</v>
       </c>
       <c r="C28">
         <v>0.00013835526233412504</v>
       </c>
       <c r="D28">
-        <v>-5.6193116298999965e-6</v>
+        <v>-5.619311629900011e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019743478781071556</v>
+        <v>0.001974347878107155</v>
       </c>
       <c r="F28">
         <v>4.845535462842723e-5</v>
       </c>
       <c r="G28">
-        <v>7.706215060267972</v>
+        <v>7.706215060269408</v>
       </c>
       <c r="H28">
-        <v>0.0001383573465630176</v>
+        <v>0.00013835734656302137</v>
       </c>
       <c r="I28">
-        <v>-5.617976337297844e-6</v>
+        <v>-5.617976337300536e-6</v>
       </c>
       <c r="J28">
-        <v>0.001974348607591997</v>
+        <v>0.001974348607591521</v>
       </c>
       <c r="K28">
-        <v>4.845536299352625e-5</v>
+        <v>4.8455362993526035e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,13 +1400,13 @@
         <v>-0.02455850856315389</v>
       </c>
       <c r="B29">
-        <v>7.691129175114227</v>
+        <v>7.691129175114228</v>
       </c>
       <c r="C29">
         <v>0.00013485734852875</v>
       </c>
       <c r="D29">
-        <v>-5.792736050720138e-6</v>
+        <v>-5.792736050720139e-6</v>
       </c>
       <c r="E29">
         <v>0.0019733965437336784</v>
@@ -1415,19 +1415,19 @@
         <v>4.8445085371125325e-5</v>
       </c>
       <c r="G29">
-        <v>7.691138581966278</v>
+        <v>7.691138581967726</v>
       </c>
       <c r="H29">
-        <v>0.00013485949716318066</v>
+        <v>0.00013485949716318443</v>
       </c>
       <c r="I29">
-        <v>-5.791360092223468e-6</v>
+        <v>-5.791360092226254e-6</v>
       </c>
       <c r="J29">
-        <v>0.001973397303669482</v>
+        <v>0.001973397303668991</v>
       </c>
       <c r="K29">
-        <v>4.8445093718045946e-5</v>
+        <v>4.844509371804567e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1444,25 +1444,25 @@
         <v>-5.9638976475687685e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019724466903237644</v>
+        <v>0.001972446690323765</v>
       </c>
       <c r="F30">
         <v>4.8435399396646337e-5</v>
       </c>
       <c r="G30">
-        <v>7.676312999038594</v>
+        <v>7.676312999040052</v>
       </c>
       <c r="H30">
-        <v>0.00013140264027433827</v>
+        <v>0.0001314026402743421</v>
       </c>
       <c r="I30">
-        <v>-5.962481791967542e-6</v>
+        <v>-5.9624817919704226e-6</v>
       </c>
       <c r="J30">
-        <v>0.001972447480654761</v>
+        <v>0.001972447480654255</v>
       </c>
       <c r="K30">
-        <v>4.843540770971243e-5</v>
+        <v>4.8435407709712074e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.023039643735213187</v>
       </c>
       <c r="B31">
-        <v>7.661734023665463</v>
+        <v>7.661734023665464</v>
       </c>
       <c r="C31">
         <v>0.00012798345573374856</v>
       </c>
       <c r="D31">
-        <v>-6.132845256770048e-6</v>
+        <v>-6.1328452567700485e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019714985118221076</v>
+        <v>0.001971498511822107</v>
       </c>
       <c r="F31">
         <v>4.8426272661985147e-5</v>
       </c>
       <c r="G31">
-        <v>7.661743915493673</v>
+        <v>7.661743915495138</v>
       </c>
       <c r="H31">
-        <v>0.00012798572962711722</v>
+        <v>0.0001279857296271211</v>
       </c>
       <c r="I31">
-        <v>-6.131390344264467e-6</v>
+        <v>-6.131390344267442e-6</v>
       </c>
       <c r="J31">
-        <v>0.001971499332438789</v>
+        <v>0.00197149933243827</v>
       </c>
       <c r="K31">
-        <v>4.8426280927493264e-5</v>
+        <v>4.842628092749284e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,7 +1505,7 @@
         <v>-0.022293207977179066</v>
       </c>
       <c r="B32">
-        <v>7.647425433187476</v>
+        <v>7.647425433187477</v>
       </c>
       <c r="C32">
         <v>0.0001246054021475932</v>
@@ -1517,22 +1517,22 @@
         <v>0.0019705522039339253</v>
       </c>
       <c r="F32">
-        <v>4.841768091578506e-5</v>
+        <v>4.841768091578507e-5</v>
       </c>
       <c r="G32">
-        <v>7.647435544956367</v>
+        <v>7.647435544957836</v>
       </c>
       <c r="H32">
-        <v>0.00012460773665565276</v>
+        <v>0.0001246077366556567</v>
       </c>
       <c r="I32">
-        <v>-6.29813063462051e-6</v>
+        <v>-6.298130634623578e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019705530546491002</v>
+        <v>0.001970553054648567</v>
       </c>
       <c r="K32">
-        <v>4.841768911932983e-5</v>
+        <v>4.841768911932932e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.02155513097740716</v>
       </c>
       <c r="B33">
-        <v>7.633380475723042</v>
+        <v>7.63338047572304</v>
       </c>
       <c r="C33">
         <v>0.00012126525896067669</v>
       </c>
       <c r="D33">
-        <v>-6.46427213784751e-6</v>
+        <v>-6.464272137847509e-6</v>
       </c>
       <c r="E33">
         <v>0.0019696079615664185</v>
       </c>
       <c r="F33">
-        <v>4.8409599917351903e-5</v>
+        <v>4.84095999173519e-5</v>
       </c>
       <c r="G33">
-        <v>7.633390791471524</v>
+        <v>7.633390791472997</v>
       </c>
       <c r="H33">
-        <v>0.00012126765244861719</v>
+        <v>0.00012126765244862119</v>
       </c>
       <c r="I33">
-        <v>-6.462742097075046e-6</v>
+        <v>-6.462742097078207e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019696088420793055</v>
+        <v>0.001969608842078758</v>
       </c>
       <c r="K33">
-        <v>4.8409608046429826e-5</v>
+        <v>4.8409608046429244e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,7 +1575,7 @@
         <v>-0.020825186694047617</v>
       </c>
       <c r="B34">
-        <v>7.619600843533999</v>
+        <v>7.619600843534</v>
       </c>
       <c r="C34">
         <v>0.00011796203960389588</v>
@@ -1587,22 +1587,22 @@
         <v>0.0019686659769640714</v>
       </c>
       <c r="F34">
-        <v>4.840200563335787e-5</v>
+        <v>4.840200563335788e-5</v>
       </c>
       <c r="G34">
-        <v>7.619611346510029</v>
+        <v>7.619611346511501</v>
       </c>
       <c r="H34">
-        <v>0.00011796449015990664</v>
+        <v>0.00011796449015991066</v>
       </c>
       <c r="I34">
-        <v>-6.625256881587393e-6</v>
+        <v>-6.625256881590649e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019686668868103808</v>
+        <v>0.00196866688680982</v>
       </c>
       <c r="K34">
-        <v>4.840201367702759e-5</v>
+        <v>4.840201367702694e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,7 +1610,7 @@
         <v>-0.020103151575958524</v>
       </c>
       <c r="B35">
-        <v>7.606087125631195</v>
+        <v>7.606087125631194</v>
       </c>
       <c r="C35">
         <v>0.00011469478282237474</v>
@@ -1625,19 +1625,19 @@
         <v>4.839487441100714e-5</v>
       </c>
       <c r="G35">
-        <v>7.6060977980115885</v>
+        <v>7.606097798013062</v>
       </c>
       <c r="H35">
-        <v>0.00011469728825484908</v>
+        <v>0.00011469728825485311</v>
       </c>
       <c r="I35">
-        <v>-6.7856975437688766e-6</v>
+        <v>-6.785697543772226e-6</v>
       </c>
       <c r="J35">
-        <v>0.001967727377151027</v>
+        <v>0.0019677273771504518</v>
       </c>
       <c r="K35">
-        <v>4.8394882356869635e-5</v>
+        <v>4.8394882356868917e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,13 +1645,13 @@
         <v>-0.01938880449424165</v>
       </c>
       <c r="B36">
-        <v>7.592838926045551</v>
+        <v>7.59283892604555</v>
       </c>
       <c r="C36">
         <v>0.00011146255675563497</v>
       </c>
       <c r="D36">
-        <v>-6.945706619646385e-6</v>
+        <v>-6.945706619646384e-6</v>
       </c>
       <c r="E36">
         <v>0.0019667895309408556</v>
@@ -1660,19 +1660,19 @@
         <v>4.838818312743063e-5</v>
       </c>
       <c r="G36">
-        <v>7.592849748666496</v>
+        <v>7.592849748667967</v>
       </c>
       <c r="H36">
-        <v>0.00011146511430065673</v>
+        <v>0.00011146511430066072</v>
       </c>
       <c r="I36">
-        <v>-6.944074153683798e-6</v>
+        <v>-6.944074153687241e-6</v>
       </c>
       <c r="J36">
-        <v>0.001966790497328251</v>
+        <v>0.001966790497327662</v>
       </c>
       <c r="K36">
-        <v>4.838819096493964e-5</v>
+        <v>4.838819096493887e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,7 +1680,7 @@
         <v>-0.01868192667452002</v>
       </c>
       <c r="B37">
-        <v>7.579854988162098</v>
+        <v>7.579854988162101</v>
       </c>
       <c r="C37">
         <v>0.00010826446402915639</v>
@@ -1695,19 +1695,19 @@
         <v>4.838190931588222e-5</v>
       </c>
       <c r="G37">
-        <v>7.579865940217621</v>
+        <v>7.579865940219088</v>
       </c>
       <c r="H37">
-        <v>0.00010826707043779386</v>
+        <v>0.00010826707043779782</v>
       </c>
       <c r="I37">
-        <v>-7.100380764177108e-6</v>
+        <v>-7.100380764180643e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019658564281030922</v>
+        <v>0.0019658564281024894</v>
       </c>
       <c r="K37">
-        <v>4.838191703431397e-5</v>
+        <v>4.838191703431312e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1721,28 +1721,28 @@
         <v>0.00010509964797697717</v>
       </c>
       <c r="D38">
-        <v>-7.256281602224334e-6</v>
+        <v>-7.256281602224335e-6</v>
       </c>
       <c r="E38">
         <v>0.001964924329680538</v>
       </c>
       <c r="F38">
-        <v>4.8376031269914134e-5</v>
+        <v>4.837603126991414e-5</v>
       </c>
       <c r="G38">
-        <v>7.567144381127594</v>
+        <v>7.567144381129057</v>
       </c>
       <c r="H38">
-        <v>0.00010510229939224905</v>
+        <v>0.00010510229939225297</v>
       </c>
       <c r="I38">
-        <v>-7.254591143778941e-6</v>
+        <v>-7.2545911437825675e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019649253482307964</v>
+        <v>0.0019649253482301797</v>
       </c>
       <c r="K38">
-        <v>4.83760388574369e-5</v>
+        <v>4.837603885743601e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,7 +1750,7 @@
         <v>-0.017289715094853</v>
       </c>
       <c r="B39">
-        <v>7.554671336494325</v>
+        <v>7.554671336494323</v>
       </c>
       <c r="C39">
         <v>0.00010196730009855875</v>
@@ -1765,19 +1765,19 @@
         <v>4.8370528127124335e-5</v>
       </c>
       <c r="G39">
-        <v>7.554682476172109</v>
+        <v>7.554682476173567</v>
       </c>
       <c r="H39">
-        <v>0.0001019699918052041</v>
+        <v>0.00010196999180520802</v>
       </c>
       <c r="I39">
-        <v>-7.4066537196156465e-6</v>
+        <v>-7.406653719619367e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019639974368669206</v>
+        <v>0.0019639974368662904</v>
       </c>
       <c r="K39">
-        <v>4.837053557236205e-5</v>
+        <v>4.837053557236111e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8365379934312996e-5</v>
       </c>
       <c r="G40">
-        <v>7.54247715540915</v>
+        <v>7.542477155410602</v>
       </c>
       <c r="H40">
-        <v>9.886939529427654e-5</v>
+        <v>9.886939529428051e-5</v>
       </c>
       <c r="I40">
-        <v>-7.556485686225578e-6</v>
+        <v>-7.556485686229392e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019630728769278417</v>
+        <v>0.0019630728769271986</v>
       </c>
       <c r="K40">
-        <v>4.836538722411414e-5</v>
+        <v>4.836538722411314e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>-0.015924811203666303</v>
       </c>
       <c r="B41">
-        <v>7.530513786171066</v>
+        <v>7.530513786171067</v>
       </c>
       <c r="C41">
         <v>9.57970696515634e-5</v>
       </c>
       <c r="D41">
-        <v>-7.705718954272084e-6</v>
+        <v>-7.705718954272098e-6</v>
       </c>
       <c r="E41">
         <v>0.0019621507765725933</v>
       </c>
       <c r="F41">
-        <v>4.8360567695984274e-5</v>
+        <v>4.836056769598427e-5</v>
       </c>
       <c r="G41">
-        <v>7.530525001035276</v>
+        <v>7.53052500103672</v>
       </c>
       <c r="H41">
-        <v>9.579982436466214e-5</v>
+        <v>9.579982436466614e-5</v>
       </c>
       <c r="I41">
-        <v>-7.703966231597368e-6</v>
+        <v>-7.703966231601273e-6</v>
       </c>
       <c r="J41">
-        <v>0.0019621518594273753</v>
+        <v>0.001962151859426718</v>
       </c>
       <c r="K41">
-        <v>4.8360574817307046e-5</v>
+        <v>4.8360574817306e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,7 +1855,7 @@
         <v>-0.015252075835078552</v>
       </c>
       <c r="B42">
-        <v>7.5188111699005225</v>
+        <v>7.518811169900522</v>
       </c>
       <c r="C42">
         <v>9.275789658508063e-5</v>
@@ -1864,25 +1864,25 @@
         <v>-7.850693264883803e-6</v>
       </c>
       <c r="E42">
-        <v>0.001961233489727519</v>
+        <v>0.0019612334897275195</v>
       </c>
       <c r="F42">
         <v>4.835607340811407e-5</v>
       </c>
       <c r="G42">
-        <v>7.518822372340623</v>
+        <v>7.51882237234206</v>
       </c>
       <c r="H42">
-        <v>9.276067183863633e-5</v>
+        <v>9.276067183864036e-5</v>
       </c>
       <c r="I42">
-        <v>-7.84892891727015e-6</v>
+        <v>-7.848928917274146e-6</v>
       </c>
       <c r="J42">
-        <v>0.001961234588506825</v>
+        <v>0.001961234588506154</v>
       </c>
       <c r="K42">
-        <v>4.83560803456549e-5</v>
+        <v>4.835608034565384e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1896,7 +1896,7 @@
         <v>8.974863492423361e-5</v>
       </c>
       <c r="D43">
-        <v>-7.992923369720497e-6</v>
+        <v>-7.992923369720482e-6</v>
       </c>
       <c r="E43">
         <v>0.0019603201766409555</v>
@@ -1905,19 +1905,19 @@
         <v>4.835188007900351e-5</v>
       </c>
       <c r="G43">
-        <v>7.507365525255864</v>
+        <v>7.507365525257293</v>
       </c>
       <c r="H43">
-        <v>8.975142182781721e-5</v>
+        <v>8.975142182782126e-5</v>
       </c>
       <c r="I43">
-        <v>-7.991153230414983e-6</v>
+        <v>-7.99115323041907e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019603212877614172</v>
+        <v>0.0019603212877607333</v>
       </c>
       <c r="K43">
-        <v>4.835188681767689e-5</v>
+        <v>4.83518868176758e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.013925008036492728</v>
       </c>
       <c r="B44">
-        <v>7.496139669598054</v>
+        <v>7.496139669598052</v>
       </c>
       <c r="C44">
         <v>8.676887517123655e-5</v>
       </c>
       <c r="D44">
-        <v>-8.132124645513264e-6</v>
+        <v>-8.132124645513262e-6</v>
       </c>
       <c r="E44">
         <v>0.0019594110875378813</v>
       </c>
       <c r="F44">
-        <v>4.8347971738879585e-5</v>
+        <v>4.83479717388796e-5</v>
       </c>
       <c r="G44">
-        <v>7.496150728461136</v>
+        <v>7.496150728462557</v>
       </c>
       <c r="H44">
-        <v>8.67716634541255e-5</v>
+        <v>8.677166345412958e-5</v>
       </c>
       <c r="I44">
-        <v>-8.130355395428322e-6</v>
+        <v>-8.1303553954325e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019594122067714426</v>
+        <v>0.0019594122067707457</v>
       </c>
       <c r="K44">
-        <v>4.83479782621021e-5</v>
+        <v>4.8347978262100974e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,13 +1960,13 @@
         <v>-0.01327026918160919</v>
       </c>
       <c r="B45">
-        <v>7.485163452475293</v>
+        <v>7.485163452475292</v>
       </c>
       <c r="C45">
         <v>8.381832792875333e-5</v>
       </c>
       <c r="D45">
-        <v>-8.267939374843768e-6</v>
+        <v>-8.267939374843781e-6</v>
       </c>
       <c r="E45">
         <v>0.001958506506308632</v>
@@ -1975,19 +1975,19 @@
         <v>4.834433343971496e-5</v>
       </c>
       <c r="G45">
-        <v>7.485174372551393</v>
+        <v>7.485174372552805</v>
       </c>
       <c r="H45">
-        <v>8.382110604945601e-5</v>
+        <v>8.382110604946013e-5</v>
       </c>
       <c r="I45">
-        <v>-8.266178586165967e-6</v>
+        <v>-8.266178586170234e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019585076288129075</v>
+        <v>0.0019585076288121976</v>
       </c>
       <c r="K45">
-        <v>4.8344339730231214e-5</v>
+        <v>4.8344339730230056e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,13 +1995,13 @@
         <v>-0.012621125739459928</v>
       </c>
       <c r="B46">
-        <v>7.474422341134389</v>
+        <v>7.47442234113439</v>
       </c>
       <c r="C46">
         <v>8.089683950055474e-5</v>
       </c>
       <c r="D46">
-        <v>-8.3999265357592e-6</v>
+        <v>-8.399926535759202e-6</v>
       </c>
       <c r="E46">
         <v>0.001957606758555375</v>
@@ -2010,19 +2010,19 @@
         <v>4.834095124653728e-5</v>
       </c>
       <c r="G46">
-        <v>7.474433072270572</v>
+        <v>7.474433072271975</v>
       </c>
       <c r="H46">
-        <v>8.089959439508973e-5</v>
+        <v>8.089959439509388e-5</v>
       </c>
       <c r="I46">
-        <v>-8.398182692293705e-6</v>
+        <v>-8.398182692298059e-6</v>
       </c>
       <c r="J46">
-        <v>0.001957607878838992</v>
+        <v>0.0019576078788382705</v>
       </c>
       <c r="K46">
-        <v>4.8340957286355066e-5</v>
+        <v>4.834095728635388e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,13 +2030,13 @@
         <v>-0.011977378904792182</v>
       </c>
       <c r="B47">
-        <v>7.463913273624402</v>
+        <v>7.4639132736244</v>
       </c>
       <c r="C47">
         <v>7.800440785910418e-5</v>
       </c>
       <c r="D47">
-        <v>-8.527551381780413e-6</v>
+        <v>-8.527551381780411e-6</v>
       </c>
       <c r="E47">
         <v>0.001956712220014809</v>
@@ -2045,19 +2045,19 @@
         <v>4.8337812221303894e-5</v>
       </c>
       <c r="G47">
-        <v>7.463923762103573</v>
+        <v>7.463923762104967</v>
       </c>
       <c r="H47">
-        <v>7.800712516889775e-5</v>
+        <v>7.800712516890191e-5</v>
       </c>
       <c r="I47">
-        <v>-8.525833877075326e-6</v>
+        <v>-8.525833877079768e-6</v>
       </c>
       <c r="J47">
-        <v>0.001956713331901537</v>
+        <v>0.0019567133319008043</v>
       </c>
       <c r="K47">
-        <v>4.833781799105213e-5</v>
+        <v>4.833781799105093e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,7 +2065,7 @@
         <v>-0.011338831525106424</v>
       </c>
       <c r="B48">
-        <v>7.453633592774365</v>
+        <v>7.453633592774363</v>
       </c>
       <c r="C48">
         <v>7.514119857120926e-5</v>
@@ -2074,25 +2074,25 @@
         <v>-8.650175078283338e-6</v>
       </c>
       <c r="E48">
-        <v>0.0019558233251568643</v>
+        <v>0.0019558233251568647</v>
       </c>
       <c r="F48">
         <v>4.833490440024124e-5</v>
       </c>
       <c r="G48">
-        <v>7.4536437813590535</v>
+        <v>7.453643781360438</v>
       </c>
       <c r="H48">
-        <v>7.514386243419961e-5</v>
+        <v>7.514386243420379e-5</v>
       </c>
       <c r="I48">
-        <v>-8.648494188355864e-6</v>
+        <v>-8.648494188360394e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019558244218364257</v>
+        <v>0.0019558244218356806</v>
       </c>
       <c r="K48">
-        <v>4.8334909880390956e-5</v>
+        <v>4.8334909880389716e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2109,25 +2109,25 @@
         <v>-8.76704470076434e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019549405757280794</v>
+        <v>0.001954940575728079</v>
       </c>
       <c r="F49">
-        <v>4.8332216765398787e-5</v>
+        <v>4.833221676539879e-5</v>
       </c>
       <c r="G49">
-        <v>7.443590950316984</v>
+        <v>7.44359095031836</v>
       </c>
       <c r="H49">
-        <v>7.231015361930336e-5</v>
+        <v>7.231015361930755e-5</v>
       </c>
       <c r="I49">
-        <v>-8.765411522247831e-6</v>
+        <v>-8.765411522252449e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019549416497122826</v>
+        <v>0.001954941649711526</v>
       </c>
       <c r="K49">
-        <v>4.833222193617786e-5</v>
+        <v>4.8332221936176574e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,7 +2135,7 @@
         <v>-0.010076554422659534</v>
       </c>
       <c r="B50">
-        <v>7.433754228982488</v>
+        <v>7.4337542289824885</v>
       </c>
       <c r="C50">
         <v>6.950403873094592e-5</v>
@@ -2147,22 +2147,22 @@
         <v>0.001954064548980676</v>
       </c>
       <c r="F50">
-        <v>4.8329739211050076e-5</v>
+        <v>4.832973921105006e-5</v>
       </c>
       <c r="G50">
-        <v>7.433763634915591</v>
+        <v>7.433763634916958</v>
       </c>
       <c r="H50">
-        <v>6.950654346103714e-5</v>
+        <v>6.950654346104134e-5</v>
       </c>
       <c r="I50">
-        <v>-8.875710294327248e-6</v>
+        <v>-8.875710294331951e-6</v>
       </c>
       <c r="J50">
-        <v>0.001954065592187501</v>
+        <v>0.0019540655921867337</v>
       </c>
       <c r="K50">
-        <v>4.832974405320201e-5</v>
+        <v>4.832974405320068e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,7 +2170,7 @@
         <v>-0.009452438117670027</v>
       </c>
       <c r="B51">
-        <v>7.424151879554813</v>
+        <v>7.424151879554812</v>
       </c>
       <c r="C51">
         <v>6.673139024761567e-5</v>
@@ -2185,19 +2185,19 @@
         <v>4.832746250548924e-5</v>
       </c>
       <c r="G51">
-        <v>7.424160798693162</v>
+        <v>7.42416079869452</v>
       </c>
       <c r="H51">
-        <v>6.673378710010485e-5</v>
+        <v>6.673378710010906e-5</v>
       </c>
       <c r="I51">
-        <v>-8.978383161976048e-6</v>
+        <v>-8.978383161980837e-6</v>
       </c>
       <c r="J51">
-        <v>0.001953196909188071</v>
+        <v>0.0019531969091872922</v>
       </c>
       <c r="K51">
-        <v>4.832746699991184e-5</v>
+        <v>4.8327466999910456e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>-0.008832747984811932</v>
       </c>
       <c r="B52">
-        <v>7.414773675045637</v>
+        <v>7.414773675045636</v>
       </c>
       <c r="C52">
         <v>6.399059163212007e-5</v>
       </c>
       <c r="D52">
-        <v>-9.073700978817395e-6</v>
+        <v>-9.07370097881741e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019523353949751868</v>
+        <v>0.001952335394975187</v>
       </c>
       <c r="F52">
-        <v>4.832537824871959e-5</v>
+        <v>4.83253782487196e-5</v>
       </c>
       <c r="G52">
-        <v>7.414782042566676</v>
+        <v>7.414782042568025</v>
       </c>
       <c r="H52">
-        <v>6.399286074517505e-5</v>
+        <v>6.39928607451793e-5</v>
       </c>
       <c r="I52">
-        <v>-9.07228418021187e-6</v>
+        <v>-9.07228418021674e-6</v>
       </c>
       <c r="J52">
-        <v>0.0019523363505622156</v>
+        <v>0.001952336350561426</v>
       </c>
       <c r="K52">
-        <v>4.832538237742094e-5</v>
+        <v>4.8325382377419505e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,13 +2240,13 @@
         <v>-0.00821729423913866</v>
       </c>
       <c r="B53">
-        <v>7.405619877885567</v>
+        <v>7.405619877885565</v>
       </c>
       <c r="C53">
         <v>6.128284835384585e-5</v>
       </c>
       <c r="D53">
-        <v>-9.157442549839816e-6</v>
+        <v>-9.157442549839814e-6</v>
       </c>
       <c r="E53">
         <v>0.001951483863684467</v>
@@ -2255,19 +2255,19 @@
         <v>4.832347882650677e-5</v>
       </c>
       <c r="G53">
-        <v>7.4056276293802155</v>
+        <v>7.405627629381557</v>
       </c>
       <c r="H53">
-        <v>6.12849694098965e-5</v>
+        <v>6.128496940990077e-5</v>
       </c>
       <c r="I53">
-        <v>-9.156123764299194e-6</v>
+        <v>-9.156123764304144e-6</v>
       </c>
       <c r="J53">
-        <v>0.001951484761727642</v>
+        <v>0.0019514847617268416</v>
       </c>
       <c r="K53">
-        <v>4.832348257243699e-5</v>
+        <v>4.832348257243552e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,13 +2275,13 @@
         <v>-0.007605888393130311</v>
       </c>
       <c r="B54">
-        <v>7.396691421299815</v>
+        <v>7.396691421299816</v>
       </c>
       <c r="C54">
         <v>5.8609599001058465e-5</v>
       </c>
       <c r="D54">
-        <v>-9.229673381512867e-6</v>
+        <v>-9.229673381512869e-6</v>
       </c>
       <c r="E54">
         <v>0.0019506422566027315</v>
@@ -2290,19 +2290,19 @@
         <v>4.832175736126949e-5</v>
       </c>
       <c r="G54">
-        <v>7.396698493722973</v>
+        <v>7.3966984937243065</v>
       </c>
       <c r="H54">
-        <v>5.861155157391317e-5</v>
+        <v>5.861155157391747e-5</v>
       </c>
       <c r="I54">
-        <v>-9.22846580050781e-6</v>
+        <v>-9.228465800512841e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019506430877277213</v>
+        <v>0.0019506430877269103</v>
       </c>
       <c r="K54">
-        <v>4.832176070937506e-5</v>
+        <v>4.832176070937356e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,7 +2310,7 @@
         <v>-0.006998343198967898</v>
       </c>
       <c r="B55">
-        <v>7.387989903707286</v>
+        <v>7.387989903707285</v>
       </c>
       <c r="C55">
         <v>5.597251596969688e-5</v>
@@ -2319,25 +2319,25 @@
         <v>-9.288810636489704e-6</v>
       </c>
       <c r="E55">
-        <v>0.0019498116206363167</v>
+        <v>0.001949811620636317</v>
       </c>
       <c r="F55">
-        <v>4.832020766029721e-5</v>
+        <v>4.83202076602972e-5</v>
       </c>
       <c r="G55">
-        <v>7.387996237096316</v>
+        <v>7.387996237097641</v>
       </c>
       <c r="H55">
-        <v>5.597427992061696e-5</v>
+        <v>5.597427992062129e-5</v>
       </c>
       <c r="I55">
-        <v>-9.28772725084296e-6</v>
+        <v>-9.287727250848068e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019498123754223607</v>
+        <v>0.0019498123754215385</v>
       </c>
       <c r="K55">
-        <v>4.832021059712145e-5</v>
+        <v>4.8320210597119914e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,7 +2345,7 @@
         <v>-0.006394472591187243</v>
       </c>
       <c r="B56">
-        <v>7.37951756740443</v>
+        <v>7.379517567404431</v>
       </c>
       <c r="C56">
         <v>5.3373501871633504e-5</v>
@@ -2354,25 +2354,25 @@
         <v>-9.333127178006067e-6</v>
       </c>
       <c r="E56">
-        <v>0.001948993104648372</v>
+        <v>0.0019489931046483722</v>
       </c>
       <c r="F56">
         <v>4.831882416181127e-5</v>
       </c>
       <c r="G56">
-        <v>7.379523105774475</v>
+        <v>7.379523105775793</v>
       </c>
       <c r="H56">
-        <v>5.337505770470722e-5</v>
+        <v>5.3375057704711563e-5</v>
       </c>
       <c r="I56">
-        <v>-9.332180512397332e-6</v>
+        <v>-9.33218051240252e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019489937739341138</v>
+        <v>0.0019489937739332818</v>
       </c>
       <c r="K56">
-        <v>4.831882667710511e-5</v>
+        <v>4.831882667710354e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,7 +2380,7 @@
         <v>-0.005794091629694964</v>
       </c>
       <c r="B57">
-        <v>7.371277261577831</v>
+        <v>7.37127726157783</v>
       </c>
       <c r="C57">
         <v>5.081468130227082e-5</v>
@@ -2389,25 +2389,25 @@
         <v>-9.360756931368397e-6</v>
       </c>
       <c r="E57">
-        <v>0.0019481879574081977</v>
+        <v>0.001948187957408198</v>
       </c>
       <c r="F57">
         <v>4.831760187941727e-5</v>
       </c>
       <c r="G57">
-        <v>7.37128195445351</v>
+        <v>7.37128195445482</v>
       </c>
       <c r="H57">
-        <v>5.081601070898487e-5</v>
+        <v>5.081601070898923e-5</v>
       </c>
       <c r="I57">
-        <v>-9.359958764931367e-6</v>
+        <v>-9.359958764936629e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019481885324197773</v>
+        <v>0.0019481885324189358</v>
       </c>
       <c r="K57">
-        <v>4.831760396556149e-5</v>
+        <v>4.831760396555988e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2421,7 +2421,7 @@
         <v>4.829838771408313e-5</v>
       </c>
       <c r="D58">
-        <v>-9.369703375851052e-6</v>
+        <v>-9.369703375851039e-6</v>
       </c>
       <c r="E58">
         <v>0.0019473975230932224</v>
@@ -2430,19 +2430,19 @@
         <v>4.831653634552398e-5</v>
       </c>
       <c r="G58">
-        <v>7.363276193630953</v>
+        <v>7.363276193632257</v>
       </c>
       <c r="H58">
-        <v>4.829947397331498e-5</v>
+        <v>4.829947397331936e-5</v>
       </c>
       <c r="I58">
-        <v>-9.369064456561256e-6</v>
+        <v>-9.369064456566596e-6</v>
       </c>
       <c r="J58">
-        <v>0.001947397995691043</v>
+        <v>0.001947397995690191</v>
       </c>
       <c r="K58">
-        <v>4.83165379978665e-5</v>
+        <v>4.8316537997864855e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,13 +2450,13 @@
         <v>-0.004603064172547168</v>
       </c>
       <c r="B59">
-        <v>7.355506844237065</v>
+        <v>7.355506844237066</v>
       </c>
       <c r="C59">
         <v>4.582714526538377e-5</v>
       </c>
       <c r="D59">
-        <v>-9.357851239316247e-6</v>
+        <v>-9.357851239316249e-6</v>
       </c>
       <c r="E59">
         <v>0.001946623234224093</v>
@@ -2465,19 +2465,19 @@
         <v>4.831562355432568e-5</v>
       </c>
       <c r="G59">
-        <v>7.355509722787859</v>
+        <v>7.355509722789156</v>
       </c>
       <c r="H59">
-        <v>4.58279736482506e-5</v>
+        <v>4.582797364825499e-5</v>
       </c>
       <c r="I59">
-        <v>-9.357380995792446e-6</v>
+        <v>-9.357380995797857e-6</v>
       </c>
       <c r="J59">
-        <v>0.0019466235971116119</v>
+        <v>0.0019466235971107504</v>
       </c>
       <c r="K59">
-        <v>4.831562477235475e-5</v>
+        <v>4.831562477235307e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,7 +2485,7 @@
         <v>-0.004012052915424027</v>
       </c>
       <c r="B60">
-        <v>7.347984923069654</v>
+        <v>7.347984923069655</v>
       </c>
       <c r="C60">
         <v>4.3403645648401826e-5</v>
@@ -2494,25 +2494,25 @@
         <v>-9.322981381443746e-6</v>
       </c>
       <c r="E60">
-        <v>0.0019458666019798207</v>
+        <v>0.0019458666019798205</v>
       </c>
       <c r="F60">
-        <v>4.8314859904953414e-5</v>
+        <v>4.831485990495341e-5</v>
       </c>
       <c r="G60">
-        <v>7.34798684986117</v>
+        <v>7.347986849862461</v>
       </c>
       <c r="H60">
-        <v>4.340420389060743e-5</v>
+        <v>4.3404203890611825e-5</v>
       </c>
       <c r="I60">
-        <v>-9.32268764703677e-6</v>
+        <v>-9.322687647042255e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019458668488678806</v>
+        <v>0.0019458668488670089</v>
       </c>
       <c r="K60">
-        <v>4.831486069165448e-5</v>
+        <v>4.8314860691652754e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>-0.003423801669942956</v>
       </c>
       <c r="B61">
-        <v>7.340711240090537</v>
+        <v>7.340711240090538</v>
       </c>
       <c r="C61">
         <v>4.1030720043311676e-5</v>
@@ -2529,25 +2529,25 @@
         <v>-9.262788760747736e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019451292039132195</v>
+        <v>0.0019451292039132197</v>
       </c>
       <c r="F61">
-        <v>4.831424214539595e-5</v>
+        <v>4.8314242145395944e-5</v>
       </c>
       <c r="G61">
-        <v>7.340712198677357</v>
+        <v>7.340712198678642</v>
       </c>
       <c r="H61">
-        <v>4.103099871532384e-5</v>
+        <v>4.103099871532823e-5</v>
       </c>
       <c r="I61">
-        <v>-9.262677510357961e-6</v>
+        <v>-9.262677510363515e-6</v>
       </c>
       <c r="J61">
-        <v>0.001945129329764</v>
+        <v>0.0019451293297631188</v>
       </c>
       <c r="K61">
-        <v>4.831424250713277e-5</v>
+        <v>4.8314242507131006e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>-0.00283813027956235</v>
       </c>
       <c r="B62">
-        <v>7.333690620575868</v>
+        <v>7.333690620575866</v>
       </c>
       <c r="C62">
         <v>3.87113064903532e-5</v>
       </c>
       <c r="D62">
-        <v>-9.174903288678255e-6</v>
+        <v>-9.174903288678253e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019444126691647277</v>
+        <v>0.0019444126691647284</v>
       </c>
       <c r="F62">
-        <v>4.831376731777156e-5</v>
+        <v>4.8313767317771554e-5</v>
       </c>
       <c r="G62">
-        <v>7.333690605380237</v>
+        <v>7.333690605381517</v>
       </c>
       <c r="H62">
-        <v>3.871129933123774e-5</v>
+        <v>3.8711299331242114e-5</v>
       </c>
       <c r="I62">
-        <v>-9.174978402191195e-6</v>
+        <v>-9.174978402196818e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019444126704067956</v>
+        <v>0.0019444126704059048</v>
       </c>
       <c r="K62">
-        <v>4.831376726551997e-5</v>
+        <v>4.8313767265518166e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2602,22 +2602,22 @@
         <v>0.0019437186613525468</v>
       </c>
       <c r="F63">
-        <v>4.831343270549698e-5</v>
+        <v>4.831343270549697e-5</v>
       </c>
       <c r="G63">
-        <v>7.326927007251191</v>
+        <v>7.326927007252466</v>
       </c>
       <c r="H63">
-        <v>3.6448117534189914e-5</v>
+        <v>3.644811753419428e-5</v>
       </c>
       <c r="I63">
-        <v>-9.05717634333025e-6</v>
+        <v>-9.057176343335935e-6</v>
       </c>
       <c r="J63">
-        <v>0.001943718535978757</v>
+        <v>0.0019437185359778562</v>
       </c>
       <c r="K63">
-        <v>4.831343225381892e-5</v>
+        <v>4.831343225381707e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2637,22 +2637,22 @@
         <v>0.0019430488593960248</v>
       </c>
       <c r="F64">
-        <v>4.831323578285247e-5</v>
+        <v>4.831323578285246e-5</v>
       </c>
       <c r="G64">
-        <v>7.320426323907751</v>
+        <v>7.320426323909021</v>
       </c>
       <c r="H64">
-        <v>3.4244494926610945e-5</v>
+        <v>3.424449492661531e-5</v>
       </c>
       <c r="I64">
-        <v>-8.906841285594139e-6</v>
+        <v>-8.906841285599885e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019430486071508326</v>
+        <v>0.0019430486071499217</v>
       </c>
       <c r="K64">
-        <v>4.831323495050962e-5</v>
+        <v>4.8313234950507715e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,7 +2660,7 @@
         <v>-0.0010948051957500107</v>
       </c>
       <c r="B65">
-        <v>7.3141961858370514</v>
+        <v>7.314196185837052</v>
       </c>
       <c r="C65">
         <v>3.2104324864245845e-5</v>
@@ -2675,19 +2675,19 @@
         <v>4.831317416738367e-5</v>
       </c>
       <c r="G65">
-        <v>7.314193335665152</v>
+        <v>7.314193335666418</v>
       </c>
       <c r="H65">
-        <v>3.210345983884486e-5</v>
+        <v>3.210345983884921e-5</v>
       </c>
       <c r="I65">
-        <v>-8.721554612641948e-6</v>
+        <v>-8.721554612647754e-6</v>
       </c>
       <c r="J65">
-        <v>0.0019424045590377022</v>
+        <v>0.0019424045590367815</v>
       </c>
       <c r="K65">
-        <v>4.831317297650655e-5</v>
+        <v>4.8313172976504597e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,7 +2695,7 @@
         <v>-0.0005176666397195308</v>
       </c>
       <c r="B66">
-        <v>7.308236284751117</v>
+        <v>7.308236284751118</v>
       </c>
       <c r="C66">
         <v>3.0029119944862788e-5</v>
@@ -2704,25 +2704,25 @@
         <v>-8.498126696196171e-6</v>
       </c>
       <c r="E66">
-        <v>0.0019417885384317435</v>
+        <v>0.0019417885384317433</v>
       </c>
       <c r="F66">
         <v>4.8313245575515445e-5</v>
       </c>
       <c r="G66">
-        <v>7.308232559296801</v>
+        <v>7.308232559298063</v>
       </c>
       <c r="H66">
-        <v>3.0027982009963346e-5</v>
+        <v>3.0027982009967682e-5</v>
       </c>
       <c r="I66">
-        <v>-8.498937937275026e-6</v>
+        <v>-8.498937937280883e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019417880390226827</v>
+        <v>0.0019417880390217531</v>
       </c>
       <c r="K66">
-        <v>4.831324405221744e-5</v>
+        <v>4.831324405221543e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>5.7782087777367985e-5</v>
       </c>
       <c r="B67">
-        <v>7.3025526711184625</v>
+        <v>7.30255267111846</v>
       </c>
       <c r="C67">
         <v>2.8022323335520698e-5</v>
       </c>
       <c r="D67">
-        <v>-8.235702597566559e-6</v>
+        <v>-8.235702597566557e-6</v>
       </c>
       <c r="E67">
-        <v>0.0019412012593570897</v>
+        <v>0.0019412012593570894</v>
       </c>
       <c r="F67">
         <v>4.831344778168348e-5</v>
       </c>
       <c r="G67">
-        <v>7.302548125572382</v>
+        <v>7.30254812557364</v>
       </c>
       <c r="H67">
-        <v>2.8020925940970165e-5</v>
+        <v>2.8020925940974495e-5</v>
       </c>
       <c r="I67">
-        <v>-8.236682576225327e-6</v>
+        <v>-8.236682576231233e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019412006435106115</v>
+        <v>0.0019412006435096725</v>
       </c>
       <c r="K67">
-        <v>4.831344595499101e-5</v>
+        <v>4.831344595498895e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0006317172224110899</v>
       </c>
       <c r="B68">
-        <v>7.297148958521201</v>
+        <v>7.297148958521199</v>
       </c>
       <c r="C68">
         <v>2.6086643367960267e-5</v>
       </c>
       <c r="D68">
-        <v>-7.93144181581219e-6</v>
+        <v>-7.931441815812189e-6</v>
       </c>
       <c r="E68">
-        <v>0.001940644619397139</v>
+        <v>0.0019406446193971395</v>
       </c>
       <c r="F68">
         <v>4.831377858121975e-5</v>
       </c>
       <c r="G68">
-        <v>7.2971436596338</v>
+        <v>7.297143659635055</v>
       </c>
       <c r="H68">
-        <v>2.6085003965859323e-5</v>
+        <v>2.6085003965863647e-5</v>
       </c>
       <c r="I68">
-        <v>-7.932579150468115e-6</v>
+        <v>-7.932579150474068e-6</v>
       </c>
       <c r="J68">
-        <v>0.001940643894447448</v>
+        <v>0.0019406438944465</v>
       </c>
       <c r="K68">
-        <v>4.831377648328777e-5</v>
+        <v>4.831377648328565e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,7 +2800,7 @@
         <v>0.0012043145363023929</v>
       </c>
       <c r="B69">
-        <v>7.292028142198691</v>
+        <v>7.29202814219869</v>
       </c>
       <c r="C69">
         <v>2.422459045648027e-5</v>
@@ -2809,25 +2809,25 @@
         <v>-7.583265844992843e-6</v>
       </c>
       <c r="E69">
-        <v>0.0019401200407894567</v>
+        <v>0.001940120040789457</v>
       </c>
       <c r="F69">
         <v>4.83142357571606e-5</v>
       </c>
       <c r="G69">
-        <v>7.292022167471258</v>
+        <v>7.292022167472511</v>
       </c>
       <c r="H69">
-        <v>2.422273035528825e-5</v>
+        <v>2.4222730355292567e-5</v>
       </c>
       <c r="I69">
-        <v>-7.584546635700676e-6</v>
+        <v>-7.5845466357066676e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019401192159356265</v>
+        <v>0.0019401192159346691</v>
       </c>
       <c r="K69">
-        <v>4.831423342254122e-5</v>
+        <v>4.831423342253902e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.831481705108507e-5</v>
       </c>
       <c r="G70">
-        <v>7.287185930657345</v>
+        <v>7.287185930658595</v>
       </c>
       <c r="H70">
-        <v>2.2436377175794134e-5</v>
+        <v>2.2436377175798447e-5</v>
       </c>
       <c r="I70">
-        <v>-7.190660279315128e-6</v>
+        <v>-7.1906602793211534e-6</v>
       </c>
       <c r="J70">
-        <v>0.001939627911625016</v>
+        <v>0.00193962791162405</v>
       </c>
       <c r="K70">
-        <v>4.831481451644581e-5</v>
+        <v>4.8314814516443535e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.831552013803617e-5</v>
       </c>
       <c r="G71">
-        <v>7.282636411490026</v>
+        <v>7.282636411491274</v>
       </c>
       <c r="H71">
-        <v>2.0727932614108654e-5</v>
+        <v>2.0727932614112957e-5</v>
       </c>
       <c r="I71">
-        <v>-6.749177704156619e-6</v>
+        <v>-6.749177704162676e-6</v>
       </c>
       <c r="J71">
-        <v>0.0019391711432857285</v>
+        <v>0.0019391711432847532</v>
       </c>
       <c r="K71">
-        <v>4.831551744205873e-5</v>
+        <v>4.831551744205636e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2914,25 +2914,25 @@
         <v>-6.256957360751924e-6</v>
       </c>
       <c r="E72">
-        <v>0.001938750963873041</v>
+        <v>0.0019387509638730408</v>
       </c>
       <c r="F72">
         <v>4.831634260553248e-5</v>
       </c>
       <c r="G72">
-        <v>7.278374170201349</v>
+        <v>7.278374170202595</v>
       </c>
       <c r="H72">
-        <v>1.9099063315797868e-5</v>
+        <v>1.909906331580216e-5</v>
       </c>
       <c r="I72">
-        <v>-6.258562681562083e-6</v>
+        <v>-6.258562681568168e-6</v>
       </c>
       <c r="J72">
-        <v>0.0019387499113665883</v>
+        <v>0.001938749911365604</v>
       </c>
       <c r="K72">
-        <v>4.831633978804556e-5</v>
+        <v>4.8316339788043096e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,7 +2940,7 @@
         <v>0.003484827813808121</v>
       </c>
       <c r="B73">
-        <v>7.27440652255839</v>
+        <v>7.274406522558389</v>
       </c>
       <c r="C73">
         <v>1.7553542248893908e-5</v>
@@ -2955,19 +2955,19 @@
         <v>4.8317281936639994e-5</v>
       </c>
       <c r="G73">
-        <v>7.274398796444877</v>
+        <v>7.274398796446119</v>
       </c>
       <c r="H73">
-        <v>1.755108108210203e-5</v>
+        <v>1.7551081082106316e-5</v>
       </c>
       <c r="I73">
-        <v>-5.717505982128827e-6</v>
+        <v>-5.717505982134934e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019383650377292813</v>
+        <v>0.0019383650377282876</v>
       </c>
       <c r="K73">
-        <v>4.831727903818813e-5</v>
+        <v>4.831727903818557e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2981,28 +2981,28 @@
         <v>1.608744281943417e-5</v>
       </c>
       <c r="D74">
-        <v>-5.12322728652265e-6</v>
+        <v>-5.123227286522678e-6</v>
       </c>
       <c r="E74">
         <v>0.001938018281977552</v>
       </c>
       <c r="F74">
-        <v>4.8318335497045246e-5</v>
+        <v>4.831833549704525e-5</v>
       </c>
       <c r="G74">
-        <v>7.270708856075667</v>
+        <v>7.270708856076907</v>
       </c>
       <c r="H74">
-        <v>1.6084915192179728e-5</v>
+        <v>1.6084915192184e-5</v>
       </c>
       <c r="I74">
-        <v>-5.12494281748608e-6</v>
+        <v>-5.124942817492208e-6</v>
       </c>
       <c r="J74">
-        <v>0.001938017151243202</v>
+        <v>0.0019380171512421987</v>
       </c>
       <c r="K74">
-        <v>4.831833255816617e-5</v>
+        <v>4.831833255816353e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.004621602556748358</v>
       </c>
       <c r="B75">
-        <v>7.2673098011749335</v>
+        <v>7.267309801174932</v>
       </c>
       <c r="C75">
         <v>1.4703647492408837e-5</v>
       </c>
       <c r="D75">
-        <v>-4.478331427834901e-6</v>
+        <v>-4.4783314278349e-6</v>
       </c>
       <c r="E75">
-        <v>0.0019377078214377066</v>
+        <v>0.0019377078214377068</v>
       </c>
       <c r="F75">
-        <v>4.831950052604909e-5</v>
+        <v>4.8319500526049084e-5</v>
       </c>
       <c r="G75">
-        <v>7.2673018545503165</v>
+        <v>7.267301854551555</v>
       </c>
       <c r="H75">
-        <v>1.4701090429527422e-5</v>
+        <v>1.4701090429531685e-5</v>
       </c>
       <c r="I75">
-        <v>-4.480066545889966e-6</v>
+        <v>-4.480066545896107e-6</v>
       </c>
       <c r="J75">
-        <v>0.001937706676475046</v>
+        <v>0.0019377066764740321</v>
       </c>
       <c r="K75">
-        <v>4.831949758744128e-5</v>
+        <v>4.831949758743855e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.005189729083116528</v>
       </c>
       <c r="B76">
-        <v>7.2641821011609755</v>
+        <v>7.264182101160975</v>
       </c>
       <c r="C76">
         <v>1.3402260656667653e-5</v>
       </c>
       <c r="D76">
-        <v>-3.780607923506098e-6</v>
+        <v>-3.7806079235060974e-6</v>
       </c>
       <c r="E76">
-        <v>0.001937434967846924</v>
+        <v>0.0019374349678469242</v>
       </c>
       <c r="F76">
-        <v>4.832077413138365e-5</v>
+        <v>4.832077413138364e-5</v>
       </c>
       <c r="G76">
-        <v>7.264174217602056</v>
+        <v>7.264174217603292</v>
       </c>
       <c r="H76">
-        <v>1.3399711977094577e-5</v>
+        <v>1.3399711977098824e-5</v>
       </c>
       <c r="I76">
-        <v>-3.782338189169828e-6</v>
+        <v>-3.7823381891759797e-6</v>
       </c>
       <c r="J76">
-        <v>0.001937433825811912</v>
+        <v>0.0019374338258108885</v>
       </c>
       <c r="K76">
-        <v>4.832077123292178e-5</v>
+        <v>4.832077123291895e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3086,28 +3086,28 @@
         <v>1.2182959231899941e-5</v>
       </c>
       <c r="D77">
-        <v>-3.0297907578414553e-6</v>
+        <v>-3.0297907578414557e-6</v>
       </c>
       <c r="E77">
-        <v>0.001937199717239423</v>
+        <v>0.0019371997172394227</v>
       </c>
       <c r="F77">
-        <v>4.8322153287741884e-5</v>
+        <v>4.832215328774189e-5</v>
       </c>
       <c r="G77">
-        <v>7.26132128926017</v>
+        <v>7.261321289261404</v>
       </c>
       <c r="H77">
-        <v>1.2180456833465522e-5</v>
+        <v>1.2180456833469755e-5</v>
       </c>
       <c r="I77">
-        <v>-3.0314916538525495e-6</v>
+        <v>-3.0314916538587066e-6</v>
       </c>
       <c r="J77">
-        <v>0.001937198595381047</v>
+        <v>0.001937198595380013</v>
       </c>
       <c r="K77">
-        <v>4.832215046794633e-5</v>
+        <v>4.832215046794341e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3124,25 +3124,25 @@
         <v>-2.225887148666849e-6</v>
       </c>
       <c r="E78">
-        <v>0.001937001849232074</v>
+        <v>0.0019370018492320738</v>
       </c>
       <c r="F78">
         <v>4.83236348388967e-5</v>
       </c>
       <c r="G78">
-        <v>7.258737348324233</v>
+        <v>7.258737348325464</v>
       </c>
       <c r="H78">
-        <v>1.104257259749292e-5</v>
+        <v>1.1042572597497138e-5</v>
       </c>
       <c r="I78">
-        <v>-2.227534478424936e-6</v>
+        <v>-2.227534478431093e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019370007645210807</v>
+        <v>0.0019370007645200364</v>
       </c>
       <c r="K78">
-        <v>4.8323632134804155e-5</v>
+        <v>4.832363213480114e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.832521550327285e-5</v>
       </c>
       <c r="G79">
-        <v>7.256415641395393</v>
+        <v>7.2564156413966225</v>
       </c>
       <c r="H79">
-        <v>9.984883346272097e-6</v>
+        <v>9.9848833462763e-6</v>
       </c>
       <c r="I79">
-        <v>-1.3707441281887537e-6</v>
+        <v>-1.3707441281949078e-6</v>
       </c>
       <c r="J79">
-        <v>0.001936839899296836</v>
+        <v>0.0019368398992957816</v>
       </c>
       <c r="K79">
-        <v>4.832521294975884e-5</v>
+        <v>4.8325212949755745e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,7 +3185,7 @@
         <v>0.007464556767332434</v>
       </c>
       <c r="B80">
-        <v>7.254354959274558</v>
+        <v>7.2543549592745595</v>
       </c>
       <c r="C80">
         <v>9.007946803561888e-6</v>
@@ -3194,25 +3194,25 @@
         <v>-4.6018888409155835e-7</v>
       </c>
       <c r="E80">
-        <v>0.0019367163212914357</v>
+        <v>0.001936716321291435</v>
       </c>
       <c r="F80">
-        <v>4.832689188281798e-5</v>
+        <v>4.832689188281797e-5</v>
       </c>
       <c r="G80">
-        <v>7.254348433278531</v>
+        <v>7.254348433279757</v>
       </c>
       <c r="H80">
-        <v>9.005802305197374e-6</v>
+        <v>9.005802305201563e-6</v>
       </c>
       <c r="I80">
-        <v>-4.616598253409301e-7</v>
+        <v>-4.616598253470772e-7</v>
       </c>
       <c r="J80">
-        <v>0.0019367153594388445</v>
+        <v>0.0019367153594377804</v>
       </c>
       <c r="K80">
-        <v>4.832688951228807e-5</v>
+        <v>4.832688951228489e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3229,25 +3229,25 @@
         <v>5.002804760179809e-7</v>
       </c>
       <c r="E81">
-        <v>0.0019366271870397134</v>
+        <v>0.0019366271870397136</v>
       </c>
       <c r="F81">
-        <v>4.832866047499722e-5</v>
+        <v>4.832866047499721e-5</v>
       </c>
       <c r="G81">
-        <v>7.252527072921675</v>
+        <v>7.252527072922899</v>
       </c>
       <c r="H81">
-        <v>8.103351373027208e-6</v>
+        <v>8.103351373031379e-6</v>
       </c>
       <c r="I81">
-        <v>4.989297987695832e-7</v>
+        <v>4.989297987634474e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019366263089566063</v>
+        <v>0.0019366263089555327</v>
       </c>
       <c r="K81">
-        <v>4.832865831709023e-5</v>
+        <v>4.832865831708696e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.008605802460034225</v>
       </c>
       <c r="B82">
-        <v>7.250947339160844</v>
+        <v>7.250947339160843</v>
       </c>
       <c r="C82">
         <v>7.276928531823455e-6</v>
       </c>
       <c r="D82">
-        <v>1.5112142447773628e-6</v>
+        <v>1.5112142447773626e-6</v>
       </c>
       <c r="E82">
-        <v>0.001936572511045689</v>
+        <v>0.0019365725110456892</v>
       </c>
       <c r="F82">
-        <v>4.83305176877081e-5</v>
+        <v>4.8330517687708104e-5</v>
       </c>
       <c r="G82">
-        <v>7.250942073468908</v>
+        <v>7.250942073470129</v>
       </c>
       <c r="H82">
-        <v>7.275186716185115e-6</v>
+        <v>7.275186716189268e-6</v>
       </c>
       <c r="I82">
-        <v>1.5100029357040494e-6</v>
+        <v>1.5100029356979286e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019365717299505804</v>
+        <v>0.0019365717299494973</v>
       </c>
       <c r="K82">
-        <v>4.833051576883584e-5</v>
+        <v>4.83305157688325e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.009177994314151044</v>
       </c>
       <c r="B83">
-        <v>7.24958772586843</v>
+        <v>7.249587725868429</v>
       </c>
       <c r="C83">
         <v>6.520129634001396e-6</v>
       </c>
       <c r="D83">
-        <v>2.5713793526217977e-6</v>
+        <v>2.5713793526217697e-6</v>
       </c>
       <c r="E83">
-        <v>0.0019365511116149021</v>
+        <v>0.0019365511116149025</v>
       </c>
       <c r="F83">
-        <v>4.833245985687818e-5</v>
+        <v>4.8332459856878173e-5</v>
       </c>
       <c r="G83">
-        <v>7.249583205491036</v>
+        <v>7.249583205492255</v>
       </c>
       <c r="H83">
-        <v>6.518630126262238e-6</v>
+        <v>6.518630126266373e-6</v>
       </c>
       <c r="I83">
-        <v>2.5703244599660153e-6</v>
+        <v>2.570324459959913e-6</v>
       </c>
       <c r="J83">
-        <v>0.0019365504391985976</v>
+        <v>0.001936550439197505</v>
       </c>
       <c r="K83">
-        <v>4.8332458200126194e-5</v>
+        <v>4.833245820012279e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3331,28 +3331,28 @@
         <v>5.831939528956628e-6</v>
       </c>
       <c r="D84">
-        <v>3.6793525446705508e-6</v>
+        <v>3.6793525446705787e-6</v>
       </c>
       <c r="E84">
-        <v>0.001936561660971891</v>
+        <v>0.0019365616609718908</v>
       </c>
       <c r="F84">
         <v>4.833448326646839e-5</v>
       </c>
       <c r="G84">
-        <v>7.248439600640721</v>
+        <v>7.2484396006419365</v>
       </c>
       <c r="H84">
-        <v>5.830705006561716e-6</v>
+        <v>5.830705006565834e-6</v>
       </c>
       <c r="I84">
-        <v>3.678468837896126e-6</v>
+        <v>3.678468837890045e-6</v>
       </c>
       <c r="J84">
-        <v>0.0019365611072313744</v>
+        <v>0.0019365611072302725</v>
       </c>
       <c r="K84">
-        <v>4.8334481891247014e-5</v>
+        <v>4.833448189124353e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,7 +3360,7 @@
         <v>0.010326392282722006</v>
       </c>
       <c r="B85">
-        <v>7.247502718277023</v>
+        <v>7.2475027182770235</v>
       </c>
       <c r="C85">
         <v>5.2091272364998595e-6</v>
@@ -3369,25 +3369,25 @@
         <v>4.833545817890128e-6</v>
       </c>
       <c r="E85">
-        <v>0.0019366027062172242</v>
+        <v>0.001936602706217224</v>
       </c>
       <c r="F85">
-        <v>4.83365841705602e-5</v>
+        <v>4.8336584170560205e-5</v>
       </c>
       <c r="G85">
-        <v>7.247499864194523</v>
+        <v>7.247499864195736</v>
       </c>
       <c r="H85">
-        <v>5.2081765567638124e-6</v>
+        <v>5.208176556767914e-6</v>
       </c>
       <c r="I85">
-        <v>4.8328456154825484e-6</v>
+        <v>4.832845615476491e-6</v>
       </c>
       <c r="J85">
-        <v>0.0019366022793527852</v>
+        <v>0.001936602279351674</v>
       </c>
       <c r="K85">
-        <v>4.833658309267107e-5</v>
+        <v>4.833658309266749e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,7 +3395,7 @@
         <v>0.010902950103029704</v>
       </c>
       <c r="B86">
-        <v>7.246754150601586</v>
+        <v>7.2467541506015865</v>
       </c>
       <c r="C86">
         <v>4.64824692692073e-6</v>
@@ -3410,19 +3410,19 @@
         <v>4.83387588171577e-5</v>
       </c>
       <c r="G86">
-        <v>7.246752193880826</v>
+        <v>7.246752193882035</v>
       </c>
       <c r="H86">
-        <v>4.6475949222502036e-6</v>
+        <v>4.647594922254288e-6</v>
       </c>
       <c r="I86">
-        <v>6.03172686635849e-6</v>
+        <v>6.03172686635246e-6</v>
       </c>
       <c r="J86">
-        <v>0.001936672398013415</v>
+        <v>0.001936672398012294</v>
       </c>
       <c r="K86">
-        <v>4.8338758048481276e-5</v>
+        <v>4.833875804847763e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.011481315747942943</v>
       </c>
       <c r="B87">
-        <v>7.246185535396215</v>
+        <v>7.246185535396216</v>
       </c>
       <c r="C87">
         <v>4.145683136205135e-6</v>
       </c>
       <c r="D87">
-        <v>7.273582839125968e-6</v>
+        <v>7.2735828391259684e-6</v>
       </c>
       <c r="E87">
-        <v>0.0019367699822588798</v>
+        <v>0.0019367699822588796</v>
       </c>
       <c r="F87">
-        <v>4.8341003473288575e-5</v>
+        <v>4.834100347328858e-5</v>
       </c>
       <c r="G87">
-        <v>7.246184502733631</v>
+        <v>7.246184502734836</v>
       </c>
       <c r="H87">
-        <v>4.145340537632319e-6</v>
+        <v>4.145340537636386e-6</v>
       </c>
       <c r="I87">
-        <v>7.273276157898805e-6</v>
+        <v>7.273276157892805e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019367698261428456</v>
+        <v>0.0019367698261417154</v>
       </c>
       <c r="K87">
-        <v>4.8341003021858e-5</v>
+        <v>4.834100302185426e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,7 +3465,7 @@
         <v>0.012061666346460883</v>
       </c>
       <c r="B88">
-        <v>7.24578463720709</v>
+        <v>7.245784637207091</v>
       </c>
       <c r="C88">
         <v>3.697697084116364e-6</v>
@@ -3474,25 +3474,25 @@
         <v>8.555680040389101e-6</v>
       </c>
       <c r="E88">
-        <v>0.0019368928868037315</v>
+        <v>0.0019368928868037313</v>
       </c>
       <c r="F88">
         <v>4.8343314450943705e-5</v>
       </c>
       <c r="G88">
-        <v>7.245784543267991</v>
+        <v>7.245784543269192</v>
       </c>
       <c r="H88">
-        <v>3.6976705116046295e-6</v>
+        <v>3.6976705116086783e-6</v>
       </c>
       <c r="I88">
-        <v>8.55557809335213e-6</v>
+        <v>8.555578093346161e-6</v>
       </c>
       <c r="J88">
-        <v>0.001936892870735782</v>
+        <v>0.0019368928707346423</v>
       </c>
       <c r="K88">
-        <v>4.834331432104008e-5</v>
+        <v>4.834331432103627e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.012644179635490246</v>
       </c>
       <c r="B89">
-        <v>7.245539182945581</v>
+        <v>7.245539182945582</v>
       </c>
       <c r="C89">
         <v>3.3004730936994757e-6</v>
       </c>
       <c r="D89">
-        <v>9.876563510024294e-6</v>
+        <v>9.876563510024296e-6</v>
       </c>
       <c r="E89">
-        <v>0.0019370396816790827</v>
+        <v>0.0019370396816790825</v>
       </c>
       <c r="F89">
-        <v>4.8345688133357376e-5</v>
+        <v>4.834568813335738e-5</v>
       </c>
       <c r="G89">
-        <v>7.245540030683128</v>
+        <v>7.245540030684325</v>
       </c>
       <c r="H89">
-        <v>3.3007651334563524e-6</v>
+        <v>3.300765133460383e-6</v>
       </c>
       <c r="I89">
-        <v>9.876668112194771e-6</v>
+        <v>9.876668112188837e-6</v>
       </c>
       <c r="J89">
-        <v>0.001937039806280263</v>
+        <v>0.001937039806279114</v>
       </c>
       <c r="K89">
-        <v>4.8345688325566486e-5</v>
+        <v>4.834568832556256e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,7 +3535,7 @@
         <v>0.013229034014278628</v>
       </c>
       <c r="B90">
-        <v>7.245436981394256</v>
+        <v>7.245436981394255</v>
       </c>
       <c r="C90">
         <v>2.950164140045653e-6</v>
@@ -3544,25 +3544,25 @@
         <v>1.1234251299721558e-5</v>
       </c>
       <c r="E90">
-        <v>0.0019372086333351184</v>
+        <v>0.0019372086333351189</v>
       </c>
       <c r="F90">
-        <v>4.83481210011028e-5</v>
+        <v>4.834812100110279e-5</v>
       </c>
       <c r="G90">
-        <v>7.245438762647205</v>
+        <v>7.245438762648396</v>
       </c>
       <c r="H90">
-        <v>2.950773504159321e-6</v>
+        <v>2.950773504163334e-6</v>
       </c>
       <c r="I90">
-        <v>1.1234561779893151e-5</v>
+        <v>1.1234561779887252e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019372088974624424</v>
+        <v>0.001937208897461284</v>
       </c>
       <c r="K90">
-        <v>4.834812151250463e-5</v>
+        <v>4.8348121512500615e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3579,25 +3579,25 @@
         <v>1.2626769602467926e-5</v>
       </c>
       <c r="E91">
-        <v>0.001937398019830586</v>
+        <v>0.0019373980198305863</v>
       </c>
       <c r="F91">
-        <v>4.83506096574623e-5</v>
+        <v>4.835060965746231e-5</v>
       </c>
       <c r="G91">
-        <v>7.245468733223697</v>
+        <v>7.245468733224883</v>
       </c>
       <c r="H91">
-        <v>2.64385739272772e-6</v>
+        <v>2.6438573927317147e-6</v>
       </c>
       <c r="I91">
-        <v>1.262728292791845e-5</v>
+        <v>1.2627282927912587e-5</v>
       </c>
       <c r="J91">
-        <v>0.001937398420701244</v>
+        <v>0.0019373984207000762</v>
       </c>
       <c r="K91">
-        <v>4.8350610481873796e-5</v>
+        <v>4.835061048186968e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.01440648327786373</v>
       </c>
       <c r="B92">
-        <v>7.245614655613628</v>
+        <v>7.245614655613627</v>
       </c>
       <c r="C92">
         <v>2.375006450929322e-6</v>
       </c>
       <c r="D92">
-        <v>1.4052179285603272e-5</v>
+        <v>1.405217928560327e-5</v>
       </c>
       <c r="E92">
-        <v>0.0019376061507690222</v>
+        <v>0.001937606150769022</v>
       </c>
       <c r="F92">
         <v>4.835315085253368e-5</v>
       </c>
       <c r="G92">
-        <v>7.24561823892411</v>
+        <v>7.2456182389252906</v>
       </c>
       <c r="H92">
-        <v>2.376232396981146e-6</v>
+        <v>2.376232396985123e-6</v>
       </c>
       <c r="I92">
-        <v>1.4052890267981389e-5</v>
+        <v>1.4052890267975554e-5</v>
       </c>
       <c r="J92">
-        <v>0.001937606684107288</v>
+        <v>0.001937606684106111</v>
       </c>
       <c r="K92">
-        <v>4.835315198074376e-5</v>
+        <v>4.835315198073957e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3646,28 +3646,28 @@
         <v>2.1426869318531485e-6</v>
       </c>
       <c r="D93">
-        <v>1.5508600340822716e-5</v>
+        <v>1.550860034082269e-5</v>
       </c>
       <c r="E93">
         <v>0.001937831385327638</v>
       </c>
       <c r="F93">
-        <v>4.835574150555236e-5</v>
+        <v>4.835574150555237e-5</v>
       </c>
       <c r="G93">
-        <v>7.2458759750909065</v>
+        <v>7.245875975092082</v>
       </c>
       <c r="H93">
-        <v>2.1442058197928023e-6</v>
+        <v>2.1442058197967617e-6</v>
       </c>
       <c r="I93">
-        <v>1.55095018394012e-5</v>
+        <v>1.5509501839395397e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019378320455417863</v>
+        <v>0.0019378320455406</v>
       </c>
       <c r="K93">
-        <v>4.8355742925662985e-5</v>
+        <v>4.835574292565871e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3684,25 +3684,25 @@
         <v>1.6994233850253716e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019380721481100844</v>
+        <v>0.0019380721481100842</v>
       </c>
       <c r="F94">
-        <v>4.83583787249473e-5</v>
+        <v>4.8358378724947304e-5</v>
       </c>
       <c r="G94">
-        <v>7.246231121012536</v>
+        <v>7.246231121013706</v>
       </c>
       <c r="H94">
-        <v>1.944210506577368e-6</v>
+        <v>1.9442105065813087e-6</v>
       </c>
       <c r="I94">
-        <v>1.6995317049321817e-5</v>
+        <v>1.699531704931604e-5</v>
       </c>
       <c r="J94">
-        <v>0.00193807292849279</v>
+        <v>0.0019380729284915947</v>
       </c>
       <c r="K94">
-        <v>4.835838042273981e-5</v>
+        <v>4.835838042273545e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3716,28 +3716,28 @@
         <v>1.7707729894417798e-6</v>
       </c>
       <c r="D95">
-        <v>1.8507381150377056e-5</v>
+        <v>1.8507381150377083e-5</v>
       </c>
       <c r="E95">
-        <v>0.0019383269426294053</v>
+        <v>0.0019383269426294057</v>
       </c>
       <c r="F95">
         <v>4.8361059825704476e-5</v>
       </c>
       <c r="G95">
-        <v>7.246673412386037</v>
+        <v>7.246673412387201</v>
       </c>
       <c r="H95">
-        <v>1.7728342172116826e-6</v>
+        <v>1.7728342172156052e-6</v>
       </c>
       <c r="I95">
-        <v>1.850863582932176e-5</v>
+        <v>1.850863582931601e-5</v>
       </c>
       <c r="J95">
-        <v>0.0019383278355568183</v>
+        <v>0.001938327835555614</v>
       </c>
       <c r="K95">
-        <v>4.836106178501673e-5</v>
+        <v>4.836106178501228e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.01679741080120775</v>
       </c>
       <c r="B96">
-        <v>7.2471864975141465</v>
+        <v>7.247186497514146</v>
       </c>
       <c r="C96">
         <v>1.6245374560889814e-6</v>
       </c>
       <c r="D96">
-        <v>2.0046459964472093e-5</v>
+        <v>2.004645996447209e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019385943623038636</v>
+        <v>0.0019385943623038634</v>
       </c>
       <c r="F96">
         <v>4.836378234368517e-5</v>
       </c>
       <c r="G96">
-        <v>7.247193200578385</v>
+        <v>7.2471932005795425</v>
       </c>
       <c r="H96">
-        <v>1.6268442172376747e-6</v>
+        <v>1.6268442172415787e-6</v>
       </c>
       <c r="I96">
-        <v>2.0047874789684555e-5</v>
+        <v>2.0047874789678822e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019385953594371974</v>
+        <v>0.0019385953594359836</v>
       </c>
       <c r="K96">
-        <v>4.8363784546799465e-5</v>
+        <v>4.836378454679492e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,7 +3780,7 @@
         <v>0.017403715156340573</v>
       </c>
       <c r="B97">
-        <v>7.2477741484874025</v>
+        <v>7.247774148487402</v>
       </c>
       <c r="C97">
         <v>1.5006734762769876e-6</v>
@@ -3789,25 +3789,25 @@
         <v>2.1610017366327826e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019388730989233292</v>
+        <v>0.0019388730989233294</v>
       </c>
       <c r="F97">
         <v>4.836654404663419e-5</v>
       </c>
       <c r="G97">
-        <v>7.247781498105442</v>
+        <v>7.247781498106593</v>
       </c>
       <c r="H97">
-        <v>1.5032068505860677e-6</v>
+        <v>1.5032068505899529e-6</v>
       </c>
       <c r="I97">
-        <v>2.161158015983225e-5</v>
+        <v>2.161158015982654e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019388741914323935</v>
+        <v>0.0019388741914311701</v>
       </c>
       <c r="K97">
-        <v>4.8366546474703573e-5</v>
+        <v>4.836654647469894e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3821,7 +3821,7 @@
         <v>1.3963618137702502e-6</v>
       </c>
       <c r="D98">
-        <v>2.319673952993839e-5</v>
+        <v>2.3196739529938358e-5</v>
       </c>
       <c r="E98">
         <v>0.0019391619486150886</v>
@@ -3830,19 +3830,19 @@
         <v>4.836934294171191e-5</v>
       </c>
       <c r="G98">
-        <v>7.248430009941461</v>
+        <v>7.248430009942605</v>
       </c>
       <c r="H98">
-        <v>1.3991020571131588e-6</v>
+        <v>1.3991020571170248e-6</v>
       </c>
       <c r="I98">
-        <v>2.319843754781403e-5</v>
+        <v>2.319843754780835e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019391631273643377</v>
+        <v>0.0019391631273631045</v>
       </c>
       <c r="K98">
-        <v>4.8369345575160715e-5</v>
+        <v>4.836934557515597e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3856,28 +3856,28 @@
         <v>1.309005969990929e-6</v>
       </c>
       <c r="D99">
-        <v>2.4805458308616695e-5</v>
+        <v>2.48054583086167e-5</v>
       </c>
       <c r="E99">
-        <v>0.0019394598154030863</v>
+        <v>0.0019394598154030868</v>
       </c>
       <c r="F99">
         <v>4.8372177279489506e-5</v>
       </c>
       <c r="G99">
-        <v>7.249131151545196</v>
+        <v>7.249131151546334</v>
       </c>
       <c r="H99">
-        <v>1.311932933978268e-6</v>
+        <v>1.311932933982115e-6</v>
       </c>
       <c r="I99">
-        <v>2.48072785610104e-5</v>
+        <v>2.480727856100474e-5</v>
       </c>
       <c r="J99">
-        <v>0.0019394610711483387</v>
+        <v>0.001939461071147096</v>
       </c>
       <c r="K99">
-        <v>4.83721800983674e-5</v>
+        <v>4.837218009836255e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3897,22 +3897,22 @@
         <v>0.0019397657125119346</v>
       </c>
       <c r="F100">
-        <v>4.837504555445388e-5</v>
+        <v>4.8375045554453876e-5</v>
       </c>
       <c r="G100">
-        <v>7.249878053686667</v>
+        <v>7.249878053687798</v>
       </c>
       <c r="H100">
-        <v>1.239330538775477e-6</v>
+        <v>1.239330538779305e-6</v>
       </c>
       <c r="I100">
-        <v>2.6437084202895695e-5</v>
+        <v>2.643708420289006e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019397670360731395</v>
+        <v>0.0019397670360718868</v>
       </c>
       <c r="K100">
-        <v>4.8375048538828e-5</v>
+        <v>4.837504853882304e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,7 +3920,7 @@
         <v>0.0198687945730677</v>
       </c>
       <c r="B101">
-        <v>7.2506552165666065</v>
+        <v>7.250655216566606</v>
       </c>
       <c r="C101">
         <v>1.1759140502105438e-6</v>
@@ -3929,25 +3929,25 @@
         <v>2.8084959882245443e-5</v>
       </c>
       <c r="E101">
-        <v>0.0019400787616150588</v>
+        <v>0.0019400787616150586</v>
       </c>
       <c r="F101">
-        <v>4.8377946502172335e-5</v>
+        <v>4.837794650217234e-5</v>
       </c>
       <c r="G101">
-        <v>7.250664555406789</v>
+        <v>7.250664555407912</v>
       </c>
       <c r="H101">
-        <v>1.1791542832748964e-6</v>
+        <v>1.1791542832787055e-6</v>
       </c>
       <c r="I101">
-        <v>2.808698565791068e-5</v>
+        <v>2.8086985657905065e-5</v>
       </c>
       <c r="J101">
-        <v>0.0019400801440243593</v>
+        <v>0.001940080144023097</v>
       </c>
       <c r="K101">
-        <v>4.837794963245686e-5</v>
+        <v>4.83779496324518e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3961,28 +3961,28 @@
         <v>1.1261205687943617e-6</v>
       </c>
       <c r="D102">
-        <v>2.9754152625404533e-5</v>
+        <v>2.9754152625404536e-5</v>
       </c>
       <c r="E102">
         <v>0.001940398190264096</v>
       </c>
       <c r="F102">
-        <v>4.83808790933626e-5</v>
+        <v>4.838087909336259e-5</v>
       </c>
       <c r="G102">
-        <v>7.251485186039187</v>
+        <v>7.251485186040303</v>
       </c>
       <c r="H102">
-        <v>1.1294883205579801e-6</v>
+        <v>1.1294883205617704e-6</v>
       </c>
       <c r="I102">
-        <v>2.9756262312180394e-5</v>
+        <v>2.9756262312174807e-5</v>
       </c>
       <c r="J102">
-        <v>0.001940399622898182</v>
+        <v>0.0019403996228969098</v>
       </c>
       <c r="K102">
-        <v>4.838088235059583e-5</v>
+        <v>4.8380882350590664e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.838384252519602e-5</v>
       </c>
       <c r="G103">
-        <v>7.252335137927648</v>
+        <v>7.252335137928757</v>
       </c>
       <c r="H103">
-        <v>1.0886344338092114e-6</v>
+        <v>1.0886344338129828e-6</v>
       </c>
       <c r="I103">
-        <v>3.144433753210831e-5</v>
+        <v>3.1444337532102744e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019407248024519046</v>
+        <v>0.0019407248024506227</v>
       </c>
       <c r="K103">
-        <v>4.8383845891274764e-5</v>
+        <v>4.838384589126949e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.021764762428936386</v>
       </c>
       <c r="B104">
-        <v>7.253199995829022</v>
+        <v>7.25319999582902</v>
       </c>
       <c r="C104">
         <v>1.0515329933475969e-6</v>
       </c>
       <c r="D104">
-        <v>3.314853002972559e-5</v>
+        <v>3.3148530029725617e-5</v>
       </c>
       <c r="E104">
-        <v>0.001941053599770552</v>
+        <v>0.0019410535997705517</v>
       </c>
       <c r="F104">
         <v>4.838683621022844e-5</v>
       </c>
       <c r="G104">
-        <v>7.253210231407054</v>
+        <v>7.253210231408154</v>
       </c>
       <c r="H104">
-        <v>1.0551019712713003e-6</v>
+        <v>1.0551019712750523e-6</v>
       </c>
       <c r="I104">
-        <v>3.315077262957165e-5</v>
+        <v>3.3150772629566106e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019410551088827517</v>
+        <v>0.0019410551088814602</v>
       </c>
       <c r="K104">
-        <v>4.838683966811977e-5</v>
+        <v>4.838683966811442e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4066,28 +4066,28 @@
         <v>1.0239503704505589e-6</v>
       </c>
       <c r="D105">
-        <v>3.487296592322209e-5</v>
+        <v>3.4872965923222125e-5</v>
       </c>
       <c r="E105">
-        <v>0.0019413885219050882</v>
+        <v>0.001941388521905088</v>
       </c>
       <c r="F105">
         <v>4.838985976340012e-5</v>
       </c>
       <c r="G105">
-        <v>7.254106873426215</v>
+        <v>7.2541068734273075</v>
       </c>
       <c r="H105">
-        <v>1.0275954094778853e-6</v>
+        <v>1.0275954094816175e-6</v>
       </c>
       <c r="I105">
-        <v>3.487525903846686e-5</v>
+        <v>3.487525903846134e-5</v>
       </c>
       <c r="J105">
-        <v>0.00194139005841217</v>
+        <v>0.001941390058410868</v>
       </c>
       <c r="K105">
-        <v>4.8389863297304256e-5</v>
+        <v>4.8389863297298835e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.023054090203703095</v>
       </c>
       <c r="B106">
-        <v>7.255011417133657</v>
+        <v>7.255011417133656</v>
       </c>
       <c r="C106">
         <v>1.0012936141668964e-6</v>
       </c>
       <c r="D106">
-        <v>3.661527542287026e-5</v>
+        <v>3.661527542287029e-5</v>
       </c>
       <c r="E106">
-        <v>0.0019417276926508235</v>
+        <v>0.0019417276926508237</v>
       </c>
       <c r="F106">
-        <v>4.8392912987573604e-5</v>
+        <v>4.839291298757361e-5</v>
       </c>
       <c r="G106">
-        <v>7.2550220117911906</v>
+        <v>7.255022011792276</v>
       </c>
       <c r="H106">
-        <v>1.0050001212600237e-6</v>
+        <v>1.0050001212637362e-6</v>
       </c>
       <c r="I106">
-        <v>3.661760953391791e-5</v>
+        <v>3.6617609533912424e-5</v>
       </c>
       <c r="J106">
-        <v>0.0019417292501591864</v>
+        <v>0.0019417292501578743</v>
       </c>
       <c r="K106">
-        <v>4.839291658299979e-5</v>
+        <v>4.839291658299429e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4139,25 +4139,25 @@
         <v>3.83753820568039e-5</v>
       </c>
       <c r="E107">
-        <v>0.0019420707858137393</v>
+        <v>0.001942070785813739</v>
       </c>
       <c r="F107">
         <v>4.839599585808471e-5</v>
       </c>
       <c r="G107">
-        <v>7.25595308649446</v>
+        <v>7.255953086495537</v>
       </c>
       <c r="H107">
-        <v>9.863669289557434e-7</v>
+        <v>9.863669289594356e-7</v>
       </c>
       <c r="I107">
-        <v>3.8377748606460244e-5</v>
+        <v>3.837774860645478e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019420723585787298</v>
+        <v>0.0019420723585774078</v>
       </c>
       <c r="K107">
-        <v>4.8395999501941946e-5</v>
+        <v>4.8395999501936355e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4171,7 +4171,7 @@
         <v>9.671046452385703e-7</v>
       </c>
       <c r="D108">
-        <v>4.015331083190149e-5</v>
+        <v>4.01533108319015e-5</v>
       </c>
       <c r="E108">
         <v>0.0019424175427841157</v>
@@ -4180,19 +4180,19 @@
         <v>4.839910850676947e-5</v>
       </c>
       <c r="G108">
-        <v>7.256897979576198</v>
+        <v>7.256897979577268</v>
       </c>
       <c r="H108">
-        <v>9.70895976531889e-7</v>
+        <v>9.708959765355606e-7</v>
       </c>
       <c r="I108">
-        <v>4.015570215512638e-5</v>
+        <v>4.015570215512093e-5</v>
       </c>
       <c r="J108">
-        <v>0.0019424191257193107</v>
+        <v>0.001942419125717979</v>
       </c>
       <c r="K108">
-        <v>4.8399112187389934e-5</v>
+        <v>4.839911218738427e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.840225120589959e-5</v>
       </c>
       <c r="G109">
-        <v>7.257854965063336</v>
+        <v>7.257854965064397</v>
       </c>
       <c r="H109">
-        <v>9.579204111492972e-7</v>
+        <v>9.57920411152948e-7</v>
       </c>
       <c r="I109">
-        <v>4.195158728064808e-5</v>
+        <v>4.195158728064265e-5</v>
       </c>
       <c r="J109">
-        <v>0.0019427693534709509</v>
+        <v>0.0019427693534696101</v>
       </c>
       <c r="K109">
-        <v>4.840225491294294e-5</v>
+        <v>4.840225491293723e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4241,28 +4241,28 @@
         <v>9.430556065956168e-7</v>
       </c>
       <c r="D110">
-        <v>4.376318068947767e-5</v>
+        <v>4.376318068947764e-5</v>
       </c>
       <c r="E110">
-        <v>0.001943121305543394</v>
+        <v>0.0019431213055433939</v>
       </c>
       <c r="F110">
         <v>4.840542435241482e-5</v>
       </c>
       <c r="G110">
-        <v>7.258822660194319</v>
+        <v>7.2588226601953725</v>
       </c>
       <c r="H110">
-        <v>9.468903080096041e-7</v>
+        <v>9.46890308013234e-7</v>
       </c>
       <c r="I110">
-        <v>4.376560215194937e-5</v>
+        <v>4.376560215194396e-5</v>
       </c>
       <c r="J110">
-        <v>0.0019431228960561978</v>
+        <v>0.001943122896054849</v>
       </c>
       <c r="K110">
-        <v>4.840542807687912e-5</v>
+        <v>4.8405428076873355e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4276,7 +4276,7 @@
         <v>9.335130520671367e-7</v>
       </c>
       <c r="D111">
-        <v>4.559558756176328e-5</v>
+        <v>4.559558756176329e-5</v>
       </c>
       <c r="E111">
         <v>0.0019434780637902758</v>
@@ -4285,19 +4285,19 @@
         <v>4.840862845278524e-5</v>
       </c>
       <c r="G111">
-        <v>7.259799978587869</v>
+        <v>7.259799978588913</v>
       </c>
       <c r="H111">
-        <v>9.373572016404819e-7</v>
+        <v>9.373572016440908e-7</v>
       </c>
       <c r="I111">
-        <v>4.5598016097431296e-5</v>
+        <v>4.559801609742588e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019434796528855183</v>
+        <v>0.0019434796528841624</v>
       </c>
       <c r="K111">
-        <v>4.8408632186937424e-5</v>
+        <v>4.840863218693161e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4311,7 +4311,7 @@
         <v>9.251124809465381e-7</v>
       </c>
       <c r="D112">
-        <v>4.744672914756418e-5</v>
+        <v>4.7446729147564185e-5</v>
       </c>
       <c r="E112">
         <v>0.0019438379769530466</v>
@@ -4320,19 +4320,19 @@
         <v>4.8411864108774024e-5</v>
       </c>
       <c r="G112">
-        <v>7.260786086625317</v>
+        <v>7.2607860866263545</v>
       </c>
       <c r="H112">
-        <v>9.289595105150539e-7</v>
+        <v>9.289595105186416e-7</v>
       </c>
       <c r="I112">
-        <v>4.7449160459470403e-5</v>
+        <v>4.7449160459465e-5</v>
       </c>
       <c r="J112">
-        <v>0.0019438395618530412</v>
+        <v>0.001943839561851678</v>
       </c>
       <c r="K112">
-        <v>4.841186784601954e-5</v>
+        <v>4.841186784601368e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,7 +4340,7 @@
         <v>0.027751536644802927</v>
       </c>
       <c r="B113">
-        <v>7.261769505998418</v>
+        <v>7.2617695059984175</v>
       </c>
       <c r="C113">
         <v>9.175646781449658e-7</v>
@@ -4349,25 +4349,25 @@
         <v>4.931698954324072e-5</v>
       </c>
       <c r="E113">
-        <v>0.0019442010148793308</v>
+        <v>0.0019442010148793306</v>
       </c>
       <c r="F113">
         <v>4.841513200430585e-5</v>
       </c>
       <c r="G113">
-        <v>7.261780363318491</v>
+        <v>7.26178036331952</v>
       </c>
       <c r="H113">
-        <v>9.214090755873157e-7</v>
+        <v>9.214090755908817e-7</v>
       </c>
       <c r="I113">
-        <v>4.931942002676883e-5</v>
+        <v>4.931942002676344e-5</v>
       </c>
       <c r="J113">
-        <v>0.0019442025932795625</v>
+        <v>0.0019442025932781928</v>
       </c>
       <c r="K113">
-        <v>4.841513573912699e-5</v>
+        <v>4.8415135739121084e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4381,28 +4381,28 @@
         <v>9.106417646609518e-7</v>
       </c>
       <c r="D114">
-        <v>5.120679864347497e-5</v>
+        <v>5.120679864347498e-5</v>
       </c>
       <c r="E114">
-        <v>0.0019445671743912667</v>
+        <v>0.0019445671743912665</v>
       </c>
       <c r="F114">
         <v>4.841843289358045e-5</v>
       </c>
       <c r="G114">
-        <v>7.262782364113261</v>
+        <v>7.262782364114282</v>
       </c>
       <c r="H114">
-        <v>9.144789560539466e-7</v>
+        <v>9.144789560574908e-7</v>
       </c>
       <c r="I114">
-        <v>5.1209225317363275e-5</v>
+        <v>5.12092253173579e-5</v>
       </c>
       <c r="J114">
-        <v>0.0019445687443911258</v>
+        <v>0.0019445687443897497</v>
       </c>
       <c r="K114">
-        <v>4.841843662137682e-5</v>
+        <v>4.8418436621370863e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4419,25 +4419,25 @@
         <v>5.3116625272814324e-5</v>
       </c>
       <c r="E115">
-        <v>0.0019449364744441742</v>
+        <v>0.0019449364744441747</v>
       </c>
       <c r="F115">
-        <v>4.8421767590509156e-5</v>
+        <v>4.842176759050914e-5</v>
       </c>
       <c r="G115">
-        <v>7.263791788652909</v>
+        <v>7.263791788653922</v>
       </c>
       <c r="H115">
-        <v>9.079925620811328e-7</v>
+        <v>9.079925620846551e-7</v>
       </c>
       <c r="I115">
-        <v>5.311904566037401e-5</v>
+        <v>5.311904566036863e-5</v>
       </c>
       <c r="J115">
-        <v>0.001944938034495501</v>
+        <v>0.0019449380344941192</v>
       </c>
       <c r="K115">
-        <v>4.842177130750432e-5</v>
+        <v>4.84217713074983e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.842513695949656e-5</v>
       </c>
       <c r="G116">
-        <v>7.264808453005379</v>
+        <v>7.264808453006385</v>
       </c>
       <c r="H116">
-        <v>9.018141460281456e-7</v>
+        <v>9.018141460316458e-7</v>
       </c>
       <c r="I116">
-        <v>5.5049383285571936e-5</v>
+        <v>5.504938328556657e-5</v>
       </c>
       <c r="J116">
-        <v>0.0019453105007837695</v>
+        <v>0.0019453105007823822</v>
       </c>
       <c r="K116">
-        <v>4.842514066260644e-5</v>
+        <v>4.8425140662600374e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4486,28 +4486,28 @@
         <v>8.920448826767643e-7</v>
       </c>
       <c r="D117">
-        <v>5.699836594620143e-5</v>
+        <v>5.699836594620142e-5</v>
       </c>
       <c r="E117">
-        <v>0.0019456846580540284</v>
+        <v>0.0019456846580540286</v>
       </c>
       <c r="F117">
         <v>4.842854190754162e-5</v>
       </c>
       <c r="G117">
-        <v>7.265832265580977</v>
+        <v>7.265832265581975</v>
       </c>
       <c r="H117">
-        <v>8.958406234742076e-7</v>
+        <v>8.958406234776854e-7</v>
       </c>
       <c r="I117">
-        <v>5.700076813609139e-5</v>
+        <v>5.700076813608604e-5</v>
       </c>
       <c r="J117">
-        <v>0.0019456861947371553</v>
+        <v>0.0019456861947357623</v>
       </c>
       <c r="K117">
-        <v>4.8428545594262367e-5</v>
+        <v>4.842854559425626e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4524,25 +4524,25 @@
         <v>5.897136256781738e-5</v>
       </c>
       <c r="E118">
-        <v>0.0019460636553923479</v>
+        <v>0.001946063655392348</v>
       </c>
       <c r="F118">
         <v>4.843198337759362e-5</v>
       </c>
       <c r="G118">
-        <v>7.2668632070111</v>
+        <v>7.266863207012089</v>
       </c>
       <c r="H118">
-        <v>8.899946575353203e-7</v>
+        <v>8.899946575387756e-7</v>
       </c>
       <c r="I118">
-        <v>5.897375356448102e-5</v>
+        <v>5.897375356447567e-5</v>
       </c>
       <c r="J118">
-        <v>0.001946065179119117</v>
+        <v>0.0019460651791177194</v>
       </c>
       <c r="K118">
-        <v>4.843198704593568e-5</v>
+        <v>4.8431987045929546e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4565,19 +4565,19 @@
         <v>4.8435462343069855e-5</v>
       </c>
       <c r="G119">
-        <v>7.267901313318359</v>
+        <v>7.26790131331934</v>
       </c>
       <c r="H119">
-        <v>8.842189082353725e-7</v>
+        <v>8.842189082388051e-7</v>
       </c>
       <c r="I119">
-        <v>6.0968912764480314e-5</v>
+        <v>6.096891276447498e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019464475255026243</v>
+        <v>0.0019464475255012226</v>
       </c>
       <c r="K119">
-        <v>4.843546599140903e-5</v>
+        <v>4.8435465991402854e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,7 +4585,7 @@
         <v>0.03279082549317736</v>
       </c>
       <c r="B120">
-        <v>7.268936245731511</v>
+        <v>7.268936245731512</v>
       </c>
       <c r="C120">
         <v>8.747353300897676e-7</v>
@@ -4597,22 +4597,22 @@
         <v>0.0019468318161109397</v>
       </c>
       <c r="F120">
-        <v>4.8438979803421685e-5</v>
+        <v>4.843897980342168e-5</v>
       </c>
       <c r="G120">
-        <v>7.26894666229736</v>
+        <v>7.268946662298333</v>
       </c>
       <c r="H120">
-        <v>8.784713327278603e-7</v>
+        <v>8.784713327312695e-7</v>
       </c>
       <c r="I120">
-        <v>6.298683586456381e-5</v>
+        <v>6.298683586455847e-5</v>
       </c>
       <c r="J120">
-        <v>0.0019468333122426784</v>
+        <v>0.0019468333122412726</v>
       </c>
       <c r="K120">
-        <v>4.8438983430486425e-5</v>
+        <v>4.843898343048021e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4632,22 +4632,22 @@
         <v>0.0019472211411598946</v>
       </c>
       <c r="F121">
-        <v>4.844253678062506e-5</v>
+        <v>4.844253678062505e-5</v>
       </c>
       <c r="G121">
-        <v>7.26999936267833</v>
+        <v>7.269999362679296</v>
       </c>
       <c r="H121">
-        <v>8.727214082758217e-7</v>
+        <v>8.727214082792075e-7</v>
       </c>
       <c r="I121">
-        <v>6.502812772883603e-5</v>
+        <v>6.50281277288307e-5</v>
       </c>
       <c r="J121">
-        <v>0.0019472226228824828</v>
+        <v>0.0019472226228810726</v>
       </c>
       <c r="K121">
-        <v>4.8442540385370025e-5</v>
+        <v>4.844254038536377e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4664,25 +4664,25 @@
         <v>6.709106844285522e-5</v>
       </c>
       <c r="E122">
-        <v>0.0019476140778872174</v>
+        <v>0.0019476140778872176</v>
       </c>
       <c r="F122">
-        <v>4.8446134316467945e-5</v>
+        <v>4.844613431646795e-5</v>
       </c>
       <c r="G122">
-        <v>7.271059545424869</v>
+        <v>7.2710595454258256</v>
       </c>
       <c r="H122">
-        <v>8.669471494949689e-7</v>
+        <v>8.669471494983309e-7</v>
       </c>
       <c r="I122">
-        <v>6.709340618665139e-5</v>
+        <v>6.709340618664606e-5</v>
       </c>
       <c r="J122">
-        <v>0.001947615544915067</v>
+        <v>0.0019476155449136532</v>
       </c>
       <c r="K122">
-        <v>4.844613789807674e-5</v>
+        <v>4.844613789807046e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0350737207606516</v>
       </c>
       <c r="B123">
-        <v>7.272117192251826</v>
+        <v>7.272117192251825</v>
       </c>
       <c r="C123">
         <v>8.574659191211261e-7</v>
       </c>
       <c r="D123">
-        <v>6.918097755884672e-5</v>
+        <v>6.918097755884668e-5</v>
       </c>
       <c r="E123">
-        <v>0.0019480107166897382</v>
+        <v>0.0019480107166897386</v>
       </c>
       <c r="F123">
-        <v>4.844977347051022e-5</v>
+        <v>4.844977347051021e-5</v>
       </c>
       <c r="G123">
-        <v>7.272127357055994</v>
+        <v>7.272127357056943</v>
       </c>
       <c r="H123">
-        <v>8.611327934300534e-7</v>
+        <v>8.611327934333913e-7</v>
       </c>
       <c r="I123">
-        <v>6.918330061017482e-5</v>
+        <v>6.91833006101695e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019480121687994458</v>
+        <v>0.0019480121687980281</v>
       </c>
       <c r="K123">
-        <v>4.844977702826885e-5</v>
+        <v>4.8449777028262523e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,34 +4725,34 @@
         <v>0.03585279302173329</v>
       </c>
       <c r="B124">
-        <v>7.2731928771413665</v>
+        <v>7.273192877141368</v>
       </c>
       <c r="C124">
         <v>8.516244836206167e-7</v>
       </c>
       <c r="D124">
-        <v>7.129614309536889e-5</v>
+        <v>7.12961430953689e-5</v>
       </c>
       <c r="E124">
-        <v>0.001948411150228075</v>
+        <v>0.0019484111502280745</v>
       </c>
       <c r="F124">
         <v>4.8453455318598734e-5</v>
       </c>
       <c r="G124">
-        <v>7.273202954645333</v>
+        <v>7.2732029546462735</v>
       </c>
       <c r="H124">
-        <v>8.552670347373118e-7</v>
+        <v>8.552670347406254e-7</v>
       </c>
       <c r="I124">
-        <v>7.12984510750742e-5</v>
+        <v>7.129845107506889e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019484125872338222</v>
+        <v>0.0019484125872324008</v>
       </c>
       <c r="K124">
-        <v>4.845345885193506e-5</v>
+        <v>4.845345885192871e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.036641314191818215</v>
       </c>
       <c r="B125">
-        <v>7.274276512995842</v>
+        <v>7.27427651299584</v>
       </c>
       <c r="C125">
         <v>8.45723964391273e-7</v>
       </c>
       <c r="D125">
-        <v>7.34372150725556e-5</v>
+        <v>7.343721507255556e-5</v>
       </c>
       <c r="E125">
-        <v>0.0019488154728885168</v>
+        <v>0.0019488154728885165</v>
       </c>
       <c r="F125">
         <v>4.845718095183204e-5</v>
       </c>
       <c r="G125">
-        <v>7.274286501944427</v>
+        <v>7.27428650194536</v>
       </c>
       <c r="H125">
-        <v>8.493417042948522e-7</v>
+        <v>8.493417042981412e-7</v>
       </c>
       <c r="I125">
-        <v>7.343950766437485e-5</v>
+        <v>7.343950766436958e-5</v>
       </c>
       <c r="J125">
-        <v>0.0019488168946445253</v>
+        <v>0.0019488168946431006</v>
       </c>
       <c r="K125">
-        <v>4.845718446021688e-5</v>
+        <v>4.8457184460210494e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4801,28 +4801,28 @@
         <v>8.397583056994181e-7</v>
       </c>
       <c r="D126">
-        <v>7.560485308912707e-5</v>
+        <v>7.560485308912708e-5</v>
       </c>
       <c r="E126">
-        <v>0.0019492237803947837</v>
+        <v>0.0019492237803947834</v>
       </c>
       <c r="F126">
         <v>4.8460951475881014e-5</v>
       </c>
       <c r="G126">
-        <v>7.275378166611416</v>
+        <v>7.275378166612341</v>
       </c>
       <c r="H126">
-        <v>8.433507985928598e-7</v>
+        <v>8.433507985961241e-7</v>
       </c>
       <c r="I126">
-        <v>7.560712999205848e-5</v>
+        <v>7.56071299920532e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019492251867702641</v>
+        <v>0.0019492251867688354</v>
       </c>
       <c r="K126">
-        <v>4.8460954958860775e-5</v>
+        <v>4.8460954958854384e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.03824767218984363</v>
       </c>
       <c r="B127">
-        <v>7.276468309656007</v>
+        <v>7.276468309656006</v>
       </c>
       <c r="C127">
         <v>8.337229345708215e-7</v>
       </c>
       <c r="D127">
-        <v>7.779972606469623e-5</v>
+        <v>7.779972606469619e-5</v>
       </c>
       <c r="E127">
-        <v>0.0019496361695350004</v>
+        <v>0.001949636169535001</v>
       </c>
       <c r="F127">
-        <v>4.846476801058625e-5</v>
+        <v>4.8464768010586255e-5</v>
       </c>
       <c r="G127">
-        <v>7.276478118257761</v>
+        <v>7.276478118258676</v>
       </c>
       <c r="H127">
-        <v>8.37289779042192e-7</v>
+        <v>8.372897790454312e-7</v>
       </c>
       <c r="I127">
-        <v>7.780198702161771e-5</v>
+        <v>7.780198702161244e-5</v>
       </c>
       <c r="J127">
-        <v>0.0019496375604206103</v>
+        <v>0.001949637560419178</v>
       </c>
       <c r="K127">
-        <v>4.846477146773372e-5</v>
+        <v>4.84647714677273e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4865,7 +4865,7 @@
         <v>0.03906600097747604</v>
       </c>
       <c r="B128">
-        <v>7.277576809909834</v>
+        <v>7.277576809909833</v>
       </c>
       <c r="C128">
         <v>8.276142608686574e-7</v>
@@ -4874,25 +4874,25 @@
         <v>8.002251211964515e-5</v>
       </c>
       <c r="E128">
-        <v>0.0019500527379754501</v>
+        <v>0.0019500527379754506</v>
       </c>
       <c r="F128">
         <v>4.846863168976607e-5</v>
       </c>
       <c r="G128">
-        <v>7.277586526919228</v>
+        <v>7.2775865269201345</v>
       </c>
       <c r="H128">
-        <v>8.311550767714586e-7</v>
+        <v>8.311550767746725e-7</v>
       </c>
       <c r="I128">
-        <v>8.002475689058213e-5</v>
+        <v>8.002475689057686e-5</v>
       </c>
       <c r="J128">
-        <v>0.0019500541132658293</v>
+        <v>0.0019500541132643939</v>
       </c>
       <c r="K128">
-        <v>4.8468635120686116e-5</v>
+        <v>4.8468635120679685e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,34 +4900,34 @@
         <v>0.03989476274416206</v>
       </c>
       <c r="B129">
-        <v>7.278693937560186</v>
+        <v>7.2786939375601865</v>
       </c>
       <c r="C129">
         <v>8.214293301662536e-7</v>
       </c>
       <c r="D129">
-        <v>8.227389855785168e-5</v>
+        <v>8.227389855785169e-5</v>
       </c>
       <c r="E129">
-        <v>0.0019504735841382973</v>
+        <v>0.0019504735841382969</v>
       </c>
       <c r="F129">
-        <v>4.8472543661181665e-5</v>
+        <v>4.847254366118166e-5</v>
       </c>
       <c r="G129">
-        <v>7.278703562043959</v>
+        <v>7.278703562044857</v>
       </c>
       <c r="H129">
-        <v>8.24943749240821e-7</v>
+        <v>8.249437492440092e-7</v>
       </c>
       <c r="I129">
-        <v>8.227612687460396e-5</v>
+        <v>8.227612687459873e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019504749437404905</v>
+        <v>0.0019504749437390524</v>
       </c>
       <c r="K129">
-        <v>4.847254706548928e-5</v>
+        <v>4.847254706548283e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,19 +4950,19 @@
         <v>4.847650508661744e-5</v>
       </c>
       <c r="G130">
-        <v>7.279829391945992</v>
+        <v>7.2798293919468815</v>
       </c>
       <c r="H130">
-        <v>8.186532464896485e-7</v>
+        <v>8.186532464928103e-7</v>
       </c>
       <c r="I130">
-        <v>8.45567935426113e-5</v>
+        <v>8.455679354260606e-5</v>
       </c>
       <c r="J130">
-        <v>0.001950900150949723</v>
+        <v>0.0019509001509482819</v>
       </c>
       <c r="K130">
-        <v>4.8476508463925716e-5</v>
+        <v>4.847650846391924e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,7 +4970,7 @@
         <v>0.04158460374668306</v>
       </c>
       <c r="B131">
-        <v>7.280954746291023</v>
+        <v>7.280954746291025</v>
       </c>
       <c r="C131">
         <v>8.088207198948566e-7</v>
@@ -4979,25 +4979,25 @@
         <v>8.686526812085453e-5</v>
       </c>
       <c r="E131">
-        <v>0.0019513285066754718</v>
+        <v>0.0019513285066754715</v>
       </c>
       <c r="F131">
-        <v>4.8480517142044204e-5</v>
+        <v>4.84805171420442e-5</v>
       </c>
       <c r="G131">
-        <v>7.280964183154778</v>
+        <v>7.280964183155658</v>
       </c>
       <c r="H131">
-        <v>8.122812558326789e-7</v>
+        <v>8.122812558358143e-7</v>
       </c>
       <c r="I131">
-        <v>8.686746281336114e-5</v>
+        <v>8.68674628133559e-5</v>
       </c>
       <c r="J131">
-        <v>0.001951329834633547</v>
+        <v>0.0019513298346321034</v>
       </c>
       <c r="K131">
-        <v>4.8480520491979246e-5</v>
+        <v>4.848052049197274e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.04244620050953257</v>
       </c>
       <c r="B132">
-        <v>7.282098758403995</v>
+        <v>7.282098758403994</v>
       </c>
       <c r="C132">
         <v>8.023925534066023e-7</v>
       </c>
       <c r="D132">
-        <v>8.920667255161513e-5</v>
+        <v>8.920667255161511e-5</v>
       </c>
       <c r="E132">
-        <v>0.0019517627831420626</v>
+        <v>0.0019517627831420628</v>
       </c>
       <c r="F132">
         <v>4.848458101784086e-5</v>
       </c>
       <c r="G132">
-        <v>7.282108100144792</v>
+        <v>7.282108100145663</v>
       </c>
       <c r="H132">
-        <v>8.058256005105647e-7</v>
+        <v>8.058256005136737e-7</v>
       </c>
       <c r="I132">
-        <v>8.920885006996172e-5</v>
+        <v>8.920885006995647e-5</v>
       </c>
       <c r="J132">
-        <v>0.0019517640951472813</v>
+        <v>0.0019517640951458352</v>
       </c>
       <c r="K132">
-        <v>4.848458434001579e-5</v>
+        <v>4.848458434000927e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5046,28 +5046,28 @@
         <v>7.958789874070942e-7</v>
       </c>
       <c r="D133">
-        <v>9.157952030781121e-5</v>
+        <v>9.157952030781124e-5</v>
       </c>
       <c r="E133">
-        <v>0.001952201737489196</v>
+        <v>0.0019522017374891962</v>
       </c>
       <c r="F133">
         <v>4.848869791905721e-5</v>
       </c>
       <c r="G133">
-        <v>7.283261305164913</v>
+        <v>7.283261305165776</v>
       </c>
       <c r="H133">
-        <v>7.992841748471796e-7</v>
+        <v>7.992841748502618e-7</v>
       </c>
       <c r="I133">
-        <v>9.158168040605047e-5</v>
+        <v>9.158168040604524e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019522030334492284</v>
+        <v>0.0019522030334477801</v>
       </c>
       <c r="K133">
-        <v>4.8488701213063086e-5</v>
+        <v>4.848870121305653e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.044204065992935755</v>
       </c>
       <c r="B134">
-        <v>7.284414809152211</v>
+        <v>7.28441480915221</v>
       </c>
       <c r="C134">
         <v>7.892779533084023e-7</v>
       </c>
       <c r="D134">
-        <v>9.398454636265195e-5</v>
+        <v>9.398454636265194e-5</v>
       </c>
       <c r="E134">
-        <v>0.0019526454712953947</v>
+        <v>0.0019526454712953949</v>
       </c>
       <c r="F134">
         <v>4.8492869065705104e-5</v>
       </c>
       <c r="G134">
-        <v>7.284423958035316</v>
+        <v>7.28442395803617</v>
       </c>
       <c r="H134">
-        <v>7.926549037938327e-7</v>
+        <v>7.926549037968878e-7</v>
       </c>
       <c r="I134">
-        <v>9.398668880829079e-5</v>
+        <v>9.398668880828555e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019526467511243686</v>
+        <v>0.0019526467511229186</v>
       </c>
       <c r="K134">
-        <v>4.849287233117421e-5</v>
+        <v>4.849287233116764e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,7 +5110,7 @@
         <v>0.04510087307353289</v>
       </c>
       <c r="B135">
-        <v>7.285587164873852</v>
+        <v>7.285587164873853</v>
       </c>
       <c r="C135">
         <v>7.825873892298123e-7</v>
@@ -5119,25 +5119,25 @@
         <v>9.642249578334936e-5</v>
       </c>
       <c r="E135">
-        <v>0.0019530940867650312</v>
+        <v>0.001953094086765031</v>
       </c>
       <c r="F135">
-        <v>4.849709569306937e-5</v>
+        <v>4.8497095693069374e-5</v>
       </c>
       <c r="G135">
-        <v>7.285596215974523</v>
+        <v>7.285596215975367</v>
       </c>
       <c r="H135">
-        <v>7.85935717856698e-7</v>
+        <v>7.859357178597258e-7</v>
       </c>
       <c r="I135">
-        <v>9.642462031008922e-5</v>
+        <v>9.642462031008402e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019530953503718623</v>
+        <v>0.0019530953503704104</v>
       </c>
       <c r="K135">
-        <v>4.849709892959653e-5</v>
+        <v>4.849709892958996e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5154,25 +5154,25 @@
         <v>9.88941239522349e-5</v>
       </c>
       <c r="E136">
-        <v>0.0019535476867438097</v>
+        <v>0.00195354768674381</v>
       </c>
       <c r="F136">
         <v>4.850137905203261e-5</v>
       </c>
       <c r="G136">
-        <v>7.286778233625649</v>
+        <v>7.286778233626484</v>
       </c>
       <c r="H136">
-        <v>7.791245387272841e-7</v>
+        <v>7.791245387302843e-7</v>
       </c>
       <c r="I136">
-        <v>9.889623029181186e-5</v>
+        <v>9.889623029180666e-5</v>
       </c>
       <c r="J136">
-        <v>0.0019535489340425935</v>
+        <v>0.0019535489340411407</v>
       </c>
       <c r="K136">
-        <v>4.850138225918005e-5</v>
+        <v>4.850138225917344e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.04693160926752187</v>
       </c>
       <c r="B137">
-        <v>7.287961310116066</v>
+        <v>7.287961310116067</v>
       </c>
       <c r="C137">
         <v>7.689293714488536e-7</v>
       </c>
       <c r="D137">
-        <v>0.00010140019679510429</v>
+        <v>0.0001014001967951043</v>
       </c>
       <c r="E137">
-        <v>0.0019540063747369592</v>
+        <v>0.001954006374736959</v>
       </c>
       <c r="F137">
         <v>4.8505720409410075e-5</v>
       </c>
       <c r="G137">
-        <v>7.287970162899889</v>
+        <v>7.287970162900715</v>
       </c>
       <c r="H137">
-        <v>7.722192694441575e-7</v>
+        <v>7.7221926944713e-7</v>
       </c>
       <c r="I137">
-        <v>0.00010140228469317652</v>
+        <v>0.00010140228469317137</v>
       </c>
       <c r="J137">
-        <v>0.001954007605636751</v>
+        <v>0.001954007605635297</v>
       </c>
       <c r="K137">
-        <v>4.8505723586762486e-5</v>
+        <v>4.850572358675585e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5227,22 +5227,22 @@
         <v>0.001954470254929159</v>
       </c>
       <c r="F138">
-        <v>4.851012104829227e-5</v>
+        <v>4.851012104829226e-5</v>
       </c>
       <c r="G138">
-        <v>7.289172152926782</v>
+        <v>7.289172152927599</v>
       </c>
       <c r="H138">
-        <v>7.652177899909282e-7</v>
+        <v>7.652177899938723e-7</v>
       </c>
       <c r="I138">
-        <v>0.00010394356019196678</v>
+        <v>0.00010394356019196166</v>
       </c>
       <c r="J138">
-        <v>0.001954471469337003</v>
+        <v>0.001954471469335548</v>
       </c>
       <c r="K138">
-        <v>4.851012419543458e-5</v>
+        <v>4.851012419542791e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5262,22 +5262,22 @@
         <v>0.0019549394322056165</v>
       </c>
       <c r="F139">
-        <v>4.8514582268393674e-5</v>
+        <v>4.851458226839367e-5</v>
       </c>
       <c r="G139">
-        <v>7.290384349980185</v>
+        <v>7.290384349980992</v>
       </c>
       <c r="H139">
-        <v>7.58117953337761e-7</v>
+        <v>7.581179533406762e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010652084451868163</v>
+        <v>0.00010652084451867648</v>
       </c>
       <c r="J139">
-        <v>0.0019549406300303565</v>
+        <v>0.0019549406300289006</v>
       </c>
       <c r="K139">
-        <v>4.851458538489312e-5</v>
+        <v>4.851458538488642e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,34 +5285,34 @@
         <v>0.04977475308849331</v>
       </c>
       <c r="B140">
-        <v>7.291598349180604</v>
+        <v>7.291598349180603</v>
       </c>
       <c r="C140">
         <v>7.477184309038413e-7</v>
       </c>
       <c r="D140">
-        <v>0.00010913290572417667</v>
+        <v>0.00010913290572417669</v>
       </c>
       <c r="E140">
-        <v>0.001955414012173935</v>
+        <v>0.0019554140121739354</v>
       </c>
       <c r="F140">
-        <v>4.8519105386406864e-5</v>
+        <v>4.851910538640686e-5</v>
       </c>
       <c r="G140">
-        <v>7.291606897443999</v>
+        <v>7.2916068974447965</v>
       </c>
       <c r="H140">
-        <v>7.509175837933833e-7</v>
+        <v>7.509175837962694e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010913493663781157</v>
+        <v>0.00010913493663780645</v>
       </c>
       <c r="J140">
-        <v>0.0019554151933254727</v>
+        <v>0.001955415193324016</v>
       </c>
       <c r="K140">
-        <v>4.851910847182405e-5</v>
+        <v>4.851910847181732e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,7 +5320,7 @@
         <v>0.050749501868359255</v>
       </c>
       <c r="B141">
-        <v>7.292831490860295</v>
+        <v>7.292831490860294</v>
       </c>
       <c r="C141">
         <v>7.404464342233365e-7</v>
@@ -5329,25 +5329,25 @@
         <v>0.00011178463567595893</v>
       </c>
       <c r="E141">
-        <v>0.001955894101186596</v>
+        <v>0.0019558941011865966</v>
       </c>
       <c r="F141">
-        <v>4.852369173636156e-5</v>
+        <v>4.852369173636157e-5</v>
       </c>
       <c r="G141">
-        <v>7.292839935690342</v>
+        <v>7.29283993569113</v>
       </c>
       <c r="H141">
-        <v>7.436144757382461e-7</v>
+        <v>7.436144757411031e-7</v>
       </c>
       <c r="I141">
-        <v>0.00011178664703370273</v>
+        <v>0.00011178664703369758</v>
       </c>
       <c r="J141">
-        <v>0.0019558952655757645</v>
+        <v>0.001955895265574307</v>
       </c>
       <c r="K141">
-        <v>4.852369479026211e-5</v>
+        <v>4.852369479025534e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,7 +5355,7 @@
         <v>0.05173826179074292</v>
       </c>
       <c r="B142">
-        <v>7.2940752616622735</v>
+        <v>7.294075261662273</v>
       </c>
       <c r="C142">
         <v>7.330699093038026e-7</v>
@@ -5364,25 +5364,25 @@
         <v>0.00011447480642815922</v>
       </c>
       <c r="E142">
-        <v>0.001956379806363946</v>
+        <v>0.0019563798063639464</v>
       </c>
       <c r="F142">
         <v>4.852834266998833e-5</v>
       </c>
       <c r="G142">
-        <v>7.294083602062951</v>
+        <v>7.294083602063729</v>
       </c>
       <c r="H142">
-        <v>7.362063921537846e-7</v>
+        <v>7.362063921566118e-7</v>
       </c>
       <c r="I142">
-        <v>0.0001144767979315345</v>
+        <v>0.00011447679793152937</v>
       </c>
       <c r="J142">
-        <v>0.001956380953892369</v>
+        <v>0.001956380953890911</v>
       </c>
       <c r="K142">
-        <v>4.8528345691904586e-5</v>
+        <v>4.852834569189778e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,7 +5390,7 @@
         <v>0.05274133567109854</v>
       </c>
       <c r="B143">
-        <v>7.29532979584287</v>
+        <v>7.295329795842869</v>
       </c>
       <c r="C143">
         <v>7.255865969046137e-7</v>
@@ -5399,25 +5399,25 @@
         <v>0.00011720425223205603</v>
       </c>
       <c r="E143">
-        <v>0.0019568712356176506</v>
+        <v>0.00195687123561765</v>
       </c>
       <c r="F143">
-        <v>4.8533059557086826e-5</v>
+        <v>4.853305955708682e-5</v>
       </c>
       <c r="G143">
-        <v>7.295338030820404</v>
+        <v>7.295338030821172</v>
       </c>
       <c r="H143">
-        <v>7.286910641694518e-7</v>
+        <v>7.286910641722486e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011720622358716079</v>
+        <v>0.00011720622358715566</v>
       </c>
       <c r="J143">
-        <v>0.0019568723661949027</v>
+        <v>0.001956872366193445</v>
       </c>
       <c r="K143">
-        <v>4.853306254654475e-5</v>
+        <v>4.853306254653791e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,7 +5425,7 @@
         <v>0.05375903070864185</v>
       </c>
       <c r="B144">
-        <v>7.296595224486008</v>
+        <v>7.296595224486009</v>
       </c>
       <c r="C144">
         <v>7.17994205151078e-7</v>
@@ -5434,25 +5434,25 @@
         <v>0.00011997381960734889</v>
       </c>
       <c r="E144">
-        <v>0.001957368497674611</v>
+        <v>0.0019573684976746104</v>
       </c>
       <c r="F144">
         <v>4.853784378589879e-5</v>
       </c>
       <c r="G144">
-        <v>7.296603353003876</v>
+        <v>7.296603353004634</v>
       </c>
       <c r="H144">
-        <v>7.21066190145213e-7</v>
+        <v>7.210661901479792e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011997577048368068</v>
+        <v>0.00011997577048367553</v>
       </c>
       <c r="J144">
-        <v>0.001957369611203922</v>
+        <v>0.0019573696112024654</v>
       </c>
       <c r="K144">
-        <v>4.853784674242848e-5</v>
+        <v>4.853784674242162e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5460,7 +5460,7 @@
         <v>0.05479165858043223</v>
       </c>
       <c r="B145">
-        <v>7.297871675435323</v>
+        <v>7.297871675435322</v>
       </c>
       <c r="C145">
         <v>7.102904087926184e-7</v>
@@ -5472,22 +5472,22 @@
         <v>0.001957871702101346</v>
       </c>
       <c r="F145">
-        <v>4.854269676348567e-5</v>
+        <v>4.8542696763485664e-5</v>
       </c>
       <c r="G145">
-        <v>7.297879696451458</v>
+        <v>7.297879696452206</v>
       </c>
       <c r="H145">
-        <v>7.133294347988385e-7</v>
+        <v>7.133294348015736e-7</v>
       </c>
       <c r="I145">
-        <v>0.00012278629771166004</v>
+        <v>0.00012278629771165492</v>
       </c>
       <c r="J145">
-        <v>0.0019578727984837442</v>
+        <v>0.001957872798482289</v>
       </c>
       <c r="K145">
-        <v>4.8542699686597523e-5</v>
+        <v>4.8542699686590625e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5501,7 +5501,7 @@
         <v>7.024728484729912e-7</v>
       </c>
       <c r="D146">
-        <v>0.00012563676806661347</v>
+        <v>0.00012563676806661344</v>
       </c>
       <c r="E146">
         <v>0.0019583809593288625</v>
@@ -5510,19 +5510,19 @@
         <v>4.854761991611099e-5</v>
       </c>
       <c r="G146">
-        <v>7.299167185707723</v>
+        <v>7.299167185708461</v>
       </c>
       <c r="H146">
-        <v>7.054784287717036e-7</v>
+        <v>7.054784287744072e-7</v>
       </c>
       <c r="I146">
-        <v>0.0001256386770620277</v>
+        <v>0.00012563867706202257</v>
       </c>
       <c r="J146">
-        <v>0.001958382038471686</v>
+        <v>0.001958382038470232</v>
       </c>
       <c r="K146">
-        <v>4.854762280531613e-5</v>
+        <v>4.854762280530921e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,7 +5530,7 @@
         <v>0.05690298249833185</v>
       </c>
       <c r="B147">
-        <v>7.300458139009359</v>
+        <v>7.3004581390093595</v>
       </c>
       <c r="C147">
         <v>6.945391299999963e-7</v>
@@ -5545,19 +5545,19 @@
         <v>4.8552614689627674e-5</v>
       </c>
       <c r="G147">
-        <v>7.300465941873409</v>
+        <v>7.300465941874136</v>
       </c>
       <c r="H147">
-        <v>6.97510767508512e-7</v>
+        <v>6.975107675111837e-7</v>
       </c>
       <c r="I147">
-        <v>0.00012853379346720257</v>
+        <v>0.0001285337934671975</v>
       </c>
       <c r="J147">
-        <v>0.001958897442485351</v>
+        <v>0.0019588974424838987</v>
       </c>
       <c r="K147">
-        <v>4.855261754442545e-5</v>
+        <v>4.855261754441851e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.05798232515389271</v>
       </c>
       <c r="B148">
-        <v>7.301768390491485</v>
+        <v>7.3017683904914845</v>
       </c>
       <c r="C148">
         <v>6.864868236091582e-7</v>
       </c>
       <c r="D148">
-        <v>0.00013147067936954314</v>
+        <v>0.0001314706793695432</v>
       </c>
       <c r="E148">
         <v>0.0019594180783854996</v>
       </c>
       <c r="F148">
-        <v>4.855768254987029e-5</v>
+        <v>4.85576825498703e-5</v>
       </c>
       <c r="G148">
-        <v>7.301776082675699</v>
+        <v>7.301776082676417</v>
       </c>
       <c r="H148">
-        <v>6.894240109760537e-7</v>
+        <v>6.894240109786931e-7</v>
       </c>
       <c r="I148">
-        <v>0.0001314725451587457</v>
+        <v>0.00013147254515874065</v>
       </c>
       <c r="J148">
-        <v>0.0019594191227584245</v>
+        <v>0.0019594191227569734</v>
       </c>
       <c r="K148">
-        <v>4.8557685369748946e-5</v>
+        <v>4.855768536974199e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5606,28 +5606,28 @@
         <v>6.783134632184375e-7</v>
       </c>
       <c r="D149">
-        <v>0.00013445400032106132</v>
+        <v>0.0001344540003210614</v>
       </c>
       <c r="E149">
-        <v>0.0019599461656301855</v>
+        <v>0.001959946165630185</v>
       </c>
       <c r="F149">
         <v>4.8562824983052474e-5</v>
       </c>
       <c r="G149">
-        <v>7.303097722276235</v>
+        <v>7.303097722276942</v>
       </c>
       <c r="H149">
-        <v>6.812156824097959e-7</v>
+        <v>6.812156824124023e-7</v>
       </c>
       <c r="I149">
-        <v>0.00013445584400080573</v>
+        <v>0.00013445584400080063</v>
       </c>
       <c r="J149">
-        <v>0.001959947192478312</v>
+        <v>0.001959947192476863</v>
       </c>
       <c r="K149">
-        <v>4.8562827767505264e-5</v>
+        <v>4.856282776749829e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.06019002474509338</v>
       </c>
       <c r="B150">
-        <v>7.3044235036682945</v>
+        <v>7.304423503668295</v>
       </c>
       <c r="C150">
         <v>6.700165456719431e-7</v>
       </c>
       <c r="D150">
-        <v>0.00013748279452041834</v>
+        <v>0.00013748279452041842</v>
       </c>
       <c r="E150">
-        <v>0.0019604807565603375</v>
+        <v>0.001960480756560337</v>
       </c>
       <c r="F150">
         <v>4.856804349616955e-5</v>
       </c>
       <c r="G150">
-        <v>7.304430971262225</v>
+        <v>7.304430971262922</v>
       </c>
       <c r="H150">
-        <v>6.728832680351542e-7</v>
+        <v>6.728832680377273e-7</v>
       </c>
       <c r="I150">
-        <v>0.00013748461575116666</v>
+        <v>0.00013748461575116162</v>
       </c>
       <c r="J150">
-        <v>0.0019604817657876716</v>
+        <v>0.0019604817657862257</v>
       </c>
       <c r="K150">
-        <v>4.856804624467384e-5</v>
+        <v>4.8568046244666855e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5670,34 +5670,34 @@
         <v>0.061319057805988</v>
       </c>
       <c r="B151">
-        <v>7.30576858285482</v>
+        <v>7.305768582854821</v>
       </c>
       <c r="C151">
         <v>6.615935299738804e-7</v>
       </c>
       <c r="D151">
-        <v>0.0001405580019098387</v>
+        <v>0.00014055800190983873</v>
       </c>
       <c r="E151">
-        <v>0.0019610219663212403</v>
+        <v>0.00196102196632124</v>
       </c>
       <c r="F151">
-        <v>4.8573339617406535e-5</v>
+        <v>4.857333961740653e-5</v>
       </c>
       <c r="G151">
-        <v>7.305775936496349</v>
+        <v>7.305775936497034</v>
       </c>
       <c r="H151">
-        <v>6.64424215954235e-7</v>
+        <v>6.644242159567743e-7</v>
       </c>
       <c r="I151">
-        <v>0.0001405598003472001</v>
+        <v>0.00014055980034719505</v>
       </c>
       <c r="J151">
-        <v>0.0019610229578289847</v>
+        <v>0.001961022957827542</v>
       </c>
       <c r="K151">
-        <v>4.857334232942299e-5</v>
+        <v>4.857334232941599e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,13 +5705,13 @@
         <v>0.06246533901851619</v>
       </c>
       <c r="B152">
-        <v>7.307125482573298</v>
+        <v>7.307125482573297</v>
       </c>
       <c r="C152">
         <v>6.53041836509909e-7</v>
       </c>
       <c r="D152">
-        <v>0.00014368057690355724</v>
+        <v>0.00014368057690355716</v>
       </c>
       <c r="E152">
         <v>0.001961569911083565</v>
@@ -5720,19 +5720,19 @@
         <v>4.857871489655166e-5</v>
       </c>
       <c r="G152">
-        <v>7.307132721149427</v>
+        <v>7.307132721150101</v>
       </c>
       <c r="H152">
-        <v>6.55835935589228e-7</v>
+        <v>6.55835935591733e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014368235218043118</v>
+        <v>0.00014368235218042614</v>
       </c>
       <c r="J152">
-        <v>0.0019615708847754917</v>
+        <v>0.0019615708847740524</v>
       </c>
       <c r="K152">
-        <v>4.857871757152549e-5</v>
+        <v>4.857871757151851e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,7 +5740,7 @@
         <v>0.06362921944025837</v>
       </c>
       <c r="B153">
-        <v>7.308494302164284</v>
+        <v>7.308494302164285</v>
       </c>
       <c r="C153">
         <v>6.443588462570133e-7</v>
@@ -5749,25 +5749,25 @@
         <v>0.00014685148868196822</v>
       </c>
       <c r="E153">
-        <v>0.001962124708072408</v>
+        <v>0.0019621247080724076</v>
       </c>
       <c r="F153">
         <v>4.8584170905415485e-5</v>
       </c>
       <c r="G153">
-        <v>7.30850142455472</v>
+        <v>7.308501424555383</v>
       </c>
       <c r="H153">
-        <v>6.47115796569293e-7</v>
+        <v>6.471157965717634e-7</v>
       </c>
       <c r="I153">
-        <v>0.00014685324042151634</v>
+        <v>0.0001468532404215113</v>
       </c>
       <c r="J153">
-        <v>0.0019621256638594252</v>
+        <v>0.00196212566385799</v>
       </c>
       <c r="K153">
-        <v>4.858417354280698e-5</v>
+        <v>4.8584173542800005e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5781,28 +5781,28 @@
         <v>6.355418999816009e-7</v>
       </c>
       <c r="D154">
-        <v>0.0001500717214902047</v>
+        <v>0.00015007172149020465</v>
       </c>
       <c r="E154">
-        <v>0.0019626864755970313</v>
+        <v>0.0019626864755970318</v>
       </c>
       <c r="F154">
         <v>4.858970923825584e-5</v>
       </c>
       <c r="G154">
-        <v>7.309882142124639</v>
+        <v>7.309882142125292</v>
       </c>
       <c r="H154">
-        <v>6.382611284522779e-7</v>
+        <v>6.38261128454713e-7</v>
       </c>
       <c r="I154">
-        <v>0.00015007344930658174</v>
+        <v>0.0001500734493065767</v>
       </c>
       <c r="J154">
-        <v>0.0019626874133773222</v>
+        <v>0.0019626874133758915</v>
       </c>
       <c r="K154">
-        <v>4.8589711837486964e-5</v>
+        <v>4.8589711837479984e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5819,25 +5819,25 @@
         <v>0.00015334227494123132</v>
       </c>
       <c r="E155">
-        <v>0.0019632553330813664</v>
+        <v>0.001963255333081366</v>
       </c>
       <c r="F155">
-        <v>4.85953315122086e-5</v>
+        <v>4.8595331512208606e-5</v>
       </c>
       <c r="G155">
-        <v>7.3112749653260245</v>
+        <v>7.311274965326666</v>
       </c>
       <c r="H155">
-        <v>6.292692193333504e-7</v>
+        <v>6.2926921933575e-7</v>
       </c>
       <c r="I155">
-        <v>0.00015334397845065954</v>
+        <v>0.0001533439784506544</v>
       </c>
       <c r="J155">
-        <v>0.0019632562527588104</v>
+        <v>0.0019632562527573854</v>
       </c>
       <c r="K155">
-        <v>4.859533407272678e-5</v>
+        <v>4.859533407271982e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.06723004804167766</v>
       </c>
       <c r="B156">
-        <v>7.312673214633311</v>
+        <v>7.312673214633312</v>
       </c>
       <c r="C156">
         <v>6.174952964761553e-7</v>
       </c>
       <c r="D156">
-        <v>0.00015666416432354182</v>
+        <v>0.00015666416432354177</v>
       </c>
       <c r="E156">
-        <v>0.001963831401095272</v>
+        <v>0.0019638314010952725</v>
       </c>
       <c r="F156">
         <v>4.860103936772463e-5</v>
       </c>
       <c r="G156">
-        <v>7.312679981560154</v>
+        <v>7.312679981560785</v>
       </c>
       <c r="H156">
-        <v>6.201373152884493e-7</v>
+        <v>6.201373152908125e-7</v>
       </c>
       <c r="I156">
-        <v>0.00015666584313392604</v>
+        <v>0.0001566658431339209</v>
       </c>
       <c r="J156">
-        <v>0.001963832302582933</v>
+        <v>0.001963832302581515</v>
       </c>
       <c r="K156">
-        <v>4.8601041888935176e-5</v>
+        <v>4.860104188892822e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5886,28 +5886,28 @@
         <v>6.082601123327915e-7</v>
       </c>
       <c r="D157">
-        <v>0.00016003842091354684</v>
+        <v>0.00016003842091354682</v>
       </c>
       <c r="E157">
-        <v>0.0019644148013866166</v>
+        <v>0.001964414801386617</v>
       </c>
       <c r="F157">
         <v>4.8606834469012805e-5</v>
       </c>
       <c r="G157">
-        <v>7.314097274104906</v>
+        <v>7.314097274105525</v>
       </c>
       <c r="H157">
-        <v>6.108626196785984e-7</v>
+        <v>6.10862619680925e-7</v>
       </c>
       <c r="I157">
-        <v>0.00016004007464888602</v>
+        <v>0.00016004007464888085</v>
       </c>
       <c r="J157">
-        <v>0.001964415684588174</v>
+        <v>0.0019644156845867624</v>
       </c>
       <c r="K157">
-        <v>4.860683695032512e-5</v>
+        <v>4.8606836950318195e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.86127185044895e-5</v>
       </c>
       <c r="G158">
-        <v>7.31552692201999</v>
+        <v>7.315526922020598</v>
       </c>
       <c r="H158">
-        <v>6.014422920368136e-7</v>
+        <v>6.014422920391028e-7</v>
       </c>
       <c r="I158">
-        <v>0.00016346772053099805</v>
+        <v>0.00016346772053099287</v>
       </c>
       <c r="J158">
-        <v>0.0019650065217331116</v>
+        <v>0.001965006521731708</v>
       </c>
       <c r="K158">
-        <v>4.861272094530251e-5</v>
+        <v>4.86127209452956e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5959,25 +5959,25 @@
         <v>0.00016694824266976892</v>
       </c>
       <c r="E159">
-        <v>0.0019656040918814384</v>
+        <v>0.001965604091881438</v>
       </c>
       <c r="F159">
         <v>4.861869318723455e-5</v>
       </c>
       <c r="G159">
-        <v>7.316969000098322</v>
+        <v>7.3169690000989185</v>
       </c>
       <c r="H159">
-        <v>5.918734473724169e-7</v>
+        <v>5.918734473746682e-7</v>
       </c>
       <c r="I159">
-        <v>0.0001669498450056227</v>
+        <v>0.00016694984500561748</v>
       </c>
       <c r="J159">
-        <v>0.001965604938229615</v>
+        <v>0.001965604938228219</v>
       </c>
       <c r="K159">
-        <v>4.8618695586960584e-5</v>
+        <v>4.8618695586953685e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5991,7 +5991,7 @@
         <v>5.796729543272632e-7</v>
       </c>
       <c r="D160">
-        <v>0.00017048595320739524</v>
+        <v>0.00017048595320739518</v>
       </c>
       <c r="E160">
         <v>0.0019662102317712284</v>
@@ -6000,19 +6000,19 @@
         <v>4.862476025545388e-5</v>
       </c>
       <c r="G160">
-        <v>7.31842357875117</v>
+        <v>7.318423578751753</v>
       </c>
       <c r="H160">
-        <v>5.821531550579425e-7</v>
+        <v>5.821531550601555e-7</v>
       </c>
       <c r="I160">
-        <v>0.00017048752923521198</v>
+        <v>0.00017048752923520672</v>
       </c>
       <c r="J160">
-        <v>0.0019662110595618128</v>
+        <v>0.001966211059560426</v>
       </c>
       <c r="K160">
-        <v>4.862476261348258e-5</v>
+        <v>4.8624762613475686e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6026,28 +6026,28 @@
         <v>5.69840305410037e-7</v>
       </c>
       <c r="D161">
-        <v>0.00017408032235462247</v>
+        <v>0.0001740803223546224</v>
       </c>
       <c r="E161">
-        <v>0.001966824203381362</v>
+        <v>0.0019668242033813615</v>
       </c>
       <c r="F161">
         <v>4.8630921472948937e-5</v>
       </c>
       <c r="G161">
-        <v>7.3198907239681175</v>
+        <v>7.3198907239686894</v>
       </c>
       <c r="H161">
-        <v>5.722784382725868e-7</v>
+        <v>5.722784382747609e-7</v>
       </c>
       <c r="I161">
-        <v>0.00017408187161967832</v>
+        <v>0.000174081871619673</v>
       </c>
       <c r="J161">
-        <v>0.0019668250125246486</v>
+        <v>0.001966825012523272</v>
       </c>
       <c r="K161">
-        <v>4.8630923788650014e-5</v>
+        <v>4.863092378864313e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6055,13 +6055,13 @@
         <v>0.0749567881913871</v>
       </c>
       <c r="B162">
-        <v>7.3213644730119505</v>
+        <v>7.32136447301195</v>
       </c>
       <c r="C162">
         <v>5.598508785847119e-7</v>
       </c>
       <c r="D162">
-        <v>0.00017773246618390474</v>
+        <v>0.0001777324661839047</v>
       </c>
       <c r="E162">
         <v>0.0019674461348611776</v>
@@ -6070,19 +6070,19 @@
         <v>4.863717862959324e-5</v>
       </c>
       <c r="G162">
-        <v>7.321370497201891</v>
+        <v>7.321370497202451</v>
       </c>
       <c r="H162">
-        <v>5.622462727499783e-7</v>
+        <v>5.622462727521129e-7</v>
       </c>
       <c r="I162">
-        <v>0.0001777339882593237</v>
+        <v>0.00017773398825931833</v>
       </c>
       <c r="J162">
-        <v>0.001967446925263289</v>
+        <v>0.0019674469252619242</v>
       </c>
       <c r="K162">
-        <v>4.863718090232766e-5</v>
+        <v>4.8637180902320815e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,34 +6090,34 @@
         <v>0.07631721005138836</v>
       </c>
       <c r="B163">
-        <v>7.322857059183051</v>
+        <v>7.322857059183052</v>
       </c>
       <c r="C163">
         <v>5.497016145112236e-7</v>
       </c>
       <c r="D163">
-        <v>0.00018144351873364408</v>
+        <v>0.0001814435187336441</v>
       </c>
       <c r="E163">
-        <v>0.0019680761557491003</v>
+        <v>0.0019680761557491</v>
       </c>
       <c r="F163">
         <v>4.864353354181598e-5</v>
       </c>
       <c r="G163">
-        <v>7.322862955358949</v>
+        <v>7.322862955359496</v>
       </c>
       <c r="H163">
-        <v>5.520535859433545e-7</v>
+        <v>5.520535859454491e-7</v>
       </c>
       <c r="I163">
-        <v>0.00018144501317007893</v>
+        <v>0.0001814450131700735</v>
       </c>
       <c r="J163">
-        <v>0.001968076927327992</v>
+        <v>0.001968076927326639</v>
       </c>
       <c r="K163">
-        <v>4.8643535770972816e-5</v>
+        <v>4.8643535770966026e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6137,22 +6137,22 @@
         <v>0.0019687143970112063</v>
       </c>
       <c r="F164">
-        <v>4.864998805309306e-5</v>
+        <v>4.864998805309305e-5</v>
       </c>
       <c r="G164">
-        <v>7.324368150637186</v>
+        <v>7.324368150637722</v>
       </c>
       <c r="H164">
-        <v>5.416972564690125e-7</v>
+        <v>5.416972564710664e-7</v>
       </c>
       <c r="I164">
-        <v>0.00018521609869294686</v>
+        <v>0.00018521609869294142</v>
       </c>
       <c r="J164">
-        <v>0.0019687151496768393</v>
+        <v>0.0019687151496755</v>
       </c>
       <c r="K164">
-        <v>4.864999023800385e-5</v>
+        <v>4.864999023799712e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,13 +6160,13 @@
         <v>0.07910400145927939</v>
       </c>
       <c r="B165">
-        <v>7.325880494070481</v>
+        <v>7.32588049407048</v>
       </c>
       <c r="C165">
         <v>5.289110915506857e-7</v>
       </c>
       <c r="D165">
-        <v>0.00018904697807040823</v>
+        <v>0.0001890469780704082</v>
       </c>
       <c r="E165">
         <v>0.001969360991080851</v>
@@ -6175,19 +6175,19 @@
         <v>4.865654403444562e-5</v>
       </c>
       <c r="G165">
-        <v>7.325886130522722</v>
+        <v>7.325886130523245</v>
       </c>
       <c r="H165">
-        <v>5.311741124366684e-7</v>
+        <v>5.311741124386811e-7</v>
       </c>
       <c r="I165">
-        <v>0.00018904841585609604</v>
+        <v>0.00018904841585609049</v>
       </c>
       <c r="J165">
-        <v>0.0019693617247466084</v>
+        <v>0.0019693617247452835</v>
       </c>
       <c r="K165">
-        <v>4.865654617445695e-5</v>
+        <v>4.865654617445029e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.08053122448381893</v>
       </c>
       <c r="B166">
-        <v>7.3274114329404565</v>
+        <v>7.327411432940456</v>
       </c>
       <c r="C166">
         <v>5.182634654034676e-7</v>
       </c>
       <c r="D166">
-        <v>0.00019294174592203667</v>
+        <v>0.00019294174592203662</v>
       </c>
       <c r="E166">
-        <v>0.001970016071899365</v>
+        <v>0.0019700160718993656</v>
       </c>
       <c r="F166">
-        <v>4.8663203384946354e-5</v>
+        <v>4.866320338494636e-5</v>
       </c>
       <c r="G166">
-        <v>7.327416937664602</v>
+        <v>7.327416937665113</v>
       </c>
       <c r="H166">
-        <v>5.204809311711793e-7</v>
+        <v>5.204809311731503e-7</v>
       </c>
       <c r="I166">
-        <v>0.00019294315469081072</v>
+        <v>0.0001929431546908051</v>
       </c>
       <c r="J166">
-        <v>0.0019700167864838687</v>
+        <v>0.001970016786482559</v>
       </c>
       <c r="K166">
-        <v>4.866320547939272e-5</v>
+        <v>4.866320547938613e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6236,28 +6236,28 @@
         <v>5.074432655377527e-7</v>
       </c>
       <c r="D167">
-        <v>0.00019690014534674637</v>
+        <v>0.00019690014534674643</v>
       </c>
       <c r="E167">
         <v>0.0019706797749578686</v>
       </c>
       <c r="F167">
-        <v>4.8669968032233655e-5</v>
+        <v>4.866996803223365e-5</v>
       </c>
       <c r="G167">
-        <v>7.328960609851539</v>
+        <v>7.328960609852038</v>
       </c>
       <c r="H167">
-        <v>5.096144376820395e-7</v>
+        <v>5.096144376839683e-7</v>
       </c>
       <c r="I167">
-        <v>0.00019690152460973998</v>
+        <v>0.0001969015246097343</v>
       </c>
       <c r="J167">
-        <v>0.0019706804703771455</v>
+        <v>0.001970680470375852</v>
       </c>
       <c r="K167">
-        <v>4.8669970080464015e-5</v>
+        <v>4.8669970080457496e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,34 +6265,34 @@
         <v>0.08345551079898178</v>
       </c>
       <c r="B168">
-        <v>7.330511942394077</v>
+        <v>7.330511942394076</v>
       </c>
       <c r="C168">
         <v>4.964471781828493e-7</v>
       </c>
       <c r="D168">
-        <v>0.00020092340554120287</v>
+        <v>0.00020092340554120282</v>
       </c>
       <c r="E168">
-        <v>0.0019713522373402174</v>
+        <v>0.001971352237340218</v>
       </c>
       <c r="F168">
         <v>4.867683993303387e-5</v>
       </c>
       <c r="G168">
-        <v>7.330517179916642</v>
+        <v>7.330517179917129</v>
       </c>
       <c r="H168">
-        <v>4.985713041068293e-7</v>
+        <v>4.985713041087155e-7</v>
       </c>
       <c r="I168">
-        <v>0.0002009247548311645</v>
+        <v>0.0002009247548311588</v>
       </c>
       <c r="J168">
-        <v>0.0019713529135096993</v>
+        <v>0.001971352913508423</v>
       </c>
       <c r="K168">
-        <v>4.8676841934368434e-5</v>
+        <v>4.867684193436201e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,34 +6300,34 @@
         <v>0.08495346967514486</v>
       </c>
       <c r="B169">
-        <v>7.332081573616385</v>
+        <v>7.332081573616384</v>
       </c>
       <c r="C169">
         <v>4.852718357008952e-7</v>
       </c>
       <c r="D169">
-        <v>0.00020501277583912154</v>
+        <v>0.0002050127758391215</v>
       </c>
       <c r="E169">
-        <v>0.0019720335977671225</v>
+        <v>0.001972033597767122</v>
       </c>
       <c r="F169">
         <v>4.868382107369198e-5</v>
       </c>
       <c r="G169">
-        <v>7.332086675649371</v>
+        <v>7.332086675649846</v>
       </c>
       <c r="H169">
-        <v>4.873481483198465e-7</v>
+        <v>4.873481483216891e-7</v>
       </c>
       <c r="I169">
-        <v>0.00020501409464833257</v>
+        <v>0.0002050140946483268</v>
       </c>
       <c r="J169">
-        <v>0.001972034254608151</v>
+        <v>0.0019720342546068925</v>
       </c>
       <c r="K169">
-        <v>4.868382302742856e-5</v>
+        <v>4.868382302742222e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6344,25 +6344,25 @@
         <v>0.00020916952609347132</v>
       </c>
       <c r="E170">
-        <v>0.00197272399664146</v>
+        <v>0.0019727239966414603</v>
       </c>
       <c r="F170">
         <v>4.869091347071065e-5</v>
       </c>
       <c r="G170">
-        <v>7.33366911975545</v>
+        <v>7.333669119755912</v>
       </c>
       <c r="H170">
-        <v>4.7594153323641766e-7</v>
+        <v>4.7594153323821617e-7</v>
       </c>
       <c r="I170">
-        <v>0.00020917081392369326</v>
+        <v>0.00020917081392368757</v>
       </c>
       <c r="J170">
-        <v>0.00197272463407863</v>
+        <v>0.00197272463407739</v>
       </c>
       <c r="K170">
-        <v>4.8690915376175524e-5</v>
+        <v>4.869091537616926e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.869811917129806e-5</v>
       </c>
       <c r="G171">
-        <v>7.335264529793543</v>
+        <v>7.335264529793991</v>
       </c>
       <c r="H171">
-        <v>4.643479654215308e-7</v>
+        <v>4.643479654232844e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002133962033971876</v>
+        <v>0.00021339620339718197</v>
       </c>
       <c r="J171">
-        <v>0.001973424194051268</v>
+        <v>0.0019734241940500483</v>
       </c>
       <c r="K171">
-        <v>4.86981210277732e-5</v>
+        <v>4.8698121027767025e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,7 +6405,7 @@
         <v>0.08959613723855007</v>
       </c>
       <c r="B172">
-        <v>7.3368682301816905</v>
+        <v>7.336868230181691</v>
       </c>
       <c r="C172">
         <v>4.506357713360205e-7</v>
@@ -6417,22 +6417,22 @@
         <v>0.001974132480035236</v>
       </c>
       <c r="F172">
-        <v>4.870544025392468e-5</v>
+        <v>4.8705440253924674e-5</v>
       </c>
       <c r="G172">
-        <v>7.336872918110693</v>
+        <v>7.336872918111129</v>
       </c>
       <c r="H172">
-        <v>4.5256389425501003e-7</v>
+        <v>4.5256389425671807e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021769157513372957</v>
+        <v>0.00021769157513372404</v>
       </c>
       <c r="J172">
-        <v>0.0019741330784416172</v>
+        <v>0.0019741330784404185</v>
       </c>
       <c r="K172">
-        <v>4.8705442060703807e-5</v>
+        <v>4.8705442060697735e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6446,28 +6446,28 @@
         <v>4.3870861817787825e-7</v>
       </c>
       <c r="D173">
-        <v>0.00022205707111187564</v>
+        <v>0.00022205707111187562</v>
       </c>
       <c r="E173">
-        <v>0.0019748508541963597</v>
+        <v>0.00197485085419636</v>
       </c>
       <c r="F173">
         <v>4.87128788288892e-5</v>
       </c>
       <c r="G173">
-        <v>7.338494291747544</v>
+        <v>7.338494291747967</v>
       </c>
       <c r="H173">
-        <v>4.405857108184182e-7</v>
+        <v>4.4058571082008005e-7</v>
       </c>
       <c r="I173">
-        <v>0.00022205826289311312</v>
+        <v>0.00022205826289310775</v>
       </c>
       <c r="J173">
-        <v>0.001974851432973937</v>
+        <v>0.0019748514329727606</v>
       </c>
       <c r="K173">
-        <v>4.871288058527664e-5</v>
+        <v>4.8712880585270674e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6487,22 +6487,22 @@
         <v>0.001975578846187721</v>
       </c>
       <c r="F174">
-        <v>4.8720437038893825e-5</v>
+        <v>4.872043703889381e-5</v>
       </c>
       <c r="G174">
-        <v>7.340128652394539</v>
+        <v>7.340128652394948</v>
       </c>
       <c r="H174">
-        <v>4.28409746642824e-7</v>
+        <v>4.284097466444389e-7</v>
       </c>
       <c r="I174">
-        <v>0.00022649762253103379</v>
+        <v>0.00022649762253102855</v>
       </c>
       <c r="J174">
-        <v>0.0019755794052663065</v>
+        <v>0.0019755794052651538</v>
       </c>
       <c r="K174">
-        <v>4.87204387441547e-5</v>
+        <v>4.872043874414883e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6516,7 +6516,7 @@
         <v>4.142597847272035e-7</v>
       </c>
       <c r="D175">
-        <v>0.00023100990736804638</v>
+        <v>0.00023100990736804632</v>
       </c>
       <c r="E175">
         <v>0.0019763166055464755</v>
@@ -6525,19 +6525,19 @@
         <v>4.872811705962915e-5</v>
       </c>
       <c r="G175">
-        <v>7.3417759963475655</v>
+        <v>7.341775996347959</v>
       </c>
       <c r="H175">
-        <v>4.160322727348396e-7</v>
+        <v>4.1603227273640693e-7</v>
       </c>
       <c r="I175">
-        <v>0.00023101103242352975</v>
+        <v>0.00023101103242352474</v>
       </c>
       <c r="J175">
-        <v>0.0019763171448602644</v>
+        <v>0.001976317144859137</v>
       </c>
       <c r="K175">
-        <v>4.8728118713030005e-5</v>
+        <v>4.8728118713024245e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,7 +6545,7 @@
         <v>0.09615145404100717</v>
       </c>
       <c r="B176">
-        <v>7.343432196624566</v>
+        <v>7.343432196624567</v>
       </c>
       <c r="C176">
         <v>4.017306167883258e-7</v>
@@ -6560,19 +6560,19 @@
         <v>4.873592110036902e-5</v>
       </c>
       <c r="G176">
-        <v>7.343436314497849</v>
+        <v>7.343436314498228</v>
       </c>
       <c r="H176">
-        <v>4.0344949846352333e-7</v>
+        <v>4.034494984650423e-7</v>
       </c>
       <c r="I176">
-        <v>0.00023559989394627282</v>
+        <v>0.000235599893946268</v>
       </c>
       <c r="J176">
-        <v>0.0019770648032737775</v>
+        <v>0.001977064803272676</v>
       </c>
       <c r="K176">
-        <v>4.8735922701201794e-5</v>
+        <v>4.873592270119613e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6586,28 +6586,28 @@
         <v>3.8899318603528724e-7</v>
       </c>
       <c r="D177">
-        <v>0.0002402645756629285</v>
+        <v>0.00024026457566292853</v>
       </c>
       <c r="E177">
         <v>0.001977822034472566</v>
       </c>
       <c r="F177">
-        <v>4.874385140457526e-5</v>
+        <v>4.8743851404575264e-5</v>
       </c>
       <c r="G177">
-        <v>7.345109592157471</v>
+        <v>7.3451095921578355</v>
       </c>
       <c r="H177">
-        <v>3.906575701690084e-7</v>
+        <v>3.906575701704784e-7</v>
       </c>
       <c r="I177">
-        <v>0.00024026563178062676</v>
+        <v>0.0002402656317806222</v>
       </c>
       <c r="J177">
-        <v>0.001977822534061792</v>
+        <v>0.001977822534060718</v>
       </c>
       <c r="K177">
-        <v>4.8743852952079034e-5</v>
+        <v>4.874385295207347e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.09959457961408581</v>
       </c>
       <c r="B178">
-        <v>7.346791984002461</v>
+        <v>7.3467919840024605</v>
       </c>
       <c r="C178">
         <v>3.760435915304211e-7</v>
       </c>
       <c r="D178">
-        <v>0.0002450086736609044</v>
+        <v>0.00024500867366090447</v>
       </c>
       <c r="E178">
-        <v>0.0019785900132366766</v>
+        <v>0.001978590013236677</v>
       </c>
       <c r="F178">
-        <v>4.875191025051298e-5</v>
+        <v>4.8751910250512966e-5</v>
       </c>
       <c r="G178">
-        <v>7.346795809098068</v>
+        <v>7.346795809098417</v>
       </c>
       <c r="H178">
-        <v>3.776525701885408e-7</v>
+        <v>3.776525701899609e-7</v>
       </c>
       <c r="I178">
-        <v>0.0002450096944242686</v>
+        <v>0.0002450096944242642</v>
       </c>
       <c r="J178">
-        <v>0.0019785904928645488</v>
+        <v>0.0019785904928635036</v>
       </c>
       <c r="K178">
-        <v>4.875191174393476e-5</v>
+        <v>4.875191174392932e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6656,7 +6656,7 @@
         <v>3.628778673590644e-7</v>
       </c>
       <c r="D179">
-        <v>0.0002498325698400992</v>
+        <v>0.00024983256984009917</v>
       </c>
       <c r="E179">
         <v>0.0019793683778748165</v>
@@ -6665,19 +6665,19 @@
         <v>4.876009995187624e-5</v>
       </c>
       <c r="G179">
-        <v>7.34849493951477</v>
+        <v>7.348494939515104</v>
       </c>
       <c r="H179">
-        <v>3.644305157433799e-7</v>
+        <v>3.644305157447494e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024983355467781424</v>
+        <v>0.00024983355467781</v>
       </c>
       <c r="J179">
-        <v>0.001979368837486457</v>
+        <v>0.001979368837485441</v>
       </c>
       <c r="K179">
-        <v>4.8760101390489226e-5</v>
+        <v>4.876010139048395e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,7 +6685,7 @@
         <v>0.10315359537692399</v>
       </c>
       <c r="B180">
-        <v>7.350203424812571</v>
+        <v>7.350203424812572</v>
       </c>
       <c r="C180">
         <v>3.4949198141537244e-7</v>
@@ -6697,22 +6697,22 @@
         <v>0.001980157288385901</v>
       </c>
       <c r="F180">
-        <v>4.8768422858424794e-5</v>
+        <v>4.876842285842479e-5</v>
       </c>
       <c r="G180">
-        <v>7.35020695194526</v>
+        <v>7.35020695194558</v>
       </c>
       <c r="H180">
-        <v>3.509873574082906e-7</v>
+        <v>3.509873574096087e-7</v>
       </c>
       <c r="I180">
-        <v>0.0002547387099986438</v>
+        <v>0.0002547387099986399</v>
       </c>
       <c r="J180">
-        <v>0.001980157727926629</v>
+        <v>0.001980157727925644</v>
       </c>
       <c r="K180">
-        <v>4.876842424147604e-5</v>
+        <v>4.876842424147094e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.10497791896337114</v>
       </c>
       <c r="B181">
-        <v>7.351928433011937</v>
+        <v>7.3519284330119365</v>
       </c>
       <c r="C181">
         <v>3.3588183416712727e-7</v>
       </c>
       <c r="D181">
-        <v>0.0002597257717749847</v>
+        <v>0.0002597257717749846</v>
       </c>
       <c r="E181">
         <v>0.001980956907035894</v>
       </c>
       <c r="F181">
-        <v>4.877688135663172e-5</v>
+        <v>4.877688135663173e-5</v>
       </c>
       <c r="G181">
-        <v>7.351931809208347</v>
+        <v>7.3519318092086525</v>
       </c>
       <c r="H181">
-        <v>3.3731897813757975e-7</v>
+        <v>3.3731897813884586e-7</v>
       </c>
       <c r="I181">
-        <v>0.0002597266829780903</v>
+        <v>0.00025972668297808663</v>
       </c>
       <c r="J181">
-        <v>0.001980957326451711</v>
+        <v>0.0019809573264507586</v>
       </c>
       <c r="K181">
-        <v>4.877688268334332e-5</v>
+        <v>4.877688268333839e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.10683286156891172</v>
       </c>
       <c r="B182">
-        <v>7.3536662444704</v>
+        <v>7.353666244470402</v>
       </c>
       <c r="C182">
         <v>3.22043257400389e-7</v>
       </c>
       <c r="D182">
-        <v>0.00026479814839396076</v>
+        <v>0.00026479814839396065</v>
       </c>
       <c r="E182">
-        <v>0.0019817673984194625</v>
+        <v>0.001981767398419462</v>
       </c>
       <c r="F182">
-        <v>4.878547787034264e-5</v>
+        <v>4.878547787034265e-5</v>
       </c>
       <c r="G182">
-        <v>7.353669468432774</v>
+        <v>7.353669468433067</v>
       </c>
       <c r="H182">
-        <v>3.2342119173458747e-7</v>
+        <v>3.234211917358008e-7</v>
       </c>
       <c r="I182">
-        <v>0.00026479902183757295</v>
+        <v>0.00026479902183756954</v>
       </c>
       <c r="J182">
-        <v>0.0019817677976570157</v>
+        <v>0.0019817677976560963</v>
       </c>
       <c r="K182">
-        <v>4.8785479139942086e-5</v>
+        <v>4.878547913993733e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6796,7 +6796,7 @@
         <v>3.0797201294284224e-7</v>
       </c>
       <c r="D183">
-        <v>0.0002699564658556684</v>
+        <v>0.00026995646585566835</v>
       </c>
       <c r="E183">
         <v>0.0019825889295231255</v>
@@ -6805,19 +6805,19 @@
         <v>4.8794214861446405e-5</v>
       </c>
       <c r="G183">
-        <v>7.355419880960161</v>
+        <v>7.355419880960439</v>
       </c>
       <c r="H183">
-        <v>3.0928974201685876e-7</v>
+        <v>3.0928974201801846e-7</v>
       </c>
       <c r="I183">
-        <v>0.0002699573009200616</v>
+        <v>0.0002699573009200584</v>
       </c>
       <c r="J183">
-        <v>0.001982589308530805</v>
+        <v>0.001982589308529919</v>
       </c>
       <c r="K183">
-        <v>4.8794216073164604e-5</v>
+        <v>4.879421607316003e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6834,25 +6834,25 @@
         <v>0.000275202325055764</v>
       </c>
       <c r="E184">
-        <v>0.001983421669789945</v>
+        <v>0.0019834216697899444</v>
       </c>
       <c r="F184">
         <v>4.880309483055787e-5</v>
       </c>
       <c r="G184">
-        <v>7.357182992391365</v>
+        <v>7.357182992391629</v>
       </c>
       <c r="H184">
-        <v>2.949203011464977e-7</v>
+        <v>2.9492030114760304e-7</v>
       </c>
       <c r="I184">
-        <v>0.0002752031211094565</v>
+        <v>0.0002752031211094536</v>
       </c>
       <c r="J184">
-        <v>0.0019834220285255303</v>
+        <v>0.001983422028524679</v>
       </c>
       <c r="K184">
-        <v>4.880309598363741e-5</v>
+        <v>4.880309598363303e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6860,34 +6860,34 @@
         <v>0.11258713234019087</v>
       </c>
       <c r="B185">
-        <v>7.358955982973341</v>
+        <v>7.35895598297334</v>
       </c>
       <c r="C185">
         <v>2.7911421066485515e-7</v>
       </c>
       <c r="D185">
-        <v>0.000280537353944249</v>
+        <v>0.00028053735394424905</v>
       </c>
       <c r="E185">
-        <v>0.0019842657911857344</v>
+        <v>0.001984265791185735</v>
       </c>
       <c r="F185">
-        <v>4.881212031771281e-5</v>
+        <v>4.88121203177128e-5</v>
       </c>
       <c r="G185">
-        <v>7.358958742437245</v>
+        <v>7.358958742437496</v>
       </c>
       <c r="H185">
-        <v>2.80308468238794e-7</v>
+        <v>2.8030846823984394e-7</v>
       </c>
       <c r="I185">
-        <v>0.00028053811034264934</v>
+        <v>0.0002805381103426467</v>
       </c>
       <c r="J185">
-        <v>0.001984266129605435</v>
+        <v>0.001984266129604621</v>
       </c>
       <c r="K185">
-        <v>4.8812121411364347e-5</v>
+        <v>4.8812121411360145e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,7 +6895,7 @@
         <v>0.11457032832929134</v>
       </c>
       <c r="B186">
-        <v>7.360744462985895</v>
+        <v>7.360744462985896</v>
       </c>
       <c r="C186">
         <v>2.643188149169085e-7</v>
@@ -6904,25 +6904,25 @@
         <v>0.0002859632080205858</v>
       </c>
       <c r="E186">
-        <v>0.0019851214682668444</v>
+        <v>0.001985121468266844</v>
       </c>
       <c r="F186">
-        <v>4.882129390307538e-5</v>
+        <v>4.8821293903075385e-5</v>
       </c>
       <c r="G186">
-        <v>7.36074706503298</v>
+        <v>7.360747065033216</v>
       </c>
       <c r="H186">
-        <v>2.654497683882567e-7</v>
+        <v>2.6544976838925043e-7</v>
       </c>
       <c r="I186">
-        <v>0.00028596392412413466</v>
+        <v>0.00028596392412413217</v>
       </c>
       <c r="J186">
-        <v>0.0019851217863288226</v>
+        <v>0.001985121786328047</v>
       </c>
       <c r="K186">
-        <v>4.882129493650848e-5</v>
+        <v>4.882129493650448e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,34 +6930,34 @@
         <v>0.11658708108782626</v>
       </c>
       <c r="B187">
-        <v>7.362545444881612</v>
+        <v>7.362545444881613</v>
       </c>
       <c r="C187">
         <v>2.4927307291651906e-7</v>
       </c>
       <c r="D187">
-        <v>0.0002914815708370582</v>
+        <v>0.00029148157083705813</v>
       </c>
       <c r="E187">
-        <v>0.001985988878249504</v>
+        <v>0.0019859888782495037</v>
       </c>
       <c r="F187">
         <v>4.883061820765842e-5</v>
       </c>
       <c r="G187">
-        <v>7.362547888229093</v>
+        <v>7.362547888229315</v>
       </c>
       <c r="H187">
-        <v>2.5033965099896785e-7</v>
+        <v>2.503396509999045e-7</v>
       </c>
       <c r="I187">
-        <v>0.00029148224597767966</v>
+        <v>0.0002914822459776774</v>
       </c>
       <c r="J187">
-        <v>0.0019859891759182505</v>
+        <v>0.0019859891759175146</v>
       </c>
       <c r="K187">
-        <v>4.883061918010712e-5</v>
+        <v>4.883061918010331e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.884009589405678e-5</v>
       </c>
       <c r="G188">
-        <v>7.364361134190829</v>
+        <v>7.364361134191037</v>
       </c>
       <c r="H188">
-        <v>2.3497348839320672e-7</v>
+        <v>2.3497348839408546e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002970947880175013</v>
+        <v>0.0002970947880174991</v>
       </c>
       <c r="J188">
-        <v>0.001986868478326893</v>
+        <v>0.0019868684783261987</v>
       </c>
       <c r="K188">
-        <v>4.88400968047281e-5</v>
+        <v>4.88400968047245e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7000,7 +7000,7 @@
         <v>0.12072373796456101</v>
       </c>
       <c r="B189">
-        <v>7.366184597140108</v>
+        <v>7.366184597140109</v>
       </c>
       <c r="C189">
         <v>2.1841204057227745e-7</v>
@@ -7009,25 +7009,25 @@
         <v>0.00030280270024275117</v>
       </c>
       <c r="E189">
-        <v>0.001987759619510982</v>
+        <v>0.0019877596195109815</v>
       </c>
       <c r="F189">
-        <v>4.884972966719423e-5</v>
+        <v>4.884972966719424e-5</v>
       </c>
       <c r="G189">
-        <v>7.366186719215892</v>
+        <v>7.366186719216086</v>
       </c>
       <c r="H189">
-        <v>2.1934657455921039e-7</v>
+        <v>2.193465745600303e-7</v>
       </c>
       <c r="I189">
-        <v>0.00030280329142809344</v>
+        <v>0.0003028032914280915</v>
       </c>
       <c r="J189">
-        <v>0.0019877598763017785</v>
+        <v>0.0019877598763011267</v>
       </c>
       <c r="K189">
-        <v>4.884973051530853e-5</v>
+        <v>4.884973051530515e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,7 +7035,7 @@
         <v>0.12284490896626077</v>
       </c>
       <c r="B190">
-        <v>7.368022594194803</v>
+        <v>7.3680225941948025</v>
       </c>
       <c r="C190">
         <v>2.02587298796075e-7</v>
@@ -7050,19 +7050,19 @@
         <v>4.8859522275084e-5</v>
       </c>
       <c r="G190">
-        <v>7.3680245537016775</v>
+        <v>7.368024553701856</v>
       </c>
       <c r="H190">
-        <v>2.0345412375979749e-7</v>
+        <v>2.0345412376055765e-7</v>
       </c>
       <c r="I190">
-        <v>0.00030860952701061077</v>
+        <v>0.00030860952701060887</v>
       </c>
       <c r="J190">
-        <v>0.001988663555474996</v>
+        <v>0.0019886635554743877</v>
       </c>
       <c r="K190">
-        <v>4.8859523059852105e-5</v>
+        <v>4.885952305984897e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7076,28 +7076,28 @@
         <v>1.8649330500806208e-7</v>
       </c>
       <c r="D191">
-        <v>0.0003145147912980097</v>
+        <v>0.00031451479129800965</v>
       </c>
       <c r="E191">
         <v>0.001989579488633092</v>
       </c>
       <c r="F191">
-        <v>4.8869476509603405e-5</v>
+        <v>4.886947650960341e-5</v>
       </c>
       <c r="G191">
-        <v>7.369874542170433</v>
+        <v>7.369874542170598</v>
       </c>
       <c r="H191">
-        <v>1.872912685844471e-7</v>
+        <v>1.872912685851466e-7</v>
       </c>
       <c r="I191">
-        <v>0.00031451529574022026</v>
+        <v>0.0003145152957402186</v>
       </c>
       <c r="J191">
-        <v>0.001989579704437293</v>
+        <v>0.0019895797044367294</v>
       </c>
       <c r="K191">
-        <v>4.8869477230220554e-5</v>
+        <v>4.886947723021763e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,34 +7105,34 @@
         <v>0.12719618442126782</v>
       </c>
       <c r="B192">
-        <v>7.371734952697091</v>
+        <v>7.37173495269709</v>
       </c>
       <c r="C192">
         <v>1.7012513029685346e-7</v>
       </c>
       <c r="D192">
-        <v>0.00032052196925488473</v>
+        <v>0.0003205219692548847</v>
       </c>
       <c r="E192">
-        <v>0.0019905083195178486</v>
+        <v>0.001990508319517849</v>
       </c>
       <c r="F192">
-        <v>4.887959520728294e-5</v>
+        <v>4.887959520728293e-5</v>
       </c>
       <c r="G192">
-        <v>7.371736583242994</v>
+        <v>7.371736583243143</v>
       </c>
       <c r="H192">
-        <v>1.7085305925360177e-7</v>
+        <v>1.7085305925423962e-7</v>
       </c>
       <c r="I192">
-        <v>0.0003205224292349345</v>
+        <v>0.00032052242923493303</v>
       </c>
       <c r="J192">
-        <v>0.0019905085147946013</v>
+        <v>0.0019905085147940843</v>
       </c>
       <c r="K192">
-        <v>4.887959586295968e-5</v>
+        <v>4.8879595862956996e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7146,28 +7146,28 @@
         <v>1.5347776178117209e-7</v>
       </c>
       <c r="D193">
-        <v>0.0003266323756413414</v>
+        <v>0.00032663237564134137</v>
       </c>
       <c r="E193">
-        <v>0.001991450006543759</v>
+        <v>0.00199145000654376</v>
       </c>
       <c r="F193">
         <v>4.888988125011e-5</v>
       </c>
       <c r="G193">
-        <v>7.373610569652203</v>
+        <v>7.373610569652336</v>
       </c>
       <c r="H193">
-        <v>1.5413446125333668e-7</v>
+        <v>1.541344612539119e-7</v>
       </c>
       <c r="I193">
-        <v>0.00032663279043577455</v>
+        <v>0.00032663279043577314</v>
       </c>
       <c r="J193">
-        <v>0.0019914501812769007</v>
+        <v>0.0019914501812764323</v>
       </c>
       <c r="K193">
-        <v>4.888988184005955e-5</v>
+        <v>4.8889881840057105e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.13169716548370228</v>
       </c>
       <c r="B194">
-        <v>7.3754950917668625</v>
+        <v>7.375495091766863</v>
       </c>
       <c r="C194">
         <v>1.3654610107405398e-7</v>
       </c>
       <c r="D194">
-        <v>0.00033284790519926043</v>
+        <v>0.0003328479051992604</v>
       </c>
       <c r="E194">
-        <v>0.001992404747622616</v>
+        <v>0.0019924047476226154</v>
       </c>
       <c r="F194">
         <v>4.890033756634779e-5</v>
       </c>
       <c r="G194">
-        <v>7.375496388270109</v>
+        <v>7.375496388270227</v>
       </c>
       <c r="H194">
-        <v>1.3713035436138965e-7</v>
+        <v>1.3713035436190123e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033284827406216154</v>
+        <v>0.00033284827406216034</v>
       </c>
       <c r="J194">
-        <v>0.001992404901799887</v>
+        <v>0.0019924049017994686</v>
       </c>
       <c r="K194">
-        <v>4.890033808978682e-5</v>
+        <v>4.8900338089784646e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,7 +7210,7 @@
         <v>0.13400551147788609</v>
       </c>
       <c r="B195">
-        <v>7.377392792514669</v>
+        <v>7.3773927925146685</v>
       </c>
       <c r="C195">
         <v>1.1932496272226112e-7</v>
@@ -7222,22 +7222,22 @@
         <v>0.001993372743938909</v>
       </c>
       <c r="F195">
-        <v>4.8910967131369555e-5</v>
+        <v>4.891096713136955e-5</v>
       </c>
       <c r="G195">
-        <v>7.377393920113704</v>
+        <v>7.377393920113807</v>
       </c>
       <c r="H195">
-        <v>1.1983553111664581e-7</v>
+        <v>1.1983553111709278e-7</v>
       </c>
       <c r="I195">
-        <v>0.00033917080726024706</v>
+        <v>0.0003391708072602459</v>
       </c>
       <c r="J195">
-        <v>0.001993372877551213</v>
+        <v>0.0019933728775508464</v>
       </c>
       <c r="K195">
-        <v>4.8910967587501696e-5</v>
+        <v>4.891096758749979e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,7 +7245,7 @@
         <v>0.13635336641824583</v>
       </c>
       <c r="B196">
-        <v>7.379302082909509</v>
+        <v>7.3793020829095095</v>
       </c>
       <c r="C196">
         <v>1.0180907261743927e-7</v>
@@ -7254,25 +7254,25 @@
         <v>0.00034560207536052357</v>
       </c>
       <c r="E196">
-        <v>0.001994354200033833</v>
+        <v>0.0019943542000338326</v>
       </c>
       <c r="F196">
-        <v>4.8921772968508605e-5</v>
+        <v>4.892177296850861e-5</v>
       </c>
       <c r="G196">
-        <v>7.379303040351687</v>
+        <v>7.3793030403517745</v>
       </c>
       <c r="H196">
-        <v>1.0224469459294083e-7</v>
+        <v>1.0224469459332214e-7</v>
       </c>
       <c r="I196">
-        <v>0.00034560235013513684</v>
+        <v>0.00034560235013513587</v>
       </c>
       <c r="J196">
-        <v>0.0019943543130723717</v>
+        <v>0.001994354313072058</v>
       </c>
       <c r="K196">
-        <v>4.8921773356558075e-5</v>
+        <v>4.892177335655645e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7286,7 +7286,7 @@
         <v>8.399306638143443e-8</v>
       </c>
       <c r="D197">
-        <v>0.0003521446697757969</v>
+        <v>0.0003521446697757968</v>
       </c>
       <c r="E197">
         <v>0.0019953493238909522</v>
@@ -7295,19 +7295,19 @@
         <v>4.893275814992451e-5</v>
       </c>
       <c r="G197">
-        <v>7.38122361836348</v>
+        <v>7.381223618363552</v>
       </c>
       <c r="H197">
-        <v>8.435245756422515e-8</v>
+        <v>8.435245756453968e-8</v>
       </c>
       <c r="I197">
-        <v>0.0003521448963544646</v>
+        <v>0.00035214489635446383</v>
       </c>
       <c r="J197">
-        <v>0.0019953494163583697</v>
+        <v>0.0019953494163581094</v>
       </c>
       <c r="K197">
-        <v>4.893275846912635e-5</v>
+        <v>4.8932758469125015e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7330,19 +7330,19 @@
         <v>4.894392579748572e-5</v>
       </c>
       <c r="G198">
-        <v>7.383155517729544</v>
+        <v>7.3831555177296</v>
       </c>
       <c r="H198">
-        <v>6.615334041750194e-8</v>
+        <v>6.615334041774858e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003588004738098583</v>
+        <v>0.0003588004738098578</v>
       </c>
       <c r="J198">
-        <v>0.00199635839891702</v>
+        <v>0.0019963583989168155</v>
       </c>
       <c r="K198">
-        <v>4.894392604706292e-5</v>
+        <v>4.894392604706187e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7350,34 +7350,34 @@
         <v>0.1436412372303167</v>
       </c>
       <c r="B199">
-        <v>7.385098156709967</v>
+        <v>7.385098156709966</v>
       </c>
       <c r="C199">
         <v>4.7438786767279776e-8</v>
       </c>
       <c r="D199">
-        <v>0.00036557101726156644</v>
+        <v>0.0003655710172615665</v>
       </c>
       <c r="E199">
-        <v>0.00199738142456363</v>
+        <v>0.0019973814245636302</v>
       </c>
       <c r="F199">
-        <v>4.895527908366906e-5</v>
+        <v>4.8955279083669065e-5</v>
       </c>
       <c r="G199">
-        <v>7.385098596288725</v>
+        <v>7.385098596288765</v>
       </c>
       <c r="H199">
-        <v>4.764176948317298e-8</v>
+        <v>4.764176948335057e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003655711451294063</v>
+        <v>0.0003655711451294058</v>
       </c>
       <c r="J199">
-        <v>0.001997381475891188</v>
+        <v>0.00199738147589104</v>
       </c>
       <c r="K199">
-        <v>4.895527926284985e-5</v>
+        <v>4.895527926284911e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7394,25 +7394,25 @@
         <v>0.00037245893109325023</v>
       </c>
       <c r="E200">
-        <v>0.0019984188353526526</v>
+        <v>0.001998418835352653</v>
       </c>
       <c r="F200">
         <v>4.8966821232476484e-5</v>
       </c>
       <c r="G200">
-        <v>7.3870527061757185</v>
+        <v>7.3870527061757425</v>
       </c>
       <c r="H200">
-        <v>2.8812075365383657e-8</v>
+        <v>2.8812075365491048e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037245900837842226</v>
+        <v>0.00037245900837842215</v>
       </c>
       <c r="J200">
-        <v>0.0019984188661210027</v>
+        <v>0.001998418866120913</v>
       </c>
       <c r="K200">
-        <v>4.896682134049281e-5</v>
+        <v>4.8966821340492355e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,13 +7420,13 @@
         <v>0.1487108779606167</v>
       </c>
       <c r="B201">
-        <v>7.389017605656126</v>
+        <v>7.389017605656125</v>
       </c>
       <c r="C201">
         <v>9.61734031577374e-9</v>
       </c>
       <c r="D201">
-        <v>0.00037946617183058125</v>
+        <v>0.0003794661718305813</v>
       </c>
       <c r="E201">
         <v>0.001999470782033879</v>
@@ -7435,19 +7435,19 @@
         <v>4.8978555520369374e-5</v>
       </c>
       <c r="G201">
-        <v>7.38901769386769</v>
+        <v>7.389017693867698</v>
       </c>
       <c r="H201">
-        <v>9.65849141150357e-9</v>
+        <v>9.658491411539569e-9</v>
       </c>
       <c r="I201">
-        <v>0.00037946619773323746</v>
+        <v>0.0003794661977332374</v>
       </c>
       <c r="J201">
-        <v>0.0019994707922584586</v>
+        <v>0.0019994707922584283</v>
       </c>
       <c r="K201">
-        <v>4.89785555564617e-5</v>
+        <v>4.897855555646155e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.8970052090177034e-5</v>
       </c>
       <c r="G2">
-        <v>8.141770622992999</v>
+        <v>8.14177062299296</v>
       </c>
       <c r="H2">
-        <v>0.000247489856984209</v>
+        <v>0.00024748985698420895</v>
       </c>
       <c r="I2">
-        <v>-1.2740690697509935e-7</v>
+        <v>-1.274069069750969e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019994979831484388</v>
+        <v>0.0019994979831484327</v>
       </c>
       <c r="K2">
-        <v>4.897005239644338e-5</v>
+        <v>4.897005239644327e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.8941541300077886e-5</v>
       </c>
       <c r="G3">
-        <v>8.12516310832508</v>
+        <v>8.125163108324962</v>
       </c>
       <c r="H3">
-        <v>0.00024250691809962993</v>
+        <v>0.00024250691809962966</v>
       </c>
       <c r="I3">
-        <v>-3.8024649819949863e-7</v>
+        <v>-3.8024649819949085e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019984949453767968</v>
+        <v>0.001998494945376779</v>
       </c>
       <c r="K3">
-        <v>4.894154221005442e-5</v>
+        <v>4.894154221005414e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.891362678369004e-5</v>
       </c>
       <c r="G4">
-        <v>8.108444656861682</v>
+        <v>8.108444656861487</v>
       </c>
       <c r="H4">
-        <v>0.0002375979160597216</v>
+        <v>0.00023759791605972112</v>
       </c>
       <c r="I4">
-        <v>-6.292247390982494e-7</v>
+        <v>-6.292247390982356e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997497882392561</v>
+        <v>0.001997497882392532</v>
       </c>
       <c r="K4">
-        <v>4.891362828269243e-5</v>
+        <v>4.891362828269198e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.8886327620010384e-5</v>
       </c>
       <c r="G5">
-        <v>8.091621718384937</v>
+        <v>8.091621718384662</v>
       </c>
       <c r="H5">
-        <v>0.00023276134747298168</v>
+        <v>0.00023276134747298097</v>
       </c>
       <c r="I5">
-        <v>-8.744134380660881e-7</v>
+        <v>-8.74413438066068e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996506288640394</v>
+        <v>0.001996506288640353</v>
       </c>
       <c r="K5">
-        <v>4.888632969225358e-5</v>
+        <v>4.8886329692252976e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.885966261033637e-5</v>
       </c>
       <c r="G6">
-        <v>8.074701903669007</v>
+        <v>8.074701903668654</v>
       </c>
       <c r="H6">
-        <v>0.00022799573113567</v>
+        <v>0.00022799573113566909</v>
       </c>
       <c r="I6">
-        <v>-1.1158831274159597e-6</v>
+        <v>-1.1158831274159326e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019955196648861946</v>
+        <v>0.0019955196648861425</v>
       </c>
       <c r="K6">
-        <v>4.8859665235332526e-5</v>
+        <v>4.885966523533175e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.883365011052702e-5</v>
       </c>
       <c r="G7">
-        <v>8.057694031359745</v>
+        <v>8.057694031359313</v>
       </c>
       <c r="H7">
-        <v>0.00022329960752754286</v>
+        <v>0.00022329960752754177</v>
       </c>
       <c r="I7">
-        <v>-1.3537031112480083e-6</v>
+        <v>-1.3537031112479734e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019945375213086354</v>
+        <v>0.0019945375213085734</v>
       </c>
       <c r="K7">
-        <v>4.883365326997781e-5</v>
+        <v>4.8833653269976896e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.88083078439394e-5</v>
       </c>
       <c r="G8">
-        <v>8.040608159534344</v>
+        <v>8.040608159533836</v>
       </c>
       <c r="H8">
-        <v>0.00021867153839163337</v>
+        <v>0.0002186715383916321</v>
       </c>
       <c r="I8">
-        <v>-1.5879415103577572e-6</v>
+        <v>-1.5879415103577133e-6</v>
       </c>
       <c r="J8">
-        <v>0.001993559380537527</v>
+        <v>0.0019935593805374546</v>
       </c>
       <c r="K8">
-        <v>4.8808311516417524e-5</v>
+        <v>4.880831151641646e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.878365269708576e-5</v>
       </c>
       <c r="G9">
-        <v>8.02345559866043</v>
+        <v>8.023455598659847</v>
       </c>
       <c r="H9">
-        <v>0.00021411010639807952</v>
+        <v>0.00021411010639807814</v>
       </c>
       <c r="I9">
-        <v>-1.8186653364638895e-6</v>
+        <v>-1.8186653364638364e-6</v>
       </c>
       <c r="J9">
-        <v>0.001992584781125123</v>
+        <v>0.0019925847811250405</v>
       </c>
       <c r="K9">
-        <v>4.878365685987244e-5</v>
+        <v>4.8783656859871234e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.87597005011676e-5</v>
       </c>
       <c r="G10">
-        <v>8.006248902421087</v>
+        <v>8.00624890242043</v>
       </c>
       <c r="H10">
-        <v>0.00020961391455582567</v>
+        <v>0.00020961391455582413</v>
       </c>
       <c r="I10">
-        <v>-2.0459405423377007e-6</v>
+        <v>-2.045940542337638e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019916132810975516</v>
+        <v>0.00199161328109746</v>
       </c>
       <c r="K10">
-        <v>4.8759705130525765e-5</v>
+        <v>4.875970513052441e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.873646580381585e-5</v>
       </c>
       <c r="G11">
-        <v>7.989001834035672</v>
+        <v>7.9890018340349425</v>
       </c>
       <c r="H11">
-        <v>0.00020518158579242916</v>
+        <v>0.0002051815857924274</v>
       </c>
       <c r="I11">
-        <v>-2.2698321014083276e-6</v>
+        <v>-2.2698321014082544e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019906444617357136</v>
+        <v>0.001990644461735612</v>
       </c>
       <c r="K11">
-        <v>4.87364708744784e-5</v>
+        <v>4.873647087447692e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.8713961636526464e-5</v>
       </c>
       <c r="G12">
-        <v>7.9717293051011895</v>
+        <v>7.971729305100391</v>
       </c>
       <c r="H12">
-        <v>0.00020081176278603663</v>
+        <v>0.00020081176278603463</v>
       </c>
       <c r="I12">
-        <v>-2.4904040793306444e-6</v>
+        <v>-2.4904040793305593e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019896779313089952</v>
+        <v>0.001989677931308885</v>
       </c>
       <c r="K12">
-        <v>4.871396712277741e-5</v>
+        <v>4.8713967122775804e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.869219928433404e-5</v>
       </c>
       <c r="G13">
-        <v>7.954447285052572</v>
+        <v>7.954447285051706</v>
       </c>
       <c r="H13">
-        <v>0.00019650310720911965</v>
+        <v>0.00019650310720911734</v>
       </c>
       <c r="I13">
-        <v>-2.70771970780657e-6</v>
+        <v>-2.7077197078064723e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019887133286126016</v>
+        <v>0.0019887133286124827</v>
       </c>
       <c r="K13">
-        <v>4.8692205156942305e-5</v>
+        <v>4.869220515694058e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.8671188065108885e-5</v>
       </c>
       <c r="G14">
-        <v>7.937172682316455</v>
+        <v>7.9371726823155235</v>
       </c>
       <c r="H14">
-        <v>0.00019225429947662454</v>
+        <v>0.00019225429947662201</v>
       </c>
       <c r="I14">
-        <v>-2.921841473156889e-6</v>
+        <v>-2.9218414731567774e-6</v>
       </c>
       <c r="J14">
-        <v>0.001987750326525219</v>
+        <v>0.0019877503265250916</v>
       </c>
       <c r="K14">
-        <v>4.867119429731793e-5</v>
+        <v>4.867119429731607e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.8650935126386824e-5</v>
       </c>
       <c r="G15">
-        <v>7.919923195896999</v>
+        <v>7.919923195896005</v>
       </c>
       <c r="H15">
-        <v>0.0001880640384103626</v>
+        <v>0.00018806403841035982</v>
       </c>
       <c r="I15">
-        <v>-3.1328311877166467e-6</v>
+        <v>-3.132831187716519e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019867886349059054</v>
+        <v>0.0019867886349057696</v>
       </c>
       <c r="K15">
-        <v>4.865094168988811e-5</v>
+        <v>4.8650941689886175e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.863144526775159e-5</v>
       </c>
       <c r="G16">
-        <v>7.9027171412763915</v>
+        <v>7.902717141275338</v>
       </c>
       <c r="H16">
-        <v>0.00018393104065180294</v>
+        <v>0.00018393104065179996</v>
       </c>
       <c r="I16">
-        <v>-3.34075007368352e-6</v>
+        <v>-3.3407500736833763e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019858280033122127</v>
+        <v>0.0019858280033120683</v>
       </c>
       <c r="K16">
-        <v>4.86314521322809e-5</v>
+        <v>4.8631452132278864e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.861272079641629e-5</v>
       </c>
       <c r="G17">
-        <v>7.885573253530391</v>
+        <v>7.88557325352928</v>
       </c>
       <c r="H17">
-        <v>0.00017985404049607464</v>
+        <v>0.00017985404049607152</v>
       </c>
       <c r="I17">
-        <v>-3.5456588375640425e-6</v>
+        <v>-3.545658837563882e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848682228886245</v>
+        <v>0.0019848682228884723</v>
       </c>
       <c r="K17">
-        <v>4.861272793224327e-5</v>
+        <v>4.8612727932241145e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8594761422763005e-5</v>
       </c>
       <c r="G18">
-        <v>7.868510472589391</v>
+        <v>7.868510472588227</v>
       </c>
       <c r="H18">
-        <v>0.00017583178939154496</v>
+        <v>0.00017583178939154168</v>
       </c>
       <c r="I18">
-        <v>-3.7476177425616876e-6</v>
+        <v>-3.7476177425615097e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019839091276688562</v>
+        <v>0.001983909127668697</v>
       </c>
       <c r="K18">
-        <v>4.859476880019053e-5</v>
+        <v>4.859476880018833e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.857756420121725e-5</v>
       </c>
       <c r="G19">
-        <v>7.851547717314951</v>
+        <v>7.851547717313735</v>
       </c>
       <c r="H19">
-        <v>0.00017186305544243858</v>
+        <v>0.0001718630554424352</v>
       </c>
       <c r="I19">
-        <v>-3.946686664863427e-6</v>
+        <v>-3.94668666486323e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019829505950784538</v>
+        <v>0.001982950595078287</v>
       </c>
       <c r="K19">
-        <v>4.8577571792085196e-5</v>
+        <v>4.857757179208293e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.856112352002878e-5</v>
       </c>
       <c r="G20">
-        <v>7.83470365475263</v>
+        <v>7.834703654751367</v>
       </c>
       <c r="H20">
-        <v>0.00016794662325276207</v>
+        <v>0.00016794662325275857</v>
       </c>
       <c r="I20">
-        <v>-4.142925147681715e-6</v>
+        <v>-4.142925147681495e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019819925455566646</v>
+        <v>0.0019819925455564907</v>
       </c>
       <c r="K20">
-        <v>4.856113129668477e-5</v>
+        <v>4.856113129668245e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.854543114142454e-5</v>
       </c>
       <c r="G21">
-        <v>7.8179964723686295</v>
+        <v>7.817996472367322</v>
       </c>
       <c r="H21">
-        <v>0.00016408129352651213</v>
+        <v>0.00016408129352650847</v>
       </c>
       <c r="I21">
-        <v>-4.3363924374118995e-6</v>
+        <v>-4.336392437411659e-6</v>
       </c>
       <c r="J21">
-        <v>0.001981034941464414</v>
+        <v>0.001981034941464232</v>
       </c>
       <c r="K21">
-        <v>4.8545439076390016e-5</v>
+        <v>4.854543907638764e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.853047629135248e-5</v>
       </c>
       <c r="G22">
-        <v>7.801443660587425</v>
+        <v>7.801443660586076</v>
       </c>
       <c r="H22">
-        <v>0.00016026588268135505</v>
+        <v>0.00016026588268135133</v>
       </c>
       <c r="I22">
-        <v>-4.527147492390469e-6</v>
+        <v>-4.527147492390206e-6</v>
       </c>
       <c r="J22">
-        <v>0.001980077785055442</v>
+        <v>0.0019800777850552515</v>
       </c>
       <c r="K22">
-        <v>4.8530484358270436e-5</v>
+        <v>4.853048435826799e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.8516245795825135e-5</v>
       </c>
       <c r="G23">
-        <v>7.785061812312668</v>
+        <v>7.785061812311281</v>
       </c>
       <c r="H23">
-        <v>0.00015649922248333532</v>
+        <v>0.00015649922248333153</v>
       </c>
       <c r="I23">
-        <v>-4.715248978736603e-6</v>
+        <v>-4.715248978736317e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019791211158460592</v>
+        <v>0.0019791211158458615</v>
       </c>
       <c r="K23">
-        <v>4.851625396858405e-5</v>
+        <v>4.851625396858155e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.850272425887609e-5</v>
       </c>
       <c r="G24">
-        <v>7.768866445812124</v>
+        <v>7.768866445810701</v>
       </c>
       <c r="H24">
-        <v>0.0001527801599657516</v>
+        <v>0.00015278015996574783</v>
       </c>
       <c r="I24">
-        <v>-4.900755227793824e-6</v>
+        <v>-4.900755227793517e-6</v>
       </c>
       <c r="J24">
-        <v>0.00197816500718044</v>
+        <v>0.001978165007180235</v>
       </c>
       <c r="K24">
-        <v>4.8502732512123215e-5</v>
+        <v>4.8502732512120646e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.848989427551109e-5</v>
       </c>
       <c r="G25">
-        <v>7.752871854863034</v>
+        <v>7.7528718548615805</v>
       </c>
       <c r="H25">
-        <v>0.00014910755705950892</v>
+        <v>0.00014910755705950515</v>
       </c>
       <c r="I25">
-        <v>-5.083724152999297e-6</v>
+        <v>-5.083724152998967e-6</v>
       </c>
       <c r="J25">
-        <v>0.001977209562503093</v>
+        <v>0.001977209562502881</v>
       </c>
       <c r="K25">
-        <v>4.84899025876533e-5</v>
+        <v>4.848990258765068e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.8477736671879765e-5</v>
       </c>
       <c r="G26">
-        <v>7.737090991045921</v>
+        <v>7.737090991044438</v>
       </c>
       <c r="H26">
-        <v>0.00014548029037678148</v>
+        <v>0.00014548029037677771</v>
       </c>
       <c r="I26">
-        <v>-5.264213107023484e-6</v>
+        <v>-5.264213107023129e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976254911049907</v>
+        <v>0.001976254911049688</v>
       </c>
       <c r="K26">
-        <v>4.847774502122231e-5</v>
+        <v>4.847774502121963e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.8466230764268886e-5</v>
       </c>
       <c r="G27">
-        <v>7.721535378141217</v>
+        <v>7.721535378139707</v>
       </c>
       <c r="H27">
-        <v>0.00014189725142927344</v>
+        <v>0.00014189725142926972</v>
       </c>
       <c r="I27">
-        <v>-5.442278668983341e-6</v>
+        <v>-5.442278668982963e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019753012035202593</v>
+        <v>0.0019753012035200338</v>
       </c>
       <c r="K27">
-        <v>4.8466239131252045e-5</v>
+        <v>4.8466239131249314e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.845535462842723e-5</v>
       </c>
       <c r="G28">
-        <v>7.706215060269408</v>
+        <v>7.706215060267875</v>
       </c>
       <c r="H28">
-        <v>0.00013835734656302137</v>
+        <v>0.00013835734656301765</v>
       </c>
       <c r="I28">
-        <v>-5.617976337300536e-6</v>
+        <v>-5.617976337300134e-6</v>
       </c>
       <c r="J28">
-        <v>0.001974348607591521</v>
+        <v>0.0019743486075912884</v>
       </c>
       <c r="K28">
-        <v>4.8455362993526035e-5</v>
+        <v>4.845536299352324e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.8445085371125325e-5</v>
       </c>
       <c r="G29">
-        <v>7.691138581967726</v>
+        <v>7.691138581966173</v>
       </c>
       <c r="H29">
-        <v>0.00013485949716318443</v>
+        <v>0.00013485949716318072</v>
       </c>
       <c r="I29">
-        <v>-5.791360092226254e-6</v>
+        <v>-5.791360092225827e-6</v>
       </c>
       <c r="J29">
-        <v>0.001973397303668991</v>
+        <v>0.0019733973036687516</v>
       </c>
       <c r="K29">
-        <v>4.844509371804567e-5</v>
+        <v>4.844509371804283e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.8435399396646337e-5</v>
       </c>
       <c r="G30">
-        <v>7.676312999040052</v>
+        <v>7.67631299903848</v>
       </c>
       <c r="H30">
-        <v>0.0001314026402743421</v>
+        <v>0.00013140264027433838</v>
       </c>
       <c r="I30">
-        <v>-5.9624817919704226e-6</v>
+        <v>-5.962481791969973e-6</v>
       </c>
       <c r="J30">
-        <v>0.001972447480654255</v>
+        <v>0.0019724474806540092</v>
       </c>
       <c r="K30">
-        <v>4.8435407709712074e-5</v>
+        <v>4.8435407709709194e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8426272661985147e-5</v>
       </c>
       <c r="G31">
-        <v>7.661743915495138</v>
+        <v>7.661743915493551</v>
       </c>
       <c r="H31">
-        <v>0.0001279857296271211</v>
+        <v>0.00012798572962711735</v>
       </c>
       <c r="I31">
-        <v>-6.131390344267442e-6</v>
+        <v>-6.131390344266967e-6</v>
       </c>
       <c r="J31">
-        <v>0.00197149933243827</v>
+        <v>0.0019714993324380166</v>
       </c>
       <c r="K31">
-        <v>4.842628092749284e-5</v>
+        <v>4.84262809274899e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.841768091578507e-5</v>
       </c>
       <c r="G32">
-        <v>7.647435544957836</v>
+        <v>7.6474355449562355</v>
       </c>
       <c r="H32">
-        <v>0.0001246077366556567</v>
+        <v>0.00012460773665565295</v>
       </c>
       <c r="I32">
-        <v>-6.298130634623578e-6</v>
+        <v>-6.298130634623079e-6</v>
       </c>
       <c r="J32">
-        <v>0.001970553054648567</v>
+        <v>0.0019705530546483075</v>
       </c>
       <c r="K32">
-        <v>4.841768911932932e-5</v>
+        <v>4.8417689119326334e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.84095999173519e-5</v>
       </c>
       <c r="G33">
-        <v>7.633390791472997</v>
+        <v>7.633390791471386</v>
       </c>
       <c r="H33">
-        <v>0.00012126765244862119</v>
+        <v>0.00012126765244861746</v>
       </c>
       <c r="I33">
-        <v>-6.462742097078207e-6</v>
+        <v>-6.462742097077684e-6</v>
       </c>
       <c r="J33">
-        <v>0.001969608842078758</v>
+        <v>0.0019696088420784923</v>
       </c>
       <c r="K33">
-        <v>4.8409608046429244e-5</v>
+        <v>4.8409608046426194e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.840200563335788e-5</v>
       </c>
       <c r="G34">
-        <v>7.619611346511501</v>
+        <v>7.619611346509881</v>
       </c>
       <c r="H34">
-        <v>0.00011796449015991066</v>
+        <v>0.00011796449015990698</v>
       </c>
       <c r="I34">
-        <v>-6.625256881590649e-6</v>
+        <v>-6.625256881590101e-6</v>
       </c>
       <c r="J34">
-        <v>0.00196866688680982</v>
+        <v>0.0019686668868095485</v>
       </c>
       <c r="K34">
-        <v>4.840201367702694e-5</v>
+        <v>4.840201367702382e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.839487441100714e-5</v>
       </c>
       <c r="G35">
-        <v>7.606097798013062</v>
+        <v>7.606097798011433</v>
       </c>
       <c r="H35">
-        <v>0.00011469728825485311</v>
+        <v>0.00011469728825484946</v>
       </c>
       <c r="I35">
-        <v>-6.785697543772226e-6</v>
+        <v>-6.785697543771652e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019677273771504518</v>
+        <v>0.001967727377150174</v>
       </c>
       <c r="K35">
-        <v>4.8394882356868917e-5</v>
+        <v>4.839488235686574e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.838818312743063e-5</v>
       </c>
       <c r="G36">
-        <v>7.592849748667967</v>
+        <v>7.592849748666333</v>
       </c>
       <c r="H36">
-        <v>0.00011146511430066072</v>
+        <v>0.00011146511430065715</v>
       </c>
       <c r="I36">
-        <v>-6.944074153687241e-6</v>
+        <v>-6.944074153686639e-6</v>
       </c>
       <c r="J36">
-        <v>0.001966790497327662</v>
+        <v>0.001966790497327379</v>
       </c>
       <c r="K36">
-        <v>4.838819096493887e-5</v>
+        <v>4.838819096493563e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.838190931588222e-5</v>
       </c>
       <c r="G37">
-        <v>7.579865940219088</v>
+        <v>7.5798659402174495</v>
       </c>
       <c r="H37">
-        <v>0.00010826707043779782</v>
+        <v>0.00010826707043779431</v>
       </c>
       <c r="I37">
-        <v>-7.100380764180643e-6</v>
+        <v>-7.100380764180013e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019658564281024894</v>
+        <v>0.001965856428102202</v>
       </c>
       <c r="K37">
-        <v>4.838191703431312e-5</v>
+        <v>4.838191703430983e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.837603126991414e-5</v>
       </c>
       <c r="G38">
-        <v>7.567144381129057</v>
+        <v>7.567144381127416</v>
       </c>
       <c r="H38">
-        <v>0.00010510229939225297</v>
+        <v>0.0001051022993922495</v>
       </c>
       <c r="I38">
-        <v>-7.2545911437825675e-6</v>
+        <v>-7.254591143781912e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019649253482301797</v>
+        <v>0.0019649253482298874</v>
       </c>
       <c r="K38">
-        <v>4.837603885743601e-5</v>
+        <v>4.837603885743266e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.8370528127124335e-5</v>
       </c>
       <c r="G39">
-        <v>7.554682476173567</v>
+        <v>7.554682476171924</v>
       </c>
       <c r="H39">
-        <v>0.00010196999180520802</v>
+        <v>0.00010196999180520457</v>
       </c>
       <c r="I39">
-        <v>-7.406653719619367e-6</v>
+        <v>-7.40665371961868e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019639974368662904</v>
+        <v>0.0019639974368659938</v>
       </c>
       <c r="K39">
-        <v>4.837053557236111e-5</v>
+        <v>4.8370535572357696e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8365379934312996e-5</v>
       </c>
       <c r="G40">
-        <v>7.542477155410602</v>
+        <v>7.5424771554089585</v>
       </c>
       <c r="H40">
-        <v>9.886939529428051e-5</v>
+        <v>9.886939529427708e-5</v>
       </c>
       <c r="I40">
-        <v>-7.556485686229392e-6</v>
+        <v>-7.556485686228679e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019630728769271986</v>
+        <v>0.0019630728769268967</v>
       </c>
       <c r="K40">
-        <v>4.836538722411314e-5</v>
+        <v>4.8365387224109665e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.836056769598427e-5</v>
       </c>
       <c r="G41">
-        <v>7.53052500103672</v>
+        <v>7.530525001035076</v>
       </c>
       <c r="H41">
-        <v>9.579982436466614e-5</v>
+        <v>9.579982436466274e-5</v>
       </c>
       <c r="I41">
-        <v>-7.703966231601273e-6</v>
+        <v>-7.70396623160053e-6</v>
       </c>
       <c r="J41">
-        <v>0.001962151859426718</v>
+        <v>0.001962151859426412</v>
       </c>
       <c r="K41">
-        <v>4.8360574817306e-5</v>
+        <v>4.836057481730247e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.835607340811407e-5</v>
       </c>
       <c r="G42">
-        <v>7.51882237234206</v>
+        <v>7.518822372340417</v>
       </c>
       <c r="H42">
-        <v>9.276067183864036e-5</v>
+        <v>9.2760671838637e-5</v>
       </c>
       <c r="I42">
-        <v>-7.848928917274146e-6</v>
+        <v>-7.848928917273375e-6</v>
       </c>
       <c r="J42">
-        <v>0.001961234588506154</v>
+        <v>0.001961234588505844</v>
       </c>
       <c r="K42">
-        <v>4.835608034565384e-5</v>
+        <v>4.8356080345650254e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.835188007900351e-5</v>
       </c>
       <c r="G43">
-        <v>7.507365525257293</v>
+        <v>7.5073655252556515</v>
       </c>
       <c r="H43">
-        <v>8.975142182782126e-5</v>
+        <v>8.975142182781794e-5</v>
       </c>
       <c r="I43">
-        <v>-7.99115323041907e-6</v>
+        <v>-7.991153230418273e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019603212877607333</v>
+        <v>0.0019603212877604185</v>
       </c>
       <c r="K43">
-        <v>4.83518868176758e-5</v>
+        <v>4.835188681767215e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.83479717388796e-5</v>
       </c>
       <c r="G44">
-        <v>7.496150728462557</v>
+        <v>7.4961507284609175</v>
       </c>
       <c r="H44">
-        <v>8.677166345412958e-5</v>
+        <v>8.67716634541263e-5</v>
       </c>
       <c r="I44">
-        <v>-8.1303553954325e-6</v>
+        <v>-8.130355395431673e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019594122067707457</v>
+        <v>0.0019594122067704257</v>
       </c>
       <c r="K44">
-        <v>4.8347978262100974e-5</v>
+        <v>4.834797826209727e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.834433343971496e-5</v>
       </c>
       <c r="G45">
-        <v>7.485174372552805</v>
+        <v>7.485174372551168</v>
       </c>
       <c r="H45">
-        <v>8.382110604946013e-5</v>
+        <v>8.382110604945688e-5</v>
       </c>
       <c r="I45">
-        <v>-8.266178586170234e-6</v>
+        <v>-8.26617858616938e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019585076288121976</v>
+        <v>0.0019585076288118745</v>
       </c>
       <c r="K45">
-        <v>4.8344339730230056e-5</v>
+        <v>4.8344339730226295e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.834095124653728e-5</v>
       </c>
       <c r="G46">
-        <v>7.474433072271975</v>
+        <v>7.474433072270341</v>
       </c>
       <c r="H46">
-        <v>8.089959439509388e-5</v>
+        <v>8.089959439509067e-5</v>
       </c>
       <c r="I46">
-        <v>-8.398182692298059e-6</v>
+        <v>-8.398182692297178e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019576078788382705</v>
+        <v>0.001957607878837943</v>
       </c>
       <c r="K46">
-        <v>4.834095728635388e-5</v>
+        <v>4.834095728635007e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.8337812221303894e-5</v>
       </c>
       <c r="G47">
-        <v>7.463923762104967</v>
+        <v>7.463923762103337</v>
       </c>
       <c r="H47">
-        <v>7.800712516890191e-5</v>
+        <v>7.800712516889874e-5</v>
       </c>
       <c r="I47">
-        <v>-8.525833877079768e-6</v>
+        <v>-8.525833877078858e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019567133319008043</v>
+        <v>0.001956713331900472</v>
       </c>
       <c r="K47">
-        <v>4.833781799105093e-5</v>
+        <v>4.833781799104706e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.833490440024124e-5</v>
       </c>
       <c r="G48">
-        <v>7.453643781360438</v>
+        <v>7.453643781358812</v>
       </c>
       <c r="H48">
-        <v>7.514386243420379e-5</v>
+        <v>7.514386243420064e-5</v>
       </c>
       <c r="I48">
-        <v>-8.648494188360394e-6</v>
+        <v>-8.648494188359452e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019558244218356806</v>
+        <v>0.0019558244218353454</v>
       </c>
       <c r="K48">
-        <v>4.8334909880389716e-5</v>
+        <v>4.8334909880385806e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.833221676539879e-5</v>
       </c>
       <c r="G49">
-        <v>7.44359095031836</v>
+        <v>7.443590950316737</v>
       </c>
       <c r="H49">
-        <v>7.231015361930755e-5</v>
+        <v>7.231015361930443e-5</v>
       </c>
       <c r="I49">
-        <v>-8.765411522252449e-6</v>
+        <v>-8.765411522251471e-6</v>
       </c>
       <c r="J49">
-        <v>0.001954941649711526</v>
+        <v>0.0019549416497111876</v>
       </c>
       <c r="K49">
-        <v>4.8332221936176574e-5</v>
+        <v>4.833222193617264e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.832973921105006e-5</v>
       </c>
       <c r="G50">
-        <v>7.433763634916958</v>
+        <v>7.433763634915339</v>
       </c>
       <c r="H50">
-        <v>6.950654346104134e-5</v>
+        <v>6.950654346103826e-5</v>
       </c>
       <c r="I50">
-        <v>-8.875710294331951e-6</v>
+        <v>-8.87571029433094e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019540655921867337</v>
+        <v>0.0019540655921863924</v>
       </c>
       <c r="K50">
-        <v>4.832974405320068e-5</v>
+        <v>4.832974405319672e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.832746250548924e-5</v>
       </c>
       <c r="G51">
-        <v>7.42416079869452</v>
+        <v>7.424160798692905</v>
       </c>
       <c r="H51">
-        <v>6.673378710010906e-5</v>
+        <v>6.6733787100106e-5</v>
       </c>
       <c r="I51">
-        <v>-8.978383161980837e-6</v>
+        <v>-8.97838316197979e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019531969091872922</v>
+        <v>0.001953196909186949</v>
       </c>
       <c r="K51">
-        <v>4.8327466999910456e-5</v>
+        <v>4.832746699990647e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.83253782487196e-5</v>
       </c>
       <c r="G52">
-        <v>7.414782042568025</v>
+        <v>7.414782042566414</v>
       </c>
       <c r="H52">
-        <v>6.39928607451793e-5</v>
+        <v>6.399286074517625e-5</v>
       </c>
       <c r="I52">
-        <v>-9.07228418021674e-6</v>
+        <v>-9.07228418021566e-6</v>
       </c>
       <c r="J52">
-        <v>0.001952336350561426</v>
+        <v>0.00195233635056108</v>
       </c>
       <c r="K52">
-        <v>4.8325382377419505e-5</v>
+        <v>4.832538237741551e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.832347882650677e-5</v>
       </c>
       <c r="G53">
-        <v>7.405627629381557</v>
+        <v>7.405627629379949</v>
       </c>
       <c r="H53">
-        <v>6.128496940990077e-5</v>
+        <v>6.128496940989774e-5</v>
       </c>
       <c r="I53">
-        <v>-9.156123764304144e-6</v>
+        <v>-9.156123764303033e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019514847617268416</v>
+        <v>0.0019514847617264923</v>
       </c>
       <c r="K53">
-        <v>4.832348257243552e-5</v>
+        <v>4.832348257243148e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.832175736126949e-5</v>
       </c>
       <c r="G54">
-        <v>7.3966984937243065</v>
+        <v>7.396698493722702</v>
       </c>
       <c r="H54">
-        <v>5.861155157391747e-5</v>
+        <v>5.861155157391443e-5</v>
       </c>
       <c r="I54">
-        <v>-9.228465800512841e-6</v>
+        <v>-9.228465800511701e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019506430877269103</v>
+        <v>0.0019506430877265582</v>
       </c>
       <c r="K54">
-        <v>4.832176070937356e-5</v>
+        <v>4.832176070936948e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.83202076602972e-5</v>
       </c>
       <c r="G55">
-        <v>7.387996237097641</v>
+        <v>7.387996237096041</v>
       </c>
       <c r="H55">
-        <v>5.597427992062129e-5</v>
+        <v>5.597427992061825e-5</v>
       </c>
       <c r="I55">
-        <v>-9.287727250848068e-6</v>
+        <v>-9.2877272508469e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019498123754215385</v>
+        <v>0.0019498123754211841</v>
       </c>
       <c r="K55">
-        <v>4.8320210597119914e-5</v>
+        <v>4.8320210597115794e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.831882416181127e-5</v>
       </c>
       <c r="G56">
-        <v>7.379523105775793</v>
+        <v>7.3795231057741955</v>
       </c>
       <c r="H56">
-        <v>5.3375057704711563e-5</v>
+        <v>5.337505770470851e-5</v>
       </c>
       <c r="I56">
-        <v>-9.33218051240252e-6</v>
+        <v>-9.332180512401323e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019489937739332818</v>
+        <v>0.0019489937739329245</v>
       </c>
       <c r="K56">
-        <v>4.831882667710354e-5</v>
+        <v>4.8318826677099395e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.831760187941727e-5</v>
       </c>
       <c r="G57">
-        <v>7.37128195445482</v>
+        <v>7.3712819544532255</v>
       </c>
       <c r="H57">
-        <v>5.081601070898923e-5</v>
+        <v>5.081601070898616e-5</v>
       </c>
       <c r="I57">
-        <v>-9.359958764936629e-6</v>
+        <v>-9.359958764935406e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019481885324189358</v>
+        <v>0.0019481885324185754</v>
       </c>
       <c r="K57">
-        <v>4.831760396555988e-5</v>
+        <v>4.83176039655557e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.831653634552398e-5</v>
       </c>
       <c r="G58">
-        <v>7.363276193632257</v>
+        <v>7.363276193630665</v>
       </c>
       <c r="H58">
-        <v>4.829947397331936e-5</v>
+        <v>4.829947397331627e-5</v>
       </c>
       <c r="I58">
-        <v>-9.369064456566596e-6</v>
+        <v>-9.369064456565348e-6</v>
       </c>
       <c r="J58">
-        <v>0.001947397995690191</v>
+        <v>0.0019473979956898283</v>
       </c>
       <c r="K58">
-        <v>4.8316537997864855e-5</v>
+        <v>4.831653799786063e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.831562355432568e-5</v>
       </c>
       <c r="G59">
-        <v>7.355509722789156</v>
+        <v>7.355509722787567</v>
       </c>
       <c r="H59">
-        <v>4.582797364825499e-5</v>
+        <v>4.582797364825189e-5</v>
       </c>
       <c r="I59">
-        <v>-9.357380995797857e-6</v>
+        <v>-9.357380995796586e-6</v>
       </c>
       <c r="J59">
-        <v>0.0019466235971107504</v>
+        <v>0.0019466235971103856</v>
       </c>
       <c r="K59">
-        <v>4.831562477235307e-5</v>
+        <v>4.83156247723488e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.831485990495341e-5</v>
       </c>
       <c r="G60">
-        <v>7.347986849862461</v>
+        <v>7.347986849860874</v>
       </c>
       <c r="H60">
-        <v>4.3404203890611825e-5</v>
+        <v>4.3404203890608715e-5</v>
       </c>
       <c r="I60">
-        <v>-9.322687647042255e-6</v>
+        <v>-9.322687647040963e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019458668488670089</v>
+        <v>0.0019458668488666418</v>
       </c>
       <c r="K60">
-        <v>4.8314860691652754e-5</v>
+        <v>4.831486069164845e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.8314242145395944e-5</v>
       </c>
       <c r="G61">
-        <v>7.340712198678642</v>
+        <v>7.340712198677058</v>
       </c>
       <c r="H61">
-        <v>4.103099871532823e-5</v>
+        <v>4.1030998715325126e-5</v>
       </c>
       <c r="I61">
-        <v>-9.262677510363515e-6</v>
+        <v>-9.262677510362207e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019451293297631188</v>
+        <v>0.0019451293297627495</v>
       </c>
       <c r="K61">
-        <v>4.8314242507131006e-5</v>
+        <v>4.8314242507126656e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.8313767317771554e-5</v>
       </c>
       <c r="G62">
-        <v>7.333690605381517</v>
+        <v>7.3336906053799344</v>
       </c>
       <c r="H62">
-        <v>3.8711299331242114e-5</v>
+        <v>3.8711299331239024e-5</v>
       </c>
       <c r="I62">
-        <v>-9.174978402196818e-6</v>
+        <v>-9.1749784021955e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019444126704059048</v>
+        <v>0.001944412670405533</v>
       </c>
       <c r="K62">
-        <v>4.8313767265518166e-5</v>
+        <v>4.8313767265513775e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.831343270549697e-5</v>
       </c>
       <c r="G63">
-        <v>7.326927007252466</v>
+        <v>7.326927007250884</v>
       </c>
       <c r="H63">
-        <v>3.644811753419428e-5</v>
+        <v>3.64481175341912e-5</v>
       </c>
       <c r="I63">
-        <v>-9.057176343335935e-6</v>
+        <v>-9.057176343334612e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019437185359778562</v>
+        <v>0.0019437185359774825</v>
       </c>
       <c r="K63">
-        <v>4.831343225381707e-5</v>
+        <v>4.831343225381264e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.831323578285246e-5</v>
       </c>
       <c r="G64">
-        <v>7.320426323909021</v>
+        <v>7.320426323907441</v>
       </c>
       <c r="H64">
-        <v>3.424449492661531e-5</v>
+        <v>3.424449492661223e-5</v>
       </c>
       <c r="I64">
-        <v>-8.906841285599885e-6</v>
+        <v>-8.906841285598559e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019430486071499217</v>
+        <v>0.0019430486071495457</v>
       </c>
       <c r="K64">
-        <v>4.8313234950507715e-5</v>
+        <v>4.831323495050325e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.831317416738367e-5</v>
       </c>
       <c r="G65">
-        <v>7.314193335666418</v>
+        <v>7.314193335664839</v>
       </c>
       <c r="H65">
-        <v>3.210345983884921e-5</v>
+        <v>3.210345983884614e-5</v>
       </c>
       <c r="I65">
-        <v>-8.721554612647754e-6</v>
+        <v>-8.721554612646429e-6</v>
       </c>
       <c r="J65">
-        <v>0.0019424045590367815</v>
+        <v>0.001942404559036403</v>
       </c>
       <c r="K65">
-        <v>4.8313172976504597e-5</v>
+        <v>4.8313172976500104e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.8313245575515445e-5</v>
       </c>
       <c r="G66">
-        <v>7.308232559298063</v>
+        <v>7.308232559296486</v>
       </c>
       <c r="H66">
-        <v>3.0027982009967682e-5</v>
+        <v>3.0027982009964613e-5</v>
       </c>
       <c r="I66">
-        <v>-8.498937937280883e-6</v>
+        <v>-8.498937937279565e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019417880390217531</v>
+        <v>0.0019417880390213713</v>
       </c>
       <c r="K66">
-        <v>4.831324405221543e-5</v>
+        <v>4.83132440522109e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.831344778168348e-5</v>
       </c>
       <c r="G67">
-        <v>7.30254812557364</v>
+        <v>7.302548125572063</v>
       </c>
       <c r="H67">
-        <v>2.8020925940974495e-5</v>
+        <v>2.802092594097142e-5</v>
       </c>
       <c r="I67">
-        <v>-8.236682576231233e-6</v>
+        <v>-8.236682576229927e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019412006435096725</v>
+        <v>0.0019412006435092885</v>
       </c>
       <c r="K67">
-        <v>4.831344595498895e-5</v>
+        <v>4.831344595498438e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.831377858121975e-5</v>
       </c>
       <c r="G68">
-        <v>7.297143659635055</v>
+        <v>7.297143659633479</v>
       </c>
       <c r="H68">
-        <v>2.6085003965863647e-5</v>
+        <v>2.6085003965860563e-5</v>
       </c>
       <c r="I68">
-        <v>-7.932579150474068e-6</v>
+        <v>-7.932579150472777e-6</v>
       </c>
       <c r="J68">
-        <v>0.0019406438944465</v>
+        <v>0.0019406438944461132</v>
       </c>
       <c r="K68">
-        <v>4.831377648328565e-5</v>
+        <v>4.831377648328106e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.83142357571606e-5</v>
       </c>
       <c r="G69">
-        <v>7.292022167472511</v>
+        <v>7.292022167470934</v>
       </c>
       <c r="H69">
-        <v>2.4222730355292567e-5</v>
+        <v>2.4222730355289477e-5</v>
       </c>
       <c r="I69">
-        <v>-7.5845466357066676e-6</v>
+        <v>-7.584546635705398e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019401192159346691</v>
+        <v>0.0019401192159342797</v>
       </c>
       <c r="K69">
-        <v>4.831423342253902e-5</v>
+        <v>4.831423342253439e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.831481705108507e-5</v>
       </c>
       <c r="G70">
-        <v>7.287185930658595</v>
+        <v>7.287185930657018</v>
       </c>
       <c r="H70">
-        <v>2.2436377175798447e-5</v>
+        <v>2.2436377175795344e-5</v>
       </c>
       <c r="I70">
-        <v>-7.1906602793211534e-6</v>
+        <v>-7.1906602793199075e-6</v>
       </c>
       <c r="J70">
-        <v>0.00193962791162405</v>
+        <v>0.0019396279116236576</v>
       </c>
       <c r="K70">
-        <v>4.8314814516443535e-5</v>
+        <v>4.831481451643887e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.831552013803617e-5</v>
       </c>
       <c r="G71">
-        <v>7.282636411491274</v>
+        <v>7.2826364114896975</v>
       </c>
       <c r="H71">
-        <v>2.0727932614112957e-5</v>
+        <v>2.0727932614109847e-5</v>
       </c>
       <c r="I71">
-        <v>-6.749177704162676e-6</v>
+        <v>-6.749177704161463e-6</v>
       </c>
       <c r="J71">
-        <v>0.0019391711432847532</v>
+        <v>0.001939171143284358</v>
       </c>
       <c r="K71">
-        <v>4.831551744205636e-5</v>
+        <v>4.831551744205167e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.831634260553248e-5</v>
       </c>
       <c r="G72">
-        <v>7.278374170202595</v>
+        <v>7.278374170201018</v>
       </c>
       <c r="H72">
-        <v>1.909906331580216e-5</v>
+        <v>1.909906331579905e-5</v>
       </c>
       <c r="I72">
-        <v>-6.258562681568168e-6</v>
+        <v>-6.258562681566994e-6</v>
       </c>
       <c r="J72">
-        <v>0.001938749911365604</v>
+        <v>0.0019387499113652062</v>
       </c>
       <c r="K72">
-        <v>4.8316339788043096e-5</v>
+        <v>4.831633978803838e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.8317281936639994e-5</v>
       </c>
       <c r="G73">
-        <v>7.274398796446119</v>
+        <v>7.274398796444543</v>
       </c>
       <c r="H73">
-        <v>1.7551081082106316e-5</v>
+        <v>1.755108108210321e-5</v>
       </c>
       <c r="I73">
-        <v>-5.717505982134934e-6</v>
+        <v>-5.717505982133806e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019383650377282876</v>
+        <v>0.0019383650377278875</v>
       </c>
       <c r="K73">
-        <v>4.831727903818557e-5</v>
+        <v>4.831727903818083e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.831833549704525e-5</v>
       </c>
       <c r="G74">
-        <v>7.270708856076907</v>
+        <v>7.270708856075331</v>
       </c>
       <c r="H74">
-        <v>1.6084915192184e-5</v>
+        <v>1.60849151921809e-5</v>
       </c>
       <c r="I74">
-        <v>-5.124942817492208e-6</v>
+        <v>-5.124942817491129e-6</v>
       </c>
       <c r="J74">
-        <v>0.0019380171512421987</v>
+        <v>0.0019380171512417962</v>
       </c>
       <c r="K74">
-        <v>4.831833255816353e-5</v>
+        <v>4.831833255815876e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.8319500526049084e-5</v>
       </c>
       <c r="G75">
-        <v>7.267301854551555</v>
+        <v>7.267301854549978</v>
       </c>
       <c r="H75">
-        <v>1.4701090429531685e-5</v>
+        <v>1.4701090429528591e-5</v>
       </c>
       <c r="I75">
-        <v>-4.480066545896107e-6</v>
+        <v>-4.480066545895087e-6</v>
       </c>
       <c r="J75">
-        <v>0.0019377066764740321</v>
+        <v>0.0019377066764736282</v>
       </c>
       <c r="K75">
-        <v>4.831949758743855e-5</v>
+        <v>4.831949758743375e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.832077413138364e-5</v>
       </c>
       <c r="G76">
-        <v>7.264174217603292</v>
+        <v>7.264174217601715</v>
       </c>
       <c r="H76">
-        <v>1.3399711977098824e-5</v>
+        <v>1.3399711977095739e-5</v>
       </c>
       <c r="I76">
-        <v>-3.7823381891759797e-6</v>
+        <v>-3.7823381891750213e-6</v>
       </c>
       <c r="J76">
-        <v>0.0019374338258108885</v>
+        <v>0.0019374338258104824</v>
       </c>
       <c r="K76">
-        <v>4.832077123291895e-5</v>
+        <v>4.8320771232914146e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.832215328774189e-5</v>
       </c>
       <c r="G77">
-        <v>7.261321289261404</v>
+        <v>7.261321289259827</v>
       </c>
       <c r="H77">
-        <v>1.2180456833469755e-5</v>
+        <v>1.2180456833466679e-5</v>
       </c>
       <c r="I77">
-        <v>-3.0314916538587066e-6</v>
+        <v>-3.0314916538578167e-6</v>
       </c>
       <c r="J77">
-        <v>0.001937198595380013</v>
+        <v>0.0019371985953796054</v>
       </c>
       <c r="K77">
-        <v>4.832215046794341e-5</v>
+        <v>4.832215046793859e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.83236348388967e-5</v>
       </c>
       <c r="G78">
-        <v>7.258737348325464</v>
+        <v>7.258737348323887</v>
       </c>
       <c r="H78">
-        <v>1.1042572597497138e-5</v>
+        <v>1.1042572597494068e-5</v>
       </c>
       <c r="I78">
-        <v>-2.227534478431093e-6</v>
+        <v>-2.2275344784302773e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019370007645200364</v>
+        <v>0.0019370007645196272</v>
       </c>
       <c r="K78">
-        <v>4.832363213480114e-5</v>
+        <v>4.8323632134796295e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.832521550327285e-5</v>
       </c>
       <c r="G79">
-        <v>7.2564156413966225</v>
+        <v>7.256415641395047</v>
       </c>
       <c r="H79">
-        <v>9.9848833462763e-6</v>
+        <v>9.98488334627324e-6</v>
       </c>
       <c r="I79">
-        <v>-1.3707441281949078e-6</v>
+        <v>-1.3707441281941716e-6</v>
       </c>
       <c r="J79">
-        <v>0.0019368398992957816</v>
+        <v>0.0019368398992953711</v>
       </c>
       <c r="K79">
-        <v>4.8325212949755745e-5</v>
+        <v>4.832521294975087e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.832689188281797e-5</v>
       </c>
       <c r="G80">
-        <v>7.254348433279757</v>
+        <v>7.2543484332781825</v>
       </c>
       <c r="H80">
-        <v>9.005802305201563e-6</v>
+        <v>9.00580230519851e-6</v>
       </c>
       <c r="I80">
-        <v>-4.616598253470772e-7</v>
+        <v>-4.6165982534642575e-7</v>
       </c>
       <c r="J80">
-        <v>0.0019367153594377804</v>
+        <v>0.0019367153594373682</v>
       </c>
       <c r="K80">
-        <v>4.832688951228489e-5</v>
+        <v>4.832688951228001e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.832866047499721e-5</v>
       </c>
       <c r="G81">
-        <v>7.252527072922899</v>
+        <v>7.252527072921325</v>
       </c>
       <c r="H81">
-        <v>8.103351373031379e-6</v>
+        <v>8.103351373028338e-6</v>
       </c>
       <c r="I81">
-        <v>4.989297987634474e-7</v>
+        <v>4.989297987640081e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019366263089555327</v>
+        <v>0.0019366263089551192</v>
       </c>
       <c r="K81">
-        <v>4.832865831708696e-5</v>
+        <v>4.832865831708204e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.8330517687708104e-5</v>
       </c>
       <c r="G82">
-        <v>7.250942073470129</v>
+        <v>7.250942073468556</v>
       </c>
       <c r="H82">
-        <v>7.275186716189268e-6</v>
+        <v>7.275186716186237e-6</v>
       </c>
       <c r="I82">
-        <v>1.5100029356979286e-6</v>
+        <v>1.5100029356983934e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019365717299494973</v>
+        <v>0.0019365717299490823</v>
       </c>
       <c r="K82">
-        <v>4.83305157688325e-5</v>
+        <v>4.8330515768827576e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.8332459856878173e-5</v>
       </c>
       <c r="G83">
-        <v>7.249583205492255</v>
+        <v>7.2495832054906835</v>
       </c>
       <c r="H83">
-        <v>6.518630126266373e-6</v>
+        <v>6.518630126263354e-6</v>
       </c>
       <c r="I83">
-        <v>2.570324459959913e-6</v>
+        <v>2.570324459960277e-6</v>
       </c>
       <c r="J83">
-        <v>0.001936550439197505</v>
+        <v>0.0019365504391970888</v>
       </c>
       <c r="K83">
-        <v>4.833245820012279e-5</v>
+        <v>4.833245820011783e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.833448326646839e-5</v>
       </c>
       <c r="G84">
-        <v>7.2484396006419365</v>
+        <v>7.248439600640367</v>
       </c>
       <c r="H84">
-        <v>5.830705006565834e-6</v>
+        <v>5.830705006562827e-6</v>
       </c>
       <c r="I84">
-        <v>3.678468837890045e-6</v>
+        <v>3.6784688378903053e-6</v>
       </c>
       <c r="J84">
-        <v>0.0019365611072302725</v>
+        <v>0.001936561107229855</v>
       </c>
       <c r="K84">
-        <v>4.833448189124353e-5</v>
+        <v>4.8334481891238544e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.8336584170560205e-5</v>
       </c>
       <c r="G85">
-        <v>7.247499864195736</v>
+        <v>7.247499864194169</v>
       </c>
       <c r="H85">
-        <v>5.208176556767914e-6</v>
+        <v>5.208176556764918e-6</v>
       </c>
       <c r="I85">
-        <v>4.832845615476491e-6</v>
+        <v>4.83284561547664e-6</v>
       </c>
       <c r="J85">
-        <v>0.001936602279351674</v>
+        <v>0.0019366022793512554</v>
       </c>
       <c r="K85">
-        <v>4.833658309266749e-5</v>
+        <v>4.83365830926625e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.83387588171577e-5</v>
       </c>
       <c r="G86">
-        <v>7.246752193882035</v>
+        <v>7.2467521938804715</v>
       </c>
       <c r="H86">
-        <v>4.647594922254288e-6</v>
+        <v>4.647594922251304e-6</v>
       </c>
       <c r="I86">
-        <v>6.03172686635246e-6</v>
+        <v>6.031726866352496e-6</v>
       </c>
       <c r="J86">
-        <v>0.001936672398012294</v>
+        <v>0.0019366723980118752</v>
       </c>
       <c r="K86">
-        <v>4.833875804847763e-5</v>
+        <v>4.833875804847261e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.834100347328858e-5</v>
       </c>
       <c r="G87">
-        <v>7.246184502734836</v>
+        <v>7.246184502733276</v>
       </c>
       <c r="H87">
-        <v>4.145340537636386e-6</v>
+        <v>4.145340537633414e-6</v>
       </c>
       <c r="I87">
-        <v>7.273276157892805e-6</v>
+        <v>7.273276157892725e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019367698261417154</v>
+        <v>0.0019367698261412956</v>
       </c>
       <c r="K87">
-        <v>4.834100302185426e-5</v>
+        <v>4.834100302184924e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.8343314450943705e-5</v>
       </c>
       <c r="G88">
-        <v>7.245784543269192</v>
+        <v>7.245784543267635</v>
       </c>
       <c r="H88">
-        <v>3.6976705116086783e-6</v>
+        <v>3.697670511605718e-6</v>
       </c>
       <c r="I88">
-        <v>8.555578093346161e-6</v>
+        <v>8.555578093345961e-6</v>
       </c>
       <c r="J88">
-        <v>0.0019368928707346423</v>
+        <v>0.001936892870734223</v>
       </c>
       <c r="K88">
-        <v>4.834331432103627e-5</v>
+        <v>4.834331432103122e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.834568813335738e-5</v>
       </c>
       <c r="G89">
-        <v>7.245540030684325</v>
+        <v>7.245540030682772</v>
       </c>
       <c r="H89">
-        <v>3.300765133460383e-6</v>
+        <v>3.3007651334574345e-6</v>
       </c>
       <c r="I89">
-        <v>9.876668112188837e-6</v>
+        <v>9.876668112188515e-6</v>
       </c>
       <c r="J89">
-        <v>0.001937039806279114</v>
+        <v>0.0019370398062786944</v>
       </c>
       <c r="K89">
-        <v>4.834568832556256e-5</v>
+        <v>4.8345688325557514e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.834812100110279e-5</v>
       </c>
       <c r="G90">
-        <v>7.245438762648396</v>
+        <v>7.245438762646847</v>
       </c>
       <c r="H90">
-        <v>2.950773504163334e-6</v>
+        <v>2.9507735041603965e-6</v>
       </c>
       <c r="I90">
-        <v>1.1234561779887252e-5</v>
+        <v>1.1234561779886801e-5</v>
       </c>
       <c r="J90">
-        <v>0.001937208897461284</v>
+        <v>0.0019372088974608651</v>
       </c>
       <c r="K90">
-        <v>4.8348121512500615e-5</v>
+        <v>4.8348121512495567e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.835060965746231e-5</v>
       </c>
       <c r="G91">
-        <v>7.245468733224883</v>
+        <v>7.245468733223339</v>
       </c>
       <c r="H91">
-        <v>2.6438573927317147e-6</v>
+        <v>2.6438573927287887e-6</v>
       </c>
       <c r="I91">
-        <v>1.2627282927912587e-5</v>
+        <v>1.2627282927912011e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019373984207000762</v>
+        <v>0.0019373984206996582</v>
       </c>
       <c r="K91">
-        <v>4.835061048186968e-5</v>
+        <v>4.8350610481864635e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.835315085253368e-5</v>
       </c>
       <c r="G92">
-        <v>7.2456182389252906</v>
+        <v>7.245618238923751</v>
       </c>
       <c r="H92">
-        <v>2.376232396985123e-6</v>
+        <v>2.3762323969822084e-6</v>
       </c>
       <c r="I92">
-        <v>1.4052890267975554e-5</v>
+        <v>1.4052890267974851e-5</v>
       </c>
       <c r="J92">
-        <v>0.001937606684106111</v>
+        <v>0.0019376066841056945</v>
       </c>
       <c r="K92">
-        <v>4.835315198073957e-5</v>
+        <v>4.8353151980734505e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.835574150555237e-5</v>
       </c>
       <c r="G93">
-        <v>7.245875975092082</v>
+        <v>7.245875975090548</v>
       </c>
       <c r="H93">
-        <v>2.1442058197967617e-6</v>
+        <v>2.144205819793858e-6</v>
       </c>
       <c r="I93">
-        <v>1.5509501839395397e-5</v>
+        <v>1.5509501839394564e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019378320455406</v>
+        <v>0.0019378320455401847</v>
       </c>
       <c r="K93">
-        <v>4.835574292565871e-5</v>
+        <v>4.8355742925653634e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.8358378724947304e-5</v>
       </c>
       <c r="G94">
-        <v>7.246231121013706</v>
+        <v>7.246231121012178</v>
       </c>
       <c r="H94">
-        <v>1.9442105065813087e-6</v>
+        <v>1.9442105065784165e-6</v>
       </c>
       <c r="I94">
-        <v>1.699531704931604e-5</v>
+        <v>1.6995317049315084e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019380729284915947</v>
+        <v>0.001938072928491181</v>
       </c>
       <c r="K94">
-        <v>4.835838042273545e-5</v>
+        <v>4.835838042273037e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.8361059825704476e-5</v>
       </c>
       <c r="G95">
-        <v>7.246673412387201</v>
+        <v>7.246673412385679</v>
       </c>
       <c r="H95">
-        <v>1.7728342172156052e-6</v>
+        <v>1.7728342172127238e-6</v>
       </c>
       <c r="I95">
-        <v>1.850863582931601e-5</v>
+        <v>1.850863582931493e-5</v>
       </c>
       <c r="J95">
-        <v>0.001938327835555614</v>
+        <v>0.0019383278355552015</v>
       </c>
       <c r="K95">
-        <v>4.836106178501228e-5</v>
+        <v>4.836106178500721e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.836378234368517e-5</v>
       </c>
       <c r="G96">
-        <v>7.2471932005795425</v>
+        <v>7.247193200578026</v>
       </c>
       <c r="H96">
-        <v>1.6268442172415787e-6</v>
+        <v>1.6268442172387087e-6</v>
       </c>
       <c r="I96">
-        <v>2.0047874789678822e-5</v>
+        <v>2.0047874789677623e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019385953594359836</v>
+        <v>0.0019385953594355733</v>
       </c>
       <c r="K96">
-        <v>4.836378454679492e-5</v>
+        <v>4.836378454678989e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.836654404663419e-5</v>
       </c>
       <c r="G97">
-        <v>7.247781498106593</v>
+        <v>7.247781498105084</v>
       </c>
       <c r="H97">
-        <v>1.5032068505899529e-6</v>
+        <v>1.503206850587095e-6</v>
       </c>
       <c r="I97">
-        <v>2.161158015982654e-5</v>
+        <v>2.1611580159825214e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019388741914311701</v>
+        <v>0.0019388741914307616</v>
       </c>
       <c r="K97">
-        <v>4.836654647469894e-5</v>
+        <v>4.8366546474693944e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.836934294171191e-5</v>
       </c>
       <c r="G98">
-        <v>7.248430009942605</v>
+        <v>7.248430009941102</v>
       </c>
       <c r="H98">
-        <v>1.3991020571170248e-6</v>
+        <v>1.3991020571141788e-6</v>
       </c>
       <c r="I98">
-        <v>2.319843754780835e-5</v>
+        <v>2.31984375478069e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019391631273631045</v>
+        <v>0.0019391631273626981</v>
       </c>
       <c r="K98">
-        <v>4.836934557515597e-5</v>
+        <v>4.836934557515104e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.8372177279489506e-5</v>
       </c>
       <c r="G99">
-        <v>7.249131151546334</v>
+        <v>7.249131151544838</v>
       </c>
       <c r="H99">
-        <v>1.311932933982115e-6</v>
+        <v>1.3119329339792815e-6</v>
       </c>
       <c r="I99">
-        <v>2.480727856100474e-5</v>
+        <v>2.4807278561003167e-5</v>
       </c>
       <c r="J99">
-        <v>0.001939461071147096</v>
+        <v>0.0019394610711466918</v>
       </c>
       <c r="K99">
-        <v>4.837218009836255e-5</v>
+        <v>4.837218009835767e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.8375045554453876e-5</v>
       </c>
       <c r="G100">
-        <v>7.249878053687798</v>
+        <v>7.249878053686309</v>
       </c>
       <c r="H100">
-        <v>1.239330538779305e-6</v>
+        <v>1.2393305387764837e-6</v>
       </c>
       <c r="I100">
-        <v>2.643708420289006e-5</v>
+        <v>2.6437084202888363e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019397670360718868</v>
+        <v>0.0019397670360714846</v>
       </c>
       <c r="K100">
-        <v>4.837504853882304e-5</v>
+        <v>4.837504853881821e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.837794650217234e-5</v>
       </c>
       <c r="G101">
-        <v>7.250664555407912</v>
+        <v>7.250664555406431</v>
       </c>
       <c r="H101">
-        <v>1.1791542832787055e-6</v>
+        <v>1.1791542832758968e-6</v>
       </c>
       <c r="I101">
-        <v>2.8086985657905065e-5</v>
+        <v>2.8086985657903243e-5</v>
       </c>
       <c r="J101">
-        <v>0.001940080144023097</v>
+        <v>0.001940080144022697</v>
       </c>
       <c r="K101">
-        <v>4.83779496324518e-5</v>
+        <v>4.837794963244701e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3970,19 +3970,19 @@
         <v>4.838087909336259e-5</v>
       </c>
       <c r="G102">
-        <v>7.251485186040303</v>
+        <v>7.251485186038829</v>
       </c>
       <c r="H102">
-        <v>1.1294883205617704e-6</v>
+        <v>1.1294883205589743e-6</v>
       </c>
       <c r="I102">
-        <v>2.9756262312174807e-5</v>
+        <v>2.9756262312172866e-5</v>
       </c>
       <c r="J102">
-        <v>0.0019403996228969098</v>
+        <v>0.0019403996228965132</v>
       </c>
       <c r="K102">
-        <v>4.8380882350590664e-5</v>
+        <v>4.8380882350585934e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.838384252519602e-5</v>
       </c>
       <c r="G103">
-        <v>7.252335137928757</v>
+        <v>7.252335137927291</v>
       </c>
       <c r="H103">
-        <v>1.0886344338129828e-6</v>
+        <v>1.0886344338101994e-6</v>
       </c>
       <c r="I103">
-        <v>3.1444337532102744e-5</v>
+        <v>3.1444337532100684e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019407248024506227</v>
+        <v>0.0019407248024502285</v>
       </c>
       <c r="K103">
-        <v>4.838384589126949e-5</v>
+        <v>4.838384589126484e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4040,19 +4040,19 @@
         <v>4.838683621022844e-5</v>
       </c>
       <c r="G104">
-        <v>7.253210231408154</v>
+        <v>7.253210231406696</v>
       </c>
       <c r="H104">
-        <v>1.0551019712750523e-6</v>
+        <v>1.055101971272282e-6</v>
       </c>
       <c r="I104">
-        <v>3.3150772629566106e-5</v>
+        <v>3.315077262956393e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019410551088814602</v>
+        <v>0.0019410551088810692</v>
       </c>
       <c r="K104">
-        <v>4.838683966811442e-5</v>
+        <v>4.8386839668109816e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4075,19 +4075,19 @@
         <v>4.838985976340012e-5</v>
       </c>
       <c r="G105">
-        <v>7.2541068734273075</v>
+        <v>7.254106873425858</v>
       </c>
       <c r="H105">
-        <v>1.0275954094816175e-6</v>
+        <v>1.0275954094788604e-6</v>
       </c>
       <c r="I105">
-        <v>3.487525903846134e-5</v>
+        <v>3.4875259038459046e-5</v>
       </c>
       <c r="J105">
-        <v>0.001941390058410868</v>
+        <v>0.0019413900584104805</v>
       </c>
       <c r="K105">
-        <v>4.8389863297298835e-5</v>
+        <v>4.838986329729428e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4110,19 +4110,19 @@
         <v>4.839291298757361e-5</v>
       </c>
       <c r="G106">
-        <v>7.255022011792276</v>
+        <v>7.2550220117908335</v>
       </c>
       <c r="H106">
-        <v>1.0050001212637362e-6</v>
+        <v>1.0050001212609923e-6</v>
       </c>
       <c r="I106">
-        <v>3.6617609533912424e-5</v>
+        <v>3.6617609533910004e-5</v>
       </c>
       <c r="J106">
-        <v>0.0019417292501578743</v>
+        <v>0.0019417292501574908</v>
       </c>
       <c r="K106">
-        <v>4.839291658299429e-5</v>
+        <v>4.839291658298979e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4145,19 +4145,19 @@
         <v>4.839599585808471e-5</v>
       </c>
       <c r="G107">
-        <v>7.255953086495537</v>
+        <v>7.255953086494103</v>
       </c>
       <c r="H107">
-        <v>9.863669289594356e-7</v>
+        <v>9.863669289567052e-7</v>
       </c>
       <c r="I107">
-        <v>3.837774860645478e-5</v>
+        <v>3.8377748606452234e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019420723585774078</v>
+        <v>0.0019420723585770279</v>
       </c>
       <c r="K107">
-        <v>4.8395999501936355e-5</v>
+        <v>4.83959995019319e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4180,19 +4180,19 @@
         <v>4.839910850676947e-5</v>
       </c>
       <c r="G108">
-        <v>7.256897979577268</v>
+        <v>7.256897979575842</v>
       </c>
       <c r="H108">
-        <v>9.708959765355606e-7</v>
+        <v>9.708959765328436e-7</v>
       </c>
       <c r="I108">
-        <v>4.015570215512093e-5</v>
+        <v>4.015570215511826e-5</v>
       </c>
       <c r="J108">
-        <v>0.001942419125717979</v>
+        <v>0.001942419125717603</v>
       </c>
       <c r="K108">
-        <v>4.839911218738427e-5</v>
+        <v>4.839911218737986e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.840225120589959e-5</v>
       </c>
       <c r="G109">
-        <v>7.257854965064397</v>
+        <v>7.25785496506298</v>
       </c>
       <c r="H109">
-        <v>9.57920411152948e-7</v>
+        <v>9.57920411150245e-7</v>
       </c>
       <c r="I109">
-        <v>4.195158728064265e-5</v>
+        <v>4.195158728063985e-5</v>
       </c>
       <c r="J109">
-        <v>0.0019427693534696101</v>
+        <v>0.0019427693534692374</v>
       </c>
       <c r="K109">
-        <v>4.840225491293723e-5</v>
+        <v>4.840225491293282e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4250,19 +4250,19 @@
         <v>4.840542435241482e-5</v>
       </c>
       <c r="G110">
-        <v>7.2588226601953725</v>
+        <v>7.258822660193963</v>
       </c>
       <c r="H110">
-        <v>9.46890308013234e-7</v>
+        <v>9.468903080105449e-7</v>
       </c>
       <c r="I110">
-        <v>4.376560215194396e-5</v>
+        <v>4.376560215194106e-5</v>
       </c>
       <c r="J110">
-        <v>0.001943122896054849</v>
+        <v>0.0019431228960544791</v>
       </c>
       <c r="K110">
-        <v>4.8405428076873355e-5</v>
+        <v>4.840542807686896e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.840862845278524e-5</v>
       </c>
       <c r="G111">
-        <v>7.259799978588913</v>
+        <v>7.2597999785875125</v>
       </c>
       <c r="H111">
-        <v>9.373572016440908e-7</v>
+        <v>9.373572016414158e-7</v>
       </c>
       <c r="I111">
-        <v>4.559801609742588e-5</v>
+        <v>4.559801609742288e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019434796528841624</v>
+        <v>0.0019434796528837951</v>
       </c>
       <c r="K111">
-        <v>4.840863218693161e-5</v>
+        <v>4.840863218692722e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.8411864108774024e-5</v>
       </c>
       <c r="G112">
-        <v>7.2607860866263545</v>
+        <v>7.260786086624962</v>
       </c>
       <c r="H112">
-        <v>9.289595105186416e-7</v>
+        <v>9.289595105159804e-7</v>
       </c>
       <c r="I112">
-        <v>4.7449160459465e-5</v>
+        <v>4.744916045946187e-5</v>
       </c>
       <c r="J112">
-        <v>0.001943839561851678</v>
+        <v>0.0019438395618513128</v>
       </c>
       <c r="K112">
-        <v>4.841186784601368e-5</v>
+        <v>4.84118678460093e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4355,19 +4355,19 @@
         <v>4.841513200430585e-5</v>
       </c>
       <c r="G113">
-        <v>7.26178036331952</v>
+        <v>7.261780363318136</v>
       </c>
       <c r="H113">
-        <v>9.214090755908817e-7</v>
+        <v>9.214090755882347e-7</v>
       </c>
       <c r="I113">
-        <v>4.931942002676344e-5</v>
+        <v>4.9319420026760206e-5</v>
       </c>
       <c r="J113">
-        <v>0.0019442025932781928</v>
+        <v>0.00194420259327783</v>
       </c>
       <c r="K113">
-        <v>4.8415135739121084e-5</v>
+        <v>4.841513573911671e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4390,19 +4390,19 @@
         <v>4.841843289358045e-5</v>
       </c>
       <c r="G114">
-        <v>7.262782364114282</v>
+        <v>7.2627823641129075</v>
       </c>
       <c r="H114">
-        <v>9.144789560574908e-7</v>
+        <v>9.144789560548579e-7</v>
       </c>
       <c r="I114">
-        <v>5.12092253173579e-5</v>
+        <v>5.120922531735456e-5</v>
       </c>
       <c r="J114">
-        <v>0.0019445687443897497</v>
+        <v>0.0019445687443893896</v>
       </c>
       <c r="K114">
-        <v>4.8418436621370863e-5</v>
+        <v>4.841843662136649e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4425,19 +4425,19 @@
         <v>4.842176759050914e-5</v>
       </c>
       <c r="G115">
-        <v>7.263791788653922</v>
+        <v>7.263791788652556</v>
       </c>
       <c r="H115">
-        <v>9.079925620846551e-7</v>
+        <v>9.079925620820361e-7</v>
       </c>
       <c r="I115">
-        <v>5.311904566036863e-5</v>
+        <v>5.311904566036518e-5</v>
       </c>
       <c r="J115">
-        <v>0.0019449380344941192</v>
+        <v>0.0019449380344937607</v>
       </c>
       <c r="K115">
-        <v>4.84217713074983e-5</v>
+        <v>4.842177130749395e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.842513695949656e-5</v>
       </c>
       <c r="G116">
-        <v>7.264808453006385</v>
+        <v>7.264808453005028</v>
       </c>
       <c r="H116">
-        <v>9.018141460316458e-7</v>
+        <v>9.018141460290411e-7</v>
       </c>
       <c r="I116">
-        <v>5.504938328556657e-5</v>
+        <v>5.504938328556303e-5</v>
       </c>
       <c r="J116">
-        <v>0.0019453105007823822</v>
+        <v>0.0019453105007820263</v>
       </c>
       <c r="K116">
-        <v>4.8425140662600374e-5</v>
+        <v>4.8425140662596023e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4495,19 +4495,19 @@
         <v>4.842854190754162e-5</v>
       </c>
       <c r="G117">
-        <v>7.265832265581975</v>
+        <v>7.2658322655806264</v>
       </c>
       <c r="H117">
-        <v>8.958406234776854e-7</v>
+        <v>8.958406234750951e-7</v>
       </c>
       <c r="I117">
-        <v>5.700076813608604e-5</v>
+        <v>5.700076813608238e-5</v>
       </c>
       <c r="J117">
-        <v>0.0019456861947357623</v>
+        <v>0.0019456861947354078</v>
       </c>
       <c r="K117">
-        <v>4.842854559425626e-5</v>
+        <v>4.8428545594251924e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4530,19 +4530,19 @@
         <v>4.843198337759362e-5</v>
       </c>
       <c r="G118">
-        <v>7.266863207012089</v>
+        <v>7.26686320701075</v>
       </c>
       <c r="H118">
-        <v>8.899946575387756e-7</v>
+        <v>8.899946575361998e-7</v>
       </c>
       <c r="I118">
-        <v>5.897375356447567e-5</v>
+        <v>5.897375356447191e-5</v>
       </c>
       <c r="J118">
-        <v>0.0019460651791177194</v>
+        <v>0.0019460651791173664</v>
       </c>
       <c r="K118">
-        <v>4.8431987045929546e-5</v>
+        <v>4.843198704592521e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4565,19 +4565,19 @@
         <v>4.8435462343069855e-5</v>
       </c>
       <c r="G119">
-        <v>7.26790131331934</v>
+        <v>7.26790131331801</v>
       </c>
       <c r="H119">
-        <v>8.842189082388051e-7</v>
+        <v>8.842189082362438e-7</v>
       </c>
       <c r="I119">
-        <v>6.096891276447498e-5</v>
+        <v>6.096891276447109e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019464475255012226</v>
+        <v>0.0019464475255008711</v>
       </c>
       <c r="K119">
-        <v>4.8435465991402854e-5</v>
+        <v>4.8435465991398524e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4600,19 +4600,19 @@
         <v>4.843897980342168e-5</v>
       </c>
       <c r="G120">
-        <v>7.268946662298333</v>
+        <v>7.2689466622970125</v>
       </c>
       <c r="H120">
-        <v>8.784713327312695e-7</v>
+        <v>8.784713327287231e-7</v>
       </c>
       <c r="I120">
-        <v>6.298683586455847e-5</v>
+        <v>6.29868358645545e-5</v>
       </c>
       <c r="J120">
-        <v>0.0019468333122412726</v>
+        <v>0.0019468333122409235</v>
       </c>
       <c r="K120">
-        <v>4.843898343048021e-5</v>
+        <v>4.84389834304759e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4635,19 +4635,19 @@
         <v>4.844253678062505e-5</v>
       </c>
       <c r="G121">
-        <v>7.269999362679296</v>
+        <v>7.269999362677984</v>
       </c>
       <c r="H121">
-        <v>8.727214082792075e-7</v>
+        <v>8.727214082766763e-7</v>
       </c>
       <c r="I121">
-        <v>6.50281277288307e-5</v>
+        <v>6.502812772882664e-5</v>
       </c>
       <c r="J121">
-        <v>0.0019472226228810726</v>
+        <v>0.0019472226228807255</v>
       </c>
       <c r="K121">
-        <v>4.844254038536377e-5</v>
+        <v>4.844254038535947e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4670,19 +4670,19 @@
         <v>4.844613431646795e-5</v>
       </c>
       <c r="G122">
-        <v>7.2710595454258256</v>
+        <v>7.2710595454245235</v>
       </c>
       <c r="H122">
-        <v>8.669471494983309e-7</v>
+        <v>8.669471494958148e-7</v>
       </c>
       <c r="I122">
-        <v>6.709340618664606e-5</v>
+        <v>6.709340618664191e-5</v>
       </c>
       <c r="J122">
-        <v>0.0019476155449136532</v>
+        <v>0.001947615544913308</v>
       </c>
       <c r="K122">
-        <v>4.844613789807046e-5</v>
+        <v>4.844613789806616e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4705,19 +4705,19 @@
         <v>4.844977347051021e-5</v>
       </c>
       <c r="G123">
-        <v>7.272127357056943</v>
+        <v>7.272127357055651</v>
       </c>
       <c r="H123">
-        <v>8.611327934333913e-7</v>
+        <v>8.611327934308908e-7</v>
       </c>
       <c r="I123">
-        <v>6.91833006101695e-5</v>
+        <v>6.918330061016524e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019480121687980281</v>
+        <v>0.0019480121687976853</v>
       </c>
       <c r="K123">
-        <v>4.8449777028262523e-5</v>
+        <v>4.8449777028258234e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4740,19 +4740,19 @@
         <v>4.8453455318598734e-5</v>
       </c>
       <c r="G124">
-        <v>7.2732029546462735</v>
+        <v>7.273202954644992</v>
       </c>
       <c r="H124">
-        <v>8.552670347406254e-7</v>
+        <v>8.552670347381409e-7</v>
       </c>
       <c r="I124">
-        <v>7.129845107506889e-5</v>
+        <v>7.129845107506454e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019484125872324008</v>
+        <v>0.0019484125872320603</v>
       </c>
       <c r="K124">
-        <v>4.845345885192871e-5</v>
+        <v>4.8453458851924405e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4775,19 +4775,19 @@
         <v>4.845718095183204e-5</v>
       </c>
       <c r="G125">
-        <v>7.27428650194536</v>
+        <v>7.274286501944087</v>
       </c>
       <c r="H125">
-        <v>8.493417042981412e-7</v>
+        <v>8.49341704295673e-7</v>
       </c>
       <c r="I125">
-        <v>7.343950766436958e-5</v>
+        <v>7.343950766436514e-5</v>
       </c>
       <c r="J125">
-        <v>0.0019488168946431006</v>
+        <v>0.0019488168946427626</v>
       </c>
       <c r="K125">
-        <v>4.8457184460210494e-5</v>
+        <v>4.8457184460206204e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4810,19 +4810,19 @@
         <v>4.8460951475881014e-5</v>
       </c>
       <c r="G126">
-        <v>7.275378166612341</v>
+        <v>7.275378166611079</v>
       </c>
       <c r="H126">
-        <v>8.433507985961241e-7</v>
+        <v>8.433507985936722e-7</v>
       </c>
       <c r="I126">
-        <v>7.56071299920532e-5</v>
+        <v>7.560712999204867e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019492251867688354</v>
+        <v>0.0019492251867685008</v>
       </c>
       <c r="K126">
-        <v>4.8460954958854384e-5</v>
+        <v>4.846095495885009e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.8464768010586255e-5</v>
       </c>
       <c r="G127">
-        <v>7.276478118258676</v>
+        <v>7.276478118257424</v>
       </c>
       <c r="H127">
-        <v>8.372897790454312e-7</v>
+        <v>8.37289779042996e-7</v>
       </c>
       <c r="I127">
-        <v>7.780198702161244e-5</v>
+        <v>7.780198702160782e-5</v>
       </c>
       <c r="J127">
-        <v>0.001949637560419178</v>
+        <v>0.0019496375604188465</v>
       </c>
       <c r="K127">
-        <v>4.84647714677273e-5</v>
+        <v>4.846477146772301e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4880,19 +4880,19 @@
         <v>4.846863168976607e-5</v>
       </c>
       <c r="G128">
-        <v>7.2775865269201345</v>
+        <v>7.277586526918893</v>
       </c>
       <c r="H128">
-        <v>8.311550767746725e-7</v>
+        <v>8.311550767722542e-7</v>
       </c>
       <c r="I128">
-        <v>8.002475689057686e-5</v>
+        <v>8.002475689057217e-5</v>
       </c>
       <c r="J128">
-        <v>0.0019500541132643939</v>
+        <v>0.001950054113264065</v>
       </c>
       <c r="K128">
-        <v>4.8468635120679685e-5</v>
+        <v>4.846863512067537e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4915,19 +4915,19 @@
         <v>4.847254366118166e-5</v>
       </c>
       <c r="G129">
-        <v>7.278703562044857</v>
+        <v>7.278703562043626</v>
       </c>
       <c r="H129">
-        <v>8.249437492440092e-7</v>
+        <v>8.24943749241608e-7</v>
       </c>
       <c r="I129">
-        <v>8.227612687459873e-5</v>
+        <v>8.227612687459394e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019504749437390524</v>
+        <v>0.0019504749437387263</v>
       </c>
       <c r="K129">
-        <v>4.847254706548283e-5</v>
+        <v>4.847254706547851e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,19 +4950,19 @@
         <v>4.847650508661744e-5</v>
       </c>
       <c r="G130">
-        <v>7.2798293919468815</v>
+        <v>7.279829391945662</v>
       </c>
       <c r="H130">
-        <v>8.186532464928103e-7</v>
+        <v>8.186532464904267e-7</v>
       </c>
       <c r="I130">
-        <v>8.455679354260606e-5</v>
+        <v>8.45567935426012e-5</v>
       </c>
       <c r="J130">
-        <v>0.0019509001509482819</v>
+        <v>0.001950900150947959</v>
       </c>
       <c r="K130">
-        <v>4.847650846391924e-5</v>
+        <v>4.8476508463914935e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4985,19 +4985,19 @@
         <v>4.84805171420442e-5</v>
       </c>
       <c r="G131">
-        <v>7.280964183155658</v>
+        <v>7.280964183154448</v>
       </c>
       <c r="H131">
-        <v>8.122812558358143e-7</v>
+        <v>8.122812558334483e-7</v>
       </c>
       <c r="I131">
-        <v>8.68674628133559e-5</v>
+        <v>8.686746281335096e-5</v>
       </c>
       <c r="J131">
-        <v>0.0019513298346321034</v>
+        <v>0.0019513298346317835</v>
       </c>
       <c r="K131">
-        <v>4.848052049197274e-5</v>
+        <v>4.8480520491968444e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5020,19 +5020,19 @@
         <v>4.848458101784086e-5</v>
       </c>
       <c r="G132">
-        <v>7.282108100145663</v>
+        <v>7.282108100144464</v>
       </c>
       <c r="H132">
-        <v>8.058256005136737e-7</v>
+        <v>8.058256005113252e-7</v>
       </c>
       <c r="I132">
-        <v>8.920885006995647e-5</v>
+        <v>8.920885006995147e-5</v>
       </c>
       <c r="J132">
-        <v>0.0019517640951458352</v>
+        <v>0.0019517640951455173</v>
       </c>
       <c r="K132">
-        <v>4.848458434000927e-5</v>
+        <v>4.848458434000499e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5055,19 +5055,19 @@
         <v>4.848869791905721e-5</v>
       </c>
       <c r="G133">
-        <v>7.283261305165776</v>
+        <v>7.283261305164588</v>
       </c>
       <c r="H133">
-        <v>7.992841748502618e-7</v>
+        <v>7.992841748479311e-7</v>
       </c>
       <c r="I133">
-        <v>9.158168040604524e-5</v>
+        <v>9.158168040604013e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019522030334477801</v>
+        <v>0.0019522030334474653</v>
       </c>
       <c r="K133">
-        <v>4.848870121305653e-5</v>
+        <v>4.84887012130523e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5090,19 +5090,19 @@
         <v>4.8492869065705104e-5</v>
       </c>
       <c r="G134">
-        <v>7.28442395803617</v>
+        <v>7.284423958034993</v>
       </c>
       <c r="H134">
-        <v>7.926549037968878e-7</v>
+        <v>7.926549037945753e-7</v>
       </c>
       <c r="I134">
-        <v>9.398668880828555e-5</v>
+        <v>9.398668880828036e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019526467511229186</v>
+        <v>0.0019526467511226065</v>
       </c>
       <c r="K134">
-        <v>4.849287233116764e-5</v>
+        <v>4.849287233116342e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5125,19 +5125,19 @@
         <v>4.8497095693069374e-5</v>
       </c>
       <c r="G135">
-        <v>7.285596215975367</v>
+        <v>7.285596215974201</v>
       </c>
       <c r="H135">
-        <v>7.859357178597258e-7</v>
+        <v>7.859357178574316e-7</v>
       </c>
       <c r="I135">
-        <v>9.642462031008402e-5</v>
+        <v>9.642462031007874e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019530953503704104</v>
+        <v>0.0019530953503701005</v>
       </c>
       <c r="K135">
-        <v>4.849709892958996e-5</v>
+        <v>4.8497098929585756e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5160,19 +5160,19 @@
         <v>4.850137905203261e-5</v>
       </c>
       <c r="G136">
-        <v>7.286778233626484</v>
+        <v>7.28677823362533</v>
       </c>
       <c r="H136">
-        <v>7.791245387302843e-7</v>
+        <v>7.791245387280089e-7</v>
       </c>
       <c r="I136">
-        <v>9.889623029180666e-5</v>
+        <v>9.889623029180129e-5</v>
       </c>
       <c r="J136">
-        <v>0.0019535489340411407</v>
+        <v>0.0019535489340408332</v>
       </c>
       <c r="K136">
-        <v>4.850138225917344e-5</v>
+        <v>4.850138225916926e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5195,19 +5195,19 @@
         <v>4.8505720409410075e-5</v>
       </c>
       <c r="G137">
-        <v>7.287970162900715</v>
+        <v>7.287970162899571</v>
       </c>
       <c r="H137">
-        <v>7.7221926944713e-7</v>
+        <v>7.722192694448737e-7</v>
       </c>
       <c r="I137">
-        <v>0.00010140228469317137</v>
+        <v>0.00010140228469316587</v>
       </c>
       <c r="J137">
-        <v>0.001954007605635297</v>
+        <v>0.0019540076056349925</v>
       </c>
       <c r="K137">
-        <v>4.850572358675585e-5</v>
+        <v>4.8505723586751684e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5230,19 +5230,19 @@
         <v>4.851012104829226e-5</v>
       </c>
       <c r="G138">
-        <v>7.289172152927599</v>
+        <v>7.289172152926468</v>
       </c>
       <c r="H138">
-        <v>7.652177899938723e-7</v>
+        <v>7.652177899916355e-7</v>
       </c>
       <c r="I138">
-        <v>0.00010394356019196166</v>
+        <v>0.00010394356019195603</v>
       </c>
       <c r="J138">
-        <v>0.001954471469335548</v>
+        <v>0.0019544714693352466</v>
       </c>
       <c r="K138">
-        <v>4.851012419542791e-5</v>
+        <v>4.851012419542376e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5265,19 +5265,19 @@
         <v>4.851458226839367e-5</v>
       </c>
       <c r="G139">
-        <v>7.290384349980992</v>
+        <v>7.290384349979872</v>
       </c>
       <c r="H139">
-        <v>7.581179533406762e-7</v>
+        <v>7.581179533384593e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010652084451867648</v>
+        <v>0.00010652084451867076</v>
       </c>
       <c r="J139">
-        <v>0.0019549406300289006</v>
+        <v>0.0019549406300286027</v>
       </c>
       <c r="K139">
-        <v>4.851458538488642e-5</v>
+        <v>4.8514585384882315e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5300,19 +5300,19 @@
         <v>4.851910538640686e-5</v>
       </c>
       <c r="G140">
-        <v>7.2916068974447965</v>
+        <v>7.291606897443688</v>
       </c>
       <c r="H140">
-        <v>7.509175837962694e-7</v>
+        <v>7.509175837940723e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010913493663780645</v>
+        <v>0.00010913493663780063</v>
       </c>
       <c r="J140">
-        <v>0.001955415193324016</v>
+        <v>0.0019554151933237206</v>
       </c>
       <c r="K140">
-        <v>4.851910847181732e-5</v>
+        <v>4.8519108471813225e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,19 +5335,19 @@
         <v>4.852369173636157e-5</v>
       </c>
       <c r="G141">
-        <v>7.29283993569113</v>
+        <v>7.292839935690034</v>
       </c>
       <c r="H141">
-        <v>7.436144757411031e-7</v>
+        <v>7.43614475738926e-7</v>
       </c>
       <c r="I141">
-        <v>0.00011178664703369758</v>
+        <v>0.00011178664703369167</v>
       </c>
       <c r="J141">
-        <v>0.001955895265574307</v>
+        <v>0.001955895265574014</v>
       </c>
       <c r="K141">
-        <v>4.852369479025534e-5</v>
+        <v>4.852369479025128e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5370,19 +5370,19 @@
         <v>4.852834266998833e-5</v>
       </c>
       <c r="G142">
-        <v>7.294083602063729</v>
+        <v>7.294083602062645</v>
       </c>
       <c r="H142">
-        <v>7.362063921566118e-7</v>
+        <v>7.36206392154455e-7</v>
       </c>
       <c r="I142">
-        <v>0.00011447679793152937</v>
+        <v>0.00011447679793152339</v>
       </c>
       <c r="J142">
-        <v>0.001956380953890911</v>
+        <v>0.0019563809538906203</v>
       </c>
       <c r="K142">
-        <v>4.852834569189778e-5</v>
+        <v>4.852834569189376e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5405,19 +5405,19 @@
         <v>4.853305955708682e-5</v>
       </c>
       <c r="G143">
-        <v>7.295338030821172</v>
+        <v>7.2953380308201</v>
       </c>
       <c r="H143">
-        <v>7.286910641722486e-7</v>
+        <v>7.286910641701126e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011720622358715566</v>
+        <v>0.00011720622358714954</v>
       </c>
       <c r="J143">
-        <v>0.001956872366193445</v>
+        <v>0.001956872366193158</v>
       </c>
       <c r="K143">
-        <v>4.853306254653791e-5</v>
+        <v>4.853306254653391e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5440,19 +5440,19 @@
         <v>4.853784378589879e-5</v>
       </c>
       <c r="G144">
-        <v>7.296603353004634</v>
+        <v>7.296603353003575</v>
       </c>
       <c r="H144">
-        <v>7.210661901479792e-7</v>
+        <v>7.210661901458643e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011997577048367553</v>
+        <v>0.00011997577048366931</v>
       </c>
       <c r="J144">
-        <v>0.0019573696112024654</v>
+        <v>0.001957369611202182</v>
       </c>
       <c r="K144">
-        <v>4.853784674242162e-5</v>
+        <v>4.8537846742417664e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5475,19 +5475,19 @@
         <v>4.8542696763485664e-5</v>
       </c>
       <c r="G145">
-        <v>7.297879696452206</v>
+        <v>7.29787969645116</v>
       </c>
       <c r="H145">
-        <v>7.133294348015736e-7</v>
+        <v>7.133294347994802e-7</v>
       </c>
       <c r="I145">
-        <v>0.00012278629771165492</v>
+        <v>0.00012278629771164857</v>
       </c>
       <c r="J145">
-        <v>0.001957872798482289</v>
+        <v>0.0019578727984820086</v>
       </c>
       <c r="K145">
-        <v>4.8542699686590625e-5</v>
+        <v>4.854269968658672e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5510,19 +5510,19 @@
         <v>4.854761991611099e-5</v>
       </c>
       <c r="G146">
-        <v>7.299167185708461</v>
+        <v>7.299167185707428</v>
       </c>
       <c r="H146">
-        <v>7.054784287744072e-7</v>
+        <v>7.054784287723356e-7</v>
       </c>
       <c r="I146">
-        <v>0.00012563867706202257</v>
+        <v>0.00012563867706201612</v>
       </c>
       <c r="J146">
-        <v>0.001958382038470232</v>
+        <v>0.001958382038469955</v>
       </c>
       <c r="K146">
-        <v>4.854762280530921e-5</v>
+        <v>4.854762280530536e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5545,19 +5545,19 @@
         <v>4.8552614689627674e-5</v>
       </c>
       <c r="G147">
-        <v>7.300465941874136</v>
+        <v>7.300465941873116</v>
       </c>
       <c r="H147">
-        <v>6.975107675111837e-7</v>
+        <v>6.975107675091343e-7</v>
       </c>
       <c r="I147">
-        <v>0.0001285337934671975</v>
+        <v>0.0001285337934671909</v>
       </c>
       <c r="J147">
-        <v>0.0019588974424838987</v>
+        <v>0.001958897442483625</v>
       </c>
       <c r="K147">
-        <v>4.855261754441851e-5</v>
+        <v>4.855261754441471e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5580,19 +5580,19 @@
         <v>4.85576825498703e-5</v>
       </c>
       <c r="G148">
-        <v>7.301776082676417</v>
+        <v>7.30177608267541</v>
       </c>
       <c r="H148">
-        <v>6.894240109786931e-7</v>
+        <v>6.894240109766663e-7</v>
       </c>
       <c r="I148">
-        <v>0.00013147254515874065</v>
+        <v>0.00013147254515873387</v>
       </c>
       <c r="J148">
-        <v>0.0019594191227569734</v>
+        <v>0.001959419122756704</v>
       </c>
       <c r="K148">
-        <v>4.855768536974199e-5</v>
+        <v>4.8557685369738253e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>4.8562824983052474e-5</v>
       </c>
       <c r="G149">
-        <v>7.303097722276942</v>
+        <v>7.3030977222759486</v>
       </c>
       <c r="H149">
-        <v>6.812156824124023e-7</v>
+        <v>6.812156824103986e-7</v>
       </c>
       <c r="I149">
-        <v>0.00013445584400080063</v>
+        <v>0.00013445584400079375</v>
       </c>
       <c r="J149">
-        <v>0.001959947192476863</v>
+        <v>0.0019599471924765972</v>
       </c>
       <c r="K149">
-        <v>4.856282776749829e-5</v>
+        <v>4.8562827767494604e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5650,19 +5650,19 @@
         <v>4.856804349616955e-5</v>
       </c>
       <c r="G150">
-        <v>7.304430971262922</v>
+        <v>7.304430971261941</v>
       </c>
       <c r="H150">
-        <v>6.728832680377273e-7</v>
+        <v>6.728832680357471e-7</v>
       </c>
       <c r="I150">
-        <v>0.00013748461575116162</v>
+        <v>0.0001374846157511546</v>
       </c>
       <c r="J150">
-        <v>0.0019604817657862257</v>
+        <v>0.0019604817657859638</v>
       </c>
       <c r="K150">
-        <v>4.8568046244666855e-5</v>
+        <v>4.856804624466323e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.857333961740653e-5</v>
       </c>
       <c r="G151">
-        <v>7.305775936497034</v>
+        <v>7.305775936496068</v>
       </c>
       <c r="H151">
-        <v>6.644242159567743e-7</v>
+        <v>6.64424215954818e-7</v>
       </c>
       <c r="I151">
-        <v>0.00014055980034719505</v>
+        <v>0.00014055980034718786</v>
       </c>
       <c r="J151">
-        <v>0.001961022957827542</v>
+        <v>0.0019610229578272834</v>
       </c>
       <c r="K151">
-        <v>4.857334232941599e-5</v>
+        <v>4.857334232941242e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5720,19 +5720,19 @@
         <v>4.857871489655166e-5</v>
       </c>
       <c r="G152">
-        <v>7.307132721150101</v>
+        <v>7.307132721149149</v>
       </c>
       <c r="H152">
-        <v>6.55835935591733e-7</v>
+        <v>6.558359355898007e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014368235218042614</v>
+        <v>0.00014368235218041887</v>
       </c>
       <c r="J152">
-        <v>0.0019615708847740524</v>
+        <v>0.0019615708847737982</v>
       </c>
       <c r="K152">
-        <v>4.857871757151851e-5</v>
+        <v>4.857871757151498e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5755,19 +5755,19 @@
         <v>4.8584170905415485e-5</v>
       </c>
       <c r="G153">
-        <v>7.308501424555383</v>
+        <v>7.308501424554446</v>
       </c>
       <c r="H153">
-        <v>6.471157965717634e-7</v>
+        <v>6.471157965698556e-7</v>
       </c>
       <c r="I153">
-        <v>0.0001468532404215113</v>
+        <v>0.00014685324042150398</v>
       </c>
       <c r="J153">
-        <v>0.00196212566385799</v>
+        <v>0.0019621256638577395</v>
       </c>
       <c r="K153">
-        <v>4.8584173542800005e-5</v>
+        <v>4.858417354279652e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5790,19 +5790,19 @@
         <v>4.858970923825584e-5</v>
       </c>
       <c r="G154">
-        <v>7.309882142125292</v>
+        <v>7.309882142124369</v>
       </c>
       <c r="H154">
-        <v>6.38261128454713e-7</v>
+        <v>6.382611284528304e-7</v>
       </c>
       <c r="I154">
-        <v>0.0001500734493065767</v>
+        <v>0.00015007344930656935</v>
       </c>
       <c r="J154">
-        <v>0.0019626874133758915</v>
+        <v>0.0019626874133756448</v>
       </c>
       <c r="K154">
-        <v>4.8589711837479984e-5</v>
+        <v>4.8589711837476576e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5825,19 +5825,19 @@
         <v>4.8595331512208606e-5</v>
       </c>
       <c r="G155">
-        <v>7.311274965326666</v>
+        <v>7.311274965325757</v>
       </c>
       <c r="H155">
-        <v>6.2926921933575e-7</v>
+        <v>6.292692193338927e-7</v>
       </c>
       <c r="I155">
-        <v>0.0001533439784506544</v>
+        <v>0.00015334397845064701</v>
       </c>
       <c r="J155">
-        <v>0.0019632562527573854</v>
+        <v>0.0019632562527571425</v>
       </c>
       <c r="K155">
-        <v>4.859533407271982e-5</v>
+        <v>4.859533407271647e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5860,19 +5860,19 @@
         <v>4.860103936772463e-5</v>
       </c>
       <c r="G156">
-        <v>7.312679981560785</v>
+        <v>7.312679981559891</v>
       </c>
       <c r="H156">
-        <v>6.201373152908125e-7</v>
+        <v>6.201373152889811e-7</v>
       </c>
       <c r="I156">
-        <v>0.0001566658431339209</v>
+        <v>0.0001566658431339135</v>
       </c>
       <c r="J156">
-        <v>0.001963832302581515</v>
+        <v>0.001963832302581275</v>
       </c>
       <c r="K156">
-        <v>4.860104188892822e-5</v>
+        <v>4.860104188892493e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5895,19 +5895,19 @@
         <v>4.8606834469012805e-5</v>
       </c>
       <c r="G157">
-        <v>7.314097274105525</v>
+        <v>7.314097274104647</v>
       </c>
       <c r="H157">
-        <v>6.10862619680925e-7</v>
+        <v>6.1086261967912e-7</v>
       </c>
       <c r="I157">
-        <v>0.00016004007464888085</v>
+        <v>0.0001600400746488734</v>
       </c>
       <c r="J157">
-        <v>0.0019644156845867624</v>
+        <v>0.001964415684586527</v>
       </c>
       <c r="K157">
-        <v>4.8606836950318195e-5</v>
+        <v>4.8606836950314956e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.86127185044895e-5</v>
       </c>
       <c r="G158">
-        <v>7.315526922020598</v>
+        <v>7.3155269220197345</v>
       </c>
       <c r="H158">
-        <v>6.014422920391028e-7</v>
+        <v>6.014422920373246e-7</v>
       </c>
       <c r="I158">
-        <v>0.00016346772053099287</v>
+        <v>0.0001634677205309854</v>
       </c>
       <c r="J158">
-        <v>0.001965006521731708</v>
+        <v>0.0019650065217314758</v>
       </c>
       <c r="K158">
-        <v>4.86127209452956e-5</v>
+        <v>4.861272094529244e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5965,19 +5965,19 @@
         <v>4.861869318723455e-5</v>
       </c>
       <c r="G159">
-        <v>7.3169690000989185</v>
+        <v>7.31696900009807</v>
       </c>
       <c r="H159">
-        <v>5.918734473746682e-7</v>
+        <v>5.918734473729172e-7</v>
       </c>
       <c r="I159">
-        <v>0.00016694984500561748</v>
+        <v>0.00016694984500561003</v>
       </c>
       <c r="J159">
-        <v>0.001965604938228219</v>
+        <v>0.0019656049382279907</v>
       </c>
       <c r="K159">
-        <v>4.8618695586953685e-5</v>
+        <v>4.861869558695061e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6000,19 +6000,19 @@
         <v>4.862476025545388e-5</v>
       </c>
       <c r="G160">
-        <v>7.318423578751753</v>
+        <v>7.318423578750921</v>
       </c>
       <c r="H160">
-        <v>5.821531550601555e-7</v>
+        <v>5.821531550584321e-7</v>
       </c>
       <c r="I160">
-        <v>0.00017048752923520672</v>
+        <v>0.00017048752923519932</v>
       </c>
       <c r="J160">
-        <v>0.001966211059560426</v>
+        <v>0.001966211059560201</v>
       </c>
       <c r="K160">
-        <v>4.8624762613475686e-5</v>
+        <v>4.862476261347267e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6035,19 +6035,19 @@
         <v>4.8630921472948937e-5</v>
       </c>
       <c r="G161">
-        <v>7.3198907239686894</v>
+        <v>7.319890723967872</v>
       </c>
       <c r="H161">
-        <v>5.722784382747609e-7</v>
+        <v>5.722784382730657e-7</v>
       </c>
       <c r="I161">
-        <v>0.000174081871619673</v>
+        <v>0.00017408187161966566</v>
       </c>
       <c r="J161">
-        <v>0.001966825012523272</v>
+        <v>0.0019668250125230513</v>
       </c>
       <c r="K161">
-        <v>4.863092378864313e-5</v>
+        <v>4.863092378864019e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.863717862959324e-5</v>
       </c>
       <c r="G162">
-        <v>7.321370497202451</v>
+        <v>7.32137049720165</v>
       </c>
       <c r="H162">
-        <v>5.622462727521129e-7</v>
+        <v>5.622462727504464e-7</v>
       </c>
       <c r="I162">
-        <v>0.00017773398825931833</v>
+        <v>0.0001777339882593111</v>
       </c>
       <c r="J162">
-        <v>0.0019674469252619242</v>
+        <v>0.001967446925261707</v>
       </c>
       <c r="K162">
-        <v>4.8637180902320815e-5</v>
+        <v>4.8637180902317935e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.864353354181598e-5</v>
       </c>
       <c r="G163">
-        <v>7.322862955359496</v>
+        <v>7.322862955358712</v>
       </c>
       <c r="H163">
-        <v>5.520535859454491e-7</v>
+        <v>5.520535859438118e-7</v>
       </c>
       <c r="I163">
-        <v>0.0001814450131700735</v>
+        <v>0.00018144501317006632</v>
       </c>
       <c r="J163">
-        <v>0.001968076927326639</v>
+        <v>0.0019680769273264257</v>
       </c>
       <c r="K163">
-        <v>4.8643535770966026e-5</v>
+        <v>4.864353577096321e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6140,19 +6140,19 @@
         <v>4.864998805309305e-5</v>
       </c>
       <c r="G164">
-        <v>7.324368150637722</v>
+        <v>7.3243681506369525</v>
       </c>
       <c r="H164">
-        <v>5.416972564710664e-7</v>
+        <v>5.416972564694589e-7</v>
       </c>
       <c r="I164">
-        <v>0.00018521609869294142</v>
+        <v>0.00018521609869293431</v>
       </c>
       <c r="J164">
-        <v>0.0019687151496755</v>
+        <v>0.0019687151496752897</v>
       </c>
       <c r="K164">
-        <v>4.864999023799712e-5</v>
+        <v>4.864999023799435e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6175,19 +6175,19 @@
         <v>4.865654403444562e-5</v>
       </c>
       <c r="G165">
-        <v>7.325886130523245</v>
+        <v>7.325886130522493</v>
       </c>
       <c r="H165">
-        <v>5.311741124386811e-7</v>
+        <v>5.311741124371039e-7</v>
       </c>
       <c r="I165">
-        <v>0.00018904841585609049</v>
+        <v>0.0001890484158560835</v>
       </c>
       <c r="J165">
-        <v>0.0019693617247452835</v>
+        <v>0.0019693617247450767</v>
       </c>
       <c r="K165">
-        <v>4.865654617445029e-5</v>
+        <v>4.865654617444759e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.866320338494636e-5</v>
       </c>
       <c r="G166">
-        <v>7.327416937665113</v>
+        <v>7.327416937664377</v>
       </c>
       <c r="H166">
-        <v>5.204809311731503e-7</v>
+        <v>5.204809311716039e-7</v>
       </c>
       <c r="I166">
-        <v>0.0001929431546908051</v>
+        <v>0.0001929431546907982</v>
       </c>
       <c r="J166">
-        <v>0.001970016786482559</v>
+        <v>0.0019700167864823565</v>
       </c>
       <c r="K166">
-        <v>4.866320547938613e-5</v>
+        <v>4.866320547938349e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.866996803223365e-5</v>
       </c>
       <c r="G167">
-        <v>7.328960609852038</v>
+        <v>7.328960609851318</v>
       </c>
       <c r="H167">
-        <v>5.096144376839683e-7</v>
+        <v>5.096144376824533e-7</v>
       </c>
       <c r="I167">
-        <v>0.0001969015246097343</v>
+        <v>0.00019690152460972738</v>
       </c>
       <c r="J167">
-        <v>0.001970680470375852</v>
+        <v>0.0019706804703756536</v>
       </c>
       <c r="K167">
-        <v>4.8669970080457496e-5</v>
+        <v>4.8669970080454934e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6280,19 +6280,19 @@
         <v>4.867683993303387e-5</v>
       </c>
       <c r="G168">
-        <v>7.330517179917129</v>
+        <v>7.330517179916426</v>
       </c>
       <c r="H168">
-        <v>4.985713041087155e-7</v>
+        <v>4.985713041072323e-7</v>
       </c>
       <c r="I168">
-        <v>0.0002009247548311588</v>
+        <v>0.00020092475483115196</v>
       </c>
       <c r="J168">
-        <v>0.001971352913508423</v>
+        <v>0.0019713529135082296</v>
       </c>
       <c r="K168">
-        <v>4.867684193436201e-5</v>
+        <v>4.867684193435949e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6315,19 +6315,19 @@
         <v>4.868382107369198e-5</v>
       </c>
       <c r="G169">
-        <v>7.332086675649846</v>
+        <v>7.33208667564916</v>
       </c>
       <c r="H169">
-        <v>4.873481483216891e-7</v>
+        <v>4.873481483202384e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002050140946483268</v>
+        <v>0.00020501409464831997</v>
       </c>
       <c r="J169">
-        <v>0.0019720342546068925</v>
+        <v>0.0019720342546067043</v>
       </c>
       <c r="K169">
-        <v>4.868382302742222e-5</v>
+        <v>4.868382302741977e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6350,19 +6350,19 @@
         <v>4.869091347071065e-5</v>
       </c>
       <c r="G170">
-        <v>7.333669119755912</v>
+        <v>7.333669119755244</v>
       </c>
       <c r="H170">
-        <v>4.7594153323821617e-7</v>
+        <v>4.759415332367987e-7</v>
       </c>
       <c r="I170">
-        <v>0.00020917081392368757</v>
+        <v>0.00020917081392368074</v>
       </c>
       <c r="J170">
-        <v>0.00197272463407739</v>
+        <v>0.001972724634077207</v>
       </c>
       <c r="K170">
-        <v>4.869091537616926e-5</v>
+        <v>4.869091537616688e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.869811917129806e-5</v>
       </c>
       <c r="G171">
-        <v>7.335264529793991</v>
+        <v>7.335264529793341</v>
       </c>
       <c r="H171">
-        <v>4.643479654232844e-7</v>
+        <v>4.643479654219009e-7</v>
       </c>
       <c r="I171">
-        <v>0.00021339620339718197</v>
+        <v>0.00021339620339717505</v>
       </c>
       <c r="J171">
-        <v>0.0019734241940500483</v>
+        <v>0.0019734241940498705</v>
       </c>
       <c r="K171">
-        <v>4.8698121027767025e-5</v>
+        <v>4.86981210277647e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.8705440253924674e-5</v>
       </c>
       <c r="G172">
-        <v>7.336872918111129</v>
+        <v>7.336872918110497</v>
       </c>
       <c r="H172">
-        <v>4.5256389425671807e-7</v>
+        <v>4.5256389425536907e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021769157513372404</v>
+        <v>0.00021769157513371718</v>
       </c>
       <c r="J172">
-        <v>0.0019741330784404185</v>
+        <v>0.0019741330784402464</v>
       </c>
       <c r="K172">
-        <v>4.8705442060697735e-5</v>
+        <v>4.870544206069546e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6455,19 +6455,19 @@
         <v>4.87128788288892e-5</v>
       </c>
       <c r="G173">
-        <v>7.338494291747967</v>
+        <v>7.338494291747353</v>
       </c>
       <c r="H173">
-        <v>4.4058571082008005e-7</v>
+        <v>4.405857108187662e-7</v>
       </c>
       <c r="I173">
-        <v>0.00022205826289310775</v>
+        <v>0.00022205826289310084</v>
       </c>
       <c r="J173">
-        <v>0.0019748514329727606</v>
+        <v>0.0019748514329725937</v>
       </c>
       <c r="K173">
-        <v>4.8712880585270674e-5</v>
+        <v>4.8712880585268465e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6490,19 +6490,19 @@
         <v>4.872043703889381e-5</v>
       </c>
       <c r="G174">
-        <v>7.340128652394948</v>
+        <v>7.340128652394354</v>
       </c>
       <c r="H174">
-        <v>4.284097466444389e-7</v>
+        <v>4.2840974664316084e-7</v>
       </c>
       <c r="I174">
-        <v>0.00022649762253102855</v>
+        <v>0.0002264976225310216</v>
       </c>
       <c r="J174">
-        <v>0.0019755794052651538</v>
+        <v>0.0019755794052649916</v>
       </c>
       <c r="K174">
-        <v>4.872043874414883e-5</v>
+        <v>4.8720438744146694e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6525,19 +6525,19 @@
         <v>4.872811705962915e-5</v>
       </c>
       <c r="G175">
-        <v>7.341775996347959</v>
+        <v>7.341775996347385</v>
       </c>
       <c r="H175">
-        <v>4.1603227273640693e-7</v>
+        <v>4.160322727351653e-7</v>
       </c>
       <c r="I175">
-        <v>0.00023101103242352474</v>
+        <v>0.00023101103242351774</v>
       </c>
       <c r="J175">
-        <v>0.001976317144859137</v>
+        <v>0.0019763171448589794</v>
       </c>
       <c r="K175">
-        <v>4.8728118713024245e-5</v>
+        <v>4.872811871302218e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6560,19 +6560,19 @@
         <v>4.873592110036902e-5</v>
       </c>
       <c r="G176">
-        <v>7.343436314498228</v>
+        <v>7.343436314497674</v>
       </c>
       <c r="H176">
-        <v>4.034494984650423e-7</v>
+        <v>4.0344949846383784e-7</v>
       </c>
       <c r="I176">
-        <v>0.000235599893946268</v>
+        <v>0.00023559989394626103</v>
       </c>
       <c r="J176">
-        <v>0.001977064803272676</v>
+        <v>0.0019770648032725233</v>
       </c>
       <c r="K176">
-        <v>4.873592270119613e-5</v>
+        <v>4.873592270119413e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6595,19 +6595,19 @@
         <v>4.8743851404575264e-5</v>
       </c>
       <c r="G177">
-        <v>7.3451095921578355</v>
+        <v>7.345109592157303</v>
       </c>
       <c r="H177">
-        <v>3.906575701704784e-7</v>
+        <v>3.9065757016931173e-7</v>
       </c>
       <c r="I177">
-        <v>0.0002402656317806222</v>
+        <v>0.00024026563178061521</v>
       </c>
       <c r="J177">
-        <v>0.001977822534060718</v>
+        <v>0.0019778225340605707</v>
       </c>
       <c r="K177">
-        <v>4.874385295207347e-5</v>
+        <v>4.8743852952071546e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6630,19 +6630,19 @@
         <v>4.8751910250512966e-5</v>
       </c>
       <c r="G178">
-        <v>7.346795809098417</v>
+        <v>7.346795809097904</v>
       </c>
       <c r="H178">
-        <v>3.776525701899609e-7</v>
+        <v>3.776525701888329e-7</v>
       </c>
       <c r="I178">
-        <v>0.0002450096944242642</v>
+        <v>0.0002450096944242573</v>
       </c>
       <c r="J178">
-        <v>0.0019785904928635036</v>
+        <v>0.0019785904928633614</v>
       </c>
       <c r="K178">
-        <v>4.875191174392932e-5</v>
+        <v>4.875191174392746e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6665,19 +6665,19 @@
         <v>4.876009995187624e-5</v>
       </c>
       <c r="G179">
-        <v>7.348494939515104</v>
+        <v>7.3484949395146115</v>
       </c>
       <c r="H179">
-        <v>3.644305157447494e-7</v>
+        <v>3.644305157436607e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024983355467781</v>
+        <v>0.00024983355467780323</v>
       </c>
       <c r="J179">
-        <v>0.001979368837485441</v>
+        <v>0.0019793688374853038</v>
       </c>
       <c r="K179">
-        <v>4.876010139048395e-5</v>
+        <v>4.876010139048214e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6700,19 +6700,19 @@
         <v>4.876842285842479e-5</v>
       </c>
       <c r="G180">
-        <v>7.35020695194558</v>
+        <v>7.3502069519451085</v>
       </c>
       <c r="H180">
-        <v>3.509873574096087e-7</v>
+        <v>3.509873574085599e-7</v>
       </c>
       <c r="I180">
-        <v>0.0002547387099986399</v>
+        <v>0.0002547387099986332</v>
       </c>
       <c r="J180">
-        <v>0.001980157727925644</v>
+        <v>0.0019801577279255113</v>
       </c>
       <c r="K180">
-        <v>4.876842424147094e-5</v>
+        <v>4.876842424146918e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6735,19 +6735,19 @@
         <v>4.877688135663173e-5</v>
       </c>
       <c r="G181">
-        <v>7.3519318092086525</v>
+        <v>7.351931809208201</v>
       </c>
       <c r="H181">
-        <v>3.3731897813884586e-7</v>
+        <v>3.3731897813783757e-7</v>
       </c>
       <c r="I181">
-        <v>0.00025972668297808663</v>
+        <v>0.00025972668297808</v>
       </c>
       <c r="J181">
-        <v>0.0019809573264507586</v>
+        <v>0.0019809573264506306</v>
       </c>
       <c r="K181">
-        <v>4.877688268333839e-5</v>
+        <v>4.8776882683336696e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6770,19 +6770,19 @@
         <v>4.878547787034265e-5</v>
       </c>
       <c r="G182">
-        <v>7.353669468433067</v>
+        <v>7.353669468432635</v>
       </c>
       <c r="H182">
-        <v>3.234211917358008e-7</v>
+        <v>3.2342119173483364e-7</v>
       </c>
       <c r="I182">
-        <v>0.00026479902183756954</v>
+        <v>0.000264799021837563</v>
       </c>
       <c r="J182">
-        <v>0.0019817677976560963</v>
+        <v>0.001981767797655973</v>
       </c>
       <c r="K182">
-        <v>4.878547913993733e-5</v>
+        <v>4.8785479139935696e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6805,19 +6805,19 @@
         <v>4.8794214861446405e-5</v>
       </c>
       <c r="G183">
-        <v>7.355419880960439</v>
+        <v>7.355419880960028</v>
       </c>
       <c r="H183">
-        <v>3.0928974201801846e-7</v>
+        <v>3.0928974201709323e-7</v>
       </c>
       <c r="I183">
-        <v>0.0002699573009200584</v>
+        <v>0.000269957300920052</v>
       </c>
       <c r="J183">
-        <v>0.001982589308529919</v>
+        <v>0.001982589308529802</v>
       </c>
       <c r="K183">
-        <v>4.879421607316003e-5</v>
+        <v>4.8794216073158485e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6840,19 +6840,19 @@
         <v>4.880309483055787e-5</v>
       </c>
       <c r="G184">
-        <v>7.357182992391629</v>
+        <v>7.357182992391238</v>
       </c>
       <c r="H184">
-        <v>2.9492030114760304e-7</v>
+        <v>2.949203011467205e-7</v>
       </c>
       <c r="I184">
-        <v>0.0002752031211094536</v>
+        <v>0.00027520312110944725</v>
       </c>
       <c r="J184">
-        <v>0.001983422028524679</v>
+        <v>0.001983422028524568</v>
       </c>
       <c r="K184">
-        <v>4.880309598363303e-5</v>
+        <v>4.880309598363157e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6875,19 +6875,19 @@
         <v>4.88121203177128e-5</v>
       </c>
       <c r="G185">
-        <v>7.358958742437496</v>
+        <v>7.3589587424371254</v>
       </c>
       <c r="H185">
-        <v>2.8030846823984394e-7</v>
+        <v>2.803084682390049e-7</v>
       </c>
       <c r="I185">
-        <v>0.0002805381103426467</v>
+        <v>0.00028053811034264045</v>
       </c>
       <c r="J185">
-        <v>0.001984266129604621</v>
+        <v>0.0019842661296045156</v>
       </c>
       <c r="K185">
-        <v>4.8812121411360145e-5</v>
+        <v>4.881212141135878e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6910,19 +6910,19 @@
         <v>4.8821293903075385e-5</v>
       </c>
       <c r="G186">
-        <v>7.360747065033216</v>
+        <v>7.360747065032866</v>
       </c>
       <c r="H186">
-        <v>2.6544976838925043e-7</v>
+        <v>2.654497683884557e-7</v>
       </c>
       <c r="I186">
-        <v>0.00028596392412413217</v>
+        <v>0.0002859639241241261</v>
       </c>
       <c r="J186">
-        <v>0.001985121786328047</v>
+        <v>0.001985121786327947</v>
       </c>
       <c r="K186">
-        <v>4.882129493650448e-5</v>
+        <v>4.88212949365032e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.883061820765842e-5</v>
       </c>
       <c r="G187">
-        <v>7.362547888229315</v>
+        <v>7.3625478882289865</v>
       </c>
       <c r="H187">
-        <v>2.503396509999045e-7</v>
+        <v>2.503396509991547e-7</v>
       </c>
       <c r="I187">
-        <v>0.0002914822459776774</v>
+        <v>0.0002914822459776716</v>
       </c>
       <c r="J187">
-        <v>0.0019859891759175146</v>
+        <v>0.0019859891759174205</v>
       </c>
       <c r="K187">
-        <v>4.883061918010331e-5</v>
+        <v>4.8830619180102134e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.884009589405678e-5</v>
       </c>
       <c r="G188">
-        <v>7.364361134191037</v>
+        <v>7.3643611341907285</v>
       </c>
       <c r="H188">
-        <v>2.3497348839408546e-7</v>
+        <v>2.349734883933815e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002970947880174991</v>
+        <v>0.0002970947880174935</v>
       </c>
       <c r="J188">
-        <v>0.0019868684783261987</v>
+        <v>0.0019868684783261106</v>
       </c>
       <c r="K188">
-        <v>4.88400968047245e-5</v>
+        <v>4.884009680472342e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7015,19 +7015,19 @@
         <v>4.884972966719424e-5</v>
       </c>
       <c r="G189">
-        <v>7.366186719216086</v>
+        <v>7.3661867192158</v>
       </c>
       <c r="H189">
-        <v>2.193465745600303e-7</v>
+        <v>2.1934657455937294e-7</v>
       </c>
       <c r="I189">
-        <v>0.0003028032914280915</v>
+        <v>0.00030280329142808623</v>
       </c>
       <c r="J189">
-        <v>0.0019877598763011267</v>
+        <v>0.0019877598763010443</v>
       </c>
       <c r="K189">
-        <v>4.884973051530515e-5</v>
+        <v>4.8849730515304145e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7050,19 +7050,19 @@
         <v>4.8859522275084e-5</v>
       </c>
       <c r="G190">
-        <v>7.368024553701856</v>
+        <v>7.368024553701591</v>
       </c>
       <c r="H190">
-        <v>2.0345412376055765e-7</v>
+        <v>2.0345412375994776e-7</v>
       </c>
       <c r="I190">
-        <v>0.00030860952701060887</v>
+        <v>0.00030860952701060394</v>
       </c>
       <c r="J190">
-        <v>0.0019886635554743877</v>
+        <v>0.0019886635554743123</v>
       </c>
       <c r="K190">
-        <v>4.885952305984897e-5</v>
+        <v>4.8859523059848046e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7085,19 +7085,19 @@
         <v>4.886947650960341e-5</v>
       </c>
       <c r="G191">
-        <v>7.369874542170598</v>
+        <v>7.369874542170355</v>
       </c>
       <c r="H191">
-        <v>1.872912685851466e-7</v>
+        <v>1.8729126858458498e-7</v>
       </c>
       <c r="I191">
-        <v>0.0003145152957402186</v>
+        <v>0.00031451529574021397</v>
       </c>
       <c r="J191">
-        <v>0.0019895797044367294</v>
+        <v>0.0019895797044366613</v>
       </c>
       <c r="K191">
-        <v>4.886947723021763e-5</v>
+        <v>4.886947723021682e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.887959520728293e-5</v>
       </c>
       <c r="G192">
-        <v>7.371736583243143</v>
+        <v>7.371736583242923</v>
       </c>
       <c r="H192">
-        <v>1.7085305925423962e-7</v>
+        <v>1.708530592537271e-7</v>
       </c>
       <c r="I192">
-        <v>0.00032052242923493303</v>
+        <v>0.00032052242923492886</v>
       </c>
       <c r="J192">
-        <v>0.0019905085147940843</v>
+        <v>0.0019905085147940227</v>
       </c>
       <c r="K192">
-        <v>4.8879595862956996e-5</v>
+        <v>4.8879595862956264e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.888988125011e-5</v>
       </c>
       <c r="G193">
-        <v>7.373610569652336</v>
+        <v>7.373610569652139</v>
       </c>
       <c r="H193">
-        <v>1.541344612539119e-7</v>
+        <v>1.541344612534494e-7</v>
       </c>
       <c r="I193">
-        <v>0.00032663279043577314</v>
+        <v>0.00032663279043576945</v>
       </c>
       <c r="J193">
-        <v>0.0019914501812764323</v>
+        <v>0.0019914501812763772</v>
       </c>
       <c r="K193">
-        <v>4.8889881840057105e-5</v>
+        <v>4.888988184005646e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7190,19 +7190,19 @@
         <v>4.890033756634779e-5</v>
       </c>
       <c r="G194">
-        <v>7.375496388270227</v>
+        <v>7.375496388270052</v>
       </c>
       <c r="H194">
-        <v>1.3713035436190123e-7</v>
+        <v>1.3713035436148965e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033284827406216034</v>
+        <v>0.00033284827406215704</v>
       </c>
       <c r="J194">
-        <v>0.0019924049017994686</v>
+        <v>0.00199240490179942</v>
       </c>
       <c r="K194">
-        <v>4.8900338089784646e-5</v>
+        <v>4.890033808978407e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7225,19 +7225,19 @@
         <v>4.891096713136955e-5</v>
       </c>
       <c r="G195">
-        <v>7.377393920113807</v>
+        <v>7.377393920113655</v>
       </c>
       <c r="H195">
-        <v>1.1983553111709278e-7</v>
+        <v>1.19835531116733e-7</v>
       </c>
       <c r="I195">
-        <v>0.0003391708072602459</v>
+        <v>0.0003391708072602431</v>
       </c>
       <c r="J195">
-        <v>0.0019933728775508464</v>
+        <v>0.001993372877550804</v>
       </c>
       <c r="K195">
-        <v>4.891096758749979e-5</v>
+        <v>4.891096758749929e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7260,19 +7260,19 @@
         <v>4.892177296850861e-5</v>
       </c>
       <c r="G196">
-        <v>7.3793030403517745</v>
+        <v>7.379303040351645</v>
       </c>
       <c r="H196">
-        <v>1.0224469459332214e-7</v>
+        <v>1.0224469459301507e-7</v>
       </c>
       <c r="I196">
-        <v>0.00034560235013513587</v>
+        <v>0.00034560235013513354</v>
       </c>
       <c r="J196">
-        <v>0.001994354313072058</v>
+        <v>0.001994354313072022</v>
       </c>
       <c r="K196">
-        <v>4.892177335655645e-5</v>
+        <v>4.892177335655603e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7295,19 +7295,19 @@
         <v>4.893275814992451e-5</v>
       </c>
       <c r="G197">
-        <v>7.381223618363552</v>
+        <v>7.381223618363445</v>
       </c>
       <c r="H197">
-        <v>8.435245756453968e-8</v>
+        <v>8.43524575642863e-8</v>
       </c>
       <c r="I197">
-        <v>0.00035214489635446383</v>
+        <v>0.00035214489635446194</v>
       </c>
       <c r="J197">
-        <v>0.0019953494163581094</v>
+        <v>0.00199534941635808</v>
       </c>
       <c r="K197">
-        <v>4.8932758469125015e-5</v>
+        <v>4.893275846912467e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7330,19 +7330,19 @@
         <v>4.894392579748572e-5</v>
       </c>
       <c r="G198">
-        <v>7.3831555177296</v>
+        <v>7.383155517729517</v>
       </c>
       <c r="H198">
-        <v>6.615334041774858e-8</v>
+        <v>6.615334041754983e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003588004738098578</v>
+        <v>0.0003588004738098563</v>
       </c>
       <c r="J198">
-        <v>0.0019963583989168155</v>
+        <v>0.001996358398916793</v>
       </c>
       <c r="K198">
-        <v>4.894392604706187e-5</v>
+        <v>4.89439260470616e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7365,19 +7365,19 @@
         <v>4.8955279083669065e-5</v>
       </c>
       <c r="G199">
-        <v>7.385098596288765</v>
+        <v>7.385098596288706</v>
       </c>
       <c r="H199">
-        <v>4.764176948335057e-8</v>
+        <v>4.764176948320742e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003655711451294058</v>
+        <v>0.0003655711451294048</v>
       </c>
       <c r="J199">
-        <v>0.00199738147589104</v>
+        <v>0.0019973814758910244</v>
       </c>
       <c r="K199">
-        <v>4.895527926284911e-5</v>
+        <v>4.8955279262848904e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,19 +7400,19 @@
         <v>4.8966821232476484e-5</v>
       </c>
       <c r="G200">
-        <v>7.3870527061757425</v>
+        <v>7.387052706175707</v>
       </c>
       <c r="H200">
-        <v>2.8812075365491048e-8</v>
+        <v>2.881207536540447e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037245900837842215</v>
+        <v>0.0003724590083784215</v>
       </c>
       <c r="J200">
-        <v>0.001998418866120913</v>
+        <v>0.0019984188661209034</v>
       </c>
       <c r="K200">
-        <v>4.8966821340492355e-5</v>
+        <v>4.8966821340492226e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7435,19 +7435,19 @@
         <v>4.8978555520369374e-5</v>
       </c>
       <c r="G201">
-        <v>7.389017693867698</v>
+        <v>7.389017693867687</v>
       </c>
       <c r="H201">
-        <v>9.658491411539569e-9</v>
+        <v>9.658491411510543e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003794661977332374</v>
+        <v>0.00037946619773323713</v>
       </c>
       <c r="J201">
-        <v>0.0019994707922584283</v>
+        <v>0.0019994707922584257</v>
       </c>
       <c r="K201">
-        <v>4.897855555646155e-5</v>
+        <v>4.897855555646151e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -461,7 +461,7 @@
         <v>0.000247489809918307</v>
       </c>
       <c r="D2">
-        <v>-1.2743725425618498e-7</v>
+        <v>-1.274372542561844e-7</v>
       </c>
       <c r="E2">
         <v>0.0019994979705352783</v>
@@ -490,13 +490,13 @@
         <v>-0.048344326933930856</v>
       </c>
       <c r="B3">
-        <v>8.125162650862263</v>
+        <v>8.125162650862261</v>
       </c>
       <c r="C3">
         <v>0.0002425067775685909</v>
       </c>
       <c r="D3">
-        <v>-3.8033706885580364e-7</v>
+        <v>-3.8033706885578463e-7</v>
       </c>
       <c r="E3">
         <v>0.0019984949074707604</v>
@@ -531,7 +531,7 @@
         <v>0.00023759768351894284</v>
       </c>
       <c r="D4">
-        <v>-6.293746061492272e-7</v>
+        <v>-6.293746061492438e-7</v>
       </c>
       <c r="E4">
         <v>0.00199749781919974</v>
@@ -560,19 +560,19 @@
         <v>-0.04619094348530213</v>
       </c>
       <c r="B5">
-        <v>8.091620618074774</v>
+        <v>8.091620618074773</v>
       </c>
       <c r="C5">
         <v>0.0002327610243209417</v>
       </c>
       <c r="D5">
-        <v>-8.746216951649648e-7</v>
+        <v>-8.746216951649817e-7</v>
       </c>
       <c r="E5">
         <v>0.0019965062000974498</v>
       </c>
       <c r="F5">
-        <v>4.8886327620010384e-5</v>
+        <v>4.888632762001039e-5</v>
       </c>
       <c r="G5">
         <v>8.091621718384662</v>
@@ -595,13 +595,13 @@
         <v>-0.04513793184802115</v>
       </c>
       <c r="B6">
-        <v>8.074700468736028</v>
+        <v>8.074700468736026</v>
       </c>
       <c r="C6">
         <v>0.00022799531870990652</v>
       </c>
       <c r="D6">
-        <v>-1.1161488848834446e-6</v>
+        <v>-1.1161488848834294e-6</v>
       </c>
       <c r="E6">
         <v>0.0019955195509624058</v>
@@ -636,7 +636,7 @@
         <v>0.00022329910715124831</v>
       </c>
       <c r="D7">
-        <v>-1.3540254931022658e-6</v>
+        <v>-1.354025493102264e-6</v>
       </c>
       <c r="E7">
         <v>0.0019945373819058474</v>
@@ -665,13 +665,13 @@
         <v>-0.043077656183539564</v>
       </c>
       <c r="B8">
-        <v>8.040606031122412</v>
+        <v>8.040606031122413</v>
       </c>
       <c r="C8">
         <v>0.00021867095139347845</v>
       </c>
       <c r="D8">
-        <v>-1.5883196605936607e-6</v>
+        <v>-1.588319660593681e-6</v>
       </c>
       <c r="E8">
         <v>0.001993559215526954</v>
@@ -700,19 +700,19 @@
         <v>-0.04206976118081391</v>
       </c>
       <c r="B9">
-        <v>8.023453112516668</v>
+        <v>8.023453112516666</v>
       </c>
       <c r="C9">
         <v>0.00021410943402773897</v>
       </c>
       <c r="D9">
-        <v>-1.8190984106766258e-6</v>
+        <v>-1.819098410676636e-6</v>
       </c>
       <c r="E9">
         <v>0.0019925845903334596</v>
       </c>
       <c r="F9">
-        <v>4.878365269708576e-5</v>
+        <v>4.8783652697085754e-5</v>
       </c>
       <c r="G9">
         <v>8.023455598659847</v>
@@ -741,13 +741,13 @@
         <v>0.00020961315805372298</v>
       </c>
       <c r="D10">
-        <v>-2.0464277141196175e-6</v>
+        <v>-2.0464277141196192e-6</v>
       </c>
       <c r="E10">
-        <v>0.0019916130643490336</v>
+        <v>0.001991613064349034</v>
       </c>
       <c r="F10">
-        <v>4.87597005011676e-5</v>
+        <v>4.8759700501167596e-5</v>
       </c>
       <c r="G10">
         <v>8.00624890242043</v>
@@ -779,10 +779,10 @@
         <v>-2.270372559033265e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019906442188298897</v>
+        <v>0.00199064421882989</v>
       </c>
       <c r="F11">
-        <v>4.873646580381585e-5</v>
+        <v>4.873646580381586e-5</v>
       </c>
       <c r="G11">
         <v>7.9890018340349425</v>
@@ -805,16 +805,16 @@
         <v>-0.03913135634434338</v>
       </c>
       <c r="B12">
-        <v>7.971725711923988</v>
+        <v>7.97172571192399</v>
       </c>
       <c r="C12">
         <v>0.00020081084176167832</v>
       </c>
       <c r="D12">
-        <v>-2.4909970251307112e-6</v>
+        <v>-2.490997025130722e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019896776619949146</v>
+        <v>0.001989677661994914</v>
       </c>
       <c r="F12">
         <v>4.8713961636526464e-5</v>
@@ -840,16 +840,16 @@
         <v>-0.03817931490024269</v>
       </c>
       <c r="B13">
-        <v>7.954443314983493</v>
+        <v>7.954443314983494</v>
       </c>
       <c r="C13">
         <v>0.00019650210566617685</v>
       </c>
       <c r="D13">
-        <v>-2.7083643614154866e-6</v>
+        <v>-2.708364361415475e-6</v>
       </c>
       <c r="E13">
-        <v>0.001988713032657623</v>
+        <v>0.0019887130326576227</v>
       </c>
       <c r="F13">
         <v>4.869219928433404e-5</v>
@@ -875,19 +875,19 @@
         <v>-0.0372404974588126</v>
       </c>
       <c r="B14">
-        <v>7.937168333307384</v>
+        <v>7.937168333307383</v>
       </c>
       <c r="C14">
         <v>0.00019225321858228815</v>
       </c>
       <c r="D14">
-        <v>-2.9225370660398944e-6</v>
+        <v>-2.922537066039885e-6</v>
       </c>
       <c r="E14">
         <v>0.0019877500036362917</v>
       </c>
       <c r="F14">
-        <v>4.8671188065108885e-5</v>
+        <v>4.867118806510888e-5</v>
       </c>
       <c r="G14">
         <v>7.9371726823155235</v>
@@ -910,19 +910,19 @@
         <v>-0.036314616499874046</v>
       </c>
       <c r="B15">
-        <v>7.919918467235111</v>
+        <v>7.919918467235113</v>
       </c>
       <c r="C15">
         <v>0.00018806287925731462</v>
       </c>
       <c r="D15">
-        <v>-3.1335769667562687e-6</v>
+        <v>-3.133576966756272e-6</v>
       </c>
       <c r="E15">
         <v>0.001986788284812322</v>
       </c>
       <c r="F15">
-        <v>4.8650935126386824e-5</v>
+        <v>4.865093512638683e-5</v>
       </c>
       <c r="G15">
         <v>7.919923195896005</v>
@@ -945,16 +945,16 @@
         <v>-0.035401388465146795</v>
       </c>
       <c r="B16">
-        <v>7.9027120336256065</v>
+        <v>7.902712033625605</v>
       </c>
       <c r="C16">
         <v>0.0001839298043715553</v>
       </c>
       <c r="D16">
-        <v>-3.3415453000860383e-6</v>
+        <v>-3.3415453000860417e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019858276257078045</v>
+        <v>0.001985827625707805</v>
       </c>
       <c r="F16">
         <v>4.863144526775159e-5</v>
@@ -1015,19 +1015,19 @@
         <v>-0.03361177622483489</v>
       </c>
       <c r="B18">
-        <v>7.868504614422587</v>
+        <v>7.8685046144225845</v>
       </c>
       <c r="C18">
         <v>0.00017583040196579174</v>
       </c>
       <c r="D18">
-        <v>-3.7485097030525854e-6</v>
+        <v>-3.748509703052585e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019839086941065794</v>
+        <v>0.00198390869410658</v>
       </c>
       <c r="F18">
-        <v>4.8594761422763005e-5</v>
+        <v>4.8594761422763e-5</v>
       </c>
       <c r="G18">
         <v>7.868510472588227</v>
@@ -1056,13 +1056,13 @@
         <v>0.00017186159399055397</v>
       </c>
       <c r="D19">
-        <v>-3.947625939180618e-6</v>
+        <v>-3.947625939180633e-6</v>
       </c>
       <c r="E19">
         <v>0.0019829501330561067</v>
       </c>
       <c r="F19">
-        <v>4.857756420121725e-5</v>
+        <v>4.8577564201217246e-5</v>
       </c>
       <c r="G19">
         <v>7.851547717313735</v>
@@ -1085,19 +1085,19 @@
         <v>-0.031869468239078644</v>
       </c>
       <c r="B20">
-        <v>7.834697065141372</v>
+        <v>7.834697065141374</v>
       </c>
       <c r="C20">
         <v>0.00016794508880374384</v>
       </c>
       <c r="D20">
-        <v>-4.143911051917825e-6</v>
+        <v>-4.143911051917834e-6</v>
       </c>
       <c r="E20">
-        <v>0.0019819920547802755</v>
+        <v>0.001981992054780275</v>
       </c>
       <c r="F20">
-        <v>4.856112352002878e-5</v>
+        <v>4.856112352002877e-5</v>
       </c>
       <c r="G20">
         <v>7.834703654751367</v>
@@ -1126,7 +1126,7 @@
         <v>0.00016407968705409742</v>
       </c>
       <c r="D21">
-        <v>-4.337424297640301e-6</v>
+        <v>-4.337424297640304e-6</v>
       </c>
       <c r="E21">
         <v>0.001981034421638705</v>
@@ -1155,13 +1155,13 @@
         <v>-0.030172329962707346</v>
       </c>
       <c r="B22">
-        <v>7.801436368826971</v>
+        <v>7.80143636882697</v>
       </c>
       <c r="C22">
         <v>0.00016026420512426336</v>
       </c>
       <c r="D22">
-        <v>-4.528224647564205e-6</v>
+        <v>-4.528224647564196e-6</v>
       </c>
       <c r="E22">
         <v>0.001980077235915335</v>
@@ -1190,19 +1190,19 @@
         <v>-0.02934004762191005</v>
       </c>
       <c r="B23">
-        <v>7.785054183316379</v>
+        <v>7.7850541833163796</v>
       </c>
       <c r="C23">
         <v>0.00015649747482412234</v>
       </c>
       <c r="D23">
-        <v>-4.71637077755113e-6</v>
+        <v>-4.7163707775511275e-6</v>
       </c>
       <c r="E23">
         <v>0.0019791205371177166</v>
       </c>
       <c r="F23">
-        <v>4.8516245795825135e-5</v>
+        <v>4.851624579582514e-5</v>
       </c>
       <c r="G23">
         <v>7.785061812311281</v>
@@ -1260,19 +1260,19 @@
         <v>-0.027706781992169936</v>
       </c>
       <c r="B25">
-        <v>7.752863583627862</v>
+        <v>7.752863583627863</v>
       </c>
       <c r="C25">
         <v>0.00014910567192392838</v>
       </c>
       <c r="D25">
-        <v>-5.084933305582713e-6</v>
+        <v>-5.084933305582723e-6</v>
       </c>
       <c r="E25">
         <v>0.001977208923933355</v>
       </c>
       <c r="F25">
-        <v>4.848989427551109e-5</v>
+        <v>4.8489894275511095e-5</v>
       </c>
       <c r="G25">
         <v>7.7528718548615805</v>
@@ -1295,19 +1295,19 @@
         <v>-0.026905298502862676</v>
       </c>
       <c r="B26">
-        <v>7.73708241642159</v>
+        <v>7.737082416421589</v>
       </c>
       <c r="C26">
         <v>0.0001454783379390248</v>
       </c>
       <c r="D26">
-        <v>-5.265464968197399e-6</v>
+        <v>-5.2654649681973974e-6</v>
       </c>
       <c r="E26">
         <v>0.0019762542422827145</v>
       </c>
       <c r="F26">
-        <v>4.8477736671879765e-5</v>
+        <v>4.847773667187975e-5</v>
       </c>
       <c r="G26">
         <v>7.737090991044438</v>
@@ -1336,13 +1336,13 @@
         <v>0.00014189523263279428</v>
       </c>
       <c r="D27">
-        <v>-5.4435725836807435e-6</v>
+        <v>-5.443572583680746e-6</v>
       </c>
       <c r="E27">
-        <v>0.00197530050442758</v>
+        <v>0.0019753005044275797</v>
       </c>
       <c r="F27">
-        <v>4.8466230764268886e-5</v>
+        <v>4.846623076426889e-5</v>
       </c>
       <c r="G27">
         <v>7.721535378139707</v>
@@ -1371,7 +1371,7 @@
         <v>0.00013835526233412504</v>
       </c>
       <c r="D28">
-        <v>-5.619311629900011e-6</v>
+        <v>-5.619311629899997e-6</v>
       </c>
       <c r="E28">
         <v>0.001974347878107155</v>
@@ -1400,19 +1400,19 @@
         <v>-0.02455850856315389</v>
       </c>
       <c r="B29">
-        <v>7.691129175114228</v>
+        <v>7.691129175114229</v>
       </c>
       <c r="C29">
         <v>0.00013485734852875</v>
       </c>
       <c r="D29">
-        <v>-5.792736050720139e-6</v>
+        <v>-5.792736050720132e-6</v>
       </c>
       <c r="E29">
         <v>0.0019733965437336784</v>
       </c>
       <c r="F29">
-        <v>4.8445085371125325e-5</v>
+        <v>4.844508537112533e-5</v>
       </c>
       <c r="G29">
         <v>7.691138581966173</v>
@@ -1435,13 +1435,13 @@
         <v>-0.023794666853294445</v>
       </c>
       <c r="B30">
-        <v>7.676303342379682</v>
+        <v>7.676303342379681</v>
       </c>
       <c r="C30">
         <v>0.0001314004284061234</v>
       </c>
       <c r="D30">
-        <v>-5.9638976475687685e-6</v>
+        <v>-5.963897647568765e-6</v>
       </c>
       <c r="E30">
         <v>0.001972446690323765</v>
@@ -1470,19 +1470,19 @@
         <v>-0.023039643735213187</v>
       </c>
       <c r="B31">
-        <v>7.661734023665464</v>
+        <v>7.661734023665463</v>
       </c>
       <c r="C31">
         <v>0.00012798345573374856</v>
       </c>
       <c r="D31">
-        <v>-6.1328452567700485e-6</v>
+        <v>-6.132845256770047e-6</v>
       </c>
       <c r="E31">
         <v>0.001971498511822107</v>
       </c>
       <c r="F31">
-        <v>4.8426272661985147e-5</v>
+        <v>4.842627266198514e-5</v>
       </c>
       <c r="G31">
         <v>7.661743915493551</v>
@@ -1505,19 +1505,19 @@
         <v>-0.022293207977179066</v>
       </c>
       <c r="B32">
-        <v>7.647425433187477</v>
+        <v>7.647425433187475</v>
       </c>
       <c r="C32">
         <v>0.0001246054021475932</v>
       </c>
       <c r="D32">
-        <v>-6.299623656425649e-6</v>
+        <v>-6.299623656425656e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019705522039339253</v>
+        <v>0.0019705522039339257</v>
       </c>
       <c r="F32">
-        <v>4.841768091578507e-5</v>
+        <v>4.841768091578506e-5</v>
       </c>
       <c r="G32">
         <v>7.6474355449562355</v>
@@ -1540,19 +1540,19 @@
         <v>-0.02155513097740716</v>
       </c>
       <c r="B33">
-        <v>7.63338047572304</v>
+        <v>7.633380475723043</v>
       </c>
       <c r="C33">
         <v>0.00012126525896067669</v>
       </c>
       <c r="D33">
-        <v>-6.464272137847509e-6</v>
+        <v>-6.464272137847506e-6</v>
       </c>
       <c r="E33">
         <v>0.0019696079615664185</v>
       </c>
       <c r="F33">
-        <v>4.84095999173519e-5</v>
+        <v>4.840959991735191e-5</v>
       </c>
       <c r="G33">
         <v>7.633390791471386</v>
@@ -1575,19 +1575,19 @@
         <v>-0.020825186694047617</v>
       </c>
       <c r="B34">
-        <v>7.619600843534</v>
+        <v>7.619600843533998</v>
       </c>
       <c r="C34">
         <v>0.00011796203960389588</v>
       </c>
       <c r="D34">
-        <v>-6.626822668739333e-6</v>
+        <v>-6.626822668739334e-6</v>
       </c>
       <c r="E34">
         <v>0.0019686659769640714</v>
       </c>
       <c r="F34">
-        <v>4.840200563335788e-5</v>
+        <v>4.840200563335787e-5</v>
       </c>
       <c r="G34">
         <v>7.619611346509881</v>
@@ -1610,13 +1610,13 @@
         <v>-0.020103151575958524</v>
       </c>
       <c r="B35">
-        <v>7.606087125631194</v>
+        <v>7.606087125631197</v>
       </c>
       <c r="C35">
         <v>0.00011469478282237474</v>
       </c>
       <c r="D35">
-        <v>-6.787297569351482e-6</v>
+        <v>-6.7872975693514824e-6</v>
       </c>
       <c r="E35">
         <v>0.0019677264386085123</v>
@@ -1645,13 +1645,13 @@
         <v>-0.01938880449424165</v>
       </c>
       <c r="B36">
-        <v>7.59283892604555</v>
+        <v>7.592838926045552</v>
       </c>
       <c r="C36">
         <v>0.00011146255675563497</v>
       </c>
       <c r="D36">
-        <v>-6.945706619646384e-6</v>
+        <v>-6.9457066196463884e-6</v>
       </c>
       <c r="E36">
         <v>0.0019667895309408556</v>
@@ -1680,19 +1680,19 @@
         <v>-0.01868192667452002</v>
       </c>
       <c r="B37">
-        <v>7.579854988162101</v>
+        <v>7.579854988162102</v>
       </c>
       <c r="C37">
         <v>0.00010826446402915639</v>
       </c>
       <c r="D37">
-        <v>-7.10204351611601e-6</v>
+        <v>-7.102043516116019e-6</v>
       </c>
       <c r="E37">
-        <v>0.001965855434952699</v>
+        <v>0.0019658554349526987</v>
       </c>
       <c r="F37">
-        <v>4.838190931588222e-5</v>
+        <v>4.838190931588223e-5</v>
       </c>
       <c r="G37">
         <v>7.5798659402174495</v>
@@ -1721,13 +1721,13 @@
         <v>0.00010509964797697717</v>
       </c>
       <c r="D38">
-        <v>-7.256281602224335e-6</v>
+        <v>-7.2562816022243336e-6</v>
       </c>
       <c r="E38">
         <v>0.001964924329680538</v>
       </c>
       <c r="F38">
-        <v>4.837603126991414e-5</v>
+        <v>4.8376031269914134e-5</v>
       </c>
       <c r="G38">
         <v>7.567144381127416</v>
@@ -1750,19 +1750,19 @@
         <v>-0.017289715094853</v>
       </c>
       <c r="B39">
-        <v>7.554671336494323</v>
+        <v>7.554671336494324</v>
       </c>
       <c r="C39">
         <v>0.00010196730009855875</v>
       </c>
       <c r="D39">
-        <v>-7.408368807352394e-6</v>
+        <v>-7.40836880735239e-6</v>
       </c>
       <c r="E39">
         <v>0.0019639963946263637</v>
       </c>
       <c r="F39">
-        <v>4.8370528127124335e-5</v>
+        <v>4.837052812712434e-5</v>
       </c>
       <c r="G39">
         <v>7.554682476171924</v>
@@ -1791,7 +1791,7 @@
         <v>9.886666882722881e-5</v>
       </c>
       <c r="D40">
-        <v>-7.558221746209381e-6</v>
+        <v>-7.5582217462093855e-6</v>
       </c>
       <c r="E40">
         <v>0.0019630718131137224</v>
@@ -1826,13 +1826,13 @@
         <v>9.57970696515634e-5</v>
       </c>
       <c r="D41">
-        <v>-7.705718954272098e-6</v>
+        <v>-7.705718954272093e-6</v>
       </c>
       <c r="E41">
         <v>0.0019621507765725933</v>
       </c>
       <c r="F41">
-        <v>4.836056769598427e-5</v>
+        <v>4.8360567695984274e-5</v>
       </c>
       <c r="G41">
         <v>7.530525001035076</v>
@@ -1861,13 +1861,13 @@
         <v>9.275789658508063e-5</v>
       </c>
       <c r="D42">
-        <v>-7.850693264883803e-6</v>
+        <v>-7.850693264883788e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019612334897275195</v>
+        <v>0.001961233489727519</v>
       </c>
       <c r="F42">
-        <v>4.835607340811407e-5</v>
+        <v>4.8356073408114076e-5</v>
       </c>
       <c r="G42">
         <v>7.518822372340417</v>
@@ -1896,7 +1896,7 @@
         <v>8.974863492423361e-5</v>
       </c>
       <c r="D43">
-        <v>-7.992923369720482e-6</v>
+        <v>-7.992923369720495e-6</v>
       </c>
       <c r="E43">
         <v>0.0019603201766409555</v>
@@ -1931,13 +1931,13 @@
         <v>8.676887517123655e-5</v>
       </c>
       <c r="D44">
-        <v>-8.132124645513262e-6</v>
+        <v>-8.132124645513257e-6</v>
       </c>
       <c r="E44">
         <v>0.0019594110875378813</v>
       </c>
       <c r="F44">
-        <v>4.83479717388796e-5</v>
+        <v>4.834797173887959e-5</v>
       </c>
       <c r="G44">
         <v>7.4961507284609175</v>
@@ -1972,7 +1972,7 @@
         <v>0.001958506506308632</v>
       </c>
       <c r="F45">
-        <v>4.834433343971496e-5</v>
+        <v>4.834433343971497e-5</v>
       </c>
       <c r="G45">
         <v>7.485174372551168</v>
@@ -1995,13 +1995,13 @@
         <v>-0.012621125739459928</v>
       </c>
       <c r="B46">
-        <v>7.47442234113439</v>
+        <v>7.474422341134389</v>
       </c>
       <c r="C46">
         <v>8.089683950055474e-5</v>
       </c>
       <c r="D46">
-        <v>-8.399926535759202e-6</v>
+        <v>-8.399926535759207e-6</v>
       </c>
       <c r="E46">
         <v>0.001957606758555375</v>
@@ -2030,7 +2030,7 @@
         <v>-0.011977378904792182</v>
       </c>
       <c r="B47">
-        <v>7.4639132736244</v>
+        <v>7.463913273624401</v>
       </c>
       <c r="C47">
         <v>7.800440785910418e-5</v>
@@ -2065,13 +2065,13 @@
         <v>-0.011338831525106424</v>
       </c>
       <c r="B48">
-        <v>7.453633592774363</v>
+        <v>7.453633592774362</v>
       </c>
       <c r="C48">
         <v>7.514119857120926e-5</v>
       </c>
       <c r="D48">
-        <v>-8.650175078283338e-6</v>
+        <v>-8.65017507828334e-6</v>
       </c>
       <c r="E48">
         <v>0.0019558233251568647</v>
@@ -2100,19 +2100,19 @@
         <v>-0.010705288040276841</v>
       </c>
       <c r="B49">
-        <v>7.443581121836596</v>
+        <v>7.443581121836597</v>
       </c>
       <c r="C49">
         <v>7.230756021016344e-5</v>
       </c>
       <c r="D49">
-        <v>-8.76704470076434e-6</v>
+        <v>-8.767044700764341e-6</v>
       </c>
       <c r="E49">
-        <v>0.001954940575728079</v>
+        <v>0.0019549405757280794</v>
       </c>
       <c r="F49">
-        <v>4.833221676539879e-5</v>
+        <v>4.8332216765398787e-5</v>
       </c>
       <c r="G49">
         <v>7.443590950316737</v>
@@ -2135,7 +2135,7 @@
         <v>-0.010076554422659534</v>
       </c>
       <c r="B50">
-        <v>7.4337542289824885</v>
+        <v>7.433754228982489</v>
       </c>
       <c r="C50">
         <v>6.950403873094592e-5</v>
@@ -2144,10 +2144,10 @@
         <v>-8.877283932740407e-6</v>
       </c>
       <c r="E50">
-        <v>0.001954064548980676</v>
+        <v>0.0019540645489806757</v>
       </c>
       <c r="F50">
-        <v>4.832973921105006e-5</v>
+        <v>4.832973921105007e-5</v>
       </c>
       <c r="G50">
         <v>7.433763634915339</v>
@@ -2176,7 +2176,7 @@
         <v>6.673139024761567e-5</v>
       </c>
       <c r="D51">
-        <v>-8.979884823715453e-6</v>
+        <v>-8.979884823715443e-6</v>
       </c>
       <c r="E51">
         <v>0.0019531959053059496</v>
@@ -2211,13 +2211,13 @@
         <v>6.399059163212007e-5</v>
       </c>
       <c r="D52">
-        <v>-9.07370097881741e-6</v>
+        <v>-9.073700978817409e-6</v>
       </c>
       <c r="E52">
-        <v>0.001952335394975187</v>
+        <v>0.0019523353949751866</v>
       </c>
       <c r="F52">
-        <v>4.83253782487196e-5</v>
+        <v>4.832537824871959e-5</v>
       </c>
       <c r="G52">
         <v>7.414782042566414</v>
@@ -2246,10 +2246,10 @@
         <v>6.128284835384585e-5</v>
       </c>
       <c r="D53">
-        <v>-9.157442549839814e-6</v>
+        <v>-9.157442549839811e-6</v>
       </c>
       <c r="E53">
-        <v>0.001951483863684467</v>
+        <v>0.0019514838636844672</v>
       </c>
       <c r="F53">
         <v>4.832347882650677e-5</v>
@@ -2281,7 +2281,7 @@
         <v>5.8609599001058465e-5</v>
       </c>
       <c r="D54">
-        <v>-9.229673381512869e-6</v>
+        <v>-9.22967338151287e-6</v>
       </c>
       <c r="E54">
         <v>0.0019506422566027315</v>
@@ -2310,19 +2310,19 @@
         <v>-0.006998343198967898</v>
       </c>
       <c r="B55">
-        <v>7.387989903707285</v>
+        <v>7.387989903707284</v>
       </c>
       <c r="C55">
         <v>5.597251596969688e-5</v>
       </c>
       <c r="D55">
-        <v>-9.288810636489704e-6</v>
+        <v>-9.28881063648971e-6</v>
       </c>
       <c r="E55">
-        <v>0.001949811620636317</v>
+        <v>0.0019498116206363172</v>
       </c>
       <c r="F55">
-        <v>4.83202076602972e-5</v>
+        <v>4.832020766029721e-5</v>
       </c>
       <c r="G55">
         <v>7.387996237096041</v>
@@ -2351,10 +2351,10 @@
         <v>5.3373501871633504e-5</v>
       </c>
       <c r="D56">
-        <v>-9.333127178006067e-6</v>
+        <v>-9.333127178006069e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019489931046483722</v>
+        <v>0.001948993104648372</v>
       </c>
       <c r="F56">
         <v>4.831882416181127e-5</v>
@@ -2386,7 +2386,7 @@
         <v>5.081468130227082e-5</v>
       </c>
       <c r="D57">
-        <v>-9.360756931368397e-6</v>
+        <v>-9.360756931368387e-6</v>
       </c>
       <c r="E57">
         <v>0.001948187957408198</v>
@@ -2421,13 +2421,13 @@
         <v>4.829838771408313e-5</v>
       </c>
       <c r="D58">
-        <v>-9.369703375851039e-6</v>
+        <v>-9.369703375851046e-6</v>
       </c>
       <c r="E58">
         <v>0.0019473975230932224</v>
       </c>
       <c r="F58">
-        <v>4.831653634552398e-5</v>
+        <v>4.831653634552397e-5</v>
       </c>
       <c r="G58">
         <v>7.363276193630665</v>
@@ -2450,7 +2450,7 @@
         <v>-0.004603064172547168</v>
       </c>
       <c r="B59">
-        <v>7.355506844237066</v>
+        <v>7.355506844237067</v>
       </c>
       <c r="C59">
         <v>4.582714526538377e-5</v>
@@ -2459,7 +2459,7 @@
         <v>-9.357851239316249e-6</v>
       </c>
       <c r="E59">
-        <v>0.001946623234224093</v>
+        <v>0.0019466232342240926</v>
       </c>
       <c r="F59">
         <v>4.831562355432568e-5</v>
@@ -2491,7 +2491,7 @@
         <v>4.3403645648401826e-5</v>
       </c>
       <c r="D60">
-        <v>-9.322981381443746e-6</v>
+        <v>-9.322981381443751e-6</v>
       </c>
       <c r="E60">
         <v>0.0019458666019798205</v>
@@ -2526,10 +2526,10 @@
         <v>4.1030720043311676e-5</v>
       </c>
       <c r="D61">
-        <v>-9.262788760747736e-6</v>
+        <v>-9.262788760747764e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019451292039132197</v>
+        <v>0.0019451292039132195</v>
       </c>
       <c r="F61">
         <v>4.8314242145395944e-5</v>
@@ -2555,19 +2555,19 @@
         <v>-0.00283813027956235</v>
       </c>
       <c r="B62">
-        <v>7.333690620575866</v>
+        <v>7.333690620575868</v>
       </c>
       <c r="C62">
         <v>3.87113064903532e-5</v>
       </c>
       <c r="D62">
-        <v>-9.174903288678253e-6</v>
+        <v>-9.174903288678245e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019444126691647284</v>
+        <v>0.0019444126691647277</v>
       </c>
       <c r="F62">
-        <v>4.8313767317771554e-5</v>
+        <v>4.831376731777156e-5</v>
       </c>
       <c r="G62">
         <v>7.3336906053799344</v>
@@ -2590,19 +2590,19 @@
         <v>-0.002254859377841395</v>
       </c>
       <c r="B63">
-        <v>7.326927989927708</v>
+        <v>7.326927989927707</v>
       </c>
       <c r="C63">
         <v>3.644841311560979e-5</v>
       </c>
       <c r="D63">
-        <v>-9.056913284232577e-6</v>
+        <v>-9.056913284232573e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019437186613525468</v>
+        <v>0.0019437186613525473</v>
       </c>
       <c r="F63">
-        <v>4.831343270549697e-5</v>
+        <v>4.831343270549698e-5</v>
       </c>
       <c r="G63">
         <v>7.326927007250884</v>
@@ -2666,7 +2666,7 @@
         <v>3.2104324864245845e-5</v>
       </c>
       <c r="D65">
-        <v>-8.72092087631025e-6</v>
+        <v>-8.720920876310229e-6</v>
       </c>
       <c r="E65">
         <v>0.0019424049366044275</v>
@@ -2695,13 +2695,13 @@
         <v>-0.0005176666397195308</v>
       </c>
       <c r="B66">
-        <v>7.308236284751118</v>
+        <v>7.308236284751119</v>
       </c>
       <c r="C66">
         <v>3.0029119944862788e-5</v>
       </c>
       <c r="D66">
-        <v>-8.498126696196171e-6</v>
+        <v>-8.498126696196173e-6</v>
       </c>
       <c r="E66">
         <v>0.0019417885384317433</v>
@@ -2730,7 +2730,7 @@
         <v>5.7782087777367985e-5</v>
       </c>
       <c r="B67">
-        <v>7.30255267111846</v>
+        <v>7.302552671118461</v>
       </c>
       <c r="C67">
         <v>2.8022323335520698e-5</v>
@@ -2739,7 +2739,7 @@
         <v>-8.235702597566557e-6</v>
       </c>
       <c r="E67">
-        <v>0.0019412012593570894</v>
+        <v>0.0019412012593570897</v>
       </c>
       <c r="F67">
         <v>4.831344778168348e-5</v>
@@ -2765,19 +2765,19 @@
         <v>0.0006317172224110899</v>
       </c>
       <c r="B68">
-        <v>7.297148958521199</v>
+        <v>7.2971489585212</v>
       </c>
       <c r="C68">
         <v>2.6086643367960267e-5</v>
       </c>
       <c r="D68">
-        <v>-7.931441815812189e-6</v>
+        <v>-7.931441815812176e-6</v>
       </c>
       <c r="E68">
-        <v>0.0019406446193971395</v>
+        <v>0.001940644619397139</v>
       </c>
       <c r="F68">
-        <v>4.831377858121975e-5</v>
+        <v>4.831377858121974e-5</v>
       </c>
       <c r="G68">
         <v>7.297143659633479</v>
@@ -2806,7 +2806,7 @@
         <v>2.422459045648027e-5</v>
       </c>
       <c r="D69">
-        <v>-7.583265844992843e-6</v>
+        <v>-7.583265844992857e-6</v>
       </c>
       <c r="E69">
         <v>0.001940120040789457</v>
@@ -2841,10 +2841,10 @@
         <v>2.243843293499049e-5</v>
       </c>
       <c r="D70">
-        <v>-7.189252283217244e-6</v>
+        <v>-7.189252283217239e-6</v>
       </c>
       <c r="E70">
-        <v>0.0019396288254021053</v>
+        <v>0.001939628825402105</v>
       </c>
       <c r="F70">
         <v>4.831481705108507e-5</v>
@@ -2914,7 +2914,7 @@
         <v>-6.256957360751924e-6</v>
       </c>
       <c r="E72">
-        <v>0.0019387509638730408</v>
+        <v>0.001938750963873041</v>
       </c>
       <c r="F72">
         <v>4.831634260553248e-5</v>
@@ -2940,16 +2940,16 @@
         <v>0.003484827813808121</v>
       </c>
       <c r="B73">
-        <v>7.274406522558389</v>
+        <v>7.274406522558391</v>
       </c>
       <c r="C73">
         <v>1.7553542248893908e-5</v>
       </c>
       <c r="D73">
-        <v>-5.715834001791775e-6</v>
+        <v>-5.7158340017917644e-6</v>
       </c>
       <c r="E73">
-        <v>0.0019383661374196375</v>
+        <v>0.0019383661374196373</v>
       </c>
       <c r="F73">
         <v>4.8317281936639994e-5</v>
@@ -2975,16 +2975,16 @@
         <v>0.004053360143205703</v>
       </c>
       <c r="B74">
-        <v>7.270716750017894</v>
+        <v>7.270716750017895</v>
       </c>
       <c r="C74">
         <v>1.608744281943417e-5</v>
       </c>
       <c r="D74">
-        <v>-5.123227286522678e-6</v>
+        <v>-5.123227286522679e-6</v>
       </c>
       <c r="E74">
-        <v>0.001938018281977552</v>
+        <v>0.0019380182819775519</v>
       </c>
       <c r="F74">
         <v>4.831833549704525e-5</v>
@@ -3045,19 +3045,19 @@
         <v>0.005189729083116528</v>
       </c>
       <c r="B76">
-        <v>7.264182101160975</v>
+        <v>7.2641821011609755</v>
       </c>
       <c r="C76">
         <v>1.3402260656667653e-5</v>
       </c>
       <c r="D76">
-        <v>-3.7806079235060974e-6</v>
+        <v>-3.780607923506091e-6</v>
       </c>
       <c r="E76">
-        <v>0.0019374349678469242</v>
+        <v>0.001937434967846924</v>
       </c>
       <c r="F76">
-        <v>4.832077413138364e-5</v>
+        <v>4.832077413138365e-5</v>
       </c>
       <c r="G76">
         <v>7.264174217601715</v>
@@ -3089,10 +3089,10 @@
         <v>-3.0297907578414557e-6</v>
       </c>
       <c r="E77">
-        <v>0.0019371997172394227</v>
+        <v>0.0019371997172394225</v>
       </c>
       <c r="F77">
-        <v>4.832215328774189e-5</v>
+        <v>4.8322153287741884e-5</v>
       </c>
       <c r="G77">
         <v>7.261321289259827</v>
@@ -3121,7 +3121,7 @@
         <v>1.1044991365809253e-5</v>
       </c>
       <c r="D78">
-        <v>-2.225887148666849e-6</v>
+        <v>-2.225887148666831e-6</v>
       </c>
       <c r="E78">
         <v>0.0019370018492320738</v>
@@ -3150,19 +3150,19 @@
         <v>0.006895153413334281</v>
       </c>
       <c r="B79">
-        <v>7.256422663189997</v>
+        <v>7.256422663189995</v>
       </c>
       <c r="C79">
         <v>9.987182234415352e-6</v>
       </c>
       <c r="D79">
-        <v>-1.3691738198232823e-6</v>
+        <v>-1.3691738198232889e-6</v>
       </c>
       <c r="E79">
         <v>0.0019368409303929719</v>
       </c>
       <c r="F79">
-        <v>4.832521550327285e-5</v>
+        <v>4.8325215503272856e-5</v>
       </c>
       <c r="G79">
         <v>7.256415641395047</v>
@@ -3185,16 +3185,16 @@
         <v>0.007464556767332434</v>
       </c>
       <c r="B80">
-        <v>7.2543549592745595</v>
+        <v>7.254354959274559</v>
       </c>
       <c r="C80">
         <v>9.007946803561888e-6</v>
       </c>
       <c r="D80">
-        <v>-4.6018888409155835e-7</v>
+        <v>-4.6018888409156317e-7</v>
       </c>
       <c r="E80">
-        <v>0.001936716321291435</v>
+        <v>0.0019367163212914353</v>
       </c>
       <c r="F80">
         <v>4.832689188281797e-5</v>
@@ -3226,13 +3226,13 @@
         <v>8.10530924357935e-6</v>
       </c>
       <c r="D81">
-        <v>5.002804760179809e-7</v>
+        <v>5.002804760179792e-7</v>
       </c>
       <c r="E81">
-        <v>0.0019366271870397136</v>
+        <v>0.0019366271870397134</v>
       </c>
       <c r="F81">
-        <v>4.832866047499721e-5</v>
+        <v>4.832866047499722e-5</v>
       </c>
       <c r="G81">
         <v>7.252527072921325</v>
@@ -3261,13 +3261,13 @@
         <v>7.276928531823455e-6</v>
       </c>
       <c r="D82">
-        <v>1.5112142447773626e-6</v>
+        <v>1.5112142447773628e-6</v>
       </c>
       <c r="E82">
-        <v>0.0019365725110456892</v>
+        <v>0.001936572511045689</v>
       </c>
       <c r="F82">
-        <v>4.8330517687708104e-5</v>
+        <v>4.83305176877081e-5</v>
       </c>
       <c r="G82">
         <v>7.250942073468556</v>
@@ -3290,19 +3290,19 @@
         <v>0.009177994314151044</v>
       </c>
       <c r="B83">
-        <v>7.249587725868429</v>
+        <v>7.24958772586843</v>
       </c>
       <c r="C83">
         <v>6.520129634001396e-6</v>
       </c>
       <c r="D83">
-        <v>2.5713793526217697e-6</v>
+        <v>2.5713793526217977e-6</v>
       </c>
       <c r="E83">
-        <v>0.0019365511116149025</v>
+        <v>0.0019365511116149021</v>
       </c>
       <c r="F83">
-        <v>4.8332459856878173e-5</v>
+        <v>4.833245985687818e-5</v>
       </c>
       <c r="G83">
         <v>7.2495832054906835</v>
@@ -3325,7 +3325,7 @@
         <v>0.00975146571168109</v>
       </c>
       <c r="B84">
-        <v>7.248443313279075</v>
+        <v>7.2484433132790755</v>
       </c>
       <c r="C84">
         <v>5.831939528956628e-6</v>
@@ -3334,7 +3334,7 @@
         <v>3.6793525446705787e-6</v>
       </c>
       <c r="E84">
-        <v>0.0019365616609718908</v>
+        <v>0.0019365616609718906</v>
       </c>
       <c r="F84">
         <v>4.833448326646839e-5</v>
@@ -3360,19 +3360,19 @@
         <v>0.010326392282722006</v>
       </c>
       <c r="B85">
-        <v>7.2475027182770235</v>
+        <v>7.247502718277023</v>
       </c>
       <c r="C85">
         <v>5.2091272364998595e-6</v>
       </c>
       <c r="D85">
-        <v>4.833545817890128e-6</v>
+        <v>4.8335458178901216e-6</v>
       </c>
       <c r="E85">
-        <v>0.001936602706217224</v>
+        <v>0.0019366027062172242</v>
       </c>
       <c r="F85">
-        <v>4.8336584170560205e-5</v>
+        <v>4.83365841705602e-5</v>
       </c>
       <c r="G85">
         <v>7.247499864194169</v>
@@ -3395,13 +3395,13 @@
         <v>0.010902950103029704</v>
       </c>
       <c r="B86">
-        <v>7.2467541506015865</v>
+        <v>7.246754150601586</v>
       </c>
       <c r="C86">
         <v>4.64824692692073e-6</v>
       </c>
       <c r="D86">
-        <v>6.032233854045166e-6</v>
+        <v>6.032233854045174e-6</v>
       </c>
       <c r="E86">
         <v>0.0019366726916992074</v>
@@ -3436,7 +3436,7 @@
         <v>4.145683136205135e-6</v>
       </c>
       <c r="D87">
-        <v>7.2735828391259684e-6</v>
+        <v>7.273582839125967e-6</v>
       </c>
       <c r="E87">
         <v>0.0019367699822588796</v>
@@ -3471,7 +3471,7 @@
         <v>3.697697084116364e-6</v>
       </c>
       <c r="D88">
-        <v>8.555680040389101e-6</v>
+        <v>8.5556800403891e-6</v>
       </c>
       <c r="E88">
         <v>0.0019368928868037313</v>
@@ -3506,10 +3506,10 @@
         <v>3.3004730936994757e-6</v>
       </c>
       <c r="D89">
-        <v>9.876563510024296e-6</v>
+        <v>9.876563510024315e-6</v>
       </c>
       <c r="E89">
-        <v>0.0019370396816790825</v>
+        <v>0.0019370396816790827</v>
       </c>
       <c r="F89">
         <v>4.834568813335738e-5</v>
@@ -3541,7 +3541,7 @@
         <v>2.950164140045653e-6</v>
       </c>
       <c r="D90">
-        <v>1.1234251299721558e-5</v>
+        <v>1.123425129972156e-5</v>
       </c>
       <c r="E90">
         <v>0.0019372086333351189</v>
@@ -3570,7 +3570,7 @@
         <v>0.013816408599050652</v>
       </c>
       <c r="B91">
-        <v>7.245466036965577</v>
+        <v>7.245466036965578</v>
       </c>
       <c r="C91">
         <v>2.642935612018863e-6</v>
@@ -3579,10 +3579,10 @@
         <v>1.2626769602467926e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019373980198305863</v>
+        <v>0.001937398019830586</v>
       </c>
       <c r="F91">
-        <v>4.835060965746231e-5</v>
+        <v>4.83506096574623e-5</v>
       </c>
       <c r="G91">
         <v>7.245468733223339</v>
@@ -3605,19 +3605,19 @@
         <v>0.01440648327786373</v>
       </c>
       <c r="B92">
-        <v>7.245614655613627</v>
+        <v>7.245614655613628</v>
       </c>
       <c r="C92">
         <v>2.375006450929322e-6</v>
       </c>
       <c r="D92">
-        <v>1.405217928560327e-5</v>
+        <v>1.4052179285603287e-5</v>
       </c>
       <c r="E92">
-        <v>0.001937606150769022</v>
+        <v>0.0019376061507690226</v>
       </c>
       <c r="F92">
-        <v>4.835315085253368e-5</v>
+        <v>4.835315085253369e-5</v>
       </c>
       <c r="G92">
         <v>7.245618238923751</v>
@@ -3652,7 +3652,7 @@
         <v>0.001937831385327638</v>
       </c>
       <c r="F93">
-        <v>4.835574150555237e-5</v>
+        <v>4.835574150555236e-5</v>
       </c>
       <c r="G93">
         <v>7.245875975090548</v>
@@ -3681,7 +3681,7 @@
         <v>1.9424124727518804e-6</v>
       </c>
       <c r="D94">
-        <v>1.6994233850253716e-5</v>
+        <v>1.6994233850253723e-5</v>
       </c>
       <c r="E94">
         <v>0.0019380721481100842</v>
@@ -3751,10 +3751,10 @@
         <v>1.6245374560889814e-6</v>
       </c>
       <c r="D96">
-        <v>2.004645996447209e-5</v>
+        <v>2.004645996447208e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019385943623038634</v>
+        <v>0.0019385943623038636</v>
       </c>
       <c r="F96">
         <v>4.836378234368517e-5</v>
@@ -3786,7 +3786,7 @@
         <v>1.5006734762769876e-6</v>
       </c>
       <c r="D97">
-        <v>2.1610017366327826e-5</v>
+        <v>2.1610017366327822e-5</v>
       </c>
       <c r="E97">
         <v>0.0019388730989233294</v>
@@ -3821,13 +3821,13 @@
         <v>1.3963618137702502e-6</v>
       </c>
       <c r="D98">
-        <v>2.3196739529938358e-5</v>
+        <v>2.319673952993839e-5</v>
       </c>
       <c r="E98">
         <v>0.0019391619486150886</v>
       </c>
       <c r="F98">
-        <v>4.836934294171191e-5</v>
+        <v>4.8369342941711904e-5</v>
       </c>
       <c r="G98">
         <v>7.248430009941102</v>
@@ -3856,10 +3856,10 @@
         <v>1.309005969990929e-6</v>
       </c>
       <c r="D99">
-        <v>2.48054583086167e-5</v>
+        <v>2.4805458308616695e-5</v>
       </c>
       <c r="E99">
-        <v>0.0019394598154030868</v>
+        <v>0.0019394598154030863</v>
       </c>
       <c r="F99">
         <v>4.8372177279489506e-5</v>
@@ -3920,7 +3920,7 @@
         <v>0.0198687945730677</v>
       </c>
       <c r="B101">
-        <v>7.250655216566606</v>
+        <v>7.2506552165666065</v>
       </c>
       <c r="C101">
         <v>1.1759140502105438e-6</v>
@@ -3955,19 +3955,19 @@
         <v>0.020495973584699234</v>
       </c>
       <c r="B102">
-        <v>7.251475495607286</v>
+        <v>7.251475495607287</v>
       </c>
       <c r="C102">
         <v>1.1261205687943617e-6</v>
       </c>
       <c r="D102">
-        <v>2.9754152625404536e-5</v>
+        <v>2.975415262540451e-5</v>
       </c>
       <c r="E102">
-        <v>0.001940398190264096</v>
+        <v>0.0019403981902640958</v>
       </c>
       <c r="F102">
-        <v>4.838087909336259e-5</v>
+        <v>4.83808790933626e-5</v>
       </c>
       <c r="G102">
         <v>7.251485186038829</v>
@@ -3996,7 +3996,7 @@
         <v>1.0851574668107417e-6</v>
       </c>
       <c r="D103">
-        <v>3.144215581857263e-5</v>
+        <v>3.144215581857261e-5</v>
       </c>
       <c r="E103">
         <v>0.0019407233277635408</v>
@@ -4025,16 +4025,16 @@
         <v>0.021764762428936386</v>
       </c>
       <c r="B104">
-        <v>7.25319999582902</v>
+        <v>7.253199995829022</v>
       </c>
       <c r="C104">
         <v>1.0515329933475969e-6</v>
       </c>
       <c r="D104">
-        <v>3.3148530029725617e-5</v>
+        <v>3.314853002972562e-5</v>
       </c>
       <c r="E104">
-        <v>0.0019410535997705517</v>
+        <v>0.0019410535997705521</v>
       </c>
       <c r="F104">
         <v>4.838683621022844e-5</v>
@@ -4066,10 +4066,10 @@
         <v>1.0239503704505589e-6</v>
       </c>
       <c r="D105">
-        <v>3.4872965923222125e-5</v>
+        <v>3.487296592322209e-5</v>
       </c>
       <c r="E105">
-        <v>0.001941388521905088</v>
+        <v>0.0019413885219050882</v>
       </c>
       <c r="F105">
         <v>4.838985976340012e-5</v>
@@ -4095,19 +4095,19 @@
         <v>0.023054090203703095</v>
       </c>
       <c r="B106">
-        <v>7.255011417133656</v>
+        <v>7.255011417133657</v>
       </c>
       <c r="C106">
         <v>1.0012936141668964e-6</v>
       </c>
       <c r="D106">
-        <v>3.661527542287029e-5</v>
+        <v>3.6615275422870296e-5</v>
       </c>
       <c r="E106">
-        <v>0.0019417276926508237</v>
+        <v>0.0019417276926508233</v>
       </c>
       <c r="F106">
-        <v>4.839291298757361e-5</v>
+        <v>4.8392912987573604e-5</v>
       </c>
       <c r="G106">
         <v>7.2550220117908335</v>
@@ -4139,7 +4139,7 @@
         <v>3.83753820568039e-5</v>
       </c>
       <c r="E107">
-        <v>0.001942070785813739</v>
+        <v>0.0019420707858137393</v>
       </c>
       <c r="F107">
         <v>4.839599585808471e-5</v>
@@ -4171,7 +4171,7 @@
         <v>9.671046452385703e-7</v>
       </c>
       <c r="D108">
-        <v>4.01533108319015e-5</v>
+        <v>4.0153310831901505e-5</v>
       </c>
       <c r="E108">
         <v>0.0019424175427841157</v>
@@ -4206,7 +4206,7 @@
         <v>9.541028934868005e-7</v>
       </c>
       <c r="D109">
-        <v>4.194917795610123e-5</v>
+        <v>4.194917795610125e-5</v>
       </c>
       <c r="E109">
         <v>0.0019427677648205784</v>
@@ -4276,10 +4276,10 @@
         <v>9.335130520671367e-7</v>
       </c>
       <c r="D111">
-        <v>4.559558756176329e-5</v>
+        <v>4.5595587561763295e-5</v>
       </c>
       <c r="E111">
-        <v>0.0019434780637902758</v>
+        <v>0.0019434780637902756</v>
       </c>
       <c r="F111">
         <v>4.840862845278524e-5</v>
@@ -4311,10 +4311,10 @@
         <v>9.251124809465381e-7</v>
       </c>
       <c r="D112">
-        <v>4.7446729147564185e-5</v>
+        <v>4.744672914756417e-5</v>
       </c>
       <c r="E112">
-        <v>0.0019438379769530466</v>
+        <v>0.0019438379769530461</v>
       </c>
       <c r="F112">
         <v>4.8411864108774024e-5</v>
@@ -4340,7 +4340,7 @@
         <v>0.027751536644802927</v>
       </c>
       <c r="B113">
-        <v>7.2617695059984175</v>
+        <v>7.261769505998419</v>
       </c>
       <c r="C113">
         <v>9.175646781449658e-7</v>
@@ -4349,7 +4349,7 @@
         <v>4.931698954324072e-5</v>
       </c>
       <c r="E113">
-        <v>0.0019442010148793306</v>
+        <v>0.0019442010148793304</v>
       </c>
       <c r="F113">
         <v>4.841513200430585e-5</v>
@@ -4387,7 +4387,7 @@
         <v>0.0019445671743912665</v>
       </c>
       <c r="F114">
-        <v>4.841843289358045e-5</v>
+        <v>4.8418432893580455e-5</v>
       </c>
       <c r="G114">
         <v>7.2627823641129075</v>
@@ -4416,13 +4416,13 @@
         <v>9.04166331884422e-7</v>
       </c>
       <c r="D115">
-        <v>5.3116625272814324e-5</v>
+        <v>5.311662527281433e-5</v>
       </c>
       <c r="E115">
-        <v>0.0019449364744441747</v>
+        <v>0.0019449364744441745</v>
       </c>
       <c r="F115">
-        <v>4.842176759050914e-5</v>
+        <v>4.842176759050915e-5</v>
       </c>
       <c r="G115">
         <v>7.263791788652556</v>
@@ -4451,7 +4451,7 @@
         <v>8.980019299232468e-7</v>
       </c>
       <c r="D116">
-        <v>5.5046971189448044e-5</v>
+        <v>5.504697118944806e-5</v>
       </c>
       <c r="E116">
         <v>0.001945308951923038</v>
@@ -4486,13 +4486,13 @@
         <v>8.920448826767643e-7</v>
       </c>
       <c r="D117">
-        <v>5.699836594620142e-5</v>
+        <v>5.6998365946201434e-5</v>
       </c>
       <c r="E117">
         <v>0.0019456846580540286</v>
       </c>
       <c r="F117">
-        <v>4.842854190754162e-5</v>
+        <v>4.8428541907541624e-5</v>
       </c>
       <c r="G117">
         <v>7.2658322655806264</v>
@@ -4521,7 +4521,7 @@
         <v>8.862173630654724e-7</v>
       </c>
       <c r="D118">
-        <v>5.897136256781738e-5</v>
+        <v>5.897136256781739e-5</v>
       </c>
       <c r="E118">
         <v>0.001946063655392348</v>
@@ -4550,13 +4550,13 @@
         <v>0.03204719074551874</v>
       </c>
       <c r="B119">
-        <v>7.267890817610465</v>
+        <v>7.267890817610464</v>
       </c>
       <c r="C119">
         <v>8.80461632612253e-7</v>
       </c>
       <c r="D119">
-        <v>6.096653398421549e-5</v>
+        <v>6.0966533984215486e-5</v>
       </c>
       <c r="E119">
         <v>0.0019464460153363573</v>
@@ -4591,7 +4591,7 @@
         <v>8.747353300897676e-7</v>
       </c>
       <c r="D120">
-        <v>6.298447014635549e-5</v>
+        <v>6.29844701463555e-5</v>
       </c>
       <c r="E120">
         <v>0.0019468318161109397</v>
@@ -4620,19 +4620,19 @@
         <v>0.03354297139835178</v>
       </c>
       <c r="B121">
-        <v>7.269989027986277</v>
+        <v>7.269989027986276</v>
       </c>
       <c r="C121">
         <v>8.690076833305182e-7</v>
       </c>
       <c r="D121">
-        <v>6.502577574405579e-5</v>
+        <v>6.50257757440558e-5</v>
       </c>
       <c r="E121">
-        <v>0.0019472211411598946</v>
+        <v>0.0019472211411598948</v>
       </c>
       <c r="F121">
-        <v>4.844253678062505e-5</v>
+        <v>4.844253678062506e-5</v>
       </c>
       <c r="G121">
         <v>7.269999362677984</v>
@@ -4661,10 +4661,10 @@
         <v>8.632565153393921e-7</v>
       </c>
       <c r="D122">
-        <v>6.709106844285522e-5</v>
+        <v>6.709106844285521e-5</v>
       </c>
       <c r="E122">
-        <v>0.0019476140778872176</v>
+        <v>0.0019476140778872174</v>
       </c>
       <c r="F122">
         <v>4.844613431646795e-5</v>
@@ -4690,19 +4690,19 @@
         <v>0.0350737207606516</v>
       </c>
       <c r="B123">
-        <v>7.272117192251825</v>
+        <v>7.272117192251826</v>
       </c>
       <c r="C123">
         <v>8.574659191211261e-7</v>
       </c>
       <c r="D123">
-        <v>6.918097755884668e-5</v>
+        <v>6.91809775588467e-5</v>
       </c>
       <c r="E123">
-        <v>0.0019480107166897386</v>
+        <v>0.0019480107166897382</v>
       </c>
       <c r="F123">
-        <v>4.844977347051021e-5</v>
+        <v>4.844977347051022e-5</v>
       </c>
       <c r="G123">
         <v>7.272127357055651</v>
@@ -4725,16 +4725,16 @@
         <v>0.03585279302173329</v>
       </c>
       <c r="B124">
-        <v>7.273192877141368</v>
+        <v>7.273192877141367</v>
       </c>
       <c r="C124">
         <v>8.516244836206167e-7</v>
       </c>
       <c r="D124">
-        <v>7.12961430953689e-5</v>
+        <v>7.129614309536889e-5</v>
       </c>
       <c r="E124">
-        <v>0.0019484111502280745</v>
+        <v>0.0019484111502280747</v>
       </c>
       <c r="F124">
         <v>4.8453455318598734e-5</v>
@@ -4760,13 +4760,13 @@
         <v>0.036641314191818215</v>
       </c>
       <c r="B125">
-        <v>7.27427651299584</v>
+        <v>7.274276512995842</v>
       </c>
       <c r="C125">
         <v>8.45723964391273e-7</v>
       </c>
       <c r="D125">
-        <v>7.343721507255556e-5</v>
+        <v>7.343721507255559e-5</v>
       </c>
       <c r="E125">
         <v>0.0019488154728885165</v>
@@ -4795,19 +4795,19 @@
         <v>0.03743952576167768</v>
       </c>
       <c r="B126">
-        <v>7.2753682673424755</v>
+        <v>7.275368267342476</v>
       </c>
       <c r="C126">
         <v>8.397583056994181e-7</v>
       </c>
       <c r="D126">
-        <v>7.560485308912708e-5</v>
+        <v>7.560485308912707e-5</v>
       </c>
       <c r="E126">
-        <v>0.0019492237803947834</v>
+        <v>0.0019492237803947832</v>
       </c>
       <c r="F126">
-        <v>4.8460951475881014e-5</v>
+        <v>4.846095147588101e-5</v>
       </c>
       <c r="G126">
         <v>7.275378166611079</v>
@@ -4842,7 +4842,7 @@
         <v>0.001949636169535001</v>
       </c>
       <c r="F127">
-        <v>4.8464768010586255e-5</v>
+        <v>4.846476801058626e-5</v>
       </c>
       <c r="G127">
         <v>7.276478118257424</v>
@@ -4865,19 +4865,19 @@
         <v>0.03906600097747604</v>
       </c>
       <c r="B128">
-        <v>7.277576809909833</v>
+        <v>7.277576809909834</v>
       </c>
       <c r="C128">
         <v>8.276142608686574e-7</v>
       </c>
       <c r="D128">
-        <v>8.002251211964515e-5</v>
+        <v>8.002251211964514e-5</v>
       </c>
       <c r="E128">
-        <v>0.0019500527379754506</v>
+        <v>0.0019500527379754504</v>
       </c>
       <c r="F128">
-        <v>4.846863168976607e-5</v>
+        <v>4.8468631689766065e-5</v>
       </c>
       <c r="G128">
         <v>7.277586526918893</v>
@@ -4900,19 +4900,19 @@
         <v>0.03989476274416206</v>
       </c>
       <c r="B129">
-        <v>7.2786939375601865</v>
+        <v>7.278693937560186</v>
       </c>
       <c r="C129">
         <v>8.214293301662536e-7</v>
       </c>
       <c r="D129">
-        <v>8.227389855785169e-5</v>
+        <v>8.227389855785168e-5</v>
       </c>
       <c r="E129">
-        <v>0.0019504735841382969</v>
+        <v>0.0019504735841382973</v>
       </c>
       <c r="F129">
-        <v>4.847254366118166e-5</v>
+        <v>4.8472543661181665e-5</v>
       </c>
       <c r="G129">
         <v>7.278703562043626</v>
@@ -4941,7 +4941,7 @@
         <v>8.151655875085342e-7</v>
       </c>
       <c r="D130">
-        <v>8.45545819249123e-5</v>
+        <v>8.455458192491231e-5</v>
       </c>
       <c r="E130">
         <v>0.0019508988071255179</v>
@@ -4970,19 +4970,19 @@
         <v>0.04158460374668306</v>
       </c>
       <c r="B131">
-        <v>7.280954746291025</v>
+        <v>7.280954746291026</v>
       </c>
       <c r="C131">
         <v>8.088207198948566e-7</v>
       </c>
       <c r="D131">
-        <v>8.686526812085453e-5</v>
+        <v>8.686526812085451e-5</v>
       </c>
       <c r="E131">
         <v>0.0019513285066754715</v>
       </c>
       <c r="F131">
-        <v>4.84805171420442e-5</v>
+        <v>4.8480517142044204e-5</v>
       </c>
       <c r="G131">
         <v>7.280964183154448</v>
@@ -5005,16 +5005,16 @@
         <v>0.04244620050953257</v>
       </c>
       <c r="B132">
-        <v>7.282098758403994</v>
+        <v>7.282098758403995</v>
       </c>
       <c r="C132">
         <v>8.023925534066023e-7</v>
       </c>
       <c r="D132">
-        <v>8.920667255161511e-5</v>
+        <v>8.920667255161513e-5</v>
       </c>
       <c r="E132">
-        <v>0.0019517627831420628</v>
+        <v>0.0019517627831420626</v>
       </c>
       <c r="F132">
         <v>4.848458101784086e-5</v>
@@ -5040,19 +5040,19 @@
         <v>0.04331926546396146</v>
       </c>
       <c r="B133">
-        <v>7.283252059419581</v>
+        <v>7.283252059419582</v>
       </c>
       <c r="C133">
         <v>7.958789874070942e-7</v>
       </c>
       <c r="D133">
-        <v>9.157952030781124e-5</v>
+        <v>9.157952030781123e-5</v>
       </c>
       <c r="E133">
-        <v>0.0019522017374891962</v>
+        <v>0.001952201737489196</v>
       </c>
       <c r="F133">
-        <v>4.848869791905721e-5</v>
+        <v>4.84886979190572e-5</v>
       </c>
       <c r="G133">
         <v>7.283261305164588</v>
@@ -5075,16 +5075,16 @@
         <v>0.044204065992935755</v>
       </c>
       <c r="B134">
-        <v>7.28441480915221</v>
+        <v>7.284414809152211</v>
       </c>
       <c r="C134">
         <v>7.892779533084023e-7</v>
       </c>
       <c r="D134">
-        <v>9.398454636265194e-5</v>
+        <v>9.398454636265197e-5</v>
       </c>
       <c r="E134">
-        <v>0.0019526454712953949</v>
+        <v>0.0019526454712953945</v>
       </c>
       <c r="F134">
         <v>4.8492869065705104e-5</v>
@@ -5116,10 +5116,10 @@
         <v>7.825873892298123e-7</v>
       </c>
       <c r="D135">
-        <v>9.642249578334936e-5</v>
+        <v>9.642249578334939e-5</v>
       </c>
       <c r="E135">
-        <v>0.001953094086765031</v>
+        <v>0.0019530940867650312</v>
       </c>
       <c r="F135">
         <v>4.8497095693069374e-5</v>
@@ -5151,7 +5151,7 @@
         <v>7.758052246866655e-7</v>
       </c>
       <c r="D136">
-        <v>9.88941239522349e-5</v>
+        <v>9.889412395223489e-5</v>
       </c>
       <c r="E136">
         <v>0.00195354768674381</v>
@@ -5186,10 +5186,10 @@
         <v>7.689293714488536e-7</v>
       </c>
       <c r="D137">
-        <v>0.0001014001967951043</v>
+        <v>0.00010140019679510434</v>
       </c>
       <c r="E137">
-        <v>0.001954006374736959</v>
+        <v>0.0019540063747369592</v>
       </c>
       <c r="F137">
         <v>4.8505720409410075e-5</v>
@@ -5221,13 +5221,13 @@
         <v>7.619577180963518e-7</v>
       </c>
       <c r="D138">
-        <v>0.00010394149101522623</v>
+        <v>0.00010394149101522624</v>
       </c>
       <c r="E138">
         <v>0.001954470254929159</v>
       </c>
       <c r="F138">
-        <v>4.851012104829226e-5</v>
+        <v>4.851012104829227e-5</v>
       </c>
       <c r="G138">
         <v>7.289172152926468</v>
@@ -5250,19 +5250,19 @@
         <v>0.048813716926712804</v>
       </c>
       <c r="B139">
-        <v>7.2903756992610615</v>
+        <v>7.290375699261061</v>
       </c>
       <c r="C139">
         <v>7.548881267302548e-7</v>
       </c>
       <c r="D139">
-        <v>0.0001065187943320662</v>
+        <v>0.00010651879433206619</v>
       </c>
       <c r="E139">
         <v>0.0019549394322056165</v>
       </c>
       <c r="F139">
-        <v>4.851458226839367e-5</v>
+        <v>4.851458226839366e-5</v>
       </c>
       <c r="G139">
         <v>7.290384349979872</v>
@@ -5285,19 +5285,19 @@
         <v>0.04977475308849331</v>
       </c>
       <c r="B140">
-        <v>7.291598349180603</v>
+        <v>7.291598349180604</v>
       </c>
       <c r="C140">
         <v>7.477184309038413e-7</v>
       </c>
       <c r="D140">
-        <v>0.00010913290572417669</v>
+        <v>0.0001091329057241767</v>
       </c>
       <c r="E140">
-        <v>0.0019554140121739354</v>
+        <v>0.001955414012173935</v>
       </c>
       <c r="F140">
-        <v>4.851910538640686e-5</v>
+        <v>4.8519105386406864e-5</v>
       </c>
       <c r="G140">
         <v>7.291606897443688</v>
@@ -5320,16 +5320,16 @@
         <v>0.050749501868359255</v>
       </c>
       <c r="B141">
-        <v>7.292831490860294</v>
+        <v>7.292831490860295</v>
       </c>
       <c r="C141">
         <v>7.404464342233365e-7</v>
       </c>
       <c r="D141">
-        <v>0.00011178463567595893</v>
+        <v>0.00011178463567595895</v>
       </c>
       <c r="E141">
-        <v>0.0019558941011865966</v>
+        <v>0.001955894101186596</v>
       </c>
       <c r="F141">
         <v>4.852369173636157e-5</v>
@@ -5361,13 +5361,13 @@
         <v>7.330699093038026e-7</v>
       </c>
       <c r="D142">
-        <v>0.00011447480642815922</v>
+        <v>0.00011447480642815924</v>
       </c>
       <c r="E142">
         <v>0.0019563798063639464</v>
       </c>
       <c r="F142">
-        <v>4.852834266998833e-5</v>
+        <v>4.852834266998834e-5</v>
       </c>
       <c r="G142">
         <v>7.294083602062645</v>
@@ -5396,7 +5396,7 @@
         <v>7.255865969046137e-7</v>
       </c>
       <c r="D143">
-        <v>0.00011720425223205603</v>
+        <v>0.00011720425223205601</v>
       </c>
       <c r="E143">
         <v>0.00195687123561765</v>
@@ -5431,13 +5431,13 @@
         <v>7.17994205151078e-7</v>
       </c>
       <c r="D144">
-        <v>0.00011997381960734889</v>
+        <v>0.00011997381960734885</v>
       </c>
       <c r="E144">
-        <v>0.0019573684976746104</v>
+        <v>0.001957368497674611</v>
       </c>
       <c r="F144">
-        <v>4.853784378589879e-5</v>
+        <v>4.85378437858988e-5</v>
       </c>
       <c r="G144">
         <v>7.296603353003575</v>
@@ -5460,7 +5460,7 @@
         <v>0.05479165858043223</v>
       </c>
       <c r="B145">
-        <v>7.297871675435322</v>
+        <v>7.297871675435323</v>
       </c>
       <c r="C145">
         <v>7.102904087926184e-7</v>
@@ -5501,7 +5501,7 @@
         <v>7.024728484729912e-7</v>
       </c>
       <c r="D146">
-        <v>0.00012563676806661344</v>
+        <v>0.00012563676806661347</v>
       </c>
       <c r="E146">
         <v>0.0019583809593288625</v>
@@ -5530,7 +5530,7 @@
         <v>0.05690298249833185</v>
       </c>
       <c r="B147">
-        <v>7.3004581390093595</v>
+        <v>7.30045813900936</v>
       </c>
       <c r="C147">
         <v>6.945391299999963e-7</v>
@@ -5565,7 +5565,7 @@
         <v>0.05798232515389271</v>
       </c>
       <c r="B148">
-        <v>7.3017683904914845</v>
+        <v>7.301768390491485</v>
       </c>
       <c r="C148">
         <v>6.864868236091582e-7</v>
@@ -5577,7 +5577,7 @@
         <v>0.0019594180783854996</v>
       </c>
       <c r="F148">
-        <v>4.85576825498703e-5</v>
+        <v>4.855768254987029e-5</v>
       </c>
       <c r="G148">
         <v>7.30177608267541</v>
@@ -5606,10 +5606,10 @@
         <v>6.783134632184375e-7</v>
       </c>
       <c r="D149">
-        <v>0.0001344540003210614</v>
+        <v>0.00013445400032106134</v>
       </c>
       <c r="E149">
-        <v>0.001959946165630185</v>
+        <v>0.0019599461656301855</v>
       </c>
       <c r="F149">
         <v>4.8562824983052474e-5</v>
@@ -5635,19 +5635,19 @@
         <v>0.06019002474509338</v>
       </c>
       <c r="B150">
-        <v>7.304423503668295</v>
+        <v>7.304423503668294</v>
       </c>
       <c r="C150">
         <v>6.700165456719431e-7</v>
       </c>
       <c r="D150">
-        <v>0.00013748279452041842</v>
+        <v>0.0001374827945204184</v>
       </c>
       <c r="E150">
         <v>0.001960480756560337</v>
       </c>
       <c r="F150">
-        <v>4.856804349616955e-5</v>
+        <v>4.856804349616954e-5</v>
       </c>
       <c r="G150">
         <v>7.304430971261941</v>
@@ -5670,7 +5670,7 @@
         <v>0.061319057805988</v>
       </c>
       <c r="B151">
-        <v>7.305768582854821</v>
+        <v>7.30576858285482</v>
       </c>
       <c r="C151">
         <v>6.615935299738804e-7</v>
@@ -5682,7 +5682,7 @@
         <v>0.00196102196632124</v>
       </c>
       <c r="F151">
-        <v>4.857333961740653e-5</v>
+        <v>4.8573339617406535e-5</v>
       </c>
       <c r="G151">
         <v>7.305775936496068</v>
@@ -5711,10 +5711,10 @@
         <v>6.53041836509909e-7</v>
       </c>
       <c r="D152">
-        <v>0.00014368057690355716</v>
+        <v>0.00014368057690355719</v>
       </c>
       <c r="E152">
-        <v>0.001961569911083565</v>
+        <v>0.0019615699110835656</v>
       </c>
       <c r="F152">
         <v>4.857871489655166e-5</v>
@@ -5746,13 +5746,13 @@
         <v>6.443588462570133e-7</v>
       </c>
       <c r="D153">
-        <v>0.00014685148868196822</v>
+        <v>0.00014685148868196816</v>
       </c>
       <c r="E153">
         <v>0.0019621247080724076</v>
       </c>
       <c r="F153">
-        <v>4.8584170905415485e-5</v>
+        <v>4.858417090541549e-5</v>
       </c>
       <c r="G153">
         <v>7.308501424554446</v>
@@ -5781,10 +5781,10 @@
         <v>6.355418999816009e-7</v>
       </c>
       <c r="D154">
-        <v>0.00015007172149020465</v>
+        <v>0.0001500717214902047</v>
       </c>
       <c r="E154">
-        <v>0.0019626864755970318</v>
+        <v>0.0019626864755970313</v>
       </c>
       <c r="F154">
         <v>4.858970923825584e-5</v>
@@ -5810,19 +5810,19 @@
         <v>0.06601120920034848</v>
       </c>
       <c r="B155">
-        <v>7.311268078754666</v>
+        <v>7.311268078754665</v>
       </c>
       <c r="C155">
         <v>6.265882974248986e-7</v>
       </c>
       <c r="D155">
-        <v>0.00015334227494123132</v>
+        <v>0.0001533422749412313</v>
       </c>
       <c r="E155">
-        <v>0.001963255333081366</v>
+        <v>0.0019632553330813664</v>
       </c>
       <c r="F155">
-        <v>4.8595331512208606e-5</v>
+        <v>4.85953315122086e-5</v>
       </c>
       <c r="G155">
         <v>7.311274965325757</v>
@@ -5851,10 +5851,10 @@
         <v>6.174952964761553e-7</v>
       </c>
       <c r="D156">
-        <v>0.00015666416432354177</v>
+        <v>0.00015666416432354174</v>
       </c>
       <c r="E156">
-        <v>0.0019638314010952725</v>
+        <v>0.001963831401095272</v>
       </c>
       <c r="F156">
         <v>4.860103936772463e-5</v>
@@ -5886,13 +5886,13 @@
         <v>6.082601123327915e-7</v>
       </c>
       <c r="D157">
-        <v>0.00016003842091354682</v>
+        <v>0.00016003842091354684</v>
       </c>
       <c r="E157">
-        <v>0.001964414801386617</v>
+        <v>0.0019644148013866166</v>
       </c>
       <c r="F157">
-        <v>4.8606834469012805e-5</v>
+        <v>4.86068344690128e-5</v>
       </c>
       <c r="G157">
         <v>7.314097274104647</v>
@@ -5950,7 +5950,7 @@
         <v>0.07100243761299213</v>
       </c>
       <c r="B159">
-        <v>7.316962599150039</v>
+        <v>7.316962599150041</v>
       </c>
       <c r="C159">
         <v>5.893518366619801e-7</v>
@@ -5962,7 +5962,7 @@
         <v>0.001965604091881438</v>
       </c>
       <c r="F159">
-        <v>4.861869318723455e-5</v>
+        <v>4.8618693187234556e-5</v>
       </c>
       <c r="G159">
         <v>7.31696900009807</v>
@@ -5991,13 +5991,13 @@
         <v>5.796729543272632e-7</v>
       </c>
       <c r="D160">
-        <v>0.00017048595320739518</v>
+        <v>0.00017048595320739524</v>
       </c>
       <c r="E160">
         <v>0.0019662102317712284</v>
       </c>
       <c r="F160">
-        <v>4.862476025545388e-5</v>
+        <v>4.8624760255453874e-5</v>
       </c>
       <c r="G160">
         <v>7.318423578750921</v>
@@ -6026,7 +6026,7 @@
         <v>5.69840305410037e-7</v>
       </c>
       <c r="D161">
-        <v>0.0001740803223546224</v>
+        <v>0.00017408032235462247</v>
       </c>
       <c r="E161">
         <v>0.0019668242033813615</v>
@@ -6134,7 +6134,7 @@
         <v>0.00018521463235604178</v>
       </c>
       <c r="E164">
-        <v>0.0019687143970112063</v>
+        <v>0.0019687143970112068</v>
       </c>
       <c r="F164">
         <v>4.864998805309305e-5</v>
@@ -6160,19 +6160,19 @@
         <v>0.07910400145927939</v>
       </c>
       <c r="B165">
-        <v>7.32588049407048</v>
+        <v>7.325880494070481</v>
       </c>
       <c r="C165">
         <v>5.289110915506857e-7</v>
       </c>
       <c r="D165">
-        <v>0.0001890469780704082</v>
+        <v>0.00018904697807040823</v>
       </c>
       <c r="E165">
         <v>0.001969360991080851</v>
       </c>
       <c r="F165">
-        <v>4.865654403444562e-5</v>
+        <v>4.8656544034445616e-5</v>
       </c>
       <c r="G165">
         <v>7.325886130522493</v>
@@ -6201,7 +6201,7 @@
         <v>5.182634654034676e-7</v>
       </c>
       <c r="D166">
-        <v>0.00019294174592203662</v>
+        <v>0.00019294174592203664</v>
       </c>
       <c r="E166">
         <v>0.0019700160718993656</v>
@@ -6265,19 +6265,19 @@
         <v>0.08345551079898178</v>
       </c>
       <c r="B168">
-        <v>7.330511942394076</v>
+        <v>7.330511942394077</v>
       </c>
       <c r="C168">
         <v>4.964471781828493e-7</v>
       </c>
       <c r="D168">
-        <v>0.00020092340554120282</v>
+        <v>0.0002009234055412028</v>
       </c>
       <c r="E168">
-        <v>0.001971352237340218</v>
+        <v>0.0019713522373402174</v>
       </c>
       <c r="F168">
-        <v>4.867683993303387e-5</v>
+        <v>4.8676839933033864e-5</v>
       </c>
       <c r="G168">
         <v>7.330517179916426</v>
@@ -6300,7 +6300,7 @@
         <v>0.08495346967514486</v>
       </c>
       <c r="B169">
-        <v>7.332081573616384</v>
+        <v>7.332081573616383</v>
       </c>
       <c r="C169">
         <v>4.852718357008952e-7</v>
@@ -6309,7 +6309,7 @@
         <v>0.0002050127758391215</v>
       </c>
       <c r="E169">
-        <v>0.001972033597767122</v>
+        <v>0.0019720335977671225</v>
       </c>
       <c r="F169">
         <v>4.868382107369198e-5</v>
@@ -6341,10 +6341,10 @@
         <v>4.7391381555610043e-7</v>
       </c>
       <c r="D170">
-        <v>0.00020916952609347132</v>
+        <v>0.00020916952609347135</v>
       </c>
       <c r="E170">
-        <v>0.0019727239966414603</v>
+        <v>0.0019727239966414608</v>
       </c>
       <c r="F170">
         <v>4.869091347071065e-5</v>
@@ -6370,19 +6370,19 @@
         <v>0.08802331281320179</v>
       </c>
       <c r="B171">
-        <v>7.335259702563316</v>
+        <v>7.335259702563315</v>
       </c>
       <c r="C171">
         <v>4.623696392658438e-7</v>
       </c>
       <c r="D171">
-        <v>0.00021339494706478792</v>
+        <v>0.00021339494706478794</v>
       </c>
       <c r="E171">
-        <v>0.001973423576094809</v>
+        <v>0.0019734235760948096</v>
       </c>
       <c r="F171">
-        <v>4.869811917129806e-5</v>
+        <v>4.8698119171298054e-5</v>
       </c>
       <c r="G171">
         <v>7.335264529793341</v>
@@ -6411,13 +6411,13 @@
         <v>4.506357713360205e-7</v>
       </c>
       <c r="D172">
-        <v>0.00021769035081571265</v>
+        <v>0.00021769035081571267</v>
       </c>
       <c r="E172">
         <v>0.001974132480035236</v>
       </c>
       <c r="F172">
-        <v>4.8705440253924674e-5</v>
+        <v>4.870544025392468e-5</v>
       </c>
       <c r="G172">
         <v>7.336872918110497</v>
@@ -6440,13 +6440,13 @@
         <v>0.0911948698921171</v>
       </c>
       <c r="B173">
-        <v>7.338489744394296</v>
+        <v>7.338489744394295</v>
       </c>
       <c r="C173">
         <v>4.3870861817787825e-7</v>
       </c>
       <c r="D173">
-        <v>0.00022205707111187562</v>
+        <v>0.0002220570711118756</v>
       </c>
       <c r="E173">
         <v>0.00197485085419636</v>
@@ -6475,7 +6475,7 @@
         <v>0.09282000039827346</v>
       </c>
       <c r="B174">
-        <v>7.340124246909868</v>
+        <v>7.340124246909867</v>
       </c>
       <c r="C174">
         <v>4.265845270075033e-7</v>
@@ -6487,7 +6487,7 @@
         <v>0.001975578846187721</v>
       </c>
       <c r="F174">
-        <v>4.872043703889381e-5</v>
+        <v>4.872043703889382e-5</v>
       </c>
       <c r="G174">
         <v>7.340128652394354</v>
@@ -6510,16 +6510,16 @@
         <v>0.09447202646593843</v>
       </c>
       <c r="B175">
-        <v>7.341771734036092</v>
+        <v>7.341771734036091</v>
       </c>
       <c r="C175">
         <v>4.142597847272035e-7</v>
       </c>
       <c r="D175">
-        <v>0.00023100990736804632</v>
+        <v>0.00023100990736804638</v>
       </c>
       <c r="E175">
-        <v>0.0019763166055464755</v>
+        <v>0.001976316605546476</v>
       </c>
       <c r="F175">
         <v>4.872811705962915e-5</v>
@@ -6545,16 +6545,16 @@
         <v>0.09615145404100717</v>
       </c>
       <c r="B176">
-        <v>7.343432196624567</v>
+        <v>7.343432196624566</v>
       </c>
       <c r="C176">
         <v>4.017306167883258e-7</v>
       </c>
       <c r="D176">
-        <v>0.00023559880307343095</v>
+        <v>0.00023559880307343097</v>
       </c>
       <c r="E176">
-        <v>0.001977064283790449</v>
+        <v>0.0019770642837904496</v>
       </c>
       <c r="F176">
         <v>4.873592110036902e-5</v>
@@ -6580,19 +6580,19 @@
         <v>0.0978587974613007</v>
       </c>
       <c r="B177">
-        <v>7.345105620018384</v>
+        <v>7.345105620018385</v>
       </c>
       <c r="C177">
         <v>3.8899318603528724e-7</v>
       </c>
       <c r="D177">
-        <v>0.00024026457566292853</v>
+        <v>0.0002402645756629285</v>
       </c>
       <c r="E177">
         <v>0.001977822034472566</v>
       </c>
       <c r="F177">
-        <v>4.8743851404575264e-5</v>
+        <v>4.874385140457526e-5</v>
       </c>
       <c r="G177">
         <v>7.345109592157303</v>
@@ -6621,7 +6621,7 @@
         <v>3.760435915304211e-7</v>
       </c>
       <c r="D178">
-        <v>0.00024500867366090447</v>
+        <v>0.0002450086736609044</v>
       </c>
       <c r="E178">
         <v>0.001978590013236677</v>
@@ -6656,7 +6656,7 @@
         <v>3.628778673590644e-7</v>
       </c>
       <c r="D179">
-        <v>0.00024983256984009917</v>
+        <v>0.0002498325698400992</v>
       </c>
       <c r="E179">
         <v>0.0019793683778748165</v>
@@ -6685,7 +6685,7 @@
         <v>0.10315359537692399</v>
       </c>
       <c r="B180">
-        <v>7.350203424812572</v>
+        <v>7.350203424812571</v>
       </c>
       <c r="C180">
         <v>3.4949198141537244e-7</v>
@@ -6720,19 +6720,19 @@
         <v>0.10497791896337114</v>
       </c>
       <c r="B181">
-        <v>7.3519284330119365</v>
+        <v>7.351928433011937</v>
       </c>
       <c r="C181">
         <v>3.3588183416712727e-7</v>
       </c>
       <c r="D181">
-        <v>0.0002597257717749846</v>
+        <v>0.00025972577177498467</v>
       </c>
       <c r="E181">
         <v>0.001980956907035894</v>
       </c>
       <c r="F181">
-        <v>4.877688135663173e-5</v>
+        <v>4.877688135663172e-5</v>
       </c>
       <c r="G181">
         <v>7.351931809208201</v>
@@ -6755,7 +6755,7 @@
         <v>0.10683286156891172</v>
       </c>
       <c r="B182">
-        <v>7.353666244470402</v>
+        <v>7.3536662444704</v>
       </c>
       <c r="C182">
         <v>3.22043257400389e-7</v>
@@ -6764,10 +6764,10 @@
         <v>0.00026479814839396065</v>
       </c>
       <c r="E182">
-        <v>0.001981767398419462</v>
+        <v>0.0019817673984194625</v>
       </c>
       <c r="F182">
-        <v>4.878547787034265e-5</v>
+        <v>4.878547787034264e-5</v>
       </c>
       <c r="G182">
         <v>7.353669468432635</v>
@@ -6799,10 +6799,10 @@
         <v>0.00026995646585566835</v>
       </c>
       <c r="E183">
-        <v>0.0019825889295231255</v>
+        <v>0.001982588929523126</v>
       </c>
       <c r="F183">
-        <v>4.8794214861446405e-5</v>
+        <v>4.87942148614464e-5</v>
       </c>
       <c r="G183">
         <v>7.355419880960028</v>
@@ -6825,16 +6825,16 @@
         <v>0.11063688575125284</v>
       </c>
       <c r="B184">
-        <v>7.357180076794995</v>
+        <v>7.357180076794994</v>
       </c>
       <c r="C184">
         <v>2.93663791365899e-7</v>
       </c>
       <c r="D184">
-        <v>0.000275202325055764</v>
+        <v>0.00027520232505576404</v>
       </c>
       <c r="E184">
-        <v>0.0019834216697899444</v>
+        <v>0.001983421669789945</v>
       </c>
       <c r="F184">
         <v>4.880309483055787e-5</v>
@@ -6866,7 +6866,7 @@
         <v>2.7911421066485515e-7</v>
       </c>
       <c r="D185">
-        <v>0.00028053735394424905</v>
+        <v>0.0002805373539442491</v>
       </c>
       <c r="E185">
         <v>0.001984265791185735</v>
@@ -6895,16 +6895,16 @@
         <v>0.11457032832929134</v>
       </c>
       <c r="B186">
-        <v>7.360744462985896</v>
+        <v>7.360744462985895</v>
       </c>
       <c r="C186">
         <v>2.643188149169085e-7</v>
       </c>
       <c r="D186">
-        <v>0.0002859632080205858</v>
+        <v>0.0002859632080205859</v>
       </c>
       <c r="E186">
-        <v>0.001985121468266844</v>
+        <v>0.0019851214682668444</v>
       </c>
       <c r="F186">
         <v>4.8821293903075385e-5</v>
@@ -6930,7 +6930,7 @@
         <v>0.11658708108782626</v>
       </c>
       <c r="B187">
-        <v>7.362545444881613</v>
+        <v>7.362545444881612</v>
       </c>
       <c r="C187">
         <v>2.4927307291651906e-7</v>
@@ -7006,7 +7006,7 @@
         <v>2.1841204057227745e-7</v>
       </c>
       <c r="D189">
-        <v>0.00030280270024275117</v>
+        <v>0.0003028027002427513</v>
       </c>
       <c r="E189">
         <v>0.0019877596195109815</v>
@@ -7044,10 +7044,10 @@
         <v>0.0003086089788494056</v>
       </c>
       <c r="E190">
-        <v>0.001988663319168055</v>
+        <v>0.0019886633191680556</v>
       </c>
       <c r="F190">
-        <v>4.8859522275084e-5</v>
+        <v>4.8859522275083994e-5</v>
       </c>
       <c r="G190">
         <v>7.368024553701591</v>
@@ -7070,13 +7070,13 @@
         <v>0.12500217089238783</v>
       </c>
       <c r="B191">
-        <v>7.369872746507951</v>
+        <v>7.369872746507952</v>
       </c>
       <c r="C191">
         <v>1.8649330500806208e-7</v>
       </c>
       <c r="D191">
-        <v>0.00031451479129800965</v>
+        <v>0.0003145147912980097</v>
       </c>
       <c r="E191">
         <v>0.001989579488633092</v>
@@ -7105,19 +7105,19 @@
         <v>0.12719618442126782</v>
       </c>
       <c r="B192">
-        <v>7.37173495269709</v>
+        <v>7.371734952697091</v>
       </c>
       <c r="C192">
         <v>1.7012513029685346e-7</v>
       </c>
       <c r="D192">
-        <v>0.0003205219692548847</v>
+        <v>0.00032052196925488473</v>
       </c>
       <c r="E192">
-        <v>0.001990508319517849</v>
+        <v>0.0019905083195178486</v>
       </c>
       <c r="F192">
-        <v>4.887959520728293e-5</v>
+        <v>4.887959520728294e-5</v>
       </c>
       <c r="G192">
         <v>7.371736583242923</v>
@@ -7140,19 +7140,19 @@
         <v>0.129427621486692</v>
       </c>
       <c r="B193">
-        <v>7.373609105496161</v>
+        <v>7.37360910549616</v>
       </c>
       <c r="C193">
         <v>1.5347776178117209e-7</v>
       </c>
       <c r="D193">
-        <v>0.00032663237564134137</v>
+        <v>0.0003266323756413415</v>
       </c>
       <c r="E193">
-        <v>0.00199145000654376</v>
+        <v>0.0019914500065437595</v>
       </c>
       <c r="F193">
-        <v>4.888988125011e-5</v>
+        <v>4.8889881250109994e-5</v>
       </c>
       <c r="G193">
         <v>7.373610569652139</v>
@@ -7175,19 +7175,19 @@
         <v>0.13169716548370228</v>
       </c>
       <c r="B194">
-        <v>7.375495091766863</v>
+        <v>7.3754950917668625</v>
       </c>
       <c r="C194">
         <v>1.3654610107405398e-7</v>
       </c>
       <c r="D194">
-        <v>0.0003328479051992604</v>
+        <v>0.00033284790519926043</v>
       </c>
       <c r="E194">
         <v>0.0019924047476226154</v>
       </c>
       <c r="F194">
-        <v>4.890033756634779e-5</v>
+        <v>4.8900337566347795e-5</v>
       </c>
       <c r="G194">
         <v>7.375496388270052</v>
@@ -7210,19 +7210,19 @@
         <v>0.13400551147788609</v>
       </c>
       <c r="B195">
-        <v>7.3773927925146685</v>
+        <v>7.377392792514669</v>
       </c>
       <c r="C195">
         <v>1.1932496272226112e-7</v>
       </c>
       <c r="D195">
-        <v>0.0003391704850662443</v>
+        <v>0.00033917048506624435</v>
       </c>
       <c r="E195">
         <v>0.001993372743938909</v>
       </c>
       <c r="F195">
-        <v>4.891096713136955e-5</v>
+        <v>4.8910967131369555e-5</v>
       </c>
       <c r="G195">
         <v>7.377393920113655</v>
@@ -7245,7 +7245,7 @@
         <v>0.13635336641824583</v>
       </c>
       <c r="B196">
-        <v>7.3793020829095095</v>
+        <v>7.379302082909509</v>
       </c>
       <c r="C196">
         <v>1.0180907261743927e-7</v>
@@ -7254,10 +7254,10 @@
         <v>0.00034560207536052357</v>
       </c>
       <c r="E196">
-        <v>0.0019943542000338326</v>
+        <v>0.001994354200033833</v>
       </c>
       <c r="F196">
-        <v>4.892177296850861e-5</v>
+        <v>4.8921772968508605e-5</v>
       </c>
       <c r="G196">
         <v>7.379303040351645</v>
@@ -7324,10 +7324,10 @@
         <v>0.00035880029618619633</v>
       </c>
       <c r="E198">
-        <v>0.001996358327023546</v>
+        <v>0.0019963583270235464</v>
       </c>
       <c r="F198">
-        <v>4.894392579748572e-5</v>
+        <v>4.8943925797485713e-5</v>
       </c>
       <c r="G198">
         <v>7.383155517729517</v>
@@ -7350,19 +7350,19 @@
         <v>0.1436412372303167</v>
       </c>
       <c r="B199">
-        <v>7.385098156709966</v>
+        <v>7.385098156709967</v>
       </c>
       <c r="C199">
         <v>4.7438786767279776e-8</v>
       </c>
       <c r="D199">
-        <v>0.0003655710172615665</v>
+        <v>0.00036557101726156644</v>
       </c>
       <c r="E199">
-        <v>0.0019973814245636302</v>
+        <v>0.00199738142456363</v>
       </c>
       <c r="F199">
-        <v>4.8955279083669065e-5</v>
+        <v>4.895527908366906e-5</v>
       </c>
       <c r="G199">
         <v>7.385098596288706</v>
@@ -7391,10 +7391,10 @@
         <v>2.868931835528729e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037245893109325023</v>
+        <v>0.0003724589310932503</v>
       </c>
       <c r="E200">
-        <v>0.001998418835352653</v>
+        <v>0.0019984188353526526</v>
       </c>
       <c r="F200">
         <v>4.8966821232476484e-5</v>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform2x_analytical.solution.xlsx
@@ -455,19 +455,19 @@
         <v>-0.04944535823579023</v>
       </c>
       <c r="B2">
-        <v>8.141770473238664</v>
+        <v>8.141770473238662</v>
       </c>
       <c r="C2">
         <v>0.000247489809918307</v>
       </c>
       <c r="D2">
-        <v>-1.274372542561844e-7</v>
+        <v>-1.274372542561859e-7</v>
       </c>
       <c r="E2">
         <v>0.0019994979705352783</v>
       </c>
       <c r="F2">
-        <v>4.8970052090177034e-5</v>
+        <v>4.897005209017704e-5</v>
       </c>
       <c r="G2">
         <v>8.14177062299296</v>
@@ -476,13 +476,13 @@
         <v>0.00024748985698420895</v>
       </c>
       <c r="I2">
-        <v>-1.274069069750969e-7</v>
+        <v>-1.2740690697506428e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019994979831484327</v>
+        <v>0.001999497983148436</v>
       </c>
       <c r="K2">
-        <v>4.897005239644327e-5</v>
+        <v>4.897005239644321e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,7 +496,7 @@
         <v>0.0002425067775685909</v>
       </c>
       <c r="D3">
-        <v>-3.8033706885578463e-7</v>
+        <v>-3.803370688557857e-7</v>
       </c>
       <c r="E3">
         <v>0.0019984949074707604</v>
@@ -505,19 +505,19 @@
         <v>4.8941541300077886e-5</v>
       </c>
       <c r="G3">
-        <v>8.125163108324962</v>
+        <v>8.125163108324958</v>
       </c>
       <c r="H3">
-        <v>0.00024250691809962966</v>
+        <v>0.00024250691809962977</v>
       </c>
       <c r="I3">
-        <v>-3.8024649819949085e-7</v>
+        <v>-3.8024649819939366e-7</v>
       </c>
       <c r="J3">
-        <v>0.001998494945376779</v>
+        <v>0.001998494945376788</v>
       </c>
       <c r="K3">
-        <v>4.894154221005414e-5</v>
+        <v>4.894154221005395e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.00023759768351894284</v>
       </c>
       <c r="D4">
-        <v>-6.293746061492438e-7</v>
+        <v>-6.293746061492452e-7</v>
       </c>
       <c r="E4">
-        <v>0.00199749781919974</v>
+        <v>0.001997497819199741</v>
       </c>
       <c r="F4">
-        <v>4.891362678369004e-5</v>
+        <v>4.8913626783690045e-5</v>
       </c>
       <c r="G4">
-        <v>8.108444656861487</v>
+        <v>8.10844465686148</v>
       </c>
       <c r="H4">
-        <v>0.00023759791605972112</v>
+        <v>0.0002375979160597213</v>
       </c>
       <c r="I4">
-        <v>-6.292247390982356e-7</v>
+        <v>-6.292247390980748e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997497882392532</v>
+        <v>0.0019974978823925466</v>
       </c>
       <c r="K4">
-        <v>4.891362828269198e-5</v>
+        <v>4.891362828269165e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.04619094348530213</v>
       </c>
       <c r="B5">
-        <v>8.091620618074773</v>
+        <v>8.091620618074776</v>
       </c>
       <c r="C5">
         <v>0.0002327610243209417</v>
       </c>
       <c r="D5">
-        <v>-8.746216951649817e-7</v>
+        <v>-8.746216951649648e-7</v>
       </c>
       <c r="E5">
-        <v>0.0019965062000974498</v>
+        <v>0.0019965062000974493</v>
       </c>
       <c r="F5">
         <v>4.888632762001039e-5</v>
       </c>
       <c r="G5">
-        <v>8.091621718384662</v>
+        <v>8.091621718384651</v>
       </c>
       <c r="H5">
-        <v>0.00023276134747298097</v>
+        <v>0.00023276134747298116</v>
       </c>
       <c r="I5">
-        <v>-8.74413438066068e-7</v>
+        <v>-8.744134380658446e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996506288640353</v>
+        <v>0.0019965062886403745</v>
       </c>
       <c r="K5">
-        <v>4.8886329692252976e-5</v>
+        <v>4.888632969225251e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,28 +601,28 @@
         <v>0.00022799531870990652</v>
       </c>
       <c r="D6">
-        <v>-1.1161488848834294e-6</v>
+        <v>-1.1161488848834298e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019955195509624058</v>
+        <v>0.001995519550962406</v>
       </c>
       <c r="F6">
-        <v>4.885966261033637e-5</v>
+        <v>4.8859662610336365e-5</v>
       </c>
       <c r="G6">
-        <v>8.074701903668654</v>
+        <v>8.074701903668641</v>
       </c>
       <c r="H6">
-        <v>0.00022799573113566909</v>
+        <v>0.0002279957311356692</v>
       </c>
       <c r="I6">
-        <v>-1.1158831274159326e-6</v>
+        <v>-1.1158831274156476e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019955196648861425</v>
+        <v>0.0019955196648861703</v>
       </c>
       <c r="K6">
-        <v>4.885966523533175e-5</v>
+        <v>4.8859665235331164e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -636,28 +636,28 @@
         <v>0.00022329910715124831</v>
       </c>
       <c r="D7">
-        <v>-1.354025493102264e-6</v>
+        <v>-1.354025493102251e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019945373819058474</v>
+        <v>0.001994537381905848</v>
       </c>
       <c r="F7">
-        <v>4.883365011052702e-5</v>
+        <v>4.883365011052701e-5</v>
       </c>
       <c r="G7">
-        <v>8.057694031359313</v>
+        <v>8.057694031359297</v>
       </c>
       <c r="H7">
-        <v>0.00022329960752754177</v>
+        <v>0.00022329960752754186</v>
       </c>
       <c r="I7">
-        <v>-1.3537031112479734e-6</v>
+        <v>-1.3537031112476271e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019945375213085734</v>
+        <v>0.001994537521308607</v>
       </c>
       <c r="K7">
-        <v>4.8833653269976896e-5</v>
+        <v>4.883365326997619e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -671,28 +671,28 @@
         <v>0.00021867095139347845</v>
       </c>
       <c r="D8">
-        <v>-1.588319660593681e-6</v>
+        <v>-1.5883196605936747e-6</v>
       </c>
       <c r="E8">
-        <v>0.001993559215526954</v>
+        <v>0.0019935592155269537</v>
       </c>
       <c r="F8">
-        <v>4.88083078439394e-5</v>
+        <v>4.8808307843939404e-5</v>
       </c>
       <c r="G8">
-        <v>8.040608159533836</v>
+        <v>8.040608159533816</v>
       </c>
       <c r="H8">
-        <v>0.0002186715383916321</v>
+        <v>0.00021867153839163223</v>
       </c>
       <c r="I8">
-        <v>-1.5879415103577133e-6</v>
+        <v>-1.5879415103573074e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019935593805374546</v>
+        <v>0.0019935593805374945</v>
       </c>
       <c r="K8">
-        <v>4.880831151641646e-5</v>
+        <v>4.8808311516415654e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.04206976118081391</v>
       </c>
       <c r="B9">
-        <v>8.023453112516666</v>
+        <v>8.02345311251667</v>
       </c>
       <c r="C9">
         <v>0.00021410943402773897</v>
       </c>
       <c r="D9">
-        <v>-1.819098410676636e-6</v>
+        <v>-1.81909841067664e-6</v>
       </c>
       <c r="E9">
         <v>0.0019925845903334596</v>
       </c>
       <c r="F9">
-        <v>4.8783652697085754e-5</v>
+        <v>4.8783652697085775e-5</v>
       </c>
       <c r="G9">
-        <v>8.023455598659847</v>
+        <v>8.023455598659826</v>
       </c>
       <c r="H9">
-        <v>0.00021411010639807814</v>
+        <v>0.00021411010639807833</v>
       </c>
       <c r="I9">
-        <v>-1.8186653364638364e-6</v>
+        <v>-1.8186653364633712e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019925847811250405</v>
+        <v>0.001992584781125086</v>
       </c>
       <c r="K9">
-        <v>4.8783656859871234e-5</v>
+        <v>4.8783656859870326e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.04107628166033936</v>
       </c>
       <c r="B10">
-        <v>8.006246052297694</v>
+        <v>8.006246052297696</v>
       </c>
       <c r="C10">
         <v>0.00020961315805372298</v>
       </c>
       <c r="D10">
-        <v>-2.0464277141196192e-6</v>
+        <v>-2.0464277141196315e-6</v>
       </c>
       <c r="E10">
-        <v>0.001991613064349034</v>
+        <v>0.0019916130643490336</v>
       </c>
       <c r="F10">
         <v>4.8759700501167596e-5</v>
       </c>
       <c r="G10">
-        <v>8.00624890242043</v>
+        <v>8.006248902420406</v>
       </c>
       <c r="H10">
-        <v>0.00020961391455582413</v>
+        <v>0.00020961391455582434</v>
       </c>
       <c r="I10">
-        <v>-2.045940542337638e-6</v>
+        <v>-2.0459405423371145e-6</v>
       </c>
       <c r="J10">
-        <v>0.00199161328109746</v>
+        <v>0.001991613281097511</v>
       </c>
       <c r="K10">
-        <v>4.875970513052441e-5</v>
+        <v>4.87597051305234e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -776,28 +776,28 @@
         <v>0.00020518074645186387</v>
       </c>
       <c r="D11">
-        <v>-2.270372559033265e-6</v>
+        <v>-2.2703725590332655e-6</v>
       </c>
       <c r="E11">
-        <v>0.00199064421882989</v>
+        <v>0.0019906442188298897</v>
       </c>
       <c r="F11">
         <v>4.873646580381586e-5</v>
       </c>
       <c r="G11">
-        <v>7.9890018340349425</v>
+        <v>7.9890018340349185</v>
       </c>
       <c r="H11">
-        <v>0.0002051815857924274</v>
+        <v>0.00020518158579242764</v>
       </c>
       <c r="I11">
-        <v>-2.2698321014082544e-6</v>
+        <v>-2.2698321014076737e-6</v>
       </c>
       <c r="J11">
-        <v>0.001990644461735612</v>
+        <v>0.0019906444617356677</v>
       </c>
       <c r="K11">
-        <v>4.873647087447692e-5</v>
+        <v>4.873647087447582e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03913135634434338</v>
       </c>
       <c r="B12">
-        <v>7.97172571192399</v>
+        <v>7.971725711923988</v>
       </c>
       <c r="C12">
         <v>0.00020081084176167832</v>
       </c>
       <c r="D12">
-        <v>-2.490997025130722e-6</v>
+        <v>-2.490997025130711e-6</v>
       </c>
       <c r="E12">
-        <v>0.001989677661994914</v>
+        <v>0.0019896776619949146</v>
       </c>
       <c r="F12">
         <v>4.8713961636526464e-5</v>
       </c>
       <c r="G12">
-        <v>7.971729305100391</v>
+        <v>7.971729305100365</v>
       </c>
       <c r="H12">
-        <v>0.00020081176278603463</v>
+        <v>0.00020081176278603495</v>
       </c>
       <c r="I12">
-        <v>-2.4904040793305593e-6</v>
+        <v>-2.490404079329922e-6</v>
       </c>
       <c r="J12">
-        <v>0.001989677931308885</v>
+        <v>0.0019896779313089462</v>
       </c>
       <c r="K12">
-        <v>4.8713967122775804e-5</v>
+        <v>4.871396712277461e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.03817931490024269</v>
       </c>
       <c r="B13">
-        <v>7.954443314983494</v>
+        <v>7.954443314983495</v>
       </c>
       <c r="C13">
         <v>0.00019650210566617685</v>
       </c>
       <c r="D13">
-        <v>-2.708364361415475e-6</v>
+        <v>-2.7083643614154874e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019887130326576227</v>
+        <v>0.001988713032657623</v>
       </c>
       <c r="F13">
-        <v>4.869219928433404e-5</v>
+        <v>4.8692199284334044e-5</v>
       </c>
       <c r="G13">
-        <v>7.954447285051706</v>
+        <v>7.954447285051677</v>
       </c>
       <c r="H13">
-        <v>0.00019650310720911734</v>
+        <v>0.00019650310720911783</v>
       </c>
       <c r="I13">
-        <v>-2.7077197078064723e-6</v>
+        <v>-2.70771970780578e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019887133286124827</v>
+        <v>0.0019887133286125482</v>
       </c>
       <c r="K13">
-        <v>4.869220515694058e-5</v>
+        <v>4.8692205156939316e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.0372404974588126</v>
       </c>
       <c r="B14">
-        <v>7.937168333307383</v>
+        <v>7.937168333307386</v>
       </c>
       <c r="C14">
         <v>0.00019225321858228815</v>
       </c>
       <c r="D14">
-        <v>-2.922537066039885e-6</v>
+        <v>-2.9225370660398944e-6</v>
       </c>
       <c r="E14">
         <v>0.0019877500036362917</v>
       </c>
       <c r="F14">
-        <v>4.867118806510888e-5</v>
+        <v>4.8671188065108885e-5</v>
       </c>
       <c r="G14">
-        <v>7.9371726823155235</v>
+        <v>7.937172682315493</v>
       </c>
       <c r="H14">
-        <v>0.00019225429947662201</v>
+        <v>0.00019225429947662253</v>
       </c>
       <c r="I14">
-        <v>-2.9218414731567774e-6</v>
+        <v>-2.9218414731560295e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019877503265250916</v>
+        <v>0.001987750326525162</v>
       </c>
       <c r="K14">
-        <v>4.867119429731607e-5</v>
+        <v>4.867119429731475e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036314616499874046</v>
       </c>
       <c r="B15">
-        <v>7.919918467235113</v>
+        <v>7.919918467235112</v>
       </c>
       <c r="C15">
         <v>0.00018806287925731462</v>
       </c>
       <c r="D15">
-        <v>-3.133576966756272e-6</v>
+        <v>-3.133576966756269e-6</v>
       </c>
       <c r="E15">
         <v>0.001986788284812322</v>
       </c>
       <c r="F15">
-        <v>4.865093512638683e-5</v>
+        <v>4.8650935126386824e-5</v>
       </c>
       <c r="G15">
-        <v>7.919923195896005</v>
+        <v>7.919923195895974</v>
       </c>
       <c r="H15">
-        <v>0.00018806403841035982</v>
+        <v>0.0001880640384103604</v>
       </c>
       <c r="I15">
-        <v>-3.132831187716519e-6</v>
+        <v>-3.1328311877157187e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019867886349057696</v>
+        <v>0.001986788634905845</v>
       </c>
       <c r="K15">
-        <v>4.8650941689886175e-5</v>
+        <v>4.8650941689884765e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035401388465146795</v>
       </c>
       <c r="B16">
-        <v>7.902712033625605</v>
+        <v>7.902712033625607</v>
       </c>
       <c r="C16">
         <v>0.0001839298043715553</v>
       </c>
       <c r="D16">
-        <v>-3.3415453000860417e-6</v>
+        <v>-3.3415453000860375e-6</v>
       </c>
       <c r="E16">
-        <v>0.001985827625707805</v>
+        <v>0.001985827625707804</v>
       </c>
       <c r="F16">
         <v>4.863144526775159e-5</v>
       </c>
       <c r="G16">
-        <v>7.902717141275338</v>
+        <v>7.902717141275304</v>
       </c>
       <c r="H16">
-        <v>0.00018393104065179996</v>
+        <v>0.00018393104065180053</v>
       </c>
       <c r="I16">
-        <v>-3.3407500736833763e-6</v>
+        <v>-3.3407500736825234e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019858280033120683</v>
+        <v>0.0019858280033121485</v>
       </c>
       <c r="K16">
-        <v>4.8631452132278864e-5</v>
+        <v>4.8631452132277373e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.861272079641629e-5</v>
       </c>
       <c r="G17">
-        <v>7.88557325352928</v>
+        <v>7.8855732535292455</v>
       </c>
       <c r="H17">
-        <v>0.00017985404049607152</v>
+        <v>0.00017985404049607206</v>
       </c>
       <c r="I17">
-        <v>-3.545658837563882e-6</v>
+        <v>-3.5456588375629773e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848682228884723</v>
+        <v>0.001984868222888558</v>
       </c>
       <c r="K17">
-        <v>4.8612727932241145e-5</v>
+        <v>4.86127279322396e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.03361177622483489</v>
       </c>
       <c r="B18">
-        <v>7.8685046144225845</v>
+        <v>7.868504614422585</v>
       </c>
       <c r="C18">
         <v>0.00017583040196579174</v>
       </c>
       <c r="D18">
-        <v>-3.748509703052585e-6</v>
+        <v>-3.748509703052599e-6</v>
       </c>
       <c r="E18">
-        <v>0.00198390869410658</v>
+        <v>0.0019839086941065794</v>
       </c>
       <c r="F18">
-        <v>4.8594761422763e-5</v>
+        <v>4.8594761422763005e-5</v>
       </c>
       <c r="G18">
-        <v>7.868510472588227</v>
+        <v>7.8685104725881905</v>
       </c>
       <c r="H18">
-        <v>0.00017583178939154168</v>
+        <v>0.0001758317893915422</v>
       </c>
       <c r="I18">
-        <v>-3.7476177425615097e-6</v>
+        <v>-3.7476177425605542e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983909127668697</v>
+        <v>0.0019839091276687873</v>
       </c>
       <c r="K18">
-        <v>4.859476880018833e-5</v>
+        <v>4.859476880018672e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,7 +1050,7 @@
         <v>-0.03273484393651434</v>
       </c>
       <c r="B19">
-        <v>7.851541490384468</v>
+        <v>7.851541490384469</v>
       </c>
       <c r="C19">
         <v>0.00017186159399055397</v>
@@ -1065,19 +1065,19 @@
         <v>4.8577564201217246e-5</v>
       </c>
       <c r="G19">
-        <v>7.851547717313735</v>
+        <v>7.851547717313698</v>
       </c>
       <c r="H19">
-        <v>0.0001718630554424352</v>
+        <v>0.00017186305544243565</v>
       </c>
       <c r="I19">
-        <v>-3.94668666486323e-6</v>
+        <v>-3.946686664862225e-6</v>
       </c>
       <c r="J19">
-        <v>0.001982950595078287</v>
+        <v>0.001982950595078382</v>
       </c>
       <c r="K19">
-        <v>4.857757179208293e-5</v>
+        <v>4.8577571792081266e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,13 +1085,13 @@
         <v>-0.031869468239078644</v>
       </c>
       <c r="B20">
-        <v>7.834697065141374</v>
+        <v>7.834697065141373</v>
       </c>
       <c r="C20">
         <v>0.00016794508880374384</v>
       </c>
       <c r="D20">
-        <v>-4.143911051917834e-6</v>
+        <v>-4.143911051917838e-6</v>
       </c>
       <c r="E20">
         <v>0.001981992054780275</v>
@@ -1100,19 +1100,19 @@
         <v>4.856112352002877e-5</v>
       </c>
       <c r="G20">
-        <v>7.834703654751367</v>
+        <v>7.834703654751329</v>
       </c>
       <c r="H20">
-        <v>0.00016794662325275857</v>
+        <v>0.000167946623252759</v>
       </c>
       <c r="I20">
-        <v>-4.142925147681495e-6</v>
+        <v>-4.142925147680443e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019819925455564907</v>
+        <v>0.00198199254555659</v>
       </c>
       <c r="K20">
-        <v>4.856113129668245e-5</v>
+        <v>4.8561131296680754e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,13 +1120,13 @@
         <v>-0.031015384104456853</v>
       </c>
       <c r="B21">
-        <v>7.81798952743118</v>
+        <v>7.817989527431181</v>
       </c>
       <c r="C21">
         <v>0.00016407968705409742</v>
       </c>
       <c r="D21">
-        <v>-4.337424297640304e-6</v>
+        <v>-4.337424297640302e-6</v>
       </c>
       <c r="E21">
         <v>0.001981034421638705</v>
@@ -1135,19 +1135,19 @@
         <v>4.854543114142454e-5</v>
       </c>
       <c r="G21">
-        <v>7.817996472367322</v>
+        <v>7.817996472367284</v>
       </c>
       <c r="H21">
-        <v>0.00016408129352650847</v>
+        <v>0.0001640812935265089</v>
       </c>
       <c r="I21">
-        <v>-4.336392437411659e-6</v>
+        <v>-4.3363924374105595e-6</v>
       </c>
       <c r="J21">
-        <v>0.001981034941464232</v>
+        <v>0.0019810349414643366</v>
       </c>
       <c r="K21">
-        <v>4.854543907638764e-5</v>
+        <v>4.854543907638589e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,13 +1155,13 @@
         <v>-0.030172329962707346</v>
       </c>
       <c r="B22">
-        <v>7.80143636882697</v>
+        <v>7.801436368826971</v>
       </c>
       <c r="C22">
         <v>0.00016026420512426336</v>
       </c>
       <c r="D22">
-        <v>-4.528224647564196e-6</v>
+        <v>-4.528224647564204e-6</v>
       </c>
       <c r="E22">
         <v>0.001980077235915335</v>
@@ -1170,19 +1170,19 @@
         <v>4.853047629135248e-5</v>
       </c>
       <c r="G22">
-        <v>7.801443660586076</v>
+        <v>7.801443660586037</v>
       </c>
       <c r="H22">
-        <v>0.00016026588268135133</v>
+        <v>0.00016026588268135171</v>
       </c>
       <c r="I22">
-        <v>-4.527147492390206e-6</v>
+        <v>-4.52714749238906e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019800777850552515</v>
+        <v>0.0019800777850553612</v>
       </c>
       <c r="K22">
-        <v>4.853048435826799e-5</v>
+        <v>4.853048435826619e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1196,7 +1196,7 @@
         <v>0.00015649747482412234</v>
       </c>
       <c r="D23">
-        <v>-4.7163707775511275e-6</v>
+        <v>-4.71637077755113e-6</v>
       </c>
       <c r="E23">
         <v>0.0019791205371177166</v>
@@ -1205,19 +1205,19 @@
         <v>4.851624579582514e-5</v>
       </c>
       <c r="G23">
-        <v>7.785061812311281</v>
+        <v>7.785061812311241</v>
       </c>
       <c r="H23">
-        <v>0.00015649922248333153</v>
+        <v>0.00015649922248333188</v>
       </c>
       <c r="I23">
-        <v>-4.715248978736317e-6</v>
+        <v>-4.715248978735126e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019791211158458615</v>
+        <v>0.0019791211158459755</v>
       </c>
       <c r="K23">
-        <v>4.851625396858155e-5</v>
+        <v>4.85162539685797e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.850272425887609e-5</v>
       </c>
       <c r="G24">
-        <v>7.768866445810701</v>
+        <v>7.768866445810661</v>
       </c>
       <c r="H24">
-        <v>0.00015278015996574783</v>
+        <v>0.00015278015996574812</v>
       </c>
       <c r="I24">
-        <v>-4.900755227793517e-6</v>
+        <v>-4.900755227792279e-6</v>
       </c>
       <c r="J24">
-        <v>0.001978165007180235</v>
+        <v>0.001978165007180353</v>
       </c>
       <c r="K24">
-        <v>4.8502732512120646e-5</v>
+        <v>4.850273251211877e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.027706781992169936</v>
       </c>
       <c r="B25">
-        <v>7.752863583627863</v>
+        <v>7.752863583627861</v>
       </c>
       <c r="C25">
         <v>0.00014910567192392838</v>
       </c>
       <c r="D25">
-        <v>-5.084933305582723e-6</v>
+        <v>-5.084933305582713e-6</v>
       </c>
       <c r="E25">
         <v>0.001977208923933355</v>
       </c>
       <c r="F25">
-        <v>4.8489894275511095e-5</v>
+        <v>4.848989427551109e-5</v>
       </c>
       <c r="G25">
-        <v>7.7528718548615805</v>
+        <v>7.75287185486154</v>
       </c>
       <c r="H25">
-        <v>0.00014910755705950515</v>
+        <v>0.0001491075570595054</v>
       </c>
       <c r="I25">
-        <v>-5.083724152998967e-6</v>
+        <v>-5.083724152997683e-6</v>
       </c>
       <c r="J25">
-        <v>0.001977209562502881</v>
+        <v>0.0019772095625030035</v>
       </c>
       <c r="K25">
-        <v>4.848990258765068e-5</v>
+        <v>4.848990258764876e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,13 +1295,13 @@
         <v>-0.026905298502862676</v>
       </c>
       <c r="B26">
-        <v>7.737082416421589</v>
+        <v>7.737082416421591</v>
       </c>
       <c r="C26">
         <v>0.0001454783379390248</v>
       </c>
       <c r="D26">
-        <v>-5.2654649681973974e-6</v>
+        <v>-5.2654649681974e-6</v>
       </c>
       <c r="E26">
         <v>0.0019762542422827145</v>
@@ -1310,19 +1310,19 @@
         <v>4.847773667187975e-5</v>
       </c>
       <c r="G26">
-        <v>7.737090991044438</v>
+        <v>7.737090991044398</v>
       </c>
       <c r="H26">
-        <v>0.00014548029037677771</v>
+        <v>0.00014548029037677796</v>
       </c>
       <c r="I26">
-        <v>-5.264213107023129e-6</v>
+        <v>-5.2642131070218e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976254911049688</v>
+        <v>0.0019762549110498157</v>
       </c>
       <c r="K26">
-        <v>4.847774502121963e-5</v>
+        <v>4.847774502121768e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,7 +1330,7 @@
         <v>-0.026113586260588472</v>
       </c>
       <c r="B27">
-        <v>7.721526512764567</v>
+        <v>7.721526512764566</v>
       </c>
       <c r="C27">
         <v>0.00014189523263279428</v>
@@ -1339,25 +1339,25 @@
         <v>-5.443572583680746e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019753005044275797</v>
+        <v>0.00197530050442758</v>
       </c>
       <c r="F27">
-        <v>4.846623076426889e-5</v>
+        <v>4.846623076426888e-5</v>
       </c>
       <c r="G27">
-        <v>7.721535378139707</v>
+        <v>7.721535378139667</v>
       </c>
       <c r="H27">
-        <v>0.00014189725142926972</v>
+        <v>0.00014189725142926991</v>
       </c>
       <c r="I27">
-        <v>-5.442278668982963e-6</v>
+        <v>-5.44227866898159e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019753012035200338</v>
+        <v>0.0019753012035201656</v>
       </c>
       <c r="K27">
-        <v>4.8466239131249314e-5</v>
+        <v>4.846623913124732e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,7 +1365,7 @@
         <v>-0.025331402797285227</v>
       </c>
       <c r="B28">
-        <v>7.706205917277112</v>
+        <v>7.706205917277113</v>
       </c>
       <c r="C28">
         <v>0.00013835526233412504</v>
@@ -1380,19 +1380,19 @@
         <v>4.845535462842723e-5</v>
       </c>
       <c r="G28">
-        <v>7.706215060267875</v>
+        <v>7.706215060267835</v>
       </c>
       <c r="H28">
-        <v>0.00013835734656301765</v>
+        <v>0.00013835734656301784</v>
       </c>
       <c r="I28">
-        <v>-5.617976337300134e-6</v>
+        <v>-5.617976337298717e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019743486075912884</v>
+        <v>0.001974348607591424</v>
       </c>
       <c r="K28">
-        <v>4.845536299352324e-5</v>
+        <v>4.845536299352121e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1406,7 +1406,7 @@
         <v>0.00013485734852875</v>
       </c>
       <c r="D29">
-        <v>-5.792736050720132e-6</v>
+        <v>-5.792736050720138e-6</v>
       </c>
       <c r="E29">
         <v>0.0019733965437336784</v>
@@ -1415,19 +1415,19 @@
         <v>4.844508537112533e-5</v>
       </c>
       <c r="G29">
-        <v>7.691138581966173</v>
+        <v>7.691138581966133</v>
       </c>
       <c r="H29">
-        <v>0.00013485949716318072</v>
+        <v>0.00013485949716318096</v>
       </c>
       <c r="I29">
-        <v>-5.791360092225827e-6</v>
+        <v>-5.791360092224367e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019733973036687516</v>
+        <v>0.0019733973036688912</v>
       </c>
       <c r="K29">
-        <v>4.844509371804283e-5</v>
+        <v>4.8445093718040755e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1441,28 +1441,28 @@
         <v>0.0001314004284061234</v>
       </c>
       <c r="D30">
-        <v>-5.963897647568765e-6</v>
+        <v>-5.963897647568766e-6</v>
       </c>
       <c r="E30">
         <v>0.001972446690323765</v>
       </c>
       <c r="F30">
-        <v>4.8435399396646337e-5</v>
+        <v>4.843539939664633e-5</v>
       </c>
       <c r="G30">
-        <v>7.67631299903848</v>
+        <v>7.67631299903844</v>
       </c>
       <c r="H30">
-        <v>0.00013140264027433838</v>
+        <v>0.0001314026402743386</v>
       </c>
       <c r="I30">
-        <v>-5.962481791969973e-6</v>
+        <v>-5.962481791968466e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019724474806540092</v>
+        <v>0.0019724474806541528</v>
       </c>
       <c r="K30">
-        <v>4.8435407709709194e-5</v>
+        <v>4.843540770970708e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.023039643735213187</v>
       </c>
       <c r="B31">
-        <v>7.661734023665463</v>
+        <v>7.6617340236654625</v>
       </c>
       <c r="C31">
         <v>0.00012798345573374856</v>
       </c>
       <c r="D31">
-        <v>-6.132845256770047e-6</v>
+        <v>-6.1328452567700485e-6</v>
       </c>
       <c r="E31">
         <v>0.001971498511822107</v>
       </c>
       <c r="F31">
-        <v>4.842627266198514e-5</v>
+        <v>4.8426272661985147e-5</v>
       </c>
       <c r="G31">
-        <v>7.661743915493551</v>
+        <v>7.661743915493511</v>
       </c>
       <c r="H31">
-        <v>0.00012798572962711735</v>
+        <v>0.00012798572962711754</v>
       </c>
       <c r="I31">
-        <v>-6.131390344266967e-6</v>
+        <v>-6.131390344265416e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019714993324380166</v>
+        <v>0.0019714993324381645</v>
       </c>
       <c r="K31">
-        <v>4.84262809274899e-5</v>
+        <v>4.842628092748777e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1511,28 +1511,28 @@
         <v>0.0001246054021475932</v>
       </c>
       <c r="D32">
-        <v>-6.299623656425656e-6</v>
+        <v>-6.29962365642565e-6</v>
       </c>
       <c r="E32">
         <v>0.0019705522039339257</v>
       </c>
       <c r="F32">
-        <v>4.841768091578506e-5</v>
+        <v>4.841768091578507e-5</v>
       </c>
       <c r="G32">
-        <v>7.6474355449562355</v>
+        <v>7.647435544956196</v>
       </c>
       <c r="H32">
-        <v>0.00012460773665565295</v>
+        <v>0.0001246077366556531</v>
       </c>
       <c r="I32">
-        <v>-6.298130634623079e-6</v>
+        <v>-6.298130634621482e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019705530546483075</v>
+        <v>0.0019705530546484593</v>
       </c>
       <c r="K32">
-        <v>4.8417689119326334e-5</v>
+        <v>4.8417689119324186e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.02155513097740716</v>
       </c>
       <c r="B33">
-        <v>7.633380475723043</v>
+        <v>7.6333804757230395</v>
       </c>
       <c r="C33">
         <v>0.00012126525896067669</v>
       </c>
       <c r="D33">
-        <v>-6.464272137847506e-6</v>
+        <v>-6.464272137847497e-6</v>
       </c>
       <c r="E33">
-        <v>0.0019696079615664185</v>
+        <v>0.001969607961566419</v>
       </c>
       <c r="F33">
-        <v>4.840959991735191e-5</v>
+        <v>4.8409599917351903e-5</v>
       </c>
       <c r="G33">
-        <v>7.633390791471386</v>
+        <v>7.633390791471346</v>
       </c>
       <c r="H33">
-        <v>0.00012126765244861746</v>
+        <v>0.00012126765244861753</v>
       </c>
       <c r="I33">
-        <v>-6.462742097077684e-6</v>
+        <v>-6.462742097076042e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019696088420784923</v>
+        <v>0.001969608842078649</v>
       </c>
       <c r="K33">
-        <v>4.8409608046426194e-5</v>
+        <v>4.840960804642404e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,7 +1575,7 @@
         <v>-0.020825186694047617</v>
       </c>
       <c r="B34">
-        <v>7.619600843533998</v>
+        <v>7.619600843533999</v>
       </c>
       <c r="C34">
         <v>0.00011796203960389588</v>
@@ -1590,19 +1590,19 @@
         <v>4.840200563335787e-5</v>
       </c>
       <c r="G34">
-        <v>7.619611346509881</v>
+        <v>7.619611346509842</v>
       </c>
       <c r="H34">
-        <v>0.00011796449015990698</v>
+        <v>0.00011796449015990695</v>
       </c>
       <c r="I34">
-        <v>-6.625256881590101e-6</v>
+        <v>-6.625256881588412e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019686668868095485</v>
+        <v>0.001968666886809709</v>
       </c>
       <c r="K34">
-        <v>4.840201367702382e-5</v>
+        <v>4.840201367702166e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1616,28 +1616,28 @@
         <v>0.00011469478282237474</v>
       </c>
       <c r="D35">
-        <v>-6.7872975693514824e-6</v>
+        <v>-6.787297569351483e-6</v>
       </c>
       <c r="E35">
         <v>0.0019677264386085123</v>
       </c>
       <c r="F35">
-        <v>4.839487441100714e-5</v>
+        <v>4.839487441100715e-5</v>
       </c>
       <c r="G35">
-        <v>7.606097798011433</v>
+        <v>7.606097798011396</v>
       </c>
       <c r="H35">
-        <v>0.00011469728825484946</v>
+        <v>0.0001146972882548494</v>
       </c>
       <c r="I35">
-        <v>-6.785697543771652e-6</v>
+        <v>-6.78569754376992e-6</v>
       </c>
       <c r="J35">
-        <v>0.001967727377150174</v>
+        <v>0.001967727377150339</v>
       </c>
       <c r="K35">
-        <v>4.839488235686574e-5</v>
+        <v>4.839488235686356e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>-0.01938880449424165</v>
       </c>
       <c r="B36">
-        <v>7.592838926045552</v>
+        <v>7.592838926045551</v>
       </c>
       <c r="C36">
         <v>0.00011146255675563497</v>
       </c>
       <c r="D36">
-        <v>-6.9457066196463884e-6</v>
+        <v>-6.945706619646385e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019667895309408556</v>
+        <v>0.001966789530940856</v>
       </c>
       <c r="F36">
         <v>4.838818312743063e-5</v>
       </c>
       <c r="G36">
-        <v>7.592849748666333</v>
+        <v>7.592849748666295</v>
       </c>
       <c r="H36">
-        <v>0.00011146511430065715</v>
+        <v>0.00011146511430065701</v>
       </c>
       <c r="I36">
-        <v>-6.944074153686639e-6</v>
+        <v>-6.944074153684865e-6</v>
       </c>
       <c r="J36">
-        <v>0.001966790497327379</v>
+        <v>0.001966790497327549</v>
       </c>
       <c r="K36">
-        <v>4.838819096493563e-5</v>
+        <v>4.8388190964933426e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1686,7 +1686,7 @@
         <v>0.00010826446402915639</v>
       </c>
       <c r="D37">
-        <v>-7.102043516116019e-6</v>
+        <v>-7.102043516116024e-6</v>
       </c>
       <c r="E37">
         <v>0.0019658554349526987</v>
@@ -1695,19 +1695,19 @@
         <v>4.838190931588223e-5</v>
       </c>
       <c r="G37">
-        <v>7.5798659402174495</v>
+        <v>7.579865940217413</v>
       </c>
       <c r="H37">
-        <v>0.00010826707043779431</v>
+        <v>0.00010826707043779412</v>
       </c>
       <c r="I37">
-        <v>-7.100380764180013e-6</v>
+        <v>-7.100380764178196e-6</v>
       </c>
       <c r="J37">
-        <v>0.001965856428102202</v>
+        <v>0.001965856428102376</v>
       </c>
       <c r="K37">
-        <v>4.838191703430983e-5</v>
+        <v>4.838191703430762e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>-0.01798230162993649</v>
       </c>
       <c r="B38">
-        <v>7.567133322595238</v>
+        <v>7.5671333225952395</v>
       </c>
       <c r="C38">
         <v>0.00010509964797697717</v>
       </c>
       <c r="D38">
-        <v>-7.2562816022243336e-6</v>
+        <v>-7.256281602224332e-6</v>
       </c>
       <c r="E38">
-        <v>0.001964924329680538</v>
+        <v>0.0019649243296805375</v>
       </c>
       <c r="F38">
         <v>4.8376031269914134e-5</v>
       </c>
       <c r="G38">
-        <v>7.567144381127416</v>
+        <v>7.56714438112738</v>
       </c>
       <c r="H38">
-        <v>0.0001051022993922495</v>
+        <v>0.0001051022993922493</v>
       </c>
       <c r="I38">
-        <v>-7.254591143781912e-6</v>
+        <v>-7.254591143780053e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019649253482298874</v>
+        <v>0.001964925348230065</v>
       </c>
       <c r="K38">
-        <v>4.837603885743266e-5</v>
+        <v>4.8376038857430415e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>-0.017289715094853</v>
       </c>
       <c r="B39">
-        <v>7.554671336494324</v>
+        <v>7.554671336494325</v>
       </c>
       <c r="C39">
         <v>0.00010196730009855875</v>
       </c>
       <c r="D39">
-        <v>-7.40836880735239e-6</v>
+        <v>-7.408368807352391e-6</v>
       </c>
       <c r="E39">
         <v>0.0019639963946263637</v>
       </c>
       <c r="F39">
-        <v>4.837052812712434e-5</v>
+        <v>4.8370528127124335e-5</v>
       </c>
       <c r="G39">
-        <v>7.554682476171924</v>
+        <v>7.554682476171888</v>
       </c>
       <c r="H39">
-        <v>0.00010196999180520457</v>
+        <v>0.00010196999180520436</v>
       </c>
       <c r="I39">
-        <v>-7.40665371961868e-6</v>
+        <v>-7.406653719616782e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019639974368659938</v>
+        <v>0.0019639974368661755</v>
       </c>
       <c r="K39">
-        <v>4.8370535572357696e-5</v>
+        <v>4.8370535572355426e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1791,7 +1791,7 @@
         <v>9.886666882722881e-5</v>
       </c>
       <c r="D40">
-        <v>-7.5582217462093855e-6</v>
+        <v>-7.558221746209378e-6</v>
       </c>
       <c r="E40">
         <v>0.0019630718131137224</v>
@@ -1800,19 +1800,19 @@
         <v>4.8365379934312996e-5</v>
       </c>
       <c r="G40">
-        <v>7.5424771554089585</v>
+        <v>7.542477155408924</v>
       </c>
       <c r="H40">
-        <v>9.886939529427708e-5</v>
+        <v>9.886939529427684e-5</v>
       </c>
       <c r="I40">
-        <v>-7.556485686228679e-6</v>
+        <v>-7.556485686226743e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019630728769268967</v>
+        <v>0.0019630728769270823</v>
       </c>
       <c r="K40">
-        <v>4.8365387224109665e-5</v>
+        <v>4.8365387224107375e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1826,28 +1826,28 @@
         <v>9.57970696515634e-5</v>
       </c>
       <c r="D41">
-        <v>-7.705718954272093e-6</v>
+        <v>-7.705718954272098e-6</v>
       </c>
       <c r="E41">
         <v>0.0019621507765725933</v>
       </c>
       <c r="F41">
-        <v>4.8360567695984274e-5</v>
+        <v>4.836056769598427e-5</v>
       </c>
       <c r="G41">
-        <v>7.530525001035076</v>
+        <v>7.530525001035043</v>
       </c>
       <c r="H41">
-        <v>9.579982436466274e-5</v>
+        <v>9.579982436466247e-5</v>
       </c>
       <c r="I41">
-        <v>-7.70396623160053e-6</v>
+        <v>-7.703966231598555e-6</v>
       </c>
       <c r="J41">
-        <v>0.001962151859426412</v>
+        <v>0.001962151859426601</v>
       </c>
       <c r="K41">
-        <v>4.836057481730247e-5</v>
+        <v>4.836057481730017e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,7 +1855,7 @@
         <v>-0.015252075835078552</v>
       </c>
       <c r="B42">
-        <v>7.518811169900522</v>
+        <v>7.518811169900521</v>
       </c>
       <c r="C42">
         <v>9.275789658508063e-5</v>
@@ -1864,25 +1864,25 @@
         <v>-7.850693264883788e-6</v>
       </c>
       <c r="E42">
-        <v>0.001961233489727519</v>
+        <v>0.0019612334897275195</v>
       </c>
       <c r="F42">
-        <v>4.8356073408114076e-5</v>
+        <v>4.835607340811407e-5</v>
       </c>
       <c r="G42">
-        <v>7.518822372340417</v>
+        <v>7.518822372340385</v>
       </c>
       <c r="H42">
-        <v>9.2760671838637e-5</v>
+        <v>9.276067183863671e-5</v>
       </c>
       <c r="I42">
-        <v>-7.848928917273375e-6</v>
+        <v>-7.84892891727136e-6</v>
       </c>
       <c r="J42">
-        <v>0.001961234588505844</v>
+        <v>0.0019612345885060374</v>
       </c>
       <c r="K42">
-        <v>4.8356080345650254e-5</v>
+        <v>4.835608034564791e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>-0.01458554282300218</v>
       </c>
       <c r="B43">
-        <v>7.507354373557569</v>
+        <v>7.507354373557571</v>
       </c>
       <c r="C43">
         <v>8.974863492423361e-5</v>
       </c>
       <c r="D43">
-        <v>-7.992923369720495e-6</v>
+        <v>-7.992923369720497e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019603201766409555</v>
+        <v>0.001960320176640955</v>
       </c>
       <c r="F43">
-        <v>4.835188007900351e-5</v>
+        <v>4.8351880079003514e-5</v>
       </c>
       <c r="G43">
-        <v>7.5073655252556515</v>
+        <v>7.5073655252556195</v>
       </c>
       <c r="H43">
-        <v>8.975142182781794e-5</v>
+        <v>8.975142182781763e-5</v>
       </c>
       <c r="I43">
-        <v>-7.991153230418273e-6</v>
+        <v>-7.991153230416218e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019603212877604185</v>
+        <v>0.0019603212877606154</v>
       </c>
       <c r="K43">
-        <v>4.835188681767215e-5</v>
+        <v>4.8351886817669786e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,13 +1925,13 @@
         <v>-0.013925008036492728</v>
       </c>
       <c r="B44">
-        <v>7.496139669598052</v>
+        <v>7.496139669598051</v>
       </c>
       <c r="C44">
         <v>8.676887517123655e-5</v>
       </c>
       <c r="D44">
-        <v>-8.132124645513257e-6</v>
+        <v>-8.132124645513266e-6</v>
       </c>
       <c r="E44">
         <v>0.0019594110875378813</v>
@@ -1940,19 +1940,19 @@
         <v>4.834797173887959e-5</v>
       </c>
       <c r="G44">
-        <v>7.4961507284609175</v>
+        <v>7.496150728460887</v>
       </c>
       <c r="H44">
-        <v>8.67716634541263e-5</v>
+        <v>8.677166345412596e-5</v>
       </c>
       <c r="I44">
-        <v>-8.130355395431673e-6</v>
+        <v>-8.130355395429582e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019594122067704257</v>
+        <v>0.001959412206770627</v>
       </c>
       <c r="K44">
-        <v>4.834797826209727e-5</v>
+        <v>4.834797826209486e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,13 +1960,13 @@
         <v>-0.01327026918160919</v>
       </c>
       <c r="B45">
-        <v>7.485163452475292</v>
+        <v>7.485163452475294</v>
       </c>
       <c r="C45">
         <v>8.381832792875333e-5</v>
       </c>
       <c r="D45">
-        <v>-8.267939374843781e-6</v>
+        <v>-8.267939374843768e-6</v>
       </c>
       <c r="E45">
         <v>0.001958506506308632</v>
@@ -1975,19 +1975,19 @@
         <v>4.834433343971497e-5</v>
       </c>
       <c r="G45">
-        <v>7.485174372551168</v>
+        <v>7.485174372551139</v>
       </c>
       <c r="H45">
-        <v>8.382110604945688e-5</v>
+        <v>8.382110604945653e-5</v>
       </c>
       <c r="I45">
-        <v>-8.26617858616938e-6</v>
+        <v>-8.266178586167252e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019585076288118745</v>
+        <v>0.0019585076288120788</v>
       </c>
       <c r="K45">
-        <v>4.8344339730226295e-5</v>
+        <v>4.834433973022386e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,13 +1995,13 @@
         <v>-0.012621125739459928</v>
       </c>
       <c r="B46">
-        <v>7.474422341134389</v>
+        <v>7.47442234113439</v>
       </c>
       <c r="C46">
         <v>8.089683950055474e-5</v>
       </c>
       <c r="D46">
-        <v>-8.399926535759207e-6</v>
+        <v>-8.399926535759212e-6</v>
       </c>
       <c r="E46">
         <v>0.001957606758555375</v>
@@ -2010,19 +2010,19 @@
         <v>4.834095124653728e-5</v>
       </c>
       <c r="G46">
-        <v>7.474433072270341</v>
+        <v>7.474433072270313</v>
       </c>
       <c r="H46">
-        <v>8.089959439509067e-5</v>
+        <v>8.089959439509028e-5</v>
       </c>
       <c r="I46">
-        <v>-8.398182692297178e-6</v>
+        <v>-8.398182692295013e-6</v>
       </c>
       <c r="J46">
-        <v>0.001957607878837943</v>
+        <v>0.001957607878838151</v>
       </c>
       <c r="K46">
-        <v>4.834095728635007e-5</v>
+        <v>4.834095728634761e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,7 +2030,7 @@
         <v>-0.011977378904792182</v>
       </c>
       <c r="B47">
-        <v>7.463913273624401</v>
+        <v>7.463913273624402</v>
       </c>
       <c r="C47">
         <v>7.800440785910418e-5</v>
@@ -2045,19 +2045,19 @@
         <v>4.8337812221303894e-5</v>
       </c>
       <c r="G47">
-        <v>7.463923762103337</v>
+        <v>7.463923762103309</v>
       </c>
       <c r="H47">
-        <v>7.800712516889874e-5</v>
+        <v>7.800712516889833e-5</v>
       </c>
       <c r="I47">
-        <v>-8.525833877078858e-6</v>
+        <v>-8.52583387707666e-6</v>
       </c>
       <c r="J47">
-        <v>0.001956713331900472</v>
+        <v>0.0019567133319006833</v>
       </c>
       <c r="K47">
-        <v>4.833781799104706e-5</v>
+        <v>4.8337817991044564e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2071,7 +2071,7 @@
         <v>7.514119857120926e-5</v>
       </c>
       <c r="D48">
-        <v>-8.65017507828334e-6</v>
+        <v>-8.650175078283333e-6</v>
       </c>
       <c r="E48">
         <v>0.0019558233251568647</v>
@@ -2080,19 +2080,19 @@
         <v>4.833490440024124e-5</v>
       </c>
       <c r="G48">
-        <v>7.453643781358812</v>
+        <v>7.453643781358784</v>
       </c>
       <c r="H48">
-        <v>7.514386243420064e-5</v>
+        <v>7.51438624342002e-5</v>
       </c>
       <c r="I48">
-        <v>-8.648494188359452e-6</v>
+        <v>-8.64849418835722e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019558244218353454</v>
+        <v>0.001955824421835559</v>
       </c>
       <c r="K48">
-        <v>4.8334909880385806e-5</v>
+        <v>4.833490988038329e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,7 +2100,7 @@
         <v>-0.010705288040276841</v>
       </c>
       <c r="B49">
-        <v>7.443581121836597</v>
+        <v>7.443581121836596</v>
       </c>
       <c r="C49">
         <v>7.230756021016344e-5</v>
@@ -2109,25 +2109,25 @@
         <v>-8.767044700764341e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019549405757280794</v>
+        <v>0.001954940575728079</v>
       </c>
       <c r="F49">
         <v>4.8332216765398787e-5</v>
       </c>
       <c r="G49">
-        <v>7.443590950316737</v>
+        <v>7.443590950316711</v>
       </c>
       <c r="H49">
-        <v>7.231015361930443e-5</v>
+        <v>7.231015361930397e-5</v>
       </c>
       <c r="I49">
-        <v>-8.765411522251471e-6</v>
+        <v>-8.765411522249206e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019549416497111876</v>
+        <v>0.0019549416497114044</v>
       </c>
       <c r="K49">
-        <v>4.833222193617264e-5</v>
+        <v>4.833222193617009e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,7 +2135,7 @@
         <v>-0.010076554422659534</v>
       </c>
       <c r="B50">
-        <v>7.433754228982489</v>
+        <v>7.433754228982488</v>
       </c>
       <c r="C50">
         <v>6.950403873094592e-5</v>
@@ -2144,25 +2144,25 @@
         <v>-8.877283932740407e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019540645489806757</v>
+        <v>0.001954064548980676</v>
       </c>
       <c r="F50">
         <v>4.832973921105007e-5</v>
       </c>
       <c r="G50">
-        <v>7.433763634915339</v>
+        <v>7.433763634915313</v>
       </c>
       <c r="H50">
-        <v>6.950654346103826e-5</v>
+        <v>6.950654346103778e-5</v>
       </c>
       <c r="I50">
-        <v>-8.87571029433094e-6</v>
+        <v>-8.875710294328643e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019540655921863924</v>
+        <v>0.001954065592186611</v>
       </c>
       <c r="K50">
-        <v>4.832974405319672e-5</v>
+        <v>4.8329744053194136e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2176,28 +2176,28 @@
         <v>6.673139024761567e-5</v>
       </c>
       <c r="D51">
-        <v>-8.979884823715443e-6</v>
+        <v>-8.979884823715451e-6</v>
       </c>
       <c r="E51">
-        <v>0.0019531959053059496</v>
+        <v>0.00195319590530595</v>
       </c>
       <c r="F51">
         <v>4.832746250548924e-5</v>
       </c>
       <c r="G51">
-        <v>7.424160798692905</v>
+        <v>7.42416079869288</v>
       </c>
       <c r="H51">
-        <v>6.6733787100106e-5</v>
+        <v>6.673378710010552e-5</v>
       </c>
       <c r="I51">
-        <v>-8.97838316197979e-6</v>
+        <v>-8.97838316197746e-6</v>
       </c>
       <c r="J51">
-        <v>0.001953196909186949</v>
+        <v>0.0019531969091871695</v>
       </c>
       <c r="K51">
-        <v>4.832746699990647e-5</v>
+        <v>4.832746699990384e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,7 +2205,7 @@
         <v>-0.008832747984811932</v>
       </c>
       <c r="B52">
-        <v>7.414773675045636</v>
+        <v>7.414773675045637</v>
       </c>
       <c r="C52">
         <v>6.399059163212007e-5</v>
@@ -2214,25 +2214,25 @@
         <v>-9.073700978817409e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019523353949751866</v>
+        <v>0.0019523353949751868</v>
       </c>
       <c r="F52">
         <v>4.832537824871959e-5</v>
       </c>
       <c r="G52">
-        <v>7.414782042566414</v>
+        <v>7.41478204256639</v>
       </c>
       <c r="H52">
-        <v>6.399286074517625e-5</v>
+        <v>6.399286074517576e-5</v>
       </c>
       <c r="I52">
-        <v>-9.07228418021566e-6</v>
+        <v>-9.072284180213303e-6</v>
       </c>
       <c r="J52">
-        <v>0.00195233635056108</v>
+        <v>0.0019523363505613018</v>
       </c>
       <c r="K52">
-        <v>4.832538237741551e-5</v>
+        <v>4.832538237741284e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2246,28 +2246,28 @@
         <v>6.128284835384585e-5</v>
       </c>
       <c r="D53">
-        <v>-9.157442549839811e-6</v>
+        <v>-9.157442549839806e-6</v>
       </c>
       <c r="E53">
         <v>0.0019514838636844672</v>
       </c>
       <c r="F53">
-        <v>4.832347882650677e-5</v>
+        <v>4.8323478826506776e-5</v>
       </c>
       <c r="G53">
-        <v>7.405627629379949</v>
+        <v>7.405627629379926</v>
       </c>
       <c r="H53">
-        <v>6.128496940989774e-5</v>
+        <v>6.128496940989725e-5</v>
       </c>
       <c r="I53">
-        <v>-9.156123764303033e-6</v>
+        <v>-9.156123764300647e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019514847617264923</v>
+        <v>0.0019514847617267167</v>
       </c>
       <c r="K53">
-        <v>4.832348257243148e-5</v>
+        <v>4.8323482572428786e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>-0.007605888393130311</v>
       </c>
       <c r="B54">
-        <v>7.396691421299816</v>
+        <v>7.396691421299815</v>
       </c>
       <c r="C54">
         <v>5.8609599001058465e-5</v>
       </c>
       <c r="D54">
-        <v>-9.22967338151287e-6</v>
+        <v>-9.229673381512867e-6</v>
       </c>
       <c r="E54">
         <v>0.0019506422566027315</v>
       </c>
       <c r="F54">
-        <v>4.832175736126949e-5</v>
+        <v>4.8321757361269484e-5</v>
       </c>
       <c r="G54">
-        <v>7.396698493722702</v>
+        <v>7.39669849372268</v>
       </c>
       <c r="H54">
-        <v>5.861155157391443e-5</v>
+        <v>5.861155157391396e-5</v>
       </c>
       <c r="I54">
-        <v>-9.228465800511701e-6</v>
+        <v>-9.228465800509286e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019506430877265582</v>
+        <v>0.0019506430877267848</v>
       </c>
       <c r="K54">
-        <v>4.832176070936948e-5</v>
+        <v>4.8321760709366776e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2316,28 +2316,28 @@
         <v>5.597251596969688e-5</v>
       </c>
       <c r="D55">
-        <v>-9.28881063648971e-6</v>
+        <v>-9.288810636489702e-6</v>
       </c>
       <c r="E55">
-        <v>0.0019498116206363172</v>
+        <v>0.001949811620636317</v>
       </c>
       <c r="F55">
-        <v>4.832020766029721e-5</v>
+        <v>4.83202076602972e-5</v>
       </c>
       <c r="G55">
-        <v>7.387996237096041</v>
+        <v>7.3879962370960195</v>
       </c>
       <c r="H55">
-        <v>5.597427992061825e-5</v>
+        <v>5.5974279920617796e-5</v>
       </c>
       <c r="I55">
-        <v>-9.2877272508469e-6</v>
+        <v>-9.287727250844457e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019498123754211841</v>
+        <v>0.001949812375421413</v>
       </c>
       <c r="K55">
-        <v>4.8320210597115794e-5</v>
+        <v>4.8320210597113057e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2351,28 +2351,28 @@
         <v>5.3373501871633504e-5</v>
       </c>
       <c r="D56">
-        <v>-9.333127178006069e-6</v>
+        <v>-9.333127178006074e-6</v>
       </c>
       <c r="E56">
-        <v>0.001948993104648372</v>
+        <v>0.0019489931046483718</v>
       </c>
       <c r="F56">
         <v>4.831882416181127e-5</v>
       </c>
       <c r="G56">
-        <v>7.3795231057741955</v>
+        <v>7.379523105774175</v>
       </c>
       <c r="H56">
-        <v>5.337505770470851e-5</v>
+        <v>5.3375057704708074e-5</v>
       </c>
       <c r="I56">
-        <v>-9.332180512401323e-6</v>
+        <v>-9.332180512398853e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019489937739329245</v>
+        <v>0.001948993773933155</v>
       </c>
       <c r="K56">
-        <v>4.8318826677099395e-5</v>
+        <v>4.831882667709664e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>-0.005794091629694964</v>
       </c>
       <c r="B57">
-        <v>7.37127726157783</v>
+        <v>7.371277261577831</v>
       </c>
       <c r="C57">
         <v>5.081468130227082e-5</v>
       </c>
       <c r="D57">
-        <v>-9.360756931368387e-6</v>
+        <v>-9.360756931368392e-6</v>
       </c>
       <c r="E57">
-        <v>0.001948187957408198</v>
+        <v>0.0019481879574081977</v>
       </c>
       <c r="F57">
         <v>4.831760187941727e-5</v>
       </c>
       <c r="G57">
-        <v>7.3712819544532255</v>
+        <v>7.371281954453206</v>
       </c>
       <c r="H57">
-        <v>5.081601070898616e-5</v>
+        <v>5.0816010708985764e-5</v>
       </c>
       <c r="I57">
-        <v>-9.359958764935406e-6</v>
+        <v>-9.359958764932914e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019481885324185754</v>
+        <v>0.0019481885324188074</v>
       </c>
       <c r="K57">
-        <v>4.83176039655557e-5</v>
+        <v>4.831760396555292e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,7 +2415,7 @@
         <v>-0.0051970164431291155</v>
       </c>
       <c r="B58">
-        <v>7.363272390016694</v>
+        <v>7.363272390016693</v>
       </c>
       <c r="C58">
         <v>4.829838771408313e-5</v>
@@ -2424,25 +2424,25 @@
         <v>-9.369703375851046e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019473975230932224</v>
+        <v>0.0019473975230932226</v>
       </c>
       <c r="F58">
         <v>4.831653634552397e-5</v>
       </c>
       <c r="G58">
-        <v>7.363276193630665</v>
+        <v>7.363276193630647</v>
       </c>
       <c r="H58">
-        <v>4.829947397331627e-5</v>
+        <v>4.829947397331592e-5</v>
       </c>
       <c r="I58">
-        <v>-9.369064456565348e-6</v>
+        <v>-9.369064456562827e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019473979956898283</v>
+        <v>0.0019473979956900619</v>
       </c>
       <c r="K58">
-        <v>4.831653799786063e-5</v>
+        <v>4.831653799785783e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>-0.004603064172547168</v>
       </c>
       <c r="B59">
-        <v>7.355506844237067</v>
+        <v>7.355506844237065</v>
       </c>
       <c r="C59">
         <v>4.582714526538377e-5</v>
       </c>
       <c r="D59">
-        <v>-9.357851239316249e-6</v>
+        <v>-9.357851239316252e-6</v>
       </c>
       <c r="E59">
-        <v>0.0019466232342240926</v>
+        <v>0.0019466232342240932</v>
       </c>
       <c r="F59">
         <v>4.831562355432568e-5</v>
       </c>
       <c r="G59">
-        <v>7.355509722787567</v>
+        <v>7.355509722787549</v>
       </c>
       <c r="H59">
-        <v>4.582797364825189e-5</v>
+        <v>4.582797364825158e-5</v>
       </c>
       <c r="I59">
-        <v>-9.357380995796586e-6</v>
+        <v>-9.357380995794044e-6</v>
       </c>
       <c r="J59">
-        <v>0.0019466235971103856</v>
+        <v>0.00194662359711062</v>
       </c>
       <c r="K59">
-        <v>4.83156247723488e-5</v>
+        <v>4.8315624772345974e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,7 +2485,7 @@
         <v>-0.004012052915424027</v>
       </c>
       <c r="B60">
-        <v>7.347984923069655</v>
+        <v>7.347984923069654</v>
       </c>
       <c r="C60">
         <v>4.3403645648401826e-5</v>
@@ -2494,25 +2494,25 @@
         <v>-9.322981381443751e-6</v>
       </c>
       <c r="E60">
-        <v>0.0019458666019798205</v>
+        <v>0.0019458666019798207</v>
       </c>
       <c r="F60">
-        <v>4.831485990495341e-5</v>
+        <v>4.8314859904953414e-5</v>
       </c>
       <c r="G60">
-        <v>7.347986849860874</v>
+        <v>7.347986849860856</v>
       </c>
       <c r="H60">
-        <v>4.3404203890608715e-5</v>
+        <v>4.3404203890608444e-5</v>
       </c>
       <c r="I60">
-        <v>-9.322687647040963e-6</v>
+        <v>-9.322687647038395e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019458668488666418</v>
+        <v>0.001945866848866878</v>
       </c>
       <c r="K60">
-        <v>4.831486069164845e-5</v>
+        <v>4.8314860691645584e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>-0.003423801669942956</v>
       </c>
       <c r="B61">
-        <v>7.340711240090538</v>
+        <v>7.340711240090537</v>
       </c>
       <c r="C61">
         <v>4.1030720043311676e-5</v>
@@ -2529,25 +2529,25 @@
         <v>-9.262788760747764e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019451292039132195</v>
+        <v>0.0019451292039132197</v>
       </c>
       <c r="F61">
-        <v>4.8314242145395944e-5</v>
+        <v>4.831424214539595e-5</v>
       </c>
       <c r="G61">
-        <v>7.340712198677058</v>
+        <v>7.340712198677041</v>
       </c>
       <c r="H61">
-        <v>4.1030998715325126e-5</v>
+        <v>4.103099871532489e-5</v>
       </c>
       <c r="I61">
-        <v>-9.262677510362207e-6</v>
+        <v>-9.262677510359615e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019451293297627495</v>
+        <v>0.0019451293297629872</v>
       </c>
       <c r="K61">
-        <v>4.8314242507126656e-5</v>
+        <v>4.831424250712376e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>-0.00283813027956235</v>
       </c>
       <c r="B62">
-        <v>7.333690620575868</v>
+        <v>7.333690620575867</v>
       </c>
       <c r="C62">
         <v>3.87113064903532e-5</v>
       </c>
       <c r="D62">
-        <v>-9.174903288678245e-6</v>
+        <v>-9.174903288678252e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019444126691647277</v>
+        <v>0.001944412669164728</v>
       </c>
       <c r="F62">
         <v>4.831376731777156e-5</v>
       </c>
       <c r="G62">
-        <v>7.3336906053799344</v>
+        <v>7.3336906053799185</v>
       </c>
       <c r="H62">
-        <v>3.8711299331239024e-5</v>
+        <v>3.87112993312388e-5</v>
       </c>
       <c r="I62">
-        <v>-9.1749784021955e-6</v>
+        <v>-9.174978402192881e-6</v>
       </c>
       <c r="J62">
-        <v>0.001944412670405533</v>
+        <v>0.0019444126704057714</v>
       </c>
       <c r="K62">
-        <v>4.8313767265513775e-5</v>
+        <v>4.831376726551084e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2596,28 +2596,28 @@
         <v>3.644841311560979e-5</v>
       </c>
       <c r="D63">
-        <v>-9.056913284232573e-6</v>
+        <v>-9.056913284232582e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019437186613525473</v>
+        <v>0.001943718661352547</v>
       </c>
       <c r="F63">
         <v>4.831343270549698e-5</v>
       </c>
       <c r="G63">
-        <v>7.326927007250884</v>
+        <v>7.326927007250869</v>
       </c>
       <c r="H63">
-        <v>3.64481175341912e-5</v>
+        <v>3.6448117534191e-5</v>
       </c>
       <c r="I63">
-        <v>-9.057176343334612e-6</v>
+        <v>-9.057176343331965e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019437185359774825</v>
+        <v>0.0019437185359777217</v>
       </c>
       <c r="K63">
-        <v>4.831343225381264e-5</v>
+        <v>4.83134322538097e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.831323578285246e-5</v>
       </c>
       <c r="G64">
-        <v>7.320426323907441</v>
+        <v>7.320426323907426</v>
       </c>
       <c r="H64">
-        <v>3.424449492661223e-5</v>
+        <v>3.424449492661204e-5</v>
       </c>
       <c r="I64">
-        <v>-8.906841285598559e-6</v>
+        <v>-8.906841285595887e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019430486071495457</v>
+        <v>0.0019430486071497863</v>
       </c>
       <c r="K64">
-        <v>4.831323495050325e-5</v>
+        <v>4.831323495050029e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,13 +2660,13 @@
         <v>-0.0010948051957500107</v>
       </c>
       <c r="B65">
-        <v>7.314196185837052</v>
+        <v>7.3141961858370514</v>
       </c>
       <c r="C65">
         <v>3.2104324864245845e-5</v>
       </c>
       <c r="D65">
-        <v>-8.720920876310229e-6</v>
+        <v>-8.720920876310246e-6</v>
       </c>
       <c r="E65">
         <v>0.0019424049366044275</v>
@@ -2675,19 +2675,19 @@
         <v>4.831317416738367e-5</v>
       </c>
       <c r="G65">
-        <v>7.314193335664839</v>
+        <v>7.314193335664824</v>
       </c>
       <c r="H65">
-        <v>3.210345983884614e-5</v>
+        <v>3.2103459838845964e-5</v>
       </c>
       <c r="I65">
-        <v>-8.721554612646429e-6</v>
+        <v>-8.721554612643732e-6</v>
       </c>
       <c r="J65">
-        <v>0.001942404559036403</v>
+        <v>0.0019424045590366449</v>
       </c>
       <c r="K65">
-        <v>4.8313172976500104e-5</v>
+        <v>4.831317297649712e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2704,25 +2704,25 @@
         <v>-8.498126696196173e-6</v>
       </c>
       <c r="E66">
-        <v>0.0019417885384317433</v>
+        <v>0.001941788538431743</v>
       </c>
       <c r="F66">
         <v>4.8313245575515445e-5</v>
       </c>
       <c r="G66">
-        <v>7.308232559296486</v>
+        <v>7.308232559296472</v>
       </c>
       <c r="H66">
-        <v>3.0027982009964613e-5</v>
+        <v>3.002798200996446e-5</v>
       </c>
       <c r="I66">
-        <v>-8.498937937279565e-6</v>
+        <v>-8.49893793727684e-6</v>
       </c>
       <c r="J66">
-        <v>0.0019417880390213713</v>
+        <v>0.0019417880390216143</v>
       </c>
       <c r="K66">
-        <v>4.83132440522109e-5</v>
+        <v>4.831324405220791e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.831344778168348e-5</v>
       </c>
       <c r="G67">
-        <v>7.302548125572063</v>
+        <v>7.3025481255720495</v>
       </c>
       <c r="H67">
-        <v>2.802092594097142e-5</v>
+        <v>2.8020925940971296e-5</v>
       </c>
       <c r="I67">
-        <v>-8.236682576229927e-6</v>
+        <v>-8.236682576227172e-6</v>
       </c>
       <c r="J67">
-        <v>0.0019412006435092885</v>
+        <v>0.0019412006435095325</v>
       </c>
       <c r="K67">
-        <v>4.831344595498438e-5</v>
+        <v>4.831344595498138e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0006317172224110899</v>
       </c>
       <c r="B68">
-        <v>7.2971489585212</v>
+        <v>7.297148958521199</v>
       </c>
       <c r="C68">
         <v>2.6086643367960267e-5</v>
       </c>
       <c r="D68">
-        <v>-7.931441815812176e-6</v>
+        <v>-7.931441815812189e-6</v>
       </c>
       <c r="E68">
-        <v>0.001940644619397139</v>
+        <v>0.0019406446193971393</v>
       </c>
       <c r="F68">
-        <v>4.831377858121974e-5</v>
+        <v>4.831377858121975e-5</v>
       </c>
       <c r="G68">
-        <v>7.297143659633479</v>
+        <v>7.297143659633465</v>
       </c>
       <c r="H68">
-        <v>2.6085003965860563e-5</v>
+        <v>2.6085003965860462e-5</v>
       </c>
       <c r="I68">
-        <v>-7.932579150472777e-6</v>
+        <v>-7.932579150469992e-6</v>
       </c>
       <c r="J68">
-        <v>0.0019406438944461132</v>
+        <v>0.0019406438944463591</v>
       </c>
       <c r="K68">
-        <v>4.831377648328106e-5</v>
+        <v>4.831377648327805e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2806,7 +2806,7 @@
         <v>2.422459045648027e-5</v>
       </c>
       <c r="D69">
-        <v>-7.583265844992857e-6</v>
+        <v>-7.583265844992838e-6</v>
       </c>
       <c r="E69">
         <v>0.001940120040789457</v>
@@ -2815,19 +2815,19 @@
         <v>4.83142357571606e-5</v>
       </c>
       <c r="G69">
-        <v>7.292022167470934</v>
+        <v>7.292022167470922</v>
       </c>
       <c r="H69">
-        <v>2.4222730355289477e-5</v>
+        <v>2.42227303552894e-5</v>
       </c>
       <c r="I69">
-        <v>-7.584546635705398e-6</v>
+        <v>-7.584546635702583e-6</v>
       </c>
       <c r="J69">
-        <v>0.0019401192159342797</v>
+        <v>0.0019401192159345273</v>
       </c>
       <c r="K69">
-        <v>4.831423342253439e-5</v>
+        <v>4.831423342253139e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2841,7 +2841,7 @@
         <v>2.243843293499049e-5</v>
       </c>
       <c r="D70">
-        <v>-7.189252283217239e-6</v>
+        <v>-7.1892522832172425e-6</v>
       </c>
       <c r="E70">
         <v>0.001939628825402105</v>
@@ -2850,19 +2850,19 @@
         <v>4.831481705108507e-5</v>
       </c>
       <c r="G70">
-        <v>7.287185930657018</v>
+        <v>7.287185930657006</v>
       </c>
       <c r="H70">
-        <v>2.2436377175795344e-5</v>
+        <v>2.2436377175795296e-5</v>
       </c>
       <c r="I70">
-        <v>-7.1906602793199075e-6</v>
+        <v>-7.190660279317066e-6</v>
       </c>
       <c r="J70">
-        <v>0.0019396279116236576</v>
+        <v>0.0019396279116239068</v>
       </c>
       <c r="K70">
-        <v>4.831481451643887e-5</v>
+        <v>4.831481451643586e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.831552013803617e-5</v>
       </c>
       <c r="G71">
-        <v>7.2826364114896975</v>
+        <v>7.282636411489685</v>
       </c>
       <c r="H71">
-        <v>2.0727932614109847e-5</v>
+        <v>2.0727932614109823e-5</v>
       </c>
       <c r="I71">
-        <v>-6.749177704161463e-6</v>
+        <v>-6.749177704158593e-6</v>
       </c>
       <c r="J71">
-        <v>0.001939171143284358</v>
+        <v>0.001939171143284609</v>
       </c>
       <c r="K71">
-        <v>4.831551744205167e-5</v>
+        <v>4.831551744204864e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2911,28 +2911,28 @@
         <v>1.910142230042654e-5</v>
       </c>
       <c r="D72">
-        <v>-6.256957360751924e-6</v>
+        <v>-6.256957360751923e-6</v>
       </c>
       <c r="E72">
         <v>0.001938750963873041</v>
       </c>
       <c r="F72">
-        <v>4.831634260553248e-5</v>
+        <v>4.831634260553249e-5</v>
       </c>
       <c r="G72">
-        <v>7.278374170201018</v>
+        <v>7.278374170201006</v>
       </c>
       <c r="H72">
-        <v>1.909906331579905e-5</v>
+        <v>1.9099063315799047e-5</v>
       </c>
       <c r="I72">
-        <v>-6.258562681566994e-6</v>
+        <v>-6.258562681564091e-6</v>
       </c>
       <c r="J72">
-        <v>0.0019387499113652062</v>
+        <v>0.0019387499113654588</v>
       </c>
       <c r="K72">
-        <v>4.831633978803838e-5</v>
+        <v>4.8316339788035344e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.003484827813808121</v>
       </c>
       <c r="B73">
-        <v>7.274406522558391</v>
+        <v>7.27440652255839</v>
       </c>
       <c r="C73">
         <v>1.7553542248893908e-5</v>
       </c>
       <c r="D73">
-        <v>-5.7158340017917644e-6</v>
+        <v>-5.715834001791773e-6</v>
       </c>
       <c r="E73">
-        <v>0.0019383661374196373</v>
+        <v>0.0019383661374196375</v>
       </c>
       <c r="F73">
         <v>4.8317281936639994e-5</v>
       </c>
       <c r="G73">
-        <v>7.274398796444543</v>
+        <v>7.274398796444531</v>
       </c>
       <c r="H73">
-        <v>1.755108108210321e-5</v>
+        <v>1.7551081082103222e-5</v>
       </c>
       <c r="I73">
-        <v>-5.717505982133806e-6</v>
+        <v>-5.717505982130872e-6</v>
       </c>
       <c r="J73">
-        <v>0.0019383650377278875</v>
+        <v>0.0019383650377281418</v>
       </c>
       <c r="K73">
-        <v>4.831727903818083e-5</v>
+        <v>4.8317279038177776e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,7 +2975,7 @@
         <v>0.004053360143205703</v>
       </c>
       <c r="B74">
-        <v>7.270716750017895</v>
+        <v>7.270716750017894</v>
       </c>
       <c r="C74">
         <v>1.608744281943417e-5</v>
@@ -2984,25 +2984,25 @@
         <v>-5.123227286522679e-6</v>
       </c>
       <c r="E74">
-        <v>0.0019380182819775519</v>
+        <v>0.001938018281977552</v>
       </c>
       <c r="F74">
-        <v>4.831833549704525e-5</v>
+        <v>4.831833549704524e-5</v>
       </c>
       <c r="G74">
-        <v>7.270708856075331</v>
+        <v>7.270708856075319</v>
       </c>
       <c r="H74">
-        <v>1.60849151921809e-5</v>
+        <v>1.6084915192180927e-5</v>
       </c>
       <c r="I74">
-        <v>-5.124942817491129e-6</v>
+        <v>-5.124942817488163e-6</v>
       </c>
       <c r="J74">
-        <v>0.0019380171512417962</v>
+        <v>0.0019380171512420527</v>
       </c>
       <c r="K74">
-        <v>4.831833255815876e-5</v>
+        <v>4.8318332558155697e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.8319500526049084e-5</v>
       </c>
       <c r="G75">
-        <v>7.267301854549978</v>
+        <v>7.2673018545499675</v>
       </c>
       <c r="H75">
-        <v>1.4701090429528591e-5</v>
+        <v>1.4701090429528627e-5</v>
       </c>
       <c r="I75">
-        <v>-4.480066545895087e-6</v>
+        <v>-4.480066545892091e-6</v>
       </c>
       <c r="J75">
-        <v>0.0019377066764736282</v>
+        <v>0.0019377066764738864</v>
       </c>
       <c r="K75">
-        <v>4.831949758743375e-5</v>
+        <v>4.831949758743068e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3051,28 +3051,28 @@
         <v>1.3402260656667653e-5</v>
       </c>
       <c r="D76">
-        <v>-3.780607923506091e-6</v>
+        <v>-3.7806079235061004e-6</v>
       </c>
       <c r="E76">
-        <v>0.001937434967846924</v>
+        <v>0.0019374349678469242</v>
       </c>
       <c r="F76">
         <v>4.832077413138365e-5</v>
       </c>
       <c r="G76">
-        <v>7.264174217601715</v>
+        <v>7.264174217601705</v>
       </c>
       <c r="H76">
-        <v>1.3399711977095739e-5</v>
+        <v>1.3399711977095781e-5</v>
       </c>
       <c r="I76">
-        <v>-3.7823381891750213e-6</v>
+        <v>-3.782338189171994e-6</v>
       </c>
       <c r="J76">
-        <v>0.0019374338258104824</v>
+        <v>0.001937433825810743</v>
       </c>
       <c r="K76">
-        <v>4.8320771232914146e-5</v>
+        <v>4.832077123291106e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,7 +3080,7 @@
         <v>0.005757913715499295</v>
       </c>
       <c r="B77">
-        <v>7.261328995400043</v>
+        <v>7.261328995400042</v>
       </c>
       <c r="C77">
         <v>1.2182959231899941e-5</v>
@@ -3089,25 +3089,25 @@
         <v>-3.0297907578414557e-6</v>
       </c>
       <c r="E77">
-        <v>0.0019371997172394225</v>
+        <v>0.0019371997172394227</v>
       </c>
       <c r="F77">
-        <v>4.8322153287741884e-5</v>
+        <v>4.832215328774189e-5</v>
       </c>
       <c r="G77">
-        <v>7.261321289259827</v>
+        <v>7.261321289259818</v>
       </c>
       <c r="H77">
-        <v>1.2180456833466679e-5</v>
+        <v>1.2180456833466726e-5</v>
       </c>
       <c r="I77">
-        <v>-3.0314916538578167e-6</v>
+        <v>-3.0314916538547577e-6</v>
       </c>
       <c r="J77">
-        <v>0.0019371985953796054</v>
+        <v>0.0019371985953798674</v>
       </c>
       <c r="K77">
-        <v>4.832215046793859e-5</v>
+        <v>4.832215046793549e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.006326330464881163</v>
       </c>
       <c r="B78">
-        <v>7.258744765612207</v>
+        <v>7.258744765612206</v>
       </c>
       <c r="C78">
         <v>1.1044991365809253e-5</v>
       </c>
       <c r="D78">
-        <v>-2.225887148666831e-6</v>
+        <v>-2.2258871486668493e-6</v>
       </c>
       <c r="E78">
-        <v>0.0019370018492320738</v>
+        <v>0.001937001849232074</v>
       </c>
       <c r="F78">
-        <v>4.83236348388967e-5</v>
+        <v>4.832363483889671e-5</v>
       </c>
       <c r="G78">
-        <v>7.258737348323887</v>
+        <v>7.258737348323878</v>
       </c>
       <c r="H78">
-        <v>1.1042572597494068e-5</v>
+        <v>1.104257259749412e-5</v>
       </c>
       <c r="I78">
-        <v>-2.2275344784302773e-6</v>
+        <v>-2.2275344784271873e-6</v>
       </c>
       <c r="J78">
-        <v>0.0019370007645196272</v>
+        <v>0.001937000764519891</v>
       </c>
       <c r="K78">
-        <v>4.8323632134796295e-5</v>
+        <v>4.83236321347932e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.006895153413334281</v>
       </c>
       <c r="B79">
-        <v>7.256422663189995</v>
+        <v>7.256422663189996</v>
       </c>
       <c r="C79">
         <v>9.987182234415352e-6</v>
       </c>
       <c r="D79">
-        <v>-1.3691738198232889e-6</v>
+        <v>-1.3691738198232825e-6</v>
       </c>
       <c r="E79">
         <v>0.0019368409303929719</v>
       </c>
       <c r="F79">
-        <v>4.8325215503272856e-5</v>
+        <v>4.832521550327285e-5</v>
       </c>
       <c r="G79">
-        <v>7.256415641395047</v>
+        <v>7.256415641395037</v>
       </c>
       <c r="H79">
-        <v>9.98488334627324e-6</v>
+        <v>9.984883346273296e-6</v>
       </c>
       <c r="I79">
-        <v>-1.3707441281941716e-6</v>
+        <v>-1.370744128191051e-6</v>
       </c>
       <c r="J79">
-        <v>0.0019368398992953711</v>
+        <v>0.0019368398992956365</v>
       </c>
       <c r="K79">
-        <v>4.832521294975087e-5</v>
+        <v>4.832521294974778e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.007464556767332434</v>
       </c>
       <c r="B80">
-        <v>7.254354959274559</v>
+        <v>7.254354959274558</v>
       </c>
       <c r="C80">
         <v>9.007946803561888e-6</v>
       </c>
       <c r="D80">
-        <v>-4.6018888409156317e-7</v>
+        <v>-4.6018888409155846e-7</v>
       </c>
       <c r="E80">
-        <v>0.0019367163212914353</v>
+        <v>0.0019367163212914355</v>
       </c>
       <c r="F80">
-        <v>4.832689188281797e-5</v>
+        <v>4.832689188281798e-5</v>
       </c>
       <c r="G80">
-        <v>7.2543484332781825</v>
+        <v>7.254348433278174</v>
       </c>
       <c r="H80">
-        <v>9.00580230519851e-6</v>
+        <v>9.005802305198571e-6</v>
       </c>
       <c r="I80">
-        <v>-4.6165982534642575e-7</v>
+        <v>-4.6165982534327447e-7</v>
       </c>
       <c r="J80">
-        <v>0.0019367153594373682</v>
+        <v>0.0019367153594376351</v>
       </c>
       <c r="K80">
-        <v>4.832688951228001e-5</v>
+        <v>4.832688951227691e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.00803471491110315</v>
       </c>
       <c r="B81">
-        <v>7.252533010513952</v>
+        <v>7.252533010513953</v>
       </c>
       <c r="C81">
         <v>8.10530924357935e-6</v>
       </c>
       <c r="D81">
-        <v>5.002804760179792e-7</v>
+        <v>5.002804760179808e-7</v>
       </c>
       <c r="E81">
-        <v>0.0019366271870397134</v>
+        <v>0.0019366271870397132</v>
       </c>
       <c r="F81">
         <v>4.832866047499722e-5</v>
       </c>
       <c r="G81">
-        <v>7.252527072921325</v>
+        <v>7.252527072921317</v>
       </c>
       <c r="H81">
-        <v>8.103351373028338e-6</v>
+        <v>8.103351373028404e-6</v>
       </c>
       <c r="I81">
-        <v>4.989297987640081e-7</v>
+        <v>4.989297987671904e-7</v>
       </c>
       <c r="J81">
-        <v>0.0019366263089551192</v>
+        <v>0.001936626308955387</v>
       </c>
       <c r="K81">
-        <v>4.832865831708204e-5</v>
+        <v>4.832865831707896e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3261,28 +3261,28 @@
         <v>7.276928531823455e-6</v>
       </c>
       <c r="D82">
-        <v>1.5112142447773628e-6</v>
+        <v>1.5112142447773626e-6</v>
       </c>
       <c r="E82">
-        <v>0.001936572511045689</v>
+        <v>0.0019365725110456894</v>
       </c>
       <c r="F82">
         <v>4.83305176877081e-5</v>
       </c>
       <c r="G82">
-        <v>7.250942073468556</v>
+        <v>7.250942073468547</v>
       </c>
       <c r="H82">
-        <v>7.275186716186237e-6</v>
+        <v>7.275186716186307e-6</v>
       </c>
       <c r="I82">
-        <v>1.5100029356983934e-6</v>
+        <v>1.5100029357016064e-6</v>
       </c>
       <c r="J82">
-        <v>0.0019365717299490823</v>
+        <v>0.0019365717299493512</v>
       </c>
       <c r="K82">
-        <v>4.8330515768827576e-5</v>
+        <v>4.833051576882448e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3296,28 +3296,28 @@
         <v>6.520129634001396e-6</v>
       </c>
       <c r="D83">
-        <v>2.5713793526217977e-6</v>
+        <v>2.5713793526217697e-6</v>
       </c>
       <c r="E83">
         <v>0.0019365511116149021</v>
       </c>
       <c r="F83">
-        <v>4.833245985687818e-5</v>
+        <v>4.8332459856878173e-5</v>
       </c>
       <c r="G83">
-        <v>7.2495832054906835</v>
+        <v>7.249583205490675</v>
       </c>
       <c r="H83">
-        <v>6.518630126263354e-6</v>
+        <v>6.518630126263429e-6</v>
       </c>
       <c r="I83">
-        <v>2.570324459960277e-6</v>
+        <v>2.5703244599635217e-6</v>
       </c>
       <c r="J83">
-        <v>0.0019365504391970888</v>
+        <v>0.0019365504391973588</v>
       </c>
       <c r="K83">
-        <v>4.833245820011783e-5</v>
+        <v>4.8332458200114736e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,7 +3325,7 @@
         <v>0.00975146571168109</v>
       </c>
       <c r="B84">
-        <v>7.2484433132790755</v>
+        <v>7.248443313279074</v>
       </c>
       <c r="C84">
         <v>5.831939528956628e-6</v>
@@ -3334,25 +3334,25 @@
         <v>3.6793525446705787e-6</v>
       </c>
       <c r="E84">
-        <v>0.0019365616609718906</v>
+        <v>0.001936561660971891</v>
       </c>
       <c r="F84">
         <v>4.833448326646839e-5</v>
       </c>
       <c r="G84">
-        <v>7.248439600640367</v>
+        <v>7.248439600640358</v>
       </c>
       <c r="H84">
-        <v>5.830705006562827e-6</v>
+        <v>5.830705006562904e-6</v>
       </c>
       <c r="I84">
-        <v>3.6784688378903053e-6</v>
+        <v>3.6784688378935803e-6</v>
       </c>
       <c r="J84">
-        <v>0.001936561107229855</v>
+        <v>0.0019365611072301257</v>
       </c>
       <c r="K84">
-        <v>4.8334481891238544e-5</v>
+        <v>4.8334481891235454e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,13 +3360,13 @@
         <v>0.010326392282722006</v>
       </c>
       <c r="B85">
-        <v>7.247502718277023</v>
+        <v>7.2475027182770235</v>
       </c>
       <c r="C85">
         <v>5.2091272364998595e-6</v>
       </c>
       <c r="D85">
-        <v>4.8335458178901216e-6</v>
+        <v>4.833545817890127e-6</v>
       </c>
       <c r="E85">
         <v>0.0019366027062172242</v>
@@ -3375,19 +3375,19 @@
         <v>4.83365841705602e-5</v>
       </c>
       <c r="G85">
-        <v>7.247499864194169</v>
+        <v>7.24749986419416</v>
       </c>
       <c r="H85">
-        <v>5.208176556764918e-6</v>
+        <v>5.208176556764998e-6</v>
       </c>
       <c r="I85">
-        <v>4.83284561547664e-6</v>
+        <v>4.832845615479949e-6</v>
       </c>
       <c r="J85">
-        <v>0.0019366022793512554</v>
+        <v>0.0019366022793515269</v>
       </c>
       <c r="K85">
-        <v>4.83365830926625e-5</v>
+        <v>4.833658309265941e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3401,7 +3401,7 @@
         <v>4.64824692692073e-6</v>
       </c>
       <c r="D86">
-        <v>6.032233854045174e-6</v>
+        <v>6.0322338540451695e-6</v>
       </c>
       <c r="E86">
         <v>0.0019366726916992074</v>
@@ -3410,19 +3410,19 @@
         <v>4.83387588171577e-5</v>
       </c>
       <c r="G86">
-        <v>7.2467521938804715</v>
+        <v>7.246752193880462</v>
       </c>
       <c r="H86">
-        <v>4.647594922251304e-6</v>
+        <v>4.647594922251387e-6</v>
       </c>
       <c r="I86">
-        <v>6.031726866352496e-6</v>
+        <v>6.0317268663558335e-6</v>
       </c>
       <c r="J86">
-        <v>0.0019366723980118752</v>
+        <v>0.001936672398012147</v>
       </c>
       <c r="K86">
-        <v>4.833875804847261e-5</v>
+        <v>4.833875804846951e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3436,7 +3436,7 @@
         <v>4.145683136205135e-6</v>
       </c>
       <c r="D87">
-        <v>7.273582839125967e-6</v>
+        <v>7.273582839125968e-6</v>
       </c>
       <c r="E87">
         <v>0.0019367699822588796</v>
@@ -3445,19 +3445,19 @@
         <v>4.834100347328858e-5</v>
       </c>
       <c r="G87">
-        <v>7.246184502733276</v>
+        <v>7.246184502733266</v>
       </c>
       <c r="H87">
-        <v>4.145340537633414e-6</v>
+        <v>4.145340537633498e-6</v>
       </c>
       <c r="I87">
-        <v>7.273276157892725e-6</v>
+        <v>7.273276157896096e-6</v>
       </c>
       <c r="J87">
-        <v>0.0019367698261412956</v>
+        <v>0.0019367698261415689</v>
       </c>
       <c r="K87">
-        <v>4.834100302184924e-5</v>
+        <v>4.834100302184613e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3471,7 +3471,7 @@
         <v>3.697697084116364e-6</v>
       </c>
       <c r="D88">
-        <v>8.5556800403891e-6</v>
+        <v>8.555680040389101e-6</v>
       </c>
       <c r="E88">
         <v>0.0019368928868037313</v>
@@ -3480,19 +3480,19 @@
         <v>4.8343314450943705e-5</v>
       </c>
       <c r="G88">
-        <v>7.245784543267635</v>
+        <v>7.245784543267624</v>
       </c>
       <c r="H88">
-        <v>3.697670511605718e-6</v>
+        <v>3.697670511605804e-6</v>
       </c>
       <c r="I88">
-        <v>8.555578093345961e-6</v>
+        <v>8.555578093349363e-6</v>
       </c>
       <c r="J88">
-        <v>0.001936892870734223</v>
+        <v>0.0019368928707344966</v>
       </c>
       <c r="K88">
-        <v>4.834331432103122e-5</v>
+        <v>4.8343314321028096e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3506,28 +3506,28 @@
         <v>3.3004730936994757e-6</v>
       </c>
       <c r="D89">
-        <v>9.876563510024315e-6</v>
+        <v>9.876563510024318e-6</v>
       </c>
       <c r="E89">
-        <v>0.0019370396816790827</v>
+        <v>0.0019370396816790825</v>
       </c>
       <c r="F89">
         <v>4.834568813335738e-5</v>
       </c>
       <c r="G89">
-        <v>7.245540030682772</v>
+        <v>7.245540030682761</v>
       </c>
       <c r="H89">
-        <v>3.3007651334574345e-6</v>
+        <v>3.300765133457521e-6</v>
       </c>
       <c r="I89">
-        <v>9.876668112188515e-6</v>
+        <v>9.876668112191949e-6</v>
       </c>
       <c r="J89">
-        <v>0.0019370398062786944</v>
+        <v>0.0019370398062789687</v>
       </c>
       <c r="K89">
-        <v>4.8345688325557514e-5</v>
+        <v>4.8345688325554376e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.013229034014278628</v>
       </c>
       <c r="B90">
-        <v>7.245436981394255</v>
+        <v>7.245436981394256</v>
       </c>
       <c r="C90">
         <v>2.950164140045653e-6</v>
       </c>
       <c r="D90">
-        <v>1.123425129972156e-5</v>
+        <v>1.1234251299721558e-5</v>
       </c>
       <c r="E90">
-        <v>0.0019372086333351189</v>
+        <v>0.0019372086333351184</v>
       </c>
       <c r="F90">
-        <v>4.834812100110279e-5</v>
+        <v>4.83481210011028e-5</v>
       </c>
       <c r="G90">
-        <v>7.245438762646847</v>
+        <v>7.245438762646836</v>
       </c>
       <c r="H90">
-        <v>2.9507735041603965e-6</v>
+        <v>2.9507735041604837e-6</v>
       </c>
       <c r="I90">
-        <v>1.1234561779886801e-5</v>
+        <v>1.1234561779890268e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019372088974608651</v>
+        <v>0.00193720889746114</v>
       </c>
       <c r="K90">
-        <v>4.8348121512495567e-5</v>
+        <v>4.834812151249243e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,7 +3570,7 @@
         <v>0.013816408599050652</v>
       </c>
       <c r="B91">
-        <v>7.245466036965578</v>
+        <v>7.245466036965577</v>
       </c>
       <c r="C91">
         <v>2.642935612018863e-6</v>
@@ -3585,19 +3585,19 @@
         <v>4.83506096574623e-5</v>
       </c>
       <c r="G91">
-        <v>7.245468733223339</v>
+        <v>7.245468733223327</v>
       </c>
       <c r="H91">
-        <v>2.6438573927287887e-6</v>
+        <v>2.643857392728876e-6</v>
       </c>
       <c r="I91">
-        <v>1.2627282927912011e-5</v>
+        <v>1.262728292791551e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019373984206996582</v>
+        <v>0.0019373984206999333</v>
       </c>
       <c r="K91">
-        <v>4.8350610481864635e-5</v>
+        <v>4.835061048186147e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.01440648327786373</v>
       </c>
       <c r="B92">
-        <v>7.245614655613628</v>
+        <v>7.245614655613626</v>
       </c>
       <c r="C92">
         <v>2.375006450929322e-6</v>
       </c>
       <c r="D92">
-        <v>1.4052179285603287e-5</v>
+        <v>1.4052179285603267e-5</v>
       </c>
       <c r="E92">
-        <v>0.0019376061507690226</v>
+        <v>0.0019376061507690224</v>
       </c>
       <c r="F92">
-        <v>4.835315085253369e-5</v>
+        <v>4.835315085253368e-5</v>
       </c>
       <c r="G92">
-        <v>7.245618238923751</v>
+        <v>7.24561823892374</v>
       </c>
       <c r="H92">
-        <v>2.3762323969822084e-6</v>
+        <v>2.376232396982295e-6</v>
       </c>
       <c r="I92">
-        <v>1.4052890267974851e-5</v>
+        <v>1.4052890267978383e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019376066841056945</v>
+        <v>0.0019376066841059697</v>
       </c>
       <c r="K92">
-        <v>4.8353151980734505e-5</v>
+        <v>4.835315198073132e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3646,7 +3646,7 @@
         <v>2.1426869318531485e-6</v>
       </c>
       <c r="D93">
-        <v>1.550860034082269e-5</v>
+        <v>1.5508600340822716e-5</v>
       </c>
       <c r="E93">
         <v>0.001937831385327638</v>
@@ -3655,19 +3655,19 @@
         <v>4.835574150555236e-5</v>
       </c>
       <c r="G93">
-        <v>7.245875975090548</v>
+        <v>7.245875975090536</v>
       </c>
       <c r="H93">
-        <v>2.144205819793858e-6</v>
+        <v>2.144205819793944e-6</v>
       </c>
       <c r="I93">
-        <v>1.5509501839394564e-5</v>
+        <v>1.550950183939813e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019378320455401847</v>
+        <v>0.00193783204554046</v>
       </c>
       <c r="K93">
-        <v>4.8355742925653634e-5</v>
+        <v>4.8355742925650436e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,7 +3675,7 @@
         <v>0.01559545665981258</v>
       </c>
       <c r="B94">
-        <v>7.246225879690731</v>
+        <v>7.24622587969073</v>
       </c>
       <c r="C94">
         <v>1.9424124727518804e-6</v>
@@ -3684,25 +3684,25 @@
         <v>1.6994233850253723e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019380721481100842</v>
+        <v>0.0019380721481100844</v>
       </c>
       <c r="F94">
         <v>4.8358378724947304e-5</v>
       </c>
       <c r="G94">
-        <v>7.246231121012178</v>
+        <v>7.246231121012165</v>
       </c>
       <c r="H94">
-        <v>1.9442105065784165e-6</v>
+        <v>1.944210506578502e-6</v>
       </c>
       <c r="I94">
-        <v>1.6995317049315084e-5</v>
+        <v>1.699531704931868e-5</v>
       </c>
       <c r="J94">
-        <v>0.001938072928491181</v>
+        <v>0.0019380729284914566</v>
       </c>
       <c r="K94">
-        <v>4.835838042273037e-5</v>
+        <v>4.835838042272715e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3719,25 +3719,25 @@
         <v>1.8507381150377083e-5</v>
       </c>
       <c r="E95">
-        <v>0.0019383269426294057</v>
+        <v>0.0019383269426294055</v>
       </c>
       <c r="F95">
         <v>4.8361059825704476e-5</v>
       </c>
       <c r="G95">
-        <v>7.246673412385679</v>
+        <v>7.246673412385665</v>
       </c>
       <c r="H95">
-        <v>1.7728342172127238e-6</v>
+        <v>1.772834217212809e-6</v>
       </c>
       <c r="I95">
-        <v>1.850863582931493e-5</v>
+        <v>1.8508635829318554e-5</v>
       </c>
       <c r="J95">
-        <v>0.0019383278355552015</v>
+        <v>0.0019383278355554771</v>
       </c>
       <c r="K95">
-        <v>4.836106178500721e-5</v>
+        <v>4.8361061785003945e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3751,28 +3751,28 @@
         <v>1.6245374560889814e-6</v>
       </c>
       <c r="D96">
-        <v>2.004645996447208e-5</v>
+        <v>2.0046459964472086e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019385943623038636</v>
+        <v>0.0019385943623038634</v>
       </c>
       <c r="F96">
         <v>4.836378234368517e-5</v>
       </c>
       <c r="G96">
-        <v>7.247193200578026</v>
+        <v>7.247193200578012</v>
       </c>
       <c r="H96">
-        <v>1.6268442172387087e-6</v>
+        <v>1.6268442172387932e-6</v>
       </c>
       <c r="I96">
-        <v>2.0047874789677623e-5</v>
+        <v>2.0047874789681275e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019385953594355733</v>
+        <v>0.0019385953594358487</v>
       </c>
       <c r="K96">
-        <v>4.836378454678989e-5</v>
+        <v>4.836378454678656e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.017403715156340573</v>
       </c>
       <c r="B97">
-        <v>7.247774148487402</v>
+        <v>7.2477741484874025</v>
       </c>
       <c r="C97">
         <v>1.5006734762769876e-6</v>
       </c>
       <c r="D97">
-        <v>2.1610017366327822e-5</v>
+        <v>2.1610017366327836e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019388730989233294</v>
+        <v>0.001938873098923329</v>
       </c>
       <c r="F97">
-        <v>4.836654404663419e-5</v>
+        <v>4.8366544046634184e-5</v>
       </c>
       <c r="G97">
-        <v>7.247781498105084</v>
+        <v>7.247781498105069</v>
       </c>
       <c r="H97">
-        <v>1.503206850587095e-6</v>
+        <v>1.5032068505871786e-6</v>
       </c>
       <c r="I97">
-        <v>2.1611580159825214e-5</v>
+        <v>2.1611580159828897e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019388741914307616</v>
+        <v>0.001938874191431037</v>
       </c>
       <c r="K97">
-        <v>4.8366546474693944e-5</v>
+        <v>4.836654647469057e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3821,28 +3821,28 @@
         <v>1.3963618137702502e-6</v>
       </c>
       <c r="D98">
-        <v>2.319673952993839e-5</v>
+        <v>2.3196739529938392e-5</v>
       </c>
       <c r="E98">
         <v>0.0019391619486150886</v>
       </c>
       <c r="F98">
-        <v>4.8369342941711904e-5</v>
+        <v>4.836934294171191e-5</v>
       </c>
       <c r="G98">
-        <v>7.248430009941102</v>
+        <v>7.248430009941087</v>
       </c>
       <c r="H98">
-        <v>1.3991020571141788e-6</v>
+        <v>1.3991020571142616e-6</v>
       </c>
       <c r="I98">
-        <v>2.31984375478069e-5</v>
+        <v>2.3198437547810603e-5</v>
       </c>
       <c r="J98">
-        <v>0.0019391631273626981</v>
+        <v>0.0019391631273629726</v>
       </c>
       <c r="K98">
-        <v>4.836934557515104e-5</v>
+        <v>4.836934557514759e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3856,28 +3856,28 @@
         <v>1.309005969990929e-6</v>
       </c>
       <c r="D99">
-        <v>2.4805458308616695e-5</v>
+        <v>2.4805458308616668e-5</v>
       </c>
       <c r="E99">
-        <v>0.0019394598154030863</v>
+        <v>0.0019394598154030866</v>
       </c>
       <c r="F99">
-        <v>4.8372177279489506e-5</v>
+        <v>4.83721772794895e-5</v>
       </c>
       <c r="G99">
-        <v>7.249131151544838</v>
+        <v>7.249131151544821</v>
       </c>
       <c r="H99">
-        <v>1.3119329339792815e-6</v>
+        <v>1.3119329339793626e-6</v>
       </c>
       <c r="I99">
-        <v>2.4807278561003167e-5</v>
+        <v>2.4807278561006898e-5</v>
       </c>
       <c r="J99">
-        <v>0.0019394610711466918</v>
+        <v>0.0019394610711469659</v>
       </c>
       <c r="K99">
-        <v>4.837218009835767e-5</v>
+        <v>4.8372180098354155e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.8375045554453876e-5</v>
       </c>
       <c r="G100">
-        <v>7.249878053686309</v>
+        <v>7.249878053686293</v>
       </c>
       <c r="H100">
-        <v>1.2393305387764837e-6</v>
+        <v>1.2393305387765636e-6</v>
       </c>
       <c r="I100">
-        <v>2.6437084202888363e-5</v>
+        <v>2.6437084202892124e-5</v>
       </c>
       <c r="J100">
-        <v>0.0019397670360714846</v>
+        <v>0.0019397670360717584</v>
       </c>
       <c r="K100">
-        <v>4.837504853881821e-5</v>
+        <v>4.8375048538814634e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.837794650217234e-5</v>
       </c>
       <c r="G101">
-        <v>7.250664555406431</v>
+        <v>7.250664555406413</v>
       </c>
       <c r="H101">
-        <v>1.1791542832758968e-6</v>
+        <v>1.1791542832759751e-6</v>
       </c>
       <c r="I101">
-        <v>2.8086985657903243e-5</v>
+        <v>2.8086985657907027e-5</v>
       </c>
       <c r="J101">
-        <v>0.001940080144022697</v>
+        <v>0.00194008014402297</v>
       </c>
       <c r="K101">
-        <v>4.837794963244701e-5</v>
+        <v>4.837794963244337e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3970,19 +3970,19 @@
         <v>4.83808790933626e-5</v>
       </c>
       <c r="G102">
-        <v>7.251485186038829</v>
+        <v>7.251485186038811</v>
       </c>
       <c r="H102">
-        <v>1.1294883205589743e-6</v>
+        <v>1.1294883205590508e-6</v>
       </c>
       <c r="I102">
-        <v>2.9756262312172866e-5</v>
+        <v>2.9756262312176664e-5</v>
       </c>
       <c r="J102">
-        <v>0.0019403996228965132</v>
+        <v>0.0019403996228967856</v>
       </c>
       <c r="K102">
-        <v>4.8380882350585934e-5</v>
+        <v>4.838088235058222e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3990,7 +3990,7 @@
         <v>0.021127898359355038</v>
       </c>
       <c r="B103">
-        <v>7.252325149725262</v>
+        <v>7.252325149725263</v>
       </c>
       <c r="C103">
         <v>1.0851574668107417e-6</v>
@@ -3999,25 +3999,25 @@
         <v>3.144215581857261e-5</v>
       </c>
       <c r="E103">
-        <v>0.0019407233277635408</v>
+        <v>0.0019407233277635404</v>
       </c>
       <c r="F103">
         <v>4.838384252519602e-5</v>
       </c>
       <c r="G103">
-        <v>7.252335137927291</v>
+        <v>7.252335137927272</v>
       </c>
       <c r="H103">
-        <v>1.0886344338101994e-6</v>
+        <v>1.0886344338102744e-6</v>
       </c>
       <c r="I103">
-        <v>3.1444337532100684e-5</v>
+        <v>3.14443375321045e-5</v>
       </c>
       <c r="J103">
-        <v>0.0019407248024502285</v>
+        <v>0.0019407248024505004</v>
       </c>
       <c r="K103">
-        <v>4.838384589126484e-5</v>
+        <v>4.838384589126107e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.021764762428936386</v>
       </c>
       <c r="B104">
-        <v>7.253199995829022</v>
+        <v>7.253199995829021</v>
       </c>
       <c r="C104">
         <v>1.0515329933475969e-6</v>
       </c>
       <c r="D104">
-        <v>3.314853002972562e-5</v>
+        <v>3.3148530029725617e-5</v>
       </c>
       <c r="E104">
-        <v>0.0019410535997705521</v>
+        <v>0.0019410535997705523</v>
       </c>
       <c r="F104">
         <v>4.838683621022844e-5</v>
       </c>
       <c r="G104">
-        <v>7.253210231406696</v>
+        <v>7.253210231406676</v>
       </c>
       <c r="H104">
-        <v>1.055101971272282e-6</v>
+        <v>1.0551019712723553e-6</v>
       </c>
       <c r="I104">
-        <v>3.315077262956393e-5</v>
+        <v>3.3150772629567766e-5</v>
       </c>
       <c r="J104">
-        <v>0.0019410551088810692</v>
+        <v>0.0019410551088813396</v>
       </c>
       <c r="K104">
-        <v>4.8386839668109816e-5</v>
+        <v>4.8386839668106e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4066,28 +4066,28 @@
         <v>1.0239503704505589e-6</v>
       </c>
       <c r="D105">
-        <v>3.487296592322209e-5</v>
+        <v>3.4872965923222125e-5</v>
       </c>
       <c r="E105">
-        <v>0.0019413885219050882</v>
+        <v>0.001941388521905088</v>
       </c>
       <c r="F105">
         <v>4.838985976340012e-5</v>
       </c>
       <c r="G105">
-        <v>7.254106873425858</v>
+        <v>7.254106873425837</v>
       </c>
       <c r="H105">
-        <v>1.0275954094788604e-6</v>
+        <v>1.0275954094789322e-6</v>
       </c>
       <c r="I105">
-        <v>3.4875259038459046e-5</v>
+        <v>3.48752590384629e-5</v>
       </c>
       <c r="J105">
-        <v>0.0019413900584104805</v>
+        <v>0.0019413900584107496</v>
       </c>
       <c r="K105">
-        <v>4.838986329729428e-5</v>
+        <v>4.838986329729041e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.023054090203703095</v>
       </c>
       <c r="B106">
-        <v>7.255011417133657</v>
+        <v>7.255011417133656</v>
       </c>
       <c r="C106">
         <v>1.0012936141668964e-6</v>
       </c>
       <c r="D106">
-        <v>3.6615275422870296e-5</v>
+        <v>3.661527542287029e-5</v>
       </c>
       <c r="E106">
-        <v>0.0019417276926508233</v>
+        <v>0.0019417276926508237</v>
       </c>
       <c r="F106">
         <v>4.8392912987573604e-5</v>
       </c>
       <c r="G106">
-        <v>7.2550220117908335</v>
+        <v>7.255022011790811</v>
       </c>
       <c r="H106">
-        <v>1.0050001212609923e-6</v>
+        <v>1.0050001212610626e-6</v>
       </c>
       <c r="I106">
-        <v>3.6617609533910004e-5</v>
+        <v>3.661760953391387e-5</v>
       </c>
       <c r="J106">
-        <v>0.0019417292501574908</v>
+        <v>0.0019417292501577581</v>
       </c>
       <c r="K106">
-        <v>4.839291658298979e-5</v>
+        <v>4.839291658298586e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4136,7 +4136,7 @@
         <v>9.826121335606795e-7</v>
       </c>
       <c r="D107">
-        <v>3.83753820568039e-5</v>
+        <v>3.8375382056803916e-5</v>
       </c>
       <c r="E107">
         <v>0.0019420707858137393</v>
@@ -4145,19 +4145,19 @@
         <v>4.839599585808471e-5</v>
       </c>
       <c r="G107">
-        <v>7.255953086494103</v>
+        <v>7.255953086494081</v>
       </c>
       <c r="H107">
-        <v>9.863669289567052e-7</v>
+        <v>9.86366928956774e-7</v>
       </c>
       <c r="I107">
-        <v>3.8377748606452234e-5</v>
+        <v>3.837774860645613e-5</v>
       </c>
       <c r="J107">
-        <v>0.0019420723585770279</v>
+        <v>0.001942072358577294</v>
       </c>
       <c r="K107">
-        <v>4.83959995019319e-5</v>
+        <v>4.839599950192793e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4171,7 +4171,7 @@
         <v>9.671046452385703e-7</v>
       </c>
       <c r="D108">
-        <v>4.0153310831901505e-5</v>
+        <v>4.0153310831901484e-5</v>
       </c>
       <c r="E108">
         <v>0.0019424175427841157</v>
@@ -4180,19 +4180,19 @@
         <v>4.839910850676947e-5</v>
       </c>
       <c r="G108">
-        <v>7.256897979575842</v>
+        <v>7.256897979575818</v>
       </c>
       <c r="H108">
-        <v>9.708959765328436e-7</v>
+        <v>9.708959765329113e-7</v>
       </c>
       <c r="I108">
-        <v>4.015570215511826e-5</v>
+        <v>4.0155702155122197e-5</v>
       </c>
       <c r="J108">
-        <v>0.001942419125717603</v>
+        <v>0.0019424191257178679</v>
       </c>
       <c r="K108">
-        <v>4.839911218737986e-5</v>
+        <v>4.839911218737586e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4206,7 +4206,7 @@
         <v>9.541028934868005e-7</v>
       </c>
       <c r="D109">
-        <v>4.194917795610125e-5</v>
+        <v>4.1949177956101245e-5</v>
       </c>
       <c r="E109">
         <v>0.0019427677648205784</v>
@@ -4215,19 +4215,19 @@
         <v>4.840225120589959e-5</v>
       </c>
       <c r="G109">
-        <v>7.25785496506298</v>
+        <v>7.257854965062956</v>
       </c>
       <c r="H109">
-        <v>9.57920411150245e-7</v>
+        <v>9.579204111503115e-7</v>
       </c>
       <c r="I109">
-        <v>4.195158728063985e-5</v>
+        <v>4.1951587280643826e-5</v>
       </c>
       <c r="J109">
-        <v>0.0019427693534692374</v>
+        <v>0.0019427693534695013</v>
       </c>
       <c r="K109">
-        <v>4.840225491293282e-5</v>
+        <v>4.840225491292881e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,13 +4235,13 @@
         <v>0.02570070799383125</v>
       </c>
       <c r="B110">
-        <v>7.258811773264234</v>
+        <v>7.258811773264235</v>
       </c>
       <c r="C110">
         <v>9.430556065956168e-7</v>
       </c>
       <c r="D110">
-        <v>4.376318068947764e-5</v>
+        <v>4.376318068947767e-5</v>
       </c>
       <c r="E110">
         <v>0.0019431213055433939</v>
@@ -4250,19 +4250,19 @@
         <v>4.840542435241482e-5</v>
       </c>
       <c r="G110">
-        <v>7.258822660193963</v>
+        <v>7.258822660193938</v>
       </c>
       <c r="H110">
-        <v>9.468903080105449e-7</v>
+        <v>9.468903080106102e-7</v>
       </c>
       <c r="I110">
-        <v>4.376560215194106e-5</v>
+        <v>4.3765602151945045e-5</v>
       </c>
       <c r="J110">
-        <v>0.0019431228960544791</v>
+        <v>0.001943122896054742</v>
       </c>
       <c r="K110">
-        <v>4.840542807686896e-5</v>
+        <v>4.840542807686494e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4270,34 +4270,34 @@
         <v>0.026377700676439353</v>
       </c>
       <c r="B111">
-        <v>7.259789083730177</v>
+        <v>7.259789083730176</v>
       </c>
       <c r="C111">
         <v>9.335130520671367e-7</v>
       </c>
       <c r="D111">
-        <v>4.5595587561763295e-5</v>
+        <v>4.559558756176328e-5</v>
       </c>
       <c r="E111">
-        <v>0.0019434780637902756</v>
+        <v>0.001943478063790276</v>
       </c>
       <c r="F111">
-        <v>4.840862845278524e-5</v>
+        <v>4.8408628452785236e-5</v>
       </c>
       <c r="G111">
-        <v>7.2597999785875125</v>
+        <v>7.259799978587487</v>
       </c>
       <c r="H111">
-        <v>9.373572016414158e-7</v>
+        <v>9.373572016414801e-7</v>
       </c>
       <c r="I111">
-        <v>4.559801609742288e-5</v>
+        <v>4.5598016097426885e-5</v>
       </c>
       <c r="J111">
-        <v>0.0019434796528837951</v>
+        <v>0.0019434796528840568</v>
       </c>
       <c r="K111">
-        <v>4.840863218692722e-5</v>
+        <v>4.84086321869232e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4311,28 +4311,28 @@
         <v>9.251124809465381e-7</v>
       </c>
       <c r="D112">
-        <v>4.744672914756417e-5</v>
+        <v>4.744672914756418e-5</v>
       </c>
       <c r="E112">
-        <v>0.0019438379769530461</v>
+        <v>0.0019438379769530466</v>
       </c>
       <c r="F112">
         <v>4.8411864108774024e-5</v>
       </c>
       <c r="G112">
-        <v>7.260786086624962</v>
+        <v>7.260786086624936</v>
       </c>
       <c r="H112">
-        <v>9.289595105159804e-7</v>
+        <v>9.289595105160438e-7</v>
       </c>
       <c r="I112">
-        <v>4.744916045946187e-5</v>
+        <v>4.744916045946591e-5</v>
       </c>
       <c r="J112">
-        <v>0.0019438395618513128</v>
+        <v>0.0019438395618515737</v>
       </c>
       <c r="K112">
-        <v>4.84118678460093e-5</v>
+        <v>4.8411867846005286e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,34 +4340,34 @@
         <v>0.027751536644802927</v>
       </c>
       <c r="B113">
-        <v>7.261769505998419</v>
+        <v>7.261769505998418</v>
       </c>
       <c r="C113">
         <v>9.175646781449658e-7</v>
       </c>
       <c r="D113">
-        <v>4.931698954324072e-5</v>
+        <v>4.9316989543240704e-5</v>
       </c>
       <c r="E113">
-        <v>0.0019442010148793304</v>
+        <v>0.0019442010148793306</v>
       </c>
       <c r="F113">
-        <v>4.841513200430585e-5</v>
+        <v>4.841513200430586e-5</v>
       </c>
       <c r="G113">
-        <v>7.261780363318136</v>
+        <v>7.26178036331811</v>
       </c>
       <c r="H113">
-        <v>9.214090755882347e-7</v>
+        <v>9.214090755882973e-7</v>
       </c>
       <c r="I113">
-        <v>4.9319420026760206e-5</v>
+        <v>4.9319420026764265e-5</v>
       </c>
       <c r="J113">
-        <v>0.00194420259327783</v>
+        <v>0.0019442025932780904</v>
       </c>
       <c r="K113">
-        <v>4.841513573911671e-5</v>
+        <v>4.8415135739112695e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,7 +4375,7 @@
         <v>0.02844880067856139</v>
       </c>
       <c r="B114">
-        <v>7.262771546404659</v>
+        <v>7.262771546404658</v>
       </c>
       <c r="C114">
         <v>9.106417646609518e-7</v>
@@ -4387,22 +4387,22 @@
         <v>0.0019445671743912665</v>
       </c>
       <c r="F114">
-        <v>4.8418432893580455e-5</v>
+        <v>4.841843289358045e-5</v>
       </c>
       <c r="G114">
-        <v>7.2627823641129075</v>
+        <v>7.262782364112879</v>
       </c>
       <c r="H114">
-        <v>9.144789560548579e-7</v>
+        <v>9.144789560549198e-7</v>
       </c>
       <c r="I114">
-        <v>5.120922531735456e-5</v>
+        <v>5.120922531735861e-5</v>
       </c>
       <c r="J114">
-        <v>0.0019445687443893896</v>
+        <v>0.0019445687443896487</v>
       </c>
       <c r="K114">
-        <v>4.841843662136649e-5</v>
+        <v>4.841843662136248e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4416,7 +4416,7 @@
         <v>9.04166331884422e-7</v>
       </c>
       <c r="D115">
-        <v>5.311662527281433e-5</v>
+        <v>5.311662527281432e-5</v>
       </c>
       <c r="E115">
         <v>0.0019449364744441745</v>
@@ -4425,19 +4425,19 @@
         <v>4.842176759050915e-5</v>
       </c>
       <c r="G115">
-        <v>7.263791788652556</v>
+        <v>7.263791788652528</v>
       </c>
       <c r="H115">
-        <v>9.079925620820361e-7</v>
+        <v>9.079925620820974e-7</v>
       </c>
       <c r="I115">
-        <v>5.311904566036518e-5</v>
+        <v>5.311904566036925e-5</v>
       </c>
       <c r="J115">
-        <v>0.0019449380344937607</v>
+        <v>0.0019449380344940196</v>
       </c>
       <c r="K115">
-        <v>4.842177130749395e-5</v>
+        <v>4.842177130748993e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.842513695949656e-5</v>
       </c>
       <c r="G116">
-        <v>7.264808453005028</v>
+        <v>7.264808453004998</v>
       </c>
       <c r="H116">
-        <v>9.018141460290411e-7</v>
+        <v>9.018141460291019e-7</v>
       </c>
       <c r="I116">
-        <v>5.504938328556303e-5</v>
+        <v>5.504938328556709e-5</v>
       </c>
       <c r="J116">
-        <v>0.0019453105007820263</v>
+        <v>0.0019453105007822844</v>
       </c>
       <c r="K116">
-        <v>4.8425140662596023e-5</v>
+        <v>4.8425140662592005e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4486,28 +4486,28 @@
         <v>8.920448826767643e-7</v>
       </c>
       <c r="D117">
-        <v>5.6998365946201434e-5</v>
+        <v>5.699836594620141e-5</v>
       </c>
       <c r="E117">
-        <v>0.0019456846580540286</v>
+        <v>0.0019456846580540288</v>
       </c>
       <c r="F117">
         <v>4.8428541907541624e-5</v>
       </c>
       <c r="G117">
-        <v>7.2658322655806264</v>
+        <v>7.265832265580596</v>
       </c>
       <c r="H117">
-        <v>8.958406234750951e-7</v>
+        <v>8.958406234751552e-7</v>
       </c>
       <c r="I117">
-        <v>5.700076813608238e-5</v>
+        <v>5.700076813608647e-5</v>
       </c>
       <c r="J117">
-        <v>0.0019456861947354078</v>
+        <v>0.0019456861947356663</v>
       </c>
       <c r="K117">
-        <v>4.8428545594251924e-5</v>
+        <v>4.84285455942479e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,34 +4515,34 @@
         <v>0.03131183941142232</v>
       </c>
       <c r="B118">
-        <v>7.266852635636993</v>
+        <v>7.266852635636994</v>
       </c>
       <c r="C118">
         <v>8.862173630654724e-7</v>
       </c>
       <c r="D118">
-        <v>5.897136256781739e-5</v>
+        <v>5.8971362567817385e-5</v>
       </c>
       <c r="E118">
-        <v>0.001946063655392348</v>
+        <v>0.0019460636553923479</v>
       </c>
       <c r="F118">
         <v>4.843198337759362e-5</v>
       </c>
       <c r="G118">
-        <v>7.26686320701075</v>
+        <v>7.2668632070107195</v>
       </c>
       <c r="H118">
-        <v>8.899946575361998e-7</v>
+        <v>8.899946575362591e-7</v>
       </c>
       <c r="I118">
-        <v>5.897375356447191e-5</v>
+        <v>5.8973753564476016e-5</v>
       </c>
       <c r="J118">
-        <v>0.0019460651791173664</v>
+        <v>0.0019460651791176253</v>
       </c>
       <c r="K118">
-        <v>4.843198704592521e-5</v>
+        <v>4.84319870459212e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,13 +4550,13 @@
         <v>0.03204719074551874</v>
       </c>
       <c r="B119">
-        <v>7.267890817610464</v>
+        <v>7.267890817610465</v>
       </c>
       <c r="C119">
         <v>8.80461632612253e-7</v>
       </c>
       <c r="D119">
-        <v>6.0966533984215486e-5</v>
+        <v>6.096653398421549e-5</v>
       </c>
       <c r="E119">
         <v>0.0019464460153363573</v>
@@ -4565,19 +4565,19 @@
         <v>4.8435462343069855e-5</v>
       </c>
       <c r="G119">
-        <v>7.26790131331801</v>
+        <v>7.26790131331798</v>
       </c>
       <c r="H119">
-        <v>8.842189082362438e-7</v>
+        <v>8.842189082363026e-7</v>
       </c>
       <c r="I119">
-        <v>6.096891276447109e-5</v>
+        <v>6.0968912764475246e-5</v>
       </c>
       <c r="J119">
-        <v>0.0019464475255008711</v>
+        <v>0.0019464475255011296</v>
       </c>
       <c r="K119">
-        <v>4.8435465991398524e-5</v>
+        <v>4.843546599139452e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,34 +4585,34 @@
         <v>0.03279082549317736</v>
       </c>
       <c r="B120">
-        <v>7.268936245731512</v>
+        <v>7.268936245731511</v>
       </c>
       <c r="C120">
         <v>8.747353300897676e-7</v>
       </c>
       <c r="D120">
-        <v>6.29844701463555e-5</v>
+        <v>6.298447014635547e-5</v>
       </c>
       <c r="E120">
-        <v>0.0019468318161109397</v>
+        <v>0.0019468318161109399</v>
       </c>
       <c r="F120">
-        <v>4.843897980342168e-5</v>
+        <v>4.8438979803421685e-5</v>
       </c>
       <c r="G120">
-        <v>7.2689466622970125</v>
+        <v>7.268946662296981</v>
       </c>
       <c r="H120">
-        <v>8.784713327287231e-7</v>
+        <v>8.784713327287811e-7</v>
       </c>
       <c r="I120">
-        <v>6.29868358645545e-5</v>
+        <v>6.298683586455866e-5</v>
       </c>
       <c r="J120">
-        <v>0.0019468333122409235</v>
+        <v>0.001946833312241181</v>
       </c>
       <c r="K120">
-        <v>4.84389834304759e-5</v>
+        <v>4.8438983430471897e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4626,7 +4626,7 @@
         <v>8.690076833305182e-7</v>
       </c>
       <c r="D121">
-        <v>6.50257757440558e-5</v>
+        <v>6.502577574405579e-5</v>
       </c>
       <c r="E121">
         <v>0.0019472211411598948</v>
@@ -4635,19 +4635,19 @@
         <v>4.844253678062506e-5</v>
       </c>
       <c r="G121">
-        <v>7.269999362677984</v>
+        <v>7.269999362677953</v>
       </c>
       <c r="H121">
-        <v>8.727214082766763e-7</v>
+        <v>8.727214082767334e-7</v>
       </c>
       <c r="I121">
-        <v>6.502812772882664e-5</v>
+        <v>6.502812772883081e-5</v>
       </c>
       <c r="J121">
-        <v>0.0019472226228807255</v>
+        <v>0.0019472226228809824</v>
       </c>
       <c r="K121">
-        <v>4.844254038535947e-5</v>
+        <v>4.844254038535548e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4661,28 +4661,28 @@
         <v>8.632565153393921e-7</v>
       </c>
       <c r="D122">
-        <v>6.709106844285521e-5</v>
+        <v>6.709106844285522e-5</v>
       </c>
       <c r="E122">
-        <v>0.0019476140778872174</v>
+        <v>0.0019476140778872176</v>
       </c>
       <c r="F122">
-        <v>4.844613431646795e-5</v>
+        <v>4.8446134316467945e-5</v>
       </c>
       <c r="G122">
-        <v>7.2710595454245235</v>
+        <v>7.2710595454244915</v>
       </c>
       <c r="H122">
-        <v>8.669471494958148e-7</v>
+        <v>8.66947149495871e-7</v>
       </c>
       <c r="I122">
-        <v>6.709340618664191e-5</v>
+        <v>6.709340618664609e-5</v>
       </c>
       <c r="J122">
-        <v>0.001947615544913308</v>
+        <v>0.0019476155449135641</v>
       </c>
       <c r="K122">
-        <v>4.844613789806616e-5</v>
+        <v>4.844613789806218e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4696,28 +4696,28 @@
         <v>8.574659191211261e-7</v>
       </c>
       <c r="D123">
-        <v>6.91809775588467e-5</v>
+        <v>6.918097755884672e-5</v>
       </c>
       <c r="E123">
-        <v>0.0019480107166897382</v>
+        <v>0.0019480107166897384</v>
       </c>
       <c r="F123">
         <v>4.844977347051022e-5</v>
       </c>
       <c r="G123">
-        <v>7.272127357055651</v>
+        <v>7.272127357055618</v>
       </c>
       <c r="H123">
-        <v>8.611327934308908e-7</v>
+        <v>8.611327934309462e-7</v>
       </c>
       <c r="I123">
-        <v>6.918330061016524e-5</v>
+        <v>6.918330061016945e-5</v>
       </c>
       <c r="J123">
-        <v>0.0019480121687976853</v>
+        <v>0.0019480121687979397</v>
       </c>
       <c r="K123">
-        <v>4.8449777028258234e-5</v>
+        <v>4.844977702825426e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,7 +4725,7 @@
         <v>0.03585279302173329</v>
       </c>
       <c r="B124">
-        <v>7.273192877141367</v>
+        <v>7.2731928771413665</v>
       </c>
       <c r="C124">
         <v>8.516244836206167e-7</v>
@@ -4734,25 +4734,25 @@
         <v>7.129614309536889e-5</v>
       </c>
       <c r="E124">
-        <v>0.0019484111502280747</v>
+        <v>0.001948411150228075</v>
       </c>
       <c r="F124">
         <v>4.8453455318598734e-5</v>
       </c>
       <c r="G124">
-        <v>7.273202954644992</v>
+        <v>7.273202954644957</v>
       </c>
       <c r="H124">
-        <v>8.552670347381409e-7</v>
+        <v>8.552670347381952e-7</v>
       </c>
       <c r="I124">
-        <v>7.129845107506454e-5</v>
+        <v>7.129845107506876e-5</v>
       </c>
       <c r="J124">
-        <v>0.0019484125872320603</v>
+        <v>0.0019484125872323132</v>
       </c>
       <c r="K124">
-        <v>4.8453458851924405e-5</v>
+        <v>4.845345885192046e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.036641314191818215</v>
       </c>
       <c r="B125">
-        <v>7.274276512995842</v>
+        <v>7.274276512995841</v>
       </c>
       <c r="C125">
         <v>8.45723964391273e-7</v>
       </c>
       <c r="D125">
-        <v>7.343721507255559e-5</v>
+        <v>7.343721507255556e-5</v>
       </c>
       <c r="E125">
-        <v>0.0019488154728885165</v>
+        <v>0.001948815472888517</v>
       </c>
       <c r="F125">
         <v>4.845718095183204e-5</v>
       </c>
       <c r="G125">
-        <v>7.274286501944087</v>
+        <v>7.2742865019440535</v>
       </c>
       <c r="H125">
-        <v>8.49341704295673e-7</v>
+        <v>8.493417042957262e-7</v>
       </c>
       <c r="I125">
-        <v>7.343950766436514e-5</v>
+        <v>7.343950766436935e-5</v>
       </c>
       <c r="J125">
-        <v>0.0019488168946427626</v>
+        <v>0.0019488168946430139</v>
       </c>
       <c r="K125">
-        <v>4.8457184460206204e-5</v>
+        <v>4.845718446020228e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.03743952576167768</v>
       </c>
       <c r="B126">
-        <v>7.275368267342476</v>
+        <v>7.2753682673424755</v>
       </c>
       <c r="C126">
         <v>8.397583056994181e-7</v>
       </c>
       <c r="D126">
-        <v>7.560485308912707e-5</v>
+        <v>7.56048530891271e-5</v>
       </c>
       <c r="E126">
-        <v>0.0019492237803947832</v>
+        <v>0.0019492237803947837</v>
       </c>
       <c r="F126">
-        <v>4.846095147588101e-5</v>
+        <v>4.8460951475881014e-5</v>
       </c>
       <c r="G126">
-        <v>7.275378166611079</v>
+        <v>7.275378166611043</v>
       </c>
       <c r="H126">
-        <v>8.433507985936722e-7</v>
+        <v>8.433507985937243e-7</v>
       </c>
       <c r="I126">
-        <v>7.560712999204867e-5</v>
+        <v>7.560712999205288e-5</v>
       </c>
       <c r="J126">
-        <v>0.0019492251867685008</v>
+        <v>0.0019492251867687504</v>
       </c>
       <c r="K126">
-        <v>4.846095495885009e-5</v>
+        <v>4.846095495884619e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.846476801058626e-5</v>
       </c>
       <c r="G127">
-        <v>7.276478118257424</v>
+        <v>7.276478118257389</v>
       </c>
       <c r="H127">
-        <v>8.37289779042996e-7</v>
+        <v>8.372897790430468e-7</v>
       </c>
       <c r="I127">
-        <v>7.780198702160782e-5</v>
+        <v>7.780198702161206e-5</v>
       </c>
       <c r="J127">
-        <v>0.0019496375604188465</v>
+        <v>0.0019496375604190948</v>
       </c>
       <c r="K127">
-        <v>4.846477146772301e-5</v>
+        <v>4.8464771467719164e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4871,7 +4871,7 @@
         <v>8.276142608686574e-7</v>
       </c>
       <c r="D128">
-        <v>8.002251211964514e-5</v>
+        <v>8.002251211964515e-5</v>
       </c>
       <c r="E128">
         <v>0.0019500527379754504</v>
@@ -4880,19 +4880,19 @@
         <v>4.8468631689766065e-5</v>
       </c>
       <c r="G128">
-        <v>7.277586526918893</v>
+        <v>7.277586526918856</v>
       </c>
       <c r="H128">
-        <v>8.311550767722542e-7</v>
+        <v>8.311550767723039e-7</v>
       </c>
       <c r="I128">
-        <v>8.002475689057217e-5</v>
+        <v>8.00247568905764e-5</v>
       </c>
       <c r="J128">
-        <v>0.001950054113264065</v>
+        <v>0.001950054113264312</v>
       </c>
       <c r="K128">
-        <v>4.846863512067537e-5</v>
+        <v>4.846863512067158e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4906,28 +4906,28 @@
         <v>8.214293301662536e-7</v>
       </c>
       <c r="D129">
-        <v>8.227389855785168e-5</v>
+        <v>8.227389855785169e-5</v>
       </c>
       <c r="E129">
-        <v>0.0019504735841382973</v>
+        <v>0.0019504735841382969</v>
       </c>
       <c r="F129">
-        <v>4.8472543661181665e-5</v>
+        <v>4.847254366118166e-5</v>
       </c>
       <c r="G129">
-        <v>7.278703562043626</v>
+        <v>7.27870356204359</v>
       </c>
       <c r="H129">
-        <v>8.24943749241608e-7</v>
+        <v>8.249437492416564e-7</v>
       </c>
       <c r="I129">
-        <v>8.227612687459394e-5</v>
+        <v>8.227612687459817e-5</v>
       </c>
       <c r="J129">
-        <v>0.0019504749437387263</v>
+        <v>0.0019504749437389717</v>
       </c>
       <c r="K129">
-        <v>4.847254706547851e-5</v>
+        <v>4.8472547065474775e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.040734211304670184</v>
       </c>
       <c r="B130">
-        <v>7.27981986084293</v>
+        <v>7.279819860842931</v>
       </c>
       <c r="C130">
         <v>8.151655875085342e-7</v>
       </c>
       <c r="D130">
-        <v>8.455458192491231e-5</v>
+        <v>8.455458192491233e-5</v>
       </c>
       <c r="E130">
-        <v>0.0019508988071255179</v>
+        <v>0.0019508988071255174</v>
       </c>
       <c r="F130">
         <v>4.847650508661744e-5</v>
       </c>
       <c r="G130">
-        <v>7.279829391945662</v>
+        <v>7.279829391945624</v>
       </c>
       <c r="H130">
-        <v>8.186532464904267e-7</v>
+        <v>8.186532464904738e-7</v>
       </c>
       <c r="I130">
-        <v>8.45567935426012e-5</v>
+        <v>8.455679354260545e-5</v>
       </c>
       <c r="J130">
-        <v>0.001950900150947959</v>
+        <v>0.0019509001509482025</v>
       </c>
       <c r="K130">
-        <v>4.8476508463914935e-5</v>
+        <v>4.847650846391124e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,34 +4970,34 @@
         <v>0.04158460374668306</v>
       </c>
       <c r="B131">
-        <v>7.280954746291026</v>
+        <v>7.280954746291024</v>
       </c>
       <c r="C131">
         <v>8.088207198948566e-7</v>
       </c>
       <c r="D131">
-        <v>8.686526812085451e-5</v>
+        <v>8.686526812085453e-5</v>
       </c>
       <c r="E131">
-        <v>0.0019513285066754715</v>
+        <v>0.001951328506675472</v>
       </c>
       <c r="F131">
         <v>4.8480517142044204e-5</v>
       </c>
       <c r="G131">
-        <v>7.280964183154448</v>
+        <v>7.28096418315441</v>
       </c>
       <c r="H131">
-        <v>8.122812558334483e-7</v>
+        <v>8.122812558334942e-7</v>
       </c>
       <c r="I131">
-        <v>8.686746281335096e-5</v>
+        <v>8.68674628133552e-5</v>
       </c>
       <c r="J131">
-        <v>0.0019513298346317835</v>
+        <v>0.0019513298346320253</v>
       </c>
       <c r="K131">
-        <v>4.8480520491968444e-5</v>
+        <v>4.8480520491964785e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.04244620050953257</v>
       </c>
       <c r="B132">
-        <v>7.282098758403995</v>
+        <v>7.282098758403994</v>
       </c>
       <c r="C132">
         <v>8.023925534066023e-7</v>
       </c>
       <c r="D132">
-        <v>8.920667255161513e-5</v>
+        <v>8.920667255161511e-5</v>
       </c>
       <c r="E132">
-        <v>0.0019517627831420626</v>
+        <v>0.0019517627831420628</v>
       </c>
       <c r="F132">
         <v>4.848458101784086e-5</v>
       </c>
       <c r="G132">
-        <v>7.282108100144464</v>
+        <v>7.282108100144426</v>
       </c>
       <c r="H132">
-        <v>8.058256005113252e-7</v>
+        <v>8.058256005113701e-7</v>
       </c>
       <c r="I132">
-        <v>8.920885006995147e-5</v>
+        <v>8.920885006995571e-5</v>
       </c>
       <c r="J132">
-        <v>0.0019517640951455173</v>
+        <v>0.0019517640951457588</v>
       </c>
       <c r="K132">
-        <v>4.848458434000499e-5</v>
+        <v>4.848458434000137e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5049,25 +5049,25 @@
         <v>9.157952030781123e-5</v>
       </c>
       <c r="E133">
-        <v>0.001952201737489196</v>
+        <v>0.0019522017374891958</v>
       </c>
       <c r="F133">
-        <v>4.84886979190572e-5</v>
+        <v>4.848869791905721e-5</v>
       </c>
       <c r="G133">
-        <v>7.283261305164588</v>
+        <v>7.28326130516455</v>
       </c>
       <c r="H133">
-        <v>7.992841748479311e-7</v>
+        <v>7.992841748479751e-7</v>
       </c>
       <c r="I133">
-        <v>9.158168040604013e-5</v>
+        <v>9.15816804060444e-5</v>
       </c>
       <c r="J133">
-        <v>0.0019522030334474653</v>
+        <v>0.0019522030334477062</v>
       </c>
       <c r="K133">
-        <v>4.84887012130523e-5</v>
+        <v>4.8488701213048707e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5081,28 +5081,28 @@
         <v>7.892779533084023e-7</v>
       </c>
       <c r="D134">
-        <v>9.398454636265197e-5</v>
+        <v>9.398454636265195e-5</v>
       </c>
       <c r="E134">
-        <v>0.0019526454712953945</v>
+        <v>0.0019526454712953949</v>
       </c>
       <c r="F134">
         <v>4.8492869065705104e-5</v>
       </c>
       <c r="G134">
-        <v>7.284423958034993</v>
+        <v>7.284423958034954</v>
       </c>
       <c r="H134">
-        <v>7.926549037945753e-7</v>
+        <v>7.926549037946184e-7</v>
       </c>
       <c r="I134">
-        <v>9.398668880828036e-5</v>
+        <v>9.398668880828464e-5</v>
       </c>
       <c r="J134">
-        <v>0.0019526467511226065</v>
+        <v>0.0019526467511228462</v>
       </c>
       <c r="K134">
-        <v>4.849287233116342e-5</v>
+        <v>4.849287233115988e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5116,7 +5116,7 @@
         <v>7.825873892298123e-7</v>
       </c>
       <c r="D135">
-        <v>9.642249578334939e-5</v>
+        <v>9.642249578334934e-5</v>
       </c>
       <c r="E135">
         <v>0.0019530940867650312</v>
@@ -5125,19 +5125,19 @@
         <v>4.8497095693069374e-5</v>
       </c>
       <c r="G135">
-        <v>7.285596215974201</v>
+        <v>7.285596215974162</v>
       </c>
       <c r="H135">
-        <v>7.859357178574316e-7</v>
+        <v>7.859357178574735e-7</v>
       </c>
       <c r="I135">
-        <v>9.642462031007874e-5</v>
+        <v>9.642462031008301e-5</v>
       </c>
       <c r="J135">
-        <v>0.0019530953503701005</v>
+        <v>0.0019530953503703395</v>
       </c>
       <c r="K135">
-        <v>4.8497098929585756e-5</v>
+        <v>4.849709892958226e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5151,7 +5151,7 @@
         <v>7.758052246866655e-7</v>
       </c>
       <c r="D136">
-        <v>9.889412395223489e-5</v>
+        <v>9.88941239522349e-5</v>
       </c>
       <c r="E136">
         <v>0.00195354768674381</v>
@@ -5160,19 +5160,19 @@
         <v>4.850137905203261e-5</v>
       </c>
       <c r="G136">
-        <v>7.28677823362533</v>
+        <v>7.28677823362529</v>
       </c>
       <c r="H136">
-        <v>7.791245387280089e-7</v>
+        <v>7.791245387280494e-7</v>
       </c>
       <c r="I136">
-        <v>9.889623029180129e-5</v>
+        <v>9.88962302918056e-5</v>
       </c>
       <c r="J136">
-        <v>0.0019535489340408332</v>
+        <v>0.0019535489340410713</v>
       </c>
       <c r="K136">
-        <v>4.850138225916926e-5</v>
+        <v>4.8501382259165824e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,13 +5180,13 @@
         <v>0.04693160926752187</v>
       </c>
       <c r="B137">
-        <v>7.287961310116067</v>
+        <v>7.287961310116066</v>
       </c>
       <c r="C137">
         <v>7.689293714488536e-7</v>
       </c>
       <c r="D137">
-        <v>0.00010140019679510434</v>
+        <v>0.00010140019679510427</v>
       </c>
       <c r="E137">
         <v>0.0019540063747369592</v>
@@ -5195,19 +5195,19 @@
         <v>4.8505720409410075e-5</v>
       </c>
       <c r="G137">
-        <v>7.287970162899571</v>
+        <v>7.287970162899532</v>
       </c>
       <c r="H137">
-        <v>7.722192694448737e-7</v>
+        <v>7.722192694449129e-7</v>
       </c>
       <c r="I137">
-        <v>0.00010140228469316587</v>
+        <v>0.0001014022846931702</v>
       </c>
       <c r="J137">
-        <v>0.0019540076056349925</v>
+        <v>0.0019540076056352284</v>
       </c>
       <c r="K137">
-        <v>4.8505723586751684e-5</v>
+        <v>4.850572358674831e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5221,28 +5221,28 @@
         <v>7.619577180963518e-7</v>
       </c>
       <c r="D138">
-        <v>0.00010394149101522624</v>
+        <v>0.00010394149101522625</v>
       </c>
       <c r="E138">
         <v>0.001954470254929159</v>
       </c>
       <c r="F138">
-        <v>4.851012104829227e-5</v>
+        <v>4.851012104829226e-5</v>
       </c>
       <c r="G138">
-        <v>7.289172152926468</v>
+        <v>7.289172152926428</v>
       </c>
       <c r="H138">
-        <v>7.652177899916355e-7</v>
+        <v>7.652177899916733e-7</v>
       </c>
       <c r="I138">
-        <v>0.00010394356019195603</v>
+        <v>0.00010394356019196045</v>
       </c>
       <c r="J138">
-        <v>0.0019544714693352466</v>
+        <v>0.0019544714693354812</v>
       </c>
       <c r="K138">
-        <v>4.851012419542376e-5</v>
+        <v>4.8510124195420456e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5256,28 +5256,28 @@
         <v>7.548881267302548e-7</v>
       </c>
       <c r="D139">
-        <v>0.00010651879433206619</v>
+        <v>0.00010651879433206617</v>
       </c>
       <c r="E139">
-        <v>0.0019549394322056165</v>
+        <v>0.001954939432205617</v>
       </c>
       <c r="F139">
-        <v>4.851458226839366e-5</v>
+        <v>4.851458226839367e-5</v>
       </c>
       <c r="G139">
-        <v>7.290384349979872</v>
+        <v>7.290384349979832</v>
       </c>
       <c r="H139">
-        <v>7.581179533384593e-7</v>
+        <v>7.581179533384955e-7</v>
       </c>
       <c r="I139">
-        <v>0.00010652084451867076</v>
+        <v>0.00010652084451867528</v>
       </c>
       <c r="J139">
-        <v>0.0019549406300286027</v>
+        <v>0.001954940630028836</v>
       </c>
       <c r="K139">
-        <v>4.8514585384882315e-5</v>
+        <v>4.851458538487906e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,7 +5285,7 @@
         <v>0.04977475308849331</v>
       </c>
       <c r="B140">
-        <v>7.291598349180604</v>
+        <v>7.291598349180603</v>
       </c>
       <c r="C140">
         <v>7.477184309038413e-7</v>
@@ -5294,25 +5294,25 @@
         <v>0.0001091329057241767</v>
       </c>
       <c r="E140">
-        <v>0.001955414012173935</v>
+        <v>0.0019554140121739354</v>
       </c>
       <c r="F140">
-        <v>4.8519105386406864e-5</v>
+        <v>4.851910538640686e-5</v>
       </c>
       <c r="G140">
-        <v>7.291606897443688</v>
+        <v>7.291606897443648</v>
       </c>
       <c r="H140">
-        <v>7.509175837940723e-7</v>
+        <v>7.509175837941073e-7</v>
       </c>
       <c r="I140">
-        <v>0.00010913493663780063</v>
+        <v>0.00010913493663780519</v>
       </c>
       <c r="J140">
-        <v>0.0019554151933237206</v>
+        <v>0.0019554151933239535</v>
       </c>
       <c r="K140">
-        <v>4.8519108471813225e-5</v>
+        <v>4.851910847181004e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,13 +5320,13 @@
         <v>0.050749501868359255</v>
       </c>
       <c r="B141">
-        <v>7.292831490860295</v>
+        <v>7.292831490860296</v>
       </c>
       <c r="C141">
         <v>7.404464342233365e-7</v>
       </c>
       <c r="D141">
-        <v>0.00011178463567595895</v>
+        <v>0.00011178463567595892</v>
       </c>
       <c r="E141">
         <v>0.001955894101186596</v>
@@ -5335,19 +5335,19 @@
         <v>4.852369173636157e-5</v>
       </c>
       <c r="G141">
-        <v>7.292839935690034</v>
+        <v>7.292839935689994</v>
       </c>
       <c r="H141">
-        <v>7.43614475738926e-7</v>
+        <v>7.436144757389598e-7</v>
       </c>
       <c r="I141">
-        <v>0.00011178664703369167</v>
+        <v>0.00011178664703369629</v>
       </c>
       <c r="J141">
-        <v>0.001955895265574014</v>
+        <v>0.001955895265574247</v>
       </c>
       <c r="K141">
-        <v>4.852369479025128e-5</v>
+        <v>4.852369479024816e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5361,28 +5361,28 @@
         <v>7.330699093038026e-7</v>
       </c>
       <c r="D142">
-        <v>0.00011447480642815924</v>
+        <v>0.00011447480642815925</v>
       </c>
       <c r="E142">
-        <v>0.0019563798063639464</v>
+        <v>0.0019563798063639455</v>
       </c>
       <c r="F142">
-        <v>4.852834266998834e-5</v>
+        <v>4.852834266998833e-5</v>
       </c>
       <c r="G142">
-        <v>7.294083602062645</v>
+        <v>7.294083602062605</v>
       </c>
       <c r="H142">
-        <v>7.36206392154455e-7</v>
+        <v>7.362063921544877e-7</v>
       </c>
       <c r="I142">
-        <v>0.00011447679793152339</v>
+        <v>0.00011447679793152807</v>
       </c>
       <c r="J142">
-        <v>0.0019563809538906203</v>
+        <v>0.0019563809538908528</v>
       </c>
       <c r="K142">
-        <v>4.852834569189376e-5</v>
+        <v>4.852834569189069e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,7 +5390,7 @@
         <v>0.05274133567109854</v>
       </c>
       <c r="B143">
-        <v>7.295329795842869</v>
+        <v>7.29532979584287</v>
       </c>
       <c r="C143">
         <v>7.255865969046137e-7</v>
@@ -5402,22 +5402,22 @@
         <v>0.00195687123561765</v>
       </c>
       <c r="F143">
-        <v>4.853305955708682e-5</v>
+        <v>4.8533059557086826e-5</v>
       </c>
       <c r="G143">
-        <v>7.2953380308201</v>
+        <v>7.29533803082006</v>
       </c>
       <c r="H143">
-        <v>7.286910641701126e-7</v>
+        <v>7.286910641701442e-7</v>
       </c>
       <c r="I143">
-        <v>0.00011720622358714954</v>
+        <v>0.00011720622358715429</v>
       </c>
       <c r="J143">
-        <v>0.001956872366193158</v>
+        <v>0.0019568723661933895</v>
       </c>
       <c r="K143">
-        <v>4.853306254653391e-5</v>
+        <v>4.853306254653092e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.05375903070864185</v>
       </c>
       <c r="B144">
-        <v>7.296595224486009</v>
+        <v>7.2965952244860075</v>
       </c>
       <c r="C144">
         <v>7.17994205151078e-7</v>
       </c>
       <c r="D144">
-        <v>0.00011997381960734885</v>
+        <v>0.00011997381960734887</v>
       </c>
       <c r="E144">
         <v>0.001957368497674611</v>
       </c>
       <c r="F144">
-        <v>4.85378437858988e-5</v>
+        <v>4.853784378589879e-5</v>
       </c>
       <c r="G144">
-        <v>7.296603353003575</v>
+        <v>7.296603353003535</v>
       </c>
       <c r="H144">
-        <v>7.210661901458643e-7</v>
+        <v>7.210661901458949e-7</v>
       </c>
       <c r="I144">
-        <v>0.00011997577048366931</v>
+        <v>0.00011997577048367418</v>
       </c>
       <c r="J144">
-        <v>0.001957369611202182</v>
+        <v>0.001957369611202412</v>
       </c>
       <c r="K144">
-        <v>4.8537846742417664e-5</v>
+        <v>4.8537846742414716e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5466,28 +5466,28 @@
         <v>7.102904087926184e-7</v>
       </c>
       <c r="D145">
-        <v>0.00012278436760378917</v>
+        <v>0.00012278436760378915</v>
       </c>
       <c r="E145">
         <v>0.001957871702101346</v>
       </c>
       <c r="F145">
-        <v>4.8542696763485664e-5</v>
+        <v>4.854269676348567e-5</v>
       </c>
       <c r="G145">
-        <v>7.29787969645116</v>
+        <v>7.29787969645112</v>
       </c>
       <c r="H145">
-        <v>7.133294347994802e-7</v>
+        <v>7.133294347995097e-7</v>
       </c>
       <c r="I145">
-        <v>0.00012278629771164857</v>
+        <v>0.00012278629771165348</v>
       </c>
       <c r="J145">
-        <v>0.0019578727984820086</v>
+        <v>0.0019578727984822385</v>
       </c>
       <c r="K145">
-        <v>4.854269968658672e-5</v>
+        <v>4.854269968658383e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.05583953553682625</v>
       </c>
       <c r="B146">
-        <v>7.299159273224985</v>
+        <v>7.299159273224986</v>
       </c>
       <c r="C146">
         <v>7.024728484729912e-7</v>
       </c>
       <c r="D146">
-        <v>0.00012563676806661347</v>
+        <v>0.00012563676806661344</v>
       </c>
       <c r="E146">
-        <v>0.0019583809593288625</v>
+        <v>0.001958380959328862</v>
       </c>
       <c r="F146">
         <v>4.854761991611099e-5</v>
       </c>
       <c r="G146">
-        <v>7.299167185707428</v>
+        <v>7.299167185707388</v>
       </c>
       <c r="H146">
-        <v>7.054784287723356e-7</v>
+        <v>7.054784287723643e-7</v>
       </c>
       <c r="I146">
-        <v>0.00012563867706201612</v>
+        <v>0.00012563867706202113</v>
       </c>
       <c r="J146">
-        <v>0.001958382038469955</v>
+        <v>0.0019583820384701835</v>
       </c>
       <c r="K146">
-        <v>4.854762280530536e-5</v>
+        <v>4.8547622805302517e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,7 +5530,7 @@
         <v>0.05690298249833185</v>
       </c>
       <c r="B147">
-        <v>7.30045813900936</v>
+        <v>7.3004581390093595</v>
       </c>
       <c r="C147">
         <v>6.945391299999963e-7</v>
@@ -5545,19 +5545,19 @@
         <v>4.8552614689627674e-5</v>
       </c>
       <c r="G147">
-        <v>7.300465941873116</v>
+        <v>7.3004659418730755</v>
       </c>
       <c r="H147">
-        <v>6.975107675091343e-7</v>
+        <v>6.97510767509162e-7</v>
       </c>
       <c r="I147">
-        <v>0.0001285337934671909</v>
+        <v>0.00012853379346719596</v>
       </c>
       <c r="J147">
-        <v>0.001958897442483625</v>
+        <v>0.0019588974424838523</v>
       </c>
       <c r="K147">
-        <v>4.855261754441471e-5</v>
+        <v>4.8552617544411914e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5571,28 +5571,28 @@
         <v>6.864868236091582e-7</v>
       </c>
       <c r="D148">
-        <v>0.0001314706793695432</v>
+        <v>0.00013147067936954314</v>
       </c>
       <c r="E148">
         <v>0.0019594180783854996</v>
       </c>
       <c r="F148">
-        <v>4.855768254987029e-5</v>
+        <v>4.85576825498703e-5</v>
       </c>
       <c r="G148">
-        <v>7.30177608267541</v>
+        <v>7.301776082675369</v>
       </c>
       <c r="H148">
-        <v>6.894240109766663e-7</v>
+        <v>6.89424010976693e-7</v>
       </c>
       <c r="I148">
-        <v>0.00013147254515873387</v>
+        <v>0.00013147254515873902</v>
       </c>
       <c r="J148">
-        <v>0.001959419122756704</v>
+        <v>0.0019594191227569296</v>
       </c>
       <c r="K148">
-        <v>4.8557685369738253e-5</v>
+        <v>4.855768536973548e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5606,7 +5606,7 @@
         <v>6.783134632184375e-7</v>
       </c>
       <c r="D149">
-        <v>0.00013445400032106134</v>
+        <v>0.0001344540003210614</v>
       </c>
       <c r="E149">
         <v>0.0019599461656301855</v>
@@ -5615,19 +5615,19 @@
         <v>4.8562824983052474e-5</v>
       </c>
       <c r="G149">
-        <v>7.3030977222759486</v>
+        <v>7.303097722275909</v>
       </c>
       <c r="H149">
-        <v>6.812156824103986e-7</v>
+        <v>6.812156824104244e-7</v>
       </c>
       <c r="I149">
-        <v>0.00013445584400079375</v>
+        <v>0.000134455844000799</v>
       </c>
       <c r="J149">
-        <v>0.0019599471924765972</v>
+        <v>0.001959947192476821</v>
       </c>
       <c r="K149">
-        <v>4.8562827767494604e-5</v>
+        <v>4.856282776749188e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.06019002474509338</v>
       </c>
       <c r="B150">
-        <v>7.304423503668294</v>
+        <v>7.3044235036682945</v>
       </c>
       <c r="C150">
         <v>6.700165456719431e-7</v>
       </c>
       <c r="D150">
-        <v>0.0001374827945204184</v>
+        <v>0.00013748279452041837</v>
       </c>
       <c r="E150">
         <v>0.001960480756560337</v>
       </c>
       <c r="F150">
-        <v>4.856804349616954e-5</v>
+        <v>4.856804349616955e-5</v>
       </c>
       <c r="G150">
-        <v>7.304430971261941</v>
+        <v>7.304430971261901</v>
       </c>
       <c r="H150">
-        <v>6.728832680357471e-7</v>
+        <v>6.728832680357719e-7</v>
       </c>
       <c r="I150">
-        <v>0.0001374846157511546</v>
+        <v>0.0001374846157511599</v>
       </c>
       <c r="J150">
-        <v>0.0019604817657859638</v>
+        <v>0.0019604817657861854</v>
       </c>
       <c r="K150">
-        <v>4.856804624466323e-5</v>
+        <v>4.8568046244660546e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.8573339617406535e-5</v>
       </c>
       <c r="G151">
-        <v>7.305775936496068</v>
+        <v>7.305775936496027</v>
       </c>
       <c r="H151">
-        <v>6.64424215954818e-7</v>
+        <v>6.64424215954842e-7</v>
       </c>
       <c r="I151">
-        <v>0.00014055980034718786</v>
+        <v>0.00014055980034719323</v>
       </c>
       <c r="J151">
-        <v>0.0019610229578272834</v>
+        <v>0.0019610229578275037</v>
       </c>
       <c r="K151">
-        <v>4.857334232941242e-5</v>
+        <v>4.857334232940978e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,7 +5705,7 @@
         <v>0.06246533901851619</v>
       </c>
       <c r="B152">
-        <v>7.307125482573297</v>
+        <v>7.307125482573296</v>
       </c>
       <c r="C152">
         <v>6.53041836509909e-7</v>
@@ -5717,22 +5717,22 @@
         <v>0.0019615699110835656</v>
       </c>
       <c r="F152">
-        <v>4.857871489655166e-5</v>
+        <v>4.857871489655165e-5</v>
       </c>
       <c r="G152">
-        <v>7.307132721149149</v>
+        <v>7.307132721149109</v>
       </c>
       <c r="H152">
-        <v>6.558359355898007e-7</v>
+        <v>6.558359355898244e-7</v>
       </c>
       <c r="I152">
-        <v>0.00014368235218041887</v>
+        <v>0.00014368235218042427</v>
       </c>
       <c r="J152">
-        <v>0.0019615708847737982</v>
+        <v>0.001961570884774016</v>
       </c>
       <c r="K152">
-        <v>4.857871757151498e-5</v>
+        <v>4.857871757151238e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5755,19 +5755,19 @@
         <v>4.858417090541549e-5</v>
       </c>
       <c r="G153">
-        <v>7.308501424554446</v>
+        <v>7.3085014245544055</v>
       </c>
       <c r="H153">
-        <v>6.471157965698556e-7</v>
+        <v>6.471157965698787e-7</v>
       </c>
       <c r="I153">
-        <v>0.00014685324042150398</v>
+        <v>0.0001468532404215094</v>
       </c>
       <c r="J153">
-        <v>0.0019621256638577395</v>
+        <v>0.001962125663857955</v>
       </c>
       <c r="K153">
-        <v>4.858417354279652e-5</v>
+        <v>4.8584173542793974e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5784,25 +5784,25 @@
         <v>0.0001500717214902047</v>
       </c>
       <c r="E154">
-        <v>0.0019626864755970313</v>
+        <v>0.0019626864755970318</v>
       </c>
       <c r="F154">
         <v>4.858970923825584e-5</v>
       </c>
       <c r="G154">
-        <v>7.309882142124369</v>
+        <v>7.309882142124329</v>
       </c>
       <c r="H154">
-        <v>6.382611284528304e-7</v>
+        <v>6.382611284528529e-7</v>
       </c>
       <c r="I154">
-        <v>0.00015007344930656935</v>
+        <v>0.0001500734493065748</v>
       </c>
       <c r="J154">
-        <v>0.0019626874133756448</v>
+        <v>0.0019626874133758586</v>
       </c>
       <c r="K154">
-        <v>4.8589711837476576e-5</v>
+        <v>4.858971183747406e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.06601120920034848</v>
       </c>
       <c r="B155">
-        <v>7.311268078754665</v>
+        <v>7.311268078754666</v>
       </c>
       <c r="C155">
         <v>6.265882974248986e-7</v>
       </c>
       <c r="D155">
-        <v>0.0001533422749412313</v>
+        <v>0.00015334227494123132</v>
       </c>
       <c r="E155">
-        <v>0.0019632553330813664</v>
+        <v>0.001963255333081366</v>
       </c>
       <c r="F155">
-        <v>4.85953315122086e-5</v>
+        <v>4.8595331512208606e-5</v>
       </c>
       <c r="G155">
-        <v>7.311274965325757</v>
+        <v>7.311274965325717</v>
       </c>
       <c r="H155">
-        <v>6.292692193338927e-7</v>
+        <v>6.292692193339146e-7</v>
       </c>
       <c r="I155">
-        <v>0.00015334397845064701</v>
+        <v>0.0001533439784506525</v>
       </c>
       <c r="J155">
-        <v>0.0019632562527571425</v>
+        <v>0.001963256252757354</v>
       </c>
       <c r="K155">
-        <v>4.859533407271647e-5</v>
+        <v>4.859533407271398e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5851,28 +5851,28 @@
         <v>6.174952964761553e-7</v>
       </c>
       <c r="D156">
-        <v>0.00015666416432354174</v>
+        <v>0.00015666416432354177</v>
       </c>
       <c r="E156">
-        <v>0.001963831401095272</v>
+        <v>0.0019638314010952725</v>
       </c>
       <c r="F156">
         <v>4.860103936772463e-5</v>
       </c>
       <c r="G156">
-        <v>7.312679981559891</v>
+        <v>7.31267998155985</v>
       </c>
       <c r="H156">
-        <v>6.201373152889811e-7</v>
+        <v>6.201373152890023e-7</v>
       </c>
       <c r="I156">
-        <v>0.0001566658431339135</v>
+        <v>0.00015666584313391897</v>
       </c>
       <c r="J156">
-        <v>0.001963832302581275</v>
+        <v>0.001963832302581485</v>
       </c>
       <c r="K156">
-        <v>4.860104188892493e-5</v>
+        <v>4.86010418889225e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,7 +5880,7 @@
         <v>0.06846794532159939</v>
       </c>
       <c r="B157">
-        <v>7.314090627988724</v>
+        <v>7.314090627988725</v>
       </c>
       <c r="C157">
         <v>6.082601123327915e-7</v>
@@ -5895,19 +5895,19 @@
         <v>4.86068344690128e-5</v>
       </c>
       <c r="G157">
-        <v>7.314097274104647</v>
+        <v>7.314097274104607</v>
       </c>
       <c r="H157">
-        <v>6.1086261967912e-7</v>
+        <v>6.108626196791404e-7</v>
       </c>
       <c r="I157">
-        <v>0.0001600400746488734</v>
+        <v>0.00016004007464887892</v>
       </c>
       <c r="J157">
-        <v>0.001964415684586527</v>
+        <v>0.0019644156845867347</v>
       </c>
       <c r="K157">
-        <v>4.8606836950314956e-5</v>
+        <v>4.860683695031255e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.86127185044895e-5</v>
       </c>
       <c r="G158">
-        <v>7.3155269220197345</v>
+        <v>7.3155269220196955</v>
       </c>
       <c r="H158">
-        <v>6.014422920373246e-7</v>
+        <v>6.014422920373444e-7</v>
       </c>
       <c r="I158">
-        <v>0.0001634677205309854</v>
+        <v>0.00016346772053099095</v>
       </c>
       <c r="J158">
-        <v>0.0019650065217314758</v>
+        <v>0.0019650065217316818</v>
       </c>
       <c r="K158">
-        <v>4.861272094529244e-5</v>
+        <v>4.8612720945290075e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,34 +5950,34 @@
         <v>0.07100243761299213</v>
       </c>
       <c r="B159">
-        <v>7.316962599150041</v>
+        <v>7.316962599150039</v>
       </c>
       <c r="C159">
         <v>5.893518366619801e-7</v>
       </c>
       <c r="D159">
-        <v>0.00016694824266976892</v>
+        <v>0.0001669482426697689</v>
       </c>
       <c r="E159">
-        <v>0.001965604091881438</v>
+        <v>0.0019656040918814384</v>
       </c>
       <c r="F159">
         <v>4.8618693187234556e-5</v>
       </c>
       <c r="G159">
-        <v>7.31696900009807</v>
+        <v>7.316969000098031</v>
       </c>
       <c r="H159">
-        <v>5.918734473729172e-7</v>
+        <v>5.918734473729364e-7</v>
       </c>
       <c r="I159">
-        <v>0.00016694984500561003</v>
+        <v>0.00016694984500561556</v>
       </c>
       <c r="J159">
-        <v>0.0019656049382279907</v>
+        <v>0.001965604938228195</v>
       </c>
       <c r="K159">
-        <v>4.861869558695061e-5</v>
+        <v>4.861869558694827e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5994,25 +5994,25 @@
         <v>0.00017048595320739524</v>
       </c>
       <c r="E160">
-        <v>0.0019662102317712284</v>
+        <v>0.001966210231771229</v>
       </c>
       <c r="F160">
-        <v>4.8624760255453874e-5</v>
+        <v>4.862476025545388e-5</v>
       </c>
       <c r="G160">
-        <v>7.318423578750921</v>
+        <v>7.318423578750882</v>
       </c>
       <c r="H160">
-        <v>5.821531550584321e-7</v>
+        <v>5.821531550584506e-7</v>
       </c>
       <c r="I160">
-        <v>0.00017048752923519932</v>
+        <v>0.00017048752923520482</v>
       </c>
       <c r="J160">
-        <v>0.001966211059560201</v>
+        <v>0.001966211059560404</v>
       </c>
       <c r="K160">
-        <v>4.862476261347267e-5</v>
+        <v>4.8624762613470366e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6020,7 +6020,7 @@
         <v>0.07361779114454015</v>
       </c>
       <c r="B161">
-        <v>7.319884572972694</v>
+        <v>7.319884572972693</v>
       </c>
       <c r="C161">
         <v>5.69840305410037e-7</v>
@@ -6029,25 +6029,25 @@
         <v>0.00017408032235462247</v>
       </c>
       <c r="E161">
-        <v>0.0019668242033813615</v>
+        <v>0.001966824203381362</v>
       </c>
       <c r="F161">
         <v>4.8630921472948937e-5</v>
       </c>
       <c r="G161">
-        <v>7.319890723967872</v>
+        <v>7.319890723967834</v>
       </c>
       <c r="H161">
-        <v>5.722784382730657e-7</v>
+        <v>5.722784382730836e-7</v>
       </c>
       <c r="I161">
-        <v>0.00017408187161966566</v>
+        <v>0.00017408187161967114</v>
       </c>
       <c r="J161">
-        <v>0.0019668250125230513</v>
+        <v>0.0019668250125232526</v>
       </c>
       <c r="K161">
-        <v>4.863092378864019e-5</v>
+        <v>4.863092378863791e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.863717862959324e-5</v>
       </c>
       <c r="G162">
-        <v>7.32137049720165</v>
+        <v>7.321370497201611</v>
       </c>
       <c r="H162">
-        <v>5.622462727504464e-7</v>
+        <v>5.622462727504636e-7</v>
       </c>
       <c r="I162">
-        <v>0.0001777339882593111</v>
+        <v>0.0001777339882593165</v>
       </c>
       <c r="J162">
-        <v>0.001967446925261707</v>
+        <v>0.0019674469252619065</v>
       </c>
       <c r="K162">
-        <v>4.8637180902317935e-5</v>
+        <v>4.86371809023157e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.864353354181598e-5</v>
       </c>
       <c r="G163">
-        <v>7.322862955358712</v>
+        <v>7.322862955358675</v>
       </c>
       <c r="H163">
-        <v>5.520535859438118e-7</v>
+        <v>5.520535859438283e-7</v>
       </c>
       <c r="I163">
-        <v>0.00018144501317006632</v>
+        <v>0.00018144501317007166</v>
       </c>
       <c r="J163">
-        <v>0.0019680769273264257</v>
+        <v>0.0019680769273266235</v>
       </c>
       <c r="K163">
-        <v>4.864353577096321e-5</v>
+        <v>4.864353577096101e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,34 +6125,34 @@
         <v>0.0776994733643714</v>
       </c>
       <c r="B164">
-        <v>7.32436238370823</v>
+        <v>7.324362383708231</v>
       </c>
       <c r="C164">
         <v>5.393894048981556e-7</v>
       </c>
       <c r="D164">
-        <v>0.00018521463235604178</v>
+        <v>0.00018521463235604183</v>
       </c>
       <c r="E164">
-        <v>0.0019687143970112068</v>
+        <v>0.0019687143970112063</v>
       </c>
       <c r="F164">
-        <v>4.864998805309305e-5</v>
+        <v>4.864998805309306e-5</v>
       </c>
       <c r="G164">
-        <v>7.3243681506369525</v>
+        <v>7.324368150636916</v>
       </c>
       <c r="H164">
-        <v>5.416972564694589e-7</v>
+        <v>5.416972564694746e-7</v>
       </c>
       <c r="I164">
-        <v>0.00018521609869293431</v>
+        <v>0.00018521609869293968</v>
       </c>
       <c r="J164">
-        <v>0.0019687151496752897</v>
+        <v>0.0019687151496754858</v>
       </c>
       <c r="K164">
-        <v>4.864999023799435e-5</v>
+        <v>4.86499902379922e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,34 +6160,34 @@
         <v>0.07910400145927939</v>
       </c>
       <c r="B165">
-        <v>7.325880494070481</v>
+        <v>7.32588049407048</v>
       </c>
       <c r="C165">
         <v>5.289110915506857e-7</v>
       </c>
       <c r="D165">
-        <v>0.00018904697807040823</v>
+        <v>0.0001890469780704082</v>
       </c>
       <c r="E165">
         <v>0.001969360991080851</v>
       </c>
       <c r="F165">
-        <v>4.8656544034445616e-5</v>
+        <v>4.865654403444562e-5</v>
       </c>
       <c r="G165">
-        <v>7.325886130522493</v>
+        <v>7.3258861305224565</v>
       </c>
       <c r="H165">
-        <v>5.311741124371039e-7</v>
+        <v>5.311741124371188e-7</v>
       </c>
       <c r="I165">
-        <v>0.0001890484158560835</v>
+        <v>0.0001890484158560889</v>
       </c>
       <c r="J165">
-        <v>0.0019693617247450767</v>
+        <v>0.001969361724745271</v>
       </c>
       <c r="K165">
-        <v>4.865654617444759e-5</v>
+        <v>4.865654617444547e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.08053122448381893</v>
       </c>
       <c r="B166">
-        <v>7.327411432940456</v>
+        <v>7.327411432940455</v>
       </c>
       <c r="C166">
         <v>5.182634654034676e-7</v>
       </c>
       <c r="D166">
-        <v>0.00019294174592203664</v>
+        <v>0.00019294174592203667</v>
       </c>
       <c r="E166">
         <v>0.0019700160718993656</v>
       </c>
       <c r="F166">
-        <v>4.866320338494636e-5</v>
+        <v>4.8663203384946354e-5</v>
       </c>
       <c r="G166">
-        <v>7.327416937664377</v>
+        <v>7.327416937664341</v>
       </c>
       <c r="H166">
-        <v>5.204809311716039e-7</v>
+        <v>5.204809311716178e-7</v>
       </c>
       <c r="I166">
-        <v>0.0001929431546907982</v>
+        <v>0.0001929431546908036</v>
       </c>
       <c r="J166">
-        <v>0.0019700167864823565</v>
+        <v>0.001970016786482548</v>
       </c>
       <c r="K166">
-        <v>4.866320547938349e-5</v>
+        <v>4.866320547938141e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.866996803223365e-5</v>
       </c>
       <c r="G167">
-        <v>7.328960609851318</v>
+        <v>7.328960609851283</v>
       </c>
       <c r="H167">
-        <v>5.096144376824533e-7</v>
+        <v>5.096144376824662e-7</v>
       </c>
       <c r="I167">
-        <v>0.00019690152460972738</v>
+        <v>0.00019690152460973288</v>
       </c>
       <c r="J167">
-        <v>0.0019706804703756536</v>
+        <v>0.0019706804703758427</v>
       </c>
       <c r="K167">
-        <v>4.8669970080454934e-5</v>
+        <v>4.8669970080452895e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,7 +6265,7 @@
         <v>0.08345551079898178</v>
       </c>
       <c r="B168">
-        <v>7.330511942394077</v>
+        <v>7.330511942394076</v>
       </c>
       <c r="C168">
         <v>4.964471781828493e-7</v>
@@ -6280,19 +6280,19 @@
         <v>4.8676839933033864e-5</v>
       </c>
       <c r="G168">
-        <v>7.330517179916426</v>
+        <v>7.3305171799163915</v>
       </c>
       <c r="H168">
-        <v>4.985713041072323e-7</v>
+        <v>4.985713041072443e-7</v>
       </c>
       <c r="I168">
-        <v>0.00020092475483115196</v>
+        <v>0.00020092475483115754</v>
       </c>
       <c r="J168">
-        <v>0.0019713529135082296</v>
+        <v>0.0019713529135084147</v>
       </c>
       <c r="K168">
-        <v>4.867684193435949e-5</v>
+        <v>4.8676841934357504e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6306,7 +6306,7 @@
         <v>4.852718357008952e-7</v>
       </c>
       <c r="D169">
-        <v>0.0002050127758391215</v>
+        <v>0.00020501277583912148</v>
       </c>
       <c r="E169">
         <v>0.0019720335977671225</v>
@@ -6315,19 +6315,19 @@
         <v>4.868382107369198e-5</v>
       </c>
       <c r="G169">
-        <v>7.33208667564916</v>
+        <v>7.332086675649125</v>
       </c>
       <c r="H169">
-        <v>4.873481483202384e-7</v>
+        <v>4.873481483202495e-7</v>
       </c>
       <c r="I169">
-        <v>0.00020501409464831997</v>
+        <v>0.00020501409464832558</v>
       </c>
       <c r="J169">
-        <v>0.0019720342546067043</v>
+        <v>0.0019720342546068847</v>
       </c>
       <c r="K169">
-        <v>4.868382302741977e-5</v>
+        <v>4.868382302741782e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6344,25 +6344,25 @@
         <v>0.00020916952609347135</v>
       </c>
       <c r="E170">
-        <v>0.0019727239966414608</v>
+        <v>0.0019727239966414603</v>
       </c>
       <c r="F170">
         <v>4.869091347071065e-5</v>
       </c>
       <c r="G170">
-        <v>7.333669119755244</v>
+        <v>7.333669119755209</v>
       </c>
       <c r="H170">
-        <v>4.759415332367987e-7</v>
+        <v>4.7594153323680883e-7</v>
       </c>
       <c r="I170">
-        <v>0.00020917081392368074</v>
+        <v>0.0002091708139236864</v>
       </c>
       <c r="J170">
-        <v>0.001972724634077207</v>
+        <v>0.001972724634077383</v>
       </c>
       <c r="K170">
-        <v>4.869091537616688e-5</v>
+        <v>4.8690915376164966e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6370,34 +6370,34 @@
         <v>0.08802331281320179</v>
       </c>
       <c r="B171">
-        <v>7.335259702563315</v>
+        <v>7.335259702563316</v>
       </c>
       <c r="C171">
         <v>4.623696392658438e-7</v>
       </c>
       <c r="D171">
-        <v>0.00021339494706478794</v>
+        <v>0.00021339494706478792</v>
       </c>
       <c r="E171">
-        <v>0.0019734235760948096</v>
+        <v>0.001973423576094809</v>
       </c>
       <c r="F171">
-        <v>4.8698119171298054e-5</v>
+        <v>4.869811917129806e-5</v>
       </c>
       <c r="G171">
-        <v>7.335264529793341</v>
+        <v>7.335264529793306</v>
       </c>
       <c r="H171">
-        <v>4.643479654219009e-7</v>
+        <v>4.6434796542191005e-7</v>
       </c>
       <c r="I171">
-        <v>0.00021339620339717505</v>
+        <v>0.00021339620339718083</v>
       </c>
       <c r="J171">
-        <v>0.0019734241940498705</v>
+        <v>0.001973424194050042</v>
       </c>
       <c r="K171">
-        <v>4.86981210277647e-5</v>
+        <v>4.869812102776284e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.870544025392468e-5</v>
       </c>
       <c r="G172">
-        <v>7.336872918110497</v>
+        <v>7.336872918110462</v>
       </c>
       <c r="H172">
-        <v>4.5256389425536907e-7</v>
+        <v>4.5256389425537727e-7</v>
       </c>
       <c r="I172">
-        <v>0.00021769157513371718</v>
+        <v>0.000217691575133723</v>
       </c>
       <c r="J172">
-        <v>0.0019741330784402464</v>
+        <v>0.0019741330784404133</v>
       </c>
       <c r="K172">
-        <v>4.870544206069546e-5</v>
+        <v>4.870544206069366e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6440,13 +6440,13 @@
         <v>0.0911948698921171</v>
       </c>
       <c r="B173">
-        <v>7.338489744394295</v>
+        <v>7.3384897443942965</v>
       </c>
       <c r="C173">
         <v>4.3870861817787825e-7</v>
       </c>
       <c r="D173">
-        <v>0.0002220570711118756</v>
+        <v>0.00022205707111187567</v>
       </c>
       <c r="E173">
         <v>0.00197485085419636</v>
@@ -6455,19 +6455,19 @@
         <v>4.87128788288892e-5</v>
       </c>
       <c r="G173">
-        <v>7.338494291747353</v>
+        <v>7.338494291747319</v>
       </c>
       <c r="H173">
-        <v>4.405857108187662e-7</v>
+        <v>4.4058571081877345e-7</v>
       </c>
       <c r="I173">
-        <v>0.00022205826289310084</v>
+        <v>0.00022205826289310672</v>
       </c>
       <c r="J173">
-        <v>0.0019748514329725937</v>
+        <v>0.0019748514329727563</v>
       </c>
       <c r="K173">
-        <v>4.8712880585268465e-5</v>
+        <v>4.871288058526672e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,7 +6475,7 @@
         <v>0.09282000039827346</v>
       </c>
       <c r="B174">
-        <v>7.340124246909867</v>
+        <v>7.340124246909868</v>
       </c>
       <c r="C174">
         <v>4.265845270075033e-7</v>
@@ -6487,22 +6487,22 @@
         <v>0.001975578846187721</v>
       </c>
       <c r="F174">
-        <v>4.872043703889382e-5</v>
+        <v>4.8720437038893825e-5</v>
       </c>
       <c r="G174">
-        <v>7.340128652394354</v>
+        <v>7.340128652394319</v>
       </c>
       <c r="H174">
-        <v>4.2840974664316084e-7</v>
+        <v>4.2840974664316725e-7</v>
       </c>
       <c r="I174">
-        <v>0.0002264976225310216</v>
+        <v>0.00022649762253102747</v>
       </c>
       <c r="J174">
-        <v>0.0019755794052649916</v>
+        <v>0.00197557940526515</v>
       </c>
       <c r="K174">
-        <v>4.8720438744146694e-5</v>
+        <v>4.872043874414502e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,7 +6510,7 @@
         <v>0.09447202646593843</v>
       </c>
       <c r="B175">
-        <v>7.341771734036091</v>
+        <v>7.341771734036092</v>
       </c>
       <c r="C175">
         <v>4.142597847272035e-7</v>
@@ -6519,25 +6519,25 @@
         <v>0.00023100990736804638</v>
       </c>
       <c r="E175">
-        <v>0.001976316605546476</v>
+        <v>0.0019763166055464755</v>
       </c>
       <c r="F175">
         <v>4.872811705962915e-5</v>
       </c>
       <c r="G175">
-        <v>7.341775996347385</v>
+        <v>7.341775996347351</v>
       </c>
       <c r="H175">
-        <v>4.160322727351653e-7</v>
+        <v>4.1603227273517095e-7</v>
       </c>
       <c r="I175">
-        <v>0.00023101103242351774</v>
+        <v>0.00023101103242352354</v>
       </c>
       <c r="J175">
-        <v>0.0019763171448589794</v>
+        <v>0.0019763171448591334</v>
       </c>
       <c r="K175">
-        <v>4.872811871302218e-5</v>
+        <v>4.872811871302055e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6551,28 +6551,28 @@
         <v>4.017306167883258e-7</v>
       </c>
       <c r="D176">
-        <v>0.00023559880307343097</v>
+        <v>0.00023559880307343095</v>
       </c>
       <c r="E176">
-        <v>0.0019770642837904496</v>
+        <v>0.001977064283790449</v>
       </c>
       <c r="F176">
         <v>4.873592110036902e-5</v>
       </c>
       <c r="G176">
-        <v>7.343436314497674</v>
+        <v>7.34343631449764</v>
       </c>
       <c r="H176">
-        <v>4.0344949846383784e-7</v>
+        <v>4.034494984638426e-7</v>
       </c>
       <c r="I176">
-        <v>0.00023559989394626103</v>
+        <v>0.00023559989394626683</v>
       </c>
       <c r="J176">
-        <v>0.0019770648032725233</v>
+        <v>0.001977064803272673</v>
       </c>
       <c r="K176">
-        <v>4.873592270119413e-5</v>
+        <v>4.8735922701192585e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,7 +6580,7 @@
         <v>0.0978587974613007</v>
       </c>
       <c r="B177">
-        <v>7.345105620018385</v>
+        <v>7.345105620018384</v>
       </c>
       <c r="C177">
         <v>3.8899318603528724e-7</v>
@@ -6592,22 +6592,22 @@
         <v>0.001977822034472566</v>
       </c>
       <c r="F177">
-        <v>4.874385140457526e-5</v>
+        <v>4.8743851404575264e-5</v>
       </c>
       <c r="G177">
-        <v>7.345109592157303</v>
+        <v>7.345109592157269</v>
       </c>
       <c r="H177">
-        <v>3.9065757016931173e-7</v>
+        <v>3.9065757016931564e-7</v>
       </c>
       <c r="I177">
-        <v>0.00024026563178061521</v>
+        <v>0.00024026563178062096</v>
       </c>
       <c r="J177">
-        <v>0.0019778225340605707</v>
+        <v>0.001977822534060716</v>
       </c>
       <c r="K177">
-        <v>4.8743852952071546e-5</v>
+        <v>4.874385295207008e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6621,7 +6621,7 @@
         <v>3.760435915304211e-7</v>
       </c>
       <c r="D178">
-        <v>0.0002450086736609044</v>
+        <v>0.00024500867366090447</v>
       </c>
       <c r="E178">
         <v>0.001978590013236677</v>
@@ -6630,19 +6630,19 @@
         <v>4.8751910250512966e-5</v>
       </c>
       <c r="G178">
-        <v>7.346795809097904</v>
+        <v>7.3467958090978716</v>
       </c>
       <c r="H178">
-        <v>3.776525701888329e-7</v>
+        <v>3.7765257018883594e-7</v>
       </c>
       <c r="I178">
-        <v>0.0002450096944242573</v>
+        <v>0.00024500969442426296</v>
       </c>
       <c r="J178">
-        <v>0.0019785904928633614</v>
+        <v>0.001978590492863501</v>
       </c>
       <c r="K178">
-        <v>4.875191174392746e-5</v>
+        <v>4.8751911743926066e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6656,7 +6656,7 @@
         <v>3.628778673590644e-7</v>
       </c>
       <c r="D179">
-        <v>0.0002498325698400992</v>
+        <v>0.00024983256984009917</v>
       </c>
       <c r="E179">
         <v>0.0019793683778748165</v>
@@ -6665,19 +6665,19 @@
         <v>4.876009995187624e-5</v>
       </c>
       <c r="G179">
-        <v>7.3484949395146115</v>
+        <v>7.3484949395145795</v>
       </c>
       <c r="H179">
-        <v>3.644305157436607e-7</v>
+        <v>3.6443051574366285e-7</v>
       </c>
       <c r="I179">
-        <v>0.00024983355467780323</v>
+        <v>0.00024983355467780865</v>
       </c>
       <c r="J179">
-        <v>0.0019793688374853038</v>
+        <v>0.001979368837485439</v>
       </c>
       <c r="K179">
-        <v>4.876010139048214e-5</v>
+        <v>4.876010139048081e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,7 +6685,7 @@
         <v>0.10315359537692399</v>
       </c>
       <c r="B180">
-        <v>7.350203424812571</v>
+        <v>7.3502034248125705</v>
       </c>
       <c r="C180">
         <v>3.4949198141537244e-7</v>
@@ -6697,22 +6697,22 @@
         <v>0.001980157288385901</v>
       </c>
       <c r="F180">
-        <v>4.876842285842479e-5</v>
+        <v>4.8768422858424794e-5</v>
       </c>
       <c r="G180">
-        <v>7.3502069519451085</v>
+        <v>7.3502069519450774</v>
       </c>
       <c r="H180">
-        <v>3.509873574085599e-7</v>
+        <v>3.509873574085615e-7</v>
       </c>
       <c r="I180">
-        <v>0.0002547387099986332</v>
+        <v>0.0002547387099986385</v>
       </c>
       <c r="J180">
-        <v>0.0019801577279255113</v>
+        <v>0.0019801577279256414</v>
       </c>
       <c r="K180">
-        <v>4.876842424146918e-5</v>
+        <v>4.8768424241467936e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.10497791896337114</v>
       </c>
       <c r="B181">
-        <v>7.351928433011937</v>
+        <v>7.3519284330119365</v>
       </c>
       <c r="C181">
         <v>3.3588183416712727e-7</v>
       </c>
       <c r="D181">
-        <v>0.00025972577177498467</v>
+        <v>0.0002597257717749846</v>
       </c>
       <c r="E181">
         <v>0.001980956907035894</v>
       </c>
       <c r="F181">
-        <v>4.877688135663172e-5</v>
+        <v>4.877688135663173e-5</v>
       </c>
       <c r="G181">
-        <v>7.351931809208201</v>
+        <v>7.351931809208171</v>
       </c>
       <c r="H181">
-        <v>3.3731897813783757e-7</v>
+        <v>3.373189781378386e-7</v>
       </c>
       <c r="I181">
-        <v>0.00025972668297808</v>
+        <v>0.00025972668297808517</v>
       </c>
       <c r="J181">
-        <v>0.0019809573264506306</v>
+        <v>0.0019809573264507555</v>
       </c>
       <c r="K181">
-        <v>4.8776882683336696e-5</v>
+        <v>4.877688268333552e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.10683286156891172</v>
       </c>
       <c r="B182">
-        <v>7.3536662444704</v>
+        <v>7.353666244470401</v>
       </c>
       <c r="C182">
         <v>3.22043257400389e-7</v>
       </c>
       <c r="D182">
-        <v>0.00026479814839396065</v>
+        <v>0.0002647981483939607</v>
       </c>
       <c r="E182">
-        <v>0.0019817673984194625</v>
+        <v>0.001981767398419462</v>
       </c>
       <c r="F182">
-        <v>4.878547787034264e-5</v>
+        <v>4.8785477870342636e-5</v>
       </c>
       <c r="G182">
-        <v>7.353669468432635</v>
+        <v>7.3536694684326065</v>
       </c>
       <c r="H182">
-        <v>3.2342119173483364e-7</v>
+        <v>3.234211917348342e-7</v>
       </c>
       <c r="I182">
-        <v>0.000264799021837563</v>
+        <v>0.0002647990218375681</v>
       </c>
       <c r="J182">
-        <v>0.001981767797655973</v>
+        <v>0.0019817677976560937</v>
       </c>
       <c r="K182">
-        <v>4.8785479139935696e-5</v>
+        <v>4.878547913993458e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6796,28 +6796,28 @@
         <v>3.0797201294284224e-7</v>
       </c>
       <c r="D183">
-        <v>0.00026995646585566835</v>
+        <v>0.0002699564658556683</v>
       </c>
       <c r="E183">
         <v>0.001982588929523126</v>
       </c>
       <c r="F183">
-        <v>4.87942148614464e-5</v>
+        <v>4.8794214861446405e-5</v>
       </c>
       <c r="G183">
-        <v>7.355419880960028</v>
+        <v>7.35541988096</v>
       </c>
       <c r="H183">
-        <v>3.0928974201709323e-7</v>
+        <v>3.092897420170934e-7</v>
       </c>
       <c r="I183">
-        <v>0.000269957300920052</v>
+        <v>0.0002699573009200569</v>
       </c>
       <c r="J183">
-        <v>0.001982589308529802</v>
+        <v>0.0019825893085299176</v>
       </c>
       <c r="K183">
-        <v>4.8794216073158485e-5</v>
+        <v>4.8794216073157414e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,7 +6825,7 @@
         <v>0.11063688575125284</v>
       </c>
       <c r="B184">
-        <v>7.357180076794994</v>
+        <v>7.357180076794995</v>
       </c>
       <c r="C184">
         <v>2.93663791365899e-7</v>
@@ -6834,25 +6834,25 @@
         <v>0.00027520232505576404</v>
       </c>
       <c r="E184">
-        <v>0.001983421669789945</v>
+        <v>0.0019834216697899444</v>
       </c>
       <c r="F184">
         <v>4.880309483055787e-5</v>
       </c>
       <c r="G184">
-        <v>7.357182992391238</v>
+        <v>7.357182992391213</v>
       </c>
       <c r="H184">
-        <v>2.949203011467205e-7</v>
+        <v>2.9492030114672027e-7</v>
       </c>
       <c r="I184">
-        <v>0.00027520312110944725</v>
+        <v>0.0002752031211094521</v>
       </c>
       <c r="J184">
-        <v>0.001983422028524568</v>
+        <v>0.0019834220285246786</v>
       </c>
       <c r="K184">
-        <v>4.880309598363157e-5</v>
+        <v>4.880309598363052e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6866,28 +6866,28 @@
         <v>2.7911421066485515e-7</v>
       </c>
       <c r="D185">
-        <v>0.0002805373539442491</v>
+        <v>0.00028053735394424905</v>
       </c>
       <c r="E185">
-        <v>0.001984265791185735</v>
+        <v>0.0019842657911857344</v>
       </c>
       <c r="F185">
-        <v>4.88121203177128e-5</v>
+        <v>4.881212031771281e-5</v>
       </c>
       <c r="G185">
-        <v>7.3589587424371254</v>
+        <v>7.358958742437101</v>
       </c>
       <c r="H185">
-        <v>2.803084682390049e-7</v>
+        <v>2.8030846823900443e-7</v>
       </c>
       <c r="I185">
-        <v>0.00028053811034264045</v>
+        <v>0.0002805381103426452</v>
       </c>
       <c r="J185">
-        <v>0.0019842661296045156</v>
+        <v>0.001984266129604621</v>
       </c>
       <c r="K185">
-        <v>4.881212141135878e-5</v>
+        <v>4.881212141135775e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6901,7 +6901,7 @@
         <v>2.643188149169085e-7</v>
       </c>
       <c r="D186">
-        <v>0.0002859632080205859</v>
+        <v>0.0002859632080205858</v>
       </c>
       <c r="E186">
         <v>0.0019851214682668444</v>
@@ -6910,19 +6910,19 @@
         <v>4.8821293903075385e-5</v>
       </c>
       <c r="G186">
-        <v>7.360747065032866</v>
+        <v>7.360747065032843</v>
       </c>
       <c r="H186">
-        <v>2.654497683884557e-7</v>
+        <v>2.65449768388455e-7</v>
       </c>
       <c r="I186">
-        <v>0.0002859639241241261</v>
+        <v>0.0002859639241241307</v>
       </c>
       <c r="J186">
-        <v>0.001985121786327947</v>
+        <v>0.001985121786328047</v>
       </c>
       <c r="K186">
-        <v>4.88212949365032e-5</v>
+        <v>4.882129493650221e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.883061820765842e-5</v>
       </c>
       <c r="G187">
-        <v>7.3625478882289865</v>
+        <v>7.362547888228964</v>
       </c>
       <c r="H187">
-        <v>2.503396509991547e-7</v>
+        <v>2.5033965099915393e-7</v>
       </c>
       <c r="I187">
-        <v>0.0002914822459776716</v>
+        <v>0.000291482245977676</v>
       </c>
       <c r="J187">
-        <v>0.0019859891759174205</v>
+        <v>0.001985989175917515</v>
       </c>
       <c r="K187">
-        <v>4.8830619180102134e-5</v>
+        <v>4.883061918010119e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,7 +6965,7 @@
         <v>0.11863800826209053</v>
       </c>
       <c r="B188">
-        <v>7.364358850835929</v>
+        <v>7.36435885083593</v>
       </c>
       <c r="C188">
         <v>2.339723767876081e-7</v>
@@ -6974,25 +6974,25 @@
         <v>0.0002970941545105283</v>
       </c>
       <c r="E188">
-        <v>0.001986868201080754</v>
+        <v>0.0019868682010807538</v>
       </c>
       <c r="F188">
         <v>4.884009589405678e-5</v>
       </c>
       <c r="G188">
-        <v>7.3643611341907285</v>
+        <v>7.364361134190708</v>
       </c>
       <c r="H188">
-        <v>2.349734883933815e-7</v>
+        <v>2.349734883933806e-7</v>
       </c>
       <c r="I188">
-        <v>0.0002970947880174935</v>
+        <v>0.00029709478801749774</v>
       </c>
       <c r="J188">
-        <v>0.0019868684783261106</v>
+        <v>0.0019868684783261995</v>
       </c>
       <c r="K188">
-        <v>4.884009680472342e-5</v>
+        <v>4.884009680472251e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7006,7 +7006,7 @@
         <v>2.1841204057227745e-7</v>
       </c>
       <c r="D189">
-        <v>0.0003028027002427513</v>
+        <v>0.00030280270024275117</v>
       </c>
       <c r="E189">
         <v>0.0019877596195109815</v>
@@ -7015,19 +7015,19 @@
         <v>4.884972966719424e-5</v>
       </c>
       <c r="G189">
-        <v>7.3661867192158</v>
+        <v>7.36618671921578</v>
       </c>
       <c r="H189">
-        <v>2.1934657455937294e-7</v>
+        <v>2.193465745593719e-7</v>
       </c>
       <c r="I189">
-        <v>0.00030280329142808623</v>
+        <v>0.00030280329142809025</v>
       </c>
       <c r="J189">
-        <v>0.0019877598763010443</v>
+        <v>0.0019877598763011275</v>
       </c>
       <c r="K189">
-        <v>4.8849730515304145e-5</v>
+        <v>4.884973051530328e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7041,28 +7041,28 @@
         <v>2.02587298796075e-7</v>
       </c>
       <c r="D190">
-        <v>0.0003086089788494056</v>
+        <v>0.00030860897884940554</v>
       </c>
       <c r="E190">
         <v>0.0019886633191680556</v>
       </c>
       <c r="F190">
-        <v>4.8859522275083994e-5</v>
+        <v>4.8859522275084e-5</v>
       </c>
       <c r="G190">
-        <v>7.368024553701591</v>
+        <v>7.368024553701574</v>
       </c>
       <c r="H190">
-        <v>2.0345412375994776e-7</v>
+        <v>2.0345412375994664e-7</v>
       </c>
       <c r="I190">
-        <v>0.00030860952701060394</v>
+        <v>0.0003086095270106077</v>
       </c>
       <c r="J190">
-        <v>0.0019886635554743123</v>
+        <v>0.0019886635554743895</v>
       </c>
       <c r="K190">
-        <v>4.8859523059848046e-5</v>
+        <v>4.885952305984722e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7076,7 +7076,7 @@
         <v>1.8649330500806208e-7</v>
       </c>
       <c r="D191">
-        <v>0.0003145147912980097</v>
+        <v>0.00031451479129800965</v>
       </c>
       <c r="E191">
         <v>0.001989579488633092</v>
@@ -7085,19 +7085,19 @@
         <v>4.886947650960341e-5</v>
       </c>
       <c r="G191">
-        <v>7.369874542170355</v>
+        <v>7.369874542170338</v>
       </c>
       <c r="H191">
-        <v>1.8729126858458498e-7</v>
+        <v>1.872912685845838e-7</v>
       </c>
       <c r="I191">
-        <v>0.00031451529574021397</v>
+        <v>0.0003145152957402175</v>
       </c>
       <c r="J191">
-        <v>0.0019895797044366613</v>
+        <v>0.0019895797044367316</v>
       </c>
       <c r="K191">
-        <v>4.886947723021682e-5</v>
+        <v>4.886947723021604e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,7 +7105,7 @@
         <v>0.12719618442126782</v>
       </c>
       <c r="B192">
-        <v>7.371734952697091</v>
+        <v>7.37173495269709</v>
       </c>
       <c r="C192">
         <v>1.7012513029685346e-7</v>
@@ -7114,25 +7114,25 @@
         <v>0.00032052196925488473</v>
       </c>
       <c r="E192">
-        <v>0.0019905083195178486</v>
+        <v>0.001990508319517849</v>
       </c>
       <c r="F192">
-        <v>4.887959520728294e-5</v>
+        <v>4.887959520728293e-5</v>
       </c>
       <c r="G192">
-        <v>7.371736583242923</v>
+        <v>7.371736583242908</v>
       </c>
       <c r="H192">
-        <v>1.708530592537271e-7</v>
+        <v>1.7085305925372594e-7</v>
       </c>
       <c r="I192">
-        <v>0.00032052242923492886</v>
+        <v>0.00032052242923493205</v>
       </c>
       <c r="J192">
-        <v>0.0019905085147940227</v>
+        <v>0.001990508514794087</v>
       </c>
       <c r="K192">
-        <v>4.8879595862956264e-5</v>
+        <v>4.8879595862955545e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7146,28 +7146,28 @@
         <v>1.5347776178117209e-7</v>
       </c>
       <c r="D193">
-        <v>0.0003266323756413415</v>
+        <v>0.0003266323756413414</v>
       </c>
       <c r="E193">
         <v>0.0019914500065437595</v>
       </c>
       <c r="F193">
-        <v>4.8889881250109994e-5</v>
+        <v>4.888988125011e-5</v>
       </c>
       <c r="G193">
-        <v>7.373610569652139</v>
+        <v>7.373610569652126</v>
       </c>
       <c r="H193">
-        <v>1.541344612534494e-7</v>
+        <v>1.5413446125344825e-7</v>
       </c>
       <c r="I193">
-        <v>0.00032663279043576945</v>
+        <v>0.0003266327904357723</v>
       </c>
       <c r="J193">
-        <v>0.0019914501812763772</v>
+        <v>0.0019914501812764345</v>
       </c>
       <c r="K193">
-        <v>4.888988184005646e-5</v>
+        <v>4.8889881840055804e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7181,7 +7181,7 @@
         <v>1.3654610107405398e-7</v>
       </c>
       <c r="D194">
-        <v>0.00033284790519926043</v>
+        <v>0.0003328479051992604</v>
       </c>
       <c r="E194">
         <v>0.0019924047476226154</v>
@@ -7190,19 +7190,19 @@
         <v>4.8900337566347795e-5</v>
       </c>
       <c r="G194">
-        <v>7.375496388270052</v>
+        <v>7.37549638827004</v>
       </c>
       <c r="H194">
-        <v>1.3713035436148965e-7</v>
+        <v>1.3713035436148854e-7</v>
       </c>
       <c r="I194">
-        <v>0.00033284827406215704</v>
+        <v>0.00033284827406215964</v>
       </c>
       <c r="J194">
-        <v>0.00199240490179942</v>
+        <v>0.0019924049017994707</v>
       </c>
       <c r="K194">
-        <v>4.890033808978407e-5</v>
+        <v>4.890033808978349e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.13400551147788609</v>
       </c>
       <c r="B195">
-        <v>7.377392792514669</v>
+        <v>7.3773927925146685</v>
       </c>
       <c r="C195">
         <v>1.1932496272226112e-7</v>
       </c>
       <c r="D195">
-        <v>0.00033917048506624435</v>
+        <v>0.0003391704850662443</v>
       </c>
       <c r="E195">
-        <v>0.001993372743938909</v>
+        <v>0.0019933727439389094</v>
       </c>
       <c r="F195">
-        <v>4.8910967131369555e-5</v>
+        <v>4.891096713136955e-5</v>
       </c>
       <c r="G195">
-        <v>7.377393920113655</v>
+        <v>7.3773939201136445</v>
       </c>
       <c r="H195">
-        <v>1.19835531116733e-7</v>
+        <v>1.19835531116732e-7</v>
       </c>
       <c r="I195">
-        <v>0.0003391708072602431</v>
+        <v>0.0003391708072602454</v>
       </c>
       <c r="J195">
-        <v>0.001993372877550804</v>
+        <v>0.001993372877550848</v>
       </c>
       <c r="K195">
-        <v>4.891096758749929e-5</v>
+        <v>4.891096758749878e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,7 +7245,7 @@
         <v>0.13635336641824583</v>
       </c>
       <c r="B196">
-        <v>7.379302082909509</v>
+        <v>7.3793020829095095</v>
       </c>
       <c r="C196">
         <v>1.0180907261743927e-7</v>
@@ -7254,25 +7254,25 @@
         <v>0.00034560207536052357</v>
       </c>
       <c r="E196">
-        <v>0.001994354200033833</v>
+        <v>0.0019943542000338326</v>
       </c>
       <c r="F196">
-        <v>4.8921772968508605e-5</v>
+        <v>4.892177296850861e-5</v>
       </c>
       <c r="G196">
-        <v>7.379303040351645</v>
+        <v>7.379303040351636</v>
       </c>
       <c r="H196">
-        <v>1.0224469459301507e-7</v>
+        <v>1.0224469459301419e-7</v>
       </c>
       <c r="I196">
-        <v>0.00034560235013513354</v>
+        <v>0.00034560235013513543</v>
       </c>
       <c r="J196">
-        <v>0.001994354313072022</v>
+        <v>0.0019943543130720594</v>
       </c>
       <c r="K196">
-        <v>4.892177335655603e-5</v>
+        <v>4.8921773356555574e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7295,19 +7295,19 @@
         <v>4.893275814992451e-5</v>
       </c>
       <c r="G197">
-        <v>7.381223618363445</v>
+        <v>7.381223618363438</v>
       </c>
       <c r="H197">
-        <v>8.43524575642863e-8</v>
+        <v>8.435245756428556e-8</v>
       </c>
       <c r="I197">
-        <v>0.00035214489635446194</v>
+        <v>0.00035214489635446345</v>
       </c>
       <c r="J197">
-        <v>0.00199534941635808</v>
+        <v>0.0019953494163581107</v>
       </c>
       <c r="K197">
-        <v>4.893275846912467e-5</v>
+        <v>4.8932758469124284e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7324,25 +7324,25 @@
         <v>0.00035880029618619633</v>
       </c>
       <c r="E198">
-        <v>0.0019963583270235464</v>
+        <v>0.001996358327023546</v>
       </c>
       <c r="F198">
-        <v>4.8943925797485713e-5</v>
+        <v>4.894392579748572e-5</v>
       </c>
       <c r="G198">
-        <v>7.383155517729517</v>
+        <v>7.383155517729512</v>
       </c>
       <c r="H198">
-        <v>6.615334041754983e-8</v>
+        <v>6.615334041754923e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003588004738098563</v>
+        <v>0.0003588004738098575</v>
       </c>
       <c r="J198">
-        <v>0.001996358398916793</v>
+        <v>0.0019963583989168164</v>
       </c>
       <c r="K198">
-        <v>4.89439260470616e-5</v>
+        <v>4.894392604706129e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7356,28 +7356,28 @@
         <v>4.7438786767279776e-8</v>
       </c>
       <c r="D199">
-        <v>0.00036557101726156644</v>
+        <v>0.00036557101726156634</v>
       </c>
       <c r="E199">
-        <v>0.00199738142456363</v>
+        <v>0.0019973814245636302</v>
       </c>
       <c r="F199">
         <v>4.895527908366906e-5</v>
       </c>
       <c r="G199">
-        <v>7.385098596288706</v>
+        <v>7.385098596288701</v>
       </c>
       <c r="H199">
-        <v>4.764176948320742e-8</v>
+        <v>4.764176948320698e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003655711451294048</v>
+        <v>0.00036557114512940575</v>
       </c>
       <c r="J199">
-        <v>0.0019973814758910244</v>
+        <v>0.0019973814758910417</v>
       </c>
       <c r="K199">
-        <v>4.8955279262848904e-5</v>
+        <v>4.895527926284868e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,19 +7400,19 @@
         <v>4.8966821232476484e-5</v>
       </c>
       <c r="G200">
-        <v>7.387052706175707</v>
+        <v>7.387052706175704</v>
       </c>
       <c r="H200">
-        <v>2.881207536540447e-8</v>
+        <v>2.88120753654042e-8</v>
       </c>
       <c r="I200">
-        <v>0.0003724590083784215</v>
+        <v>0.00037245900837842204</v>
       </c>
       <c r="J200">
-        <v>0.0019984188661209034</v>
+        <v>0.001998418866120914</v>
       </c>
       <c r="K200">
-        <v>4.8966821340492226e-5</v>
+        <v>4.896682134049209e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7429,25 +7429,25 @@
         <v>0.0003794661718305813</v>
       </c>
       <c r="E201">
-        <v>0.001999470782033879</v>
+        <v>0.0019994707820338788</v>
       </c>
       <c r="F201">
-        <v>4.8978555520369374e-5</v>
+        <v>4.897855552036938e-5</v>
       </c>
       <c r="G201">
-        <v>7.389017693867687</v>
+        <v>7.389017693867686</v>
       </c>
       <c r="H201">
-        <v>9.658491411510543e-9</v>
+        <v>9.658491411510454e-9</v>
       </c>
       <c r="I201">
-        <v>0.00037946619773323713</v>
+        <v>0.0003794661977332374</v>
       </c>
       <c r="J201">
-        <v>0.0019994707922584257</v>
+        <v>0.001999470792258429</v>
       </c>
       <c r="K201">
-        <v>4.897855555646151e-5</v>
+        <v>4.897855555646146e-5</v>
       </c>
     </row>
   </sheetData>
